--- a/documents/employees/EMPLOYEES.xlsx
+++ b/documents/employees/EMPLOYEES.xlsx
@@ -21,14 +21,14 @@
     <sheet name="ESI" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Employee Master'!$A$1:$AF$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Employee Master'!$A$1:$AF$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="168">
   <si>
     <t>Sl.No</t>
   </si>
@@ -512,9 +512,6 @@
     <t xml:space="preserve">sample remarks </t>
   </si>
   <si>
-    <t>C S Premchand</t>
-  </si>
-  <si>
     <t>TN MAS 054110 000 0054322</t>
   </si>
   <si>
@@ -597,6 +594,15 @@
   </si>
   <si>
     <t>10-Jun-2048</t>
+  </si>
+  <si>
+    <t>A-8263</t>
+  </si>
+  <si>
+    <t>Premchand C S</t>
+  </si>
+  <si>
+    <t>Samvedya K Nair</t>
   </si>
 </sst>
 </file>
@@ -1529,6 +1535,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1547,12 +1560,42 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1562,43 +1605,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1908,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1923,7 +1929,7 @@
     <col min="5" max="5" width="9.140625" style="50" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="137" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="159" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="138" customWidth="1"/>
     <col min="10" max="10" width="11" style="4" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
@@ -1945,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E1" s="124" t="s">
         <v>80</v>
@@ -1984,7 +1990,7 @@
         <v>6</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P1" s="45" t="s">
         <v>86</v>
@@ -1993,7 +1999,7 @@
         <v>87</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S1" s="45" t="s">
         <v>88</v>
@@ -2038,201 +2044,295 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="36">
-      <c r="A2" s="42">
+    <row r="4" spans="1:32" ht="36">
+      <c r="A4" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B4" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="G4" s="125" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="140" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="47">
+        <v>9846999378</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="45">
+        <v>123</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" s="127">
+        <v>100904319456</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="T4" s="126" t="s">
+        <v>133</v>
+      </c>
+      <c r="U4" s="48">
+        <v>1000100100</v>
+      </c>
+      <c r="V4" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="W4" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="X4" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y4" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z4" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA4" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB4" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC4" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="48">
+      <c r="A5" s="42">
+        <v>2</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="139" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="125" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="140" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="47">
+        <v>9446118148</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="N5" s="45">
+        <v>345</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="R5" s="127">
+        <v>100904319457</v>
+      </c>
+      <c r="S5" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="T5" s="126" t="s">
+        <v>138</v>
+      </c>
+      <c r="U5" s="48">
+        <v>1000100101</v>
+      </c>
+      <c r="V5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="50" t="s">
+      <c r="W5" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="X5" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y5" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z5" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA5" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC5" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="48">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F6" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="125" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="161" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" s="46" t="s">
+      <c r="G6" s="125" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="140" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="47">
-        <v>9846999378</v>
-      </c>
-      <c r="K2" s="45" t="s">
+      <c r="J6" s="47">
+        <v>9446118148</v>
+      </c>
+      <c r="K6" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L6" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M6" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="N2" s="45">
-        <v>123</v>
-      </c>
-      <c r="O2" s="45" t="s">
+      <c r="N6" s="45">
+        <v>345</v>
+      </c>
+      <c r="O6" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P6" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="Q6" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="R2" s="127">
-        <v>100904319456</v>
-      </c>
-      <c r="S2" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="T2" s="126" t="s">
-        <v>133</v>
-      </c>
-      <c r="U2" s="48">
-        <v>1000100100</v>
-      </c>
-      <c r="V2" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="W2" s="48" t="s">
+      <c r="R6" s="127">
+        <v>100904319457</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="T6" s="126" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" s="48">
+        <v>1000100101</v>
+      </c>
+      <c r="V6" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="W6" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="X2" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y2" s="48" t="s">
+      <c r="X6" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y6" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="Z2" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA2" s="48" t="s">
+      <c r="Z6" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA6" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AB2" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC2" s="48" t="s">
+      <c r="AB6" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC6" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="48">
-      <c r="A3" s="42">
-        <v>2</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="125" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" s="161" t="s">
-        <v>165</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" s="47">
-        <v>9446118148</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="N3" s="45">
-        <v>345</v>
-      </c>
-      <c r="O3" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="P3" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="R3" s="127">
-        <v>100904319457</v>
-      </c>
-      <c r="S3" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="T3" s="126" t="s">
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48" t="s">
         <v>139</v>
-      </c>
-      <c r="U3" s="48">
-        <v>1000100101</v>
-      </c>
-      <c r="V3" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="W3" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="X3" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y3" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z3" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA3" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB3" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC3" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AF3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E65509:E65518 WVM983013:WVM983022 WLQ983013:WLQ983022 WBU983013:WBU983022 VRY983013:VRY983022 VIC983013:VIC983022 UYG983013:UYG983022 UOK983013:UOK983022 UEO983013:UEO983022 TUS983013:TUS983022 TKW983013:TKW983022 TBA983013:TBA983022 SRE983013:SRE983022 SHI983013:SHI983022 RXM983013:RXM983022 RNQ983013:RNQ983022 RDU983013:RDU983022 QTY983013:QTY983022 QKC983013:QKC983022 QAG983013:QAG983022 PQK983013:PQK983022 PGO983013:PGO983022 OWS983013:OWS983022 OMW983013:OMW983022 ODA983013:ODA983022 NTE983013:NTE983022 NJI983013:NJI983022 MZM983013:MZM983022 MPQ983013:MPQ983022 MFU983013:MFU983022 LVY983013:LVY983022 LMC983013:LMC983022 LCG983013:LCG983022 KSK983013:KSK983022 KIO983013:KIO983022 JYS983013:JYS983022 JOW983013:JOW983022 JFA983013:JFA983022 IVE983013:IVE983022 ILI983013:ILI983022 IBM983013:IBM983022 HRQ983013:HRQ983022 HHU983013:HHU983022 GXY983013:GXY983022 GOC983013:GOC983022 GEG983013:GEG983022 FUK983013:FUK983022 FKO983013:FKO983022 FAS983013:FAS983022 EQW983013:EQW983022 EHA983013:EHA983022 DXE983013:DXE983022 DNI983013:DNI983022 DDM983013:DDM983022 CTQ983013:CTQ983022 CJU983013:CJU983022 BZY983013:BZY983022 BQC983013:BQC983022 BGG983013:BGG983022 AWK983013:AWK983022 AMO983013:AMO983022 ACS983013:ACS983022 SW983013:SW983022 JA983013:JA983022 E983013:E983022 WVM917477:WVM917486 WLQ917477:WLQ917486 WBU917477:WBU917486 VRY917477:VRY917486 VIC917477:VIC917486 UYG917477:UYG917486 UOK917477:UOK917486 UEO917477:UEO917486 TUS917477:TUS917486 TKW917477:TKW917486 TBA917477:TBA917486 SRE917477:SRE917486 SHI917477:SHI917486 RXM917477:RXM917486 RNQ917477:RNQ917486 RDU917477:RDU917486 QTY917477:QTY917486 QKC917477:QKC917486 QAG917477:QAG917486 PQK917477:PQK917486 PGO917477:PGO917486 OWS917477:OWS917486 OMW917477:OMW917486 ODA917477:ODA917486 NTE917477:NTE917486 NJI917477:NJI917486 MZM917477:MZM917486 MPQ917477:MPQ917486 MFU917477:MFU917486 LVY917477:LVY917486 LMC917477:LMC917486 LCG917477:LCG917486 KSK917477:KSK917486 KIO917477:KIO917486 JYS917477:JYS917486 JOW917477:JOW917486 JFA917477:JFA917486 IVE917477:IVE917486 ILI917477:ILI917486 IBM917477:IBM917486 HRQ917477:HRQ917486 HHU917477:HHU917486 GXY917477:GXY917486 GOC917477:GOC917486 GEG917477:GEG917486 FUK917477:FUK917486 FKO917477:FKO917486 FAS917477:FAS917486 EQW917477:EQW917486 EHA917477:EHA917486 DXE917477:DXE917486 DNI917477:DNI917486 DDM917477:DDM917486 CTQ917477:CTQ917486 CJU917477:CJU917486 BZY917477:BZY917486 BQC917477:BQC917486 BGG917477:BGG917486 AWK917477:AWK917486 AMO917477:AMO917486 ACS917477:ACS917486 SW917477:SW917486 JA917477:JA917486 E917477:E917486 WVM851941:WVM851950 WLQ851941:WLQ851950 WBU851941:WBU851950 VRY851941:VRY851950 VIC851941:VIC851950 UYG851941:UYG851950 UOK851941:UOK851950 UEO851941:UEO851950 TUS851941:TUS851950 TKW851941:TKW851950 TBA851941:TBA851950 SRE851941:SRE851950 SHI851941:SHI851950 RXM851941:RXM851950 RNQ851941:RNQ851950 RDU851941:RDU851950 QTY851941:QTY851950 QKC851941:QKC851950 QAG851941:QAG851950 PQK851941:PQK851950 PGO851941:PGO851950 OWS851941:OWS851950 OMW851941:OMW851950 ODA851941:ODA851950 NTE851941:NTE851950 NJI851941:NJI851950 MZM851941:MZM851950 MPQ851941:MPQ851950 MFU851941:MFU851950 LVY851941:LVY851950 LMC851941:LMC851950 LCG851941:LCG851950 KSK851941:KSK851950 KIO851941:KIO851950 JYS851941:JYS851950 JOW851941:JOW851950 JFA851941:JFA851950 IVE851941:IVE851950 ILI851941:ILI851950 IBM851941:IBM851950 HRQ851941:HRQ851950 HHU851941:HHU851950 GXY851941:GXY851950 GOC851941:GOC851950 GEG851941:GEG851950 FUK851941:FUK851950 FKO851941:FKO851950 FAS851941:FAS851950 EQW851941:EQW851950 EHA851941:EHA851950 DXE851941:DXE851950 DNI851941:DNI851950 DDM851941:DDM851950 CTQ851941:CTQ851950 CJU851941:CJU851950 BZY851941:BZY851950 BQC851941:BQC851950 BGG851941:BGG851950 AWK851941:AWK851950 AMO851941:AMO851950 ACS851941:ACS851950 SW851941:SW851950 JA851941:JA851950 E851941:E851950 WVM786405:WVM786414 WLQ786405:WLQ786414 WBU786405:WBU786414 VRY786405:VRY786414 VIC786405:VIC786414 UYG786405:UYG786414 UOK786405:UOK786414 UEO786405:UEO786414 TUS786405:TUS786414 TKW786405:TKW786414 TBA786405:TBA786414 SRE786405:SRE786414 SHI786405:SHI786414 RXM786405:RXM786414 RNQ786405:RNQ786414 RDU786405:RDU786414 QTY786405:QTY786414 QKC786405:QKC786414 QAG786405:QAG786414 PQK786405:PQK786414 PGO786405:PGO786414 OWS786405:OWS786414 OMW786405:OMW786414 ODA786405:ODA786414 NTE786405:NTE786414 NJI786405:NJI786414 MZM786405:MZM786414 MPQ786405:MPQ786414 MFU786405:MFU786414 LVY786405:LVY786414 LMC786405:LMC786414 LCG786405:LCG786414 KSK786405:KSK786414 KIO786405:KIO786414 JYS786405:JYS786414 JOW786405:JOW786414 JFA786405:JFA786414 IVE786405:IVE786414 ILI786405:ILI786414 IBM786405:IBM786414 HRQ786405:HRQ786414 HHU786405:HHU786414 GXY786405:GXY786414 GOC786405:GOC786414 GEG786405:GEG786414 FUK786405:FUK786414 FKO786405:FKO786414 FAS786405:FAS786414 EQW786405:EQW786414 EHA786405:EHA786414 DXE786405:DXE786414 DNI786405:DNI786414 DDM786405:DDM786414 CTQ786405:CTQ786414 CJU786405:CJU786414 BZY786405:BZY786414 BQC786405:BQC786414 BGG786405:BGG786414 AWK786405:AWK786414 AMO786405:AMO786414 ACS786405:ACS786414 SW786405:SW786414 JA786405:JA786414 E786405:E786414 WVM720869:WVM720878 WLQ720869:WLQ720878 WBU720869:WBU720878 VRY720869:VRY720878 VIC720869:VIC720878 UYG720869:UYG720878 UOK720869:UOK720878 UEO720869:UEO720878 TUS720869:TUS720878 TKW720869:TKW720878 TBA720869:TBA720878 SRE720869:SRE720878 SHI720869:SHI720878 RXM720869:RXM720878 RNQ720869:RNQ720878 RDU720869:RDU720878 QTY720869:QTY720878 QKC720869:QKC720878 QAG720869:QAG720878 PQK720869:PQK720878 PGO720869:PGO720878 OWS720869:OWS720878 OMW720869:OMW720878 ODA720869:ODA720878 NTE720869:NTE720878 NJI720869:NJI720878 MZM720869:MZM720878 MPQ720869:MPQ720878 MFU720869:MFU720878 LVY720869:LVY720878 LMC720869:LMC720878 LCG720869:LCG720878 KSK720869:KSK720878 KIO720869:KIO720878 JYS720869:JYS720878 JOW720869:JOW720878 JFA720869:JFA720878 IVE720869:IVE720878 ILI720869:ILI720878 IBM720869:IBM720878 HRQ720869:HRQ720878 HHU720869:HHU720878 GXY720869:GXY720878 GOC720869:GOC720878 GEG720869:GEG720878 FUK720869:FUK720878 FKO720869:FKO720878 FAS720869:FAS720878 EQW720869:EQW720878 EHA720869:EHA720878 DXE720869:DXE720878 DNI720869:DNI720878 DDM720869:DDM720878 CTQ720869:CTQ720878 CJU720869:CJU720878 BZY720869:BZY720878 BQC720869:BQC720878 BGG720869:BGG720878 AWK720869:AWK720878 AMO720869:AMO720878 ACS720869:ACS720878 SW720869:SW720878 JA720869:JA720878 E720869:E720878 WVM655333:WVM655342 WLQ655333:WLQ655342 WBU655333:WBU655342 VRY655333:VRY655342 VIC655333:VIC655342 UYG655333:UYG655342 UOK655333:UOK655342 UEO655333:UEO655342 TUS655333:TUS655342 TKW655333:TKW655342 TBA655333:TBA655342 SRE655333:SRE655342 SHI655333:SHI655342 RXM655333:RXM655342 RNQ655333:RNQ655342 RDU655333:RDU655342 QTY655333:QTY655342 QKC655333:QKC655342 QAG655333:QAG655342 PQK655333:PQK655342 PGO655333:PGO655342 OWS655333:OWS655342 OMW655333:OMW655342 ODA655333:ODA655342 NTE655333:NTE655342 NJI655333:NJI655342 MZM655333:MZM655342 MPQ655333:MPQ655342 MFU655333:MFU655342 LVY655333:LVY655342 LMC655333:LMC655342 LCG655333:LCG655342 KSK655333:KSK655342 KIO655333:KIO655342 JYS655333:JYS655342 JOW655333:JOW655342 JFA655333:JFA655342 IVE655333:IVE655342 ILI655333:ILI655342 IBM655333:IBM655342 HRQ655333:HRQ655342 HHU655333:HHU655342 GXY655333:GXY655342 GOC655333:GOC655342 GEG655333:GEG655342 FUK655333:FUK655342 FKO655333:FKO655342 FAS655333:FAS655342 EQW655333:EQW655342 EHA655333:EHA655342 DXE655333:DXE655342 DNI655333:DNI655342 DDM655333:DDM655342 CTQ655333:CTQ655342 CJU655333:CJU655342 BZY655333:BZY655342 BQC655333:BQC655342 BGG655333:BGG655342 AWK655333:AWK655342 AMO655333:AMO655342 ACS655333:ACS655342 SW655333:SW655342 JA655333:JA655342 E655333:E655342 WVM589797:WVM589806 WLQ589797:WLQ589806 WBU589797:WBU589806 VRY589797:VRY589806 VIC589797:VIC589806 UYG589797:UYG589806 UOK589797:UOK589806 UEO589797:UEO589806 TUS589797:TUS589806 TKW589797:TKW589806 TBA589797:TBA589806 SRE589797:SRE589806 SHI589797:SHI589806 RXM589797:RXM589806 RNQ589797:RNQ589806 RDU589797:RDU589806 QTY589797:QTY589806 QKC589797:QKC589806 QAG589797:QAG589806 PQK589797:PQK589806 PGO589797:PGO589806 OWS589797:OWS589806 OMW589797:OMW589806 ODA589797:ODA589806 NTE589797:NTE589806 NJI589797:NJI589806 MZM589797:MZM589806 MPQ589797:MPQ589806 MFU589797:MFU589806 LVY589797:LVY589806 LMC589797:LMC589806 LCG589797:LCG589806 KSK589797:KSK589806 KIO589797:KIO589806 JYS589797:JYS589806 JOW589797:JOW589806 JFA589797:JFA589806 IVE589797:IVE589806 ILI589797:ILI589806 IBM589797:IBM589806 HRQ589797:HRQ589806 HHU589797:HHU589806 GXY589797:GXY589806 GOC589797:GOC589806 GEG589797:GEG589806 FUK589797:FUK589806 FKO589797:FKO589806 FAS589797:FAS589806 EQW589797:EQW589806 EHA589797:EHA589806 DXE589797:DXE589806 DNI589797:DNI589806 DDM589797:DDM589806 CTQ589797:CTQ589806 CJU589797:CJU589806 BZY589797:BZY589806 BQC589797:BQC589806 BGG589797:BGG589806 AWK589797:AWK589806 AMO589797:AMO589806 ACS589797:ACS589806 SW589797:SW589806 JA589797:JA589806 E589797:E589806 WVM524261:WVM524270 WLQ524261:WLQ524270 WBU524261:WBU524270 VRY524261:VRY524270 VIC524261:VIC524270 UYG524261:UYG524270 UOK524261:UOK524270 UEO524261:UEO524270 TUS524261:TUS524270 TKW524261:TKW524270 TBA524261:TBA524270 SRE524261:SRE524270 SHI524261:SHI524270 RXM524261:RXM524270 RNQ524261:RNQ524270 RDU524261:RDU524270 QTY524261:QTY524270 QKC524261:QKC524270 QAG524261:QAG524270 PQK524261:PQK524270 PGO524261:PGO524270 OWS524261:OWS524270 OMW524261:OMW524270 ODA524261:ODA524270 NTE524261:NTE524270 NJI524261:NJI524270 MZM524261:MZM524270 MPQ524261:MPQ524270 MFU524261:MFU524270 LVY524261:LVY524270 LMC524261:LMC524270 LCG524261:LCG524270 KSK524261:KSK524270 KIO524261:KIO524270 JYS524261:JYS524270 JOW524261:JOW524270 JFA524261:JFA524270 IVE524261:IVE524270 ILI524261:ILI524270 IBM524261:IBM524270 HRQ524261:HRQ524270 HHU524261:HHU524270 GXY524261:GXY524270 GOC524261:GOC524270 GEG524261:GEG524270 FUK524261:FUK524270 FKO524261:FKO524270 FAS524261:FAS524270 EQW524261:EQW524270 EHA524261:EHA524270 DXE524261:DXE524270 DNI524261:DNI524270 DDM524261:DDM524270 CTQ524261:CTQ524270 CJU524261:CJU524270 BZY524261:BZY524270 BQC524261:BQC524270 BGG524261:BGG524270 AWK524261:AWK524270 AMO524261:AMO524270 ACS524261:ACS524270 SW524261:SW524270 JA524261:JA524270 E524261:E524270 WVM458725:WVM458734 WLQ458725:WLQ458734 WBU458725:WBU458734 VRY458725:VRY458734 VIC458725:VIC458734 UYG458725:UYG458734 UOK458725:UOK458734 UEO458725:UEO458734 TUS458725:TUS458734 TKW458725:TKW458734 TBA458725:TBA458734 SRE458725:SRE458734 SHI458725:SHI458734 RXM458725:RXM458734 RNQ458725:RNQ458734 RDU458725:RDU458734 QTY458725:QTY458734 QKC458725:QKC458734 QAG458725:QAG458734 PQK458725:PQK458734 PGO458725:PGO458734 OWS458725:OWS458734 OMW458725:OMW458734 ODA458725:ODA458734 NTE458725:NTE458734 NJI458725:NJI458734 MZM458725:MZM458734 MPQ458725:MPQ458734 MFU458725:MFU458734 LVY458725:LVY458734 LMC458725:LMC458734 LCG458725:LCG458734 KSK458725:KSK458734 KIO458725:KIO458734 JYS458725:JYS458734 JOW458725:JOW458734 JFA458725:JFA458734 IVE458725:IVE458734 ILI458725:ILI458734 IBM458725:IBM458734 HRQ458725:HRQ458734 HHU458725:HHU458734 GXY458725:GXY458734 GOC458725:GOC458734 GEG458725:GEG458734 FUK458725:FUK458734 FKO458725:FKO458734 FAS458725:FAS458734 EQW458725:EQW458734 EHA458725:EHA458734 DXE458725:DXE458734 DNI458725:DNI458734 DDM458725:DDM458734 CTQ458725:CTQ458734 CJU458725:CJU458734 BZY458725:BZY458734 BQC458725:BQC458734 BGG458725:BGG458734 AWK458725:AWK458734 AMO458725:AMO458734 ACS458725:ACS458734 SW458725:SW458734 JA458725:JA458734 E458725:E458734 WVM393189:WVM393198 WLQ393189:WLQ393198 WBU393189:WBU393198 VRY393189:VRY393198 VIC393189:VIC393198 UYG393189:UYG393198 UOK393189:UOK393198 UEO393189:UEO393198 TUS393189:TUS393198 TKW393189:TKW393198 TBA393189:TBA393198 SRE393189:SRE393198 SHI393189:SHI393198 RXM393189:RXM393198 RNQ393189:RNQ393198 RDU393189:RDU393198 QTY393189:QTY393198 QKC393189:QKC393198 QAG393189:QAG393198 PQK393189:PQK393198 PGO393189:PGO393198 OWS393189:OWS393198 OMW393189:OMW393198 ODA393189:ODA393198 NTE393189:NTE393198 NJI393189:NJI393198 MZM393189:MZM393198 MPQ393189:MPQ393198 MFU393189:MFU393198 LVY393189:LVY393198 LMC393189:LMC393198 LCG393189:LCG393198 KSK393189:KSK393198 KIO393189:KIO393198 JYS393189:JYS393198 JOW393189:JOW393198 JFA393189:JFA393198 IVE393189:IVE393198 ILI393189:ILI393198 IBM393189:IBM393198 HRQ393189:HRQ393198 HHU393189:HHU393198 GXY393189:GXY393198 GOC393189:GOC393198 GEG393189:GEG393198 FUK393189:FUK393198 FKO393189:FKO393198 FAS393189:FAS393198 EQW393189:EQW393198 EHA393189:EHA393198 DXE393189:DXE393198 DNI393189:DNI393198 DDM393189:DDM393198 CTQ393189:CTQ393198 CJU393189:CJU393198 BZY393189:BZY393198 BQC393189:BQC393198 BGG393189:BGG393198 AWK393189:AWK393198 AMO393189:AMO393198 ACS393189:ACS393198 SW393189:SW393198 JA393189:JA393198 E393189:E393198 WVM327653:WVM327662 WLQ327653:WLQ327662 WBU327653:WBU327662 VRY327653:VRY327662 VIC327653:VIC327662 UYG327653:UYG327662 UOK327653:UOK327662 UEO327653:UEO327662 TUS327653:TUS327662 TKW327653:TKW327662 TBA327653:TBA327662 SRE327653:SRE327662 SHI327653:SHI327662 RXM327653:RXM327662 RNQ327653:RNQ327662 RDU327653:RDU327662 QTY327653:QTY327662 QKC327653:QKC327662 QAG327653:QAG327662 PQK327653:PQK327662 PGO327653:PGO327662 OWS327653:OWS327662 OMW327653:OMW327662 ODA327653:ODA327662 NTE327653:NTE327662 NJI327653:NJI327662 MZM327653:MZM327662 MPQ327653:MPQ327662 MFU327653:MFU327662 LVY327653:LVY327662 LMC327653:LMC327662 LCG327653:LCG327662 KSK327653:KSK327662 KIO327653:KIO327662 JYS327653:JYS327662 JOW327653:JOW327662 JFA327653:JFA327662 IVE327653:IVE327662 ILI327653:ILI327662 IBM327653:IBM327662 HRQ327653:HRQ327662 HHU327653:HHU327662 GXY327653:GXY327662 GOC327653:GOC327662 GEG327653:GEG327662 FUK327653:FUK327662 FKO327653:FKO327662 FAS327653:FAS327662 EQW327653:EQW327662 EHA327653:EHA327662 DXE327653:DXE327662 DNI327653:DNI327662 DDM327653:DDM327662 CTQ327653:CTQ327662 CJU327653:CJU327662 BZY327653:BZY327662 BQC327653:BQC327662 BGG327653:BGG327662 AWK327653:AWK327662 AMO327653:AMO327662 ACS327653:ACS327662 SW327653:SW327662 JA327653:JA327662 E327653:E327662 WVM262117:WVM262126 WLQ262117:WLQ262126 WBU262117:WBU262126 VRY262117:VRY262126 VIC262117:VIC262126 UYG262117:UYG262126 UOK262117:UOK262126 UEO262117:UEO262126 TUS262117:TUS262126 TKW262117:TKW262126 TBA262117:TBA262126 SRE262117:SRE262126 SHI262117:SHI262126 RXM262117:RXM262126 RNQ262117:RNQ262126 RDU262117:RDU262126 QTY262117:QTY262126 QKC262117:QKC262126 QAG262117:QAG262126 PQK262117:PQK262126 PGO262117:PGO262126 OWS262117:OWS262126 OMW262117:OMW262126 ODA262117:ODA262126 NTE262117:NTE262126 NJI262117:NJI262126 MZM262117:MZM262126 MPQ262117:MPQ262126 MFU262117:MFU262126 LVY262117:LVY262126 LMC262117:LMC262126 LCG262117:LCG262126 KSK262117:KSK262126 KIO262117:KIO262126 JYS262117:JYS262126 JOW262117:JOW262126 JFA262117:JFA262126 IVE262117:IVE262126 ILI262117:ILI262126 IBM262117:IBM262126 HRQ262117:HRQ262126 HHU262117:HHU262126 GXY262117:GXY262126 GOC262117:GOC262126 GEG262117:GEG262126 FUK262117:FUK262126 FKO262117:FKO262126 FAS262117:FAS262126 EQW262117:EQW262126 EHA262117:EHA262126 DXE262117:DXE262126 DNI262117:DNI262126 DDM262117:DDM262126 CTQ262117:CTQ262126 CJU262117:CJU262126 BZY262117:BZY262126 BQC262117:BQC262126 BGG262117:BGG262126 AWK262117:AWK262126 AMO262117:AMO262126 ACS262117:ACS262126 SW262117:SW262126 JA262117:JA262126 E262117:E262126 WVM196581:WVM196590 WLQ196581:WLQ196590 WBU196581:WBU196590 VRY196581:VRY196590 VIC196581:VIC196590 UYG196581:UYG196590 UOK196581:UOK196590 UEO196581:UEO196590 TUS196581:TUS196590 TKW196581:TKW196590 TBA196581:TBA196590 SRE196581:SRE196590 SHI196581:SHI196590 RXM196581:RXM196590 RNQ196581:RNQ196590 RDU196581:RDU196590 QTY196581:QTY196590 QKC196581:QKC196590 QAG196581:QAG196590 PQK196581:PQK196590 PGO196581:PGO196590 OWS196581:OWS196590 OMW196581:OMW196590 ODA196581:ODA196590 NTE196581:NTE196590 NJI196581:NJI196590 MZM196581:MZM196590 MPQ196581:MPQ196590 MFU196581:MFU196590 LVY196581:LVY196590 LMC196581:LMC196590 LCG196581:LCG196590 KSK196581:KSK196590 KIO196581:KIO196590 JYS196581:JYS196590 JOW196581:JOW196590 JFA196581:JFA196590 IVE196581:IVE196590 ILI196581:ILI196590 IBM196581:IBM196590 HRQ196581:HRQ196590 HHU196581:HHU196590 GXY196581:GXY196590 GOC196581:GOC196590 GEG196581:GEG196590 FUK196581:FUK196590 FKO196581:FKO196590 FAS196581:FAS196590 EQW196581:EQW196590 EHA196581:EHA196590 DXE196581:DXE196590 DNI196581:DNI196590 DDM196581:DDM196590 CTQ196581:CTQ196590 CJU196581:CJU196590 BZY196581:BZY196590 BQC196581:BQC196590 BGG196581:BGG196590 AWK196581:AWK196590 AMO196581:AMO196590 ACS196581:ACS196590 SW196581:SW196590 JA196581:JA196590 E196581:E196590 WVM131045:WVM131054 WLQ131045:WLQ131054 WBU131045:WBU131054 VRY131045:VRY131054 VIC131045:VIC131054 UYG131045:UYG131054 UOK131045:UOK131054 UEO131045:UEO131054 TUS131045:TUS131054 TKW131045:TKW131054 TBA131045:TBA131054 SRE131045:SRE131054 SHI131045:SHI131054 RXM131045:RXM131054 RNQ131045:RNQ131054 RDU131045:RDU131054 QTY131045:QTY131054 QKC131045:QKC131054 QAG131045:QAG131054 PQK131045:PQK131054 PGO131045:PGO131054 OWS131045:OWS131054 OMW131045:OMW131054 ODA131045:ODA131054 NTE131045:NTE131054 NJI131045:NJI131054 MZM131045:MZM131054 MPQ131045:MPQ131054 MFU131045:MFU131054 LVY131045:LVY131054 LMC131045:LMC131054 LCG131045:LCG131054 KSK131045:KSK131054 KIO131045:KIO131054 JYS131045:JYS131054 JOW131045:JOW131054 JFA131045:JFA131054 IVE131045:IVE131054 ILI131045:ILI131054 IBM131045:IBM131054 HRQ131045:HRQ131054 HHU131045:HHU131054 GXY131045:GXY131054 GOC131045:GOC131054 GEG131045:GEG131054 FUK131045:FUK131054 FKO131045:FKO131054 FAS131045:FAS131054 EQW131045:EQW131054 EHA131045:EHA131054 DXE131045:DXE131054 DNI131045:DNI131054 DDM131045:DDM131054 CTQ131045:CTQ131054 CJU131045:CJU131054 BZY131045:BZY131054 BQC131045:BQC131054 BGG131045:BGG131054 AWK131045:AWK131054 AMO131045:AMO131054 ACS131045:ACS131054 SW131045:SW131054 JA131045:JA131054 E131045:E131054 WVM65509:WVM65518 WLQ65509:WLQ65518 WBU65509:WBU65518 VRY65509:VRY65518 VIC65509:VIC65518 UYG65509:UYG65518 UOK65509:UOK65518 UEO65509:UEO65518 TUS65509:TUS65518 TKW65509:TKW65518 TBA65509:TBA65518 SRE65509:SRE65518 SHI65509:SHI65518 RXM65509:RXM65518 RNQ65509:RNQ65518 RDU65509:RDU65518 QTY65509:QTY65518 QKC65509:QKC65518 QAG65509:QAG65518 PQK65509:PQK65518 PGO65509:PGO65518 OWS65509:OWS65518 OMW65509:OMW65518 ODA65509:ODA65518 NTE65509:NTE65518 NJI65509:NJI65518 MZM65509:MZM65518 MPQ65509:MPQ65518 MFU65509:MFU65518 LVY65509:LVY65518 LMC65509:LMC65518 LCG65509:LCG65518 KSK65509:KSK65518 KIO65509:KIO65518 JYS65509:JYS65518 JOW65509:JOW65518 JFA65509:JFA65518 IVE65509:IVE65518 ILI65509:ILI65518 IBM65509:IBM65518 HRQ65509:HRQ65518 HHU65509:HHU65518 GXY65509:GXY65518 GOC65509:GOC65518 GEG65509:GEG65518 FUK65509:FUK65518 FKO65509:FKO65518 FAS65509:FAS65518 EQW65509:EQW65518 EHA65509:EHA65518 DXE65509:DXE65518 DNI65509:DNI65518 DDM65509:DDM65518 CTQ65509:CTQ65518 CJU65509:CJU65518 BZY65509:BZY65518 BQC65509:BQC65518 BGG65509:BGG65518 AWK65509:AWK65518 AMO65509:AMO65518 ACS65509:ACS65518 SW65509:SW65518 JA65509:JA65518 WVM2:WVM3 WLQ2:WLQ3 WBU2:WBU3 VRY2:VRY3 VIC2:VIC3 UYG2:UYG3 UOK2:UOK3 UEO2:UEO3 TUS2:TUS3 TKW2:TKW3 TBA2:TBA3 SRE2:SRE3 SHI2:SHI3 RXM2:RXM3 RNQ2:RNQ3 RDU2:RDU3 QTY2:QTY3 QKC2:QKC3 QAG2:QAG3 PQK2:PQK3 PGO2:PGO3 OWS2:OWS3 OMW2:OMW3 ODA2:ODA3 NTE2:NTE3 NJI2:NJI3 MZM2:MZM3 MPQ2:MPQ3 MFU2:MFU3 LVY2:LVY3 LMC2:LMC3 LCG2:LCG3 KSK2:KSK3 KIO2:KIO3 JYS2:JYS3 JOW2:JOW3 JFA2:JFA3 IVE2:IVE3 ILI2:ILI3 IBM2:IBM3 HRQ2:HRQ3 HHU2:HHU3 GXY2:GXY3 GOC2:GOC3 GEG2:GEG3 FUK2:FUK3 FKO2:FKO3 FAS2:FAS3 EQW2:EQW3 EHA2:EHA3 DXE2:DXE3 DNI2:DNI3 DDM2:DDM3 CTQ2:CTQ3 CJU2:CJU3 BZY2:BZY3 BQC2:BQC3 BGG2:BGG3 AWK2:AWK3 AMO2:AMO3 ACS2:ACS3 SW2:SW3 JA2:JA3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E65508:E65517 WVM983012:WVM983021 WLQ983012:WLQ983021 WBU983012:WBU983021 VRY983012:VRY983021 VIC983012:VIC983021 UYG983012:UYG983021 UOK983012:UOK983021 UEO983012:UEO983021 TUS983012:TUS983021 TKW983012:TKW983021 TBA983012:TBA983021 SRE983012:SRE983021 SHI983012:SHI983021 RXM983012:RXM983021 RNQ983012:RNQ983021 RDU983012:RDU983021 QTY983012:QTY983021 QKC983012:QKC983021 QAG983012:QAG983021 PQK983012:PQK983021 PGO983012:PGO983021 OWS983012:OWS983021 OMW983012:OMW983021 ODA983012:ODA983021 NTE983012:NTE983021 NJI983012:NJI983021 MZM983012:MZM983021 MPQ983012:MPQ983021 MFU983012:MFU983021 LVY983012:LVY983021 LMC983012:LMC983021 LCG983012:LCG983021 KSK983012:KSK983021 KIO983012:KIO983021 JYS983012:JYS983021 JOW983012:JOW983021 JFA983012:JFA983021 IVE983012:IVE983021 ILI983012:ILI983021 IBM983012:IBM983021 HRQ983012:HRQ983021 HHU983012:HHU983021 GXY983012:GXY983021 GOC983012:GOC983021 GEG983012:GEG983021 FUK983012:FUK983021 FKO983012:FKO983021 FAS983012:FAS983021 EQW983012:EQW983021 EHA983012:EHA983021 DXE983012:DXE983021 DNI983012:DNI983021 DDM983012:DDM983021 CTQ983012:CTQ983021 CJU983012:CJU983021 BZY983012:BZY983021 BQC983012:BQC983021 BGG983012:BGG983021 AWK983012:AWK983021 AMO983012:AMO983021 ACS983012:ACS983021 SW983012:SW983021 JA983012:JA983021 E983012:E983021 WVM917476:WVM917485 WLQ917476:WLQ917485 WBU917476:WBU917485 VRY917476:VRY917485 VIC917476:VIC917485 UYG917476:UYG917485 UOK917476:UOK917485 UEO917476:UEO917485 TUS917476:TUS917485 TKW917476:TKW917485 TBA917476:TBA917485 SRE917476:SRE917485 SHI917476:SHI917485 RXM917476:RXM917485 RNQ917476:RNQ917485 RDU917476:RDU917485 QTY917476:QTY917485 QKC917476:QKC917485 QAG917476:QAG917485 PQK917476:PQK917485 PGO917476:PGO917485 OWS917476:OWS917485 OMW917476:OMW917485 ODA917476:ODA917485 NTE917476:NTE917485 NJI917476:NJI917485 MZM917476:MZM917485 MPQ917476:MPQ917485 MFU917476:MFU917485 LVY917476:LVY917485 LMC917476:LMC917485 LCG917476:LCG917485 KSK917476:KSK917485 KIO917476:KIO917485 JYS917476:JYS917485 JOW917476:JOW917485 JFA917476:JFA917485 IVE917476:IVE917485 ILI917476:ILI917485 IBM917476:IBM917485 HRQ917476:HRQ917485 HHU917476:HHU917485 GXY917476:GXY917485 GOC917476:GOC917485 GEG917476:GEG917485 FUK917476:FUK917485 FKO917476:FKO917485 FAS917476:FAS917485 EQW917476:EQW917485 EHA917476:EHA917485 DXE917476:DXE917485 DNI917476:DNI917485 DDM917476:DDM917485 CTQ917476:CTQ917485 CJU917476:CJU917485 BZY917476:BZY917485 BQC917476:BQC917485 BGG917476:BGG917485 AWK917476:AWK917485 AMO917476:AMO917485 ACS917476:ACS917485 SW917476:SW917485 JA917476:JA917485 E917476:E917485 WVM851940:WVM851949 WLQ851940:WLQ851949 WBU851940:WBU851949 VRY851940:VRY851949 VIC851940:VIC851949 UYG851940:UYG851949 UOK851940:UOK851949 UEO851940:UEO851949 TUS851940:TUS851949 TKW851940:TKW851949 TBA851940:TBA851949 SRE851940:SRE851949 SHI851940:SHI851949 RXM851940:RXM851949 RNQ851940:RNQ851949 RDU851940:RDU851949 QTY851940:QTY851949 QKC851940:QKC851949 QAG851940:QAG851949 PQK851940:PQK851949 PGO851940:PGO851949 OWS851940:OWS851949 OMW851940:OMW851949 ODA851940:ODA851949 NTE851940:NTE851949 NJI851940:NJI851949 MZM851940:MZM851949 MPQ851940:MPQ851949 MFU851940:MFU851949 LVY851940:LVY851949 LMC851940:LMC851949 LCG851940:LCG851949 KSK851940:KSK851949 KIO851940:KIO851949 JYS851940:JYS851949 JOW851940:JOW851949 JFA851940:JFA851949 IVE851940:IVE851949 ILI851940:ILI851949 IBM851940:IBM851949 HRQ851940:HRQ851949 HHU851940:HHU851949 GXY851940:GXY851949 GOC851940:GOC851949 GEG851940:GEG851949 FUK851940:FUK851949 FKO851940:FKO851949 FAS851940:FAS851949 EQW851940:EQW851949 EHA851940:EHA851949 DXE851940:DXE851949 DNI851940:DNI851949 DDM851940:DDM851949 CTQ851940:CTQ851949 CJU851940:CJU851949 BZY851940:BZY851949 BQC851940:BQC851949 BGG851940:BGG851949 AWK851940:AWK851949 AMO851940:AMO851949 ACS851940:ACS851949 SW851940:SW851949 JA851940:JA851949 E851940:E851949 WVM786404:WVM786413 WLQ786404:WLQ786413 WBU786404:WBU786413 VRY786404:VRY786413 VIC786404:VIC786413 UYG786404:UYG786413 UOK786404:UOK786413 UEO786404:UEO786413 TUS786404:TUS786413 TKW786404:TKW786413 TBA786404:TBA786413 SRE786404:SRE786413 SHI786404:SHI786413 RXM786404:RXM786413 RNQ786404:RNQ786413 RDU786404:RDU786413 QTY786404:QTY786413 QKC786404:QKC786413 QAG786404:QAG786413 PQK786404:PQK786413 PGO786404:PGO786413 OWS786404:OWS786413 OMW786404:OMW786413 ODA786404:ODA786413 NTE786404:NTE786413 NJI786404:NJI786413 MZM786404:MZM786413 MPQ786404:MPQ786413 MFU786404:MFU786413 LVY786404:LVY786413 LMC786404:LMC786413 LCG786404:LCG786413 KSK786404:KSK786413 KIO786404:KIO786413 JYS786404:JYS786413 JOW786404:JOW786413 JFA786404:JFA786413 IVE786404:IVE786413 ILI786404:ILI786413 IBM786404:IBM786413 HRQ786404:HRQ786413 HHU786404:HHU786413 GXY786404:GXY786413 GOC786404:GOC786413 GEG786404:GEG786413 FUK786404:FUK786413 FKO786404:FKO786413 FAS786404:FAS786413 EQW786404:EQW786413 EHA786404:EHA786413 DXE786404:DXE786413 DNI786404:DNI786413 DDM786404:DDM786413 CTQ786404:CTQ786413 CJU786404:CJU786413 BZY786404:BZY786413 BQC786404:BQC786413 BGG786404:BGG786413 AWK786404:AWK786413 AMO786404:AMO786413 ACS786404:ACS786413 SW786404:SW786413 JA786404:JA786413 E786404:E786413 WVM720868:WVM720877 WLQ720868:WLQ720877 WBU720868:WBU720877 VRY720868:VRY720877 VIC720868:VIC720877 UYG720868:UYG720877 UOK720868:UOK720877 UEO720868:UEO720877 TUS720868:TUS720877 TKW720868:TKW720877 TBA720868:TBA720877 SRE720868:SRE720877 SHI720868:SHI720877 RXM720868:RXM720877 RNQ720868:RNQ720877 RDU720868:RDU720877 QTY720868:QTY720877 QKC720868:QKC720877 QAG720868:QAG720877 PQK720868:PQK720877 PGO720868:PGO720877 OWS720868:OWS720877 OMW720868:OMW720877 ODA720868:ODA720877 NTE720868:NTE720877 NJI720868:NJI720877 MZM720868:MZM720877 MPQ720868:MPQ720877 MFU720868:MFU720877 LVY720868:LVY720877 LMC720868:LMC720877 LCG720868:LCG720877 KSK720868:KSK720877 KIO720868:KIO720877 JYS720868:JYS720877 JOW720868:JOW720877 JFA720868:JFA720877 IVE720868:IVE720877 ILI720868:ILI720877 IBM720868:IBM720877 HRQ720868:HRQ720877 HHU720868:HHU720877 GXY720868:GXY720877 GOC720868:GOC720877 GEG720868:GEG720877 FUK720868:FUK720877 FKO720868:FKO720877 FAS720868:FAS720877 EQW720868:EQW720877 EHA720868:EHA720877 DXE720868:DXE720877 DNI720868:DNI720877 DDM720868:DDM720877 CTQ720868:CTQ720877 CJU720868:CJU720877 BZY720868:BZY720877 BQC720868:BQC720877 BGG720868:BGG720877 AWK720868:AWK720877 AMO720868:AMO720877 ACS720868:ACS720877 SW720868:SW720877 JA720868:JA720877 E720868:E720877 WVM655332:WVM655341 WLQ655332:WLQ655341 WBU655332:WBU655341 VRY655332:VRY655341 VIC655332:VIC655341 UYG655332:UYG655341 UOK655332:UOK655341 UEO655332:UEO655341 TUS655332:TUS655341 TKW655332:TKW655341 TBA655332:TBA655341 SRE655332:SRE655341 SHI655332:SHI655341 RXM655332:RXM655341 RNQ655332:RNQ655341 RDU655332:RDU655341 QTY655332:QTY655341 QKC655332:QKC655341 QAG655332:QAG655341 PQK655332:PQK655341 PGO655332:PGO655341 OWS655332:OWS655341 OMW655332:OMW655341 ODA655332:ODA655341 NTE655332:NTE655341 NJI655332:NJI655341 MZM655332:MZM655341 MPQ655332:MPQ655341 MFU655332:MFU655341 LVY655332:LVY655341 LMC655332:LMC655341 LCG655332:LCG655341 KSK655332:KSK655341 KIO655332:KIO655341 JYS655332:JYS655341 JOW655332:JOW655341 JFA655332:JFA655341 IVE655332:IVE655341 ILI655332:ILI655341 IBM655332:IBM655341 HRQ655332:HRQ655341 HHU655332:HHU655341 GXY655332:GXY655341 GOC655332:GOC655341 GEG655332:GEG655341 FUK655332:FUK655341 FKO655332:FKO655341 FAS655332:FAS655341 EQW655332:EQW655341 EHA655332:EHA655341 DXE655332:DXE655341 DNI655332:DNI655341 DDM655332:DDM655341 CTQ655332:CTQ655341 CJU655332:CJU655341 BZY655332:BZY655341 BQC655332:BQC655341 BGG655332:BGG655341 AWK655332:AWK655341 AMO655332:AMO655341 ACS655332:ACS655341 SW655332:SW655341 JA655332:JA655341 E655332:E655341 WVM589796:WVM589805 WLQ589796:WLQ589805 WBU589796:WBU589805 VRY589796:VRY589805 VIC589796:VIC589805 UYG589796:UYG589805 UOK589796:UOK589805 UEO589796:UEO589805 TUS589796:TUS589805 TKW589796:TKW589805 TBA589796:TBA589805 SRE589796:SRE589805 SHI589796:SHI589805 RXM589796:RXM589805 RNQ589796:RNQ589805 RDU589796:RDU589805 QTY589796:QTY589805 QKC589796:QKC589805 QAG589796:QAG589805 PQK589796:PQK589805 PGO589796:PGO589805 OWS589796:OWS589805 OMW589796:OMW589805 ODA589796:ODA589805 NTE589796:NTE589805 NJI589796:NJI589805 MZM589796:MZM589805 MPQ589796:MPQ589805 MFU589796:MFU589805 LVY589796:LVY589805 LMC589796:LMC589805 LCG589796:LCG589805 KSK589796:KSK589805 KIO589796:KIO589805 JYS589796:JYS589805 JOW589796:JOW589805 JFA589796:JFA589805 IVE589796:IVE589805 ILI589796:ILI589805 IBM589796:IBM589805 HRQ589796:HRQ589805 HHU589796:HHU589805 GXY589796:GXY589805 GOC589796:GOC589805 GEG589796:GEG589805 FUK589796:FUK589805 FKO589796:FKO589805 FAS589796:FAS589805 EQW589796:EQW589805 EHA589796:EHA589805 DXE589796:DXE589805 DNI589796:DNI589805 DDM589796:DDM589805 CTQ589796:CTQ589805 CJU589796:CJU589805 BZY589796:BZY589805 BQC589796:BQC589805 BGG589796:BGG589805 AWK589796:AWK589805 AMO589796:AMO589805 ACS589796:ACS589805 SW589796:SW589805 JA589796:JA589805 E589796:E589805 WVM524260:WVM524269 WLQ524260:WLQ524269 WBU524260:WBU524269 VRY524260:VRY524269 VIC524260:VIC524269 UYG524260:UYG524269 UOK524260:UOK524269 UEO524260:UEO524269 TUS524260:TUS524269 TKW524260:TKW524269 TBA524260:TBA524269 SRE524260:SRE524269 SHI524260:SHI524269 RXM524260:RXM524269 RNQ524260:RNQ524269 RDU524260:RDU524269 QTY524260:QTY524269 QKC524260:QKC524269 QAG524260:QAG524269 PQK524260:PQK524269 PGO524260:PGO524269 OWS524260:OWS524269 OMW524260:OMW524269 ODA524260:ODA524269 NTE524260:NTE524269 NJI524260:NJI524269 MZM524260:MZM524269 MPQ524260:MPQ524269 MFU524260:MFU524269 LVY524260:LVY524269 LMC524260:LMC524269 LCG524260:LCG524269 KSK524260:KSK524269 KIO524260:KIO524269 JYS524260:JYS524269 JOW524260:JOW524269 JFA524260:JFA524269 IVE524260:IVE524269 ILI524260:ILI524269 IBM524260:IBM524269 HRQ524260:HRQ524269 HHU524260:HHU524269 GXY524260:GXY524269 GOC524260:GOC524269 GEG524260:GEG524269 FUK524260:FUK524269 FKO524260:FKO524269 FAS524260:FAS524269 EQW524260:EQW524269 EHA524260:EHA524269 DXE524260:DXE524269 DNI524260:DNI524269 DDM524260:DDM524269 CTQ524260:CTQ524269 CJU524260:CJU524269 BZY524260:BZY524269 BQC524260:BQC524269 BGG524260:BGG524269 AWK524260:AWK524269 AMO524260:AMO524269 ACS524260:ACS524269 SW524260:SW524269 JA524260:JA524269 E524260:E524269 WVM458724:WVM458733 WLQ458724:WLQ458733 WBU458724:WBU458733 VRY458724:VRY458733 VIC458724:VIC458733 UYG458724:UYG458733 UOK458724:UOK458733 UEO458724:UEO458733 TUS458724:TUS458733 TKW458724:TKW458733 TBA458724:TBA458733 SRE458724:SRE458733 SHI458724:SHI458733 RXM458724:RXM458733 RNQ458724:RNQ458733 RDU458724:RDU458733 QTY458724:QTY458733 QKC458724:QKC458733 QAG458724:QAG458733 PQK458724:PQK458733 PGO458724:PGO458733 OWS458724:OWS458733 OMW458724:OMW458733 ODA458724:ODA458733 NTE458724:NTE458733 NJI458724:NJI458733 MZM458724:MZM458733 MPQ458724:MPQ458733 MFU458724:MFU458733 LVY458724:LVY458733 LMC458724:LMC458733 LCG458724:LCG458733 KSK458724:KSK458733 KIO458724:KIO458733 JYS458724:JYS458733 JOW458724:JOW458733 JFA458724:JFA458733 IVE458724:IVE458733 ILI458724:ILI458733 IBM458724:IBM458733 HRQ458724:HRQ458733 HHU458724:HHU458733 GXY458724:GXY458733 GOC458724:GOC458733 GEG458724:GEG458733 FUK458724:FUK458733 FKO458724:FKO458733 FAS458724:FAS458733 EQW458724:EQW458733 EHA458724:EHA458733 DXE458724:DXE458733 DNI458724:DNI458733 DDM458724:DDM458733 CTQ458724:CTQ458733 CJU458724:CJU458733 BZY458724:BZY458733 BQC458724:BQC458733 BGG458724:BGG458733 AWK458724:AWK458733 AMO458724:AMO458733 ACS458724:ACS458733 SW458724:SW458733 JA458724:JA458733 E458724:E458733 WVM393188:WVM393197 WLQ393188:WLQ393197 WBU393188:WBU393197 VRY393188:VRY393197 VIC393188:VIC393197 UYG393188:UYG393197 UOK393188:UOK393197 UEO393188:UEO393197 TUS393188:TUS393197 TKW393188:TKW393197 TBA393188:TBA393197 SRE393188:SRE393197 SHI393188:SHI393197 RXM393188:RXM393197 RNQ393188:RNQ393197 RDU393188:RDU393197 QTY393188:QTY393197 QKC393188:QKC393197 QAG393188:QAG393197 PQK393188:PQK393197 PGO393188:PGO393197 OWS393188:OWS393197 OMW393188:OMW393197 ODA393188:ODA393197 NTE393188:NTE393197 NJI393188:NJI393197 MZM393188:MZM393197 MPQ393188:MPQ393197 MFU393188:MFU393197 LVY393188:LVY393197 LMC393188:LMC393197 LCG393188:LCG393197 KSK393188:KSK393197 KIO393188:KIO393197 JYS393188:JYS393197 JOW393188:JOW393197 JFA393188:JFA393197 IVE393188:IVE393197 ILI393188:ILI393197 IBM393188:IBM393197 HRQ393188:HRQ393197 HHU393188:HHU393197 GXY393188:GXY393197 GOC393188:GOC393197 GEG393188:GEG393197 FUK393188:FUK393197 FKO393188:FKO393197 FAS393188:FAS393197 EQW393188:EQW393197 EHA393188:EHA393197 DXE393188:DXE393197 DNI393188:DNI393197 DDM393188:DDM393197 CTQ393188:CTQ393197 CJU393188:CJU393197 BZY393188:BZY393197 BQC393188:BQC393197 BGG393188:BGG393197 AWK393188:AWK393197 AMO393188:AMO393197 ACS393188:ACS393197 SW393188:SW393197 JA393188:JA393197 E393188:E393197 WVM327652:WVM327661 WLQ327652:WLQ327661 WBU327652:WBU327661 VRY327652:VRY327661 VIC327652:VIC327661 UYG327652:UYG327661 UOK327652:UOK327661 UEO327652:UEO327661 TUS327652:TUS327661 TKW327652:TKW327661 TBA327652:TBA327661 SRE327652:SRE327661 SHI327652:SHI327661 RXM327652:RXM327661 RNQ327652:RNQ327661 RDU327652:RDU327661 QTY327652:QTY327661 QKC327652:QKC327661 QAG327652:QAG327661 PQK327652:PQK327661 PGO327652:PGO327661 OWS327652:OWS327661 OMW327652:OMW327661 ODA327652:ODA327661 NTE327652:NTE327661 NJI327652:NJI327661 MZM327652:MZM327661 MPQ327652:MPQ327661 MFU327652:MFU327661 LVY327652:LVY327661 LMC327652:LMC327661 LCG327652:LCG327661 KSK327652:KSK327661 KIO327652:KIO327661 JYS327652:JYS327661 JOW327652:JOW327661 JFA327652:JFA327661 IVE327652:IVE327661 ILI327652:ILI327661 IBM327652:IBM327661 HRQ327652:HRQ327661 HHU327652:HHU327661 GXY327652:GXY327661 GOC327652:GOC327661 GEG327652:GEG327661 FUK327652:FUK327661 FKO327652:FKO327661 FAS327652:FAS327661 EQW327652:EQW327661 EHA327652:EHA327661 DXE327652:DXE327661 DNI327652:DNI327661 DDM327652:DDM327661 CTQ327652:CTQ327661 CJU327652:CJU327661 BZY327652:BZY327661 BQC327652:BQC327661 BGG327652:BGG327661 AWK327652:AWK327661 AMO327652:AMO327661 ACS327652:ACS327661 SW327652:SW327661 JA327652:JA327661 E327652:E327661 WVM262116:WVM262125 WLQ262116:WLQ262125 WBU262116:WBU262125 VRY262116:VRY262125 VIC262116:VIC262125 UYG262116:UYG262125 UOK262116:UOK262125 UEO262116:UEO262125 TUS262116:TUS262125 TKW262116:TKW262125 TBA262116:TBA262125 SRE262116:SRE262125 SHI262116:SHI262125 RXM262116:RXM262125 RNQ262116:RNQ262125 RDU262116:RDU262125 QTY262116:QTY262125 QKC262116:QKC262125 QAG262116:QAG262125 PQK262116:PQK262125 PGO262116:PGO262125 OWS262116:OWS262125 OMW262116:OMW262125 ODA262116:ODA262125 NTE262116:NTE262125 NJI262116:NJI262125 MZM262116:MZM262125 MPQ262116:MPQ262125 MFU262116:MFU262125 LVY262116:LVY262125 LMC262116:LMC262125 LCG262116:LCG262125 KSK262116:KSK262125 KIO262116:KIO262125 JYS262116:JYS262125 JOW262116:JOW262125 JFA262116:JFA262125 IVE262116:IVE262125 ILI262116:ILI262125 IBM262116:IBM262125 HRQ262116:HRQ262125 HHU262116:HHU262125 GXY262116:GXY262125 GOC262116:GOC262125 GEG262116:GEG262125 FUK262116:FUK262125 FKO262116:FKO262125 FAS262116:FAS262125 EQW262116:EQW262125 EHA262116:EHA262125 DXE262116:DXE262125 DNI262116:DNI262125 DDM262116:DDM262125 CTQ262116:CTQ262125 CJU262116:CJU262125 BZY262116:BZY262125 BQC262116:BQC262125 BGG262116:BGG262125 AWK262116:AWK262125 AMO262116:AMO262125 ACS262116:ACS262125 SW262116:SW262125 JA262116:JA262125 E262116:E262125 WVM196580:WVM196589 WLQ196580:WLQ196589 WBU196580:WBU196589 VRY196580:VRY196589 VIC196580:VIC196589 UYG196580:UYG196589 UOK196580:UOK196589 UEO196580:UEO196589 TUS196580:TUS196589 TKW196580:TKW196589 TBA196580:TBA196589 SRE196580:SRE196589 SHI196580:SHI196589 RXM196580:RXM196589 RNQ196580:RNQ196589 RDU196580:RDU196589 QTY196580:QTY196589 QKC196580:QKC196589 QAG196580:QAG196589 PQK196580:PQK196589 PGO196580:PGO196589 OWS196580:OWS196589 OMW196580:OMW196589 ODA196580:ODA196589 NTE196580:NTE196589 NJI196580:NJI196589 MZM196580:MZM196589 MPQ196580:MPQ196589 MFU196580:MFU196589 LVY196580:LVY196589 LMC196580:LMC196589 LCG196580:LCG196589 KSK196580:KSK196589 KIO196580:KIO196589 JYS196580:JYS196589 JOW196580:JOW196589 JFA196580:JFA196589 IVE196580:IVE196589 ILI196580:ILI196589 IBM196580:IBM196589 HRQ196580:HRQ196589 HHU196580:HHU196589 GXY196580:GXY196589 GOC196580:GOC196589 GEG196580:GEG196589 FUK196580:FUK196589 FKO196580:FKO196589 FAS196580:FAS196589 EQW196580:EQW196589 EHA196580:EHA196589 DXE196580:DXE196589 DNI196580:DNI196589 DDM196580:DDM196589 CTQ196580:CTQ196589 CJU196580:CJU196589 BZY196580:BZY196589 BQC196580:BQC196589 BGG196580:BGG196589 AWK196580:AWK196589 AMO196580:AMO196589 ACS196580:ACS196589 SW196580:SW196589 JA196580:JA196589 E196580:E196589 WVM131044:WVM131053 WLQ131044:WLQ131053 WBU131044:WBU131053 VRY131044:VRY131053 VIC131044:VIC131053 UYG131044:UYG131053 UOK131044:UOK131053 UEO131044:UEO131053 TUS131044:TUS131053 TKW131044:TKW131053 TBA131044:TBA131053 SRE131044:SRE131053 SHI131044:SHI131053 RXM131044:RXM131053 RNQ131044:RNQ131053 RDU131044:RDU131053 QTY131044:QTY131053 QKC131044:QKC131053 QAG131044:QAG131053 PQK131044:PQK131053 PGO131044:PGO131053 OWS131044:OWS131053 OMW131044:OMW131053 ODA131044:ODA131053 NTE131044:NTE131053 NJI131044:NJI131053 MZM131044:MZM131053 MPQ131044:MPQ131053 MFU131044:MFU131053 LVY131044:LVY131053 LMC131044:LMC131053 LCG131044:LCG131053 KSK131044:KSK131053 KIO131044:KIO131053 JYS131044:JYS131053 JOW131044:JOW131053 JFA131044:JFA131053 IVE131044:IVE131053 ILI131044:ILI131053 IBM131044:IBM131053 HRQ131044:HRQ131053 HHU131044:HHU131053 GXY131044:GXY131053 GOC131044:GOC131053 GEG131044:GEG131053 FUK131044:FUK131053 FKO131044:FKO131053 FAS131044:FAS131053 EQW131044:EQW131053 EHA131044:EHA131053 DXE131044:DXE131053 DNI131044:DNI131053 DDM131044:DDM131053 CTQ131044:CTQ131053 CJU131044:CJU131053 BZY131044:BZY131053 BQC131044:BQC131053 BGG131044:BGG131053 AWK131044:AWK131053 AMO131044:AMO131053 ACS131044:ACS131053 SW131044:SW131053 JA131044:JA131053 E131044:E131053 WVM65508:WVM65517 WLQ65508:WLQ65517 WBU65508:WBU65517 VRY65508:VRY65517 VIC65508:VIC65517 UYG65508:UYG65517 UOK65508:UOK65517 UEO65508:UEO65517 TUS65508:TUS65517 TKW65508:TKW65517 TBA65508:TBA65517 SRE65508:SRE65517 SHI65508:SHI65517 RXM65508:RXM65517 RNQ65508:RNQ65517 RDU65508:RDU65517 QTY65508:QTY65517 QKC65508:QKC65517 QAG65508:QAG65517 PQK65508:PQK65517 PGO65508:PGO65517 OWS65508:OWS65517 OMW65508:OMW65517 ODA65508:ODA65517 NTE65508:NTE65517 NJI65508:NJI65517 MZM65508:MZM65517 MPQ65508:MPQ65517 MFU65508:MFU65517 LVY65508:LVY65517 LMC65508:LMC65517 LCG65508:LCG65517 KSK65508:KSK65517 KIO65508:KIO65517 JYS65508:JYS65517 JOW65508:JOW65517 JFA65508:JFA65517 IVE65508:IVE65517 ILI65508:ILI65517 IBM65508:IBM65517 HRQ65508:HRQ65517 HHU65508:HHU65517 GXY65508:GXY65517 GOC65508:GOC65517 GEG65508:GEG65517 FUK65508:FUK65517 FKO65508:FKO65517 FAS65508:FAS65517 EQW65508:EQW65517 EHA65508:EHA65517 DXE65508:DXE65517 DNI65508:DNI65517 DDM65508:DDM65517 CTQ65508:CTQ65517 CJU65508:CJU65517 BZY65508:BZY65517 BQC65508:BQC65517 BGG65508:BGG65517 AWK65508:AWK65517 AMO65508:AMO65517 ACS65508:ACS65517 SW65508:SW65517 JA65508:JA65517 WVM2:WVM3 WLQ2:WLQ3 WBU2:WBU3 VRY2:VRY3 VIC2:VIC3 UYG2:UYG3 UOK2:UOK3 UEO2:UEO3 TUS2:TUS3 TKW2:TKW3 TBA2:TBA3 SRE2:SRE3 SHI2:SHI3 RXM2:RXM3 RNQ2:RNQ3 RDU2:RDU3 QTY2:QTY3 QKC2:QKC3 QAG2:QAG3 PQK2:PQK3 PGO2:PGO3 OWS2:OWS3 OMW2:OMW3 ODA2:ODA3 NTE2:NTE3 NJI2:NJI3 MZM2:MZM3 MPQ2:MPQ3 MFU2:MFU3 LVY2:LVY3 LMC2:LMC3 LCG2:LCG3 KSK2:KSK3 KIO2:KIO3 JYS2:JYS3 JOW2:JOW3 JFA2:JFA3 IVE2:IVE3 ILI2:ILI3 IBM2:IBM3 HRQ2:HRQ3 HHU2:HHU3 GXY2:GXY3 GOC2:GOC3 GEG2:GEG3 FUK2:FUK3 FKO2:FKO3 FAS2:FAS3 EQW2:EQW3 EHA2:EHA3 DXE2:DXE3 DNI2:DNI3 DDM2:DDM3 CTQ2:CTQ3 CJU2:CJU3 BZY2:BZY3 BQC2:BQC3 BGG2:BGG3 AWK2:AWK3 AMO2:AMO3 ACS2:ACS3 SW2:SW3 JA2:JA3">
       <formula1>"F,M,TG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y65515:Y65518 WWE983019:WWE983022 WMI983019:WMI983022 WCM983019:WCM983022 VSQ983019:VSQ983022 VIU983019:VIU983022 UYY983019:UYY983022 UPC983019:UPC983022 UFG983019:UFG983022 TVK983019:TVK983022 TLO983019:TLO983022 TBS983019:TBS983022 SRW983019:SRW983022 SIA983019:SIA983022 RYE983019:RYE983022 ROI983019:ROI983022 REM983019:REM983022 QUQ983019:QUQ983022 QKU983019:QKU983022 QAY983019:QAY983022 PRC983019:PRC983022 PHG983019:PHG983022 OXK983019:OXK983022 ONO983019:ONO983022 ODS983019:ODS983022 NTW983019:NTW983022 NKA983019:NKA983022 NAE983019:NAE983022 MQI983019:MQI983022 MGM983019:MGM983022 LWQ983019:LWQ983022 LMU983019:LMU983022 LCY983019:LCY983022 KTC983019:KTC983022 KJG983019:KJG983022 JZK983019:JZK983022 JPO983019:JPO983022 JFS983019:JFS983022 IVW983019:IVW983022 IMA983019:IMA983022 ICE983019:ICE983022 HSI983019:HSI983022 HIM983019:HIM983022 GYQ983019:GYQ983022 GOU983019:GOU983022 GEY983019:GEY983022 FVC983019:FVC983022 FLG983019:FLG983022 FBK983019:FBK983022 ERO983019:ERO983022 EHS983019:EHS983022 DXW983019:DXW983022 DOA983019:DOA983022 DEE983019:DEE983022 CUI983019:CUI983022 CKM983019:CKM983022 CAQ983019:CAQ983022 BQU983019:BQU983022 BGY983019:BGY983022 AXC983019:AXC983022 ANG983019:ANG983022 ADK983019:ADK983022 TO983019:TO983022 JS983019:JS983022 W983019:W983022 WWE917483:WWE917486 WMI917483:WMI917486 WCM917483:WCM917486 VSQ917483:VSQ917486 VIU917483:VIU917486 UYY917483:UYY917486 UPC917483:UPC917486 UFG917483:UFG917486 TVK917483:TVK917486 TLO917483:TLO917486 TBS917483:TBS917486 SRW917483:SRW917486 SIA917483:SIA917486 RYE917483:RYE917486 ROI917483:ROI917486 REM917483:REM917486 QUQ917483:QUQ917486 QKU917483:QKU917486 QAY917483:QAY917486 PRC917483:PRC917486 PHG917483:PHG917486 OXK917483:OXK917486 ONO917483:ONO917486 ODS917483:ODS917486 NTW917483:NTW917486 NKA917483:NKA917486 NAE917483:NAE917486 MQI917483:MQI917486 MGM917483:MGM917486 LWQ917483:LWQ917486 LMU917483:LMU917486 LCY917483:LCY917486 KTC917483:KTC917486 KJG917483:KJG917486 JZK917483:JZK917486 JPO917483:JPO917486 JFS917483:JFS917486 IVW917483:IVW917486 IMA917483:IMA917486 ICE917483:ICE917486 HSI917483:HSI917486 HIM917483:HIM917486 GYQ917483:GYQ917486 GOU917483:GOU917486 GEY917483:GEY917486 FVC917483:FVC917486 FLG917483:FLG917486 FBK917483:FBK917486 ERO917483:ERO917486 EHS917483:EHS917486 DXW917483:DXW917486 DOA917483:DOA917486 DEE917483:DEE917486 CUI917483:CUI917486 CKM917483:CKM917486 CAQ917483:CAQ917486 BQU917483:BQU917486 BGY917483:BGY917486 AXC917483:AXC917486 ANG917483:ANG917486 ADK917483:ADK917486 TO917483:TO917486 JS917483:JS917486 W917483:W917486 WWE851947:WWE851950 WMI851947:WMI851950 WCM851947:WCM851950 VSQ851947:VSQ851950 VIU851947:VIU851950 UYY851947:UYY851950 UPC851947:UPC851950 UFG851947:UFG851950 TVK851947:TVK851950 TLO851947:TLO851950 TBS851947:TBS851950 SRW851947:SRW851950 SIA851947:SIA851950 RYE851947:RYE851950 ROI851947:ROI851950 REM851947:REM851950 QUQ851947:QUQ851950 QKU851947:QKU851950 QAY851947:QAY851950 PRC851947:PRC851950 PHG851947:PHG851950 OXK851947:OXK851950 ONO851947:ONO851950 ODS851947:ODS851950 NTW851947:NTW851950 NKA851947:NKA851950 NAE851947:NAE851950 MQI851947:MQI851950 MGM851947:MGM851950 LWQ851947:LWQ851950 LMU851947:LMU851950 LCY851947:LCY851950 KTC851947:KTC851950 KJG851947:KJG851950 JZK851947:JZK851950 JPO851947:JPO851950 JFS851947:JFS851950 IVW851947:IVW851950 IMA851947:IMA851950 ICE851947:ICE851950 HSI851947:HSI851950 HIM851947:HIM851950 GYQ851947:GYQ851950 GOU851947:GOU851950 GEY851947:GEY851950 FVC851947:FVC851950 FLG851947:FLG851950 FBK851947:FBK851950 ERO851947:ERO851950 EHS851947:EHS851950 DXW851947:DXW851950 DOA851947:DOA851950 DEE851947:DEE851950 CUI851947:CUI851950 CKM851947:CKM851950 CAQ851947:CAQ851950 BQU851947:BQU851950 BGY851947:BGY851950 AXC851947:AXC851950 ANG851947:ANG851950 ADK851947:ADK851950 TO851947:TO851950 JS851947:JS851950 W851947:W851950 WWE786411:WWE786414 WMI786411:WMI786414 WCM786411:WCM786414 VSQ786411:VSQ786414 VIU786411:VIU786414 UYY786411:UYY786414 UPC786411:UPC786414 UFG786411:UFG786414 TVK786411:TVK786414 TLO786411:TLO786414 TBS786411:TBS786414 SRW786411:SRW786414 SIA786411:SIA786414 RYE786411:RYE786414 ROI786411:ROI786414 REM786411:REM786414 QUQ786411:QUQ786414 QKU786411:QKU786414 QAY786411:QAY786414 PRC786411:PRC786414 PHG786411:PHG786414 OXK786411:OXK786414 ONO786411:ONO786414 ODS786411:ODS786414 NTW786411:NTW786414 NKA786411:NKA786414 NAE786411:NAE786414 MQI786411:MQI786414 MGM786411:MGM786414 LWQ786411:LWQ786414 LMU786411:LMU786414 LCY786411:LCY786414 KTC786411:KTC786414 KJG786411:KJG786414 JZK786411:JZK786414 JPO786411:JPO786414 JFS786411:JFS786414 IVW786411:IVW786414 IMA786411:IMA786414 ICE786411:ICE786414 HSI786411:HSI786414 HIM786411:HIM786414 GYQ786411:GYQ786414 GOU786411:GOU786414 GEY786411:GEY786414 FVC786411:FVC786414 FLG786411:FLG786414 FBK786411:FBK786414 ERO786411:ERO786414 EHS786411:EHS786414 DXW786411:DXW786414 DOA786411:DOA786414 DEE786411:DEE786414 CUI786411:CUI786414 CKM786411:CKM786414 CAQ786411:CAQ786414 BQU786411:BQU786414 BGY786411:BGY786414 AXC786411:AXC786414 ANG786411:ANG786414 ADK786411:ADK786414 TO786411:TO786414 JS786411:JS786414 W786411:W786414 WWE720875:WWE720878 WMI720875:WMI720878 WCM720875:WCM720878 VSQ720875:VSQ720878 VIU720875:VIU720878 UYY720875:UYY720878 UPC720875:UPC720878 UFG720875:UFG720878 TVK720875:TVK720878 TLO720875:TLO720878 TBS720875:TBS720878 SRW720875:SRW720878 SIA720875:SIA720878 RYE720875:RYE720878 ROI720875:ROI720878 REM720875:REM720878 QUQ720875:QUQ720878 QKU720875:QKU720878 QAY720875:QAY720878 PRC720875:PRC720878 PHG720875:PHG720878 OXK720875:OXK720878 ONO720875:ONO720878 ODS720875:ODS720878 NTW720875:NTW720878 NKA720875:NKA720878 NAE720875:NAE720878 MQI720875:MQI720878 MGM720875:MGM720878 LWQ720875:LWQ720878 LMU720875:LMU720878 LCY720875:LCY720878 KTC720875:KTC720878 KJG720875:KJG720878 JZK720875:JZK720878 JPO720875:JPO720878 JFS720875:JFS720878 IVW720875:IVW720878 IMA720875:IMA720878 ICE720875:ICE720878 HSI720875:HSI720878 HIM720875:HIM720878 GYQ720875:GYQ720878 GOU720875:GOU720878 GEY720875:GEY720878 FVC720875:FVC720878 FLG720875:FLG720878 FBK720875:FBK720878 ERO720875:ERO720878 EHS720875:EHS720878 DXW720875:DXW720878 DOA720875:DOA720878 DEE720875:DEE720878 CUI720875:CUI720878 CKM720875:CKM720878 CAQ720875:CAQ720878 BQU720875:BQU720878 BGY720875:BGY720878 AXC720875:AXC720878 ANG720875:ANG720878 ADK720875:ADK720878 TO720875:TO720878 JS720875:JS720878 W720875:W720878 WWE655339:WWE655342 WMI655339:WMI655342 WCM655339:WCM655342 VSQ655339:VSQ655342 VIU655339:VIU655342 UYY655339:UYY655342 UPC655339:UPC655342 UFG655339:UFG655342 TVK655339:TVK655342 TLO655339:TLO655342 TBS655339:TBS655342 SRW655339:SRW655342 SIA655339:SIA655342 RYE655339:RYE655342 ROI655339:ROI655342 REM655339:REM655342 QUQ655339:QUQ655342 QKU655339:QKU655342 QAY655339:QAY655342 PRC655339:PRC655342 PHG655339:PHG655342 OXK655339:OXK655342 ONO655339:ONO655342 ODS655339:ODS655342 NTW655339:NTW655342 NKA655339:NKA655342 NAE655339:NAE655342 MQI655339:MQI655342 MGM655339:MGM655342 LWQ655339:LWQ655342 LMU655339:LMU655342 LCY655339:LCY655342 KTC655339:KTC655342 KJG655339:KJG655342 JZK655339:JZK655342 JPO655339:JPO655342 JFS655339:JFS655342 IVW655339:IVW655342 IMA655339:IMA655342 ICE655339:ICE655342 HSI655339:HSI655342 HIM655339:HIM655342 GYQ655339:GYQ655342 GOU655339:GOU655342 GEY655339:GEY655342 FVC655339:FVC655342 FLG655339:FLG655342 FBK655339:FBK655342 ERO655339:ERO655342 EHS655339:EHS655342 DXW655339:DXW655342 DOA655339:DOA655342 DEE655339:DEE655342 CUI655339:CUI655342 CKM655339:CKM655342 CAQ655339:CAQ655342 BQU655339:BQU655342 BGY655339:BGY655342 AXC655339:AXC655342 ANG655339:ANG655342 ADK655339:ADK655342 TO655339:TO655342 JS655339:JS655342 W655339:W655342 WWE589803:WWE589806 WMI589803:WMI589806 WCM589803:WCM589806 VSQ589803:VSQ589806 VIU589803:VIU589806 UYY589803:UYY589806 UPC589803:UPC589806 UFG589803:UFG589806 TVK589803:TVK589806 TLO589803:TLO589806 TBS589803:TBS589806 SRW589803:SRW589806 SIA589803:SIA589806 RYE589803:RYE589806 ROI589803:ROI589806 REM589803:REM589806 QUQ589803:QUQ589806 QKU589803:QKU589806 QAY589803:QAY589806 PRC589803:PRC589806 PHG589803:PHG589806 OXK589803:OXK589806 ONO589803:ONO589806 ODS589803:ODS589806 NTW589803:NTW589806 NKA589803:NKA589806 NAE589803:NAE589806 MQI589803:MQI589806 MGM589803:MGM589806 LWQ589803:LWQ589806 LMU589803:LMU589806 LCY589803:LCY589806 KTC589803:KTC589806 KJG589803:KJG589806 JZK589803:JZK589806 JPO589803:JPO589806 JFS589803:JFS589806 IVW589803:IVW589806 IMA589803:IMA589806 ICE589803:ICE589806 HSI589803:HSI589806 HIM589803:HIM589806 GYQ589803:GYQ589806 GOU589803:GOU589806 GEY589803:GEY589806 FVC589803:FVC589806 FLG589803:FLG589806 FBK589803:FBK589806 ERO589803:ERO589806 EHS589803:EHS589806 DXW589803:DXW589806 DOA589803:DOA589806 DEE589803:DEE589806 CUI589803:CUI589806 CKM589803:CKM589806 CAQ589803:CAQ589806 BQU589803:BQU589806 BGY589803:BGY589806 AXC589803:AXC589806 ANG589803:ANG589806 ADK589803:ADK589806 TO589803:TO589806 JS589803:JS589806 W589803:W589806 WWE524267:WWE524270 WMI524267:WMI524270 WCM524267:WCM524270 VSQ524267:VSQ524270 VIU524267:VIU524270 UYY524267:UYY524270 UPC524267:UPC524270 UFG524267:UFG524270 TVK524267:TVK524270 TLO524267:TLO524270 TBS524267:TBS524270 SRW524267:SRW524270 SIA524267:SIA524270 RYE524267:RYE524270 ROI524267:ROI524270 REM524267:REM524270 QUQ524267:QUQ524270 QKU524267:QKU524270 QAY524267:QAY524270 PRC524267:PRC524270 PHG524267:PHG524270 OXK524267:OXK524270 ONO524267:ONO524270 ODS524267:ODS524270 NTW524267:NTW524270 NKA524267:NKA524270 NAE524267:NAE524270 MQI524267:MQI524270 MGM524267:MGM524270 LWQ524267:LWQ524270 LMU524267:LMU524270 LCY524267:LCY524270 KTC524267:KTC524270 KJG524267:KJG524270 JZK524267:JZK524270 JPO524267:JPO524270 JFS524267:JFS524270 IVW524267:IVW524270 IMA524267:IMA524270 ICE524267:ICE524270 HSI524267:HSI524270 HIM524267:HIM524270 GYQ524267:GYQ524270 GOU524267:GOU524270 GEY524267:GEY524270 FVC524267:FVC524270 FLG524267:FLG524270 FBK524267:FBK524270 ERO524267:ERO524270 EHS524267:EHS524270 DXW524267:DXW524270 DOA524267:DOA524270 DEE524267:DEE524270 CUI524267:CUI524270 CKM524267:CKM524270 CAQ524267:CAQ524270 BQU524267:BQU524270 BGY524267:BGY524270 AXC524267:AXC524270 ANG524267:ANG524270 ADK524267:ADK524270 TO524267:TO524270 JS524267:JS524270 W524267:W524270 WWE458731:WWE458734 WMI458731:WMI458734 WCM458731:WCM458734 VSQ458731:VSQ458734 VIU458731:VIU458734 UYY458731:UYY458734 UPC458731:UPC458734 UFG458731:UFG458734 TVK458731:TVK458734 TLO458731:TLO458734 TBS458731:TBS458734 SRW458731:SRW458734 SIA458731:SIA458734 RYE458731:RYE458734 ROI458731:ROI458734 REM458731:REM458734 QUQ458731:QUQ458734 QKU458731:QKU458734 QAY458731:QAY458734 PRC458731:PRC458734 PHG458731:PHG458734 OXK458731:OXK458734 ONO458731:ONO458734 ODS458731:ODS458734 NTW458731:NTW458734 NKA458731:NKA458734 NAE458731:NAE458734 MQI458731:MQI458734 MGM458731:MGM458734 LWQ458731:LWQ458734 LMU458731:LMU458734 LCY458731:LCY458734 KTC458731:KTC458734 KJG458731:KJG458734 JZK458731:JZK458734 JPO458731:JPO458734 JFS458731:JFS458734 IVW458731:IVW458734 IMA458731:IMA458734 ICE458731:ICE458734 HSI458731:HSI458734 HIM458731:HIM458734 GYQ458731:GYQ458734 GOU458731:GOU458734 GEY458731:GEY458734 FVC458731:FVC458734 FLG458731:FLG458734 FBK458731:FBK458734 ERO458731:ERO458734 EHS458731:EHS458734 DXW458731:DXW458734 DOA458731:DOA458734 DEE458731:DEE458734 CUI458731:CUI458734 CKM458731:CKM458734 CAQ458731:CAQ458734 BQU458731:BQU458734 BGY458731:BGY458734 AXC458731:AXC458734 ANG458731:ANG458734 ADK458731:ADK458734 TO458731:TO458734 JS458731:JS458734 W458731:W458734 WWE393195:WWE393198 WMI393195:WMI393198 WCM393195:WCM393198 VSQ393195:VSQ393198 VIU393195:VIU393198 UYY393195:UYY393198 UPC393195:UPC393198 UFG393195:UFG393198 TVK393195:TVK393198 TLO393195:TLO393198 TBS393195:TBS393198 SRW393195:SRW393198 SIA393195:SIA393198 RYE393195:RYE393198 ROI393195:ROI393198 REM393195:REM393198 QUQ393195:QUQ393198 QKU393195:QKU393198 QAY393195:QAY393198 PRC393195:PRC393198 PHG393195:PHG393198 OXK393195:OXK393198 ONO393195:ONO393198 ODS393195:ODS393198 NTW393195:NTW393198 NKA393195:NKA393198 NAE393195:NAE393198 MQI393195:MQI393198 MGM393195:MGM393198 LWQ393195:LWQ393198 LMU393195:LMU393198 LCY393195:LCY393198 KTC393195:KTC393198 KJG393195:KJG393198 JZK393195:JZK393198 JPO393195:JPO393198 JFS393195:JFS393198 IVW393195:IVW393198 IMA393195:IMA393198 ICE393195:ICE393198 HSI393195:HSI393198 HIM393195:HIM393198 GYQ393195:GYQ393198 GOU393195:GOU393198 GEY393195:GEY393198 FVC393195:FVC393198 FLG393195:FLG393198 FBK393195:FBK393198 ERO393195:ERO393198 EHS393195:EHS393198 DXW393195:DXW393198 DOA393195:DOA393198 DEE393195:DEE393198 CUI393195:CUI393198 CKM393195:CKM393198 CAQ393195:CAQ393198 BQU393195:BQU393198 BGY393195:BGY393198 AXC393195:AXC393198 ANG393195:ANG393198 ADK393195:ADK393198 TO393195:TO393198 JS393195:JS393198 W393195:W393198 WWE327659:WWE327662 WMI327659:WMI327662 WCM327659:WCM327662 VSQ327659:VSQ327662 VIU327659:VIU327662 UYY327659:UYY327662 UPC327659:UPC327662 UFG327659:UFG327662 TVK327659:TVK327662 TLO327659:TLO327662 TBS327659:TBS327662 SRW327659:SRW327662 SIA327659:SIA327662 RYE327659:RYE327662 ROI327659:ROI327662 REM327659:REM327662 QUQ327659:QUQ327662 QKU327659:QKU327662 QAY327659:QAY327662 PRC327659:PRC327662 PHG327659:PHG327662 OXK327659:OXK327662 ONO327659:ONO327662 ODS327659:ODS327662 NTW327659:NTW327662 NKA327659:NKA327662 NAE327659:NAE327662 MQI327659:MQI327662 MGM327659:MGM327662 LWQ327659:LWQ327662 LMU327659:LMU327662 LCY327659:LCY327662 KTC327659:KTC327662 KJG327659:KJG327662 JZK327659:JZK327662 JPO327659:JPO327662 JFS327659:JFS327662 IVW327659:IVW327662 IMA327659:IMA327662 ICE327659:ICE327662 HSI327659:HSI327662 HIM327659:HIM327662 GYQ327659:GYQ327662 GOU327659:GOU327662 GEY327659:GEY327662 FVC327659:FVC327662 FLG327659:FLG327662 FBK327659:FBK327662 ERO327659:ERO327662 EHS327659:EHS327662 DXW327659:DXW327662 DOA327659:DOA327662 DEE327659:DEE327662 CUI327659:CUI327662 CKM327659:CKM327662 CAQ327659:CAQ327662 BQU327659:BQU327662 BGY327659:BGY327662 AXC327659:AXC327662 ANG327659:ANG327662 ADK327659:ADK327662 TO327659:TO327662 JS327659:JS327662 W327659:W327662 WWE262123:WWE262126 WMI262123:WMI262126 WCM262123:WCM262126 VSQ262123:VSQ262126 VIU262123:VIU262126 UYY262123:UYY262126 UPC262123:UPC262126 UFG262123:UFG262126 TVK262123:TVK262126 TLO262123:TLO262126 TBS262123:TBS262126 SRW262123:SRW262126 SIA262123:SIA262126 RYE262123:RYE262126 ROI262123:ROI262126 REM262123:REM262126 QUQ262123:QUQ262126 QKU262123:QKU262126 QAY262123:QAY262126 PRC262123:PRC262126 PHG262123:PHG262126 OXK262123:OXK262126 ONO262123:ONO262126 ODS262123:ODS262126 NTW262123:NTW262126 NKA262123:NKA262126 NAE262123:NAE262126 MQI262123:MQI262126 MGM262123:MGM262126 LWQ262123:LWQ262126 LMU262123:LMU262126 LCY262123:LCY262126 KTC262123:KTC262126 KJG262123:KJG262126 JZK262123:JZK262126 JPO262123:JPO262126 JFS262123:JFS262126 IVW262123:IVW262126 IMA262123:IMA262126 ICE262123:ICE262126 HSI262123:HSI262126 HIM262123:HIM262126 GYQ262123:GYQ262126 GOU262123:GOU262126 GEY262123:GEY262126 FVC262123:FVC262126 FLG262123:FLG262126 FBK262123:FBK262126 ERO262123:ERO262126 EHS262123:EHS262126 DXW262123:DXW262126 DOA262123:DOA262126 DEE262123:DEE262126 CUI262123:CUI262126 CKM262123:CKM262126 CAQ262123:CAQ262126 BQU262123:BQU262126 BGY262123:BGY262126 AXC262123:AXC262126 ANG262123:ANG262126 ADK262123:ADK262126 TO262123:TO262126 JS262123:JS262126 W262123:W262126 WWE196587:WWE196590 WMI196587:WMI196590 WCM196587:WCM196590 VSQ196587:VSQ196590 VIU196587:VIU196590 UYY196587:UYY196590 UPC196587:UPC196590 UFG196587:UFG196590 TVK196587:TVK196590 TLO196587:TLO196590 TBS196587:TBS196590 SRW196587:SRW196590 SIA196587:SIA196590 RYE196587:RYE196590 ROI196587:ROI196590 REM196587:REM196590 QUQ196587:QUQ196590 QKU196587:QKU196590 QAY196587:QAY196590 PRC196587:PRC196590 PHG196587:PHG196590 OXK196587:OXK196590 ONO196587:ONO196590 ODS196587:ODS196590 NTW196587:NTW196590 NKA196587:NKA196590 NAE196587:NAE196590 MQI196587:MQI196590 MGM196587:MGM196590 LWQ196587:LWQ196590 LMU196587:LMU196590 LCY196587:LCY196590 KTC196587:KTC196590 KJG196587:KJG196590 JZK196587:JZK196590 JPO196587:JPO196590 JFS196587:JFS196590 IVW196587:IVW196590 IMA196587:IMA196590 ICE196587:ICE196590 HSI196587:HSI196590 HIM196587:HIM196590 GYQ196587:GYQ196590 GOU196587:GOU196590 GEY196587:GEY196590 FVC196587:FVC196590 FLG196587:FLG196590 FBK196587:FBK196590 ERO196587:ERO196590 EHS196587:EHS196590 DXW196587:DXW196590 DOA196587:DOA196590 DEE196587:DEE196590 CUI196587:CUI196590 CKM196587:CKM196590 CAQ196587:CAQ196590 BQU196587:BQU196590 BGY196587:BGY196590 AXC196587:AXC196590 ANG196587:ANG196590 ADK196587:ADK196590 TO196587:TO196590 JS196587:JS196590 W196587:W196590 WWE131051:WWE131054 WMI131051:WMI131054 WCM131051:WCM131054 VSQ131051:VSQ131054 VIU131051:VIU131054 UYY131051:UYY131054 UPC131051:UPC131054 UFG131051:UFG131054 TVK131051:TVK131054 TLO131051:TLO131054 TBS131051:TBS131054 SRW131051:SRW131054 SIA131051:SIA131054 RYE131051:RYE131054 ROI131051:ROI131054 REM131051:REM131054 QUQ131051:QUQ131054 QKU131051:QKU131054 QAY131051:QAY131054 PRC131051:PRC131054 PHG131051:PHG131054 OXK131051:OXK131054 ONO131051:ONO131054 ODS131051:ODS131054 NTW131051:NTW131054 NKA131051:NKA131054 NAE131051:NAE131054 MQI131051:MQI131054 MGM131051:MGM131054 LWQ131051:LWQ131054 LMU131051:LMU131054 LCY131051:LCY131054 KTC131051:KTC131054 KJG131051:KJG131054 JZK131051:JZK131054 JPO131051:JPO131054 JFS131051:JFS131054 IVW131051:IVW131054 IMA131051:IMA131054 ICE131051:ICE131054 HSI131051:HSI131054 HIM131051:HIM131054 GYQ131051:GYQ131054 GOU131051:GOU131054 GEY131051:GEY131054 FVC131051:FVC131054 FLG131051:FLG131054 FBK131051:FBK131054 ERO131051:ERO131054 EHS131051:EHS131054 DXW131051:DXW131054 DOA131051:DOA131054 DEE131051:DEE131054 CUI131051:CUI131054 CKM131051:CKM131054 CAQ131051:CAQ131054 BQU131051:BQU131054 BGY131051:BGY131054 AXC131051:AXC131054 ANG131051:ANG131054 ADK131051:ADK131054 TO131051:TO131054 JS131051:JS131054 W131051:W131054 WWE65515:WWE65518 WMI65515:WMI65518 WCM65515:WCM65518 VSQ65515:VSQ65518 VIU65515:VIU65518 UYY65515:UYY65518 UPC65515:UPC65518 UFG65515:UFG65518 TVK65515:TVK65518 TLO65515:TLO65518 TBS65515:TBS65518 SRW65515:SRW65518 SIA65515:SIA65518 RYE65515:RYE65518 ROI65515:ROI65518 REM65515:REM65518 QUQ65515:QUQ65518 QKU65515:QKU65518 QAY65515:QAY65518 PRC65515:PRC65518 PHG65515:PHG65518 OXK65515:OXK65518 ONO65515:ONO65518 ODS65515:ODS65518 NTW65515:NTW65518 NKA65515:NKA65518 NAE65515:NAE65518 MQI65515:MQI65518 MGM65515:MGM65518 LWQ65515:LWQ65518 LMU65515:LMU65518 LCY65515:LCY65518 KTC65515:KTC65518 KJG65515:KJG65518 JZK65515:JZK65518 JPO65515:JPO65518 JFS65515:JFS65518 IVW65515:IVW65518 IMA65515:IMA65518 ICE65515:ICE65518 HSI65515:HSI65518 HIM65515:HIM65518 GYQ65515:GYQ65518 GOU65515:GOU65518 GEY65515:GEY65518 FVC65515:FVC65518 FLG65515:FLG65518 FBK65515:FBK65518 ERO65515:ERO65518 EHS65515:EHS65518 DXW65515:DXW65518 DOA65515:DOA65518 DEE65515:DEE65518 CUI65515:CUI65518 CKM65515:CKM65518 CAQ65515:CAQ65518 BQU65515:BQU65518 BGY65515:BGY65518 AXC65515:AXC65518 ANG65515:ANG65518 ADK65515:ADK65518 TO65515:TO65518 JS65515:JS65518 W65515:W65518 WWK983019:WWK983022 WMO983019:WMO983022 WCS983019:WCS983022 VSW983019:VSW983022 VJA983019:VJA983022 UZE983019:UZE983022 UPI983019:UPI983022 UFM983019:UFM983022 TVQ983019:TVQ983022 TLU983019:TLU983022 TBY983019:TBY983022 SSC983019:SSC983022 SIG983019:SIG983022 RYK983019:RYK983022 ROO983019:ROO983022 RES983019:RES983022 QUW983019:QUW983022 QLA983019:QLA983022 QBE983019:QBE983022 PRI983019:PRI983022 PHM983019:PHM983022 OXQ983019:OXQ983022 ONU983019:ONU983022 ODY983019:ODY983022 NUC983019:NUC983022 NKG983019:NKG983022 NAK983019:NAK983022 MQO983019:MQO983022 MGS983019:MGS983022 LWW983019:LWW983022 LNA983019:LNA983022 LDE983019:LDE983022 KTI983019:KTI983022 KJM983019:KJM983022 JZQ983019:JZQ983022 JPU983019:JPU983022 JFY983019:JFY983022 IWC983019:IWC983022 IMG983019:IMG983022 ICK983019:ICK983022 HSO983019:HSO983022 HIS983019:HIS983022 GYW983019:GYW983022 GPA983019:GPA983022 GFE983019:GFE983022 FVI983019:FVI983022 FLM983019:FLM983022 FBQ983019:FBQ983022 ERU983019:ERU983022 EHY983019:EHY983022 DYC983019:DYC983022 DOG983019:DOG983022 DEK983019:DEK983022 CUO983019:CUO983022 CKS983019:CKS983022 CAW983019:CAW983022 BRA983019:BRA983022 BHE983019:BHE983022 AXI983019:AXI983022 ANM983019:ANM983022 ADQ983019:ADQ983022 TU983019:TU983022 JY983019:JY983022 AC983019:AC983022 WWK917483:WWK917486 WMO917483:WMO917486 WCS917483:WCS917486 VSW917483:VSW917486 VJA917483:VJA917486 UZE917483:UZE917486 UPI917483:UPI917486 UFM917483:UFM917486 TVQ917483:TVQ917486 TLU917483:TLU917486 TBY917483:TBY917486 SSC917483:SSC917486 SIG917483:SIG917486 RYK917483:RYK917486 ROO917483:ROO917486 RES917483:RES917486 QUW917483:QUW917486 QLA917483:QLA917486 QBE917483:QBE917486 PRI917483:PRI917486 PHM917483:PHM917486 OXQ917483:OXQ917486 ONU917483:ONU917486 ODY917483:ODY917486 NUC917483:NUC917486 NKG917483:NKG917486 NAK917483:NAK917486 MQO917483:MQO917486 MGS917483:MGS917486 LWW917483:LWW917486 LNA917483:LNA917486 LDE917483:LDE917486 KTI917483:KTI917486 KJM917483:KJM917486 JZQ917483:JZQ917486 JPU917483:JPU917486 JFY917483:JFY917486 IWC917483:IWC917486 IMG917483:IMG917486 ICK917483:ICK917486 HSO917483:HSO917486 HIS917483:HIS917486 GYW917483:GYW917486 GPA917483:GPA917486 GFE917483:GFE917486 FVI917483:FVI917486 FLM917483:FLM917486 FBQ917483:FBQ917486 ERU917483:ERU917486 EHY917483:EHY917486 DYC917483:DYC917486 DOG917483:DOG917486 DEK917483:DEK917486 CUO917483:CUO917486 CKS917483:CKS917486 CAW917483:CAW917486 BRA917483:BRA917486 BHE917483:BHE917486 AXI917483:AXI917486 ANM917483:ANM917486 ADQ917483:ADQ917486 TU917483:TU917486 JY917483:JY917486 AC917483:AC917486 WWK851947:WWK851950 WMO851947:WMO851950 WCS851947:WCS851950 VSW851947:VSW851950 VJA851947:VJA851950 UZE851947:UZE851950 UPI851947:UPI851950 UFM851947:UFM851950 TVQ851947:TVQ851950 TLU851947:TLU851950 TBY851947:TBY851950 SSC851947:SSC851950 SIG851947:SIG851950 RYK851947:RYK851950 ROO851947:ROO851950 RES851947:RES851950 QUW851947:QUW851950 QLA851947:QLA851950 QBE851947:QBE851950 PRI851947:PRI851950 PHM851947:PHM851950 OXQ851947:OXQ851950 ONU851947:ONU851950 ODY851947:ODY851950 NUC851947:NUC851950 NKG851947:NKG851950 NAK851947:NAK851950 MQO851947:MQO851950 MGS851947:MGS851950 LWW851947:LWW851950 LNA851947:LNA851950 LDE851947:LDE851950 KTI851947:KTI851950 KJM851947:KJM851950 JZQ851947:JZQ851950 JPU851947:JPU851950 JFY851947:JFY851950 IWC851947:IWC851950 IMG851947:IMG851950 ICK851947:ICK851950 HSO851947:HSO851950 HIS851947:HIS851950 GYW851947:GYW851950 GPA851947:GPA851950 GFE851947:GFE851950 FVI851947:FVI851950 FLM851947:FLM851950 FBQ851947:FBQ851950 ERU851947:ERU851950 EHY851947:EHY851950 DYC851947:DYC851950 DOG851947:DOG851950 DEK851947:DEK851950 CUO851947:CUO851950 CKS851947:CKS851950 CAW851947:CAW851950 BRA851947:BRA851950 BHE851947:BHE851950 AXI851947:AXI851950 ANM851947:ANM851950 ADQ851947:ADQ851950 TU851947:TU851950 JY851947:JY851950 AC851947:AC851950 WWK786411:WWK786414 WMO786411:WMO786414 WCS786411:WCS786414 VSW786411:VSW786414 VJA786411:VJA786414 UZE786411:UZE786414 UPI786411:UPI786414 UFM786411:UFM786414 TVQ786411:TVQ786414 TLU786411:TLU786414 TBY786411:TBY786414 SSC786411:SSC786414 SIG786411:SIG786414 RYK786411:RYK786414 ROO786411:ROO786414 RES786411:RES786414 QUW786411:QUW786414 QLA786411:QLA786414 QBE786411:QBE786414 PRI786411:PRI786414 PHM786411:PHM786414 OXQ786411:OXQ786414 ONU786411:ONU786414 ODY786411:ODY786414 NUC786411:NUC786414 NKG786411:NKG786414 NAK786411:NAK786414 MQO786411:MQO786414 MGS786411:MGS786414 LWW786411:LWW786414 LNA786411:LNA786414 LDE786411:LDE786414 KTI786411:KTI786414 KJM786411:KJM786414 JZQ786411:JZQ786414 JPU786411:JPU786414 JFY786411:JFY786414 IWC786411:IWC786414 IMG786411:IMG786414 ICK786411:ICK786414 HSO786411:HSO786414 HIS786411:HIS786414 GYW786411:GYW786414 GPA786411:GPA786414 GFE786411:GFE786414 FVI786411:FVI786414 FLM786411:FLM786414 FBQ786411:FBQ786414 ERU786411:ERU786414 EHY786411:EHY786414 DYC786411:DYC786414 DOG786411:DOG786414 DEK786411:DEK786414 CUO786411:CUO786414 CKS786411:CKS786414 CAW786411:CAW786414 BRA786411:BRA786414 BHE786411:BHE786414 AXI786411:AXI786414 ANM786411:ANM786414 ADQ786411:ADQ786414 TU786411:TU786414 JY786411:JY786414 AC786411:AC786414 WWK720875:WWK720878 WMO720875:WMO720878 WCS720875:WCS720878 VSW720875:VSW720878 VJA720875:VJA720878 UZE720875:UZE720878 UPI720875:UPI720878 UFM720875:UFM720878 TVQ720875:TVQ720878 TLU720875:TLU720878 TBY720875:TBY720878 SSC720875:SSC720878 SIG720875:SIG720878 RYK720875:RYK720878 ROO720875:ROO720878 RES720875:RES720878 QUW720875:QUW720878 QLA720875:QLA720878 QBE720875:QBE720878 PRI720875:PRI720878 PHM720875:PHM720878 OXQ720875:OXQ720878 ONU720875:ONU720878 ODY720875:ODY720878 NUC720875:NUC720878 NKG720875:NKG720878 NAK720875:NAK720878 MQO720875:MQO720878 MGS720875:MGS720878 LWW720875:LWW720878 LNA720875:LNA720878 LDE720875:LDE720878 KTI720875:KTI720878 KJM720875:KJM720878 JZQ720875:JZQ720878 JPU720875:JPU720878 JFY720875:JFY720878 IWC720875:IWC720878 IMG720875:IMG720878 ICK720875:ICK720878 HSO720875:HSO720878 HIS720875:HIS720878 GYW720875:GYW720878 GPA720875:GPA720878 GFE720875:GFE720878 FVI720875:FVI720878 FLM720875:FLM720878 FBQ720875:FBQ720878 ERU720875:ERU720878 EHY720875:EHY720878 DYC720875:DYC720878 DOG720875:DOG720878 DEK720875:DEK720878 CUO720875:CUO720878 CKS720875:CKS720878 CAW720875:CAW720878 BRA720875:BRA720878 BHE720875:BHE720878 AXI720875:AXI720878 ANM720875:ANM720878 ADQ720875:ADQ720878 TU720875:TU720878 JY720875:JY720878 AC720875:AC720878 WWK655339:WWK655342 WMO655339:WMO655342 WCS655339:WCS655342 VSW655339:VSW655342 VJA655339:VJA655342 UZE655339:UZE655342 UPI655339:UPI655342 UFM655339:UFM655342 TVQ655339:TVQ655342 TLU655339:TLU655342 TBY655339:TBY655342 SSC655339:SSC655342 SIG655339:SIG655342 RYK655339:RYK655342 ROO655339:ROO655342 RES655339:RES655342 QUW655339:QUW655342 QLA655339:QLA655342 QBE655339:QBE655342 PRI655339:PRI655342 PHM655339:PHM655342 OXQ655339:OXQ655342 ONU655339:ONU655342 ODY655339:ODY655342 NUC655339:NUC655342 NKG655339:NKG655342 NAK655339:NAK655342 MQO655339:MQO655342 MGS655339:MGS655342 LWW655339:LWW655342 LNA655339:LNA655342 LDE655339:LDE655342 KTI655339:KTI655342 KJM655339:KJM655342 JZQ655339:JZQ655342 JPU655339:JPU655342 JFY655339:JFY655342 IWC655339:IWC655342 IMG655339:IMG655342 ICK655339:ICK655342 HSO655339:HSO655342 HIS655339:HIS655342 GYW655339:GYW655342 GPA655339:GPA655342 GFE655339:GFE655342 FVI655339:FVI655342 FLM655339:FLM655342 FBQ655339:FBQ655342 ERU655339:ERU655342 EHY655339:EHY655342 DYC655339:DYC655342 DOG655339:DOG655342 DEK655339:DEK655342 CUO655339:CUO655342 CKS655339:CKS655342 CAW655339:CAW655342 BRA655339:BRA655342 BHE655339:BHE655342 AXI655339:AXI655342 ANM655339:ANM655342 ADQ655339:ADQ655342 TU655339:TU655342 JY655339:JY655342 AC655339:AC655342 WWK589803:WWK589806 WMO589803:WMO589806 WCS589803:WCS589806 VSW589803:VSW589806 VJA589803:VJA589806 UZE589803:UZE589806 UPI589803:UPI589806 UFM589803:UFM589806 TVQ589803:TVQ589806 TLU589803:TLU589806 TBY589803:TBY589806 SSC589803:SSC589806 SIG589803:SIG589806 RYK589803:RYK589806 ROO589803:ROO589806 RES589803:RES589806 QUW589803:QUW589806 QLA589803:QLA589806 QBE589803:QBE589806 PRI589803:PRI589806 PHM589803:PHM589806 OXQ589803:OXQ589806 ONU589803:ONU589806 ODY589803:ODY589806 NUC589803:NUC589806 NKG589803:NKG589806 NAK589803:NAK589806 MQO589803:MQO589806 MGS589803:MGS589806 LWW589803:LWW589806 LNA589803:LNA589806 LDE589803:LDE589806 KTI589803:KTI589806 KJM589803:KJM589806 JZQ589803:JZQ589806 JPU589803:JPU589806 JFY589803:JFY589806 IWC589803:IWC589806 IMG589803:IMG589806 ICK589803:ICK589806 HSO589803:HSO589806 HIS589803:HIS589806 GYW589803:GYW589806 GPA589803:GPA589806 GFE589803:GFE589806 FVI589803:FVI589806 FLM589803:FLM589806 FBQ589803:FBQ589806 ERU589803:ERU589806 EHY589803:EHY589806 DYC589803:DYC589806 DOG589803:DOG589806 DEK589803:DEK589806 CUO589803:CUO589806 CKS589803:CKS589806 CAW589803:CAW589806 BRA589803:BRA589806 BHE589803:BHE589806 AXI589803:AXI589806 ANM589803:ANM589806 ADQ589803:ADQ589806 TU589803:TU589806 JY589803:JY589806 AC589803:AC589806 WWK524267:WWK524270 WMO524267:WMO524270 WCS524267:WCS524270 VSW524267:VSW524270 VJA524267:VJA524270 UZE524267:UZE524270 UPI524267:UPI524270 UFM524267:UFM524270 TVQ524267:TVQ524270 TLU524267:TLU524270 TBY524267:TBY524270 SSC524267:SSC524270 SIG524267:SIG524270 RYK524267:RYK524270 ROO524267:ROO524270 RES524267:RES524270 QUW524267:QUW524270 QLA524267:QLA524270 QBE524267:QBE524270 PRI524267:PRI524270 PHM524267:PHM524270 OXQ524267:OXQ524270 ONU524267:ONU524270 ODY524267:ODY524270 NUC524267:NUC524270 NKG524267:NKG524270 NAK524267:NAK524270 MQO524267:MQO524270 MGS524267:MGS524270 LWW524267:LWW524270 LNA524267:LNA524270 LDE524267:LDE524270 KTI524267:KTI524270 KJM524267:KJM524270 JZQ524267:JZQ524270 JPU524267:JPU524270 JFY524267:JFY524270 IWC524267:IWC524270 IMG524267:IMG524270 ICK524267:ICK524270 HSO524267:HSO524270 HIS524267:HIS524270 GYW524267:GYW524270 GPA524267:GPA524270 GFE524267:GFE524270 FVI524267:FVI524270 FLM524267:FLM524270 FBQ524267:FBQ524270 ERU524267:ERU524270 EHY524267:EHY524270 DYC524267:DYC524270 DOG524267:DOG524270 DEK524267:DEK524270 CUO524267:CUO524270 CKS524267:CKS524270 CAW524267:CAW524270 BRA524267:BRA524270 BHE524267:BHE524270 AXI524267:AXI524270 ANM524267:ANM524270 ADQ524267:ADQ524270 TU524267:TU524270 JY524267:JY524270 AC524267:AC524270 WWK458731:WWK458734 WMO458731:WMO458734 WCS458731:WCS458734 VSW458731:VSW458734 VJA458731:VJA458734 UZE458731:UZE458734 UPI458731:UPI458734 UFM458731:UFM458734 TVQ458731:TVQ458734 TLU458731:TLU458734 TBY458731:TBY458734 SSC458731:SSC458734 SIG458731:SIG458734 RYK458731:RYK458734 ROO458731:ROO458734 RES458731:RES458734 QUW458731:QUW458734 QLA458731:QLA458734 QBE458731:QBE458734 PRI458731:PRI458734 PHM458731:PHM458734 OXQ458731:OXQ458734 ONU458731:ONU458734 ODY458731:ODY458734 NUC458731:NUC458734 NKG458731:NKG458734 NAK458731:NAK458734 MQO458731:MQO458734 MGS458731:MGS458734 LWW458731:LWW458734 LNA458731:LNA458734 LDE458731:LDE458734 KTI458731:KTI458734 KJM458731:KJM458734 JZQ458731:JZQ458734 JPU458731:JPU458734 JFY458731:JFY458734 IWC458731:IWC458734 IMG458731:IMG458734 ICK458731:ICK458734 HSO458731:HSO458734 HIS458731:HIS458734 GYW458731:GYW458734 GPA458731:GPA458734 GFE458731:GFE458734 FVI458731:FVI458734 FLM458731:FLM458734 FBQ458731:FBQ458734 ERU458731:ERU458734 EHY458731:EHY458734 DYC458731:DYC458734 DOG458731:DOG458734 DEK458731:DEK458734 CUO458731:CUO458734 CKS458731:CKS458734 CAW458731:CAW458734 BRA458731:BRA458734 BHE458731:BHE458734 AXI458731:AXI458734 ANM458731:ANM458734 ADQ458731:ADQ458734 TU458731:TU458734 JY458731:JY458734 AC458731:AC458734 WWK393195:WWK393198 WMO393195:WMO393198 WCS393195:WCS393198 VSW393195:VSW393198 VJA393195:VJA393198 UZE393195:UZE393198 UPI393195:UPI393198 UFM393195:UFM393198 TVQ393195:TVQ393198 TLU393195:TLU393198 TBY393195:TBY393198 SSC393195:SSC393198 SIG393195:SIG393198 RYK393195:RYK393198 ROO393195:ROO393198 RES393195:RES393198 QUW393195:QUW393198 QLA393195:QLA393198 QBE393195:QBE393198 PRI393195:PRI393198 PHM393195:PHM393198 OXQ393195:OXQ393198 ONU393195:ONU393198 ODY393195:ODY393198 NUC393195:NUC393198 NKG393195:NKG393198 NAK393195:NAK393198 MQO393195:MQO393198 MGS393195:MGS393198 LWW393195:LWW393198 LNA393195:LNA393198 LDE393195:LDE393198 KTI393195:KTI393198 KJM393195:KJM393198 JZQ393195:JZQ393198 JPU393195:JPU393198 JFY393195:JFY393198 IWC393195:IWC393198 IMG393195:IMG393198 ICK393195:ICK393198 HSO393195:HSO393198 HIS393195:HIS393198 GYW393195:GYW393198 GPA393195:GPA393198 GFE393195:GFE393198 FVI393195:FVI393198 FLM393195:FLM393198 FBQ393195:FBQ393198 ERU393195:ERU393198 EHY393195:EHY393198 DYC393195:DYC393198 DOG393195:DOG393198 DEK393195:DEK393198 CUO393195:CUO393198 CKS393195:CKS393198 CAW393195:CAW393198 BRA393195:BRA393198 BHE393195:BHE393198 AXI393195:AXI393198 ANM393195:ANM393198 ADQ393195:ADQ393198 TU393195:TU393198 JY393195:JY393198 AC393195:AC393198 WWK327659:WWK327662 WMO327659:WMO327662 WCS327659:WCS327662 VSW327659:VSW327662 VJA327659:VJA327662 UZE327659:UZE327662 UPI327659:UPI327662 UFM327659:UFM327662 TVQ327659:TVQ327662 TLU327659:TLU327662 TBY327659:TBY327662 SSC327659:SSC327662 SIG327659:SIG327662 RYK327659:RYK327662 ROO327659:ROO327662 RES327659:RES327662 QUW327659:QUW327662 QLA327659:QLA327662 QBE327659:QBE327662 PRI327659:PRI327662 PHM327659:PHM327662 OXQ327659:OXQ327662 ONU327659:ONU327662 ODY327659:ODY327662 NUC327659:NUC327662 NKG327659:NKG327662 NAK327659:NAK327662 MQO327659:MQO327662 MGS327659:MGS327662 LWW327659:LWW327662 LNA327659:LNA327662 LDE327659:LDE327662 KTI327659:KTI327662 KJM327659:KJM327662 JZQ327659:JZQ327662 JPU327659:JPU327662 JFY327659:JFY327662 IWC327659:IWC327662 IMG327659:IMG327662 ICK327659:ICK327662 HSO327659:HSO327662 HIS327659:HIS327662 GYW327659:GYW327662 GPA327659:GPA327662 GFE327659:GFE327662 FVI327659:FVI327662 FLM327659:FLM327662 FBQ327659:FBQ327662 ERU327659:ERU327662 EHY327659:EHY327662 DYC327659:DYC327662 DOG327659:DOG327662 DEK327659:DEK327662 CUO327659:CUO327662 CKS327659:CKS327662 CAW327659:CAW327662 BRA327659:BRA327662 BHE327659:BHE327662 AXI327659:AXI327662 ANM327659:ANM327662 ADQ327659:ADQ327662 TU327659:TU327662 JY327659:JY327662 AC327659:AC327662 WWK262123:WWK262126 WMO262123:WMO262126 WCS262123:WCS262126 VSW262123:VSW262126 VJA262123:VJA262126 UZE262123:UZE262126 UPI262123:UPI262126 UFM262123:UFM262126 TVQ262123:TVQ262126 TLU262123:TLU262126 TBY262123:TBY262126 SSC262123:SSC262126 SIG262123:SIG262126 RYK262123:RYK262126 ROO262123:ROO262126 RES262123:RES262126 QUW262123:QUW262126 QLA262123:QLA262126 QBE262123:QBE262126 PRI262123:PRI262126 PHM262123:PHM262126 OXQ262123:OXQ262126 ONU262123:ONU262126 ODY262123:ODY262126 NUC262123:NUC262126 NKG262123:NKG262126 NAK262123:NAK262126 MQO262123:MQO262126 MGS262123:MGS262126 LWW262123:LWW262126 LNA262123:LNA262126 LDE262123:LDE262126 KTI262123:KTI262126 KJM262123:KJM262126 JZQ262123:JZQ262126 JPU262123:JPU262126 JFY262123:JFY262126 IWC262123:IWC262126 IMG262123:IMG262126 ICK262123:ICK262126 HSO262123:HSO262126 HIS262123:HIS262126 GYW262123:GYW262126 GPA262123:GPA262126 GFE262123:GFE262126 FVI262123:FVI262126 FLM262123:FLM262126 FBQ262123:FBQ262126 ERU262123:ERU262126 EHY262123:EHY262126 DYC262123:DYC262126 DOG262123:DOG262126 DEK262123:DEK262126 CUO262123:CUO262126 CKS262123:CKS262126 CAW262123:CAW262126 BRA262123:BRA262126 BHE262123:BHE262126 AXI262123:AXI262126 ANM262123:ANM262126 ADQ262123:ADQ262126 TU262123:TU262126 JY262123:JY262126 AC262123:AC262126 WWK196587:WWK196590 WMO196587:WMO196590 WCS196587:WCS196590 VSW196587:VSW196590 VJA196587:VJA196590 UZE196587:UZE196590 UPI196587:UPI196590 UFM196587:UFM196590 TVQ196587:TVQ196590 TLU196587:TLU196590 TBY196587:TBY196590 SSC196587:SSC196590 SIG196587:SIG196590 RYK196587:RYK196590 ROO196587:ROO196590 RES196587:RES196590 QUW196587:QUW196590 QLA196587:QLA196590 QBE196587:QBE196590 PRI196587:PRI196590 PHM196587:PHM196590 OXQ196587:OXQ196590 ONU196587:ONU196590 ODY196587:ODY196590 NUC196587:NUC196590 NKG196587:NKG196590 NAK196587:NAK196590 MQO196587:MQO196590 MGS196587:MGS196590 LWW196587:LWW196590 LNA196587:LNA196590 LDE196587:LDE196590 KTI196587:KTI196590 KJM196587:KJM196590 JZQ196587:JZQ196590 JPU196587:JPU196590 JFY196587:JFY196590 IWC196587:IWC196590 IMG196587:IMG196590 ICK196587:ICK196590 HSO196587:HSO196590 HIS196587:HIS196590 GYW196587:GYW196590 GPA196587:GPA196590 GFE196587:GFE196590 FVI196587:FVI196590 FLM196587:FLM196590 FBQ196587:FBQ196590 ERU196587:ERU196590 EHY196587:EHY196590 DYC196587:DYC196590 DOG196587:DOG196590 DEK196587:DEK196590 CUO196587:CUO196590 CKS196587:CKS196590 CAW196587:CAW196590 BRA196587:BRA196590 BHE196587:BHE196590 AXI196587:AXI196590 ANM196587:ANM196590 ADQ196587:ADQ196590 TU196587:TU196590 JY196587:JY196590 AC196587:AC196590 WWK131051:WWK131054 WMO131051:WMO131054 WCS131051:WCS131054 VSW131051:VSW131054 VJA131051:VJA131054 UZE131051:UZE131054 UPI131051:UPI131054 UFM131051:UFM131054 TVQ131051:TVQ131054 TLU131051:TLU131054 TBY131051:TBY131054 SSC131051:SSC131054 SIG131051:SIG131054 RYK131051:RYK131054 ROO131051:ROO131054 RES131051:RES131054 QUW131051:QUW131054 QLA131051:QLA131054 QBE131051:QBE131054 PRI131051:PRI131054 PHM131051:PHM131054 OXQ131051:OXQ131054 ONU131051:ONU131054 ODY131051:ODY131054 NUC131051:NUC131054 NKG131051:NKG131054 NAK131051:NAK131054 MQO131051:MQO131054 MGS131051:MGS131054 LWW131051:LWW131054 LNA131051:LNA131054 LDE131051:LDE131054 KTI131051:KTI131054 KJM131051:KJM131054 JZQ131051:JZQ131054 JPU131051:JPU131054 JFY131051:JFY131054 IWC131051:IWC131054 IMG131051:IMG131054 ICK131051:ICK131054 HSO131051:HSO131054 HIS131051:HIS131054 GYW131051:GYW131054 GPA131051:GPA131054 GFE131051:GFE131054 FVI131051:FVI131054 FLM131051:FLM131054 FBQ131051:FBQ131054 ERU131051:ERU131054 EHY131051:EHY131054 DYC131051:DYC131054 DOG131051:DOG131054 DEK131051:DEK131054 CUO131051:CUO131054 CKS131051:CKS131054 CAW131051:CAW131054 BRA131051:BRA131054 BHE131051:BHE131054 AXI131051:AXI131054 ANM131051:ANM131054 ADQ131051:ADQ131054 TU131051:TU131054 JY131051:JY131054 AC131051:AC131054 WWK65515:WWK65518 WMO65515:WMO65518 WCS65515:WCS65518 VSW65515:VSW65518 VJA65515:VJA65518 UZE65515:UZE65518 UPI65515:UPI65518 UFM65515:UFM65518 TVQ65515:TVQ65518 TLU65515:TLU65518 TBY65515:TBY65518 SSC65515:SSC65518 SIG65515:SIG65518 RYK65515:RYK65518 ROO65515:ROO65518 RES65515:RES65518 QUW65515:QUW65518 QLA65515:QLA65518 QBE65515:QBE65518 PRI65515:PRI65518 PHM65515:PHM65518 OXQ65515:OXQ65518 ONU65515:ONU65518 ODY65515:ODY65518 NUC65515:NUC65518 NKG65515:NKG65518 NAK65515:NAK65518 MQO65515:MQO65518 MGS65515:MGS65518 LWW65515:LWW65518 LNA65515:LNA65518 LDE65515:LDE65518 KTI65515:KTI65518 KJM65515:KJM65518 JZQ65515:JZQ65518 JPU65515:JPU65518 JFY65515:JFY65518 IWC65515:IWC65518 IMG65515:IMG65518 ICK65515:ICK65518 HSO65515:HSO65518 HIS65515:HIS65518 GYW65515:GYW65518 GPA65515:GPA65518 GFE65515:GFE65518 FVI65515:FVI65518 FLM65515:FLM65518 FBQ65515:FBQ65518 ERU65515:ERU65518 EHY65515:EHY65518 DYC65515:DYC65518 DOG65515:DOG65518 DEK65515:DEK65518 CUO65515:CUO65518 CKS65515:CKS65518 CAW65515:CAW65518 BRA65515:BRA65518 BHE65515:BHE65518 AXI65515:AXI65518 ANM65515:ANM65518 ADQ65515:ADQ65518 TU65515:TU65518 JY65515:JY65518 AC65515:AC65518 WWI983019:WWI983022 WMM983019:WMM983022 WCQ983019:WCQ983022 VSU983019:VSU983022 VIY983019:VIY983022 UZC983019:UZC983022 UPG983019:UPG983022 UFK983019:UFK983022 TVO983019:TVO983022 TLS983019:TLS983022 TBW983019:TBW983022 SSA983019:SSA983022 SIE983019:SIE983022 RYI983019:RYI983022 ROM983019:ROM983022 REQ983019:REQ983022 QUU983019:QUU983022 QKY983019:QKY983022 QBC983019:QBC983022 PRG983019:PRG983022 PHK983019:PHK983022 OXO983019:OXO983022 ONS983019:ONS983022 ODW983019:ODW983022 NUA983019:NUA983022 NKE983019:NKE983022 NAI983019:NAI983022 MQM983019:MQM983022 MGQ983019:MGQ983022 LWU983019:LWU983022 LMY983019:LMY983022 LDC983019:LDC983022 KTG983019:KTG983022 KJK983019:KJK983022 JZO983019:JZO983022 JPS983019:JPS983022 JFW983019:JFW983022 IWA983019:IWA983022 IME983019:IME983022 ICI983019:ICI983022 HSM983019:HSM983022 HIQ983019:HIQ983022 GYU983019:GYU983022 GOY983019:GOY983022 GFC983019:GFC983022 FVG983019:FVG983022 FLK983019:FLK983022 FBO983019:FBO983022 ERS983019:ERS983022 EHW983019:EHW983022 DYA983019:DYA983022 DOE983019:DOE983022 DEI983019:DEI983022 CUM983019:CUM983022 CKQ983019:CKQ983022 CAU983019:CAU983022 BQY983019:BQY983022 BHC983019:BHC983022 AXG983019:AXG983022 ANK983019:ANK983022 ADO983019:ADO983022 TS983019:TS983022 JW983019:JW983022 AA983019:AA983022 WWI917483:WWI917486 WMM917483:WMM917486 WCQ917483:WCQ917486 VSU917483:VSU917486 VIY917483:VIY917486 UZC917483:UZC917486 UPG917483:UPG917486 UFK917483:UFK917486 TVO917483:TVO917486 TLS917483:TLS917486 TBW917483:TBW917486 SSA917483:SSA917486 SIE917483:SIE917486 RYI917483:RYI917486 ROM917483:ROM917486 REQ917483:REQ917486 QUU917483:QUU917486 QKY917483:QKY917486 QBC917483:QBC917486 PRG917483:PRG917486 PHK917483:PHK917486 OXO917483:OXO917486 ONS917483:ONS917486 ODW917483:ODW917486 NUA917483:NUA917486 NKE917483:NKE917486 NAI917483:NAI917486 MQM917483:MQM917486 MGQ917483:MGQ917486 LWU917483:LWU917486 LMY917483:LMY917486 LDC917483:LDC917486 KTG917483:KTG917486 KJK917483:KJK917486 JZO917483:JZO917486 JPS917483:JPS917486 JFW917483:JFW917486 IWA917483:IWA917486 IME917483:IME917486 ICI917483:ICI917486 HSM917483:HSM917486 HIQ917483:HIQ917486 GYU917483:GYU917486 GOY917483:GOY917486 GFC917483:GFC917486 FVG917483:FVG917486 FLK917483:FLK917486 FBO917483:FBO917486 ERS917483:ERS917486 EHW917483:EHW917486 DYA917483:DYA917486 DOE917483:DOE917486 DEI917483:DEI917486 CUM917483:CUM917486 CKQ917483:CKQ917486 CAU917483:CAU917486 BQY917483:BQY917486 BHC917483:BHC917486 AXG917483:AXG917486 ANK917483:ANK917486 ADO917483:ADO917486 TS917483:TS917486 JW917483:JW917486 AA917483:AA917486 WWI851947:WWI851950 WMM851947:WMM851950 WCQ851947:WCQ851950 VSU851947:VSU851950 VIY851947:VIY851950 UZC851947:UZC851950 UPG851947:UPG851950 UFK851947:UFK851950 TVO851947:TVO851950 TLS851947:TLS851950 TBW851947:TBW851950 SSA851947:SSA851950 SIE851947:SIE851950 RYI851947:RYI851950 ROM851947:ROM851950 REQ851947:REQ851950 QUU851947:QUU851950 QKY851947:QKY851950 QBC851947:QBC851950 PRG851947:PRG851950 PHK851947:PHK851950 OXO851947:OXO851950 ONS851947:ONS851950 ODW851947:ODW851950 NUA851947:NUA851950 NKE851947:NKE851950 NAI851947:NAI851950 MQM851947:MQM851950 MGQ851947:MGQ851950 LWU851947:LWU851950 LMY851947:LMY851950 LDC851947:LDC851950 KTG851947:KTG851950 KJK851947:KJK851950 JZO851947:JZO851950 JPS851947:JPS851950 JFW851947:JFW851950 IWA851947:IWA851950 IME851947:IME851950 ICI851947:ICI851950 HSM851947:HSM851950 HIQ851947:HIQ851950 GYU851947:GYU851950 GOY851947:GOY851950 GFC851947:GFC851950 FVG851947:FVG851950 FLK851947:FLK851950 FBO851947:FBO851950 ERS851947:ERS851950 EHW851947:EHW851950 DYA851947:DYA851950 DOE851947:DOE851950 DEI851947:DEI851950 CUM851947:CUM851950 CKQ851947:CKQ851950 CAU851947:CAU851950 BQY851947:BQY851950 BHC851947:BHC851950 AXG851947:AXG851950 ANK851947:ANK851950 ADO851947:ADO851950 TS851947:TS851950 JW851947:JW851950 AA851947:AA851950 WWI786411:WWI786414 WMM786411:WMM786414 WCQ786411:WCQ786414 VSU786411:VSU786414 VIY786411:VIY786414 UZC786411:UZC786414 UPG786411:UPG786414 UFK786411:UFK786414 TVO786411:TVO786414 TLS786411:TLS786414 TBW786411:TBW786414 SSA786411:SSA786414 SIE786411:SIE786414 RYI786411:RYI786414 ROM786411:ROM786414 REQ786411:REQ786414 QUU786411:QUU786414 QKY786411:QKY786414 QBC786411:QBC786414 PRG786411:PRG786414 PHK786411:PHK786414 OXO786411:OXO786414 ONS786411:ONS786414 ODW786411:ODW786414 NUA786411:NUA786414 NKE786411:NKE786414 NAI786411:NAI786414 MQM786411:MQM786414 MGQ786411:MGQ786414 LWU786411:LWU786414 LMY786411:LMY786414 LDC786411:LDC786414 KTG786411:KTG786414 KJK786411:KJK786414 JZO786411:JZO786414 JPS786411:JPS786414 JFW786411:JFW786414 IWA786411:IWA786414 IME786411:IME786414 ICI786411:ICI786414 HSM786411:HSM786414 HIQ786411:HIQ786414 GYU786411:GYU786414 GOY786411:GOY786414 GFC786411:GFC786414 FVG786411:FVG786414 FLK786411:FLK786414 FBO786411:FBO786414 ERS786411:ERS786414 EHW786411:EHW786414 DYA786411:DYA786414 DOE786411:DOE786414 DEI786411:DEI786414 CUM786411:CUM786414 CKQ786411:CKQ786414 CAU786411:CAU786414 BQY786411:BQY786414 BHC786411:BHC786414 AXG786411:AXG786414 ANK786411:ANK786414 ADO786411:ADO786414 TS786411:TS786414 JW786411:JW786414 AA786411:AA786414 WWI720875:WWI720878 WMM720875:WMM720878 WCQ720875:WCQ720878 VSU720875:VSU720878 VIY720875:VIY720878 UZC720875:UZC720878 UPG720875:UPG720878 UFK720875:UFK720878 TVO720875:TVO720878 TLS720875:TLS720878 TBW720875:TBW720878 SSA720875:SSA720878 SIE720875:SIE720878 RYI720875:RYI720878 ROM720875:ROM720878 REQ720875:REQ720878 QUU720875:QUU720878 QKY720875:QKY720878 QBC720875:QBC720878 PRG720875:PRG720878 PHK720875:PHK720878 OXO720875:OXO720878 ONS720875:ONS720878 ODW720875:ODW720878 NUA720875:NUA720878 NKE720875:NKE720878 NAI720875:NAI720878 MQM720875:MQM720878 MGQ720875:MGQ720878 LWU720875:LWU720878 LMY720875:LMY720878 LDC720875:LDC720878 KTG720875:KTG720878 KJK720875:KJK720878 JZO720875:JZO720878 JPS720875:JPS720878 JFW720875:JFW720878 IWA720875:IWA720878 IME720875:IME720878 ICI720875:ICI720878 HSM720875:HSM720878 HIQ720875:HIQ720878 GYU720875:GYU720878 GOY720875:GOY720878 GFC720875:GFC720878 FVG720875:FVG720878 FLK720875:FLK720878 FBO720875:FBO720878 ERS720875:ERS720878 EHW720875:EHW720878 DYA720875:DYA720878 DOE720875:DOE720878 DEI720875:DEI720878 CUM720875:CUM720878 CKQ720875:CKQ720878 CAU720875:CAU720878 BQY720875:BQY720878 BHC720875:BHC720878 AXG720875:AXG720878 ANK720875:ANK720878 ADO720875:ADO720878 TS720875:TS720878 JW720875:JW720878 AA720875:AA720878 WWI655339:WWI655342 WMM655339:WMM655342 WCQ655339:WCQ655342 VSU655339:VSU655342 VIY655339:VIY655342 UZC655339:UZC655342 UPG655339:UPG655342 UFK655339:UFK655342 TVO655339:TVO655342 TLS655339:TLS655342 TBW655339:TBW655342 SSA655339:SSA655342 SIE655339:SIE655342 RYI655339:RYI655342 ROM655339:ROM655342 REQ655339:REQ655342 QUU655339:QUU655342 QKY655339:QKY655342 QBC655339:QBC655342 PRG655339:PRG655342 PHK655339:PHK655342 OXO655339:OXO655342 ONS655339:ONS655342 ODW655339:ODW655342 NUA655339:NUA655342 NKE655339:NKE655342 NAI655339:NAI655342 MQM655339:MQM655342 MGQ655339:MGQ655342 LWU655339:LWU655342 LMY655339:LMY655342 LDC655339:LDC655342 KTG655339:KTG655342 KJK655339:KJK655342 JZO655339:JZO655342 JPS655339:JPS655342 JFW655339:JFW655342 IWA655339:IWA655342 IME655339:IME655342 ICI655339:ICI655342 HSM655339:HSM655342 HIQ655339:HIQ655342 GYU655339:GYU655342 GOY655339:GOY655342 GFC655339:GFC655342 FVG655339:FVG655342 FLK655339:FLK655342 FBO655339:FBO655342 ERS655339:ERS655342 EHW655339:EHW655342 DYA655339:DYA655342 DOE655339:DOE655342 DEI655339:DEI655342 CUM655339:CUM655342 CKQ655339:CKQ655342 CAU655339:CAU655342 BQY655339:BQY655342 BHC655339:BHC655342 AXG655339:AXG655342 ANK655339:ANK655342 ADO655339:ADO655342 TS655339:TS655342 JW655339:JW655342 AA655339:AA655342 WWI589803:WWI589806 WMM589803:WMM589806 WCQ589803:WCQ589806 VSU589803:VSU589806 VIY589803:VIY589806 UZC589803:UZC589806 UPG589803:UPG589806 UFK589803:UFK589806 TVO589803:TVO589806 TLS589803:TLS589806 TBW589803:TBW589806 SSA589803:SSA589806 SIE589803:SIE589806 RYI589803:RYI589806 ROM589803:ROM589806 REQ589803:REQ589806 QUU589803:QUU589806 QKY589803:QKY589806 QBC589803:QBC589806 PRG589803:PRG589806 PHK589803:PHK589806 OXO589803:OXO589806 ONS589803:ONS589806 ODW589803:ODW589806 NUA589803:NUA589806 NKE589803:NKE589806 NAI589803:NAI589806 MQM589803:MQM589806 MGQ589803:MGQ589806 LWU589803:LWU589806 LMY589803:LMY589806 LDC589803:LDC589806 KTG589803:KTG589806 KJK589803:KJK589806 JZO589803:JZO589806 JPS589803:JPS589806 JFW589803:JFW589806 IWA589803:IWA589806 IME589803:IME589806 ICI589803:ICI589806 HSM589803:HSM589806 HIQ589803:HIQ589806 GYU589803:GYU589806 GOY589803:GOY589806 GFC589803:GFC589806 FVG589803:FVG589806 FLK589803:FLK589806 FBO589803:FBO589806 ERS589803:ERS589806 EHW589803:EHW589806 DYA589803:DYA589806 DOE589803:DOE589806 DEI589803:DEI589806 CUM589803:CUM589806 CKQ589803:CKQ589806 CAU589803:CAU589806 BQY589803:BQY589806 BHC589803:BHC589806 AXG589803:AXG589806 ANK589803:ANK589806 ADO589803:ADO589806 TS589803:TS589806 JW589803:JW589806 AA589803:AA589806 WWI524267:WWI524270 WMM524267:WMM524270 WCQ524267:WCQ524270 VSU524267:VSU524270 VIY524267:VIY524270 UZC524267:UZC524270 UPG524267:UPG524270 UFK524267:UFK524270 TVO524267:TVO524270 TLS524267:TLS524270 TBW524267:TBW524270 SSA524267:SSA524270 SIE524267:SIE524270 RYI524267:RYI524270 ROM524267:ROM524270 REQ524267:REQ524270 QUU524267:QUU524270 QKY524267:QKY524270 QBC524267:QBC524270 PRG524267:PRG524270 PHK524267:PHK524270 OXO524267:OXO524270 ONS524267:ONS524270 ODW524267:ODW524270 NUA524267:NUA524270 NKE524267:NKE524270 NAI524267:NAI524270 MQM524267:MQM524270 MGQ524267:MGQ524270 LWU524267:LWU524270 LMY524267:LMY524270 LDC524267:LDC524270 KTG524267:KTG524270 KJK524267:KJK524270 JZO524267:JZO524270 JPS524267:JPS524270 JFW524267:JFW524270 IWA524267:IWA524270 IME524267:IME524270 ICI524267:ICI524270 HSM524267:HSM524270 HIQ524267:HIQ524270 GYU524267:GYU524270 GOY524267:GOY524270 GFC524267:GFC524270 FVG524267:FVG524270 FLK524267:FLK524270 FBO524267:FBO524270 ERS524267:ERS524270 EHW524267:EHW524270 DYA524267:DYA524270 DOE524267:DOE524270 DEI524267:DEI524270 CUM524267:CUM524270 CKQ524267:CKQ524270 CAU524267:CAU524270 BQY524267:BQY524270 BHC524267:BHC524270 AXG524267:AXG524270 ANK524267:ANK524270 ADO524267:ADO524270 TS524267:TS524270 JW524267:JW524270 AA524267:AA524270 WWI458731:WWI458734 WMM458731:WMM458734 WCQ458731:WCQ458734 VSU458731:VSU458734 VIY458731:VIY458734 UZC458731:UZC458734 UPG458731:UPG458734 UFK458731:UFK458734 TVO458731:TVO458734 TLS458731:TLS458734 TBW458731:TBW458734 SSA458731:SSA458734 SIE458731:SIE458734 RYI458731:RYI458734 ROM458731:ROM458734 REQ458731:REQ458734 QUU458731:QUU458734 QKY458731:QKY458734 QBC458731:QBC458734 PRG458731:PRG458734 PHK458731:PHK458734 OXO458731:OXO458734 ONS458731:ONS458734 ODW458731:ODW458734 NUA458731:NUA458734 NKE458731:NKE458734 NAI458731:NAI458734 MQM458731:MQM458734 MGQ458731:MGQ458734 LWU458731:LWU458734 LMY458731:LMY458734 LDC458731:LDC458734 KTG458731:KTG458734 KJK458731:KJK458734 JZO458731:JZO458734 JPS458731:JPS458734 JFW458731:JFW458734 IWA458731:IWA458734 IME458731:IME458734 ICI458731:ICI458734 HSM458731:HSM458734 HIQ458731:HIQ458734 GYU458731:GYU458734 GOY458731:GOY458734 GFC458731:GFC458734 FVG458731:FVG458734 FLK458731:FLK458734 FBO458731:FBO458734 ERS458731:ERS458734 EHW458731:EHW458734 DYA458731:DYA458734 DOE458731:DOE458734 DEI458731:DEI458734 CUM458731:CUM458734 CKQ458731:CKQ458734 CAU458731:CAU458734 BQY458731:BQY458734 BHC458731:BHC458734 AXG458731:AXG458734 ANK458731:ANK458734 ADO458731:ADO458734 TS458731:TS458734 JW458731:JW458734 AA458731:AA458734 WWI393195:WWI393198 WMM393195:WMM393198 WCQ393195:WCQ393198 VSU393195:VSU393198 VIY393195:VIY393198 UZC393195:UZC393198 UPG393195:UPG393198 UFK393195:UFK393198 TVO393195:TVO393198 TLS393195:TLS393198 TBW393195:TBW393198 SSA393195:SSA393198 SIE393195:SIE393198 RYI393195:RYI393198 ROM393195:ROM393198 REQ393195:REQ393198 QUU393195:QUU393198 QKY393195:QKY393198 QBC393195:QBC393198 PRG393195:PRG393198 PHK393195:PHK393198 OXO393195:OXO393198 ONS393195:ONS393198 ODW393195:ODW393198 NUA393195:NUA393198 NKE393195:NKE393198 NAI393195:NAI393198 MQM393195:MQM393198 MGQ393195:MGQ393198 LWU393195:LWU393198 LMY393195:LMY393198 LDC393195:LDC393198 KTG393195:KTG393198 KJK393195:KJK393198 JZO393195:JZO393198 JPS393195:JPS393198 JFW393195:JFW393198 IWA393195:IWA393198 IME393195:IME393198 ICI393195:ICI393198 HSM393195:HSM393198 HIQ393195:HIQ393198 GYU393195:GYU393198 GOY393195:GOY393198 GFC393195:GFC393198 FVG393195:FVG393198 FLK393195:FLK393198 FBO393195:FBO393198 ERS393195:ERS393198 EHW393195:EHW393198 DYA393195:DYA393198 DOE393195:DOE393198 DEI393195:DEI393198 CUM393195:CUM393198 CKQ393195:CKQ393198 CAU393195:CAU393198 BQY393195:BQY393198 BHC393195:BHC393198 AXG393195:AXG393198 ANK393195:ANK393198 ADO393195:ADO393198 TS393195:TS393198 JW393195:JW393198 AA393195:AA393198 WWI327659:WWI327662 WMM327659:WMM327662 WCQ327659:WCQ327662 VSU327659:VSU327662 VIY327659:VIY327662 UZC327659:UZC327662 UPG327659:UPG327662 UFK327659:UFK327662 TVO327659:TVO327662 TLS327659:TLS327662 TBW327659:TBW327662 SSA327659:SSA327662 SIE327659:SIE327662 RYI327659:RYI327662 ROM327659:ROM327662 REQ327659:REQ327662 QUU327659:QUU327662 QKY327659:QKY327662 QBC327659:QBC327662 PRG327659:PRG327662 PHK327659:PHK327662 OXO327659:OXO327662 ONS327659:ONS327662 ODW327659:ODW327662 NUA327659:NUA327662 NKE327659:NKE327662 NAI327659:NAI327662 MQM327659:MQM327662 MGQ327659:MGQ327662 LWU327659:LWU327662 LMY327659:LMY327662 LDC327659:LDC327662 KTG327659:KTG327662 KJK327659:KJK327662 JZO327659:JZO327662 JPS327659:JPS327662 JFW327659:JFW327662 IWA327659:IWA327662 IME327659:IME327662 ICI327659:ICI327662 HSM327659:HSM327662 HIQ327659:HIQ327662 GYU327659:GYU327662 GOY327659:GOY327662 GFC327659:GFC327662 FVG327659:FVG327662 FLK327659:FLK327662 FBO327659:FBO327662 ERS327659:ERS327662 EHW327659:EHW327662 DYA327659:DYA327662 DOE327659:DOE327662 DEI327659:DEI327662 CUM327659:CUM327662 CKQ327659:CKQ327662 CAU327659:CAU327662 BQY327659:BQY327662 BHC327659:BHC327662 AXG327659:AXG327662 ANK327659:ANK327662 ADO327659:ADO327662 TS327659:TS327662 JW327659:JW327662 AA327659:AA327662 WWI262123:WWI262126 WMM262123:WMM262126 WCQ262123:WCQ262126 VSU262123:VSU262126 VIY262123:VIY262126 UZC262123:UZC262126 UPG262123:UPG262126 UFK262123:UFK262126 TVO262123:TVO262126 TLS262123:TLS262126 TBW262123:TBW262126 SSA262123:SSA262126 SIE262123:SIE262126 RYI262123:RYI262126 ROM262123:ROM262126 REQ262123:REQ262126 QUU262123:QUU262126 QKY262123:QKY262126 QBC262123:QBC262126 PRG262123:PRG262126 PHK262123:PHK262126 OXO262123:OXO262126 ONS262123:ONS262126 ODW262123:ODW262126 NUA262123:NUA262126 NKE262123:NKE262126 NAI262123:NAI262126 MQM262123:MQM262126 MGQ262123:MGQ262126 LWU262123:LWU262126 LMY262123:LMY262126 LDC262123:LDC262126 KTG262123:KTG262126 KJK262123:KJK262126 JZO262123:JZO262126 JPS262123:JPS262126 JFW262123:JFW262126 IWA262123:IWA262126 IME262123:IME262126 ICI262123:ICI262126 HSM262123:HSM262126 HIQ262123:HIQ262126 GYU262123:GYU262126 GOY262123:GOY262126 GFC262123:GFC262126 FVG262123:FVG262126 FLK262123:FLK262126 FBO262123:FBO262126 ERS262123:ERS262126 EHW262123:EHW262126 DYA262123:DYA262126 DOE262123:DOE262126 DEI262123:DEI262126 CUM262123:CUM262126 CKQ262123:CKQ262126 CAU262123:CAU262126 BQY262123:BQY262126 BHC262123:BHC262126 AXG262123:AXG262126 ANK262123:ANK262126 ADO262123:ADO262126 TS262123:TS262126 JW262123:JW262126 AA262123:AA262126 WWI196587:WWI196590 WMM196587:WMM196590 WCQ196587:WCQ196590 VSU196587:VSU196590 VIY196587:VIY196590 UZC196587:UZC196590 UPG196587:UPG196590 UFK196587:UFK196590 TVO196587:TVO196590 TLS196587:TLS196590 TBW196587:TBW196590 SSA196587:SSA196590 SIE196587:SIE196590 RYI196587:RYI196590 ROM196587:ROM196590 REQ196587:REQ196590 QUU196587:QUU196590 QKY196587:QKY196590 QBC196587:QBC196590 PRG196587:PRG196590 PHK196587:PHK196590 OXO196587:OXO196590 ONS196587:ONS196590 ODW196587:ODW196590 NUA196587:NUA196590 NKE196587:NKE196590 NAI196587:NAI196590 MQM196587:MQM196590 MGQ196587:MGQ196590 LWU196587:LWU196590 LMY196587:LMY196590 LDC196587:LDC196590 KTG196587:KTG196590 KJK196587:KJK196590 JZO196587:JZO196590 JPS196587:JPS196590 JFW196587:JFW196590 IWA196587:IWA196590 IME196587:IME196590 ICI196587:ICI196590 HSM196587:HSM196590 HIQ196587:HIQ196590 GYU196587:GYU196590 GOY196587:GOY196590 GFC196587:GFC196590 FVG196587:FVG196590 FLK196587:FLK196590 FBO196587:FBO196590 ERS196587:ERS196590 EHW196587:EHW196590 DYA196587:DYA196590 DOE196587:DOE196590 DEI196587:DEI196590 CUM196587:CUM196590 CKQ196587:CKQ196590 CAU196587:CAU196590 BQY196587:BQY196590 BHC196587:BHC196590 AXG196587:AXG196590 ANK196587:ANK196590 ADO196587:ADO196590 TS196587:TS196590 JW196587:JW196590 AA196587:AA196590 WWI131051:WWI131054 WMM131051:WMM131054 WCQ131051:WCQ131054 VSU131051:VSU131054 VIY131051:VIY131054 UZC131051:UZC131054 UPG131051:UPG131054 UFK131051:UFK131054 TVO131051:TVO131054 TLS131051:TLS131054 TBW131051:TBW131054 SSA131051:SSA131054 SIE131051:SIE131054 RYI131051:RYI131054 ROM131051:ROM131054 REQ131051:REQ131054 QUU131051:QUU131054 QKY131051:QKY131054 QBC131051:QBC131054 PRG131051:PRG131054 PHK131051:PHK131054 OXO131051:OXO131054 ONS131051:ONS131054 ODW131051:ODW131054 NUA131051:NUA131054 NKE131051:NKE131054 NAI131051:NAI131054 MQM131051:MQM131054 MGQ131051:MGQ131054 LWU131051:LWU131054 LMY131051:LMY131054 LDC131051:LDC131054 KTG131051:KTG131054 KJK131051:KJK131054 JZO131051:JZO131054 JPS131051:JPS131054 JFW131051:JFW131054 IWA131051:IWA131054 IME131051:IME131054 ICI131051:ICI131054 HSM131051:HSM131054 HIQ131051:HIQ131054 GYU131051:GYU131054 GOY131051:GOY131054 GFC131051:GFC131054 FVG131051:FVG131054 FLK131051:FLK131054 FBO131051:FBO131054 ERS131051:ERS131054 EHW131051:EHW131054 DYA131051:DYA131054 DOE131051:DOE131054 DEI131051:DEI131054 CUM131051:CUM131054 CKQ131051:CKQ131054 CAU131051:CAU131054 BQY131051:BQY131054 BHC131051:BHC131054 AXG131051:AXG131054 ANK131051:ANK131054 ADO131051:ADO131054 TS131051:TS131054 JW131051:JW131054 AA131051:AA131054 WWI65515:WWI65518 WMM65515:WMM65518 WCQ65515:WCQ65518 VSU65515:VSU65518 VIY65515:VIY65518 UZC65515:UZC65518 UPG65515:UPG65518 UFK65515:UFK65518 TVO65515:TVO65518 TLS65515:TLS65518 TBW65515:TBW65518 SSA65515:SSA65518 SIE65515:SIE65518 RYI65515:RYI65518 ROM65515:ROM65518 REQ65515:REQ65518 QUU65515:QUU65518 QKY65515:QKY65518 QBC65515:QBC65518 PRG65515:PRG65518 PHK65515:PHK65518 OXO65515:OXO65518 ONS65515:ONS65518 ODW65515:ODW65518 NUA65515:NUA65518 NKE65515:NKE65518 NAI65515:NAI65518 MQM65515:MQM65518 MGQ65515:MGQ65518 LWU65515:LWU65518 LMY65515:LMY65518 LDC65515:LDC65518 KTG65515:KTG65518 KJK65515:KJK65518 JZO65515:JZO65518 JPS65515:JPS65518 JFW65515:JFW65518 IWA65515:IWA65518 IME65515:IME65518 ICI65515:ICI65518 HSM65515:HSM65518 HIQ65515:HIQ65518 GYU65515:GYU65518 GOY65515:GOY65518 GFC65515:GFC65518 FVG65515:FVG65518 FLK65515:FLK65518 FBO65515:FBO65518 ERS65515:ERS65518 EHW65515:EHW65518 DYA65515:DYA65518 DOE65515:DOE65518 DEI65515:DEI65518 CUM65515:CUM65518 CKQ65515:CKQ65518 CAU65515:CAU65518 BQY65515:BQY65518 BHC65515:BHC65518 AXG65515:AXG65518 ANK65515:ANK65518 ADO65515:ADO65518 TS65515:TS65518 JW65515:JW65518 AA65515:AA65518 WWG983019:WWG983022 WMK983019:WMK983022 WCO983019:WCO983022 VSS983019:VSS983022 VIW983019:VIW983022 UZA983019:UZA983022 UPE983019:UPE983022 UFI983019:UFI983022 TVM983019:TVM983022 TLQ983019:TLQ983022 TBU983019:TBU983022 SRY983019:SRY983022 SIC983019:SIC983022 RYG983019:RYG983022 ROK983019:ROK983022 REO983019:REO983022 QUS983019:QUS983022 QKW983019:QKW983022 QBA983019:QBA983022 PRE983019:PRE983022 PHI983019:PHI983022 OXM983019:OXM983022 ONQ983019:ONQ983022 ODU983019:ODU983022 NTY983019:NTY983022 NKC983019:NKC983022 NAG983019:NAG983022 MQK983019:MQK983022 MGO983019:MGO983022 LWS983019:LWS983022 LMW983019:LMW983022 LDA983019:LDA983022 KTE983019:KTE983022 KJI983019:KJI983022 JZM983019:JZM983022 JPQ983019:JPQ983022 JFU983019:JFU983022 IVY983019:IVY983022 IMC983019:IMC983022 ICG983019:ICG983022 HSK983019:HSK983022 HIO983019:HIO983022 GYS983019:GYS983022 GOW983019:GOW983022 GFA983019:GFA983022 FVE983019:FVE983022 FLI983019:FLI983022 FBM983019:FBM983022 ERQ983019:ERQ983022 EHU983019:EHU983022 DXY983019:DXY983022 DOC983019:DOC983022 DEG983019:DEG983022 CUK983019:CUK983022 CKO983019:CKO983022 CAS983019:CAS983022 BQW983019:BQW983022 BHA983019:BHA983022 AXE983019:AXE983022 ANI983019:ANI983022 ADM983019:ADM983022 TQ983019:TQ983022 JU983019:JU983022 Y983019:Y983022 WWG917483:WWG917486 WMK917483:WMK917486 WCO917483:WCO917486 VSS917483:VSS917486 VIW917483:VIW917486 UZA917483:UZA917486 UPE917483:UPE917486 UFI917483:UFI917486 TVM917483:TVM917486 TLQ917483:TLQ917486 TBU917483:TBU917486 SRY917483:SRY917486 SIC917483:SIC917486 RYG917483:RYG917486 ROK917483:ROK917486 REO917483:REO917486 QUS917483:QUS917486 QKW917483:QKW917486 QBA917483:QBA917486 PRE917483:PRE917486 PHI917483:PHI917486 OXM917483:OXM917486 ONQ917483:ONQ917486 ODU917483:ODU917486 NTY917483:NTY917486 NKC917483:NKC917486 NAG917483:NAG917486 MQK917483:MQK917486 MGO917483:MGO917486 LWS917483:LWS917486 LMW917483:LMW917486 LDA917483:LDA917486 KTE917483:KTE917486 KJI917483:KJI917486 JZM917483:JZM917486 JPQ917483:JPQ917486 JFU917483:JFU917486 IVY917483:IVY917486 IMC917483:IMC917486 ICG917483:ICG917486 HSK917483:HSK917486 HIO917483:HIO917486 GYS917483:GYS917486 GOW917483:GOW917486 GFA917483:GFA917486 FVE917483:FVE917486 FLI917483:FLI917486 FBM917483:FBM917486 ERQ917483:ERQ917486 EHU917483:EHU917486 DXY917483:DXY917486 DOC917483:DOC917486 DEG917483:DEG917486 CUK917483:CUK917486 CKO917483:CKO917486 CAS917483:CAS917486 BQW917483:BQW917486 BHA917483:BHA917486 AXE917483:AXE917486 ANI917483:ANI917486 ADM917483:ADM917486 TQ917483:TQ917486 JU917483:JU917486 Y917483:Y917486 WWG851947:WWG851950 WMK851947:WMK851950 WCO851947:WCO851950 VSS851947:VSS851950 VIW851947:VIW851950 UZA851947:UZA851950 UPE851947:UPE851950 UFI851947:UFI851950 TVM851947:TVM851950 TLQ851947:TLQ851950 TBU851947:TBU851950 SRY851947:SRY851950 SIC851947:SIC851950 RYG851947:RYG851950 ROK851947:ROK851950 REO851947:REO851950 QUS851947:QUS851950 QKW851947:QKW851950 QBA851947:QBA851950 PRE851947:PRE851950 PHI851947:PHI851950 OXM851947:OXM851950 ONQ851947:ONQ851950 ODU851947:ODU851950 NTY851947:NTY851950 NKC851947:NKC851950 NAG851947:NAG851950 MQK851947:MQK851950 MGO851947:MGO851950 LWS851947:LWS851950 LMW851947:LMW851950 LDA851947:LDA851950 KTE851947:KTE851950 KJI851947:KJI851950 JZM851947:JZM851950 JPQ851947:JPQ851950 JFU851947:JFU851950 IVY851947:IVY851950 IMC851947:IMC851950 ICG851947:ICG851950 HSK851947:HSK851950 HIO851947:HIO851950 GYS851947:GYS851950 GOW851947:GOW851950 GFA851947:GFA851950 FVE851947:FVE851950 FLI851947:FLI851950 FBM851947:FBM851950 ERQ851947:ERQ851950 EHU851947:EHU851950 DXY851947:DXY851950 DOC851947:DOC851950 DEG851947:DEG851950 CUK851947:CUK851950 CKO851947:CKO851950 CAS851947:CAS851950 BQW851947:BQW851950 BHA851947:BHA851950 AXE851947:AXE851950 ANI851947:ANI851950 ADM851947:ADM851950 TQ851947:TQ851950 JU851947:JU851950 Y851947:Y851950 WWG786411:WWG786414 WMK786411:WMK786414 WCO786411:WCO786414 VSS786411:VSS786414 VIW786411:VIW786414 UZA786411:UZA786414 UPE786411:UPE786414 UFI786411:UFI786414 TVM786411:TVM786414 TLQ786411:TLQ786414 TBU786411:TBU786414 SRY786411:SRY786414 SIC786411:SIC786414 RYG786411:RYG786414 ROK786411:ROK786414 REO786411:REO786414 QUS786411:QUS786414 QKW786411:QKW786414 QBA786411:QBA786414 PRE786411:PRE786414 PHI786411:PHI786414 OXM786411:OXM786414 ONQ786411:ONQ786414 ODU786411:ODU786414 NTY786411:NTY786414 NKC786411:NKC786414 NAG786411:NAG786414 MQK786411:MQK786414 MGO786411:MGO786414 LWS786411:LWS786414 LMW786411:LMW786414 LDA786411:LDA786414 KTE786411:KTE786414 KJI786411:KJI786414 JZM786411:JZM786414 JPQ786411:JPQ786414 JFU786411:JFU786414 IVY786411:IVY786414 IMC786411:IMC786414 ICG786411:ICG786414 HSK786411:HSK786414 HIO786411:HIO786414 GYS786411:GYS786414 GOW786411:GOW786414 GFA786411:GFA786414 FVE786411:FVE786414 FLI786411:FLI786414 FBM786411:FBM786414 ERQ786411:ERQ786414 EHU786411:EHU786414 DXY786411:DXY786414 DOC786411:DOC786414 DEG786411:DEG786414 CUK786411:CUK786414 CKO786411:CKO786414 CAS786411:CAS786414 BQW786411:BQW786414 BHA786411:BHA786414 AXE786411:AXE786414 ANI786411:ANI786414 ADM786411:ADM786414 TQ786411:TQ786414 JU786411:JU786414 Y786411:Y786414 WWG720875:WWG720878 WMK720875:WMK720878 WCO720875:WCO720878 VSS720875:VSS720878 VIW720875:VIW720878 UZA720875:UZA720878 UPE720875:UPE720878 UFI720875:UFI720878 TVM720875:TVM720878 TLQ720875:TLQ720878 TBU720875:TBU720878 SRY720875:SRY720878 SIC720875:SIC720878 RYG720875:RYG720878 ROK720875:ROK720878 REO720875:REO720878 QUS720875:QUS720878 QKW720875:QKW720878 QBA720875:QBA720878 PRE720875:PRE720878 PHI720875:PHI720878 OXM720875:OXM720878 ONQ720875:ONQ720878 ODU720875:ODU720878 NTY720875:NTY720878 NKC720875:NKC720878 NAG720875:NAG720878 MQK720875:MQK720878 MGO720875:MGO720878 LWS720875:LWS720878 LMW720875:LMW720878 LDA720875:LDA720878 KTE720875:KTE720878 KJI720875:KJI720878 JZM720875:JZM720878 JPQ720875:JPQ720878 JFU720875:JFU720878 IVY720875:IVY720878 IMC720875:IMC720878 ICG720875:ICG720878 HSK720875:HSK720878 HIO720875:HIO720878 GYS720875:GYS720878 GOW720875:GOW720878 GFA720875:GFA720878 FVE720875:FVE720878 FLI720875:FLI720878 FBM720875:FBM720878 ERQ720875:ERQ720878 EHU720875:EHU720878 DXY720875:DXY720878 DOC720875:DOC720878 DEG720875:DEG720878 CUK720875:CUK720878 CKO720875:CKO720878 CAS720875:CAS720878 BQW720875:BQW720878 BHA720875:BHA720878 AXE720875:AXE720878 ANI720875:ANI720878 ADM720875:ADM720878 TQ720875:TQ720878 JU720875:JU720878 Y720875:Y720878 WWG655339:WWG655342 WMK655339:WMK655342 WCO655339:WCO655342 VSS655339:VSS655342 VIW655339:VIW655342 UZA655339:UZA655342 UPE655339:UPE655342 UFI655339:UFI655342 TVM655339:TVM655342 TLQ655339:TLQ655342 TBU655339:TBU655342 SRY655339:SRY655342 SIC655339:SIC655342 RYG655339:RYG655342 ROK655339:ROK655342 REO655339:REO655342 QUS655339:QUS655342 QKW655339:QKW655342 QBA655339:QBA655342 PRE655339:PRE655342 PHI655339:PHI655342 OXM655339:OXM655342 ONQ655339:ONQ655342 ODU655339:ODU655342 NTY655339:NTY655342 NKC655339:NKC655342 NAG655339:NAG655342 MQK655339:MQK655342 MGO655339:MGO655342 LWS655339:LWS655342 LMW655339:LMW655342 LDA655339:LDA655342 KTE655339:KTE655342 KJI655339:KJI655342 JZM655339:JZM655342 JPQ655339:JPQ655342 JFU655339:JFU655342 IVY655339:IVY655342 IMC655339:IMC655342 ICG655339:ICG655342 HSK655339:HSK655342 HIO655339:HIO655342 GYS655339:GYS655342 GOW655339:GOW655342 GFA655339:GFA655342 FVE655339:FVE655342 FLI655339:FLI655342 FBM655339:FBM655342 ERQ655339:ERQ655342 EHU655339:EHU655342 DXY655339:DXY655342 DOC655339:DOC655342 DEG655339:DEG655342 CUK655339:CUK655342 CKO655339:CKO655342 CAS655339:CAS655342 BQW655339:BQW655342 BHA655339:BHA655342 AXE655339:AXE655342 ANI655339:ANI655342 ADM655339:ADM655342 TQ655339:TQ655342 JU655339:JU655342 Y655339:Y655342 WWG589803:WWG589806 WMK589803:WMK589806 WCO589803:WCO589806 VSS589803:VSS589806 VIW589803:VIW589806 UZA589803:UZA589806 UPE589803:UPE589806 UFI589803:UFI589806 TVM589803:TVM589806 TLQ589803:TLQ589806 TBU589803:TBU589806 SRY589803:SRY589806 SIC589803:SIC589806 RYG589803:RYG589806 ROK589803:ROK589806 REO589803:REO589806 QUS589803:QUS589806 QKW589803:QKW589806 QBA589803:QBA589806 PRE589803:PRE589806 PHI589803:PHI589806 OXM589803:OXM589806 ONQ589803:ONQ589806 ODU589803:ODU589806 NTY589803:NTY589806 NKC589803:NKC589806 NAG589803:NAG589806 MQK589803:MQK589806 MGO589803:MGO589806 LWS589803:LWS589806 LMW589803:LMW589806 LDA589803:LDA589806 KTE589803:KTE589806 KJI589803:KJI589806 JZM589803:JZM589806 JPQ589803:JPQ589806 JFU589803:JFU589806 IVY589803:IVY589806 IMC589803:IMC589806 ICG589803:ICG589806 HSK589803:HSK589806 HIO589803:HIO589806 GYS589803:GYS589806 GOW589803:GOW589806 GFA589803:GFA589806 FVE589803:FVE589806 FLI589803:FLI589806 FBM589803:FBM589806 ERQ589803:ERQ589806 EHU589803:EHU589806 DXY589803:DXY589806 DOC589803:DOC589806 DEG589803:DEG589806 CUK589803:CUK589806 CKO589803:CKO589806 CAS589803:CAS589806 BQW589803:BQW589806 BHA589803:BHA589806 AXE589803:AXE589806 ANI589803:ANI589806 ADM589803:ADM589806 TQ589803:TQ589806 JU589803:JU589806 Y589803:Y589806 WWG524267:WWG524270 WMK524267:WMK524270 WCO524267:WCO524270 VSS524267:VSS524270 VIW524267:VIW524270 UZA524267:UZA524270 UPE524267:UPE524270 UFI524267:UFI524270 TVM524267:TVM524270 TLQ524267:TLQ524270 TBU524267:TBU524270 SRY524267:SRY524270 SIC524267:SIC524270 RYG524267:RYG524270 ROK524267:ROK524270 REO524267:REO524270 QUS524267:QUS524270 QKW524267:QKW524270 QBA524267:QBA524270 PRE524267:PRE524270 PHI524267:PHI524270 OXM524267:OXM524270 ONQ524267:ONQ524270 ODU524267:ODU524270 NTY524267:NTY524270 NKC524267:NKC524270 NAG524267:NAG524270 MQK524267:MQK524270 MGO524267:MGO524270 LWS524267:LWS524270 LMW524267:LMW524270 LDA524267:LDA524270 KTE524267:KTE524270 KJI524267:KJI524270 JZM524267:JZM524270 JPQ524267:JPQ524270 JFU524267:JFU524270 IVY524267:IVY524270 IMC524267:IMC524270 ICG524267:ICG524270 HSK524267:HSK524270 HIO524267:HIO524270 GYS524267:GYS524270 GOW524267:GOW524270 GFA524267:GFA524270 FVE524267:FVE524270 FLI524267:FLI524270 FBM524267:FBM524270 ERQ524267:ERQ524270 EHU524267:EHU524270 DXY524267:DXY524270 DOC524267:DOC524270 DEG524267:DEG524270 CUK524267:CUK524270 CKO524267:CKO524270 CAS524267:CAS524270 BQW524267:BQW524270 BHA524267:BHA524270 AXE524267:AXE524270 ANI524267:ANI524270 ADM524267:ADM524270 TQ524267:TQ524270 JU524267:JU524270 Y524267:Y524270 WWG458731:WWG458734 WMK458731:WMK458734 WCO458731:WCO458734 VSS458731:VSS458734 VIW458731:VIW458734 UZA458731:UZA458734 UPE458731:UPE458734 UFI458731:UFI458734 TVM458731:TVM458734 TLQ458731:TLQ458734 TBU458731:TBU458734 SRY458731:SRY458734 SIC458731:SIC458734 RYG458731:RYG458734 ROK458731:ROK458734 REO458731:REO458734 QUS458731:QUS458734 QKW458731:QKW458734 QBA458731:QBA458734 PRE458731:PRE458734 PHI458731:PHI458734 OXM458731:OXM458734 ONQ458731:ONQ458734 ODU458731:ODU458734 NTY458731:NTY458734 NKC458731:NKC458734 NAG458731:NAG458734 MQK458731:MQK458734 MGO458731:MGO458734 LWS458731:LWS458734 LMW458731:LMW458734 LDA458731:LDA458734 KTE458731:KTE458734 KJI458731:KJI458734 JZM458731:JZM458734 JPQ458731:JPQ458734 JFU458731:JFU458734 IVY458731:IVY458734 IMC458731:IMC458734 ICG458731:ICG458734 HSK458731:HSK458734 HIO458731:HIO458734 GYS458731:GYS458734 GOW458731:GOW458734 GFA458731:GFA458734 FVE458731:FVE458734 FLI458731:FLI458734 FBM458731:FBM458734 ERQ458731:ERQ458734 EHU458731:EHU458734 DXY458731:DXY458734 DOC458731:DOC458734 DEG458731:DEG458734 CUK458731:CUK458734 CKO458731:CKO458734 CAS458731:CAS458734 BQW458731:BQW458734 BHA458731:BHA458734 AXE458731:AXE458734 ANI458731:ANI458734 ADM458731:ADM458734 TQ458731:TQ458734 JU458731:JU458734 Y458731:Y458734 WWG393195:WWG393198 WMK393195:WMK393198 WCO393195:WCO393198 VSS393195:VSS393198 VIW393195:VIW393198 UZA393195:UZA393198 UPE393195:UPE393198 UFI393195:UFI393198 TVM393195:TVM393198 TLQ393195:TLQ393198 TBU393195:TBU393198 SRY393195:SRY393198 SIC393195:SIC393198 RYG393195:RYG393198 ROK393195:ROK393198 REO393195:REO393198 QUS393195:QUS393198 QKW393195:QKW393198 QBA393195:QBA393198 PRE393195:PRE393198 PHI393195:PHI393198 OXM393195:OXM393198 ONQ393195:ONQ393198 ODU393195:ODU393198 NTY393195:NTY393198 NKC393195:NKC393198 NAG393195:NAG393198 MQK393195:MQK393198 MGO393195:MGO393198 LWS393195:LWS393198 LMW393195:LMW393198 LDA393195:LDA393198 KTE393195:KTE393198 KJI393195:KJI393198 JZM393195:JZM393198 JPQ393195:JPQ393198 JFU393195:JFU393198 IVY393195:IVY393198 IMC393195:IMC393198 ICG393195:ICG393198 HSK393195:HSK393198 HIO393195:HIO393198 GYS393195:GYS393198 GOW393195:GOW393198 GFA393195:GFA393198 FVE393195:FVE393198 FLI393195:FLI393198 FBM393195:FBM393198 ERQ393195:ERQ393198 EHU393195:EHU393198 DXY393195:DXY393198 DOC393195:DOC393198 DEG393195:DEG393198 CUK393195:CUK393198 CKO393195:CKO393198 CAS393195:CAS393198 BQW393195:BQW393198 BHA393195:BHA393198 AXE393195:AXE393198 ANI393195:ANI393198 ADM393195:ADM393198 TQ393195:TQ393198 JU393195:JU393198 Y393195:Y393198 WWG327659:WWG327662 WMK327659:WMK327662 WCO327659:WCO327662 VSS327659:VSS327662 VIW327659:VIW327662 UZA327659:UZA327662 UPE327659:UPE327662 UFI327659:UFI327662 TVM327659:TVM327662 TLQ327659:TLQ327662 TBU327659:TBU327662 SRY327659:SRY327662 SIC327659:SIC327662 RYG327659:RYG327662 ROK327659:ROK327662 REO327659:REO327662 QUS327659:QUS327662 QKW327659:QKW327662 QBA327659:QBA327662 PRE327659:PRE327662 PHI327659:PHI327662 OXM327659:OXM327662 ONQ327659:ONQ327662 ODU327659:ODU327662 NTY327659:NTY327662 NKC327659:NKC327662 NAG327659:NAG327662 MQK327659:MQK327662 MGO327659:MGO327662 LWS327659:LWS327662 LMW327659:LMW327662 LDA327659:LDA327662 KTE327659:KTE327662 KJI327659:KJI327662 JZM327659:JZM327662 JPQ327659:JPQ327662 JFU327659:JFU327662 IVY327659:IVY327662 IMC327659:IMC327662 ICG327659:ICG327662 HSK327659:HSK327662 HIO327659:HIO327662 GYS327659:GYS327662 GOW327659:GOW327662 GFA327659:GFA327662 FVE327659:FVE327662 FLI327659:FLI327662 FBM327659:FBM327662 ERQ327659:ERQ327662 EHU327659:EHU327662 DXY327659:DXY327662 DOC327659:DOC327662 DEG327659:DEG327662 CUK327659:CUK327662 CKO327659:CKO327662 CAS327659:CAS327662 BQW327659:BQW327662 BHA327659:BHA327662 AXE327659:AXE327662 ANI327659:ANI327662 ADM327659:ADM327662 TQ327659:TQ327662 JU327659:JU327662 Y327659:Y327662 WWG262123:WWG262126 WMK262123:WMK262126 WCO262123:WCO262126 VSS262123:VSS262126 VIW262123:VIW262126 UZA262123:UZA262126 UPE262123:UPE262126 UFI262123:UFI262126 TVM262123:TVM262126 TLQ262123:TLQ262126 TBU262123:TBU262126 SRY262123:SRY262126 SIC262123:SIC262126 RYG262123:RYG262126 ROK262123:ROK262126 REO262123:REO262126 QUS262123:QUS262126 QKW262123:QKW262126 QBA262123:QBA262126 PRE262123:PRE262126 PHI262123:PHI262126 OXM262123:OXM262126 ONQ262123:ONQ262126 ODU262123:ODU262126 NTY262123:NTY262126 NKC262123:NKC262126 NAG262123:NAG262126 MQK262123:MQK262126 MGO262123:MGO262126 LWS262123:LWS262126 LMW262123:LMW262126 LDA262123:LDA262126 KTE262123:KTE262126 KJI262123:KJI262126 JZM262123:JZM262126 JPQ262123:JPQ262126 JFU262123:JFU262126 IVY262123:IVY262126 IMC262123:IMC262126 ICG262123:ICG262126 HSK262123:HSK262126 HIO262123:HIO262126 GYS262123:GYS262126 GOW262123:GOW262126 GFA262123:GFA262126 FVE262123:FVE262126 FLI262123:FLI262126 FBM262123:FBM262126 ERQ262123:ERQ262126 EHU262123:EHU262126 DXY262123:DXY262126 DOC262123:DOC262126 DEG262123:DEG262126 CUK262123:CUK262126 CKO262123:CKO262126 CAS262123:CAS262126 BQW262123:BQW262126 BHA262123:BHA262126 AXE262123:AXE262126 ANI262123:ANI262126 ADM262123:ADM262126 TQ262123:TQ262126 JU262123:JU262126 Y262123:Y262126 WWG196587:WWG196590 WMK196587:WMK196590 WCO196587:WCO196590 VSS196587:VSS196590 VIW196587:VIW196590 UZA196587:UZA196590 UPE196587:UPE196590 UFI196587:UFI196590 TVM196587:TVM196590 TLQ196587:TLQ196590 TBU196587:TBU196590 SRY196587:SRY196590 SIC196587:SIC196590 RYG196587:RYG196590 ROK196587:ROK196590 REO196587:REO196590 QUS196587:QUS196590 QKW196587:QKW196590 QBA196587:QBA196590 PRE196587:PRE196590 PHI196587:PHI196590 OXM196587:OXM196590 ONQ196587:ONQ196590 ODU196587:ODU196590 NTY196587:NTY196590 NKC196587:NKC196590 NAG196587:NAG196590 MQK196587:MQK196590 MGO196587:MGO196590 LWS196587:LWS196590 LMW196587:LMW196590 LDA196587:LDA196590 KTE196587:KTE196590 KJI196587:KJI196590 JZM196587:JZM196590 JPQ196587:JPQ196590 JFU196587:JFU196590 IVY196587:IVY196590 IMC196587:IMC196590 ICG196587:ICG196590 HSK196587:HSK196590 HIO196587:HIO196590 GYS196587:GYS196590 GOW196587:GOW196590 GFA196587:GFA196590 FVE196587:FVE196590 FLI196587:FLI196590 FBM196587:FBM196590 ERQ196587:ERQ196590 EHU196587:EHU196590 DXY196587:DXY196590 DOC196587:DOC196590 DEG196587:DEG196590 CUK196587:CUK196590 CKO196587:CKO196590 CAS196587:CAS196590 BQW196587:BQW196590 BHA196587:BHA196590 AXE196587:AXE196590 ANI196587:ANI196590 ADM196587:ADM196590 TQ196587:TQ196590 JU196587:JU196590 Y196587:Y196590 WWG131051:WWG131054 WMK131051:WMK131054 WCO131051:WCO131054 VSS131051:VSS131054 VIW131051:VIW131054 UZA131051:UZA131054 UPE131051:UPE131054 UFI131051:UFI131054 TVM131051:TVM131054 TLQ131051:TLQ131054 TBU131051:TBU131054 SRY131051:SRY131054 SIC131051:SIC131054 RYG131051:RYG131054 ROK131051:ROK131054 REO131051:REO131054 QUS131051:QUS131054 QKW131051:QKW131054 QBA131051:QBA131054 PRE131051:PRE131054 PHI131051:PHI131054 OXM131051:OXM131054 ONQ131051:ONQ131054 ODU131051:ODU131054 NTY131051:NTY131054 NKC131051:NKC131054 NAG131051:NAG131054 MQK131051:MQK131054 MGO131051:MGO131054 LWS131051:LWS131054 LMW131051:LMW131054 LDA131051:LDA131054 KTE131051:KTE131054 KJI131051:KJI131054 JZM131051:JZM131054 JPQ131051:JPQ131054 JFU131051:JFU131054 IVY131051:IVY131054 IMC131051:IMC131054 ICG131051:ICG131054 HSK131051:HSK131054 HIO131051:HIO131054 GYS131051:GYS131054 GOW131051:GOW131054 GFA131051:GFA131054 FVE131051:FVE131054 FLI131051:FLI131054 FBM131051:FBM131054 ERQ131051:ERQ131054 EHU131051:EHU131054 DXY131051:DXY131054 DOC131051:DOC131054 DEG131051:DEG131054 CUK131051:CUK131054 CKO131051:CKO131054 CAS131051:CAS131054 BQW131051:BQW131054 BHA131051:BHA131054 AXE131051:AXE131054 ANI131051:ANI131054 ADM131051:ADM131054 TQ131051:TQ131054 JU131051:JU131054 Y131051:Y131054 WWG65515:WWG65518 WMK65515:WMK65518 WCO65515:WCO65518 VSS65515:VSS65518 VIW65515:VIW65518 UZA65515:UZA65518 UPE65515:UPE65518 UFI65515:UFI65518 TVM65515:TVM65518 TLQ65515:TLQ65518 TBU65515:TBU65518 SRY65515:SRY65518 SIC65515:SIC65518 RYG65515:RYG65518 ROK65515:ROK65518 REO65515:REO65518 QUS65515:QUS65518 QKW65515:QKW65518 QBA65515:QBA65518 PRE65515:PRE65518 PHI65515:PHI65518 OXM65515:OXM65518 ONQ65515:ONQ65518 ODU65515:ODU65518 NTY65515:NTY65518 NKC65515:NKC65518 NAG65515:NAG65518 MQK65515:MQK65518 MGO65515:MGO65518 LWS65515:LWS65518 LMW65515:LMW65518 LDA65515:LDA65518 KTE65515:KTE65518 KJI65515:KJI65518 JZM65515:JZM65518 JPQ65515:JPQ65518 JFU65515:JFU65518 IVY65515:IVY65518 IMC65515:IMC65518 ICG65515:ICG65518 HSK65515:HSK65518 HIO65515:HIO65518 GYS65515:GYS65518 GOW65515:GOW65518 GFA65515:GFA65518 FVE65515:FVE65518 FLI65515:FLI65518 FBM65515:FBM65518 ERQ65515:ERQ65518 EHU65515:EHU65518 DXY65515:DXY65518 DOC65515:DOC65518 DEG65515:DEG65518 CUK65515:CUK65518 CKO65515:CKO65518 CAS65515:CAS65518 BQW65515:BQW65518 BHA65515:BHA65518 AXE65515:AXE65518 ANI65515:ANI65518 ADM65515:ADM65518 TQ65515:TQ65518 JU65515:JU65518">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y65514:Y65517 WWE983018:WWE983021 WMI983018:WMI983021 WCM983018:WCM983021 VSQ983018:VSQ983021 VIU983018:VIU983021 UYY983018:UYY983021 UPC983018:UPC983021 UFG983018:UFG983021 TVK983018:TVK983021 TLO983018:TLO983021 TBS983018:TBS983021 SRW983018:SRW983021 SIA983018:SIA983021 RYE983018:RYE983021 ROI983018:ROI983021 REM983018:REM983021 QUQ983018:QUQ983021 QKU983018:QKU983021 QAY983018:QAY983021 PRC983018:PRC983021 PHG983018:PHG983021 OXK983018:OXK983021 ONO983018:ONO983021 ODS983018:ODS983021 NTW983018:NTW983021 NKA983018:NKA983021 NAE983018:NAE983021 MQI983018:MQI983021 MGM983018:MGM983021 LWQ983018:LWQ983021 LMU983018:LMU983021 LCY983018:LCY983021 KTC983018:KTC983021 KJG983018:KJG983021 JZK983018:JZK983021 JPO983018:JPO983021 JFS983018:JFS983021 IVW983018:IVW983021 IMA983018:IMA983021 ICE983018:ICE983021 HSI983018:HSI983021 HIM983018:HIM983021 GYQ983018:GYQ983021 GOU983018:GOU983021 GEY983018:GEY983021 FVC983018:FVC983021 FLG983018:FLG983021 FBK983018:FBK983021 ERO983018:ERO983021 EHS983018:EHS983021 DXW983018:DXW983021 DOA983018:DOA983021 DEE983018:DEE983021 CUI983018:CUI983021 CKM983018:CKM983021 CAQ983018:CAQ983021 BQU983018:BQU983021 BGY983018:BGY983021 AXC983018:AXC983021 ANG983018:ANG983021 ADK983018:ADK983021 TO983018:TO983021 JS983018:JS983021 W983018:W983021 WWE917482:WWE917485 WMI917482:WMI917485 WCM917482:WCM917485 VSQ917482:VSQ917485 VIU917482:VIU917485 UYY917482:UYY917485 UPC917482:UPC917485 UFG917482:UFG917485 TVK917482:TVK917485 TLO917482:TLO917485 TBS917482:TBS917485 SRW917482:SRW917485 SIA917482:SIA917485 RYE917482:RYE917485 ROI917482:ROI917485 REM917482:REM917485 QUQ917482:QUQ917485 QKU917482:QKU917485 QAY917482:QAY917485 PRC917482:PRC917485 PHG917482:PHG917485 OXK917482:OXK917485 ONO917482:ONO917485 ODS917482:ODS917485 NTW917482:NTW917485 NKA917482:NKA917485 NAE917482:NAE917485 MQI917482:MQI917485 MGM917482:MGM917485 LWQ917482:LWQ917485 LMU917482:LMU917485 LCY917482:LCY917485 KTC917482:KTC917485 KJG917482:KJG917485 JZK917482:JZK917485 JPO917482:JPO917485 JFS917482:JFS917485 IVW917482:IVW917485 IMA917482:IMA917485 ICE917482:ICE917485 HSI917482:HSI917485 HIM917482:HIM917485 GYQ917482:GYQ917485 GOU917482:GOU917485 GEY917482:GEY917485 FVC917482:FVC917485 FLG917482:FLG917485 FBK917482:FBK917485 ERO917482:ERO917485 EHS917482:EHS917485 DXW917482:DXW917485 DOA917482:DOA917485 DEE917482:DEE917485 CUI917482:CUI917485 CKM917482:CKM917485 CAQ917482:CAQ917485 BQU917482:BQU917485 BGY917482:BGY917485 AXC917482:AXC917485 ANG917482:ANG917485 ADK917482:ADK917485 TO917482:TO917485 JS917482:JS917485 W917482:W917485 WWE851946:WWE851949 WMI851946:WMI851949 WCM851946:WCM851949 VSQ851946:VSQ851949 VIU851946:VIU851949 UYY851946:UYY851949 UPC851946:UPC851949 UFG851946:UFG851949 TVK851946:TVK851949 TLO851946:TLO851949 TBS851946:TBS851949 SRW851946:SRW851949 SIA851946:SIA851949 RYE851946:RYE851949 ROI851946:ROI851949 REM851946:REM851949 QUQ851946:QUQ851949 QKU851946:QKU851949 QAY851946:QAY851949 PRC851946:PRC851949 PHG851946:PHG851949 OXK851946:OXK851949 ONO851946:ONO851949 ODS851946:ODS851949 NTW851946:NTW851949 NKA851946:NKA851949 NAE851946:NAE851949 MQI851946:MQI851949 MGM851946:MGM851949 LWQ851946:LWQ851949 LMU851946:LMU851949 LCY851946:LCY851949 KTC851946:KTC851949 KJG851946:KJG851949 JZK851946:JZK851949 JPO851946:JPO851949 JFS851946:JFS851949 IVW851946:IVW851949 IMA851946:IMA851949 ICE851946:ICE851949 HSI851946:HSI851949 HIM851946:HIM851949 GYQ851946:GYQ851949 GOU851946:GOU851949 GEY851946:GEY851949 FVC851946:FVC851949 FLG851946:FLG851949 FBK851946:FBK851949 ERO851946:ERO851949 EHS851946:EHS851949 DXW851946:DXW851949 DOA851946:DOA851949 DEE851946:DEE851949 CUI851946:CUI851949 CKM851946:CKM851949 CAQ851946:CAQ851949 BQU851946:BQU851949 BGY851946:BGY851949 AXC851946:AXC851949 ANG851946:ANG851949 ADK851946:ADK851949 TO851946:TO851949 JS851946:JS851949 W851946:W851949 WWE786410:WWE786413 WMI786410:WMI786413 WCM786410:WCM786413 VSQ786410:VSQ786413 VIU786410:VIU786413 UYY786410:UYY786413 UPC786410:UPC786413 UFG786410:UFG786413 TVK786410:TVK786413 TLO786410:TLO786413 TBS786410:TBS786413 SRW786410:SRW786413 SIA786410:SIA786413 RYE786410:RYE786413 ROI786410:ROI786413 REM786410:REM786413 QUQ786410:QUQ786413 QKU786410:QKU786413 QAY786410:QAY786413 PRC786410:PRC786413 PHG786410:PHG786413 OXK786410:OXK786413 ONO786410:ONO786413 ODS786410:ODS786413 NTW786410:NTW786413 NKA786410:NKA786413 NAE786410:NAE786413 MQI786410:MQI786413 MGM786410:MGM786413 LWQ786410:LWQ786413 LMU786410:LMU786413 LCY786410:LCY786413 KTC786410:KTC786413 KJG786410:KJG786413 JZK786410:JZK786413 JPO786410:JPO786413 JFS786410:JFS786413 IVW786410:IVW786413 IMA786410:IMA786413 ICE786410:ICE786413 HSI786410:HSI786413 HIM786410:HIM786413 GYQ786410:GYQ786413 GOU786410:GOU786413 GEY786410:GEY786413 FVC786410:FVC786413 FLG786410:FLG786413 FBK786410:FBK786413 ERO786410:ERO786413 EHS786410:EHS786413 DXW786410:DXW786413 DOA786410:DOA786413 DEE786410:DEE786413 CUI786410:CUI786413 CKM786410:CKM786413 CAQ786410:CAQ786413 BQU786410:BQU786413 BGY786410:BGY786413 AXC786410:AXC786413 ANG786410:ANG786413 ADK786410:ADK786413 TO786410:TO786413 JS786410:JS786413 W786410:W786413 WWE720874:WWE720877 WMI720874:WMI720877 WCM720874:WCM720877 VSQ720874:VSQ720877 VIU720874:VIU720877 UYY720874:UYY720877 UPC720874:UPC720877 UFG720874:UFG720877 TVK720874:TVK720877 TLO720874:TLO720877 TBS720874:TBS720877 SRW720874:SRW720877 SIA720874:SIA720877 RYE720874:RYE720877 ROI720874:ROI720877 REM720874:REM720877 QUQ720874:QUQ720877 QKU720874:QKU720877 QAY720874:QAY720877 PRC720874:PRC720877 PHG720874:PHG720877 OXK720874:OXK720877 ONO720874:ONO720877 ODS720874:ODS720877 NTW720874:NTW720877 NKA720874:NKA720877 NAE720874:NAE720877 MQI720874:MQI720877 MGM720874:MGM720877 LWQ720874:LWQ720877 LMU720874:LMU720877 LCY720874:LCY720877 KTC720874:KTC720877 KJG720874:KJG720877 JZK720874:JZK720877 JPO720874:JPO720877 JFS720874:JFS720877 IVW720874:IVW720877 IMA720874:IMA720877 ICE720874:ICE720877 HSI720874:HSI720877 HIM720874:HIM720877 GYQ720874:GYQ720877 GOU720874:GOU720877 GEY720874:GEY720877 FVC720874:FVC720877 FLG720874:FLG720877 FBK720874:FBK720877 ERO720874:ERO720877 EHS720874:EHS720877 DXW720874:DXW720877 DOA720874:DOA720877 DEE720874:DEE720877 CUI720874:CUI720877 CKM720874:CKM720877 CAQ720874:CAQ720877 BQU720874:BQU720877 BGY720874:BGY720877 AXC720874:AXC720877 ANG720874:ANG720877 ADK720874:ADK720877 TO720874:TO720877 JS720874:JS720877 W720874:W720877 WWE655338:WWE655341 WMI655338:WMI655341 WCM655338:WCM655341 VSQ655338:VSQ655341 VIU655338:VIU655341 UYY655338:UYY655341 UPC655338:UPC655341 UFG655338:UFG655341 TVK655338:TVK655341 TLO655338:TLO655341 TBS655338:TBS655341 SRW655338:SRW655341 SIA655338:SIA655341 RYE655338:RYE655341 ROI655338:ROI655341 REM655338:REM655341 QUQ655338:QUQ655341 QKU655338:QKU655341 QAY655338:QAY655341 PRC655338:PRC655341 PHG655338:PHG655341 OXK655338:OXK655341 ONO655338:ONO655341 ODS655338:ODS655341 NTW655338:NTW655341 NKA655338:NKA655341 NAE655338:NAE655341 MQI655338:MQI655341 MGM655338:MGM655341 LWQ655338:LWQ655341 LMU655338:LMU655341 LCY655338:LCY655341 KTC655338:KTC655341 KJG655338:KJG655341 JZK655338:JZK655341 JPO655338:JPO655341 JFS655338:JFS655341 IVW655338:IVW655341 IMA655338:IMA655341 ICE655338:ICE655341 HSI655338:HSI655341 HIM655338:HIM655341 GYQ655338:GYQ655341 GOU655338:GOU655341 GEY655338:GEY655341 FVC655338:FVC655341 FLG655338:FLG655341 FBK655338:FBK655341 ERO655338:ERO655341 EHS655338:EHS655341 DXW655338:DXW655341 DOA655338:DOA655341 DEE655338:DEE655341 CUI655338:CUI655341 CKM655338:CKM655341 CAQ655338:CAQ655341 BQU655338:BQU655341 BGY655338:BGY655341 AXC655338:AXC655341 ANG655338:ANG655341 ADK655338:ADK655341 TO655338:TO655341 JS655338:JS655341 W655338:W655341 WWE589802:WWE589805 WMI589802:WMI589805 WCM589802:WCM589805 VSQ589802:VSQ589805 VIU589802:VIU589805 UYY589802:UYY589805 UPC589802:UPC589805 UFG589802:UFG589805 TVK589802:TVK589805 TLO589802:TLO589805 TBS589802:TBS589805 SRW589802:SRW589805 SIA589802:SIA589805 RYE589802:RYE589805 ROI589802:ROI589805 REM589802:REM589805 QUQ589802:QUQ589805 QKU589802:QKU589805 QAY589802:QAY589805 PRC589802:PRC589805 PHG589802:PHG589805 OXK589802:OXK589805 ONO589802:ONO589805 ODS589802:ODS589805 NTW589802:NTW589805 NKA589802:NKA589805 NAE589802:NAE589805 MQI589802:MQI589805 MGM589802:MGM589805 LWQ589802:LWQ589805 LMU589802:LMU589805 LCY589802:LCY589805 KTC589802:KTC589805 KJG589802:KJG589805 JZK589802:JZK589805 JPO589802:JPO589805 JFS589802:JFS589805 IVW589802:IVW589805 IMA589802:IMA589805 ICE589802:ICE589805 HSI589802:HSI589805 HIM589802:HIM589805 GYQ589802:GYQ589805 GOU589802:GOU589805 GEY589802:GEY589805 FVC589802:FVC589805 FLG589802:FLG589805 FBK589802:FBK589805 ERO589802:ERO589805 EHS589802:EHS589805 DXW589802:DXW589805 DOA589802:DOA589805 DEE589802:DEE589805 CUI589802:CUI589805 CKM589802:CKM589805 CAQ589802:CAQ589805 BQU589802:BQU589805 BGY589802:BGY589805 AXC589802:AXC589805 ANG589802:ANG589805 ADK589802:ADK589805 TO589802:TO589805 JS589802:JS589805 W589802:W589805 WWE524266:WWE524269 WMI524266:WMI524269 WCM524266:WCM524269 VSQ524266:VSQ524269 VIU524266:VIU524269 UYY524266:UYY524269 UPC524266:UPC524269 UFG524266:UFG524269 TVK524266:TVK524269 TLO524266:TLO524269 TBS524266:TBS524269 SRW524266:SRW524269 SIA524266:SIA524269 RYE524266:RYE524269 ROI524266:ROI524269 REM524266:REM524269 QUQ524266:QUQ524269 QKU524266:QKU524269 QAY524266:QAY524269 PRC524266:PRC524269 PHG524266:PHG524269 OXK524266:OXK524269 ONO524266:ONO524269 ODS524266:ODS524269 NTW524266:NTW524269 NKA524266:NKA524269 NAE524266:NAE524269 MQI524266:MQI524269 MGM524266:MGM524269 LWQ524266:LWQ524269 LMU524266:LMU524269 LCY524266:LCY524269 KTC524266:KTC524269 KJG524266:KJG524269 JZK524266:JZK524269 JPO524266:JPO524269 JFS524266:JFS524269 IVW524266:IVW524269 IMA524266:IMA524269 ICE524266:ICE524269 HSI524266:HSI524269 HIM524266:HIM524269 GYQ524266:GYQ524269 GOU524266:GOU524269 GEY524266:GEY524269 FVC524266:FVC524269 FLG524266:FLG524269 FBK524266:FBK524269 ERO524266:ERO524269 EHS524266:EHS524269 DXW524266:DXW524269 DOA524266:DOA524269 DEE524266:DEE524269 CUI524266:CUI524269 CKM524266:CKM524269 CAQ524266:CAQ524269 BQU524266:BQU524269 BGY524266:BGY524269 AXC524266:AXC524269 ANG524266:ANG524269 ADK524266:ADK524269 TO524266:TO524269 JS524266:JS524269 W524266:W524269 WWE458730:WWE458733 WMI458730:WMI458733 WCM458730:WCM458733 VSQ458730:VSQ458733 VIU458730:VIU458733 UYY458730:UYY458733 UPC458730:UPC458733 UFG458730:UFG458733 TVK458730:TVK458733 TLO458730:TLO458733 TBS458730:TBS458733 SRW458730:SRW458733 SIA458730:SIA458733 RYE458730:RYE458733 ROI458730:ROI458733 REM458730:REM458733 QUQ458730:QUQ458733 QKU458730:QKU458733 QAY458730:QAY458733 PRC458730:PRC458733 PHG458730:PHG458733 OXK458730:OXK458733 ONO458730:ONO458733 ODS458730:ODS458733 NTW458730:NTW458733 NKA458730:NKA458733 NAE458730:NAE458733 MQI458730:MQI458733 MGM458730:MGM458733 LWQ458730:LWQ458733 LMU458730:LMU458733 LCY458730:LCY458733 KTC458730:KTC458733 KJG458730:KJG458733 JZK458730:JZK458733 JPO458730:JPO458733 JFS458730:JFS458733 IVW458730:IVW458733 IMA458730:IMA458733 ICE458730:ICE458733 HSI458730:HSI458733 HIM458730:HIM458733 GYQ458730:GYQ458733 GOU458730:GOU458733 GEY458730:GEY458733 FVC458730:FVC458733 FLG458730:FLG458733 FBK458730:FBK458733 ERO458730:ERO458733 EHS458730:EHS458733 DXW458730:DXW458733 DOA458730:DOA458733 DEE458730:DEE458733 CUI458730:CUI458733 CKM458730:CKM458733 CAQ458730:CAQ458733 BQU458730:BQU458733 BGY458730:BGY458733 AXC458730:AXC458733 ANG458730:ANG458733 ADK458730:ADK458733 TO458730:TO458733 JS458730:JS458733 W458730:W458733 WWE393194:WWE393197 WMI393194:WMI393197 WCM393194:WCM393197 VSQ393194:VSQ393197 VIU393194:VIU393197 UYY393194:UYY393197 UPC393194:UPC393197 UFG393194:UFG393197 TVK393194:TVK393197 TLO393194:TLO393197 TBS393194:TBS393197 SRW393194:SRW393197 SIA393194:SIA393197 RYE393194:RYE393197 ROI393194:ROI393197 REM393194:REM393197 QUQ393194:QUQ393197 QKU393194:QKU393197 QAY393194:QAY393197 PRC393194:PRC393197 PHG393194:PHG393197 OXK393194:OXK393197 ONO393194:ONO393197 ODS393194:ODS393197 NTW393194:NTW393197 NKA393194:NKA393197 NAE393194:NAE393197 MQI393194:MQI393197 MGM393194:MGM393197 LWQ393194:LWQ393197 LMU393194:LMU393197 LCY393194:LCY393197 KTC393194:KTC393197 KJG393194:KJG393197 JZK393194:JZK393197 JPO393194:JPO393197 JFS393194:JFS393197 IVW393194:IVW393197 IMA393194:IMA393197 ICE393194:ICE393197 HSI393194:HSI393197 HIM393194:HIM393197 GYQ393194:GYQ393197 GOU393194:GOU393197 GEY393194:GEY393197 FVC393194:FVC393197 FLG393194:FLG393197 FBK393194:FBK393197 ERO393194:ERO393197 EHS393194:EHS393197 DXW393194:DXW393197 DOA393194:DOA393197 DEE393194:DEE393197 CUI393194:CUI393197 CKM393194:CKM393197 CAQ393194:CAQ393197 BQU393194:BQU393197 BGY393194:BGY393197 AXC393194:AXC393197 ANG393194:ANG393197 ADK393194:ADK393197 TO393194:TO393197 JS393194:JS393197 W393194:W393197 WWE327658:WWE327661 WMI327658:WMI327661 WCM327658:WCM327661 VSQ327658:VSQ327661 VIU327658:VIU327661 UYY327658:UYY327661 UPC327658:UPC327661 UFG327658:UFG327661 TVK327658:TVK327661 TLO327658:TLO327661 TBS327658:TBS327661 SRW327658:SRW327661 SIA327658:SIA327661 RYE327658:RYE327661 ROI327658:ROI327661 REM327658:REM327661 QUQ327658:QUQ327661 QKU327658:QKU327661 QAY327658:QAY327661 PRC327658:PRC327661 PHG327658:PHG327661 OXK327658:OXK327661 ONO327658:ONO327661 ODS327658:ODS327661 NTW327658:NTW327661 NKA327658:NKA327661 NAE327658:NAE327661 MQI327658:MQI327661 MGM327658:MGM327661 LWQ327658:LWQ327661 LMU327658:LMU327661 LCY327658:LCY327661 KTC327658:KTC327661 KJG327658:KJG327661 JZK327658:JZK327661 JPO327658:JPO327661 JFS327658:JFS327661 IVW327658:IVW327661 IMA327658:IMA327661 ICE327658:ICE327661 HSI327658:HSI327661 HIM327658:HIM327661 GYQ327658:GYQ327661 GOU327658:GOU327661 GEY327658:GEY327661 FVC327658:FVC327661 FLG327658:FLG327661 FBK327658:FBK327661 ERO327658:ERO327661 EHS327658:EHS327661 DXW327658:DXW327661 DOA327658:DOA327661 DEE327658:DEE327661 CUI327658:CUI327661 CKM327658:CKM327661 CAQ327658:CAQ327661 BQU327658:BQU327661 BGY327658:BGY327661 AXC327658:AXC327661 ANG327658:ANG327661 ADK327658:ADK327661 TO327658:TO327661 JS327658:JS327661 W327658:W327661 WWE262122:WWE262125 WMI262122:WMI262125 WCM262122:WCM262125 VSQ262122:VSQ262125 VIU262122:VIU262125 UYY262122:UYY262125 UPC262122:UPC262125 UFG262122:UFG262125 TVK262122:TVK262125 TLO262122:TLO262125 TBS262122:TBS262125 SRW262122:SRW262125 SIA262122:SIA262125 RYE262122:RYE262125 ROI262122:ROI262125 REM262122:REM262125 QUQ262122:QUQ262125 QKU262122:QKU262125 QAY262122:QAY262125 PRC262122:PRC262125 PHG262122:PHG262125 OXK262122:OXK262125 ONO262122:ONO262125 ODS262122:ODS262125 NTW262122:NTW262125 NKA262122:NKA262125 NAE262122:NAE262125 MQI262122:MQI262125 MGM262122:MGM262125 LWQ262122:LWQ262125 LMU262122:LMU262125 LCY262122:LCY262125 KTC262122:KTC262125 KJG262122:KJG262125 JZK262122:JZK262125 JPO262122:JPO262125 JFS262122:JFS262125 IVW262122:IVW262125 IMA262122:IMA262125 ICE262122:ICE262125 HSI262122:HSI262125 HIM262122:HIM262125 GYQ262122:GYQ262125 GOU262122:GOU262125 GEY262122:GEY262125 FVC262122:FVC262125 FLG262122:FLG262125 FBK262122:FBK262125 ERO262122:ERO262125 EHS262122:EHS262125 DXW262122:DXW262125 DOA262122:DOA262125 DEE262122:DEE262125 CUI262122:CUI262125 CKM262122:CKM262125 CAQ262122:CAQ262125 BQU262122:BQU262125 BGY262122:BGY262125 AXC262122:AXC262125 ANG262122:ANG262125 ADK262122:ADK262125 TO262122:TO262125 JS262122:JS262125 W262122:W262125 WWE196586:WWE196589 WMI196586:WMI196589 WCM196586:WCM196589 VSQ196586:VSQ196589 VIU196586:VIU196589 UYY196586:UYY196589 UPC196586:UPC196589 UFG196586:UFG196589 TVK196586:TVK196589 TLO196586:TLO196589 TBS196586:TBS196589 SRW196586:SRW196589 SIA196586:SIA196589 RYE196586:RYE196589 ROI196586:ROI196589 REM196586:REM196589 QUQ196586:QUQ196589 QKU196586:QKU196589 QAY196586:QAY196589 PRC196586:PRC196589 PHG196586:PHG196589 OXK196586:OXK196589 ONO196586:ONO196589 ODS196586:ODS196589 NTW196586:NTW196589 NKA196586:NKA196589 NAE196586:NAE196589 MQI196586:MQI196589 MGM196586:MGM196589 LWQ196586:LWQ196589 LMU196586:LMU196589 LCY196586:LCY196589 KTC196586:KTC196589 KJG196586:KJG196589 JZK196586:JZK196589 JPO196586:JPO196589 JFS196586:JFS196589 IVW196586:IVW196589 IMA196586:IMA196589 ICE196586:ICE196589 HSI196586:HSI196589 HIM196586:HIM196589 GYQ196586:GYQ196589 GOU196586:GOU196589 GEY196586:GEY196589 FVC196586:FVC196589 FLG196586:FLG196589 FBK196586:FBK196589 ERO196586:ERO196589 EHS196586:EHS196589 DXW196586:DXW196589 DOA196586:DOA196589 DEE196586:DEE196589 CUI196586:CUI196589 CKM196586:CKM196589 CAQ196586:CAQ196589 BQU196586:BQU196589 BGY196586:BGY196589 AXC196586:AXC196589 ANG196586:ANG196589 ADK196586:ADK196589 TO196586:TO196589 JS196586:JS196589 W196586:W196589 WWE131050:WWE131053 WMI131050:WMI131053 WCM131050:WCM131053 VSQ131050:VSQ131053 VIU131050:VIU131053 UYY131050:UYY131053 UPC131050:UPC131053 UFG131050:UFG131053 TVK131050:TVK131053 TLO131050:TLO131053 TBS131050:TBS131053 SRW131050:SRW131053 SIA131050:SIA131053 RYE131050:RYE131053 ROI131050:ROI131053 REM131050:REM131053 QUQ131050:QUQ131053 QKU131050:QKU131053 QAY131050:QAY131053 PRC131050:PRC131053 PHG131050:PHG131053 OXK131050:OXK131053 ONO131050:ONO131053 ODS131050:ODS131053 NTW131050:NTW131053 NKA131050:NKA131053 NAE131050:NAE131053 MQI131050:MQI131053 MGM131050:MGM131053 LWQ131050:LWQ131053 LMU131050:LMU131053 LCY131050:LCY131053 KTC131050:KTC131053 KJG131050:KJG131053 JZK131050:JZK131053 JPO131050:JPO131053 JFS131050:JFS131053 IVW131050:IVW131053 IMA131050:IMA131053 ICE131050:ICE131053 HSI131050:HSI131053 HIM131050:HIM131053 GYQ131050:GYQ131053 GOU131050:GOU131053 GEY131050:GEY131053 FVC131050:FVC131053 FLG131050:FLG131053 FBK131050:FBK131053 ERO131050:ERO131053 EHS131050:EHS131053 DXW131050:DXW131053 DOA131050:DOA131053 DEE131050:DEE131053 CUI131050:CUI131053 CKM131050:CKM131053 CAQ131050:CAQ131053 BQU131050:BQU131053 BGY131050:BGY131053 AXC131050:AXC131053 ANG131050:ANG131053 ADK131050:ADK131053 TO131050:TO131053 JS131050:JS131053 W131050:W131053 WWE65514:WWE65517 WMI65514:WMI65517 WCM65514:WCM65517 VSQ65514:VSQ65517 VIU65514:VIU65517 UYY65514:UYY65517 UPC65514:UPC65517 UFG65514:UFG65517 TVK65514:TVK65517 TLO65514:TLO65517 TBS65514:TBS65517 SRW65514:SRW65517 SIA65514:SIA65517 RYE65514:RYE65517 ROI65514:ROI65517 REM65514:REM65517 QUQ65514:QUQ65517 QKU65514:QKU65517 QAY65514:QAY65517 PRC65514:PRC65517 PHG65514:PHG65517 OXK65514:OXK65517 ONO65514:ONO65517 ODS65514:ODS65517 NTW65514:NTW65517 NKA65514:NKA65517 NAE65514:NAE65517 MQI65514:MQI65517 MGM65514:MGM65517 LWQ65514:LWQ65517 LMU65514:LMU65517 LCY65514:LCY65517 KTC65514:KTC65517 KJG65514:KJG65517 JZK65514:JZK65517 JPO65514:JPO65517 JFS65514:JFS65517 IVW65514:IVW65517 IMA65514:IMA65517 ICE65514:ICE65517 HSI65514:HSI65517 HIM65514:HIM65517 GYQ65514:GYQ65517 GOU65514:GOU65517 GEY65514:GEY65517 FVC65514:FVC65517 FLG65514:FLG65517 FBK65514:FBK65517 ERO65514:ERO65517 EHS65514:EHS65517 DXW65514:DXW65517 DOA65514:DOA65517 DEE65514:DEE65517 CUI65514:CUI65517 CKM65514:CKM65517 CAQ65514:CAQ65517 BQU65514:BQU65517 BGY65514:BGY65517 AXC65514:AXC65517 ANG65514:ANG65517 ADK65514:ADK65517 TO65514:TO65517 JS65514:JS65517 W65514:W65517 WWK983018:WWK983021 WMO983018:WMO983021 WCS983018:WCS983021 VSW983018:VSW983021 VJA983018:VJA983021 UZE983018:UZE983021 UPI983018:UPI983021 UFM983018:UFM983021 TVQ983018:TVQ983021 TLU983018:TLU983021 TBY983018:TBY983021 SSC983018:SSC983021 SIG983018:SIG983021 RYK983018:RYK983021 ROO983018:ROO983021 RES983018:RES983021 QUW983018:QUW983021 QLA983018:QLA983021 QBE983018:QBE983021 PRI983018:PRI983021 PHM983018:PHM983021 OXQ983018:OXQ983021 ONU983018:ONU983021 ODY983018:ODY983021 NUC983018:NUC983021 NKG983018:NKG983021 NAK983018:NAK983021 MQO983018:MQO983021 MGS983018:MGS983021 LWW983018:LWW983021 LNA983018:LNA983021 LDE983018:LDE983021 KTI983018:KTI983021 KJM983018:KJM983021 JZQ983018:JZQ983021 JPU983018:JPU983021 JFY983018:JFY983021 IWC983018:IWC983021 IMG983018:IMG983021 ICK983018:ICK983021 HSO983018:HSO983021 HIS983018:HIS983021 GYW983018:GYW983021 GPA983018:GPA983021 GFE983018:GFE983021 FVI983018:FVI983021 FLM983018:FLM983021 FBQ983018:FBQ983021 ERU983018:ERU983021 EHY983018:EHY983021 DYC983018:DYC983021 DOG983018:DOG983021 DEK983018:DEK983021 CUO983018:CUO983021 CKS983018:CKS983021 CAW983018:CAW983021 BRA983018:BRA983021 BHE983018:BHE983021 AXI983018:AXI983021 ANM983018:ANM983021 ADQ983018:ADQ983021 TU983018:TU983021 JY983018:JY983021 AC983018:AC983021 WWK917482:WWK917485 WMO917482:WMO917485 WCS917482:WCS917485 VSW917482:VSW917485 VJA917482:VJA917485 UZE917482:UZE917485 UPI917482:UPI917485 UFM917482:UFM917485 TVQ917482:TVQ917485 TLU917482:TLU917485 TBY917482:TBY917485 SSC917482:SSC917485 SIG917482:SIG917485 RYK917482:RYK917485 ROO917482:ROO917485 RES917482:RES917485 QUW917482:QUW917485 QLA917482:QLA917485 QBE917482:QBE917485 PRI917482:PRI917485 PHM917482:PHM917485 OXQ917482:OXQ917485 ONU917482:ONU917485 ODY917482:ODY917485 NUC917482:NUC917485 NKG917482:NKG917485 NAK917482:NAK917485 MQO917482:MQO917485 MGS917482:MGS917485 LWW917482:LWW917485 LNA917482:LNA917485 LDE917482:LDE917485 KTI917482:KTI917485 KJM917482:KJM917485 JZQ917482:JZQ917485 JPU917482:JPU917485 JFY917482:JFY917485 IWC917482:IWC917485 IMG917482:IMG917485 ICK917482:ICK917485 HSO917482:HSO917485 HIS917482:HIS917485 GYW917482:GYW917485 GPA917482:GPA917485 GFE917482:GFE917485 FVI917482:FVI917485 FLM917482:FLM917485 FBQ917482:FBQ917485 ERU917482:ERU917485 EHY917482:EHY917485 DYC917482:DYC917485 DOG917482:DOG917485 DEK917482:DEK917485 CUO917482:CUO917485 CKS917482:CKS917485 CAW917482:CAW917485 BRA917482:BRA917485 BHE917482:BHE917485 AXI917482:AXI917485 ANM917482:ANM917485 ADQ917482:ADQ917485 TU917482:TU917485 JY917482:JY917485 AC917482:AC917485 WWK851946:WWK851949 WMO851946:WMO851949 WCS851946:WCS851949 VSW851946:VSW851949 VJA851946:VJA851949 UZE851946:UZE851949 UPI851946:UPI851949 UFM851946:UFM851949 TVQ851946:TVQ851949 TLU851946:TLU851949 TBY851946:TBY851949 SSC851946:SSC851949 SIG851946:SIG851949 RYK851946:RYK851949 ROO851946:ROO851949 RES851946:RES851949 QUW851946:QUW851949 QLA851946:QLA851949 QBE851946:QBE851949 PRI851946:PRI851949 PHM851946:PHM851949 OXQ851946:OXQ851949 ONU851946:ONU851949 ODY851946:ODY851949 NUC851946:NUC851949 NKG851946:NKG851949 NAK851946:NAK851949 MQO851946:MQO851949 MGS851946:MGS851949 LWW851946:LWW851949 LNA851946:LNA851949 LDE851946:LDE851949 KTI851946:KTI851949 KJM851946:KJM851949 JZQ851946:JZQ851949 JPU851946:JPU851949 JFY851946:JFY851949 IWC851946:IWC851949 IMG851946:IMG851949 ICK851946:ICK851949 HSO851946:HSO851949 HIS851946:HIS851949 GYW851946:GYW851949 GPA851946:GPA851949 GFE851946:GFE851949 FVI851946:FVI851949 FLM851946:FLM851949 FBQ851946:FBQ851949 ERU851946:ERU851949 EHY851946:EHY851949 DYC851946:DYC851949 DOG851946:DOG851949 DEK851946:DEK851949 CUO851946:CUO851949 CKS851946:CKS851949 CAW851946:CAW851949 BRA851946:BRA851949 BHE851946:BHE851949 AXI851946:AXI851949 ANM851946:ANM851949 ADQ851946:ADQ851949 TU851946:TU851949 JY851946:JY851949 AC851946:AC851949 WWK786410:WWK786413 WMO786410:WMO786413 WCS786410:WCS786413 VSW786410:VSW786413 VJA786410:VJA786413 UZE786410:UZE786413 UPI786410:UPI786413 UFM786410:UFM786413 TVQ786410:TVQ786413 TLU786410:TLU786413 TBY786410:TBY786413 SSC786410:SSC786413 SIG786410:SIG786413 RYK786410:RYK786413 ROO786410:ROO786413 RES786410:RES786413 QUW786410:QUW786413 QLA786410:QLA786413 QBE786410:QBE786413 PRI786410:PRI786413 PHM786410:PHM786413 OXQ786410:OXQ786413 ONU786410:ONU786413 ODY786410:ODY786413 NUC786410:NUC786413 NKG786410:NKG786413 NAK786410:NAK786413 MQO786410:MQO786413 MGS786410:MGS786413 LWW786410:LWW786413 LNA786410:LNA786413 LDE786410:LDE786413 KTI786410:KTI786413 KJM786410:KJM786413 JZQ786410:JZQ786413 JPU786410:JPU786413 JFY786410:JFY786413 IWC786410:IWC786413 IMG786410:IMG786413 ICK786410:ICK786413 HSO786410:HSO786413 HIS786410:HIS786413 GYW786410:GYW786413 GPA786410:GPA786413 GFE786410:GFE786413 FVI786410:FVI786413 FLM786410:FLM786413 FBQ786410:FBQ786413 ERU786410:ERU786413 EHY786410:EHY786413 DYC786410:DYC786413 DOG786410:DOG786413 DEK786410:DEK786413 CUO786410:CUO786413 CKS786410:CKS786413 CAW786410:CAW786413 BRA786410:BRA786413 BHE786410:BHE786413 AXI786410:AXI786413 ANM786410:ANM786413 ADQ786410:ADQ786413 TU786410:TU786413 JY786410:JY786413 AC786410:AC786413 WWK720874:WWK720877 WMO720874:WMO720877 WCS720874:WCS720877 VSW720874:VSW720877 VJA720874:VJA720877 UZE720874:UZE720877 UPI720874:UPI720877 UFM720874:UFM720877 TVQ720874:TVQ720877 TLU720874:TLU720877 TBY720874:TBY720877 SSC720874:SSC720877 SIG720874:SIG720877 RYK720874:RYK720877 ROO720874:ROO720877 RES720874:RES720877 QUW720874:QUW720877 QLA720874:QLA720877 QBE720874:QBE720877 PRI720874:PRI720877 PHM720874:PHM720877 OXQ720874:OXQ720877 ONU720874:ONU720877 ODY720874:ODY720877 NUC720874:NUC720877 NKG720874:NKG720877 NAK720874:NAK720877 MQO720874:MQO720877 MGS720874:MGS720877 LWW720874:LWW720877 LNA720874:LNA720877 LDE720874:LDE720877 KTI720874:KTI720877 KJM720874:KJM720877 JZQ720874:JZQ720877 JPU720874:JPU720877 JFY720874:JFY720877 IWC720874:IWC720877 IMG720874:IMG720877 ICK720874:ICK720877 HSO720874:HSO720877 HIS720874:HIS720877 GYW720874:GYW720877 GPA720874:GPA720877 GFE720874:GFE720877 FVI720874:FVI720877 FLM720874:FLM720877 FBQ720874:FBQ720877 ERU720874:ERU720877 EHY720874:EHY720877 DYC720874:DYC720877 DOG720874:DOG720877 DEK720874:DEK720877 CUO720874:CUO720877 CKS720874:CKS720877 CAW720874:CAW720877 BRA720874:BRA720877 BHE720874:BHE720877 AXI720874:AXI720877 ANM720874:ANM720877 ADQ720874:ADQ720877 TU720874:TU720877 JY720874:JY720877 AC720874:AC720877 WWK655338:WWK655341 WMO655338:WMO655341 WCS655338:WCS655341 VSW655338:VSW655341 VJA655338:VJA655341 UZE655338:UZE655341 UPI655338:UPI655341 UFM655338:UFM655341 TVQ655338:TVQ655341 TLU655338:TLU655341 TBY655338:TBY655341 SSC655338:SSC655341 SIG655338:SIG655341 RYK655338:RYK655341 ROO655338:ROO655341 RES655338:RES655341 QUW655338:QUW655341 QLA655338:QLA655341 QBE655338:QBE655341 PRI655338:PRI655341 PHM655338:PHM655341 OXQ655338:OXQ655341 ONU655338:ONU655341 ODY655338:ODY655341 NUC655338:NUC655341 NKG655338:NKG655341 NAK655338:NAK655341 MQO655338:MQO655341 MGS655338:MGS655341 LWW655338:LWW655341 LNA655338:LNA655341 LDE655338:LDE655341 KTI655338:KTI655341 KJM655338:KJM655341 JZQ655338:JZQ655341 JPU655338:JPU655341 JFY655338:JFY655341 IWC655338:IWC655341 IMG655338:IMG655341 ICK655338:ICK655341 HSO655338:HSO655341 HIS655338:HIS655341 GYW655338:GYW655341 GPA655338:GPA655341 GFE655338:GFE655341 FVI655338:FVI655341 FLM655338:FLM655341 FBQ655338:FBQ655341 ERU655338:ERU655341 EHY655338:EHY655341 DYC655338:DYC655341 DOG655338:DOG655341 DEK655338:DEK655341 CUO655338:CUO655341 CKS655338:CKS655341 CAW655338:CAW655341 BRA655338:BRA655341 BHE655338:BHE655341 AXI655338:AXI655341 ANM655338:ANM655341 ADQ655338:ADQ655341 TU655338:TU655341 JY655338:JY655341 AC655338:AC655341 WWK589802:WWK589805 WMO589802:WMO589805 WCS589802:WCS589805 VSW589802:VSW589805 VJA589802:VJA589805 UZE589802:UZE589805 UPI589802:UPI589805 UFM589802:UFM589805 TVQ589802:TVQ589805 TLU589802:TLU589805 TBY589802:TBY589805 SSC589802:SSC589805 SIG589802:SIG589805 RYK589802:RYK589805 ROO589802:ROO589805 RES589802:RES589805 QUW589802:QUW589805 QLA589802:QLA589805 QBE589802:QBE589805 PRI589802:PRI589805 PHM589802:PHM589805 OXQ589802:OXQ589805 ONU589802:ONU589805 ODY589802:ODY589805 NUC589802:NUC589805 NKG589802:NKG589805 NAK589802:NAK589805 MQO589802:MQO589805 MGS589802:MGS589805 LWW589802:LWW589805 LNA589802:LNA589805 LDE589802:LDE589805 KTI589802:KTI589805 KJM589802:KJM589805 JZQ589802:JZQ589805 JPU589802:JPU589805 JFY589802:JFY589805 IWC589802:IWC589805 IMG589802:IMG589805 ICK589802:ICK589805 HSO589802:HSO589805 HIS589802:HIS589805 GYW589802:GYW589805 GPA589802:GPA589805 GFE589802:GFE589805 FVI589802:FVI589805 FLM589802:FLM589805 FBQ589802:FBQ589805 ERU589802:ERU589805 EHY589802:EHY589805 DYC589802:DYC589805 DOG589802:DOG589805 DEK589802:DEK589805 CUO589802:CUO589805 CKS589802:CKS589805 CAW589802:CAW589805 BRA589802:BRA589805 BHE589802:BHE589805 AXI589802:AXI589805 ANM589802:ANM589805 ADQ589802:ADQ589805 TU589802:TU589805 JY589802:JY589805 AC589802:AC589805 WWK524266:WWK524269 WMO524266:WMO524269 WCS524266:WCS524269 VSW524266:VSW524269 VJA524266:VJA524269 UZE524266:UZE524269 UPI524266:UPI524269 UFM524266:UFM524269 TVQ524266:TVQ524269 TLU524266:TLU524269 TBY524266:TBY524269 SSC524266:SSC524269 SIG524266:SIG524269 RYK524266:RYK524269 ROO524266:ROO524269 RES524266:RES524269 QUW524266:QUW524269 QLA524266:QLA524269 QBE524266:QBE524269 PRI524266:PRI524269 PHM524266:PHM524269 OXQ524266:OXQ524269 ONU524266:ONU524269 ODY524266:ODY524269 NUC524266:NUC524269 NKG524266:NKG524269 NAK524266:NAK524269 MQO524266:MQO524269 MGS524266:MGS524269 LWW524266:LWW524269 LNA524266:LNA524269 LDE524266:LDE524269 KTI524266:KTI524269 KJM524266:KJM524269 JZQ524266:JZQ524269 JPU524266:JPU524269 JFY524266:JFY524269 IWC524266:IWC524269 IMG524266:IMG524269 ICK524266:ICK524269 HSO524266:HSO524269 HIS524266:HIS524269 GYW524266:GYW524269 GPA524266:GPA524269 GFE524266:GFE524269 FVI524266:FVI524269 FLM524266:FLM524269 FBQ524266:FBQ524269 ERU524266:ERU524269 EHY524266:EHY524269 DYC524266:DYC524269 DOG524266:DOG524269 DEK524266:DEK524269 CUO524266:CUO524269 CKS524266:CKS524269 CAW524266:CAW524269 BRA524266:BRA524269 BHE524266:BHE524269 AXI524266:AXI524269 ANM524266:ANM524269 ADQ524266:ADQ524269 TU524266:TU524269 JY524266:JY524269 AC524266:AC524269 WWK458730:WWK458733 WMO458730:WMO458733 WCS458730:WCS458733 VSW458730:VSW458733 VJA458730:VJA458733 UZE458730:UZE458733 UPI458730:UPI458733 UFM458730:UFM458733 TVQ458730:TVQ458733 TLU458730:TLU458733 TBY458730:TBY458733 SSC458730:SSC458733 SIG458730:SIG458733 RYK458730:RYK458733 ROO458730:ROO458733 RES458730:RES458733 QUW458730:QUW458733 QLA458730:QLA458733 QBE458730:QBE458733 PRI458730:PRI458733 PHM458730:PHM458733 OXQ458730:OXQ458733 ONU458730:ONU458733 ODY458730:ODY458733 NUC458730:NUC458733 NKG458730:NKG458733 NAK458730:NAK458733 MQO458730:MQO458733 MGS458730:MGS458733 LWW458730:LWW458733 LNA458730:LNA458733 LDE458730:LDE458733 KTI458730:KTI458733 KJM458730:KJM458733 JZQ458730:JZQ458733 JPU458730:JPU458733 JFY458730:JFY458733 IWC458730:IWC458733 IMG458730:IMG458733 ICK458730:ICK458733 HSO458730:HSO458733 HIS458730:HIS458733 GYW458730:GYW458733 GPA458730:GPA458733 GFE458730:GFE458733 FVI458730:FVI458733 FLM458730:FLM458733 FBQ458730:FBQ458733 ERU458730:ERU458733 EHY458730:EHY458733 DYC458730:DYC458733 DOG458730:DOG458733 DEK458730:DEK458733 CUO458730:CUO458733 CKS458730:CKS458733 CAW458730:CAW458733 BRA458730:BRA458733 BHE458730:BHE458733 AXI458730:AXI458733 ANM458730:ANM458733 ADQ458730:ADQ458733 TU458730:TU458733 JY458730:JY458733 AC458730:AC458733 WWK393194:WWK393197 WMO393194:WMO393197 WCS393194:WCS393197 VSW393194:VSW393197 VJA393194:VJA393197 UZE393194:UZE393197 UPI393194:UPI393197 UFM393194:UFM393197 TVQ393194:TVQ393197 TLU393194:TLU393197 TBY393194:TBY393197 SSC393194:SSC393197 SIG393194:SIG393197 RYK393194:RYK393197 ROO393194:ROO393197 RES393194:RES393197 QUW393194:QUW393197 QLA393194:QLA393197 QBE393194:QBE393197 PRI393194:PRI393197 PHM393194:PHM393197 OXQ393194:OXQ393197 ONU393194:ONU393197 ODY393194:ODY393197 NUC393194:NUC393197 NKG393194:NKG393197 NAK393194:NAK393197 MQO393194:MQO393197 MGS393194:MGS393197 LWW393194:LWW393197 LNA393194:LNA393197 LDE393194:LDE393197 KTI393194:KTI393197 KJM393194:KJM393197 JZQ393194:JZQ393197 JPU393194:JPU393197 JFY393194:JFY393197 IWC393194:IWC393197 IMG393194:IMG393197 ICK393194:ICK393197 HSO393194:HSO393197 HIS393194:HIS393197 GYW393194:GYW393197 GPA393194:GPA393197 GFE393194:GFE393197 FVI393194:FVI393197 FLM393194:FLM393197 FBQ393194:FBQ393197 ERU393194:ERU393197 EHY393194:EHY393197 DYC393194:DYC393197 DOG393194:DOG393197 DEK393194:DEK393197 CUO393194:CUO393197 CKS393194:CKS393197 CAW393194:CAW393197 BRA393194:BRA393197 BHE393194:BHE393197 AXI393194:AXI393197 ANM393194:ANM393197 ADQ393194:ADQ393197 TU393194:TU393197 JY393194:JY393197 AC393194:AC393197 WWK327658:WWK327661 WMO327658:WMO327661 WCS327658:WCS327661 VSW327658:VSW327661 VJA327658:VJA327661 UZE327658:UZE327661 UPI327658:UPI327661 UFM327658:UFM327661 TVQ327658:TVQ327661 TLU327658:TLU327661 TBY327658:TBY327661 SSC327658:SSC327661 SIG327658:SIG327661 RYK327658:RYK327661 ROO327658:ROO327661 RES327658:RES327661 QUW327658:QUW327661 QLA327658:QLA327661 QBE327658:QBE327661 PRI327658:PRI327661 PHM327658:PHM327661 OXQ327658:OXQ327661 ONU327658:ONU327661 ODY327658:ODY327661 NUC327658:NUC327661 NKG327658:NKG327661 NAK327658:NAK327661 MQO327658:MQO327661 MGS327658:MGS327661 LWW327658:LWW327661 LNA327658:LNA327661 LDE327658:LDE327661 KTI327658:KTI327661 KJM327658:KJM327661 JZQ327658:JZQ327661 JPU327658:JPU327661 JFY327658:JFY327661 IWC327658:IWC327661 IMG327658:IMG327661 ICK327658:ICK327661 HSO327658:HSO327661 HIS327658:HIS327661 GYW327658:GYW327661 GPA327658:GPA327661 GFE327658:GFE327661 FVI327658:FVI327661 FLM327658:FLM327661 FBQ327658:FBQ327661 ERU327658:ERU327661 EHY327658:EHY327661 DYC327658:DYC327661 DOG327658:DOG327661 DEK327658:DEK327661 CUO327658:CUO327661 CKS327658:CKS327661 CAW327658:CAW327661 BRA327658:BRA327661 BHE327658:BHE327661 AXI327658:AXI327661 ANM327658:ANM327661 ADQ327658:ADQ327661 TU327658:TU327661 JY327658:JY327661 AC327658:AC327661 WWK262122:WWK262125 WMO262122:WMO262125 WCS262122:WCS262125 VSW262122:VSW262125 VJA262122:VJA262125 UZE262122:UZE262125 UPI262122:UPI262125 UFM262122:UFM262125 TVQ262122:TVQ262125 TLU262122:TLU262125 TBY262122:TBY262125 SSC262122:SSC262125 SIG262122:SIG262125 RYK262122:RYK262125 ROO262122:ROO262125 RES262122:RES262125 QUW262122:QUW262125 QLA262122:QLA262125 QBE262122:QBE262125 PRI262122:PRI262125 PHM262122:PHM262125 OXQ262122:OXQ262125 ONU262122:ONU262125 ODY262122:ODY262125 NUC262122:NUC262125 NKG262122:NKG262125 NAK262122:NAK262125 MQO262122:MQO262125 MGS262122:MGS262125 LWW262122:LWW262125 LNA262122:LNA262125 LDE262122:LDE262125 KTI262122:KTI262125 KJM262122:KJM262125 JZQ262122:JZQ262125 JPU262122:JPU262125 JFY262122:JFY262125 IWC262122:IWC262125 IMG262122:IMG262125 ICK262122:ICK262125 HSO262122:HSO262125 HIS262122:HIS262125 GYW262122:GYW262125 GPA262122:GPA262125 GFE262122:GFE262125 FVI262122:FVI262125 FLM262122:FLM262125 FBQ262122:FBQ262125 ERU262122:ERU262125 EHY262122:EHY262125 DYC262122:DYC262125 DOG262122:DOG262125 DEK262122:DEK262125 CUO262122:CUO262125 CKS262122:CKS262125 CAW262122:CAW262125 BRA262122:BRA262125 BHE262122:BHE262125 AXI262122:AXI262125 ANM262122:ANM262125 ADQ262122:ADQ262125 TU262122:TU262125 JY262122:JY262125 AC262122:AC262125 WWK196586:WWK196589 WMO196586:WMO196589 WCS196586:WCS196589 VSW196586:VSW196589 VJA196586:VJA196589 UZE196586:UZE196589 UPI196586:UPI196589 UFM196586:UFM196589 TVQ196586:TVQ196589 TLU196586:TLU196589 TBY196586:TBY196589 SSC196586:SSC196589 SIG196586:SIG196589 RYK196586:RYK196589 ROO196586:ROO196589 RES196586:RES196589 QUW196586:QUW196589 QLA196586:QLA196589 QBE196586:QBE196589 PRI196586:PRI196589 PHM196586:PHM196589 OXQ196586:OXQ196589 ONU196586:ONU196589 ODY196586:ODY196589 NUC196586:NUC196589 NKG196586:NKG196589 NAK196586:NAK196589 MQO196586:MQO196589 MGS196586:MGS196589 LWW196586:LWW196589 LNA196586:LNA196589 LDE196586:LDE196589 KTI196586:KTI196589 KJM196586:KJM196589 JZQ196586:JZQ196589 JPU196586:JPU196589 JFY196586:JFY196589 IWC196586:IWC196589 IMG196586:IMG196589 ICK196586:ICK196589 HSO196586:HSO196589 HIS196586:HIS196589 GYW196586:GYW196589 GPA196586:GPA196589 GFE196586:GFE196589 FVI196586:FVI196589 FLM196586:FLM196589 FBQ196586:FBQ196589 ERU196586:ERU196589 EHY196586:EHY196589 DYC196586:DYC196589 DOG196586:DOG196589 DEK196586:DEK196589 CUO196586:CUO196589 CKS196586:CKS196589 CAW196586:CAW196589 BRA196586:BRA196589 BHE196586:BHE196589 AXI196586:AXI196589 ANM196586:ANM196589 ADQ196586:ADQ196589 TU196586:TU196589 JY196586:JY196589 AC196586:AC196589 WWK131050:WWK131053 WMO131050:WMO131053 WCS131050:WCS131053 VSW131050:VSW131053 VJA131050:VJA131053 UZE131050:UZE131053 UPI131050:UPI131053 UFM131050:UFM131053 TVQ131050:TVQ131053 TLU131050:TLU131053 TBY131050:TBY131053 SSC131050:SSC131053 SIG131050:SIG131053 RYK131050:RYK131053 ROO131050:ROO131053 RES131050:RES131053 QUW131050:QUW131053 QLA131050:QLA131053 QBE131050:QBE131053 PRI131050:PRI131053 PHM131050:PHM131053 OXQ131050:OXQ131053 ONU131050:ONU131053 ODY131050:ODY131053 NUC131050:NUC131053 NKG131050:NKG131053 NAK131050:NAK131053 MQO131050:MQO131053 MGS131050:MGS131053 LWW131050:LWW131053 LNA131050:LNA131053 LDE131050:LDE131053 KTI131050:KTI131053 KJM131050:KJM131053 JZQ131050:JZQ131053 JPU131050:JPU131053 JFY131050:JFY131053 IWC131050:IWC131053 IMG131050:IMG131053 ICK131050:ICK131053 HSO131050:HSO131053 HIS131050:HIS131053 GYW131050:GYW131053 GPA131050:GPA131053 GFE131050:GFE131053 FVI131050:FVI131053 FLM131050:FLM131053 FBQ131050:FBQ131053 ERU131050:ERU131053 EHY131050:EHY131053 DYC131050:DYC131053 DOG131050:DOG131053 DEK131050:DEK131053 CUO131050:CUO131053 CKS131050:CKS131053 CAW131050:CAW131053 BRA131050:BRA131053 BHE131050:BHE131053 AXI131050:AXI131053 ANM131050:ANM131053 ADQ131050:ADQ131053 TU131050:TU131053 JY131050:JY131053 AC131050:AC131053 WWK65514:WWK65517 WMO65514:WMO65517 WCS65514:WCS65517 VSW65514:VSW65517 VJA65514:VJA65517 UZE65514:UZE65517 UPI65514:UPI65517 UFM65514:UFM65517 TVQ65514:TVQ65517 TLU65514:TLU65517 TBY65514:TBY65517 SSC65514:SSC65517 SIG65514:SIG65517 RYK65514:RYK65517 ROO65514:ROO65517 RES65514:RES65517 QUW65514:QUW65517 QLA65514:QLA65517 QBE65514:QBE65517 PRI65514:PRI65517 PHM65514:PHM65517 OXQ65514:OXQ65517 ONU65514:ONU65517 ODY65514:ODY65517 NUC65514:NUC65517 NKG65514:NKG65517 NAK65514:NAK65517 MQO65514:MQO65517 MGS65514:MGS65517 LWW65514:LWW65517 LNA65514:LNA65517 LDE65514:LDE65517 KTI65514:KTI65517 KJM65514:KJM65517 JZQ65514:JZQ65517 JPU65514:JPU65517 JFY65514:JFY65517 IWC65514:IWC65517 IMG65514:IMG65517 ICK65514:ICK65517 HSO65514:HSO65517 HIS65514:HIS65517 GYW65514:GYW65517 GPA65514:GPA65517 GFE65514:GFE65517 FVI65514:FVI65517 FLM65514:FLM65517 FBQ65514:FBQ65517 ERU65514:ERU65517 EHY65514:EHY65517 DYC65514:DYC65517 DOG65514:DOG65517 DEK65514:DEK65517 CUO65514:CUO65517 CKS65514:CKS65517 CAW65514:CAW65517 BRA65514:BRA65517 BHE65514:BHE65517 AXI65514:AXI65517 ANM65514:ANM65517 ADQ65514:ADQ65517 TU65514:TU65517 JY65514:JY65517 AC65514:AC65517 WWI983018:WWI983021 WMM983018:WMM983021 WCQ983018:WCQ983021 VSU983018:VSU983021 VIY983018:VIY983021 UZC983018:UZC983021 UPG983018:UPG983021 UFK983018:UFK983021 TVO983018:TVO983021 TLS983018:TLS983021 TBW983018:TBW983021 SSA983018:SSA983021 SIE983018:SIE983021 RYI983018:RYI983021 ROM983018:ROM983021 REQ983018:REQ983021 QUU983018:QUU983021 QKY983018:QKY983021 QBC983018:QBC983021 PRG983018:PRG983021 PHK983018:PHK983021 OXO983018:OXO983021 ONS983018:ONS983021 ODW983018:ODW983021 NUA983018:NUA983021 NKE983018:NKE983021 NAI983018:NAI983021 MQM983018:MQM983021 MGQ983018:MGQ983021 LWU983018:LWU983021 LMY983018:LMY983021 LDC983018:LDC983021 KTG983018:KTG983021 KJK983018:KJK983021 JZO983018:JZO983021 JPS983018:JPS983021 JFW983018:JFW983021 IWA983018:IWA983021 IME983018:IME983021 ICI983018:ICI983021 HSM983018:HSM983021 HIQ983018:HIQ983021 GYU983018:GYU983021 GOY983018:GOY983021 GFC983018:GFC983021 FVG983018:FVG983021 FLK983018:FLK983021 FBO983018:FBO983021 ERS983018:ERS983021 EHW983018:EHW983021 DYA983018:DYA983021 DOE983018:DOE983021 DEI983018:DEI983021 CUM983018:CUM983021 CKQ983018:CKQ983021 CAU983018:CAU983021 BQY983018:BQY983021 BHC983018:BHC983021 AXG983018:AXG983021 ANK983018:ANK983021 ADO983018:ADO983021 TS983018:TS983021 JW983018:JW983021 AA983018:AA983021 WWI917482:WWI917485 WMM917482:WMM917485 WCQ917482:WCQ917485 VSU917482:VSU917485 VIY917482:VIY917485 UZC917482:UZC917485 UPG917482:UPG917485 UFK917482:UFK917485 TVO917482:TVO917485 TLS917482:TLS917485 TBW917482:TBW917485 SSA917482:SSA917485 SIE917482:SIE917485 RYI917482:RYI917485 ROM917482:ROM917485 REQ917482:REQ917485 QUU917482:QUU917485 QKY917482:QKY917485 QBC917482:QBC917485 PRG917482:PRG917485 PHK917482:PHK917485 OXO917482:OXO917485 ONS917482:ONS917485 ODW917482:ODW917485 NUA917482:NUA917485 NKE917482:NKE917485 NAI917482:NAI917485 MQM917482:MQM917485 MGQ917482:MGQ917485 LWU917482:LWU917485 LMY917482:LMY917485 LDC917482:LDC917485 KTG917482:KTG917485 KJK917482:KJK917485 JZO917482:JZO917485 JPS917482:JPS917485 JFW917482:JFW917485 IWA917482:IWA917485 IME917482:IME917485 ICI917482:ICI917485 HSM917482:HSM917485 HIQ917482:HIQ917485 GYU917482:GYU917485 GOY917482:GOY917485 GFC917482:GFC917485 FVG917482:FVG917485 FLK917482:FLK917485 FBO917482:FBO917485 ERS917482:ERS917485 EHW917482:EHW917485 DYA917482:DYA917485 DOE917482:DOE917485 DEI917482:DEI917485 CUM917482:CUM917485 CKQ917482:CKQ917485 CAU917482:CAU917485 BQY917482:BQY917485 BHC917482:BHC917485 AXG917482:AXG917485 ANK917482:ANK917485 ADO917482:ADO917485 TS917482:TS917485 JW917482:JW917485 AA917482:AA917485 WWI851946:WWI851949 WMM851946:WMM851949 WCQ851946:WCQ851949 VSU851946:VSU851949 VIY851946:VIY851949 UZC851946:UZC851949 UPG851946:UPG851949 UFK851946:UFK851949 TVO851946:TVO851949 TLS851946:TLS851949 TBW851946:TBW851949 SSA851946:SSA851949 SIE851946:SIE851949 RYI851946:RYI851949 ROM851946:ROM851949 REQ851946:REQ851949 QUU851946:QUU851949 QKY851946:QKY851949 QBC851946:QBC851949 PRG851946:PRG851949 PHK851946:PHK851949 OXO851946:OXO851949 ONS851946:ONS851949 ODW851946:ODW851949 NUA851946:NUA851949 NKE851946:NKE851949 NAI851946:NAI851949 MQM851946:MQM851949 MGQ851946:MGQ851949 LWU851946:LWU851949 LMY851946:LMY851949 LDC851946:LDC851949 KTG851946:KTG851949 KJK851946:KJK851949 JZO851946:JZO851949 JPS851946:JPS851949 JFW851946:JFW851949 IWA851946:IWA851949 IME851946:IME851949 ICI851946:ICI851949 HSM851946:HSM851949 HIQ851946:HIQ851949 GYU851946:GYU851949 GOY851946:GOY851949 GFC851946:GFC851949 FVG851946:FVG851949 FLK851946:FLK851949 FBO851946:FBO851949 ERS851946:ERS851949 EHW851946:EHW851949 DYA851946:DYA851949 DOE851946:DOE851949 DEI851946:DEI851949 CUM851946:CUM851949 CKQ851946:CKQ851949 CAU851946:CAU851949 BQY851946:BQY851949 BHC851946:BHC851949 AXG851946:AXG851949 ANK851946:ANK851949 ADO851946:ADO851949 TS851946:TS851949 JW851946:JW851949 AA851946:AA851949 WWI786410:WWI786413 WMM786410:WMM786413 WCQ786410:WCQ786413 VSU786410:VSU786413 VIY786410:VIY786413 UZC786410:UZC786413 UPG786410:UPG786413 UFK786410:UFK786413 TVO786410:TVO786413 TLS786410:TLS786413 TBW786410:TBW786413 SSA786410:SSA786413 SIE786410:SIE786413 RYI786410:RYI786413 ROM786410:ROM786413 REQ786410:REQ786413 QUU786410:QUU786413 QKY786410:QKY786413 QBC786410:QBC786413 PRG786410:PRG786413 PHK786410:PHK786413 OXO786410:OXO786413 ONS786410:ONS786413 ODW786410:ODW786413 NUA786410:NUA786413 NKE786410:NKE786413 NAI786410:NAI786413 MQM786410:MQM786413 MGQ786410:MGQ786413 LWU786410:LWU786413 LMY786410:LMY786413 LDC786410:LDC786413 KTG786410:KTG786413 KJK786410:KJK786413 JZO786410:JZO786413 JPS786410:JPS786413 JFW786410:JFW786413 IWA786410:IWA786413 IME786410:IME786413 ICI786410:ICI786413 HSM786410:HSM786413 HIQ786410:HIQ786413 GYU786410:GYU786413 GOY786410:GOY786413 GFC786410:GFC786413 FVG786410:FVG786413 FLK786410:FLK786413 FBO786410:FBO786413 ERS786410:ERS786413 EHW786410:EHW786413 DYA786410:DYA786413 DOE786410:DOE786413 DEI786410:DEI786413 CUM786410:CUM786413 CKQ786410:CKQ786413 CAU786410:CAU786413 BQY786410:BQY786413 BHC786410:BHC786413 AXG786410:AXG786413 ANK786410:ANK786413 ADO786410:ADO786413 TS786410:TS786413 JW786410:JW786413 AA786410:AA786413 WWI720874:WWI720877 WMM720874:WMM720877 WCQ720874:WCQ720877 VSU720874:VSU720877 VIY720874:VIY720877 UZC720874:UZC720877 UPG720874:UPG720877 UFK720874:UFK720877 TVO720874:TVO720877 TLS720874:TLS720877 TBW720874:TBW720877 SSA720874:SSA720877 SIE720874:SIE720877 RYI720874:RYI720877 ROM720874:ROM720877 REQ720874:REQ720877 QUU720874:QUU720877 QKY720874:QKY720877 QBC720874:QBC720877 PRG720874:PRG720877 PHK720874:PHK720877 OXO720874:OXO720877 ONS720874:ONS720877 ODW720874:ODW720877 NUA720874:NUA720877 NKE720874:NKE720877 NAI720874:NAI720877 MQM720874:MQM720877 MGQ720874:MGQ720877 LWU720874:LWU720877 LMY720874:LMY720877 LDC720874:LDC720877 KTG720874:KTG720877 KJK720874:KJK720877 JZO720874:JZO720877 JPS720874:JPS720877 JFW720874:JFW720877 IWA720874:IWA720877 IME720874:IME720877 ICI720874:ICI720877 HSM720874:HSM720877 HIQ720874:HIQ720877 GYU720874:GYU720877 GOY720874:GOY720877 GFC720874:GFC720877 FVG720874:FVG720877 FLK720874:FLK720877 FBO720874:FBO720877 ERS720874:ERS720877 EHW720874:EHW720877 DYA720874:DYA720877 DOE720874:DOE720877 DEI720874:DEI720877 CUM720874:CUM720877 CKQ720874:CKQ720877 CAU720874:CAU720877 BQY720874:BQY720877 BHC720874:BHC720877 AXG720874:AXG720877 ANK720874:ANK720877 ADO720874:ADO720877 TS720874:TS720877 JW720874:JW720877 AA720874:AA720877 WWI655338:WWI655341 WMM655338:WMM655341 WCQ655338:WCQ655341 VSU655338:VSU655341 VIY655338:VIY655341 UZC655338:UZC655341 UPG655338:UPG655341 UFK655338:UFK655341 TVO655338:TVO655341 TLS655338:TLS655341 TBW655338:TBW655341 SSA655338:SSA655341 SIE655338:SIE655341 RYI655338:RYI655341 ROM655338:ROM655341 REQ655338:REQ655341 QUU655338:QUU655341 QKY655338:QKY655341 QBC655338:QBC655341 PRG655338:PRG655341 PHK655338:PHK655341 OXO655338:OXO655341 ONS655338:ONS655341 ODW655338:ODW655341 NUA655338:NUA655341 NKE655338:NKE655341 NAI655338:NAI655341 MQM655338:MQM655341 MGQ655338:MGQ655341 LWU655338:LWU655341 LMY655338:LMY655341 LDC655338:LDC655341 KTG655338:KTG655341 KJK655338:KJK655341 JZO655338:JZO655341 JPS655338:JPS655341 JFW655338:JFW655341 IWA655338:IWA655341 IME655338:IME655341 ICI655338:ICI655341 HSM655338:HSM655341 HIQ655338:HIQ655341 GYU655338:GYU655341 GOY655338:GOY655341 GFC655338:GFC655341 FVG655338:FVG655341 FLK655338:FLK655341 FBO655338:FBO655341 ERS655338:ERS655341 EHW655338:EHW655341 DYA655338:DYA655341 DOE655338:DOE655341 DEI655338:DEI655341 CUM655338:CUM655341 CKQ655338:CKQ655341 CAU655338:CAU655341 BQY655338:BQY655341 BHC655338:BHC655341 AXG655338:AXG655341 ANK655338:ANK655341 ADO655338:ADO655341 TS655338:TS655341 JW655338:JW655341 AA655338:AA655341 WWI589802:WWI589805 WMM589802:WMM589805 WCQ589802:WCQ589805 VSU589802:VSU589805 VIY589802:VIY589805 UZC589802:UZC589805 UPG589802:UPG589805 UFK589802:UFK589805 TVO589802:TVO589805 TLS589802:TLS589805 TBW589802:TBW589805 SSA589802:SSA589805 SIE589802:SIE589805 RYI589802:RYI589805 ROM589802:ROM589805 REQ589802:REQ589805 QUU589802:QUU589805 QKY589802:QKY589805 QBC589802:QBC589805 PRG589802:PRG589805 PHK589802:PHK589805 OXO589802:OXO589805 ONS589802:ONS589805 ODW589802:ODW589805 NUA589802:NUA589805 NKE589802:NKE589805 NAI589802:NAI589805 MQM589802:MQM589805 MGQ589802:MGQ589805 LWU589802:LWU589805 LMY589802:LMY589805 LDC589802:LDC589805 KTG589802:KTG589805 KJK589802:KJK589805 JZO589802:JZO589805 JPS589802:JPS589805 JFW589802:JFW589805 IWA589802:IWA589805 IME589802:IME589805 ICI589802:ICI589805 HSM589802:HSM589805 HIQ589802:HIQ589805 GYU589802:GYU589805 GOY589802:GOY589805 GFC589802:GFC589805 FVG589802:FVG589805 FLK589802:FLK589805 FBO589802:FBO589805 ERS589802:ERS589805 EHW589802:EHW589805 DYA589802:DYA589805 DOE589802:DOE589805 DEI589802:DEI589805 CUM589802:CUM589805 CKQ589802:CKQ589805 CAU589802:CAU589805 BQY589802:BQY589805 BHC589802:BHC589805 AXG589802:AXG589805 ANK589802:ANK589805 ADO589802:ADO589805 TS589802:TS589805 JW589802:JW589805 AA589802:AA589805 WWI524266:WWI524269 WMM524266:WMM524269 WCQ524266:WCQ524269 VSU524266:VSU524269 VIY524266:VIY524269 UZC524266:UZC524269 UPG524266:UPG524269 UFK524266:UFK524269 TVO524266:TVO524269 TLS524266:TLS524269 TBW524266:TBW524269 SSA524266:SSA524269 SIE524266:SIE524269 RYI524266:RYI524269 ROM524266:ROM524269 REQ524266:REQ524269 QUU524266:QUU524269 QKY524266:QKY524269 QBC524266:QBC524269 PRG524266:PRG524269 PHK524266:PHK524269 OXO524266:OXO524269 ONS524266:ONS524269 ODW524266:ODW524269 NUA524266:NUA524269 NKE524266:NKE524269 NAI524266:NAI524269 MQM524266:MQM524269 MGQ524266:MGQ524269 LWU524266:LWU524269 LMY524266:LMY524269 LDC524266:LDC524269 KTG524266:KTG524269 KJK524266:KJK524269 JZO524266:JZO524269 JPS524266:JPS524269 JFW524266:JFW524269 IWA524266:IWA524269 IME524266:IME524269 ICI524266:ICI524269 HSM524266:HSM524269 HIQ524266:HIQ524269 GYU524266:GYU524269 GOY524266:GOY524269 GFC524266:GFC524269 FVG524266:FVG524269 FLK524266:FLK524269 FBO524266:FBO524269 ERS524266:ERS524269 EHW524266:EHW524269 DYA524266:DYA524269 DOE524266:DOE524269 DEI524266:DEI524269 CUM524266:CUM524269 CKQ524266:CKQ524269 CAU524266:CAU524269 BQY524266:BQY524269 BHC524266:BHC524269 AXG524266:AXG524269 ANK524266:ANK524269 ADO524266:ADO524269 TS524266:TS524269 JW524266:JW524269 AA524266:AA524269 WWI458730:WWI458733 WMM458730:WMM458733 WCQ458730:WCQ458733 VSU458730:VSU458733 VIY458730:VIY458733 UZC458730:UZC458733 UPG458730:UPG458733 UFK458730:UFK458733 TVO458730:TVO458733 TLS458730:TLS458733 TBW458730:TBW458733 SSA458730:SSA458733 SIE458730:SIE458733 RYI458730:RYI458733 ROM458730:ROM458733 REQ458730:REQ458733 QUU458730:QUU458733 QKY458730:QKY458733 QBC458730:QBC458733 PRG458730:PRG458733 PHK458730:PHK458733 OXO458730:OXO458733 ONS458730:ONS458733 ODW458730:ODW458733 NUA458730:NUA458733 NKE458730:NKE458733 NAI458730:NAI458733 MQM458730:MQM458733 MGQ458730:MGQ458733 LWU458730:LWU458733 LMY458730:LMY458733 LDC458730:LDC458733 KTG458730:KTG458733 KJK458730:KJK458733 JZO458730:JZO458733 JPS458730:JPS458733 JFW458730:JFW458733 IWA458730:IWA458733 IME458730:IME458733 ICI458730:ICI458733 HSM458730:HSM458733 HIQ458730:HIQ458733 GYU458730:GYU458733 GOY458730:GOY458733 GFC458730:GFC458733 FVG458730:FVG458733 FLK458730:FLK458733 FBO458730:FBO458733 ERS458730:ERS458733 EHW458730:EHW458733 DYA458730:DYA458733 DOE458730:DOE458733 DEI458730:DEI458733 CUM458730:CUM458733 CKQ458730:CKQ458733 CAU458730:CAU458733 BQY458730:BQY458733 BHC458730:BHC458733 AXG458730:AXG458733 ANK458730:ANK458733 ADO458730:ADO458733 TS458730:TS458733 JW458730:JW458733 AA458730:AA458733 WWI393194:WWI393197 WMM393194:WMM393197 WCQ393194:WCQ393197 VSU393194:VSU393197 VIY393194:VIY393197 UZC393194:UZC393197 UPG393194:UPG393197 UFK393194:UFK393197 TVO393194:TVO393197 TLS393194:TLS393197 TBW393194:TBW393197 SSA393194:SSA393197 SIE393194:SIE393197 RYI393194:RYI393197 ROM393194:ROM393197 REQ393194:REQ393197 QUU393194:QUU393197 QKY393194:QKY393197 QBC393194:QBC393197 PRG393194:PRG393197 PHK393194:PHK393197 OXO393194:OXO393197 ONS393194:ONS393197 ODW393194:ODW393197 NUA393194:NUA393197 NKE393194:NKE393197 NAI393194:NAI393197 MQM393194:MQM393197 MGQ393194:MGQ393197 LWU393194:LWU393197 LMY393194:LMY393197 LDC393194:LDC393197 KTG393194:KTG393197 KJK393194:KJK393197 JZO393194:JZO393197 JPS393194:JPS393197 JFW393194:JFW393197 IWA393194:IWA393197 IME393194:IME393197 ICI393194:ICI393197 HSM393194:HSM393197 HIQ393194:HIQ393197 GYU393194:GYU393197 GOY393194:GOY393197 GFC393194:GFC393197 FVG393194:FVG393197 FLK393194:FLK393197 FBO393194:FBO393197 ERS393194:ERS393197 EHW393194:EHW393197 DYA393194:DYA393197 DOE393194:DOE393197 DEI393194:DEI393197 CUM393194:CUM393197 CKQ393194:CKQ393197 CAU393194:CAU393197 BQY393194:BQY393197 BHC393194:BHC393197 AXG393194:AXG393197 ANK393194:ANK393197 ADO393194:ADO393197 TS393194:TS393197 JW393194:JW393197 AA393194:AA393197 WWI327658:WWI327661 WMM327658:WMM327661 WCQ327658:WCQ327661 VSU327658:VSU327661 VIY327658:VIY327661 UZC327658:UZC327661 UPG327658:UPG327661 UFK327658:UFK327661 TVO327658:TVO327661 TLS327658:TLS327661 TBW327658:TBW327661 SSA327658:SSA327661 SIE327658:SIE327661 RYI327658:RYI327661 ROM327658:ROM327661 REQ327658:REQ327661 QUU327658:QUU327661 QKY327658:QKY327661 QBC327658:QBC327661 PRG327658:PRG327661 PHK327658:PHK327661 OXO327658:OXO327661 ONS327658:ONS327661 ODW327658:ODW327661 NUA327658:NUA327661 NKE327658:NKE327661 NAI327658:NAI327661 MQM327658:MQM327661 MGQ327658:MGQ327661 LWU327658:LWU327661 LMY327658:LMY327661 LDC327658:LDC327661 KTG327658:KTG327661 KJK327658:KJK327661 JZO327658:JZO327661 JPS327658:JPS327661 JFW327658:JFW327661 IWA327658:IWA327661 IME327658:IME327661 ICI327658:ICI327661 HSM327658:HSM327661 HIQ327658:HIQ327661 GYU327658:GYU327661 GOY327658:GOY327661 GFC327658:GFC327661 FVG327658:FVG327661 FLK327658:FLK327661 FBO327658:FBO327661 ERS327658:ERS327661 EHW327658:EHW327661 DYA327658:DYA327661 DOE327658:DOE327661 DEI327658:DEI327661 CUM327658:CUM327661 CKQ327658:CKQ327661 CAU327658:CAU327661 BQY327658:BQY327661 BHC327658:BHC327661 AXG327658:AXG327661 ANK327658:ANK327661 ADO327658:ADO327661 TS327658:TS327661 JW327658:JW327661 AA327658:AA327661 WWI262122:WWI262125 WMM262122:WMM262125 WCQ262122:WCQ262125 VSU262122:VSU262125 VIY262122:VIY262125 UZC262122:UZC262125 UPG262122:UPG262125 UFK262122:UFK262125 TVO262122:TVO262125 TLS262122:TLS262125 TBW262122:TBW262125 SSA262122:SSA262125 SIE262122:SIE262125 RYI262122:RYI262125 ROM262122:ROM262125 REQ262122:REQ262125 QUU262122:QUU262125 QKY262122:QKY262125 QBC262122:QBC262125 PRG262122:PRG262125 PHK262122:PHK262125 OXO262122:OXO262125 ONS262122:ONS262125 ODW262122:ODW262125 NUA262122:NUA262125 NKE262122:NKE262125 NAI262122:NAI262125 MQM262122:MQM262125 MGQ262122:MGQ262125 LWU262122:LWU262125 LMY262122:LMY262125 LDC262122:LDC262125 KTG262122:KTG262125 KJK262122:KJK262125 JZO262122:JZO262125 JPS262122:JPS262125 JFW262122:JFW262125 IWA262122:IWA262125 IME262122:IME262125 ICI262122:ICI262125 HSM262122:HSM262125 HIQ262122:HIQ262125 GYU262122:GYU262125 GOY262122:GOY262125 GFC262122:GFC262125 FVG262122:FVG262125 FLK262122:FLK262125 FBO262122:FBO262125 ERS262122:ERS262125 EHW262122:EHW262125 DYA262122:DYA262125 DOE262122:DOE262125 DEI262122:DEI262125 CUM262122:CUM262125 CKQ262122:CKQ262125 CAU262122:CAU262125 BQY262122:BQY262125 BHC262122:BHC262125 AXG262122:AXG262125 ANK262122:ANK262125 ADO262122:ADO262125 TS262122:TS262125 JW262122:JW262125 AA262122:AA262125 WWI196586:WWI196589 WMM196586:WMM196589 WCQ196586:WCQ196589 VSU196586:VSU196589 VIY196586:VIY196589 UZC196586:UZC196589 UPG196586:UPG196589 UFK196586:UFK196589 TVO196586:TVO196589 TLS196586:TLS196589 TBW196586:TBW196589 SSA196586:SSA196589 SIE196586:SIE196589 RYI196586:RYI196589 ROM196586:ROM196589 REQ196586:REQ196589 QUU196586:QUU196589 QKY196586:QKY196589 QBC196586:QBC196589 PRG196586:PRG196589 PHK196586:PHK196589 OXO196586:OXO196589 ONS196586:ONS196589 ODW196586:ODW196589 NUA196586:NUA196589 NKE196586:NKE196589 NAI196586:NAI196589 MQM196586:MQM196589 MGQ196586:MGQ196589 LWU196586:LWU196589 LMY196586:LMY196589 LDC196586:LDC196589 KTG196586:KTG196589 KJK196586:KJK196589 JZO196586:JZO196589 JPS196586:JPS196589 JFW196586:JFW196589 IWA196586:IWA196589 IME196586:IME196589 ICI196586:ICI196589 HSM196586:HSM196589 HIQ196586:HIQ196589 GYU196586:GYU196589 GOY196586:GOY196589 GFC196586:GFC196589 FVG196586:FVG196589 FLK196586:FLK196589 FBO196586:FBO196589 ERS196586:ERS196589 EHW196586:EHW196589 DYA196586:DYA196589 DOE196586:DOE196589 DEI196586:DEI196589 CUM196586:CUM196589 CKQ196586:CKQ196589 CAU196586:CAU196589 BQY196586:BQY196589 BHC196586:BHC196589 AXG196586:AXG196589 ANK196586:ANK196589 ADO196586:ADO196589 TS196586:TS196589 JW196586:JW196589 AA196586:AA196589 WWI131050:WWI131053 WMM131050:WMM131053 WCQ131050:WCQ131053 VSU131050:VSU131053 VIY131050:VIY131053 UZC131050:UZC131053 UPG131050:UPG131053 UFK131050:UFK131053 TVO131050:TVO131053 TLS131050:TLS131053 TBW131050:TBW131053 SSA131050:SSA131053 SIE131050:SIE131053 RYI131050:RYI131053 ROM131050:ROM131053 REQ131050:REQ131053 QUU131050:QUU131053 QKY131050:QKY131053 QBC131050:QBC131053 PRG131050:PRG131053 PHK131050:PHK131053 OXO131050:OXO131053 ONS131050:ONS131053 ODW131050:ODW131053 NUA131050:NUA131053 NKE131050:NKE131053 NAI131050:NAI131053 MQM131050:MQM131053 MGQ131050:MGQ131053 LWU131050:LWU131053 LMY131050:LMY131053 LDC131050:LDC131053 KTG131050:KTG131053 KJK131050:KJK131053 JZO131050:JZO131053 JPS131050:JPS131053 JFW131050:JFW131053 IWA131050:IWA131053 IME131050:IME131053 ICI131050:ICI131053 HSM131050:HSM131053 HIQ131050:HIQ131053 GYU131050:GYU131053 GOY131050:GOY131053 GFC131050:GFC131053 FVG131050:FVG131053 FLK131050:FLK131053 FBO131050:FBO131053 ERS131050:ERS131053 EHW131050:EHW131053 DYA131050:DYA131053 DOE131050:DOE131053 DEI131050:DEI131053 CUM131050:CUM131053 CKQ131050:CKQ131053 CAU131050:CAU131053 BQY131050:BQY131053 BHC131050:BHC131053 AXG131050:AXG131053 ANK131050:ANK131053 ADO131050:ADO131053 TS131050:TS131053 JW131050:JW131053 AA131050:AA131053 WWI65514:WWI65517 WMM65514:WMM65517 WCQ65514:WCQ65517 VSU65514:VSU65517 VIY65514:VIY65517 UZC65514:UZC65517 UPG65514:UPG65517 UFK65514:UFK65517 TVO65514:TVO65517 TLS65514:TLS65517 TBW65514:TBW65517 SSA65514:SSA65517 SIE65514:SIE65517 RYI65514:RYI65517 ROM65514:ROM65517 REQ65514:REQ65517 QUU65514:QUU65517 QKY65514:QKY65517 QBC65514:QBC65517 PRG65514:PRG65517 PHK65514:PHK65517 OXO65514:OXO65517 ONS65514:ONS65517 ODW65514:ODW65517 NUA65514:NUA65517 NKE65514:NKE65517 NAI65514:NAI65517 MQM65514:MQM65517 MGQ65514:MGQ65517 LWU65514:LWU65517 LMY65514:LMY65517 LDC65514:LDC65517 KTG65514:KTG65517 KJK65514:KJK65517 JZO65514:JZO65517 JPS65514:JPS65517 JFW65514:JFW65517 IWA65514:IWA65517 IME65514:IME65517 ICI65514:ICI65517 HSM65514:HSM65517 HIQ65514:HIQ65517 GYU65514:GYU65517 GOY65514:GOY65517 GFC65514:GFC65517 FVG65514:FVG65517 FLK65514:FLK65517 FBO65514:FBO65517 ERS65514:ERS65517 EHW65514:EHW65517 DYA65514:DYA65517 DOE65514:DOE65517 DEI65514:DEI65517 CUM65514:CUM65517 CKQ65514:CKQ65517 CAU65514:CAU65517 BQY65514:BQY65517 BHC65514:BHC65517 AXG65514:AXG65517 ANK65514:ANK65517 ADO65514:ADO65517 TS65514:TS65517 JW65514:JW65517 AA65514:AA65517 WWG983018:WWG983021 WMK983018:WMK983021 WCO983018:WCO983021 VSS983018:VSS983021 VIW983018:VIW983021 UZA983018:UZA983021 UPE983018:UPE983021 UFI983018:UFI983021 TVM983018:TVM983021 TLQ983018:TLQ983021 TBU983018:TBU983021 SRY983018:SRY983021 SIC983018:SIC983021 RYG983018:RYG983021 ROK983018:ROK983021 REO983018:REO983021 QUS983018:QUS983021 QKW983018:QKW983021 QBA983018:QBA983021 PRE983018:PRE983021 PHI983018:PHI983021 OXM983018:OXM983021 ONQ983018:ONQ983021 ODU983018:ODU983021 NTY983018:NTY983021 NKC983018:NKC983021 NAG983018:NAG983021 MQK983018:MQK983021 MGO983018:MGO983021 LWS983018:LWS983021 LMW983018:LMW983021 LDA983018:LDA983021 KTE983018:KTE983021 KJI983018:KJI983021 JZM983018:JZM983021 JPQ983018:JPQ983021 JFU983018:JFU983021 IVY983018:IVY983021 IMC983018:IMC983021 ICG983018:ICG983021 HSK983018:HSK983021 HIO983018:HIO983021 GYS983018:GYS983021 GOW983018:GOW983021 GFA983018:GFA983021 FVE983018:FVE983021 FLI983018:FLI983021 FBM983018:FBM983021 ERQ983018:ERQ983021 EHU983018:EHU983021 DXY983018:DXY983021 DOC983018:DOC983021 DEG983018:DEG983021 CUK983018:CUK983021 CKO983018:CKO983021 CAS983018:CAS983021 BQW983018:BQW983021 BHA983018:BHA983021 AXE983018:AXE983021 ANI983018:ANI983021 ADM983018:ADM983021 TQ983018:TQ983021 JU983018:JU983021 Y983018:Y983021 WWG917482:WWG917485 WMK917482:WMK917485 WCO917482:WCO917485 VSS917482:VSS917485 VIW917482:VIW917485 UZA917482:UZA917485 UPE917482:UPE917485 UFI917482:UFI917485 TVM917482:TVM917485 TLQ917482:TLQ917485 TBU917482:TBU917485 SRY917482:SRY917485 SIC917482:SIC917485 RYG917482:RYG917485 ROK917482:ROK917485 REO917482:REO917485 QUS917482:QUS917485 QKW917482:QKW917485 QBA917482:QBA917485 PRE917482:PRE917485 PHI917482:PHI917485 OXM917482:OXM917485 ONQ917482:ONQ917485 ODU917482:ODU917485 NTY917482:NTY917485 NKC917482:NKC917485 NAG917482:NAG917485 MQK917482:MQK917485 MGO917482:MGO917485 LWS917482:LWS917485 LMW917482:LMW917485 LDA917482:LDA917485 KTE917482:KTE917485 KJI917482:KJI917485 JZM917482:JZM917485 JPQ917482:JPQ917485 JFU917482:JFU917485 IVY917482:IVY917485 IMC917482:IMC917485 ICG917482:ICG917485 HSK917482:HSK917485 HIO917482:HIO917485 GYS917482:GYS917485 GOW917482:GOW917485 GFA917482:GFA917485 FVE917482:FVE917485 FLI917482:FLI917485 FBM917482:FBM917485 ERQ917482:ERQ917485 EHU917482:EHU917485 DXY917482:DXY917485 DOC917482:DOC917485 DEG917482:DEG917485 CUK917482:CUK917485 CKO917482:CKO917485 CAS917482:CAS917485 BQW917482:BQW917485 BHA917482:BHA917485 AXE917482:AXE917485 ANI917482:ANI917485 ADM917482:ADM917485 TQ917482:TQ917485 JU917482:JU917485 Y917482:Y917485 WWG851946:WWG851949 WMK851946:WMK851949 WCO851946:WCO851949 VSS851946:VSS851949 VIW851946:VIW851949 UZA851946:UZA851949 UPE851946:UPE851949 UFI851946:UFI851949 TVM851946:TVM851949 TLQ851946:TLQ851949 TBU851946:TBU851949 SRY851946:SRY851949 SIC851946:SIC851949 RYG851946:RYG851949 ROK851946:ROK851949 REO851946:REO851949 QUS851946:QUS851949 QKW851946:QKW851949 QBA851946:QBA851949 PRE851946:PRE851949 PHI851946:PHI851949 OXM851946:OXM851949 ONQ851946:ONQ851949 ODU851946:ODU851949 NTY851946:NTY851949 NKC851946:NKC851949 NAG851946:NAG851949 MQK851946:MQK851949 MGO851946:MGO851949 LWS851946:LWS851949 LMW851946:LMW851949 LDA851946:LDA851949 KTE851946:KTE851949 KJI851946:KJI851949 JZM851946:JZM851949 JPQ851946:JPQ851949 JFU851946:JFU851949 IVY851946:IVY851949 IMC851946:IMC851949 ICG851946:ICG851949 HSK851946:HSK851949 HIO851946:HIO851949 GYS851946:GYS851949 GOW851946:GOW851949 GFA851946:GFA851949 FVE851946:FVE851949 FLI851946:FLI851949 FBM851946:FBM851949 ERQ851946:ERQ851949 EHU851946:EHU851949 DXY851946:DXY851949 DOC851946:DOC851949 DEG851946:DEG851949 CUK851946:CUK851949 CKO851946:CKO851949 CAS851946:CAS851949 BQW851946:BQW851949 BHA851946:BHA851949 AXE851946:AXE851949 ANI851946:ANI851949 ADM851946:ADM851949 TQ851946:TQ851949 JU851946:JU851949 Y851946:Y851949 WWG786410:WWG786413 WMK786410:WMK786413 WCO786410:WCO786413 VSS786410:VSS786413 VIW786410:VIW786413 UZA786410:UZA786413 UPE786410:UPE786413 UFI786410:UFI786413 TVM786410:TVM786413 TLQ786410:TLQ786413 TBU786410:TBU786413 SRY786410:SRY786413 SIC786410:SIC786413 RYG786410:RYG786413 ROK786410:ROK786413 REO786410:REO786413 QUS786410:QUS786413 QKW786410:QKW786413 QBA786410:QBA786413 PRE786410:PRE786413 PHI786410:PHI786413 OXM786410:OXM786413 ONQ786410:ONQ786413 ODU786410:ODU786413 NTY786410:NTY786413 NKC786410:NKC786413 NAG786410:NAG786413 MQK786410:MQK786413 MGO786410:MGO786413 LWS786410:LWS786413 LMW786410:LMW786413 LDA786410:LDA786413 KTE786410:KTE786413 KJI786410:KJI786413 JZM786410:JZM786413 JPQ786410:JPQ786413 JFU786410:JFU786413 IVY786410:IVY786413 IMC786410:IMC786413 ICG786410:ICG786413 HSK786410:HSK786413 HIO786410:HIO786413 GYS786410:GYS786413 GOW786410:GOW786413 GFA786410:GFA786413 FVE786410:FVE786413 FLI786410:FLI786413 FBM786410:FBM786413 ERQ786410:ERQ786413 EHU786410:EHU786413 DXY786410:DXY786413 DOC786410:DOC786413 DEG786410:DEG786413 CUK786410:CUK786413 CKO786410:CKO786413 CAS786410:CAS786413 BQW786410:BQW786413 BHA786410:BHA786413 AXE786410:AXE786413 ANI786410:ANI786413 ADM786410:ADM786413 TQ786410:TQ786413 JU786410:JU786413 Y786410:Y786413 WWG720874:WWG720877 WMK720874:WMK720877 WCO720874:WCO720877 VSS720874:VSS720877 VIW720874:VIW720877 UZA720874:UZA720877 UPE720874:UPE720877 UFI720874:UFI720877 TVM720874:TVM720877 TLQ720874:TLQ720877 TBU720874:TBU720877 SRY720874:SRY720877 SIC720874:SIC720877 RYG720874:RYG720877 ROK720874:ROK720877 REO720874:REO720877 QUS720874:QUS720877 QKW720874:QKW720877 QBA720874:QBA720877 PRE720874:PRE720877 PHI720874:PHI720877 OXM720874:OXM720877 ONQ720874:ONQ720877 ODU720874:ODU720877 NTY720874:NTY720877 NKC720874:NKC720877 NAG720874:NAG720877 MQK720874:MQK720877 MGO720874:MGO720877 LWS720874:LWS720877 LMW720874:LMW720877 LDA720874:LDA720877 KTE720874:KTE720877 KJI720874:KJI720877 JZM720874:JZM720877 JPQ720874:JPQ720877 JFU720874:JFU720877 IVY720874:IVY720877 IMC720874:IMC720877 ICG720874:ICG720877 HSK720874:HSK720877 HIO720874:HIO720877 GYS720874:GYS720877 GOW720874:GOW720877 GFA720874:GFA720877 FVE720874:FVE720877 FLI720874:FLI720877 FBM720874:FBM720877 ERQ720874:ERQ720877 EHU720874:EHU720877 DXY720874:DXY720877 DOC720874:DOC720877 DEG720874:DEG720877 CUK720874:CUK720877 CKO720874:CKO720877 CAS720874:CAS720877 BQW720874:BQW720877 BHA720874:BHA720877 AXE720874:AXE720877 ANI720874:ANI720877 ADM720874:ADM720877 TQ720874:TQ720877 JU720874:JU720877 Y720874:Y720877 WWG655338:WWG655341 WMK655338:WMK655341 WCO655338:WCO655341 VSS655338:VSS655341 VIW655338:VIW655341 UZA655338:UZA655341 UPE655338:UPE655341 UFI655338:UFI655341 TVM655338:TVM655341 TLQ655338:TLQ655341 TBU655338:TBU655341 SRY655338:SRY655341 SIC655338:SIC655341 RYG655338:RYG655341 ROK655338:ROK655341 REO655338:REO655341 QUS655338:QUS655341 QKW655338:QKW655341 QBA655338:QBA655341 PRE655338:PRE655341 PHI655338:PHI655341 OXM655338:OXM655341 ONQ655338:ONQ655341 ODU655338:ODU655341 NTY655338:NTY655341 NKC655338:NKC655341 NAG655338:NAG655341 MQK655338:MQK655341 MGO655338:MGO655341 LWS655338:LWS655341 LMW655338:LMW655341 LDA655338:LDA655341 KTE655338:KTE655341 KJI655338:KJI655341 JZM655338:JZM655341 JPQ655338:JPQ655341 JFU655338:JFU655341 IVY655338:IVY655341 IMC655338:IMC655341 ICG655338:ICG655341 HSK655338:HSK655341 HIO655338:HIO655341 GYS655338:GYS655341 GOW655338:GOW655341 GFA655338:GFA655341 FVE655338:FVE655341 FLI655338:FLI655341 FBM655338:FBM655341 ERQ655338:ERQ655341 EHU655338:EHU655341 DXY655338:DXY655341 DOC655338:DOC655341 DEG655338:DEG655341 CUK655338:CUK655341 CKO655338:CKO655341 CAS655338:CAS655341 BQW655338:BQW655341 BHA655338:BHA655341 AXE655338:AXE655341 ANI655338:ANI655341 ADM655338:ADM655341 TQ655338:TQ655341 JU655338:JU655341 Y655338:Y655341 WWG589802:WWG589805 WMK589802:WMK589805 WCO589802:WCO589805 VSS589802:VSS589805 VIW589802:VIW589805 UZA589802:UZA589805 UPE589802:UPE589805 UFI589802:UFI589805 TVM589802:TVM589805 TLQ589802:TLQ589805 TBU589802:TBU589805 SRY589802:SRY589805 SIC589802:SIC589805 RYG589802:RYG589805 ROK589802:ROK589805 REO589802:REO589805 QUS589802:QUS589805 QKW589802:QKW589805 QBA589802:QBA589805 PRE589802:PRE589805 PHI589802:PHI589805 OXM589802:OXM589805 ONQ589802:ONQ589805 ODU589802:ODU589805 NTY589802:NTY589805 NKC589802:NKC589805 NAG589802:NAG589805 MQK589802:MQK589805 MGO589802:MGO589805 LWS589802:LWS589805 LMW589802:LMW589805 LDA589802:LDA589805 KTE589802:KTE589805 KJI589802:KJI589805 JZM589802:JZM589805 JPQ589802:JPQ589805 JFU589802:JFU589805 IVY589802:IVY589805 IMC589802:IMC589805 ICG589802:ICG589805 HSK589802:HSK589805 HIO589802:HIO589805 GYS589802:GYS589805 GOW589802:GOW589805 GFA589802:GFA589805 FVE589802:FVE589805 FLI589802:FLI589805 FBM589802:FBM589805 ERQ589802:ERQ589805 EHU589802:EHU589805 DXY589802:DXY589805 DOC589802:DOC589805 DEG589802:DEG589805 CUK589802:CUK589805 CKO589802:CKO589805 CAS589802:CAS589805 BQW589802:BQW589805 BHA589802:BHA589805 AXE589802:AXE589805 ANI589802:ANI589805 ADM589802:ADM589805 TQ589802:TQ589805 JU589802:JU589805 Y589802:Y589805 WWG524266:WWG524269 WMK524266:WMK524269 WCO524266:WCO524269 VSS524266:VSS524269 VIW524266:VIW524269 UZA524266:UZA524269 UPE524266:UPE524269 UFI524266:UFI524269 TVM524266:TVM524269 TLQ524266:TLQ524269 TBU524266:TBU524269 SRY524266:SRY524269 SIC524266:SIC524269 RYG524266:RYG524269 ROK524266:ROK524269 REO524266:REO524269 QUS524266:QUS524269 QKW524266:QKW524269 QBA524266:QBA524269 PRE524266:PRE524269 PHI524266:PHI524269 OXM524266:OXM524269 ONQ524266:ONQ524269 ODU524266:ODU524269 NTY524266:NTY524269 NKC524266:NKC524269 NAG524266:NAG524269 MQK524266:MQK524269 MGO524266:MGO524269 LWS524266:LWS524269 LMW524266:LMW524269 LDA524266:LDA524269 KTE524266:KTE524269 KJI524266:KJI524269 JZM524266:JZM524269 JPQ524266:JPQ524269 JFU524266:JFU524269 IVY524266:IVY524269 IMC524266:IMC524269 ICG524266:ICG524269 HSK524266:HSK524269 HIO524266:HIO524269 GYS524266:GYS524269 GOW524266:GOW524269 GFA524266:GFA524269 FVE524266:FVE524269 FLI524266:FLI524269 FBM524266:FBM524269 ERQ524266:ERQ524269 EHU524266:EHU524269 DXY524266:DXY524269 DOC524266:DOC524269 DEG524266:DEG524269 CUK524266:CUK524269 CKO524266:CKO524269 CAS524266:CAS524269 BQW524266:BQW524269 BHA524266:BHA524269 AXE524266:AXE524269 ANI524266:ANI524269 ADM524266:ADM524269 TQ524266:TQ524269 JU524266:JU524269 Y524266:Y524269 WWG458730:WWG458733 WMK458730:WMK458733 WCO458730:WCO458733 VSS458730:VSS458733 VIW458730:VIW458733 UZA458730:UZA458733 UPE458730:UPE458733 UFI458730:UFI458733 TVM458730:TVM458733 TLQ458730:TLQ458733 TBU458730:TBU458733 SRY458730:SRY458733 SIC458730:SIC458733 RYG458730:RYG458733 ROK458730:ROK458733 REO458730:REO458733 QUS458730:QUS458733 QKW458730:QKW458733 QBA458730:QBA458733 PRE458730:PRE458733 PHI458730:PHI458733 OXM458730:OXM458733 ONQ458730:ONQ458733 ODU458730:ODU458733 NTY458730:NTY458733 NKC458730:NKC458733 NAG458730:NAG458733 MQK458730:MQK458733 MGO458730:MGO458733 LWS458730:LWS458733 LMW458730:LMW458733 LDA458730:LDA458733 KTE458730:KTE458733 KJI458730:KJI458733 JZM458730:JZM458733 JPQ458730:JPQ458733 JFU458730:JFU458733 IVY458730:IVY458733 IMC458730:IMC458733 ICG458730:ICG458733 HSK458730:HSK458733 HIO458730:HIO458733 GYS458730:GYS458733 GOW458730:GOW458733 GFA458730:GFA458733 FVE458730:FVE458733 FLI458730:FLI458733 FBM458730:FBM458733 ERQ458730:ERQ458733 EHU458730:EHU458733 DXY458730:DXY458733 DOC458730:DOC458733 DEG458730:DEG458733 CUK458730:CUK458733 CKO458730:CKO458733 CAS458730:CAS458733 BQW458730:BQW458733 BHA458730:BHA458733 AXE458730:AXE458733 ANI458730:ANI458733 ADM458730:ADM458733 TQ458730:TQ458733 JU458730:JU458733 Y458730:Y458733 WWG393194:WWG393197 WMK393194:WMK393197 WCO393194:WCO393197 VSS393194:VSS393197 VIW393194:VIW393197 UZA393194:UZA393197 UPE393194:UPE393197 UFI393194:UFI393197 TVM393194:TVM393197 TLQ393194:TLQ393197 TBU393194:TBU393197 SRY393194:SRY393197 SIC393194:SIC393197 RYG393194:RYG393197 ROK393194:ROK393197 REO393194:REO393197 QUS393194:QUS393197 QKW393194:QKW393197 QBA393194:QBA393197 PRE393194:PRE393197 PHI393194:PHI393197 OXM393194:OXM393197 ONQ393194:ONQ393197 ODU393194:ODU393197 NTY393194:NTY393197 NKC393194:NKC393197 NAG393194:NAG393197 MQK393194:MQK393197 MGO393194:MGO393197 LWS393194:LWS393197 LMW393194:LMW393197 LDA393194:LDA393197 KTE393194:KTE393197 KJI393194:KJI393197 JZM393194:JZM393197 JPQ393194:JPQ393197 JFU393194:JFU393197 IVY393194:IVY393197 IMC393194:IMC393197 ICG393194:ICG393197 HSK393194:HSK393197 HIO393194:HIO393197 GYS393194:GYS393197 GOW393194:GOW393197 GFA393194:GFA393197 FVE393194:FVE393197 FLI393194:FLI393197 FBM393194:FBM393197 ERQ393194:ERQ393197 EHU393194:EHU393197 DXY393194:DXY393197 DOC393194:DOC393197 DEG393194:DEG393197 CUK393194:CUK393197 CKO393194:CKO393197 CAS393194:CAS393197 BQW393194:BQW393197 BHA393194:BHA393197 AXE393194:AXE393197 ANI393194:ANI393197 ADM393194:ADM393197 TQ393194:TQ393197 JU393194:JU393197 Y393194:Y393197 WWG327658:WWG327661 WMK327658:WMK327661 WCO327658:WCO327661 VSS327658:VSS327661 VIW327658:VIW327661 UZA327658:UZA327661 UPE327658:UPE327661 UFI327658:UFI327661 TVM327658:TVM327661 TLQ327658:TLQ327661 TBU327658:TBU327661 SRY327658:SRY327661 SIC327658:SIC327661 RYG327658:RYG327661 ROK327658:ROK327661 REO327658:REO327661 QUS327658:QUS327661 QKW327658:QKW327661 QBA327658:QBA327661 PRE327658:PRE327661 PHI327658:PHI327661 OXM327658:OXM327661 ONQ327658:ONQ327661 ODU327658:ODU327661 NTY327658:NTY327661 NKC327658:NKC327661 NAG327658:NAG327661 MQK327658:MQK327661 MGO327658:MGO327661 LWS327658:LWS327661 LMW327658:LMW327661 LDA327658:LDA327661 KTE327658:KTE327661 KJI327658:KJI327661 JZM327658:JZM327661 JPQ327658:JPQ327661 JFU327658:JFU327661 IVY327658:IVY327661 IMC327658:IMC327661 ICG327658:ICG327661 HSK327658:HSK327661 HIO327658:HIO327661 GYS327658:GYS327661 GOW327658:GOW327661 GFA327658:GFA327661 FVE327658:FVE327661 FLI327658:FLI327661 FBM327658:FBM327661 ERQ327658:ERQ327661 EHU327658:EHU327661 DXY327658:DXY327661 DOC327658:DOC327661 DEG327658:DEG327661 CUK327658:CUK327661 CKO327658:CKO327661 CAS327658:CAS327661 BQW327658:BQW327661 BHA327658:BHA327661 AXE327658:AXE327661 ANI327658:ANI327661 ADM327658:ADM327661 TQ327658:TQ327661 JU327658:JU327661 Y327658:Y327661 WWG262122:WWG262125 WMK262122:WMK262125 WCO262122:WCO262125 VSS262122:VSS262125 VIW262122:VIW262125 UZA262122:UZA262125 UPE262122:UPE262125 UFI262122:UFI262125 TVM262122:TVM262125 TLQ262122:TLQ262125 TBU262122:TBU262125 SRY262122:SRY262125 SIC262122:SIC262125 RYG262122:RYG262125 ROK262122:ROK262125 REO262122:REO262125 QUS262122:QUS262125 QKW262122:QKW262125 QBA262122:QBA262125 PRE262122:PRE262125 PHI262122:PHI262125 OXM262122:OXM262125 ONQ262122:ONQ262125 ODU262122:ODU262125 NTY262122:NTY262125 NKC262122:NKC262125 NAG262122:NAG262125 MQK262122:MQK262125 MGO262122:MGO262125 LWS262122:LWS262125 LMW262122:LMW262125 LDA262122:LDA262125 KTE262122:KTE262125 KJI262122:KJI262125 JZM262122:JZM262125 JPQ262122:JPQ262125 JFU262122:JFU262125 IVY262122:IVY262125 IMC262122:IMC262125 ICG262122:ICG262125 HSK262122:HSK262125 HIO262122:HIO262125 GYS262122:GYS262125 GOW262122:GOW262125 GFA262122:GFA262125 FVE262122:FVE262125 FLI262122:FLI262125 FBM262122:FBM262125 ERQ262122:ERQ262125 EHU262122:EHU262125 DXY262122:DXY262125 DOC262122:DOC262125 DEG262122:DEG262125 CUK262122:CUK262125 CKO262122:CKO262125 CAS262122:CAS262125 BQW262122:BQW262125 BHA262122:BHA262125 AXE262122:AXE262125 ANI262122:ANI262125 ADM262122:ADM262125 TQ262122:TQ262125 JU262122:JU262125 Y262122:Y262125 WWG196586:WWG196589 WMK196586:WMK196589 WCO196586:WCO196589 VSS196586:VSS196589 VIW196586:VIW196589 UZA196586:UZA196589 UPE196586:UPE196589 UFI196586:UFI196589 TVM196586:TVM196589 TLQ196586:TLQ196589 TBU196586:TBU196589 SRY196586:SRY196589 SIC196586:SIC196589 RYG196586:RYG196589 ROK196586:ROK196589 REO196586:REO196589 QUS196586:QUS196589 QKW196586:QKW196589 QBA196586:QBA196589 PRE196586:PRE196589 PHI196586:PHI196589 OXM196586:OXM196589 ONQ196586:ONQ196589 ODU196586:ODU196589 NTY196586:NTY196589 NKC196586:NKC196589 NAG196586:NAG196589 MQK196586:MQK196589 MGO196586:MGO196589 LWS196586:LWS196589 LMW196586:LMW196589 LDA196586:LDA196589 KTE196586:KTE196589 KJI196586:KJI196589 JZM196586:JZM196589 JPQ196586:JPQ196589 JFU196586:JFU196589 IVY196586:IVY196589 IMC196586:IMC196589 ICG196586:ICG196589 HSK196586:HSK196589 HIO196586:HIO196589 GYS196586:GYS196589 GOW196586:GOW196589 GFA196586:GFA196589 FVE196586:FVE196589 FLI196586:FLI196589 FBM196586:FBM196589 ERQ196586:ERQ196589 EHU196586:EHU196589 DXY196586:DXY196589 DOC196586:DOC196589 DEG196586:DEG196589 CUK196586:CUK196589 CKO196586:CKO196589 CAS196586:CAS196589 BQW196586:BQW196589 BHA196586:BHA196589 AXE196586:AXE196589 ANI196586:ANI196589 ADM196586:ADM196589 TQ196586:TQ196589 JU196586:JU196589 Y196586:Y196589 WWG131050:WWG131053 WMK131050:WMK131053 WCO131050:WCO131053 VSS131050:VSS131053 VIW131050:VIW131053 UZA131050:UZA131053 UPE131050:UPE131053 UFI131050:UFI131053 TVM131050:TVM131053 TLQ131050:TLQ131053 TBU131050:TBU131053 SRY131050:SRY131053 SIC131050:SIC131053 RYG131050:RYG131053 ROK131050:ROK131053 REO131050:REO131053 QUS131050:QUS131053 QKW131050:QKW131053 QBA131050:QBA131053 PRE131050:PRE131053 PHI131050:PHI131053 OXM131050:OXM131053 ONQ131050:ONQ131053 ODU131050:ODU131053 NTY131050:NTY131053 NKC131050:NKC131053 NAG131050:NAG131053 MQK131050:MQK131053 MGO131050:MGO131053 LWS131050:LWS131053 LMW131050:LMW131053 LDA131050:LDA131053 KTE131050:KTE131053 KJI131050:KJI131053 JZM131050:JZM131053 JPQ131050:JPQ131053 JFU131050:JFU131053 IVY131050:IVY131053 IMC131050:IMC131053 ICG131050:ICG131053 HSK131050:HSK131053 HIO131050:HIO131053 GYS131050:GYS131053 GOW131050:GOW131053 GFA131050:GFA131053 FVE131050:FVE131053 FLI131050:FLI131053 FBM131050:FBM131053 ERQ131050:ERQ131053 EHU131050:EHU131053 DXY131050:DXY131053 DOC131050:DOC131053 DEG131050:DEG131053 CUK131050:CUK131053 CKO131050:CKO131053 CAS131050:CAS131053 BQW131050:BQW131053 BHA131050:BHA131053 AXE131050:AXE131053 ANI131050:ANI131053 ADM131050:ADM131053 TQ131050:TQ131053 JU131050:JU131053 Y131050:Y131053 WWG65514:WWG65517 WMK65514:WMK65517 WCO65514:WCO65517 VSS65514:VSS65517 VIW65514:VIW65517 UZA65514:UZA65517 UPE65514:UPE65517 UFI65514:UFI65517 TVM65514:TVM65517 TLQ65514:TLQ65517 TBU65514:TBU65517 SRY65514:SRY65517 SIC65514:SIC65517 RYG65514:RYG65517 ROK65514:ROK65517 REO65514:REO65517 QUS65514:QUS65517 QKW65514:QKW65517 QBA65514:QBA65517 PRE65514:PRE65517 PHI65514:PHI65517 OXM65514:OXM65517 ONQ65514:ONQ65517 ODU65514:ODU65517 NTY65514:NTY65517 NKC65514:NKC65517 NAG65514:NAG65517 MQK65514:MQK65517 MGO65514:MGO65517 LWS65514:LWS65517 LMW65514:LMW65517 LDA65514:LDA65517 KTE65514:KTE65517 KJI65514:KJI65517 JZM65514:JZM65517 JPQ65514:JPQ65517 JFU65514:JFU65517 IVY65514:IVY65517 IMC65514:IMC65517 ICG65514:ICG65517 HSK65514:HSK65517 HIO65514:HIO65517 GYS65514:GYS65517 GOW65514:GOW65517 GFA65514:GFA65517 FVE65514:FVE65517 FLI65514:FLI65517 FBM65514:FBM65517 ERQ65514:ERQ65517 EHU65514:EHU65517 DXY65514:DXY65517 DOC65514:DOC65517 DEG65514:DEG65517 CUK65514:CUK65517 CKO65514:CKO65517 CAS65514:CAS65517 BQW65514:BQW65517 BHA65514:BHA65517 AXE65514:AXE65517 ANI65514:ANI65517 ADM65514:ADM65517 TQ65514:TQ65517 JU65514:JU65517">
       <formula1>"W,F,M,O,D,S"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2345,49 +2445,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="27">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="141"/>
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="141"/>
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="141"/>
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="141"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="141"/>
+      <c r="AM1" s="141"/>
+      <c r="AN1" s="141"/>
+      <c r="AO1" s="141"/>
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="60">
       <c r="A2" s="88" t="s">
@@ -3287,20 +3387,20 @@
       <c r="AU16" s="2"/>
     </row>
     <row r="17" spans="1:41" s="11" customFormat="1" ht="18.75" thickBot="1">
-      <c r="A17" s="139" t="s">
+      <c r="A17" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="140"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
       <c r="M17" s="84">
         <f t="shared" ref="M17:AM17" si="10">SUM(M3:M16)</f>
         <v>9120</v>
@@ -3543,30 +3643,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25.5">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="143"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="146"/>
     </row>
     <row r="2" spans="1:25" ht="30">
       <c r="A2" s="104" t="s">
@@ -4219,46 +4319,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="148"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="157"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="152"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="149"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="154"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="154"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="149"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="14" t="s">
@@ -4380,47 +4480,47 @@
       <c r="A18" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="144">
+      <c r="B18" s="150">
         <f>B17-D17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="145"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:4">
-      <c r="A21" s="149"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="151"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="152"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="149"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="152"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
+      <c r="A23" s="158"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="149"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="155" t="s">
+      <c r="A24" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="157"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="154"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="158" t="s">
+      <c r="A25" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="154"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="149"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="14" t="s">
@@ -4542,47 +4642,47 @@
       <c r="A37" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="144">
+      <c r="B37" s="150">
         <f>B36-D36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="145"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="151"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="40" spans="1:4">
-      <c r="A40" s="149"/>
-      <c r="B40" s="150"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="151"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="157"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="152"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="154"/>
+      <c r="A41" s="158"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="149"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="152"/>
-      <c r="B42" s="153"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="154"/>
+      <c r="A42" s="158"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="149"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="155" t="s">
+      <c r="A43" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="157"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="154"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="158" t="s">
+      <c r="A44" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="153"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="154"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="149"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="14" t="s">
@@ -4704,47 +4804,47 @@
       <c r="A56" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="144">
+      <c r="B56" s="150">
         <f>B55-D55</f>
         <v>0</v>
       </c>
-      <c r="C56" s="144"/>
-      <c r="D56" s="145"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="151"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="59" spans="1:4">
-      <c r="A59" s="149"/>
-      <c r="B59" s="150"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="151"/>
+      <c r="A59" s="155"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="157"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="152"/>
-      <c r="B60" s="153"/>
-      <c r="C60" s="153"/>
-      <c r="D60" s="154"/>
+      <c r="A60" s="158"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="149"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="152"/>
-      <c r="B61" s="153"/>
-      <c r="C61" s="153"/>
-      <c r="D61" s="154"/>
+      <c r="A61" s="158"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="149"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="155" t="s">
+      <c r="A62" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="156"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="157"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="153"/>
+      <c r="D62" s="154"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="158" t="s">
+      <c r="A63" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="153"/>
-      <c r="C63" s="153"/>
-      <c r="D63" s="154"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="149"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="14" t="s">
@@ -4866,47 +4966,47 @@
       <c r="A75" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="144">
+      <c r="B75" s="150">
         <f>B74-D74</f>
         <v>0</v>
       </c>
-      <c r="C75" s="144"/>
-      <c r="D75" s="145"/>
+      <c r="C75" s="150"/>
+      <c r="D75" s="151"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="78" spans="1:4">
-      <c r="A78" s="149"/>
-      <c r="B78" s="150"/>
-      <c r="C78" s="150"/>
-      <c r="D78" s="151"/>
+      <c r="A78" s="155"/>
+      <c r="B78" s="156"/>
+      <c r="C78" s="156"/>
+      <c r="D78" s="157"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="152"/>
-      <c r="B79" s="153"/>
-      <c r="C79" s="153"/>
-      <c r="D79" s="154"/>
+      <c r="A79" s="158"/>
+      <c r="B79" s="148"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="149"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="152"/>
-      <c r="B80" s="153"/>
-      <c r="C80" s="153"/>
-      <c r="D80" s="154"/>
+      <c r="A80" s="158"/>
+      <c r="B80" s="148"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="149"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="155" t="s">
+      <c r="A81" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="156"/>
-      <c r="C81" s="156"/>
-      <c r="D81" s="157"/>
+      <c r="B81" s="153"/>
+      <c r="C81" s="153"/>
+      <c r="D81" s="154"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="158" t="s">
+      <c r="A82" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B82" s="153"/>
-      <c r="C82" s="153"/>
-      <c r="D82" s="154"/>
+      <c r="B82" s="148"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="149"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="14" t="s">
@@ -5028,47 +5128,47 @@
       <c r="A94" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="144">
+      <c r="B94" s="150">
         <f>B93-D93</f>
         <v>0</v>
       </c>
-      <c r="C94" s="144"/>
-      <c r="D94" s="145"/>
+      <c r="C94" s="150"/>
+      <c r="D94" s="151"/>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="97" spans="1:4">
-      <c r="A97" s="149"/>
-      <c r="B97" s="150"/>
-      <c r="C97" s="150"/>
-      <c r="D97" s="151"/>
+      <c r="A97" s="155"/>
+      <c r="B97" s="156"/>
+      <c r="C97" s="156"/>
+      <c r="D97" s="157"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="152"/>
-      <c r="B98" s="153"/>
-      <c r="C98" s="153"/>
-      <c r="D98" s="154"/>
+      <c r="A98" s="158"/>
+      <c r="B98" s="148"/>
+      <c r="C98" s="148"/>
+      <c r="D98" s="149"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="152"/>
-      <c r="B99" s="153"/>
-      <c r="C99" s="153"/>
-      <c r="D99" s="154"/>
+      <c r="A99" s="158"/>
+      <c r="B99" s="148"/>
+      <c r="C99" s="148"/>
+      <c r="D99" s="149"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="155" t="s">
+      <c r="A100" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="156"/>
-      <c r="C100" s="156"/>
-      <c r="D100" s="157"/>
+      <c r="B100" s="153"/>
+      <c r="C100" s="153"/>
+      <c r="D100" s="154"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="158" t="s">
+      <c r="A101" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B101" s="153"/>
-      <c r="C101" s="153"/>
-      <c r="D101" s="154"/>
+      <c r="B101" s="148"/>
+      <c r="C101" s="148"/>
+      <c r="D101" s="149"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="14" t="s">
@@ -5190,47 +5290,47 @@
       <c r="A113" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="144">
+      <c r="B113" s="150">
         <f>B112-D112</f>
         <v>0</v>
       </c>
-      <c r="C113" s="144"/>
-      <c r="D113" s="145"/>
+      <c r="C113" s="150"/>
+      <c r="D113" s="151"/>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="116" spans="1:4">
-      <c r="A116" s="149"/>
-      <c r="B116" s="150"/>
-      <c r="C116" s="150"/>
-      <c r="D116" s="151"/>
+      <c r="A116" s="155"/>
+      <c r="B116" s="156"/>
+      <c r="C116" s="156"/>
+      <c r="D116" s="157"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="152"/>
-      <c r="B117" s="153"/>
-      <c r="C117" s="153"/>
-      <c r="D117" s="154"/>
+      <c r="A117" s="158"/>
+      <c r="B117" s="148"/>
+      <c r="C117" s="148"/>
+      <c r="D117" s="149"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="152"/>
-      <c r="B118" s="153"/>
-      <c r="C118" s="153"/>
-      <c r="D118" s="154"/>
+      <c r="A118" s="158"/>
+      <c r="B118" s="148"/>
+      <c r="C118" s="148"/>
+      <c r="D118" s="149"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="155" t="s">
+      <c r="A119" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B119" s="156"/>
-      <c r="C119" s="156"/>
-      <c r="D119" s="157"/>
+      <c r="B119" s="153"/>
+      <c r="C119" s="153"/>
+      <c r="D119" s="154"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="158" t="s">
+      <c r="A120" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B120" s="153"/>
-      <c r="C120" s="153"/>
-      <c r="D120" s="154"/>
+      <c r="B120" s="148"/>
+      <c r="C120" s="148"/>
+      <c r="D120" s="149"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="14" t="s">
@@ -5352,42 +5452,15 @@
       <c r="A132" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B132" s="144">
+      <c r="B132" s="150">
         <f>B131-D131</f>
         <v>0</v>
       </c>
-      <c r="C132" s="144"/>
-      <c r="D132" s="145"/>
+      <c r="C132" s="150"/>
+      <c r="D132" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
     <mergeCell ref="B132:D132"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A116:D116"/>
@@ -5404,6 +5477,33 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/employees/EMPLOYEES.xlsx
+++ b/documents/employees/EMPLOYEES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Master" sheetId="9" r:id="rId1"/>
@@ -1916,7 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2345,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2408,20 +2408,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU24"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="10" style="4" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="4" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" style="4" customWidth="1"/>
     <col min="16" max="16" width="11.140625" style="4" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" style="4" customWidth="1"/>
@@ -3612,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4302,7 +4307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>

--- a/documents/employees/EMPLOYEES.xlsx
+++ b/documents/employees/EMPLOYEES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Master" sheetId="9" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="ESI" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Employee Master'!$A$1:$AF$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Employee Master'!$A$1:$AG$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="171">
   <si>
     <t>Sl.No</t>
   </si>
@@ -603,6 +603,15 @@
   </si>
   <si>
     <t>Samvedya K Nair</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Alliance</t>
+  </si>
+  <si>
+    <t>UST</t>
   </si>
 </sst>
 </file>
@@ -1914,39 +1923,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="137" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="138" customWidth="1"/>
-    <col min="10" max="10" width="11" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="14" width="5.5703125" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" customWidth="1"/>
-    <col min="30" max="30" width="10.42578125" customWidth="1"/>
-    <col min="31" max="31" width="12" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="137" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="138" customWidth="1"/>
+    <col min="11" max="11" width="11" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="15" width="5.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" customWidth="1"/>
+    <col min="32" max="32" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="36">
+    <row r="1" spans="1:33" ht="36">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -1954,285 +1963,294 @@
         <v>141</v>
       </c>
       <c r="C1" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="F1" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="G1" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="H1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="136" t="s">
+      <c r="I1" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="J1" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="K1" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="M1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="N1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="O1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="P1" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="Q1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="R1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="S1" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="T1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="126" t="s">
+      <c r="U1" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="V1" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="W1" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="X1" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="Y1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Z1" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="AA1" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AB1" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="48" t="s">
+      <c r="AC1" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AC1" s="48" t="s">
+      <c r="AD1" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" s="48" t="s">
+      <c r="AE1" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="AE1" s="48" t="s">
+      <c r="AF1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="AF1" s="48" t="s">
+      <c r="AG1" s="48" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="36">
+    <row r="4" spans="1:33" ht="36">
       <c r="A4" s="42">
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="E4" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="F4" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="139" t="s">
+      <c r="G4" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="H4" s="125" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="140" t="s">
+      <c r="I4" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="J4" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="47">
+      <c r="K4" s="47">
         <v>9846999378</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="L4" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="M4" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="N4" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="N4" s="45">
+      <c r="O4" s="45">
         <v>123</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="P4" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="Q4" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="Q4" s="47" t="s">
+      <c r="R4" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="R4" s="127">
+      <c r="S4" s="127">
         <v>100904319456</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="T4" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="T4" s="126" t="s">
+      <c r="U4" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="U4" s="48">
+      <c r="V4" s="48">
         <v>1000100100</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="W4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="X4" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="Y4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Z4" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="Z4" s="48" t="s">
+      <c r="AA4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AA4" s="48" t="s">
+      <c r="AB4" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AB4" s="48" t="s">
+      <c r="AC4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AD4" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AD4" s="48"/>
       <c r="AE4" s="48"/>
-      <c r="AF4" s="48" t="s">
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="48">
+    <row r="5" spans="1:33" ht="48">
       <c r="A5" s="42">
         <v>2</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="E5" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="F5" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="G5" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="125" t="s">
+      <c r="H5" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="H5" s="140" t="s">
+      <c r="I5" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="J5" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="47">
+      <c r="K5" s="47">
         <v>9446118148</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="L5" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="M5" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="N5" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="N5" s="45">
+      <c r="O5" s="45">
         <v>345</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="P5" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="Q5" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="R5" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="R5" s="127">
+      <c r="S5" s="127">
         <v>100904319457</v>
       </c>
-      <c r="S5" s="45" t="s">
+      <c r="T5" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="T5" s="126" t="s">
+      <c r="U5" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="U5" s="48">
+      <c r="V5" s="48">
         <v>1000100101</v>
       </c>
-      <c r="V5" s="44" t="s">
+      <c r="W5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="W5" s="48" t="s">
+      <c r="X5" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="X5" s="44" t="s">
+      <c r="Y5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="Y5" s="48" t="s">
+      <c r="Z5" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="Z5" s="44" t="s">
+      <c r="AA5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AA5" s="48" t="s">
+      <c r="AB5" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AB5" s="44" t="s">
+      <c r="AC5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AC5" s="48" t="s">
+      <c r="AD5" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AD5" s="48"/>
       <c r="AE5" s="48"/>
-      <c r="AF5" s="48" t="s">
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="48">
+    <row r="6" spans="1:33" ht="48">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2240,99 +2258,102 @@
         <v>165</v>
       </c>
       <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="E6" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="F6" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="139" t="s">
+      <c r="G6" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="H6" s="125" t="s">
         <v>143</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="I6" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="J6" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="J6" s="47">
+      <c r="K6" s="47">
         <v>9446118148</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="L6" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="M6" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="N6" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="N6" s="45">
+      <c r="O6" s="45">
         <v>345</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="P6" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="Q6" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="R6" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="R6" s="127">
+      <c r="S6" s="127">
         <v>100904319457</v>
       </c>
-      <c r="S6" s="45" t="s">
+      <c r="T6" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="T6" s="126" t="s">
+      <c r="U6" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="U6" s="48">
+      <c r="V6" s="48">
         <v>1000100101</v>
       </c>
-      <c r="V6" s="44" t="s">
+      <c r="W6" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="W6" s="48" t="s">
+      <c r="X6" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="X6" s="44" t="s">
+      <c r="Y6" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="Y6" s="48" t="s">
+      <c r="Z6" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="Z6" s="44" t="s">
+      <c r="AA6" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AA6" s="48" t="s">
+      <c r="AB6" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AB6" s="44" t="s">
+      <c r="AC6" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AC6" s="48" t="s">
+      <c r="AD6" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AD6" s="48"/>
       <c r="AE6" s="48"/>
-      <c r="AF6" s="48" t="s">
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF3"/>
+  <autoFilter ref="A1:AG3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E65508:E65517 WVM983012:WVM983021 WLQ983012:WLQ983021 WBU983012:WBU983021 VRY983012:VRY983021 VIC983012:VIC983021 UYG983012:UYG983021 UOK983012:UOK983021 UEO983012:UEO983021 TUS983012:TUS983021 TKW983012:TKW983021 TBA983012:TBA983021 SRE983012:SRE983021 SHI983012:SHI983021 RXM983012:RXM983021 RNQ983012:RNQ983021 RDU983012:RDU983021 QTY983012:QTY983021 QKC983012:QKC983021 QAG983012:QAG983021 PQK983012:PQK983021 PGO983012:PGO983021 OWS983012:OWS983021 OMW983012:OMW983021 ODA983012:ODA983021 NTE983012:NTE983021 NJI983012:NJI983021 MZM983012:MZM983021 MPQ983012:MPQ983021 MFU983012:MFU983021 LVY983012:LVY983021 LMC983012:LMC983021 LCG983012:LCG983021 KSK983012:KSK983021 KIO983012:KIO983021 JYS983012:JYS983021 JOW983012:JOW983021 JFA983012:JFA983021 IVE983012:IVE983021 ILI983012:ILI983021 IBM983012:IBM983021 HRQ983012:HRQ983021 HHU983012:HHU983021 GXY983012:GXY983021 GOC983012:GOC983021 GEG983012:GEG983021 FUK983012:FUK983021 FKO983012:FKO983021 FAS983012:FAS983021 EQW983012:EQW983021 EHA983012:EHA983021 DXE983012:DXE983021 DNI983012:DNI983021 DDM983012:DDM983021 CTQ983012:CTQ983021 CJU983012:CJU983021 BZY983012:BZY983021 BQC983012:BQC983021 BGG983012:BGG983021 AWK983012:AWK983021 AMO983012:AMO983021 ACS983012:ACS983021 SW983012:SW983021 JA983012:JA983021 E983012:E983021 WVM917476:WVM917485 WLQ917476:WLQ917485 WBU917476:WBU917485 VRY917476:VRY917485 VIC917476:VIC917485 UYG917476:UYG917485 UOK917476:UOK917485 UEO917476:UEO917485 TUS917476:TUS917485 TKW917476:TKW917485 TBA917476:TBA917485 SRE917476:SRE917485 SHI917476:SHI917485 RXM917476:RXM917485 RNQ917476:RNQ917485 RDU917476:RDU917485 QTY917476:QTY917485 QKC917476:QKC917485 QAG917476:QAG917485 PQK917476:PQK917485 PGO917476:PGO917485 OWS917476:OWS917485 OMW917476:OMW917485 ODA917476:ODA917485 NTE917476:NTE917485 NJI917476:NJI917485 MZM917476:MZM917485 MPQ917476:MPQ917485 MFU917476:MFU917485 LVY917476:LVY917485 LMC917476:LMC917485 LCG917476:LCG917485 KSK917476:KSK917485 KIO917476:KIO917485 JYS917476:JYS917485 JOW917476:JOW917485 JFA917476:JFA917485 IVE917476:IVE917485 ILI917476:ILI917485 IBM917476:IBM917485 HRQ917476:HRQ917485 HHU917476:HHU917485 GXY917476:GXY917485 GOC917476:GOC917485 GEG917476:GEG917485 FUK917476:FUK917485 FKO917476:FKO917485 FAS917476:FAS917485 EQW917476:EQW917485 EHA917476:EHA917485 DXE917476:DXE917485 DNI917476:DNI917485 DDM917476:DDM917485 CTQ917476:CTQ917485 CJU917476:CJU917485 BZY917476:BZY917485 BQC917476:BQC917485 BGG917476:BGG917485 AWK917476:AWK917485 AMO917476:AMO917485 ACS917476:ACS917485 SW917476:SW917485 JA917476:JA917485 E917476:E917485 WVM851940:WVM851949 WLQ851940:WLQ851949 WBU851940:WBU851949 VRY851940:VRY851949 VIC851940:VIC851949 UYG851940:UYG851949 UOK851940:UOK851949 UEO851940:UEO851949 TUS851940:TUS851949 TKW851940:TKW851949 TBA851940:TBA851949 SRE851940:SRE851949 SHI851940:SHI851949 RXM851940:RXM851949 RNQ851940:RNQ851949 RDU851940:RDU851949 QTY851940:QTY851949 QKC851940:QKC851949 QAG851940:QAG851949 PQK851940:PQK851949 PGO851940:PGO851949 OWS851940:OWS851949 OMW851940:OMW851949 ODA851940:ODA851949 NTE851940:NTE851949 NJI851940:NJI851949 MZM851940:MZM851949 MPQ851940:MPQ851949 MFU851940:MFU851949 LVY851940:LVY851949 LMC851940:LMC851949 LCG851940:LCG851949 KSK851940:KSK851949 KIO851940:KIO851949 JYS851940:JYS851949 JOW851940:JOW851949 JFA851940:JFA851949 IVE851940:IVE851949 ILI851940:ILI851949 IBM851940:IBM851949 HRQ851940:HRQ851949 HHU851940:HHU851949 GXY851940:GXY851949 GOC851940:GOC851949 GEG851940:GEG851949 FUK851940:FUK851949 FKO851940:FKO851949 FAS851940:FAS851949 EQW851940:EQW851949 EHA851940:EHA851949 DXE851940:DXE851949 DNI851940:DNI851949 DDM851940:DDM851949 CTQ851940:CTQ851949 CJU851940:CJU851949 BZY851940:BZY851949 BQC851940:BQC851949 BGG851940:BGG851949 AWK851940:AWK851949 AMO851940:AMO851949 ACS851940:ACS851949 SW851940:SW851949 JA851940:JA851949 E851940:E851949 WVM786404:WVM786413 WLQ786404:WLQ786413 WBU786404:WBU786413 VRY786404:VRY786413 VIC786404:VIC786413 UYG786404:UYG786413 UOK786404:UOK786413 UEO786404:UEO786413 TUS786404:TUS786413 TKW786404:TKW786413 TBA786404:TBA786413 SRE786404:SRE786413 SHI786404:SHI786413 RXM786404:RXM786413 RNQ786404:RNQ786413 RDU786404:RDU786413 QTY786404:QTY786413 QKC786404:QKC786413 QAG786404:QAG786413 PQK786404:PQK786413 PGO786404:PGO786413 OWS786404:OWS786413 OMW786404:OMW786413 ODA786404:ODA786413 NTE786404:NTE786413 NJI786404:NJI786413 MZM786404:MZM786413 MPQ786404:MPQ786413 MFU786404:MFU786413 LVY786404:LVY786413 LMC786404:LMC786413 LCG786404:LCG786413 KSK786404:KSK786413 KIO786404:KIO786413 JYS786404:JYS786413 JOW786404:JOW786413 JFA786404:JFA786413 IVE786404:IVE786413 ILI786404:ILI786413 IBM786404:IBM786413 HRQ786404:HRQ786413 HHU786404:HHU786413 GXY786404:GXY786413 GOC786404:GOC786413 GEG786404:GEG786413 FUK786404:FUK786413 FKO786404:FKO786413 FAS786404:FAS786413 EQW786404:EQW786413 EHA786404:EHA786413 DXE786404:DXE786413 DNI786404:DNI786413 DDM786404:DDM786413 CTQ786404:CTQ786413 CJU786404:CJU786413 BZY786404:BZY786413 BQC786404:BQC786413 BGG786404:BGG786413 AWK786404:AWK786413 AMO786404:AMO786413 ACS786404:ACS786413 SW786404:SW786413 JA786404:JA786413 E786404:E786413 WVM720868:WVM720877 WLQ720868:WLQ720877 WBU720868:WBU720877 VRY720868:VRY720877 VIC720868:VIC720877 UYG720868:UYG720877 UOK720868:UOK720877 UEO720868:UEO720877 TUS720868:TUS720877 TKW720868:TKW720877 TBA720868:TBA720877 SRE720868:SRE720877 SHI720868:SHI720877 RXM720868:RXM720877 RNQ720868:RNQ720877 RDU720868:RDU720877 QTY720868:QTY720877 QKC720868:QKC720877 QAG720868:QAG720877 PQK720868:PQK720877 PGO720868:PGO720877 OWS720868:OWS720877 OMW720868:OMW720877 ODA720868:ODA720877 NTE720868:NTE720877 NJI720868:NJI720877 MZM720868:MZM720877 MPQ720868:MPQ720877 MFU720868:MFU720877 LVY720868:LVY720877 LMC720868:LMC720877 LCG720868:LCG720877 KSK720868:KSK720877 KIO720868:KIO720877 JYS720868:JYS720877 JOW720868:JOW720877 JFA720868:JFA720877 IVE720868:IVE720877 ILI720868:ILI720877 IBM720868:IBM720877 HRQ720868:HRQ720877 HHU720868:HHU720877 GXY720868:GXY720877 GOC720868:GOC720877 GEG720868:GEG720877 FUK720868:FUK720877 FKO720868:FKO720877 FAS720868:FAS720877 EQW720868:EQW720877 EHA720868:EHA720877 DXE720868:DXE720877 DNI720868:DNI720877 DDM720868:DDM720877 CTQ720868:CTQ720877 CJU720868:CJU720877 BZY720868:BZY720877 BQC720868:BQC720877 BGG720868:BGG720877 AWK720868:AWK720877 AMO720868:AMO720877 ACS720868:ACS720877 SW720868:SW720877 JA720868:JA720877 E720868:E720877 WVM655332:WVM655341 WLQ655332:WLQ655341 WBU655332:WBU655341 VRY655332:VRY655341 VIC655332:VIC655341 UYG655332:UYG655341 UOK655332:UOK655341 UEO655332:UEO655341 TUS655332:TUS655341 TKW655332:TKW655341 TBA655332:TBA655341 SRE655332:SRE655341 SHI655332:SHI655341 RXM655332:RXM655341 RNQ655332:RNQ655341 RDU655332:RDU655341 QTY655332:QTY655341 QKC655332:QKC655341 QAG655332:QAG655341 PQK655332:PQK655341 PGO655332:PGO655341 OWS655332:OWS655341 OMW655332:OMW655341 ODA655332:ODA655341 NTE655332:NTE655341 NJI655332:NJI655341 MZM655332:MZM655341 MPQ655332:MPQ655341 MFU655332:MFU655341 LVY655332:LVY655341 LMC655332:LMC655341 LCG655332:LCG655341 KSK655332:KSK655341 KIO655332:KIO655341 JYS655332:JYS655341 JOW655332:JOW655341 JFA655332:JFA655341 IVE655332:IVE655341 ILI655332:ILI655341 IBM655332:IBM655341 HRQ655332:HRQ655341 HHU655332:HHU655341 GXY655332:GXY655341 GOC655332:GOC655341 GEG655332:GEG655341 FUK655332:FUK655341 FKO655332:FKO655341 FAS655332:FAS655341 EQW655332:EQW655341 EHA655332:EHA655341 DXE655332:DXE655341 DNI655332:DNI655341 DDM655332:DDM655341 CTQ655332:CTQ655341 CJU655332:CJU655341 BZY655332:BZY655341 BQC655332:BQC655341 BGG655332:BGG655341 AWK655332:AWK655341 AMO655332:AMO655341 ACS655332:ACS655341 SW655332:SW655341 JA655332:JA655341 E655332:E655341 WVM589796:WVM589805 WLQ589796:WLQ589805 WBU589796:WBU589805 VRY589796:VRY589805 VIC589796:VIC589805 UYG589796:UYG589805 UOK589796:UOK589805 UEO589796:UEO589805 TUS589796:TUS589805 TKW589796:TKW589805 TBA589796:TBA589805 SRE589796:SRE589805 SHI589796:SHI589805 RXM589796:RXM589805 RNQ589796:RNQ589805 RDU589796:RDU589805 QTY589796:QTY589805 QKC589796:QKC589805 QAG589796:QAG589805 PQK589796:PQK589805 PGO589796:PGO589805 OWS589796:OWS589805 OMW589796:OMW589805 ODA589796:ODA589805 NTE589796:NTE589805 NJI589796:NJI589805 MZM589796:MZM589805 MPQ589796:MPQ589805 MFU589796:MFU589805 LVY589796:LVY589805 LMC589796:LMC589805 LCG589796:LCG589805 KSK589796:KSK589805 KIO589796:KIO589805 JYS589796:JYS589805 JOW589796:JOW589805 JFA589796:JFA589805 IVE589796:IVE589805 ILI589796:ILI589805 IBM589796:IBM589805 HRQ589796:HRQ589805 HHU589796:HHU589805 GXY589796:GXY589805 GOC589796:GOC589805 GEG589796:GEG589805 FUK589796:FUK589805 FKO589796:FKO589805 FAS589796:FAS589805 EQW589796:EQW589805 EHA589796:EHA589805 DXE589796:DXE589805 DNI589796:DNI589805 DDM589796:DDM589805 CTQ589796:CTQ589805 CJU589796:CJU589805 BZY589796:BZY589805 BQC589796:BQC589805 BGG589796:BGG589805 AWK589796:AWK589805 AMO589796:AMO589805 ACS589796:ACS589805 SW589796:SW589805 JA589796:JA589805 E589796:E589805 WVM524260:WVM524269 WLQ524260:WLQ524269 WBU524260:WBU524269 VRY524260:VRY524269 VIC524260:VIC524269 UYG524260:UYG524269 UOK524260:UOK524269 UEO524260:UEO524269 TUS524260:TUS524269 TKW524260:TKW524269 TBA524260:TBA524269 SRE524260:SRE524269 SHI524260:SHI524269 RXM524260:RXM524269 RNQ524260:RNQ524269 RDU524260:RDU524269 QTY524260:QTY524269 QKC524260:QKC524269 QAG524260:QAG524269 PQK524260:PQK524269 PGO524260:PGO524269 OWS524260:OWS524269 OMW524260:OMW524269 ODA524260:ODA524269 NTE524260:NTE524269 NJI524260:NJI524269 MZM524260:MZM524269 MPQ524260:MPQ524269 MFU524260:MFU524269 LVY524260:LVY524269 LMC524260:LMC524269 LCG524260:LCG524269 KSK524260:KSK524269 KIO524260:KIO524269 JYS524260:JYS524269 JOW524260:JOW524269 JFA524260:JFA524269 IVE524260:IVE524269 ILI524260:ILI524269 IBM524260:IBM524269 HRQ524260:HRQ524269 HHU524260:HHU524269 GXY524260:GXY524269 GOC524260:GOC524269 GEG524260:GEG524269 FUK524260:FUK524269 FKO524260:FKO524269 FAS524260:FAS524269 EQW524260:EQW524269 EHA524260:EHA524269 DXE524260:DXE524269 DNI524260:DNI524269 DDM524260:DDM524269 CTQ524260:CTQ524269 CJU524260:CJU524269 BZY524260:BZY524269 BQC524260:BQC524269 BGG524260:BGG524269 AWK524260:AWK524269 AMO524260:AMO524269 ACS524260:ACS524269 SW524260:SW524269 JA524260:JA524269 E524260:E524269 WVM458724:WVM458733 WLQ458724:WLQ458733 WBU458724:WBU458733 VRY458724:VRY458733 VIC458724:VIC458733 UYG458724:UYG458733 UOK458724:UOK458733 UEO458724:UEO458733 TUS458724:TUS458733 TKW458724:TKW458733 TBA458724:TBA458733 SRE458724:SRE458733 SHI458724:SHI458733 RXM458724:RXM458733 RNQ458724:RNQ458733 RDU458724:RDU458733 QTY458724:QTY458733 QKC458724:QKC458733 QAG458724:QAG458733 PQK458724:PQK458733 PGO458724:PGO458733 OWS458724:OWS458733 OMW458724:OMW458733 ODA458724:ODA458733 NTE458724:NTE458733 NJI458724:NJI458733 MZM458724:MZM458733 MPQ458724:MPQ458733 MFU458724:MFU458733 LVY458724:LVY458733 LMC458724:LMC458733 LCG458724:LCG458733 KSK458724:KSK458733 KIO458724:KIO458733 JYS458724:JYS458733 JOW458724:JOW458733 JFA458724:JFA458733 IVE458724:IVE458733 ILI458724:ILI458733 IBM458724:IBM458733 HRQ458724:HRQ458733 HHU458724:HHU458733 GXY458724:GXY458733 GOC458724:GOC458733 GEG458724:GEG458733 FUK458724:FUK458733 FKO458724:FKO458733 FAS458724:FAS458733 EQW458724:EQW458733 EHA458724:EHA458733 DXE458724:DXE458733 DNI458724:DNI458733 DDM458724:DDM458733 CTQ458724:CTQ458733 CJU458724:CJU458733 BZY458724:BZY458733 BQC458724:BQC458733 BGG458724:BGG458733 AWK458724:AWK458733 AMO458724:AMO458733 ACS458724:ACS458733 SW458724:SW458733 JA458724:JA458733 E458724:E458733 WVM393188:WVM393197 WLQ393188:WLQ393197 WBU393188:WBU393197 VRY393188:VRY393197 VIC393188:VIC393197 UYG393188:UYG393197 UOK393188:UOK393197 UEO393188:UEO393197 TUS393188:TUS393197 TKW393188:TKW393197 TBA393188:TBA393197 SRE393188:SRE393197 SHI393188:SHI393197 RXM393188:RXM393197 RNQ393188:RNQ393197 RDU393188:RDU393197 QTY393188:QTY393197 QKC393188:QKC393197 QAG393188:QAG393197 PQK393188:PQK393197 PGO393188:PGO393197 OWS393188:OWS393197 OMW393188:OMW393197 ODA393188:ODA393197 NTE393188:NTE393197 NJI393188:NJI393197 MZM393188:MZM393197 MPQ393188:MPQ393197 MFU393188:MFU393197 LVY393188:LVY393197 LMC393188:LMC393197 LCG393188:LCG393197 KSK393188:KSK393197 KIO393188:KIO393197 JYS393188:JYS393197 JOW393188:JOW393197 JFA393188:JFA393197 IVE393188:IVE393197 ILI393188:ILI393197 IBM393188:IBM393197 HRQ393188:HRQ393197 HHU393188:HHU393197 GXY393188:GXY393197 GOC393188:GOC393197 GEG393188:GEG393197 FUK393188:FUK393197 FKO393188:FKO393197 FAS393188:FAS393197 EQW393188:EQW393197 EHA393188:EHA393197 DXE393188:DXE393197 DNI393188:DNI393197 DDM393188:DDM393197 CTQ393188:CTQ393197 CJU393188:CJU393197 BZY393188:BZY393197 BQC393188:BQC393197 BGG393188:BGG393197 AWK393188:AWK393197 AMO393188:AMO393197 ACS393188:ACS393197 SW393188:SW393197 JA393188:JA393197 E393188:E393197 WVM327652:WVM327661 WLQ327652:WLQ327661 WBU327652:WBU327661 VRY327652:VRY327661 VIC327652:VIC327661 UYG327652:UYG327661 UOK327652:UOK327661 UEO327652:UEO327661 TUS327652:TUS327661 TKW327652:TKW327661 TBA327652:TBA327661 SRE327652:SRE327661 SHI327652:SHI327661 RXM327652:RXM327661 RNQ327652:RNQ327661 RDU327652:RDU327661 QTY327652:QTY327661 QKC327652:QKC327661 QAG327652:QAG327661 PQK327652:PQK327661 PGO327652:PGO327661 OWS327652:OWS327661 OMW327652:OMW327661 ODA327652:ODA327661 NTE327652:NTE327661 NJI327652:NJI327661 MZM327652:MZM327661 MPQ327652:MPQ327661 MFU327652:MFU327661 LVY327652:LVY327661 LMC327652:LMC327661 LCG327652:LCG327661 KSK327652:KSK327661 KIO327652:KIO327661 JYS327652:JYS327661 JOW327652:JOW327661 JFA327652:JFA327661 IVE327652:IVE327661 ILI327652:ILI327661 IBM327652:IBM327661 HRQ327652:HRQ327661 HHU327652:HHU327661 GXY327652:GXY327661 GOC327652:GOC327661 GEG327652:GEG327661 FUK327652:FUK327661 FKO327652:FKO327661 FAS327652:FAS327661 EQW327652:EQW327661 EHA327652:EHA327661 DXE327652:DXE327661 DNI327652:DNI327661 DDM327652:DDM327661 CTQ327652:CTQ327661 CJU327652:CJU327661 BZY327652:BZY327661 BQC327652:BQC327661 BGG327652:BGG327661 AWK327652:AWK327661 AMO327652:AMO327661 ACS327652:ACS327661 SW327652:SW327661 JA327652:JA327661 E327652:E327661 WVM262116:WVM262125 WLQ262116:WLQ262125 WBU262116:WBU262125 VRY262116:VRY262125 VIC262116:VIC262125 UYG262116:UYG262125 UOK262116:UOK262125 UEO262116:UEO262125 TUS262116:TUS262125 TKW262116:TKW262125 TBA262116:TBA262125 SRE262116:SRE262125 SHI262116:SHI262125 RXM262116:RXM262125 RNQ262116:RNQ262125 RDU262116:RDU262125 QTY262116:QTY262125 QKC262116:QKC262125 QAG262116:QAG262125 PQK262116:PQK262125 PGO262116:PGO262125 OWS262116:OWS262125 OMW262116:OMW262125 ODA262116:ODA262125 NTE262116:NTE262125 NJI262116:NJI262125 MZM262116:MZM262125 MPQ262116:MPQ262125 MFU262116:MFU262125 LVY262116:LVY262125 LMC262116:LMC262125 LCG262116:LCG262125 KSK262116:KSK262125 KIO262116:KIO262125 JYS262116:JYS262125 JOW262116:JOW262125 JFA262116:JFA262125 IVE262116:IVE262125 ILI262116:ILI262125 IBM262116:IBM262125 HRQ262116:HRQ262125 HHU262116:HHU262125 GXY262116:GXY262125 GOC262116:GOC262125 GEG262116:GEG262125 FUK262116:FUK262125 FKO262116:FKO262125 FAS262116:FAS262125 EQW262116:EQW262125 EHA262116:EHA262125 DXE262116:DXE262125 DNI262116:DNI262125 DDM262116:DDM262125 CTQ262116:CTQ262125 CJU262116:CJU262125 BZY262116:BZY262125 BQC262116:BQC262125 BGG262116:BGG262125 AWK262116:AWK262125 AMO262116:AMO262125 ACS262116:ACS262125 SW262116:SW262125 JA262116:JA262125 E262116:E262125 WVM196580:WVM196589 WLQ196580:WLQ196589 WBU196580:WBU196589 VRY196580:VRY196589 VIC196580:VIC196589 UYG196580:UYG196589 UOK196580:UOK196589 UEO196580:UEO196589 TUS196580:TUS196589 TKW196580:TKW196589 TBA196580:TBA196589 SRE196580:SRE196589 SHI196580:SHI196589 RXM196580:RXM196589 RNQ196580:RNQ196589 RDU196580:RDU196589 QTY196580:QTY196589 QKC196580:QKC196589 QAG196580:QAG196589 PQK196580:PQK196589 PGO196580:PGO196589 OWS196580:OWS196589 OMW196580:OMW196589 ODA196580:ODA196589 NTE196580:NTE196589 NJI196580:NJI196589 MZM196580:MZM196589 MPQ196580:MPQ196589 MFU196580:MFU196589 LVY196580:LVY196589 LMC196580:LMC196589 LCG196580:LCG196589 KSK196580:KSK196589 KIO196580:KIO196589 JYS196580:JYS196589 JOW196580:JOW196589 JFA196580:JFA196589 IVE196580:IVE196589 ILI196580:ILI196589 IBM196580:IBM196589 HRQ196580:HRQ196589 HHU196580:HHU196589 GXY196580:GXY196589 GOC196580:GOC196589 GEG196580:GEG196589 FUK196580:FUK196589 FKO196580:FKO196589 FAS196580:FAS196589 EQW196580:EQW196589 EHA196580:EHA196589 DXE196580:DXE196589 DNI196580:DNI196589 DDM196580:DDM196589 CTQ196580:CTQ196589 CJU196580:CJU196589 BZY196580:BZY196589 BQC196580:BQC196589 BGG196580:BGG196589 AWK196580:AWK196589 AMO196580:AMO196589 ACS196580:ACS196589 SW196580:SW196589 JA196580:JA196589 E196580:E196589 WVM131044:WVM131053 WLQ131044:WLQ131053 WBU131044:WBU131053 VRY131044:VRY131053 VIC131044:VIC131053 UYG131044:UYG131053 UOK131044:UOK131053 UEO131044:UEO131053 TUS131044:TUS131053 TKW131044:TKW131053 TBA131044:TBA131053 SRE131044:SRE131053 SHI131044:SHI131053 RXM131044:RXM131053 RNQ131044:RNQ131053 RDU131044:RDU131053 QTY131044:QTY131053 QKC131044:QKC131053 QAG131044:QAG131053 PQK131044:PQK131053 PGO131044:PGO131053 OWS131044:OWS131053 OMW131044:OMW131053 ODA131044:ODA131053 NTE131044:NTE131053 NJI131044:NJI131053 MZM131044:MZM131053 MPQ131044:MPQ131053 MFU131044:MFU131053 LVY131044:LVY131053 LMC131044:LMC131053 LCG131044:LCG131053 KSK131044:KSK131053 KIO131044:KIO131053 JYS131044:JYS131053 JOW131044:JOW131053 JFA131044:JFA131053 IVE131044:IVE131053 ILI131044:ILI131053 IBM131044:IBM131053 HRQ131044:HRQ131053 HHU131044:HHU131053 GXY131044:GXY131053 GOC131044:GOC131053 GEG131044:GEG131053 FUK131044:FUK131053 FKO131044:FKO131053 FAS131044:FAS131053 EQW131044:EQW131053 EHA131044:EHA131053 DXE131044:DXE131053 DNI131044:DNI131053 DDM131044:DDM131053 CTQ131044:CTQ131053 CJU131044:CJU131053 BZY131044:BZY131053 BQC131044:BQC131053 BGG131044:BGG131053 AWK131044:AWK131053 AMO131044:AMO131053 ACS131044:ACS131053 SW131044:SW131053 JA131044:JA131053 E131044:E131053 WVM65508:WVM65517 WLQ65508:WLQ65517 WBU65508:WBU65517 VRY65508:VRY65517 VIC65508:VIC65517 UYG65508:UYG65517 UOK65508:UOK65517 UEO65508:UEO65517 TUS65508:TUS65517 TKW65508:TKW65517 TBA65508:TBA65517 SRE65508:SRE65517 SHI65508:SHI65517 RXM65508:RXM65517 RNQ65508:RNQ65517 RDU65508:RDU65517 QTY65508:QTY65517 QKC65508:QKC65517 QAG65508:QAG65517 PQK65508:PQK65517 PGO65508:PGO65517 OWS65508:OWS65517 OMW65508:OMW65517 ODA65508:ODA65517 NTE65508:NTE65517 NJI65508:NJI65517 MZM65508:MZM65517 MPQ65508:MPQ65517 MFU65508:MFU65517 LVY65508:LVY65517 LMC65508:LMC65517 LCG65508:LCG65517 KSK65508:KSK65517 KIO65508:KIO65517 JYS65508:JYS65517 JOW65508:JOW65517 JFA65508:JFA65517 IVE65508:IVE65517 ILI65508:ILI65517 IBM65508:IBM65517 HRQ65508:HRQ65517 HHU65508:HHU65517 GXY65508:GXY65517 GOC65508:GOC65517 GEG65508:GEG65517 FUK65508:FUK65517 FKO65508:FKO65517 FAS65508:FAS65517 EQW65508:EQW65517 EHA65508:EHA65517 DXE65508:DXE65517 DNI65508:DNI65517 DDM65508:DDM65517 CTQ65508:CTQ65517 CJU65508:CJU65517 BZY65508:BZY65517 BQC65508:BQC65517 BGG65508:BGG65517 AWK65508:AWK65517 AMO65508:AMO65517 ACS65508:ACS65517 SW65508:SW65517 JA65508:JA65517 WVM2:WVM3 WLQ2:WLQ3 WBU2:WBU3 VRY2:VRY3 VIC2:VIC3 UYG2:UYG3 UOK2:UOK3 UEO2:UEO3 TUS2:TUS3 TKW2:TKW3 TBA2:TBA3 SRE2:SRE3 SHI2:SHI3 RXM2:RXM3 RNQ2:RNQ3 RDU2:RDU3 QTY2:QTY3 QKC2:QKC3 QAG2:QAG3 PQK2:PQK3 PGO2:PGO3 OWS2:OWS3 OMW2:OMW3 ODA2:ODA3 NTE2:NTE3 NJI2:NJI3 MZM2:MZM3 MPQ2:MPQ3 MFU2:MFU3 LVY2:LVY3 LMC2:LMC3 LCG2:LCG3 KSK2:KSK3 KIO2:KIO3 JYS2:JYS3 JOW2:JOW3 JFA2:JFA3 IVE2:IVE3 ILI2:ILI3 IBM2:IBM3 HRQ2:HRQ3 HHU2:HHU3 GXY2:GXY3 GOC2:GOC3 GEG2:GEG3 FUK2:FUK3 FKO2:FKO3 FAS2:FAS3 EQW2:EQW3 EHA2:EHA3 DXE2:DXE3 DNI2:DNI3 DDM2:DDM3 CTQ2:CTQ3 CJU2:CJU3 BZY2:BZY3 BQC2:BQC3 BGG2:BGG3 AWK2:AWK3 AMO2:AMO3 ACS2:ACS3 SW2:SW3 JA2:JA3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65508:F65517 WVN983012:WVN983021 WLR983012:WLR983021 WBV983012:WBV983021 VRZ983012:VRZ983021 VID983012:VID983021 UYH983012:UYH983021 UOL983012:UOL983021 UEP983012:UEP983021 TUT983012:TUT983021 TKX983012:TKX983021 TBB983012:TBB983021 SRF983012:SRF983021 SHJ983012:SHJ983021 RXN983012:RXN983021 RNR983012:RNR983021 RDV983012:RDV983021 QTZ983012:QTZ983021 QKD983012:QKD983021 QAH983012:QAH983021 PQL983012:PQL983021 PGP983012:PGP983021 OWT983012:OWT983021 OMX983012:OMX983021 ODB983012:ODB983021 NTF983012:NTF983021 NJJ983012:NJJ983021 MZN983012:MZN983021 MPR983012:MPR983021 MFV983012:MFV983021 LVZ983012:LVZ983021 LMD983012:LMD983021 LCH983012:LCH983021 KSL983012:KSL983021 KIP983012:KIP983021 JYT983012:JYT983021 JOX983012:JOX983021 JFB983012:JFB983021 IVF983012:IVF983021 ILJ983012:ILJ983021 IBN983012:IBN983021 HRR983012:HRR983021 HHV983012:HHV983021 GXZ983012:GXZ983021 GOD983012:GOD983021 GEH983012:GEH983021 FUL983012:FUL983021 FKP983012:FKP983021 FAT983012:FAT983021 EQX983012:EQX983021 EHB983012:EHB983021 DXF983012:DXF983021 DNJ983012:DNJ983021 DDN983012:DDN983021 CTR983012:CTR983021 CJV983012:CJV983021 BZZ983012:BZZ983021 BQD983012:BQD983021 BGH983012:BGH983021 AWL983012:AWL983021 AMP983012:AMP983021 ACT983012:ACT983021 SX983012:SX983021 JB983012:JB983021 F983012:F983021 WVN917476:WVN917485 WLR917476:WLR917485 WBV917476:WBV917485 VRZ917476:VRZ917485 VID917476:VID917485 UYH917476:UYH917485 UOL917476:UOL917485 UEP917476:UEP917485 TUT917476:TUT917485 TKX917476:TKX917485 TBB917476:TBB917485 SRF917476:SRF917485 SHJ917476:SHJ917485 RXN917476:RXN917485 RNR917476:RNR917485 RDV917476:RDV917485 QTZ917476:QTZ917485 QKD917476:QKD917485 QAH917476:QAH917485 PQL917476:PQL917485 PGP917476:PGP917485 OWT917476:OWT917485 OMX917476:OMX917485 ODB917476:ODB917485 NTF917476:NTF917485 NJJ917476:NJJ917485 MZN917476:MZN917485 MPR917476:MPR917485 MFV917476:MFV917485 LVZ917476:LVZ917485 LMD917476:LMD917485 LCH917476:LCH917485 KSL917476:KSL917485 KIP917476:KIP917485 JYT917476:JYT917485 JOX917476:JOX917485 JFB917476:JFB917485 IVF917476:IVF917485 ILJ917476:ILJ917485 IBN917476:IBN917485 HRR917476:HRR917485 HHV917476:HHV917485 GXZ917476:GXZ917485 GOD917476:GOD917485 GEH917476:GEH917485 FUL917476:FUL917485 FKP917476:FKP917485 FAT917476:FAT917485 EQX917476:EQX917485 EHB917476:EHB917485 DXF917476:DXF917485 DNJ917476:DNJ917485 DDN917476:DDN917485 CTR917476:CTR917485 CJV917476:CJV917485 BZZ917476:BZZ917485 BQD917476:BQD917485 BGH917476:BGH917485 AWL917476:AWL917485 AMP917476:AMP917485 ACT917476:ACT917485 SX917476:SX917485 JB917476:JB917485 F917476:F917485 WVN851940:WVN851949 WLR851940:WLR851949 WBV851940:WBV851949 VRZ851940:VRZ851949 VID851940:VID851949 UYH851940:UYH851949 UOL851940:UOL851949 UEP851940:UEP851949 TUT851940:TUT851949 TKX851940:TKX851949 TBB851940:TBB851949 SRF851940:SRF851949 SHJ851940:SHJ851949 RXN851940:RXN851949 RNR851940:RNR851949 RDV851940:RDV851949 QTZ851940:QTZ851949 QKD851940:QKD851949 QAH851940:QAH851949 PQL851940:PQL851949 PGP851940:PGP851949 OWT851940:OWT851949 OMX851940:OMX851949 ODB851940:ODB851949 NTF851940:NTF851949 NJJ851940:NJJ851949 MZN851940:MZN851949 MPR851940:MPR851949 MFV851940:MFV851949 LVZ851940:LVZ851949 LMD851940:LMD851949 LCH851940:LCH851949 KSL851940:KSL851949 KIP851940:KIP851949 JYT851940:JYT851949 JOX851940:JOX851949 JFB851940:JFB851949 IVF851940:IVF851949 ILJ851940:ILJ851949 IBN851940:IBN851949 HRR851940:HRR851949 HHV851940:HHV851949 GXZ851940:GXZ851949 GOD851940:GOD851949 GEH851940:GEH851949 FUL851940:FUL851949 FKP851940:FKP851949 FAT851940:FAT851949 EQX851940:EQX851949 EHB851940:EHB851949 DXF851940:DXF851949 DNJ851940:DNJ851949 DDN851940:DDN851949 CTR851940:CTR851949 CJV851940:CJV851949 BZZ851940:BZZ851949 BQD851940:BQD851949 BGH851940:BGH851949 AWL851940:AWL851949 AMP851940:AMP851949 ACT851940:ACT851949 SX851940:SX851949 JB851940:JB851949 F851940:F851949 WVN786404:WVN786413 WLR786404:WLR786413 WBV786404:WBV786413 VRZ786404:VRZ786413 VID786404:VID786413 UYH786404:UYH786413 UOL786404:UOL786413 UEP786404:UEP786413 TUT786404:TUT786413 TKX786404:TKX786413 TBB786404:TBB786413 SRF786404:SRF786413 SHJ786404:SHJ786413 RXN786404:RXN786413 RNR786404:RNR786413 RDV786404:RDV786413 QTZ786404:QTZ786413 QKD786404:QKD786413 QAH786404:QAH786413 PQL786404:PQL786413 PGP786404:PGP786413 OWT786404:OWT786413 OMX786404:OMX786413 ODB786404:ODB786413 NTF786404:NTF786413 NJJ786404:NJJ786413 MZN786404:MZN786413 MPR786404:MPR786413 MFV786404:MFV786413 LVZ786404:LVZ786413 LMD786404:LMD786413 LCH786404:LCH786413 KSL786404:KSL786413 KIP786404:KIP786413 JYT786404:JYT786413 JOX786404:JOX786413 JFB786404:JFB786413 IVF786404:IVF786413 ILJ786404:ILJ786413 IBN786404:IBN786413 HRR786404:HRR786413 HHV786404:HHV786413 GXZ786404:GXZ786413 GOD786404:GOD786413 GEH786404:GEH786413 FUL786404:FUL786413 FKP786404:FKP786413 FAT786404:FAT786413 EQX786404:EQX786413 EHB786404:EHB786413 DXF786404:DXF786413 DNJ786404:DNJ786413 DDN786404:DDN786413 CTR786404:CTR786413 CJV786404:CJV786413 BZZ786404:BZZ786413 BQD786404:BQD786413 BGH786404:BGH786413 AWL786404:AWL786413 AMP786404:AMP786413 ACT786404:ACT786413 SX786404:SX786413 JB786404:JB786413 F786404:F786413 WVN720868:WVN720877 WLR720868:WLR720877 WBV720868:WBV720877 VRZ720868:VRZ720877 VID720868:VID720877 UYH720868:UYH720877 UOL720868:UOL720877 UEP720868:UEP720877 TUT720868:TUT720877 TKX720868:TKX720877 TBB720868:TBB720877 SRF720868:SRF720877 SHJ720868:SHJ720877 RXN720868:RXN720877 RNR720868:RNR720877 RDV720868:RDV720877 QTZ720868:QTZ720877 QKD720868:QKD720877 QAH720868:QAH720877 PQL720868:PQL720877 PGP720868:PGP720877 OWT720868:OWT720877 OMX720868:OMX720877 ODB720868:ODB720877 NTF720868:NTF720877 NJJ720868:NJJ720877 MZN720868:MZN720877 MPR720868:MPR720877 MFV720868:MFV720877 LVZ720868:LVZ720877 LMD720868:LMD720877 LCH720868:LCH720877 KSL720868:KSL720877 KIP720868:KIP720877 JYT720868:JYT720877 JOX720868:JOX720877 JFB720868:JFB720877 IVF720868:IVF720877 ILJ720868:ILJ720877 IBN720868:IBN720877 HRR720868:HRR720877 HHV720868:HHV720877 GXZ720868:GXZ720877 GOD720868:GOD720877 GEH720868:GEH720877 FUL720868:FUL720877 FKP720868:FKP720877 FAT720868:FAT720877 EQX720868:EQX720877 EHB720868:EHB720877 DXF720868:DXF720877 DNJ720868:DNJ720877 DDN720868:DDN720877 CTR720868:CTR720877 CJV720868:CJV720877 BZZ720868:BZZ720877 BQD720868:BQD720877 BGH720868:BGH720877 AWL720868:AWL720877 AMP720868:AMP720877 ACT720868:ACT720877 SX720868:SX720877 JB720868:JB720877 F720868:F720877 WVN655332:WVN655341 WLR655332:WLR655341 WBV655332:WBV655341 VRZ655332:VRZ655341 VID655332:VID655341 UYH655332:UYH655341 UOL655332:UOL655341 UEP655332:UEP655341 TUT655332:TUT655341 TKX655332:TKX655341 TBB655332:TBB655341 SRF655332:SRF655341 SHJ655332:SHJ655341 RXN655332:RXN655341 RNR655332:RNR655341 RDV655332:RDV655341 QTZ655332:QTZ655341 QKD655332:QKD655341 QAH655332:QAH655341 PQL655332:PQL655341 PGP655332:PGP655341 OWT655332:OWT655341 OMX655332:OMX655341 ODB655332:ODB655341 NTF655332:NTF655341 NJJ655332:NJJ655341 MZN655332:MZN655341 MPR655332:MPR655341 MFV655332:MFV655341 LVZ655332:LVZ655341 LMD655332:LMD655341 LCH655332:LCH655341 KSL655332:KSL655341 KIP655332:KIP655341 JYT655332:JYT655341 JOX655332:JOX655341 JFB655332:JFB655341 IVF655332:IVF655341 ILJ655332:ILJ655341 IBN655332:IBN655341 HRR655332:HRR655341 HHV655332:HHV655341 GXZ655332:GXZ655341 GOD655332:GOD655341 GEH655332:GEH655341 FUL655332:FUL655341 FKP655332:FKP655341 FAT655332:FAT655341 EQX655332:EQX655341 EHB655332:EHB655341 DXF655332:DXF655341 DNJ655332:DNJ655341 DDN655332:DDN655341 CTR655332:CTR655341 CJV655332:CJV655341 BZZ655332:BZZ655341 BQD655332:BQD655341 BGH655332:BGH655341 AWL655332:AWL655341 AMP655332:AMP655341 ACT655332:ACT655341 SX655332:SX655341 JB655332:JB655341 F655332:F655341 WVN589796:WVN589805 WLR589796:WLR589805 WBV589796:WBV589805 VRZ589796:VRZ589805 VID589796:VID589805 UYH589796:UYH589805 UOL589796:UOL589805 UEP589796:UEP589805 TUT589796:TUT589805 TKX589796:TKX589805 TBB589796:TBB589805 SRF589796:SRF589805 SHJ589796:SHJ589805 RXN589796:RXN589805 RNR589796:RNR589805 RDV589796:RDV589805 QTZ589796:QTZ589805 QKD589796:QKD589805 QAH589796:QAH589805 PQL589796:PQL589805 PGP589796:PGP589805 OWT589796:OWT589805 OMX589796:OMX589805 ODB589796:ODB589805 NTF589796:NTF589805 NJJ589796:NJJ589805 MZN589796:MZN589805 MPR589796:MPR589805 MFV589796:MFV589805 LVZ589796:LVZ589805 LMD589796:LMD589805 LCH589796:LCH589805 KSL589796:KSL589805 KIP589796:KIP589805 JYT589796:JYT589805 JOX589796:JOX589805 JFB589796:JFB589805 IVF589796:IVF589805 ILJ589796:ILJ589805 IBN589796:IBN589805 HRR589796:HRR589805 HHV589796:HHV589805 GXZ589796:GXZ589805 GOD589796:GOD589805 GEH589796:GEH589805 FUL589796:FUL589805 FKP589796:FKP589805 FAT589796:FAT589805 EQX589796:EQX589805 EHB589796:EHB589805 DXF589796:DXF589805 DNJ589796:DNJ589805 DDN589796:DDN589805 CTR589796:CTR589805 CJV589796:CJV589805 BZZ589796:BZZ589805 BQD589796:BQD589805 BGH589796:BGH589805 AWL589796:AWL589805 AMP589796:AMP589805 ACT589796:ACT589805 SX589796:SX589805 JB589796:JB589805 F589796:F589805 WVN524260:WVN524269 WLR524260:WLR524269 WBV524260:WBV524269 VRZ524260:VRZ524269 VID524260:VID524269 UYH524260:UYH524269 UOL524260:UOL524269 UEP524260:UEP524269 TUT524260:TUT524269 TKX524260:TKX524269 TBB524260:TBB524269 SRF524260:SRF524269 SHJ524260:SHJ524269 RXN524260:RXN524269 RNR524260:RNR524269 RDV524260:RDV524269 QTZ524260:QTZ524269 QKD524260:QKD524269 QAH524260:QAH524269 PQL524260:PQL524269 PGP524260:PGP524269 OWT524260:OWT524269 OMX524260:OMX524269 ODB524260:ODB524269 NTF524260:NTF524269 NJJ524260:NJJ524269 MZN524260:MZN524269 MPR524260:MPR524269 MFV524260:MFV524269 LVZ524260:LVZ524269 LMD524260:LMD524269 LCH524260:LCH524269 KSL524260:KSL524269 KIP524260:KIP524269 JYT524260:JYT524269 JOX524260:JOX524269 JFB524260:JFB524269 IVF524260:IVF524269 ILJ524260:ILJ524269 IBN524260:IBN524269 HRR524260:HRR524269 HHV524260:HHV524269 GXZ524260:GXZ524269 GOD524260:GOD524269 GEH524260:GEH524269 FUL524260:FUL524269 FKP524260:FKP524269 FAT524260:FAT524269 EQX524260:EQX524269 EHB524260:EHB524269 DXF524260:DXF524269 DNJ524260:DNJ524269 DDN524260:DDN524269 CTR524260:CTR524269 CJV524260:CJV524269 BZZ524260:BZZ524269 BQD524260:BQD524269 BGH524260:BGH524269 AWL524260:AWL524269 AMP524260:AMP524269 ACT524260:ACT524269 SX524260:SX524269 JB524260:JB524269 F524260:F524269 WVN458724:WVN458733 WLR458724:WLR458733 WBV458724:WBV458733 VRZ458724:VRZ458733 VID458724:VID458733 UYH458724:UYH458733 UOL458724:UOL458733 UEP458724:UEP458733 TUT458724:TUT458733 TKX458724:TKX458733 TBB458724:TBB458733 SRF458724:SRF458733 SHJ458724:SHJ458733 RXN458724:RXN458733 RNR458724:RNR458733 RDV458724:RDV458733 QTZ458724:QTZ458733 QKD458724:QKD458733 QAH458724:QAH458733 PQL458724:PQL458733 PGP458724:PGP458733 OWT458724:OWT458733 OMX458724:OMX458733 ODB458724:ODB458733 NTF458724:NTF458733 NJJ458724:NJJ458733 MZN458724:MZN458733 MPR458724:MPR458733 MFV458724:MFV458733 LVZ458724:LVZ458733 LMD458724:LMD458733 LCH458724:LCH458733 KSL458724:KSL458733 KIP458724:KIP458733 JYT458724:JYT458733 JOX458724:JOX458733 JFB458724:JFB458733 IVF458724:IVF458733 ILJ458724:ILJ458733 IBN458724:IBN458733 HRR458724:HRR458733 HHV458724:HHV458733 GXZ458724:GXZ458733 GOD458724:GOD458733 GEH458724:GEH458733 FUL458724:FUL458733 FKP458724:FKP458733 FAT458724:FAT458733 EQX458724:EQX458733 EHB458724:EHB458733 DXF458724:DXF458733 DNJ458724:DNJ458733 DDN458724:DDN458733 CTR458724:CTR458733 CJV458724:CJV458733 BZZ458724:BZZ458733 BQD458724:BQD458733 BGH458724:BGH458733 AWL458724:AWL458733 AMP458724:AMP458733 ACT458724:ACT458733 SX458724:SX458733 JB458724:JB458733 F458724:F458733 WVN393188:WVN393197 WLR393188:WLR393197 WBV393188:WBV393197 VRZ393188:VRZ393197 VID393188:VID393197 UYH393188:UYH393197 UOL393188:UOL393197 UEP393188:UEP393197 TUT393188:TUT393197 TKX393188:TKX393197 TBB393188:TBB393197 SRF393188:SRF393197 SHJ393188:SHJ393197 RXN393188:RXN393197 RNR393188:RNR393197 RDV393188:RDV393197 QTZ393188:QTZ393197 QKD393188:QKD393197 QAH393188:QAH393197 PQL393188:PQL393197 PGP393188:PGP393197 OWT393188:OWT393197 OMX393188:OMX393197 ODB393188:ODB393197 NTF393188:NTF393197 NJJ393188:NJJ393197 MZN393188:MZN393197 MPR393188:MPR393197 MFV393188:MFV393197 LVZ393188:LVZ393197 LMD393188:LMD393197 LCH393188:LCH393197 KSL393188:KSL393197 KIP393188:KIP393197 JYT393188:JYT393197 JOX393188:JOX393197 JFB393188:JFB393197 IVF393188:IVF393197 ILJ393188:ILJ393197 IBN393188:IBN393197 HRR393188:HRR393197 HHV393188:HHV393197 GXZ393188:GXZ393197 GOD393188:GOD393197 GEH393188:GEH393197 FUL393188:FUL393197 FKP393188:FKP393197 FAT393188:FAT393197 EQX393188:EQX393197 EHB393188:EHB393197 DXF393188:DXF393197 DNJ393188:DNJ393197 DDN393188:DDN393197 CTR393188:CTR393197 CJV393188:CJV393197 BZZ393188:BZZ393197 BQD393188:BQD393197 BGH393188:BGH393197 AWL393188:AWL393197 AMP393188:AMP393197 ACT393188:ACT393197 SX393188:SX393197 JB393188:JB393197 F393188:F393197 WVN327652:WVN327661 WLR327652:WLR327661 WBV327652:WBV327661 VRZ327652:VRZ327661 VID327652:VID327661 UYH327652:UYH327661 UOL327652:UOL327661 UEP327652:UEP327661 TUT327652:TUT327661 TKX327652:TKX327661 TBB327652:TBB327661 SRF327652:SRF327661 SHJ327652:SHJ327661 RXN327652:RXN327661 RNR327652:RNR327661 RDV327652:RDV327661 QTZ327652:QTZ327661 QKD327652:QKD327661 QAH327652:QAH327661 PQL327652:PQL327661 PGP327652:PGP327661 OWT327652:OWT327661 OMX327652:OMX327661 ODB327652:ODB327661 NTF327652:NTF327661 NJJ327652:NJJ327661 MZN327652:MZN327661 MPR327652:MPR327661 MFV327652:MFV327661 LVZ327652:LVZ327661 LMD327652:LMD327661 LCH327652:LCH327661 KSL327652:KSL327661 KIP327652:KIP327661 JYT327652:JYT327661 JOX327652:JOX327661 JFB327652:JFB327661 IVF327652:IVF327661 ILJ327652:ILJ327661 IBN327652:IBN327661 HRR327652:HRR327661 HHV327652:HHV327661 GXZ327652:GXZ327661 GOD327652:GOD327661 GEH327652:GEH327661 FUL327652:FUL327661 FKP327652:FKP327661 FAT327652:FAT327661 EQX327652:EQX327661 EHB327652:EHB327661 DXF327652:DXF327661 DNJ327652:DNJ327661 DDN327652:DDN327661 CTR327652:CTR327661 CJV327652:CJV327661 BZZ327652:BZZ327661 BQD327652:BQD327661 BGH327652:BGH327661 AWL327652:AWL327661 AMP327652:AMP327661 ACT327652:ACT327661 SX327652:SX327661 JB327652:JB327661 F327652:F327661 WVN262116:WVN262125 WLR262116:WLR262125 WBV262116:WBV262125 VRZ262116:VRZ262125 VID262116:VID262125 UYH262116:UYH262125 UOL262116:UOL262125 UEP262116:UEP262125 TUT262116:TUT262125 TKX262116:TKX262125 TBB262116:TBB262125 SRF262116:SRF262125 SHJ262116:SHJ262125 RXN262116:RXN262125 RNR262116:RNR262125 RDV262116:RDV262125 QTZ262116:QTZ262125 QKD262116:QKD262125 QAH262116:QAH262125 PQL262116:PQL262125 PGP262116:PGP262125 OWT262116:OWT262125 OMX262116:OMX262125 ODB262116:ODB262125 NTF262116:NTF262125 NJJ262116:NJJ262125 MZN262116:MZN262125 MPR262116:MPR262125 MFV262116:MFV262125 LVZ262116:LVZ262125 LMD262116:LMD262125 LCH262116:LCH262125 KSL262116:KSL262125 KIP262116:KIP262125 JYT262116:JYT262125 JOX262116:JOX262125 JFB262116:JFB262125 IVF262116:IVF262125 ILJ262116:ILJ262125 IBN262116:IBN262125 HRR262116:HRR262125 HHV262116:HHV262125 GXZ262116:GXZ262125 GOD262116:GOD262125 GEH262116:GEH262125 FUL262116:FUL262125 FKP262116:FKP262125 FAT262116:FAT262125 EQX262116:EQX262125 EHB262116:EHB262125 DXF262116:DXF262125 DNJ262116:DNJ262125 DDN262116:DDN262125 CTR262116:CTR262125 CJV262116:CJV262125 BZZ262116:BZZ262125 BQD262116:BQD262125 BGH262116:BGH262125 AWL262116:AWL262125 AMP262116:AMP262125 ACT262116:ACT262125 SX262116:SX262125 JB262116:JB262125 F262116:F262125 WVN196580:WVN196589 WLR196580:WLR196589 WBV196580:WBV196589 VRZ196580:VRZ196589 VID196580:VID196589 UYH196580:UYH196589 UOL196580:UOL196589 UEP196580:UEP196589 TUT196580:TUT196589 TKX196580:TKX196589 TBB196580:TBB196589 SRF196580:SRF196589 SHJ196580:SHJ196589 RXN196580:RXN196589 RNR196580:RNR196589 RDV196580:RDV196589 QTZ196580:QTZ196589 QKD196580:QKD196589 QAH196580:QAH196589 PQL196580:PQL196589 PGP196580:PGP196589 OWT196580:OWT196589 OMX196580:OMX196589 ODB196580:ODB196589 NTF196580:NTF196589 NJJ196580:NJJ196589 MZN196580:MZN196589 MPR196580:MPR196589 MFV196580:MFV196589 LVZ196580:LVZ196589 LMD196580:LMD196589 LCH196580:LCH196589 KSL196580:KSL196589 KIP196580:KIP196589 JYT196580:JYT196589 JOX196580:JOX196589 JFB196580:JFB196589 IVF196580:IVF196589 ILJ196580:ILJ196589 IBN196580:IBN196589 HRR196580:HRR196589 HHV196580:HHV196589 GXZ196580:GXZ196589 GOD196580:GOD196589 GEH196580:GEH196589 FUL196580:FUL196589 FKP196580:FKP196589 FAT196580:FAT196589 EQX196580:EQX196589 EHB196580:EHB196589 DXF196580:DXF196589 DNJ196580:DNJ196589 DDN196580:DDN196589 CTR196580:CTR196589 CJV196580:CJV196589 BZZ196580:BZZ196589 BQD196580:BQD196589 BGH196580:BGH196589 AWL196580:AWL196589 AMP196580:AMP196589 ACT196580:ACT196589 SX196580:SX196589 JB196580:JB196589 F196580:F196589 WVN131044:WVN131053 WLR131044:WLR131053 WBV131044:WBV131053 VRZ131044:VRZ131053 VID131044:VID131053 UYH131044:UYH131053 UOL131044:UOL131053 UEP131044:UEP131053 TUT131044:TUT131053 TKX131044:TKX131053 TBB131044:TBB131053 SRF131044:SRF131053 SHJ131044:SHJ131053 RXN131044:RXN131053 RNR131044:RNR131053 RDV131044:RDV131053 QTZ131044:QTZ131053 QKD131044:QKD131053 QAH131044:QAH131053 PQL131044:PQL131053 PGP131044:PGP131053 OWT131044:OWT131053 OMX131044:OMX131053 ODB131044:ODB131053 NTF131044:NTF131053 NJJ131044:NJJ131053 MZN131044:MZN131053 MPR131044:MPR131053 MFV131044:MFV131053 LVZ131044:LVZ131053 LMD131044:LMD131053 LCH131044:LCH131053 KSL131044:KSL131053 KIP131044:KIP131053 JYT131044:JYT131053 JOX131044:JOX131053 JFB131044:JFB131053 IVF131044:IVF131053 ILJ131044:ILJ131053 IBN131044:IBN131053 HRR131044:HRR131053 HHV131044:HHV131053 GXZ131044:GXZ131053 GOD131044:GOD131053 GEH131044:GEH131053 FUL131044:FUL131053 FKP131044:FKP131053 FAT131044:FAT131053 EQX131044:EQX131053 EHB131044:EHB131053 DXF131044:DXF131053 DNJ131044:DNJ131053 DDN131044:DDN131053 CTR131044:CTR131053 CJV131044:CJV131053 BZZ131044:BZZ131053 BQD131044:BQD131053 BGH131044:BGH131053 AWL131044:AWL131053 AMP131044:AMP131053 ACT131044:ACT131053 SX131044:SX131053 JB131044:JB131053 F131044:F131053 WVN65508:WVN65517 WLR65508:WLR65517 WBV65508:WBV65517 VRZ65508:VRZ65517 VID65508:VID65517 UYH65508:UYH65517 UOL65508:UOL65517 UEP65508:UEP65517 TUT65508:TUT65517 TKX65508:TKX65517 TBB65508:TBB65517 SRF65508:SRF65517 SHJ65508:SHJ65517 RXN65508:RXN65517 RNR65508:RNR65517 RDV65508:RDV65517 QTZ65508:QTZ65517 QKD65508:QKD65517 QAH65508:QAH65517 PQL65508:PQL65517 PGP65508:PGP65517 OWT65508:OWT65517 OMX65508:OMX65517 ODB65508:ODB65517 NTF65508:NTF65517 NJJ65508:NJJ65517 MZN65508:MZN65517 MPR65508:MPR65517 MFV65508:MFV65517 LVZ65508:LVZ65517 LMD65508:LMD65517 LCH65508:LCH65517 KSL65508:KSL65517 KIP65508:KIP65517 JYT65508:JYT65517 JOX65508:JOX65517 JFB65508:JFB65517 IVF65508:IVF65517 ILJ65508:ILJ65517 IBN65508:IBN65517 HRR65508:HRR65517 HHV65508:HHV65517 GXZ65508:GXZ65517 GOD65508:GOD65517 GEH65508:GEH65517 FUL65508:FUL65517 FKP65508:FKP65517 FAT65508:FAT65517 EQX65508:EQX65517 EHB65508:EHB65517 DXF65508:DXF65517 DNJ65508:DNJ65517 DDN65508:DDN65517 CTR65508:CTR65517 CJV65508:CJV65517 BZZ65508:BZZ65517 BQD65508:BQD65517 BGH65508:BGH65517 AWL65508:AWL65517 AMP65508:AMP65517 ACT65508:ACT65517 SX65508:SX65517 JB65508:JB65517 WVN2:WVN3 WLR2:WLR3 WBV2:WBV3 VRZ2:VRZ3 VID2:VID3 UYH2:UYH3 UOL2:UOL3 UEP2:UEP3 TUT2:TUT3 TKX2:TKX3 TBB2:TBB3 SRF2:SRF3 SHJ2:SHJ3 RXN2:RXN3 RNR2:RNR3 RDV2:RDV3 QTZ2:QTZ3 QKD2:QKD3 QAH2:QAH3 PQL2:PQL3 PGP2:PGP3 OWT2:OWT3 OMX2:OMX3 ODB2:ODB3 NTF2:NTF3 NJJ2:NJJ3 MZN2:MZN3 MPR2:MPR3 MFV2:MFV3 LVZ2:LVZ3 LMD2:LMD3 LCH2:LCH3 KSL2:KSL3 KIP2:KIP3 JYT2:JYT3 JOX2:JOX3 JFB2:JFB3 IVF2:IVF3 ILJ2:ILJ3 IBN2:IBN3 HRR2:HRR3 HHV2:HHV3 GXZ2:GXZ3 GOD2:GOD3 GEH2:GEH3 FUL2:FUL3 FKP2:FKP3 FAT2:FAT3 EQX2:EQX3 EHB2:EHB3 DXF2:DXF3 DNJ2:DNJ3 DDN2:DDN3 CTR2:CTR3 CJV2:CJV3 BZZ2:BZZ3 BQD2:BQD3 BGH2:BGH3 AWL2:AWL3 AMP2:AMP3 ACT2:ACT3 SX2:SX3 JB2:JB3">
       <formula1>"F,M,TG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y65514:Y65517 WWE983018:WWE983021 WMI983018:WMI983021 WCM983018:WCM983021 VSQ983018:VSQ983021 VIU983018:VIU983021 UYY983018:UYY983021 UPC983018:UPC983021 UFG983018:UFG983021 TVK983018:TVK983021 TLO983018:TLO983021 TBS983018:TBS983021 SRW983018:SRW983021 SIA983018:SIA983021 RYE983018:RYE983021 ROI983018:ROI983021 REM983018:REM983021 QUQ983018:QUQ983021 QKU983018:QKU983021 QAY983018:QAY983021 PRC983018:PRC983021 PHG983018:PHG983021 OXK983018:OXK983021 ONO983018:ONO983021 ODS983018:ODS983021 NTW983018:NTW983021 NKA983018:NKA983021 NAE983018:NAE983021 MQI983018:MQI983021 MGM983018:MGM983021 LWQ983018:LWQ983021 LMU983018:LMU983021 LCY983018:LCY983021 KTC983018:KTC983021 KJG983018:KJG983021 JZK983018:JZK983021 JPO983018:JPO983021 JFS983018:JFS983021 IVW983018:IVW983021 IMA983018:IMA983021 ICE983018:ICE983021 HSI983018:HSI983021 HIM983018:HIM983021 GYQ983018:GYQ983021 GOU983018:GOU983021 GEY983018:GEY983021 FVC983018:FVC983021 FLG983018:FLG983021 FBK983018:FBK983021 ERO983018:ERO983021 EHS983018:EHS983021 DXW983018:DXW983021 DOA983018:DOA983021 DEE983018:DEE983021 CUI983018:CUI983021 CKM983018:CKM983021 CAQ983018:CAQ983021 BQU983018:BQU983021 BGY983018:BGY983021 AXC983018:AXC983021 ANG983018:ANG983021 ADK983018:ADK983021 TO983018:TO983021 JS983018:JS983021 W983018:W983021 WWE917482:WWE917485 WMI917482:WMI917485 WCM917482:WCM917485 VSQ917482:VSQ917485 VIU917482:VIU917485 UYY917482:UYY917485 UPC917482:UPC917485 UFG917482:UFG917485 TVK917482:TVK917485 TLO917482:TLO917485 TBS917482:TBS917485 SRW917482:SRW917485 SIA917482:SIA917485 RYE917482:RYE917485 ROI917482:ROI917485 REM917482:REM917485 QUQ917482:QUQ917485 QKU917482:QKU917485 QAY917482:QAY917485 PRC917482:PRC917485 PHG917482:PHG917485 OXK917482:OXK917485 ONO917482:ONO917485 ODS917482:ODS917485 NTW917482:NTW917485 NKA917482:NKA917485 NAE917482:NAE917485 MQI917482:MQI917485 MGM917482:MGM917485 LWQ917482:LWQ917485 LMU917482:LMU917485 LCY917482:LCY917485 KTC917482:KTC917485 KJG917482:KJG917485 JZK917482:JZK917485 JPO917482:JPO917485 JFS917482:JFS917485 IVW917482:IVW917485 IMA917482:IMA917485 ICE917482:ICE917485 HSI917482:HSI917485 HIM917482:HIM917485 GYQ917482:GYQ917485 GOU917482:GOU917485 GEY917482:GEY917485 FVC917482:FVC917485 FLG917482:FLG917485 FBK917482:FBK917485 ERO917482:ERO917485 EHS917482:EHS917485 DXW917482:DXW917485 DOA917482:DOA917485 DEE917482:DEE917485 CUI917482:CUI917485 CKM917482:CKM917485 CAQ917482:CAQ917485 BQU917482:BQU917485 BGY917482:BGY917485 AXC917482:AXC917485 ANG917482:ANG917485 ADK917482:ADK917485 TO917482:TO917485 JS917482:JS917485 W917482:W917485 WWE851946:WWE851949 WMI851946:WMI851949 WCM851946:WCM851949 VSQ851946:VSQ851949 VIU851946:VIU851949 UYY851946:UYY851949 UPC851946:UPC851949 UFG851946:UFG851949 TVK851946:TVK851949 TLO851946:TLO851949 TBS851946:TBS851949 SRW851946:SRW851949 SIA851946:SIA851949 RYE851946:RYE851949 ROI851946:ROI851949 REM851946:REM851949 QUQ851946:QUQ851949 QKU851946:QKU851949 QAY851946:QAY851949 PRC851946:PRC851949 PHG851946:PHG851949 OXK851946:OXK851949 ONO851946:ONO851949 ODS851946:ODS851949 NTW851946:NTW851949 NKA851946:NKA851949 NAE851946:NAE851949 MQI851946:MQI851949 MGM851946:MGM851949 LWQ851946:LWQ851949 LMU851946:LMU851949 LCY851946:LCY851949 KTC851946:KTC851949 KJG851946:KJG851949 JZK851946:JZK851949 JPO851946:JPO851949 JFS851946:JFS851949 IVW851946:IVW851949 IMA851946:IMA851949 ICE851946:ICE851949 HSI851946:HSI851949 HIM851946:HIM851949 GYQ851946:GYQ851949 GOU851946:GOU851949 GEY851946:GEY851949 FVC851946:FVC851949 FLG851946:FLG851949 FBK851946:FBK851949 ERO851946:ERO851949 EHS851946:EHS851949 DXW851946:DXW851949 DOA851946:DOA851949 DEE851946:DEE851949 CUI851946:CUI851949 CKM851946:CKM851949 CAQ851946:CAQ851949 BQU851946:BQU851949 BGY851946:BGY851949 AXC851946:AXC851949 ANG851946:ANG851949 ADK851946:ADK851949 TO851946:TO851949 JS851946:JS851949 W851946:W851949 WWE786410:WWE786413 WMI786410:WMI786413 WCM786410:WCM786413 VSQ786410:VSQ786413 VIU786410:VIU786413 UYY786410:UYY786413 UPC786410:UPC786413 UFG786410:UFG786413 TVK786410:TVK786413 TLO786410:TLO786413 TBS786410:TBS786413 SRW786410:SRW786413 SIA786410:SIA786413 RYE786410:RYE786413 ROI786410:ROI786413 REM786410:REM786413 QUQ786410:QUQ786413 QKU786410:QKU786413 QAY786410:QAY786413 PRC786410:PRC786413 PHG786410:PHG786413 OXK786410:OXK786413 ONO786410:ONO786413 ODS786410:ODS786413 NTW786410:NTW786413 NKA786410:NKA786413 NAE786410:NAE786413 MQI786410:MQI786413 MGM786410:MGM786413 LWQ786410:LWQ786413 LMU786410:LMU786413 LCY786410:LCY786413 KTC786410:KTC786413 KJG786410:KJG786413 JZK786410:JZK786413 JPO786410:JPO786413 JFS786410:JFS786413 IVW786410:IVW786413 IMA786410:IMA786413 ICE786410:ICE786413 HSI786410:HSI786413 HIM786410:HIM786413 GYQ786410:GYQ786413 GOU786410:GOU786413 GEY786410:GEY786413 FVC786410:FVC786413 FLG786410:FLG786413 FBK786410:FBK786413 ERO786410:ERO786413 EHS786410:EHS786413 DXW786410:DXW786413 DOA786410:DOA786413 DEE786410:DEE786413 CUI786410:CUI786413 CKM786410:CKM786413 CAQ786410:CAQ786413 BQU786410:BQU786413 BGY786410:BGY786413 AXC786410:AXC786413 ANG786410:ANG786413 ADK786410:ADK786413 TO786410:TO786413 JS786410:JS786413 W786410:W786413 WWE720874:WWE720877 WMI720874:WMI720877 WCM720874:WCM720877 VSQ720874:VSQ720877 VIU720874:VIU720877 UYY720874:UYY720877 UPC720874:UPC720877 UFG720874:UFG720877 TVK720874:TVK720877 TLO720874:TLO720877 TBS720874:TBS720877 SRW720874:SRW720877 SIA720874:SIA720877 RYE720874:RYE720877 ROI720874:ROI720877 REM720874:REM720877 QUQ720874:QUQ720877 QKU720874:QKU720877 QAY720874:QAY720877 PRC720874:PRC720877 PHG720874:PHG720877 OXK720874:OXK720877 ONO720874:ONO720877 ODS720874:ODS720877 NTW720874:NTW720877 NKA720874:NKA720877 NAE720874:NAE720877 MQI720874:MQI720877 MGM720874:MGM720877 LWQ720874:LWQ720877 LMU720874:LMU720877 LCY720874:LCY720877 KTC720874:KTC720877 KJG720874:KJG720877 JZK720874:JZK720877 JPO720874:JPO720877 JFS720874:JFS720877 IVW720874:IVW720877 IMA720874:IMA720877 ICE720874:ICE720877 HSI720874:HSI720877 HIM720874:HIM720877 GYQ720874:GYQ720877 GOU720874:GOU720877 GEY720874:GEY720877 FVC720874:FVC720877 FLG720874:FLG720877 FBK720874:FBK720877 ERO720874:ERO720877 EHS720874:EHS720877 DXW720874:DXW720877 DOA720874:DOA720877 DEE720874:DEE720877 CUI720874:CUI720877 CKM720874:CKM720877 CAQ720874:CAQ720877 BQU720874:BQU720877 BGY720874:BGY720877 AXC720874:AXC720877 ANG720874:ANG720877 ADK720874:ADK720877 TO720874:TO720877 JS720874:JS720877 W720874:W720877 WWE655338:WWE655341 WMI655338:WMI655341 WCM655338:WCM655341 VSQ655338:VSQ655341 VIU655338:VIU655341 UYY655338:UYY655341 UPC655338:UPC655341 UFG655338:UFG655341 TVK655338:TVK655341 TLO655338:TLO655341 TBS655338:TBS655341 SRW655338:SRW655341 SIA655338:SIA655341 RYE655338:RYE655341 ROI655338:ROI655341 REM655338:REM655341 QUQ655338:QUQ655341 QKU655338:QKU655341 QAY655338:QAY655341 PRC655338:PRC655341 PHG655338:PHG655341 OXK655338:OXK655341 ONO655338:ONO655341 ODS655338:ODS655341 NTW655338:NTW655341 NKA655338:NKA655341 NAE655338:NAE655341 MQI655338:MQI655341 MGM655338:MGM655341 LWQ655338:LWQ655341 LMU655338:LMU655341 LCY655338:LCY655341 KTC655338:KTC655341 KJG655338:KJG655341 JZK655338:JZK655341 JPO655338:JPO655341 JFS655338:JFS655341 IVW655338:IVW655341 IMA655338:IMA655341 ICE655338:ICE655341 HSI655338:HSI655341 HIM655338:HIM655341 GYQ655338:GYQ655341 GOU655338:GOU655341 GEY655338:GEY655341 FVC655338:FVC655341 FLG655338:FLG655341 FBK655338:FBK655341 ERO655338:ERO655341 EHS655338:EHS655341 DXW655338:DXW655341 DOA655338:DOA655341 DEE655338:DEE655341 CUI655338:CUI655341 CKM655338:CKM655341 CAQ655338:CAQ655341 BQU655338:BQU655341 BGY655338:BGY655341 AXC655338:AXC655341 ANG655338:ANG655341 ADK655338:ADK655341 TO655338:TO655341 JS655338:JS655341 W655338:W655341 WWE589802:WWE589805 WMI589802:WMI589805 WCM589802:WCM589805 VSQ589802:VSQ589805 VIU589802:VIU589805 UYY589802:UYY589805 UPC589802:UPC589805 UFG589802:UFG589805 TVK589802:TVK589805 TLO589802:TLO589805 TBS589802:TBS589805 SRW589802:SRW589805 SIA589802:SIA589805 RYE589802:RYE589805 ROI589802:ROI589805 REM589802:REM589805 QUQ589802:QUQ589805 QKU589802:QKU589805 QAY589802:QAY589805 PRC589802:PRC589805 PHG589802:PHG589805 OXK589802:OXK589805 ONO589802:ONO589805 ODS589802:ODS589805 NTW589802:NTW589805 NKA589802:NKA589805 NAE589802:NAE589805 MQI589802:MQI589805 MGM589802:MGM589805 LWQ589802:LWQ589805 LMU589802:LMU589805 LCY589802:LCY589805 KTC589802:KTC589805 KJG589802:KJG589805 JZK589802:JZK589805 JPO589802:JPO589805 JFS589802:JFS589805 IVW589802:IVW589805 IMA589802:IMA589805 ICE589802:ICE589805 HSI589802:HSI589805 HIM589802:HIM589805 GYQ589802:GYQ589805 GOU589802:GOU589805 GEY589802:GEY589805 FVC589802:FVC589805 FLG589802:FLG589805 FBK589802:FBK589805 ERO589802:ERO589805 EHS589802:EHS589805 DXW589802:DXW589805 DOA589802:DOA589805 DEE589802:DEE589805 CUI589802:CUI589805 CKM589802:CKM589805 CAQ589802:CAQ589805 BQU589802:BQU589805 BGY589802:BGY589805 AXC589802:AXC589805 ANG589802:ANG589805 ADK589802:ADK589805 TO589802:TO589805 JS589802:JS589805 W589802:W589805 WWE524266:WWE524269 WMI524266:WMI524269 WCM524266:WCM524269 VSQ524266:VSQ524269 VIU524266:VIU524269 UYY524266:UYY524269 UPC524266:UPC524269 UFG524266:UFG524269 TVK524266:TVK524269 TLO524266:TLO524269 TBS524266:TBS524269 SRW524266:SRW524269 SIA524266:SIA524269 RYE524266:RYE524269 ROI524266:ROI524269 REM524266:REM524269 QUQ524266:QUQ524269 QKU524266:QKU524269 QAY524266:QAY524269 PRC524266:PRC524269 PHG524266:PHG524269 OXK524266:OXK524269 ONO524266:ONO524269 ODS524266:ODS524269 NTW524266:NTW524269 NKA524266:NKA524269 NAE524266:NAE524269 MQI524266:MQI524269 MGM524266:MGM524269 LWQ524266:LWQ524269 LMU524266:LMU524269 LCY524266:LCY524269 KTC524266:KTC524269 KJG524266:KJG524269 JZK524266:JZK524269 JPO524266:JPO524269 JFS524266:JFS524269 IVW524266:IVW524269 IMA524266:IMA524269 ICE524266:ICE524269 HSI524266:HSI524269 HIM524266:HIM524269 GYQ524266:GYQ524269 GOU524266:GOU524269 GEY524266:GEY524269 FVC524266:FVC524269 FLG524266:FLG524269 FBK524266:FBK524269 ERO524266:ERO524269 EHS524266:EHS524269 DXW524266:DXW524269 DOA524266:DOA524269 DEE524266:DEE524269 CUI524266:CUI524269 CKM524266:CKM524269 CAQ524266:CAQ524269 BQU524266:BQU524269 BGY524266:BGY524269 AXC524266:AXC524269 ANG524266:ANG524269 ADK524266:ADK524269 TO524266:TO524269 JS524266:JS524269 W524266:W524269 WWE458730:WWE458733 WMI458730:WMI458733 WCM458730:WCM458733 VSQ458730:VSQ458733 VIU458730:VIU458733 UYY458730:UYY458733 UPC458730:UPC458733 UFG458730:UFG458733 TVK458730:TVK458733 TLO458730:TLO458733 TBS458730:TBS458733 SRW458730:SRW458733 SIA458730:SIA458733 RYE458730:RYE458733 ROI458730:ROI458733 REM458730:REM458733 QUQ458730:QUQ458733 QKU458730:QKU458733 QAY458730:QAY458733 PRC458730:PRC458733 PHG458730:PHG458733 OXK458730:OXK458733 ONO458730:ONO458733 ODS458730:ODS458733 NTW458730:NTW458733 NKA458730:NKA458733 NAE458730:NAE458733 MQI458730:MQI458733 MGM458730:MGM458733 LWQ458730:LWQ458733 LMU458730:LMU458733 LCY458730:LCY458733 KTC458730:KTC458733 KJG458730:KJG458733 JZK458730:JZK458733 JPO458730:JPO458733 JFS458730:JFS458733 IVW458730:IVW458733 IMA458730:IMA458733 ICE458730:ICE458733 HSI458730:HSI458733 HIM458730:HIM458733 GYQ458730:GYQ458733 GOU458730:GOU458733 GEY458730:GEY458733 FVC458730:FVC458733 FLG458730:FLG458733 FBK458730:FBK458733 ERO458730:ERO458733 EHS458730:EHS458733 DXW458730:DXW458733 DOA458730:DOA458733 DEE458730:DEE458733 CUI458730:CUI458733 CKM458730:CKM458733 CAQ458730:CAQ458733 BQU458730:BQU458733 BGY458730:BGY458733 AXC458730:AXC458733 ANG458730:ANG458733 ADK458730:ADK458733 TO458730:TO458733 JS458730:JS458733 W458730:W458733 WWE393194:WWE393197 WMI393194:WMI393197 WCM393194:WCM393197 VSQ393194:VSQ393197 VIU393194:VIU393197 UYY393194:UYY393197 UPC393194:UPC393197 UFG393194:UFG393197 TVK393194:TVK393197 TLO393194:TLO393197 TBS393194:TBS393197 SRW393194:SRW393197 SIA393194:SIA393197 RYE393194:RYE393197 ROI393194:ROI393197 REM393194:REM393197 QUQ393194:QUQ393197 QKU393194:QKU393197 QAY393194:QAY393197 PRC393194:PRC393197 PHG393194:PHG393197 OXK393194:OXK393197 ONO393194:ONO393197 ODS393194:ODS393197 NTW393194:NTW393197 NKA393194:NKA393197 NAE393194:NAE393197 MQI393194:MQI393197 MGM393194:MGM393197 LWQ393194:LWQ393197 LMU393194:LMU393197 LCY393194:LCY393197 KTC393194:KTC393197 KJG393194:KJG393197 JZK393194:JZK393197 JPO393194:JPO393197 JFS393194:JFS393197 IVW393194:IVW393197 IMA393194:IMA393197 ICE393194:ICE393197 HSI393194:HSI393197 HIM393194:HIM393197 GYQ393194:GYQ393197 GOU393194:GOU393197 GEY393194:GEY393197 FVC393194:FVC393197 FLG393194:FLG393197 FBK393194:FBK393197 ERO393194:ERO393197 EHS393194:EHS393197 DXW393194:DXW393197 DOA393194:DOA393197 DEE393194:DEE393197 CUI393194:CUI393197 CKM393194:CKM393197 CAQ393194:CAQ393197 BQU393194:BQU393197 BGY393194:BGY393197 AXC393194:AXC393197 ANG393194:ANG393197 ADK393194:ADK393197 TO393194:TO393197 JS393194:JS393197 W393194:W393197 WWE327658:WWE327661 WMI327658:WMI327661 WCM327658:WCM327661 VSQ327658:VSQ327661 VIU327658:VIU327661 UYY327658:UYY327661 UPC327658:UPC327661 UFG327658:UFG327661 TVK327658:TVK327661 TLO327658:TLO327661 TBS327658:TBS327661 SRW327658:SRW327661 SIA327658:SIA327661 RYE327658:RYE327661 ROI327658:ROI327661 REM327658:REM327661 QUQ327658:QUQ327661 QKU327658:QKU327661 QAY327658:QAY327661 PRC327658:PRC327661 PHG327658:PHG327661 OXK327658:OXK327661 ONO327658:ONO327661 ODS327658:ODS327661 NTW327658:NTW327661 NKA327658:NKA327661 NAE327658:NAE327661 MQI327658:MQI327661 MGM327658:MGM327661 LWQ327658:LWQ327661 LMU327658:LMU327661 LCY327658:LCY327661 KTC327658:KTC327661 KJG327658:KJG327661 JZK327658:JZK327661 JPO327658:JPO327661 JFS327658:JFS327661 IVW327658:IVW327661 IMA327658:IMA327661 ICE327658:ICE327661 HSI327658:HSI327661 HIM327658:HIM327661 GYQ327658:GYQ327661 GOU327658:GOU327661 GEY327658:GEY327661 FVC327658:FVC327661 FLG327658:FLG327661 FBK327658:FBK327661 ERO327658:ERO327661 EHS327658:EHS327661 DXW327658:DXW327661 DOA327658:DOA327661 DEE327658:DEE327661 CUI327658:CUI327661 CKM327658:CKM327661 CAQ327658:CAQ327661 BQU327658:BQU327661 BGY327658:BGY327661 AXC327658:AXC327661 ANG327658:ANG327661 ADK327658:ADK327661 TO327658:TO327661 JS327658:JS327661 W327658:W327661 WWE262122:WWE262125 WMI262122:WMI262125 WCM262122:WCM262125 VSQ262122:VSQ262125 VIU262122:VIU262125 UYY262122:UYY262125 UPC262122:UPC262125 UFG262122:UFG262125 TVK262122:TVK262125 TLO262122:TLO262125 TBS262122:TBS262125 SRW262122:SRW262125 SIA262122:SIA262125 RYE262122:RYE262125 ROI262122:ROI262125 REM262122:REM262125 QUQ262122:QUQ262125 QKU262122:QKU262125 QAY262122:QAY262125 PRC262122:PRC262125 PHG262122:PHG262125 OXK262122:OXK262125 ONO262122:ONO262125 ODS262122:ODS262125 NTW262122:NTW262125 NKA262122:NKA262125 NAE262122:NAE262125 MQI262122:MQI262125 MGM262122:MGM262125 LWQ262122:LWQ262125 LMU262122:LMU262125 LCY262122:LCY262125 KTC262122:KTC262125 KJG262122:KJG262125 JZK262122:JZK262125 JPO262122:JPO262125 JFS262122:JFS262125 IVW262122:IVW262125 IMA262122:IMA262125 ICE262122:ICE262125 HSI262122:HSI262125 HIM262122:HIM262125 GYQ262122:GYQ262125 GOU262122:GOU262125 GEY262122:GEY262125 FVC262122:FVC262125 FLG262122:FLG262125 FBK262122:FBK262125 ERO262122:ERO262125 EHS262122:EHS262125 DXW262122:DXW262125 DOA262122:DOA262125 DEE262122:DEE262125 CUI262122:CUI262125 CKM262122:CKM262125 CAQ262122:CAQ262125 BQU262122:BQU262125 BGY262122:BGY262125 AXC262122:AXC262125 ANG262122:ANG262125 ADK262122:ADK262125 TO262122:TO262125 JS262122:JS262125 W262122:W262125 WWE196586:WWE196589 WMI196586:WMI196589 WCM196586:WCM196589 VSQ196586:VSQ196589 VIU196586:VIU196589 UYY196586:UYY196589 UPC196586:UPC196589 UFG196586:UFG196589 TVK196586:TVK196589 TLO196586:TLO196589 TBS196586:TBS196589 SRW196586:SRW196589 SIA196586:SIA196589 RYE196586:RYE196589 ROI196586:ROI196589 REM196586:REM196589 QUQ196586:QUQ196589 QKU196586:QKU196589 QAY196586:QAY196589 PRC196586:PRC196589 PHG196586:PHG196589 OXK196586:OXK196589 ONO196586:ONO196589 ODS196586:ODS196589 NTW196586:NTW196589 NKA196586:NKA196589 NAE196586:NAE196589 MQI196586:MQI196589 MGM196586:MGM196589 LWQ196586:LWQ196589 LMU196586:LMU196589 LCY196586:LCY196589 KTC196586:KTC196589 KJG196586:KJG196589 JZK196586:JZK196589 JPO196586:JPO196589 JFS196586:JFS196589 IVW196586:IVW196589 IMA196586:IMA196589 ICE196586:ICE196589 HSI196586:HSI196589 HIM196586:HIM196589 GYQ196586:GYQ196589 GOU196586:GOU196589 GEY196586:GEY196589 FVC196586:FVC196589 FLG196586:FLG196589 FBK196586:FBK196589 ERO196586:ERO196589 EHS196586:EHS196589 DXW196586:DXW196589 DOA196586:DOA196589 DEE196586:DEE196589 CUI196586:CUI196589 CKM196586:CKM196589 CAQ196586:CAQ196589 BQU196586:BQU196589 BGY196586:BGY196589 AXC196586:AXC196589 ANG196586:ANG196589 ADK196586:ADK196589 TO196586:TO196589 JS196586:JS196589 W196586:W196589 WWE131050:WWE131053 WMI131050:WMI131053 WCM131050:WCM131053 VSQ131050:VSQ131053 VIU131050:VIU131053 UYY131050:UYY131053 UPC131050:UPC131053 UFG131050:UFG131053 TVK131050:TVK131053 TLO131050:TLO131053 TBS131050:TBS131053 SRW131050:SRW131053 SIA131050:SIA131053 RYE131050:RYE131053 ROI131050:ROI131053 REM131050:REM131053 QUQ131050:QUQ131053 QKU131050:QKU131053 QAY131050:QAY131053 PRC131050:PRC131053 PHG131050:PHG131053 OXK131050:OXK131053 ONO131050:ONO131053 ODS131050:ODS131053 NTW131050:NTW131053 NKA131050:NKA131053 NAE131050:NAE131053 MQI131050:MQI131053 MGM131050:MGM131053 LWQ131050:LWQ131053 LMU131050:LMU131053 LCY131050:LCY131053 KTC131050:KTC131053 KJG131050:KJG131053 JZK131050:JZK131053 JPO131050:JPO131053 JFS131050:JFS131053 IVW131050:IVW131053 IMA131050:IMA131053 ICE131050:ICE131053 HSI131050:HSI131053 HIM131050:HIM131053 GYQ131050:GYQ131053 GOU131050:GOU131053 GEY131050:GEY131053 FVC131050:FVC131053 FLG131050:FLG131053 FBK131050:FBK131053 ERO131050:ERO131053 EHS131050:EHS131053 DXW131050:DXW131053 DOA131050:DOA131053 DEE131050:DEE131053 CUI131050:CUI131053 CKM131050:CKM131053 CAQ131050:CAQ131053 BQU131050:BQU131053 BGY131050:BGY131053 AXC131050:AXC131053 ANG131050:ANG131053 ADK131050:ADK131053 TO131050:TO131053 JS131050:JS131053 W131050:W131053 WWE65514:WWE65517 WMI65514:WMI65517 WCM65514:WCM65517 VSQ65514:VSQ65517 VIU65514:VIU65517 UYY65514:UYY65517 UPC65514:UPC65517 UFG65514:UFG65517 TVK65514:TVK65517 TLO65514:TLO65517 TBS65514:TBS65517 SRW65514:SRW65517 SIA65514:SIA65517 RYE65514:RYE65517 ROI65514:ROI65517 REM65514:REM65517 QUQ65514:QUQ65517 QKU65514:QKU65517 QAY65514:QAY65517 PRC65514:PRC65517 PHG65514:PHG65517 OXK65514:OXK65517 ONO65514:ONO65517 ODS65514:ODS65517 NTW65514:NTW65517 NKA65514:NKA65517 NAE65514:NAE65517 MQI65514:MQI65517 MGM65514:MGM65517 LWQ65514:LWQ65517 LMU65514:LMU65517 LCY65514:LCY65517 KTC65514:KTC65517 KJG65514:KJG65517 JZK65514:JZK65517 JPO65514:JPO65517 JFS65514:JFS65517 IVW65514:IVW65517 IMA65514:IMA65517 ICE65514:ICE65517 HSI65514:HSI65517 HIM65514:HIM65517 GYQ65514:GYQ65517 GOU65514:GOU65517 GEY65514:GEY65517 FVC65514:FVC65517 FLG65514:FLG65517 FBK65514:FBK65517 ERO65514:ERO65517 EHS65514:EHS65517 DXW65514:DXW65517 DOA65514:DOA65517 DEE65514:DEE65517 CUI65514:CUI65517 CKM65514:CKM65517 CAQ65514:CAQ65517 BQU65514:BQU65517 BGY65514:BGY65517 AXC65514:AXC65517 ANG65514:ANG65517 ADK65514:ADK65517 TO65514:TO65517 JS65514:JS65517 W65514:W65517 WWK983018:WWK983021 WMO983018:WMO983021 WCS983018:WCS983021 VSW983018:VSW983021 VJA983018:VJA983021 UZE983018:UZE983021 UPI983018:UPI983021 UFM983018:UFM983021 TVQ983018:TVQ983021 TLU983018:TLU983021 TBY983018:TBY983021 SSC983018:SSC983021 SIG983018:SIG983021 RYK983018:RYK983021 ROO983018:ROO983021 RES983018:RES983021 QUW983018:QUW983021 QLA983018:QLA983021 QBE983018:QBE983021 PRI983018:PRI983021 PHM983018:PHM983021 OXQ983018:OXQ983021 ONU983018:ONU983021 ODY983018:ODY983021 NUC983018:NUC983021 NKG983018:NKG983021 NAK983018:NAK983021 MQO983018:MQO983021 MGS983018:MGS983021 LWW983018:LWW983021 LNA983018:LNA983021 LDE983018:LDE983021 KTI983018:KTI983021 KJM983018:KJM983021 JZQ983018:JZQ983021 JPU983018:JPU983021 JFY983018:JFY983021 IWC983018:IWC983021 IMG983018:IMG983021 ICK983018:ICK983021 HSO983018:HSO983021 HIS983018:HIS983021 GYW983018:GYW983021 GPA983018:GPA983021 GFE983018:GFE983021 FVI983018:FVI983021 FLM983018:FLM983021 FBQ983018:FBQ983021 ERU983018:ERU983021 EHY983018:EHY983021 DYC983018:DYC983021 DOG983018:DOG983021 DEK983018:DEK983021 CUO983018:CUO983021 CKS983018:CKS983021 CAW983018:CAW983021 BRA983018:BRA983021 BHE983018:BHE983021 AXI983018:AXI983021 ANM983018:ANM983021 ADQ983018:ADQ983021 TU983018:TU983021 JY983018:JY983021 AC983018:AC983021 WWK917482:WWK917485 WMO917482:WMO917485 WCS917482:WCS917485 VSW917482:VSW917485 VJA917482:VJA917485 UZE917482:UZE917485 UPI917482:UPI917485 UFM917482:UFM917485 TVQ917482:TVQ917485 TLU917482:TLU917485 TBY917482:TBY917485 SSC917482:SSC917485 SIG917482:SIG917485 RYK917482:RYK917485 ROO917482:ROO917485 RES917482:RES917485 QUW917482:QUW917485 QLA917482:QLA917485 QBE917482:QBE917485 PRI917482:PRI917485 PHM917482:PHM917485 OXQ917482:OXQ917485 ONU917482:ONU917485 ODY917482:ODY917485 NUC917482:NUC917485 NKG917482:NKG917485 NAK917482:NAK917485 MQO917482:MQO917485 MGS917482:MGS917485 LWW917482:LWW917485 LNA917482:LNA917485 LDE917482:LDE917485 KTI917482:KTI917485 KJM917482:KJM917485 JZQ917482:JZQ917485 JPU917482:JPU917485 JFY917482:JFY917485 IWC917482:IWC917485 IMG917482:IMG917485 ICK917482:ICK917485 HSO917482:HSO917485 HIS917482:HIS917485 GYW917482:GYW917485 GPA917482:GPA917485 GFE917482:GFE917485 FVI917482:FVI917485 FLM917482:FLM917485 FBQ917482:FBQ917485 ERU917482:ERU917485 EHY917482:EHY917485 DYC917482:DYC917485 DOG917482:DOG917485 DEK917482:DEK917485 CUO917482:CUO917485 CKS917482:CKS917485 CAW917482:CAW917485 BRA917482:BRA917485 BHE917482:BHE917485 AXI917482:AXI917485 ANM917482:ANM917485 ADQ917482:ADQ917485 TU917482:TU917485 JY917482:JY917485 AC917482:AC917485 WWK851946:WWK851949 WMO851946:WMO851949 WCS851946:WCS851949 VSW851946:VSW851949 VJA851946:VJA851949 UZE851946:UZE851949 UPI851946:UPI851949 UFM851946:UFM851949 TVQ851946:TVQ851949 TLU851946:TLU851949 TBY851946:TBY851949 SSC851946:SSC851949 SIG851946:SIG851949 RYK851946:RYK851949 ROO851946:ROO851949 RES851946:RES851949 QUW851946:QUW851949 QLA851946:QLA851949 QBE851946:QBE851949 PRI851946:PRI851949 PHM851946:PHM851949 OXQ851946:OXQ851949 ONU851946:ONU851949 ODY851946:ODY851949 NUC851946:NUC851949 NKG851946:NKG851949 NAK851946:NAK851949 MQO851946:MQO851949 MGS851946:MGS851949 LWW851946:LWW851949 LNA851946:LNA851949 LDE851946:LDE851949 KTI851946:KTI851949 KJM851946:KJM851949 JZQ851946:JZQ851949 JPU851946:JPU851949 JFY851946:JFY851949 IWC851946:IWC851949 IMG851946:IMG851949 ICK851946:ICK851949 HSO851946:HSO851949 HIS851946:HIS851949 GYW851946:GYW851949 GPA851946:GPA851949 GFE851946:GFE851949 FVI851946:FVI851949 FLM851946:FLM851949 FBQ851946:FBQ851949 ERU851946:ERU851949 EHY851946:EHY851949 DYC851946:DYC851949 DOG851946:DOG851949 DEK851946:DEK851949 CUO851946:CUO851949 CKS851946:CKS851949 CAW851946:CAW851949 BRA851946:BRA851949 BHE851946:BHE851949 AXI851946:AXI851949 ANM851946:ANM851949 ADQ851946:ADQ851949 TU851946:TU851949 JY851946:JY851949 AC851946:AC851949 WWK786410:WWK786413 WMO786410:WMO786413 WCS786410:WCS786413 VSW786410:VSW786413 VJA786410:VJA786413 UZE786410:UZE786413 UPI786410:UPI786413 UFM786410:UFM786413 TVQ786410:TVQ786413 TLU786410:TLU786413 TBY786410:TBY786413 SSC786410:SSC786413 SIG786410:SIG786413 RYK786410:RYK786413 ROO786410:ROO786413 RES786410:RES786413 QUW786410:QUW786413 QLA786410:QLA786413 QBE786410:QBE786413 PRI786410:PRI786413 PHM786410:PHM786413 OXQ786410:OXQ786413 ONU786410:ONU786413 ODY786410:ODY786413 NUC786410:NUC786413 NKG786410:NKG786413 NAK786410:NAK786413 MQO786410:MQO786413 MGS786410:MGS786413 LWW786410:LWW786413 LNA786410:LNA786413 LDE786410:LDE786413 KTI786410:KTI786413 KJM786410:KJM786413 JZQ786410:JZQ786413 JPU786410:JPU786413 JFY786410:JFY786413 IWC786410:IWC786413 IMG786410:IMG786413 ICK786410:ICK786413 HSO786410:HSO786413 HIS786410:HIS786413 GYW786410:GYW786413 GPA786410:GPA786413 GFE786410:GFE786413 FVI786410:FVI786413 FLM786410:FLM786413 FBQ786410:FBQ786413 ERU786410:ERU786413 EHY786410:EHY786413 DYC786410:DYC786413 DOG786410:DOG786413 DEK786410:DEK786413 CUO786410:CUO786413 CKS786410:CKS786413 CAW786410:CAW786413 BRA786410:BRA786413 BHE786410:BHE786413 AXI786410:AXI786413 ANM786410:ANM786413 ADQ786410:ADQ786413 TU786410:TU786413 JY786410:JY786413 AC786410:AC786413 WWK720874:WWK720877 WMO720874:WMO720877 WCS720874:WCS720877 VSW720874:VSW720877 VJA720874:VJA720877 UZE720874:UZE720877 UPI720874:UPI720877 UFM720874:UFM720877 TVQ720874:TVQ720877 TLU720874:TLU720877 TBY720874:TBY720877 SSC720874:SSC720877 SIG720874:SIG720877 RYK720874:RYK720877 ROO720874:ROO720877 RES720874:RES720877 QUW720874:QUW720877 QLA720874:QLA720877 QBE720874:QBE720877 PRI720874:PRI720877 PHM720874:PHM720877 OXQ720874:OXQ720877 ONU720874:ONU720877 ODY720874:ODY720877 NUC720874:NUC720877 NKG720874:NKG720877 NAK720874:NAK720877 MQO720874:MQO720877 MGS720874:MGS720877 LWW720874:LWW720877 LNA720874:LNA720877 LDE720874:LDE720877 KTI720874:KTI720877 KJM720874:KJM720877 JZQ720874:JZQ720877 JPU720874:JPU720877 JFY720874:JFY720877 IWC720874:IWC720877 IMG720874:IMG720877 ICK720874:ICK720877 HSO720874:HSO720877 HIS720874:HIS720877 GYW720874:GYW720877 GPA720874:GPA720877 GFE720874:GFE720877 FVI720874:FVI720877 FLM720874:FLM720877 FBQ720874:FBQ720877 ERU720874:ERU720877 EHY720874:EHY720877 DYC720874:DYC720877 DOG720874:DOG720877 DEK720874:DEK720877 CUO720874:CUO720877 CKS720874:CKS720877 CAW720874:CAW720877 BRA720874:BRA720877 BHE720874:BHE720877 AXI720874:AXI720877 ANM720874:ANM720877 ADQ720874:ADQ720877 TU720874:TU720877 JY720874:JY720877 AC720874:AC720877 WWK655338:WWK655341 WMO655338:WMO655341 WCS655338:WCS655341 VSW655338:VSW655341 VJA655338:VJA655341 UZE655338:UZE655341 UPI655338:UPI655341 UFM655338:UFM655341 TVQ655338:TVQ655341 TLU655338:TLU655341 TBY655338:TBY655341 SSC655338:SSC655341 SIG655338:SIG655341 RYK655338:RYK655341 ROO655338:ROO655341 RES655338:RES655341 QUW655338:QUW655341 QLA655338:QLA655341 QBE655338:QBE655341 PRI655338:PRI655341 PHM655338:PHM655341 OXQ655338:OXQ655341 ONU655338:ONU655341 ODY655338:ODY655341 NUC655338:NUC655341 NKG655338:NKG655341 NAK655338:NAK655341 MQO655338:MQO655341 MGS655338:MGS655341 LWW655338:LWW655341 LNA655338:LNA655341 LDE655338:LDE655341 KTI655338:KTI655341 KJM655338:KJM655341 JZQ655338:JZQ655341 JPU655338:JPU655341 JFY655338:JFY655341 IWC655338:IWC655341 IMG655338:IMG655341 ICK655338:ICK655341 HSO655338:HSO655341 HIS655338:HIS655341 GYW655338:GYW655341 GPA655338:GPA655341 GFE655338:GFE655341 FVI655338:FVI655341 FLM655338:FLM655341 FBQ655338:FBQ655341 ERU655338:ERU655341 EHY655338:EHY655341 DYC655338:DYC655341 DOG655338:DOG655341 DEK655338:DEK655341 CUO655338:CUO655341 CKS655338:CKS655341 CAW655338:CAW655341 BRA655338:BRA655341 BHE655338:BHE655341 AXI655338:AXI655341 ANM655338:ANM655341 ADQ655338:ADQ655341 TU655338:TU655341 JY655338:JY655341 AC655338:AC655341 WWK589802:WWK589805 WMO589802:WMO589805 WCS589802:WCS589805 VSW589802:VSW589805 VJA589802:VJA589805 UZE589802:UZE589805 UPI589802:UPI589805 UFM589802:UFM589805 TVQ589802:TVQ589805 TLU589802:TLU589805 TBY589802:TBY589805 SSC589802:SSC589805 SIG589802:SIG589805 RYK589802:RYK589805 ROO589802:ROO589805 RES589802:RES589805 QUW589802:QUW589805 QLA589802:QLA589805 QBE589802:QBE589805 PRI589802:PRI589805 PHM589802:PHM589805 OXQ589802:OXQ589805 ONU589802:ONU589805 ODY589802:ODY589805 NUC589802:NUC589805 NKG589802:NKG589805 NAK589802:NAK589805 MQO589802:MQO589805 MGS589802:MGS589805 LWW589802:LWW589805 LNA589802:LNA589805 LDE589802:LDE589805 KTI589802:KTI589805 KJM589802:KJM589805 JZQ589802:JZQ589805 JPU589802:JPU589805 JFY589802:JFY589805 IWC589802:IWC589805 IMG589802:IMG589805 ICK589802:ICK589805 HSO589802:HSO589805 HIS589802:HIS589805 GYW589802:GYW589805 GPA589802:GPA589805 GFE589802:GFE589805 FVI589802:FVI589805 FLM589802:FLM589805 FBQ589802:FBQ589805 ERU589802:ERU589805 EHY589802:EHY589805 DYC589802:DYC589805 DOG589802:DOG589805 DEK589802:DEK589805 CUO589802:CUO589805 CKS589802:CKS589805 CAW589802:CAW589805 BRA589802:BRA589805 BHE589802:BHE589805 AXI589802:AXI589805 ANM589802:ANM589805 ADQ589802:ADQ589805 TU589802:TU589805 JY589802:JY589805 AC589802:AC589805 WWK524266:WWK524269 WMO524266:WMO524269 WCS524266:WCS524269 VSW524266:VSW524269 VJA524266:VJA524269 UZE524266:UZE524269 UPI524266:UPI524269 UFM524266:UFM524269 TVQ524266:TVQ524269 TLU524266:TLU524269 TBY524266:TBY524269 SSC524266:SSC524269 SIG524266:SIG524269 RYK524266:RYK524269 ROO524266:ROO524269 RES524266:RES524269 QUW524266:QUW524269 QLA524266:QLA524269 QBE524266:QBE524269 PRI524266:PRI524269 PHM524266:PHM524269 OXQ524266:OXQ524269 ONU524266:ONU524269 ODY524266:ODY524269 NUC524266:NUC524269 NKG524266:NKG524269 NAK524266:NAK524269 MQO524266:MQO524269 MGS524266:MGS524269 LWW524266:LWW524269 LNA524266:LNA524269 LDE524266:LDE524269 KTI524266:KTI524269 KJM524266:KJM524269 JZQ524266:JZQ524269 JPU524266:JPU524269 JFY524266:JFY524269 IWC524266:IWC524269 IMG524266:IMG524269 ICK524266:ICK524269 HSO524266:HSO524269 HIS524266:HIS524269 GYW524266:GYW524269 GPA524266:GPA524269 GFE524266:GFE524269 FVI524266:FVI524269 FLM524266:FLM524269 FBQ524266:FBQ524269 ERU524266:ERU524269 EHY524266:EHY524269 DYC524266:DYC524269 DOG524266:DOG524269 DEK524266:DEK524269 CUO524266:CUO524269 CKS524266:CKS524269 CAW524266:CAW524269 BRA524266:BRA524269 BHE524266:BHE524269 AXI524266:AXI524269 ANM524266:ANM524269 ADQ524266:ADQ524269 TU524266:TU524269 JY524266:JY524269 AC524266:AC524269 WWK458730:WWK458733 WMO458730:WMO458733 WCS458730:WCS458733 VSW458730:VSW458733 VJA458730:VJA458733 UZE458730:UZE458733 UPI458730:UPI458733 UFM458730:UFM458733 TVQ458730:TVQ458733 TLU458730:TLU458733 TBY458730:TBY458733 SSC458730:SSC458733 SIG458730:SIG458733 RYK458730:RYK458733 ROO458730:ROO458733 RES458730:RES458733 QUW458730:QUW458733 QLA458730:QLA458733 QBE458730:QBE458733 PRI458730:PRI458733 PHM458730:PHM458733 OXQ458730:OXQ458733 ONU458730:ONU458733 ODY458730:ODY458733 NUC458730:NUC458733 NKG458730:NKG458733 NAK458730:NAK458733 MQO458730:MQO458733 MGS458730:MGS458733 LWW458730:LWW458733 LNA458730:LNA458733 LDE458730:LDE458733 KTI458730:KTI458733 KJM458730:KJM458733 JZQ458730:JZQ458733 JPU458730:JPU458733 JFY458730:JFY458733 IWC458730:IWC458733 IMG458730:IMG458733 ICK458730:ICK458733 HSO458730:HSO458733 HIS458730:HIS458733 GYW458730:GYW458733 GPA458730:GPA458733 GFE458730:GFE458733 FVI458730:FVI458733 FLM458730:FLM458733 FBQ458730:FBQ458733 ERU458730:ERU458733 EHY458730:EHY458733 DYC458730:DYC458733 DOG458730:DOG458733 DEK458730:DEK458733 CUO458730:CUO458733 CKS458730:CKS458733 CAW458730:CAW458733 BRA458730:BRA458733 BHE458730:BHE458733 AXI458730:AXI458733 ANM458730:ANM458733 ADQ458730:ADQ458733 TU458730:TU458733 JY458730:JY458733 AC458730:AC458733 WWK393194:WWK393197 WMO393194:WMO393197 WCS393194:WCS393197 VSW393194:VSW393197 VJA393194:VJA393197 UZE393194:UZE393197 UPI393194:UPI393197 UFM393194:UFM393197 TVQ393194:TVQ393197 TLU393194:TLU393197 TBY393194:TBY393197 SSC393194:SSC393197 SIG393194:SIG393197 RYK393194:RYK393197 ROO393194:ROO393197 RES393194:RES393197 QUW393194:QUW393197 QLA393194:QLA393197 QBE393194:QBE393197 PRI393194:PRI393197 PHM393194:PHM393197 OXQ393194:OXQ393197 ONU393194:ONU393197 ODY393194:ODY393197 NUC393194:NUC393197 NKG393194:NKG393197 NAK393194:NAK393197 MQO393194:MQO393197 MGS393194:MGS393197 LWW393194:LWW393197 LNA393194:LNA393197 LDE393194:LDE393197 KTI393194:KTI393197 KJM393194:KJM393197 JZQ393194:JZQ393197 JPU393194:JPU393197 JFY393194:JFY393197 IWC393194:IWC393197 IMG393194:IMG393197 ICK393194:ICK393197 HSO393194:HSO393197 HIS393194:HIS393197 GYW393194:GYW393197 GPA393194:GPA393197 GFE393194:GFE393197 FVI393194:FVI393197 FLM393194:FLM393197 FBQ393194:FBQ393197 ERU393194:ERU393197 EHY393194:EHY393197 DYC393194:DYC393197 DOG393194:DOG393197 DEK393194:DEK393197 CUO393194:CUO393197 CKS393194:CKS393197 CAW393194:CAW393197 BRA393194:BRA393197 BHE393194:BHE393197 AXI393194:AXI393197 ANM393194:ANM393197 ADQ393194:ADQ393197 TU393194:TU393197 JY393194:JY393197 AC393194:AC393197 WWK327658:WWK327661 WMO327658:WMO327661 WCS327658:WCS327661 VSW327658:VSW327661 VJA327658:VJA327661 UZE327658:UZE327661 UPI327658:UPI327661 UFM327658:UFM327661 TVQ327658:TVQ327661 TLU327658:TLU327661 TBY327658:TBY327661 SSC327658:SSC327661 SIG327658:SIG327661 RYK327658:RYK327661 ROO327658:ROO327661 RES327658:RES327661 QUW327658:QUW327661 QLA327658:QLA327661 QBE327658:QBE327661 PRI327658:PRI327661 PHM327658:PHM327661 OXQ327658:OXQ327661 ONU327658:ONU327661 ODY327658:ODY327661 NUC327658:NUC327661 NKG327658:NKG327661 NAK327658:NAK327661 MQO327658:MQO327661 MGS327658:MGS327661 LWW327658:LWW327661 LNA327658:LNA327661 LDE327658:LDE327661 KTI327658:KTI327661 KJM327658:KJM327661 JZQ327658:JZQ327661 JPU327658:JPU327661 JFY327658:JFY327661 IWC327658:IWC327661 IMG327658:IMG327661 ICK327658:ICK327661 HSO327658:HSO327661 HIS327658:HIS327661 GYW327658:GYW327661 GPA327658:GPA327661 GFE327658:GFE327661 FVI327658:FVI327661 FLM327658:FLM327661 FBQ327658:FBQ327661 ERU327658:ERU327661 EHY327658:EHY327661 DYC327658:DYC327661 DOG327658:DOG327661 DEK327658:DEK327661 CUO327658:CUO327661 CKS327658:CKS327661 CAW327658:CAW327661 BRA327658:BRA327661 BHE327658:BHE327661 AXI327658:AXI327661 ANM327658:ANM327661 ADQ327658:ADQ327661 TU327658:TU327661 JY327658:JY327661 AC327658:AC327661 WWK262122:WWK262125 WMO262122:WMO262125 WCS262122:WCS262125 VSW262122:VSW262125 VJA262122:VJA262125 UZE262122:UZE262125 UPI262122:UPI262125 UFM262122:UFM262125 TVQ262122:TVQ262125 TLU262122:TLU262125 TBY262122:TBY262125 SSC262122:SSC262125 SIG262122:SIG262125 RYK262122:RYK262125 ROO262122:ROO262125 RES262122:RES262125 QUW262122:QUW262125 QLA262122:QLA262125 QBE262122:QBE262125 PRI262122:PRI262125 PHM262122:PHM262125 OXQ262122:OXQ262125 ONU262122:ONU262125 ODY262122:ODY262125 NUC262122:NUC262125 NKG262122:NKG262125 NAK262122:NAK262125 MQO262122:MQO262125 MGS262122:MGS262125 LWW262122:LWW262125 LNA262122:LNA262125 LDE262122:LDE262125 KTI262122:KTI262125 KJM262122:KJM262125 JZQ262122:JZQ262125 JPU262122:JPU262125 JFY262122:JFY262125 IWC262122:IWC262125 IMG262122:IMG262125 ICK262122:ICK262125 HSO262122:HSO262125 HIS262122:HIS262125 GYW262122:GYW262125 GPA262122:GPA262125 GFE262122:GFE262125 FVI262122:FVI262125 FLM262122:FLM262125 FBQ262122:FBQ262125 ERU262122:ERU262125 EHY262122:EHY262125 DYC262122:DYC262125 DOG262122:DOG262125 DEK262122:DEK262125 CUO262122:CUO262125 CKS262122:CKS262125 CAW262122:CAW262125 BRA262122:BRA262125 BHE262122:BHE262125 AXI262122:AXI262125 ANM262122:ANM262125 ADQ262122:ADQ262125 TU262122:TU262125 JY262122:JY262125 AC262122:AC262125 WWK196586:WWK196589 WMO196586:WMO196589 WCS196586:WCS196589 VSW196586:VSW196589 VJA196586:VJA196589 UZE196586:UZE196589 UPI196586:UPI196589 UFM196586:UFM196589 TVQ196586:TVQ196589 TLU196586:TLU196589 TBY196586:TBY196589 SSC196586:SSC196589 SIG196586:SIG196589 RYK196586:RYK196589 ROO196586:ROO196589 RES196586:RES196589 QUW196586:QUW196589 QLA196586:QLA196589 QBE196586:QBE196589 PRI196586:PRI196589 PHM196586:PHM196589 OXQ196586:OXQ196589 ONU196586:ONU196589 ODY196586:ODY196589 NUC196586:NUC196589 NKG196586:NKG196589 NAK196586:NAK196589 MQO196586:MQO196589 MGS196586:MGS196589 LWW196586:LWW196589 LNA196586:LNA196589 LDE196586:LDE196589 KTI196586:KTI196589 KJM196586:KJM196589 JZQ196586:JZQ196589 JPU196586:JPU196589 JFY196586:JFY196589 IWC196586:IWC196589 IMG196586:IMG196589 ICK196586:ICK196589 HSO196586:HSO196589 HIS196586:HIS196589 GYW196586:GYW196589 GPA196586:GPA196589 GFE196586:GFE196589 FVI196586:FVI196589 FLM196586:FLM196589 FBQ196586:FBQ196589 ERU196586:ERU196589 EHY196586:EHY196589 DYC196586:DYC196589 DOG196586:DOG196589 DEK196586:DEK196589 CUO196586:CUO196589 CKS196586:CKS196589 CAW196586:CAW196589 BRA196586:BRA196589 BHE196586:BHE196589 AXI196586:AXI196589 ANM196586:ANM196589 ADQ196586:ADQ196589 TU196586:TU196589 JY196586:JY196589 AC196586:AC196589 WWK131050:WWK131053 WMO131050:WMO131053 WCS131050:WCS131053 VSW131050:VSW131053 VJA131050:VJA131053 UZE131050:UZE131053 UPI131050:UPI131053 UFM131050:UFM131053 TVQ131050:TVQ131053 TLU131050:TLU131053 TBY131050:TBY131053 SSC131050:SSC131053 SIG131050:SIG131053 RYK131050:RYK131053 ROO131050:ROO131053 RES131050:RES131053 QUW131050:QUW131053 QLA131050:QLA131053 QBE131050:QBE131053 PRI131050:PRI131053 PHM131050:PHM131053 OXQ131050:OXQ131053 ONU131050:ONU131053 ODY131050:ODY131053 NUC131050:NUC131053 NKG131050:NKG131053 NAK131050:NAK131053 MQO131050:MQO131053 MGS131050:MGS131053 LWW131050:LWW131053 LNA131050:LNA131053 LDE131050:LDE131053 KTI131050:KTI131053 KJM131050:KJM131053 JZQ131050:JZQ131053 JPU131050:JPU131053 JFY131050:JFY131053 IWC131050:IWC131053 IMG131050:IMG131053 ICK131050:ICK131053 HSO131050:HSO131053 HIS131050:HIS131053 GYW131050:GYW131053 GPA131050:GPA131053 GFE131050:GFE131053 FVI131050:FVI131053 FLM131050:FLM131053 FBQ131050:FBQ131053 ERU131050:ERU131053 EHY131050:EHY131053 DYC131050:DYC131053 DOG131050:DOG131053 DEK131050:DEK131053 CUO131050:CUO131053 CKS131050:CKS131053 CAW131050:CAW131053 BRA131050:BRA131053 BHE131050:BHE131053 AXI131050:AXI131053 ANM131050:ANM131053 ADQ131050:ADQ131053 TU131050:TU131053 JY131050:JY131053 AC131050:AC131053 WWK65514:WWK65517 WMO65514:WMO65517 WCS65514:WCS65517 VSW65514:VSW65517 VJA65514:VJA65517 UZE65514:UZE65517 UPI65514:UPI65517 UFM65514:UFM65517 TVQ65514:TVQ65517 TLU65514:TLU65517 TBY65514:TBY65517 SSC65514:SSC65517 SIG65514:SIG65517 RYK65514:RYK65517 ROO65514:ROO65517 RES65514:RES65517 QUW65514:QUW65517 QLA65514:QLA65517 QBE65514:QBE65517 PRI65514:PRI65517 PHM65514:PHM65517 OXQ65514:OXQ65517 ONU65514:ONU65517 ODY65514:ODY65517 NUC65514:NUC65517 NKG65514:NKG65517 NAK65514:NAK65517 MQO65514:MQO65517 MGS65514:MGS65517 LWW65514:LWW65517 LNA65514:LNA65517 LDE65514:LDE65517 KTI65514:KTI65517 KJM65514:KJM65517 JZQ65514:JZQ65517 JPU65514:JPU65517 JFY65514:JFY65517 IWC65514:IWC65517 IMG65514:IMG65517 ICK65514:ICK65517 HSO65514:HSO65517 HIS65514:HIS65517 GYW65514:GYW65517 GPA65514:GPA65517 GFE65514:GFE65517 FVI65514:FVI65517 FLM65514:FLM65517 FBQ65514:FBQ65517 ERU65514:ERU65517 EHY65514:EHY65517 DYC65514:DYC65517 DOG65514:DOG65517 DEK65514:DEK65517 CUO65514:CUO65517 CKS65514:CKS65517 CAW65514:CAW65517 BRA65514:BRA65517 BHE65514:BHE65517 AXI65514:AXI65517 ANM65514:ANM65517 ADQ65514:ADQ65517 TU65514:TU65517 JY65514:JY65517 AC65514:AC65517 WWI983018:WWI983021 WMM983018:WMM983021 WCQ983018:WCQ983021 VSU983018:VSU983021 VIY983018:VIY983021 UZC983018:UZC983021 UPG983018:UPG983021 UFK983018:UFK983021 TVO983018:TVO983021 TLS983018:TLS983021 TBW983018:TBW983021 SSA983018:SSA983021 SIE983018:SIE983021 RYI983018:RYI983021 ROM983018:ROM983021 REQ983018:REQ983021 QUU983018:QUU983021 QKY983018:QKY983021 QBC983018:QBC983021 PRG983018:PRG983021 PHK983018:PHK983021 OXO983018:OXO983021 ONS983018:ONS983021 ODW983018:ODW983021 NUA983018:NUA983021 NKE983018:NKE983021 NAI983018:NAI983021 MQM983018:MQM983021 MGQ983018:MGQ983021 LWU983018:LWU983021 LMY983018:LMY983021 LDC983018:LDC983021 KTG983018:KTG983021 KJK983018:KJK983021 JZO983018:JZO983021 JPS983018:JPS983021 JFW983018:JFW983021 IWA983018:IWA983021 IME983018:IME983021 ICI983018:ICI983021 HSM983018:HSM983021 HIQ983018:HIQ983021 GYU983018:GYU983021 GOY983018:GOY983021 GFC983018:GFC983021 FVG983018:FVG983021 FLK983018:FLK983021 FBO983018:FBO983021 ERS983018:ERS983021 EHW983018:EHW983021 DYA983018:DYA983021 DOE983018:DOE983021 DEI983018:DEI983021 CUM983018:CUM983021 CKQ983018:CKQ983021 CAU983018:CAU983021 BQY983018:BQY983021 BHC983018:BHC983021 AXG983018:AXG983021 ANK983018:ANK983021 ADO983018:ADO983021 TS983018:TS983021 JW983018:JW983021 AA983018:AA983021 WWI917482:WWI917485 WMM917482:WMM917485 WCQ917482:WCQ917485 VSU917482:VSU917485 VIY917482:VIY917485 UZC917482:UZC917485 UPG917482:UPG917485 UFK917482:UFK917485 TVO917482:TVO917485 TLS917482:TLS917485 TBW917482:TBW917485 SSA917482:SSA917485 SIE917482:SIE917485 RYI917482:RYI917485 ROM917482:ROM917485 REQ917482:REQ917485 QUU917482:QUU917485 QKY917482:QKY917485 QBC917482:QBC917485 PRG917482:PRG917485 PHK917482:PHK917485 OXO917482:OXO917485 ONS917482:ONS917485 ODW917482:ODW917485 NUA917482:NUA917485 NKE917482:NKE917485 NAI917482:NAI917485 MQM917482:MQM917485 MGQ917482:MGQ917485 LWU917482:LWU917485 LMY917482:LMY917485 LDC917482:LDC917485 KTG917482:KTG917485 KJK917482:KJK917485 JZO917482:JZO917485 JPS917482:JPS917485 JFW917482:JFW917485 IWA917482:IWA917485 IME917482:IME917485 ICI917482:ICI917485 HSM917482:HSM917485 HIQ917482:HIQ917485 GYU917482:GYU917485 GOY917482:GOY917485 GFC917482:GFC917485 FVG917482:FVG917485 FLK917482:FLK917485 FBO917482:FBO917485 ERS917482:ERS917485 EHW917482:EHW917485 DYA917482:DYA917485 DOE917482:DOE917485 DEI917482:DEI917485 CUM917482:CUM917485 CKQ917482:CKQ917485 CAU917482:CAU917485 BQY917482:BQY917485 BHC917482:BHC917485 AXG917482:AXG917485 ANK917482:ANK917485 ADO917482:ADO917485 TS917482:TS917485 JW917482:JW917485 AA917482:AA917485 WWI851946:WWI851949 WMM851946:WMM851949 WCQ851946:WCQ851949 VSU851946:VSU851949 VIY851946:VIY851949 UZC851946:UZC851949 UPG851946:UPG851949 UFK851946:UFK851949 TVO851946:TVO851949 TLS851946:TLS851949 TBW851946:TBW851949 SSA851946:SSA851949 SIE851946:SIE851949 RYI851946:RYI851949 ROM851946:ROM851949 REQ851946:REQ851949 QUU851946:QUU851949 QKY851946:QKY851949 QBC851946:QBC851949 PRG851946:PRG851949 PHK851946:PHK851949 OXO851946:OXO851949 ONS851946:ONS851949 ODW851946:ODW851949 NUA851946:NUA851949 NKE851946:NKE851949 NAI851946:NAI851949 MQM851946:MQM851949 MGQ851946:MGQ851949 LWU851946:LWU851949 LMY851946:LMY851949 LDC851946:LDC851949 KTG851946:KTG851949 KJK851946:KJK851949 JZO851946:JZO851949 JPS851946:JPS851949 JFW851946:JFW851949 IWA851946:IWA851949 IME851946:IME851949 ICI851946:ICI851949 HSM851946:HSM851949 HIQ851946:HIQ851949 GYU851946:GYU851949 GOY851946:GOY851949 GFC851946:GFC851949 FVG851946:FVG851949 FLK851946:FLK851949 FBO851946:FBO851949 ERS851946:ERS851949 EHW851946:EHW851949 DYA851946:DYA851949 DOE851946:DOE851949 DEI851946:DEI851949 CUM851946:CUM851949 CKQ851946:CKQ851949 CAU851946:CAU851949 BQY851946:BQY851949 BHC851946:BHC851949 AXG851946:AXG851949 ANK851946:ANK851949 ADO851946:ADO851949 TS851946:TS851949 JW851946:JW851949 AA851946:AA851949 WWI786410:WWI786413 WMM786410:WMM786413 WCQ786410:WCQ786413 VSU786410:VSU786413 VIY786410:VIY786413 UZC786410:UZC786413 UPG786410:UPG786413 UFK786410:UFK786413 TVO786410:TVO786413 TLS786410:TLS786413 TBW786410:TBW786413 SSA786410:SSA786413 SIE786410:SIE786413 RYI786410:RYI786413 ROM786410:ROM786413 REQ786410:REQ786413 QUU786410:QUU786413 QKY786410:QKY786413 QBC786410:QBC786413 PRG786410:PRG786413 PHK786410:PHK786413 OXO786410:OXO786413 ONS786410:ONS786413 ODW786410:ODW786413 NUA786410:NUA786413 NKE786410:NKE786413 NAI786410:NAI786413 MQM786410:MQM786413 MGQ786410:MGQ786413 LWU786410:LWU786413 LMY786410:LMY786413 LDC786410:LDC786413 KTG786410:KTG786413 KJK786410:KJK786413 JZO786410:JZO786413 JPS786410:JPS786413 JFW786410:JFW786413 IWA786410:IWA786413 IME786410:IME786413 ICI786410:ICI786413 HSM786410:HSM786413 HIQ786410:HIQ786413 GYU786410:GYU786413 GOY786410:GOY786413 GFC786410:GFC786413 FVG786410:FVG786413 FLK786410:FLK786413 FBO786410:FBO786413 ERS786410:ERS786413 EHW786410:EHW786413 DYA786410:DYA786413 DOE786410:DOE786413 DEI786410:DEI786413 CUM786410:CUM786413 CKQ786410:CKQ786413 CAU786410:CAU786413 BQY786410:BQY786413 BHC786410:BHC786413 AXG786410:AXG786413 ANK786410:ANK786413 ADO786410:ADO786413 TS786410:TS786413 JW786410:JW786413 AA786410:AA786413 WWI720874:WWI720877 WMM720874:WMM720877 WCQ720874:WCQ720877 VSU720874:VSU720877 VIY720874:VIY720877 UZC720874:UZC720877 UPG720874:UPG720877 UFK720874:UFK720877 TVO720874:TVO720877 TLS720874:TLS720877 TBW720874:TBW720877 SSA720874:SSA720877 SIE720874:SIE720877 RYI720874:RYI720877 ROM720874:ROM720877 REQ720874:REQ720877 QUU720874:QUU720877 QKY720874:QKY720877 QBC720874:QBC720877 PRG720874:PRG720877 PHK720874:PHK720877 OXO720874:OXO720877 ONS720874:ONS720877 ODW720874:ODW720877 NUA720874:NUA720877 NKE720874:NKE720877 NAI720874:NAI720877 MQM720874:MQM720877 MGQ720874:MGQ720877 LWU720874:LWU720877 LMY720874:LMY720877 LDC720874:LDC720877 KTG720874:KTG720877 KJK720874:KJK720877 JZO720874:JZO720877 JPS720874:JPS720877 JFW720874:JFW720877 IWA720874:IWA720877 IME720874:IME720877 ICI720874:ICI720877 HSM720874:HSM720877 HIQ720874:HIQ720877 GYU720874:GYU720877 GOY720874:GOY720877 GFC720874:GFC720877 FVG720874:FVG720877 FLK720874:FLK720877 FBO720874:FBO720877 ERS720874:ERS720877 EHW720874:EHW720877 DYA720874:DYA720877 DOE720874:DOE720877 DEI720874:DEI720877 CUM720874:CUM720877 CKQ720874:CKQ720877 CAU720874:CAU720877 BQY720874:BQY720877 BHC720874:BHC720877 AXG720874:AXG720877 ANK720874:ANK720877 ADO720874:ADO720877 TS720874:TS720877 JW720874:JW720877 AA720874:AA720877 WWI655338:WWI655341 WMM655338:WMM655341 WCQ655338:WCQ655341 VSU655338:VSU655341 VIY655338:VIY655341 UZC655338:UZC655341 UPG655338:UPG655341 UFK655338:UFK655341 TVO655338:TVO655341 TLS655338:TLS655341 TBW655338:TBW655341 SSA655338:SSA655341 SIE655338:SIE655341 RYI655338:RYI655341 ROM655338:ROM655341 REQ655338:REQ655341 QUU655338:QUU655341 QKY655338:QKY655341 QBC655338:QBC655341 PRG655338:PRG655341 PHK655338:PHK655341 OXO655338:OXO655341 ONS655338:ONS655341 ODW655338:ODW655341 NUA655338:NUA655341 NKE655338:NKE655341 NAI655338:NAI655341 MQM655338:MQM655341 MGQ655338:MGQ655341 LWU655338:LWU655341 LMY655338:LMY655341 LDC655338:LDC655341 KTG655338:KTG655341 KJK655338:KJK655341 JZO655338:JZO655341 JPS655338:JPS655341 JFW655338:JFW655341 IWA655338:IWA655341 IME655338:IME655341 ICI655338:ICI655341 HSM655338:HSM655341 HIQ655338:HIQ655341 GYU655338:GYU655341 GOY655338:GOY655341 GFC655338:GFC655341 FVG655338:FVG655341 FLK655338:FLK655341 FBO655338:FBO655341 ERS655338:ERS655341 EHW655338:EHW655341 DYA655338:DYA655341 DOE655338:DOE655341 DEI655338:DEI655341 CUM655338:CUM655341 CKQ655338:CKQ655341 CAU655338:CAU655341 BQY655338:BQY655341 BHC655338:BHC655341 AXG655338:AXG655341 ANK655338:ANK655341 ADO655338:ADO655341 TS655338:TS655341 JW655338:JW655341 AA655338:AA655341 WWI589802:WWI589805 WMM589802:WMM589805 WCQ589802:WCQ589805 VSU589802:VSU589805 VIY589802:VIY589805 UZC589802:UZC589805 UPG589802:UPG589805 UFK589802:UFK589805 TVO589802:TVO589805 TLS589802:TLS589805 TBW589802:TBW589805 SSA589802:SSA589805 SIE589802:SIE589805 RYI589802:RYI589805 ROM589802:ROM589805 REQ589802:REQ589805 QUU589802:QUU589805 QKY589802:QKY589805 QBC589802:QBC589805 PRG589802:PRG589805 PHK589802:PHK589805 OXO589802:OXO589805 ONS589802:ONS589805 ODW589802:ODW589805 NUA589802:NUA589805 NKE589802:NKE589805 NAI589802:NAI589805 MQM589802:MQM589805 MGQ589802:MGQ589805 LWU589802:LWU589805 LMY589802:LMY589805 LDC589802:LDC589805 KTG589802:KTG589805 KJK589802:KJK589805 JZO589802:JZO589805 JPS589802:JPS589805 JFW589802:JFW589805 IWA589802:IWA589805 IME589802:IME589805 ICI589802:ICI589805 HSM589802:HSM589805 HIQ589802:HIQ589805 GYU589802:GYU589805 GOY589802:GOY589805 GFC589802:GFC589805 FVG589802:FVG589805 FLK589802:FLK589805 FBO589802:FBO589805 ERS589802:ERS589805 EHW589802:EHW589805 DYA589802:DYA589805 DOE589802:DOE589805 DEI589802:DEI589805 CUM589802:CUM589805 CKQ589802:CKQ589805 CAU589802:CAU589805 BQY589802:BQY589805 BHC589802:BHC589805 AXG589802:AXG589805 ANK589802:ANK589805 ADO589802:ADO589805 TS589802:TS589805 JW589802:JW589805 AA589802:AA589805 WWI524266:WWI524269 WMM524266:WMM524269 WCQ524266:WCQ524269 VSU524266:VSU524269 VIY524266:VIY524269 UZC524266:UZC524269 UPG524266:UPG524269 UFK524266:UFK524269 TVO524266:TVO524269 TLS524266:TLS524269 TBW524266:TBW524269 SSA524266:SSA524269 SIE524266:SIE524269 RYI524266:RYI524269 ROM524266:ROM524269 REQ524266:REQ524269 QUU524266:QUU524269 QKY524266:QKY524269 QBC524266:QBC524269 PRG524266:PRG524269 PHK524266:PHK524269 OXO524266:OXO524269 ONS524266:ONS524269 ODW524266:ODW524269 NUA524266:NUA524269 NKE524266:NKE524269 NAI524266:NAI524269 MQM524266:MQM524269 MGQ524266:MGQ524269 LWU524266:LWU524269 LMY524266:LMY524269 LDC524266:LDC524269 KTG524266:KTG524269 KJK524266:KJK524269 JZO524266:JZO524269 JPS524266:JPS524269 JFW524266:JFW524269 IWA524266:IWA524269 IME524266:IME524269 ICI524266:ICI524269 HSM524266:HSM524269 HIQ524266:HIQ524269 GYU524266:GYU524269 GOY524266:GOY524269 GFC524266:GFC524269 FVG524266:FVG524269 FLK524266:FLK524269 FBO524266:FBO524269 ERS524266:ERS524269 EHW524266:EHW524269 DYA524266:DYA524269 DOE524266:DOE524269 DEI524266:DEI524269 CUM524266:CUM524269 CKQ524266:CKQ524269 CAU524266:CAU524269 BQY524266:BQY524269 BHC524266:BHC524269 AXG524266:AXG524269 ANK524266:ANK524269 ADO524266:ADO524269 TS524266:TS524269 JW524266:JW524269 AA524266:AA524269 WWI458730:WWI458733 WMM458730:WMM458733 WCQ458730:WCQ458733 VSU458730:VSU458733 VIY458730:VIY458733 UZC458730:UZC458733 UPG458730:UPG458733 UFK458730:UFK458733 TVO458730:TVO458733 TLS458730:TLS458733 TBW458730:TBW458733 SSA458730:SSA458733 SIE458730:SIE458733 RYI458730:RYI458733 ROM458730:ROM458733 REQ458730:REQ458733 QUU458730:QUU458733 QKY458730:QKY458733 QBC458730:QBC458733 PRG458730:PRG458733 PHK458730:PHK458733 OXO458730:OXO458733 ONS458730:ONS458733 ODW458730:ODW458733 NUA458730:NUA458733 NKE458730:NKE458733 NAI458730:NAI458733 MQM458730:MQM458733 MGQ458730:MGQ458733 LWU458730:LWU458733 LMY458730:LMY458733 LDC458730:LDC458733 KTG458730:KTG458733 KJK458730:KJK458733 JZO458730:JZO458733 JPS458730:JPS458733 JFW458730:JFW458733 IWA458730:IWA458733 IME458730:IME458733 ICI458730:ICI458733 HSM458730:HSM458733 HIQ458730:HIQ458733 GYU458730:GYU458733 GOY458730:GOY458733 GFC458730:GFC458733 FVG458730:FVG458733 FLK458730:FLK458733 FBO458730:FBO458733 ERS458730:ERS458733 EHW458730:EHW458733 DYA458730:DYA458733 DOE458730:DOE458733 DEI458730:DEI458733 CUM458730:CUM458733 CKQ458730:CKQ458733 CAU458730:CAU458733 BQY458730:BQY458733 BHC458730:BHC458733 AXG458730:AXG458733 ANK458730:ANK458733 ADO458730:ADO458733 TS458730:TS458733 JW458730:JW458733 AA458730:AA458733 WWI393194:WWI393197 WMM393194:WMM393197 WCQ393194:WCQ393197 VSU393194:VSU393197 VIY393194:VIY393197 UZC393194:UZC393197 UPG393194:UPG393197 UFK393194:UFK393197 TVO393194:TVO393197 TLS393194:TLS393197 TBW393194:TBW393197 SSA393194:SSA393197 SIE393194:SIE393197 RYI393194:RYI393197 ROM393194:ROM393197 REQ393194:REQ393197 QUU393194:QUU393197 QKY393194:QKY393197 QBC393194:QBC393197 PRG393194:PRG393197 PHK393194:PHK393197 OXO393194:OXO393197 ONS393194:ONS393197 ODW393194:ODW393197 NUA393194:NUA393197 NKE393194:NKE393197 NAI393194:NAI393197 MQM393194:MQM393197 MGQ393194:MGQ393197 LWU393194:LWU393197 LMY393194:LMY393197 LDC393194:LDC393197 KTG393194:KTG393197 KJK393194:KJK393197 JZO393194:JZO393197 JPS393194:JPS393197 JFW393194:JFW393197 IWA393194:IWA393197 IME393194:IME393197 ICI393194:ICI393197 HSM393194:HSM393197 HIQ393194:HIQ393197 GYU393194:GYU393197 GOY393194:GOY393197 GFC393194:GFC393197 FVG393194:FVG393197 FLK393194:FLK393197 FBO393194:FBO393197 ERS393194:ERS393197 EHW393194:EHW393197 DYA393194:DYA393197 DOE393194:DOE393197 DEI393194:DEI393197 CUM393194:CUM393197 CKQ393194:CKQ393197 CAU393194:CAU393197 BQY393194:BQY393197 BHC393194:BHC393197 AXG393194:AXG393197 ANK393194:ANK393197 ADO393194:ADO393197 TS393194:TS393197 JW393194:JW393197 AA393194:AA393197 WWI327658:WWI327661 WMM327658:WMM327661 WCQ327658:WCQ327661 VSU327658:VSU327661 VIY327658:VIY327661 UZC327658:UZC327661 UPG327658:UPG327661 UFK327658:UFK327661 TVO327658:TVO327661 TLS327658:TLS327661 TBW327658:TBW327661 SSA327658:SSA327661 SIE327658:SIE327661 RYI327658:RYI327661 ROM327658:ROM327661 REQ327658:REQ327661 QUU327658:QUU327661 QKY327658:QKY327661 QBC327658:QBC327661 PRG327658:PRG327661 PHK327658:PHK327661 OXO327658:OXO327661 ONS327658:ONS327661 ODW327658:ODW327661 NUA327658:NUA327661 NKE327658:NKE327661 NAI327658:NAI327661 MQM327658:MQM327661 MGQ327658:MGQ327661 LWU327658:LWU327661 LMY327658:LMY327661 LDC327658:LDC327661 KTG327658:KTG327661 KJK327658:KJK327661 JZO327658:JZO327661 JPS327658:JPS327661 JFW327658:JFW327661 IWA327658:IWA327661 IME327658:IME327661 ICI327658:ICI327661 HSM327658:HSM327661 HIQ327658:HIQ327661 GYU327658:GYU327661 GOY327658:GOY327661 GFC327658:GFC327661 FVG327658:FVG327661 FLK327658:FLK327661 FBO327658:FBO327661 ERS327658:ERS327661 EHW327658:EHW327661 DYA327658:DYA327661 DOE327658:DOE327661 DEI327658:DEI327661 CUM327658:CUM327661 CKQ327658:CKQ327661 CAU327658:CAU327661 BQY327658:BQY327661 BHC327658:BHC327661 AXG327658:AXG327661 ANK327658:ANK327661 ADO327658:ADO327661 TS327658:TS327661 JW327658:JW327661 AA327658:AA327661 WWI262122:WWI262125 WMM262122:WMM262125 WCQ262122:WCQ262125 VSU262122:VSU262125 VIY262122:VIY262125 UZC262122:UZC262125 UPG262122:UPG262125 UFK262122:UFK262125 TVO262122:TVO262125 TLS262122:TLS262125 TBW262122:TBW262125 SSA262122:SSA262125 SIE262122:SIE262125 RYI262122:RYI262125 ROM262122:ROM262125 REQ262122:REQ262125 QUU262122:QUU262125 QKY262122:QKY262125 QBC262122:QBC262125 PRG262122:PRG262125 PHK262122:PHK262125 OXO262122:OXO262125 ONS262122:ONS262125 ODW262122:ODW262125 NUA262122:NUA262125 NKE262122:NKE262125 NAI262122:NAI262125 MQM262122:MQM262125 MGQ262122:MGQ262125 LWU262122:LWU262125 LMY262122:LMY262125 LDC262122:LDC262125 KTG262122:KTG262125 KJK262122:KJK262125 JZO262122:JZO262125 JPS262122:JPS262125 JFW262122:JFW262125 IWA262122:IWA262125 IME262122:IME262125 ICI262122:ICI262125 HSM262122:HSM262125 HIQ262122:HIQ262125 GYU262122:GYU262125 GOY262122:GOY262125 GFC262122:GFC262125 FVG262122:FVG262125 FLK262122:FLK262125 FBO262122:FBO262125 ERS262122:ERS262125 EHW262122:EHW262125 DYA262122:DYA262125 DOE262122:DOE262125 DEI262122:DEI262125 CUM262122:CUM262125 CKQ262122:CKQ262125 CAU262122:CAU262125 BQY262122:BQY262125 BHC262122:BHC262125 AXG262122:AXG262125 ANK262122:ANK262125 ADO262122:ADO262125 TS262122:TS262125 JW262122:JW262125 AA262122:AA262125 WWI196586:WWI196589 WMM196586:WMM196589 WCQ196586:WCQ196589 VSU196586:VSU196589 VIY196586:VIY196589 UZC196586:UZC196589 UPG196586:UPG196589 UFK196586:UFK196589 TVO196586:TVO196589 TLS196586:TLS196589 TBW196586:TBW196589 SSA196586:SSA196589 SIE196586:SIE196589 RYI196586:RYI196589 ROM196586:ROM196589 REQ196586:REQ196589 QUU196586:QUU196589 QKY196586:QKY196589 QBC196586:QBC196589 PRG196586:PRG196589 PHK196586:PHK196589 OXO196586:OXO196589 ONS196586:ONS196589 ODW196586:ODW196589 NUA196586:NUA196589 NKE196586:NKE196589 NAI196586:NAI196589 MQM196586:MQM196589 MGQ196586:MGQ196589 LWU196586:LWU196589 LMY196586:LMY196589 LDC196586:LDC196589 KTG196586:KTG196589 KJK196586:KJK196589 JZO196586:JZO196589 JPS196586:JPS196589 JFW196586:JFW196589 IWA196586:IWA196589 IME196586:IME196589 ICI196586:ICI196589 HSM196586:HSM196589 HIQ196586:HIQ196589 GYU196586:GYU196589 GOY196586:GOY196589 GFC196586:GFC196589 FVG196586:FVG196589 FLK196586:FLK196589 FBO196586:FBO196589 ERS196586:ERS196589 EHW196586:EHW196589 DYA196586:DYA196589 DOE196586:DOE196589 DEI196586:DEI196589 CUM196586:CUM196589 CKQ196586:CKQ196589 CAU196586:CAU196589 BQY196586:BQY196589 BHC196586:BHC196589 AXG196586:AXG196589 ANK196586:ANK196589 ADO196586:ADO196589 TS196586:TS196589 JW196586:JW196589 AA196586:AA196589 WWI131050:WWI131053 WMM131050:WMM131053 WCQ131050:WCQ131053 VSU131050:VSU131053 VIY131050:VIY131053 UZC131050:UZC131053 UPG131050:UPG131053 UFK131050:UFK131053 TVO131050:TVO131053 TLS131050:TLS131053 TBW131050:TBW131053 SSA131050:SSA131053 SIE131050:SIE131053 RYI131050:RYI131053 ROM131050:ROM131053 REQ131050:REQ131053 QUU131050:QUU131053 QKY131050:QKY131053 QBC131050:QBC131053 PRG131050:PRG131053 PHK131050:PHK131053 OXO131050:OXO131053 ONS131050:ONS131053 ODW131050:ODW131053 NUA131050:NUA131053 NKE131050:NKE131053 NAI131050:NAI131053 MQM131050:MQM131053 MGQ131050:MGQ131053 LWU131050:LWU131053 LMY131050:LMY131053 LDC131050:LDC131053 KTG131050:KTG131053 KJK131050:KJK131053 JZO131050:JZO131053 JPS131050:JPS131053 JFW131050:JFW131053 IWA131050:IWA131053 IME131050:IME131053 ICI131050:ICI131053 HSM131050:HSM131053 HIQ131050:HIQ131053 GYU131050:GYU131053 GOY131050:GOY131053 GFC131050:GFC131053 FVG131050:FVG131053 FLK131050:FLK131053 FBO131050:FBO131053 ERS131050:ERS131053 EHW131050:EHW131053 DYA131050:DYA131053 DOE131050:DOE131053 DEI131050:DEI131053 CUM131050:CUM131053 CKQ131050:CKQ131053 CAU131050:CAU131053 BQY131050:BQY131053 BHC131050:BHC131053 AXG131050:AXG131053 ANK131050:ANK131053 ADO131050:ADO131053 TS131050:TS131053 JW131050:JW131053 AA131050:AA131053 WWI65514:WWI65517 WMM65514:WMM65517 WCQ65514:WCQ65517 VSU65514:VSU65517 VIY65514:VIY65517 UZC65514:UZC65517 UPG65514:UPG65517 UFK65514:UFK65517 TVO65514:TVO65517 TLS65514:TLS65517 TBW65514:TBW65517 SSA65514:SSA65517 SIE65514:SIE65517 RYI65514:RYI65517 ROM65514:ROM65517 REQ65514:REQ65517 QUU65514:QUU65517 QKY65514:QKY65517 QBC65514:QBC65517 PRG65514:PRG65517 PHK65514:PHK65517 OXO65514:OXO65517 ONS65514:ONS65517 ODW65514:ODW65517 NUA65514:NUA65517 NKE65514:NKE65517 NAI65514:NAI65517 MQM65514:MQM65517 MGQ65514:MGQ65517 LWU65514:LWU65517 LMY65514:LMY65517 LDC65514:LDC65517 KTG65514:KTG65517 KJK65514:KJK65517 JZO65514:JZO65517 JPS65514:JPS65517 JFW65514:JFW65517 IWA65514:IWA65517 IME65514:IME65517 ICI65514:ICI65517 HSM65514:HSM65517 HIQ65514:HIQ65517 GYU65514:GYU65517 GOY65514:GOY65517 GFC65514:GFC65517 FVG65514:FVG65517 FLK65514:FLK65517 FBO65514:FBO65517 ERS65514:ERS65517 EHW65514:EHW65517 DYA65514:DYA65517 DOE65514:DOE65517 DEI65514:DEI65517 CUM65514:CUM65517 CKQ65514:CKQ65517 CAU65514:CAU65517 BQY65514:BQY65517 BHC65514:BHC65517 AXG65514:AXG65517 ANK65514:ANK65517 ADO65514:ADO65517 TS65514:TS65517 JW65514:JW65517 AA65514:AA65517 WWG983018:WWG983021 WMK983018:WMK983021 WCO983018:WCO983021 VSS983018:VSS983021 VIW983018:VIW983021 UZA983018:UZA983021 UPE983018:UPE983021 UFI983018:UFI983021 TVM983018:TVM983021 TLQ983018:TLQ983021 TBU983018:TBU983021 SRY983018:SRY983021 SIC983018:SIC983021 RYG983018:RYG983021 ROK983018:ROK983021 REO983018:REO983021 QUS983018:QUS983021 QKW983018:QKW983021 QBA983018:QBA983021 PRE983018:PRE983021 PHI983018:PHI983021 OXM983018:OXM983021 ONQ983018:ONQ983021 ODU983018:ODU983021 NTY983018:NTY983021 NKC983018:NKC983021 NAG983018:NAG983021 MQK983018:MQK983021 MGO983018:MGO983021 LWS983018:LWS983021 LMW983018:LMW983021 LDA983018:LDA983021 KTE983018:KTE983021 KJI983018:KJI983021 JZM983018:JZM983021 JPQ983018:JPQ983021 JFU983018:JFU983021 IVY983018:IVY983021 IMC983018:IMC983021 ICG983018:ICG983021 HSK983018:HSK983021 HIO983018:HIO983021 GYS983018:GYS983021 GOW983018:GOW983021 GFA983018:GFA983021 FVE983018:FVE983021 FLI983018:FLI983021 FBM983018:FBM983021 ERQ983018:ERQ983021 EHU983018:EHU983021 DXY983018:DXY983021 DOC983018:DOC983021 DEG983018:DEG983021 CUK983018:CUK983021 CKO983018:CKO983021 CAS983018:CAS983021 BQW983018:BQW983021 BHA983018:BHA983021 AXE983018:AXE983021 ANI983018:ANI983021 ADM983018:ADM983021 TQ983018:TQ983021 JU983018:JU983021 Y983018:Y983021 WWG917482:WWG917485 WMK917482:WMK917485 WCO917482:WCO917485 VSS917482:VSS917485 VIW917482:VIW917485 UZA917482:UZA917485 UPE917482:UPE917485 UFI917482:UFI917485 TVM917482:TVM917485 TLQ917482:TLQ917485 TBU917482:TBU917485 SRY917482:SRY917485 SIC917482:SIC917485 RYG917482:RYG917485 ROK917482:ROK917485 REO917482:REO917485 QUS917482:QUS917485 QKW917482:QKW917485 QBA917482:QBA917485 PRE917482:PRE917485 PHI917482:PHI917485 OXM917482:OXM917485 ONQ917482:ONQ917485 ODU917482:ODU917485 NTY917482:NTY917485 NKC917482:NKC917485 NAG917482:NAG917485 MQK917482:MQK917485 MGO917482:MGO917485 LWS917482:LWS917485 LMW917482:LMW917485 LDA917482:LDA917485 KTE917482:KTE917485 KJI917482:KJI917485 JZM917482:JZM917485 JPQ917482:JPQ917485 JFU917482:JFU917485 IVY917482:IVY917485 IMC917482:IMC917485 ICG917482:ICG917485 HSK917482:HSK917485 HIO917482:HIO917485 GYS917482:GYS917485 GOW917482:GOW917485 GFA917482:GFA917485 FVE917482:FVE917485 FLI917482:FLI917485 FBM917482:FBM917485 ERQ917482:ERQ917485 EHU917482:EHU917485 DXY917482:DXY917485 DOC917482:DOC917485 DEG917482:DEG917485 CUK917482:CUK917485 CKO917482:CKO917485 CAS917482:CAS917485 BQW917482:BQW917485 BHA917482:BHA917485 AXE917482:AXE917485 ANI917482:ANI917485 ADM917482:ADM917485 TQ917482:TQ917485 JU917482:JU917485 Y917482:Y917485 WWG851946:WWG851949 WMK851946:WMK851949 WCO851946:WCO851949 VSS851946:VSS851949 VIW851946:VIW851949 UZA851946:UZA851949 UPE851946:UPE851949 UFI851946:UFI851949 TVM851946:TVM851949 TLQ851946:TLQ851949 TBU851946:TBU851949 SRY851946:SRY851949 SIC851946:SIC851949 RYG851946:RYG851949 ROK851946:ROK851949 REO851946:REO851949 QUS851946:QUS851949 QKW851946:QKW851949 QBA851946:QBA851949 PRE851946:PRE851949 PHI851946:PHI851949 OXM851946:OXM851949 ONQ851946:ONQ851949 ODU851946:ODU851949 NTY851946:NTY851949 NKC851946:NKC851949 NAG851946:NAG851949 MQK851946:MQK851949 MGO851946:MGO851949 LWS851946:LWS851949 LMW851946:LMW851949 LDA851946:LDA851949 KTE851946:KTE851949 KJI851946:KJI851949 JZM851946:JZM851949 JPQ851946:JPQ851949 JFU851946:JFU851949 IVY851946:IVY851949 IMC851946:IMC851949 ICG851946:ICG851949 HSK851946:HSK851949 HIO851946:HIO851949 GYS851946:GYS851949 GOW851946:GOW851949 GFA851946:GFA851949 FVE851946:FVE851949 FLI851946:FLI851949 FBM851946:FBM851949 ERQ851946:ERQ851949 EHU851946:EHU851949 DXY851946:DXY851949 DOC851946:DOC851949 DEG851946:DEG851949 CUK851946:CUK851949 CKO851946:CKO851949 CAS851946:CAS851949 BQW851946:BQW851949 BHA851946:BHA851949 AXE851946:AXE851949 ANI851946:ANI851949 ADM851946:ADM851949 TQ851946:TQ851949 JU851946:JU851949 Y851946:Y851949 WWG786410:WWG786413 WMK786410:WMK786413 WCO786410:WCO786413 VSS786410:VSS786413 VIW786410:VIW786413 UZA786410:UZA786413 UPE786410:UPE786413 UFI786410:UFI786413 TVM786410:TVM786413 TLQ786410:TLQ786413 TBU786410:TBU786413 SRY786410:SRY786413 SIC786410:SIC786413 RYG786410:RYG786413 ROK786410:ROK786413 REO786410:REO786413 QUS786410:QUS786413 QKW786410:QKW786413 QBA786410:QBA786413 PRE786410:PRE786413 PHI786410:PHI786413 OXM786410:OXM786413 ONQ786410:ONQ786413 ODU786410:ODU786413 NTY786410:NTY786413 NKC786410:NKC786413 NAG786410:NAG786413 MQK786410:MQK786413 MGO786410:MGO786413 LWS786410:LWS786413 LMW786410:LMW786413 LDA786410:LDA786413 KTE786410:KTE786413 KJI786410:KJI786413 JZM786410:JZM786413 JPQ786410:JPQ786413 JFU786410:JFU786413 IVY786410:IVY786413 IMC786410:IMC786413 ICG786410:ICG786413 HSK786410:HSK786413 HIO786410:HIO786413 GYS786410:GYS786413 GOW786410:GOW786413 GFA786410:GFA786413 FVE786410:FVE786413 FLI786410:FLI786413 FBM786410:FBM786413 ERQ786410:ERQ786413 EHU786410:EHU786413 DXY786410:DXY786413 DOC786410:DOC786413 DEG786410:DEG786413 CUK786410:CUK786413 CKO786410:CKO786413 CAS786410:CAS786413 BQW786410:BQW786413 BHA786410:BHA786413 AXE786410:AXE786413 ANI786410:ANI786413 ADM786410:ADM786413 TQ786410:TQ786413 JU786410:JU786413 Y786410:Y786413 WWG720874:WWG720877 WMK720874:WMK720877 WCO720874:WCO720877 VSS720874:VSS720877 VIW720874:VIW720877 UZA720874:UZA720877 UPE720874:UPE720877 UFI720874:UFI720877 TVM720874:TVM720877 TLQ720874:TLQ720877 TBU720874:TBU720877 SRY720874:SRY720877 SIC720874:SIC720877 RYG720874:RYG720877 ROK720874:ROK720877 REO720874:REO720877 QUS720874:QUS720877 QKW720874:QKW720877 QBA720874:QBA720877 PRE720874:PRE720877 PHI720874:PHI720877 OXM720874:OXM720877 ONQ720874:ONQ720877 ODU720874:ODU720877 NTY720874:NTY720877 NKC720874:NKC720877 NAG720874:NAG720877 MQK720874:MQK720877 MGO720874:MGO720877 LWS720874:LWS720877 LMW720874:LMW720877 LDA720874:LDA720877 KTE720874:KTE720877 KJI720874:KJI720877 JZM720874:JZM720877 JPQ720874:JPQ720877 JFU720874:JFU720877 IVY720874:IVY720877 IMC720874:IMC720877 ICG720874:ICG720877 HSK720874:HSK720877 HIO720874:HIO720877 GYS720874:GYS720877 GOW720874:GOW720877 GFA720874:GFA720877 FVE720874:FVE720877 FLI720874:FLI720877 FBM720874:FBM720877 ERQ720874:ERQ720877 EHU720874:EHU720877 DXY720874:DXY720877 DOC720874:DOC720877 DEG720874:DEG720877 CUK720874:CUK720877 CKO720874:CKO720877 CAS720874:CAS720877 BQW720874:BQW720877 BHA720874:BHA720877 AXE720874:AXE720877 ANI720874:ANI720877 ADM720874:ADM720877 TQ720874:TQ720877 JU720874:JU720877 Y720874:Y720877 WWG655338:WWG655341 WMK655338:WMK655341 WCO655338:WCO655341 VSS655338:VSS655341 VIW655338:VIW655341 UZA655338:UZA655341 UPE655338:UPE655341 UFI655338:UFI655341 TVM655338:TVM655341 TLQ655338:TLQ655341 TBU655338:TBU655341 SRY655338:SRY655341 SIC655338:SIC655341 RYG655338:RYG655341 ROK655338:ROK655341 REO655338:REO655341 QUS655338:QUS655341 QKW655338:QKW655341 QBA655338:QBA655341 PRE655338:PRE655341 PHI655338:PHI655341 OXM655338:OXM655341 ONQ655338:ONQ655341 ODU655338:ODU655341 NTY655338:NTY655341 NKC655338:NKC655341 NAG655338:NAG655341 MQK655338:MQK655341 MGO655338:MGO655341 LWS655338:LWS655341 LMW655338:LMW655341 LDA655338:LDA655341 KTE655338:KTE655341 KJI655338:KJI655341 JZM655338:JZM655341 JPQ655338:JPQ655341 JFU655338:JFU655341 IVY655338:IVY655341 IMC655338:IMC655341 ICG655338:ICG655341 HSK655338:HSK655341 HIO655338:HIO655341 GYS655338:GYS655341 GOW655338:GOW655341 GFA655338:GFA655341 FVE655338:FVE655341 FLI655338:FLI655341 FBM655338:FBM655341 ERQ655338:ERQ655341 EHU655338:EHU655341 DXY655338:DXY655341 DOC655338:DOC655341 DEG655338:DEG655341 CUK655338:CUK655341 CKO655338:CKO655341 CAS655338:CAS655341 BQW655338:BQW655341 BHA655338:BHA655341 AXE655338:AXE655341 ANI655338:ANI655341 ADM655338:ADM655341 TQ655338:TQ655341 JU655338:JU655341 Y655338:Y655341 WWG589802:WWG589805 WMK589802:WMK589805 WCO589802:WCO589805 VSS589802:VSS589805 VIW589802:VIW589805 UZA589802:UZA589805 UPE589802:UPE589805 UFI589802:UFI589805 TVM589802:TVM589805 TLQ589802:TLQ589805 TBU589802:TBU589805 SRY589802:SRY589805 SIC589802:SIC589805 RYG589802:RYG589805 ROK589802:ROK589805 REO589802:REO589805 QUS589802:QUS589805 QKW589802:QKW589805 QBA589802:QBA589805 PRE589802:PRE589805 PHI589802:PHI589805 OXM589802:OXM589805 ONQ589802:ONQ589805 ODU589802:ODU589805 NTY589802:NTY589805 NKC589802:NKC589805 NAG589802:NAG589805 MQK589802:MQK589805 MGO589802:MGO589805 LWS589802:LWS589805 LMW589802:LMW589805 LDA589802:LDA589805 KTE589802:KTE589805 KJI589802:KJI589805 JZM589802:JZM589805 JPQ589802:JPQ589805 JFU589802:JFU589805 IVY589802:IVY589805 IMC589802:IMC589805 ICG589802:ICG589805 HSK589802:HSK589805 HIO589802:HIO589805 GYS589802:GYS589805 GOW589802:GOW589805 GFA589802:GFA589805 FVE589802:FVE589805 FLI589802:FLI589805 FBM589802:FBM589805 ERQ589802:ERQ589805 EHU589802:EHU589805 DXY589802:DXY589805 DOC589802:DOC589805 DEG589802:DEG589805 CUK589802:CUK589805 CKO589802:CKO589805 CAS589802:CAS589805 BQW589802:BQW589805 BHA589802:BHA589805 AXE589802:AXE589805 ANI589802:ANI589805 ADM589802:ADM589805 TQ589802:TQ589805 JU589802:JU589805 Y589802:Y589805 WWG524266:WWG524269 WMK524266:WMK524269 WCO524266:WCO524269 VSS524266:VSS524269 VIW524266:VIW524269 UZA524266:UZA524269 UPE524266:UPE524269 UFI524266:UFI524269 TVM524266:TVM524269 TLQ524266:TLQ524269 TBU524266:TBU524269 SRY524266:SRY524269 SIC524266:SIC524269 RYG524266:RYG524269 ROK524266:ROK524269 REO524266:REO524269 QUS524266:QUS524269 QKW524266:QKW524269 QBA524266:QBA524269 PRE524266:PRE524269 PHI524266:PHI524269 OXM524266:OXM524269 ONQ524266:ONQ524269 ODU524266:ODU524269 NTY524266:NTY524269 NKC524266:NKC524269 NAG524266:NAG524269 MQK524266:MQK524269 MGO524266:MGO524269 LWS524266:LWS524269 LMW524266:LMW524269 LDA524266:LDA524269 KTE524266:KTE524269 KJI524266:KJI524269 JZM524266:JZM524269 JPQ524266:JPQ524269 JFU524266:JFU524269 IVY524266:IVY524269 IMC524266:IMC524269 ICG524266:ICG524269 HSK524266:HSK524269 HIO524266:HIO524269 GYS524266:GYS524269 GOW524266:GOW524269 GFA524266:GFA524269 FVE524266:FVE524269 FLI524266:FLI524269 FBM524266:FBM524269 ERQ524266:ERQ524269 EHU524266:EHU524269 DXY524266:DXY524269 DOC524266:DOC524269 DEG524266:DEG524269 CUK524266:CUK524269 CKO524266:CKO524269 CAS524266:CAS524269 BQW524266:BQW524269 BHA524266:BHA524269 AXE524266:AXE524269 ANI524266:ANI524269 ADM524266:ADM524269 TQ524266:TQ524269 JU524266:JU524269 Y524266:Y524269 WWG458730:WWG458733 WMK458730:WMK458733 WCO458730:WCO458733 VSS458730:VSS458733 VIW458730:VIW458733 UZA458730:UZA458733 UPE458730:UPE458733 UFI458730:UFI458733 TVM458730:TVM458733 TLQ458730:TLQ458733 TBU458730:TBU458733 SRY458730:SRY458733 SIC458730:SIC458733 RYG458730:RYG458733 ROK458730:ROK458733 REO458730:REO458733 QUS458730:QUS458733 QKW458730:QKW458733 QBA458730:QBA458733 PRE458730:PRE458733 PHI458730:PHI458733 OXM458730:OXM458733 ONQ458730:ONQ458733 ODU458730:ODU458733 NTY458730:NTY458733 NKC458730:NKC458733 NAG458730:NAG458733 MQK458730:MQK458733 MGO458730:MGO458733 LWS458730:LWS458733 LMW458730:LMW458733 LDA458730:LDA458733 KTE458730:KTE458733 KJI458730:KJI458733 JZM458730:JZM458733 JPQ458730:JPQ458733 JFU458730:JFU458733 IVY458730:IVY458733 IMC458730:IMC458733 ICG458730:ICG458733 HSK458730:HSK458733 HIO458730:HIO458733 GYS458730:GYS458733 GOW458730:GOW458733 GFA458730:GFA458733 FVE458730:FVE458733 FLI458730:FLI458733 FBM458730:FBM458733 ERQ458730:ERQ458733 EHU458730:EHU458733 DXY458730:DXY458733 DOC458730:DOC458733 DEG458730:DEG458733 CUK458730:CUK458733 CKO458730:CKO458733 CAS458730:CAS458733 BQW458730:BQW458733 BHA458730:BHA458733 AXE458730:AXE458733 ANI458730:ANI458733 ADM458730:ADM458733 TQ458730:TQ458733 JU458730:JU458733 Y458730:Y458733 WWG393194:WWG393197 WMK393194:WMK393197 WCO393194:WCO393197 VSS393194:VSS393197 VIW393194:VIW393197 UZA393194:UZA393197 UPE393194:UPE393197 UFI393194:UFI393197 TVM393194:TVM393197 TLQ393194:TLQ393197 TBU393194:TBU393197 SRY393194:SRY393197 SIC393194:SIC393197 RYG393194:RYG393197 ROK393194:ROK393197 REO393194:REO393197 QUS393194:QUS393197 QKW393194:QKW393197 QBA393194:QBA393197 PRE393194:PRE393197 PHI393194:PHI393197 OXM393194:OXM393197 ONQ393194:ONQ393197 ODU393194:ODU393197 NTY393194:NTY393197 NKC393194:NKC393197 NAG393194:NAG393197 MQK393194:MQK393197 MGO393194:MGO393197 LWS393194:LWS393197 LMW393194:LMW393197 LDA393194:LDA393197 KTE393194:KTE393197 KJI393194:KJI393197 JZM393194:JZM393197 JPQ393194:JPQ393197 JFU393194:JFU393197 IVY393194:IVY393197 IMC393194:IMC393197 ICG393194:ICG393197 HSK393194:HSK393197 HIO393194:HIO393197 GYS393194:GYS393197 GOW393194:GOW393197 GFA393194:GFA393197 FVE393194:FVE393197 FLI393194:FLI393197 FBM393194:FBM393197 ERQ393194:ERQ393197 EHU393194:EHU393197 DXY393194:DXY393197 DOC393194:DOC393197 DEG393194:DEG393197 CUK393194:CUK393197 CKO393194:CKO393197 CAS393194:CAS393197 BQW393194:BQW393197 BHA393194:BHA393197 AXE393194:AXE393197 ANI393194:ANI393197 ADM393194:ADM393197 TQ393194:TQ393197 JU393194:JU393197 Y393194:Y393197 WWG327658:WWG327661 WMK327658:WMK327661 WCO327658:WCO327661 VSS327658:VSS327661 VIW327658:VIW327661 UZA327658:UZA327661 UPE327658:UPE327661 UFI327658:UFI327661 TVM327658:TVM327661 TLQ327658:TLQ327661 TBU327658:TBU327661 SRY327658:SRY327661 SIC327658:SIC327661 RYG327658:RYG327661 ROK327658:ROK327661 REO327658:REO327661 QUS327658:QUS327661 QKW327658:QKW327661 QBA327658:QBA327661 PRE327658:PRE327661 PHI327658:PHI327661 OXM327658:OXM327661 ONQ327658:ONQ327661 ODU327658:ODU327661 NTY327658:NTY327661 NKC327658:NKC327661 NAG327658:NAG327661 MQK327658:MQK327661 MGO327658:MGO327661 LWS327658:LWS327661 LMW327658:LMW327661 LDA327658:LDA327661 KTE327658:KTE327661 KJI327658:KJI327661 JZM327658:JZM327661 JPQ327658:JPQ327661 JFU327658:JFU327661 IVY327658:IVY327661 IMC327658:IMC327661 ICG327658:ICG327661 HSK327658:HSK327661 HIO327658:HIO327661 GYS327658:GYS327661 GOW327658:GOW327661 GFA327658:GFA327661 FVE327658:FVE327661 FLI327658:FLI327661 FBM327658:FBM327661 ERQ327658:ERQ327661 EHU327658:EHU327661 DXY327658:DXY327661 DOC327658:DOC327661 DEG327658:DEG327661 CUK327658:CUK327661 CKO327658:CKO327661 CAS327658:CAS327661 BQW327658:BQW327661 BHA327658:BHA327661 AXE327658:AXE327661 ANI327658:ANI327661 ADM327658:ADM327661 TQ327658:TQ327661 JU327658:JU327661 Y327658:Y327661 WWG262122:WWG262125 WMK262122:WMK262125 WCO262122:WCO262125 VSS262122:VSS262125 VIW262122:VIW262125 UZA262122:UZA262125 UPE262122:UPE262125 UFI262122:UFI262125 TVM262122:TVM262125 TLQ262122:TLQ262125 TBU262122:TBU262125 SRY262122:SRY262125 SIC262122:SIC262125 RYG262122:RYG262125 ROK262122:ROK262125 REO262122:REO262125 QUS262122:QUS262125 QKW262122:QKW262125 QBA262122:QBA262125 PRE262122:PRE262125 PHI262122:PHI262125 OXM262122:OXM262125 ONQ262122:ONQ262125 ODU262122:ODU262125 NTY262122:NTY262125 NKC262122:NKC262125 NAG262122:NAG262125 MQK262122:MQK262125 MGO262122:MGO262125 LWS262122:LWS262125 LMW262122:LMW262125 LDA262122:LDA262125 KTE262122:KTE262125 KJI262122:KJI262125 JZM262122:JZM262125 JPQ262122:JPQ262125 JFU262122:JFU262125 IVY262122:IVY262125 IMC262122:IMC262125 ICG262122:ICG262125 HSK262122:HSK262125 HIO262122:HIO262125 GYS262122:GYS262125 GOW262122:GOW262125 GFA262122:GFA262125 FVE262122:FVE262125 FLI262122:FLI262125 FBM262122:FBM262125 ERQ262122:ERQ262125 EHU262122:EHU262125 DXY262122:DXY262125 DOC262122:DOC262125 DEG262122:DEG262125 CUK262122:CUK262125 CKO262122:CKO262125 CAS262122:CAS262125 BQW262122:BQW262125 BHA262122:BHA262125 AXE262122:AXE262125 ANI262122:ANI262125 ADM262122:ADM262125 TQ262122:TQ262125 JU262122:JU262125 Y262122:Y262125 WWG196586:WWG196589 WMK196586:WMK196589 WCO196586:WCO196589 VSS196586:VSS196589 VIW196586:VIW196589 UZA196586:UZA196589 UPE196586:UPE196589 UFI196586:UFI196589 TVM196586:TVM196589 TLQ196586:TLQ196589 TBU196586:TBU196589 SRY196586:SRY196589 SIC196586:SIC196589 RYG196586:RYG196589 ROK196586:ROK196589 REO196586:REO196589 QUS196586:QUS196589 QKW196586:QKW196589 QBA196586:QBA196589 PRE196586:PRE196589 PHI196586:PHI196589 OXM196586:OXM196589 ONQ196586:ONQ196589 ODU196586:ODU196589 NTY196586:NTY196589 NKC196586:NKC196589 NAG196586:NAG196589 MQK196586:MQK196589 MGO196586:MGO196589 LWS196586:LWS196589 LMW196586:LMW196589 LDA196586:LDA196589 KTE196586:KTE196589 KJI196586:KJI196589 JZM196586:JZM196589 JPQ196586:JPQ196589 JFU196586:JFU196589 IVY196586:IVY196589 IMC196586:IMC196589 ICG196586:ICG196589 HSK196586:HSK196589 HIO196586:HIO196589 GYS196586:GYS196589 GOW196586:GOW196589 GFA196586:GFA196589 FVE196586:FVE196589 FLI196586:FLI196589 FBM196586:FBM196589 ERQ196586:ERQ196589 EHU196586:EHU196589 DXY196586:DXY196589 DOC196586:DOC196589 DEG196586:DEG196589 CUK196586:CUK196589 CKO196586:CKO196589 CAS196586:CAS196589 BQW196586:BQW196589 BHA196586:BHA196589 AXE196586:AXE196589 ANI196586:ANI196589 ADM196586:ADM196589 TQ196586:TQ196589 JU196586:JU196589 Y196586:Y196589 WWG131050:WWG131053 WMK131050:WMK131053 WCO131050:WCO131053 VSS131050:VSS131053 VIW131050:VIW131053 UZA131050:UZA131053 UPE131050:UPE131053 UFI131050:UFI131053 TVM131050:TVM131053 TLQ131050:TLQ131053 TBU131050:TBU131053 SRY131050:SRY131053 SIC131050:SIC131053 RYG131050:RYG131053 ROK131050:ROK131053 REO131050:REO131053 QUS131050:QUS131053 QKW131050:QKW131053 QBA131050:QBA131053 PRE131050:PRE131053 PHI131050:PHI131053 OXM131050:OXM131053 ONQ131050:ONQ131053 ODU131050:ODU131053 NTY131050:NTY131053 NKC131050:NKC131053 NAG131050:NAG131053 MQK131050:MQK131053 MGO131050:MGO131053 LWS131050:LWS131053 LMW131050:LMW131053 LDA131050:LDA131053 KTE131050:KTE131053 KJI131050:KJI131053 JZM131050:JZM131053 JPQ131050:JPQ131053 JFU131050:JFU131053 IVY131050:IVY131053 IMC131050:IMC131053 ICG131050:ICG131053 HSK131050:HSK131053 HIO131050:HIO131053 GYS131050:GYS131053 GOW131050:GOW131053 GFA131050:GFA131053 FVE131050:FVE131053 FLI131050:FLI131053 FBM131050:FBM131053 ERQ131050:ERQ131053 EHU131050:EHU131053 DXY131050:DXY131053 DOC131050:DOC131053 DEG131050:DEG131053 CUK131050:CUK131053 CKO131050:CKO131053 CAS131050:CAS131053 BQW131050:BQW131053 BHA131050:BHA131053 AXE131050:AXE131053 ANI131050:ANI131053 ADM131050:ADM131053 TQ131050:TQ131053 JU131050:JU131053 Y131050:Y131053 WWG65514:WWG65517 WMK65514:WMK65517 WCO65514:WCO65517 VSS65514:VSS65517 VIW65514:VIW65517 UZA65514:UZA65517 UPE65514:UPE65517 UFI65514:UFI65517 TVM65514:TVM65517 TLQ65514:TLQ65517 TBU65514:TBU65517 SRY65514:SRY65517 SIC65514:SIC65517 RYG65514:RYG65517 ROK65514:ROK65517 REO65514:REO65517 QUS65514:QUS65517 QKW65514:QKW65517 QBA65514:QBA65517 PRE65514:PRE65517 PHI65514:PHI65517 OXM65514:OXM65517 ONQ65514:ONQ65517 ODU65514:ODU65517 NTY65514:NTY65517 NKC65514:NKC65517 NAG65514:NAG65517 MQK65514:MQK65517 MGO65514:MGO65517 LWS65514:LWS65517 LMW65514:LMW65517 LDA65514:LDA65517 KTE65514:KTE65517 KJI65514:KJI65517 JZM65514:JZM65517 JPQ65514:JPQ65517 JFU65514:JFU65517 IVY65514:IVY65517 IMC65514:IMC65517 ICG65514:ICG65517 HSK65514:HSK65517 HIO65514:HIO65517 GYS65514:GYS65517 GOW65514:GOW65517 GFA65514:GFA65517 FVE65514:FVE65517 FLI65514:FLI65517 FBM65514:FBM65517 ERQ65514:ERQ65517 EHU65514:EHU65517 DXY65514:DXY65517 DOC65514:DOC65517 DEG65514:DEG65517 CUK65514:CUK65517 CKO65514:CKO65517 CAS65514:CAS65517 BQW65514:BQW65517 BHA65514:BHA65517 AXE65514:AXE65517 ANI65514:ANI65517 ADM65514:ADM65517 TQ65514:TQ65517 JU65514:JU65517">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z65514:Z65517 WWF983018:WWF983021 WMJ983018:WMJ983021 WCN983018:WCN983021 VSR983018:VSR983021 VIV983018:VIV983021 UYZ983018:UYZ983021 UPD983018:UPD983021 UFH983018:UFH983021 TVL983018:TVL983021 TLP983018:TLP983021 TBT983018:TBT983021 SRX983018:SRX983021 SIB983018:SIB983021 RYF983018:RYF983021 ROJ983018:ROJ983021 REN983018:REN983021 QUR983018:QUR983021 QKV983018:QKV983021 QAZ983018:QAZ983021 PRD983018:PRD983021 PHH983018:PHH983021 OXL983018:OXL983021 ONP983018:ONP983021 ODT983018:ODT983021 NTX983018:NTX983021 NKB983018:NKB983021 NAF983018:NAF983021 MQJ983018:MQJ983021 MGN983018:MGN983021 LWR983018:LWR983021 LMV983018:LMV983021 LCZ983018:LCZ983021 KTD983018:KTD983021 KJH983018:KJH983021 JZL983018:JZL983021 JPP983018:JPP983021 JFT983018:JFT983021 IVX983018:IVX983021 IMB983018:IMB983021 ICF983018:ICF983021 HSJ983018:HSJ983021 HIN983018:HIN983021 GYR983018:GYR983021 GOV983018:GOV983021 GEZ983018:GEZ983021 FVD983018:FVD983021 FLH983018:FLH983021 FBL983018:FBL983021 ERP983018:ERP983021 EHT983018:EHT983021 DXX983018:DXX983021 DOB983018:DOB983021 DEF983018:DEF983021 CUJ983018:CUJ983021 CKN983018:CKN983021 CAR983018:CAR983021 BQV983018:BQV983021 BGZ983018:BGZ983021 AXD983018:AXD983021 ANH983018:ANH983021 ADL983018:ADL983021 TP983018:TP983021 JT983018:JT983021 X983018:X983021 WWF917482:WWF917485 WMJ917482:WMJ917485 WCN917482:WCN917485 VSR917482:VSR917485 VIV917482:VIV917485 UYZ917482:UYZ917485 UPD917482:UPD917485 UFH917482:UFH917485 TVL917482:TVL917485 TLP917482:TLP917485 TBT917482:TBT917485 SRX917482:SRX917485 SIB917482:SIB917485 RYF917482:RYF917485 ROJ917482:ROJ917485 REN917482:REN917485 QUR917482:QUR917485 QKV917482:QKV917485 QAZ917482:QAZ917485 PRD917482:PRD917485 PHH917482:PHH917485 OXL917482:OXL917485 ONP917482:ONP917485 ODT917482:ODT917485 NTX917482:NTX917485 NKB917482:NKB917485 NAF917482:NAF917485 MQJ917482:MQJ917485 MGN917482:MGN917485 LWR917482:LWR917485 LMV917482:LMV917485 LCZ917482:LCZ917485 KTD917482:KTD917485 KJH917482:KJH917485 JZL917482:JZL917485 JPP917482:JPP917485 JFT917482:JFT917485 IVX917482:IVX917485 IMB917482:IMB917485 ICF917482:ICF917485 HSJ917482:HSJ917485 HIN917482:HIN917485 GYR917482:GYR917485 GOV917482:GOV917485 GEZ917482:GEZ917485 FVD917482:FVD917485 FLH917482:FLH917485 FBL917482:FBL917485 ERP917482:ERP917485 EHT917482:EHT917485 DXX917482:DXX917485 DOB917482:DOB917485 DEF917482:DEF917485 CUJ917482:CUJ917485 CKN917482:CKN917485 CAR917482:CAR917485 BQV917482:BQV917485 BGZ917482:BGZ917485 AXD917482:AXD917485 ANH917482:ANH917485 ADL917482:ADL917485 TP917482:TP917485 JT917482:JT917485 X917482:X917485 WWF851946:WWF851949 WMJ851946:WMJ851949 WCN851946:WCN851949 VSR851946:VSR851949 VIV851946:VIV851949 UYZ851946:UYZ851949 UPD851946:UPD851949 UFH851946:UFH851949 TVL851946:TVL851949 TLP851946:TLP851949 TBT851946:TBT851949 SRX851946:SRX851949 SIB851946:SIB851949 RYF851946:RYF851949 ROJ851946:ROJ851949 REN851946:REN851949 QUR851946:QUR851949 QKV851946:QKV851949 QAZ851946:QAZ851949 PRD851946:PRD851949 PHH851946:PHH851949 OXL851946:OXL851949 ONP851946:ONP851949 ODT851946:ODT851949 NTX851946:NTX851949 NKB851946:NKB851949 NAF851946:NAF851949 MQJ851946:MQJ851949 MGN851946:MGN851949 LWR851946:LWR851949 LMV851946:LMV851949 LCZ851946:LCZ851949 KTD851946:KTD851949 KJH851946:KJH851949 JZL851946:JZL851949 JPP851946:JPP851949 JFT851946:JFT851949 IVX851946:IVX851949 IMB851946:IMB851949 ICF851946:ICF851949 HSJ851946:HSJ851949 HIN851946:HIN851949 GYR851946:GYR851949 GOV851946:GOV851949 GEZ851946:GEZ851949 FVD851946:FVD851949 FLH851946:FLH851949 FBL851946:FBL851949 ERP851946:ERP851949 EHT851946:EHT851949 DXX851946:DXX851949 DOB851946:DOB851949 DEF851946:DEF851949 CUJ851946:CUJ851949 CKN851946:CKN851949 CAR851946:CAR851949 BQV851946:BQV851949 BGZ851946:BGZ851949 AXD851946:AXD851949 ANH851946:ANH851949 ADL851946:ADL851949 TP851946:TP851949 JT851946:JT851949 X851946:X851949 WWF786410:WWF786413 WMJ786410:WMJ786413 WCN786410:WCN786413 VSR786410:VSR786413 VIV786410:VIV786413 UYZ786410:UYZ786413 UPD786410:UPD786413 UFH786410:UFH786413 TVL786410:TVL786413 TLP786410:TLP786413 TBT786410:TBT786413 SRX786410:SRX786413 SIB786410:SIB786413 RYF786410:RYF786413 ROJ786410:ROJ786413 REN786410:REN786413 QUR786410:QUR786413 QKV786410:QKV786413 QAZ786410:QAZ786413 PRD786410:PRD786413 PHH786410:PHH786413 OXL786410:OXL786413 ONP786410:ONP786413 ODT786410:ODT786413 NTX786410:NTX786413 NKB786410:NKB786413 NAF786410:NAF786413 MQJ786410:MQJ786413 MGN786410:MGN786413 LWR786410:LWR786413 LMV786410:LMV786413 LCZ786410:LCZ786413 KTD786410:KTD786413 KJH786410:KJH786413 JZL786410:JZL786413 JPP786410:JPP786413 JFT786410:JFT786413 IVX786410:IVX786413 IMB786410:IMB786413 ICF786410:ICF786413 HSJ786410:HSJ786413 HIN786410:HIN786413 GYR786410:GYR786413 GOV786410:GOV786413 GEZ786410:GEZ786413 FVD786410:FVD786413 FLH786410:FLH786413 FBL786410:FBL786413 ERP786410:ERP786413 EHT786410:EHT786413 DXX786410:DXX786413 DOB786410:DOB786413 DEF786410:DEF786413 CUJ786410:CUJ786413 CKN786410:CKN786413 CAR786410:CAR786413 BQV786410:BQV786413 BGZ786410:BGZ786413 AXD786410:AXD786413 ANH786410:ANH786413 ADL786410:ADL786413 TP786410:TP786413 JT786410:JT786413 X786410:X786413 WWF720874:WWF720877 WMJ720874:WMJ720877 WCN720874:WCN720877 VSR720874:VSR720877 VIV720874:VIV720877 UYZ720874:UYZ720877 UPD720874:UPD720877 UFH720874:UFH720877 TVL720874:TVL720877 TLP720874:TLP720877 TBT720874:TBT720877 SRX720874:SRX720877 SIB720874:SIB720877 RYF720874:RYF720877 ROJ720874:ROJ720877 REN720874:REN720877 QUR720874:QUR720877 QKV720874:QKV720877 QAZ720874:QAZ720877 PRD720874:PRD720877 PHH720874:PHH720877 OXL720874:OXL720877 ONP720874:ONP720877 ODT720874:ODT720877 NTX720874:NTX720877 NKB720874:NKB720877 NAF720874:NAF720877 MQJ720874:MQJ720877 MGN720874:MGN720877 LWR720874:LWR720877 LMV720874:LMV720877 LCZ720874:LCZ720877 KTD720874:KTD720877 KJH720874:KJH720877 JZL720874:JZL720877 JPP720874:JPP720877 JFT720874:JFT720877 IVX720874:IVX720877 IMB720874:IMB720877 ICF720874:ICF720877 HSJ720874:HSJ720877 HIN720874:HIN720877 GYR720874:GYR720877 GOV720874:GOV720877 GEZ720874:GEZ720877 FVD720874:FVD720877 FLH720874:FLH720877 FBL720874:FBL720877 ERP720874:ERP720877 EHT720874:EHT720877 DXX720874:DXX720877 DOB720874:DOB720877 DEF720874:DEF720877 CUJ720874:CUJ720877 CKN720874:CKN720877 CAR720874:CAR720877 BQV720874:BQV720877 BGZ720874:BGZ720877 AXD720874:AXD720877 ANH720874:ANH720877 ADL720874:ADL720877 TP720874:TP720877 JT720874:JT720877 X720874:X720877 WWF655338:WWF655341 WMJ655338:WMJ655341 WCN655338:WCN655341 VSR655338:VSR655341 VIV655338:VIV655341 UYZ655338:UYZ655341 UPD655338:UPD655341 UFH655338:UFH655341 TVL655338:TVL655341 TLP655338:TLP655341 TBT655338:TBT655341 SRX655338:SRX655341 SIB655338:SIB655341 RYF655338:RYF655341 ROJ655338:ROJ655341 REN655338:REN655341 QUR655338:QUR655341 QKV655338:QKV655341 QAZ655338:QAZ655341 PRD655338:PRD655341 PHH655338:PHH655341 OXL655338:OXL655341 ONP655338:ONP655341 ODT655338:ODT655341 NTX655338:NTX655341 NKB655338:NKB655341 NAF655338:NAF655341 MQJ655338:MQJ655341 MGN655338:MGN655341 LWR655338:LWR655341 LMV655338:LMV655341 LCZ655338:LCZ655341 KTD655338:KTD655341 KJH655338:KJH655341 JZL655338:JZL655341 JPP655338:JPP655341 JFT655338:JFT655341 IVX655338:IVX655341 IMB655338:IMB655341 ICF655338:ICF655341 HSJ655338:HSJ655341 HIN655338:HIN655341 GYR655338:GYR655341 GOV655338:GOV655341 GEZ655338:GEZ655341 FVD655338:FVD655341 FLH655338:FLH655341 FBL655338:FBL655341 ERP655338:ERP655341 EHT655338:EHT655341 DXX655338:DXX655341 DOB655338:DOB655341 DEF655338:DEF655341 CUJ655338:CUJ655341 CKN655338:CKN655341 CAR655338:CAR655341 BQV655338:BQV655341 BGZ655338:BGZ655341 AXD655338:AXD655341 ANH655338:ANH655341 ADL655338:ADL655341 TP655338:TP655341 JT655338:JT655341 X655338:X655341 WWF589802:WWF589805 WMJ589802:WMJ589805 WCN589802:WCN589805 VSR589802:VSR589805 VIV589802:VIV589805 UYZ589802:UYZ589805 UPD589802:UPD589805 UFH589802:UFH589805 TVL589802:TVL589805 TLP589802:TLP589805 TBT589802:TBT589805 SRX589802:SRX589805 SIB589802:SIB589805 RYF589802:RYF589805 ROJ589802:ROJ589805 REN589802:REN589805 QUR589802:QUR589805 QKV589802:QKV589805 QAZ589802:QAZ589805 PRD589802:PRD589805 PHH589802:PHH589805 OXL589802:OXL589805 ONP589802:ONP589805 ODT589802:ODT589805 NTX589802:NTX589805 NKB589802:NKB589805 NAF589802:NAF589805 MQJ589802:MQJ589805 MGN589802:MGN589805 LWR589802:LWR589805 LMV589802:LMV589805 LCZ589802:LCZ589805 KTD589802:KTD589805 KJH589802:KJH589805 JZL589802:JZL589805 JPP589802:JPP589805 JFT589802:JFT589805 IVX589802:IVX589805 IMB589802:IMB589805 ICF589802:ICF589805 HSJ589802:HSJ589805 HIN589802:HIN589805 GYR589802:GYR589805 GOV589802:GOV589805 GEZ589802:GEZ589805 FVD589802:FVD589805 FLH589802:FLH589805 FBL589802:FBL589805 ERP589802:ERP589805 EHT589802:EHT589805 DXX589802:DXX589805 DOB589802:DOB589805 DEF589802:DEF589805 CUJ589802:CUJ589805 CKN589802:CKN589805 CAR589802:CAR589805 BQV589802:BQV589805 BGZ589802:BGZ589805 AXD589802:AXD589805 ANH589802:ANH589805 ADL589802:ADL589805 TP589802:TP589805 JT589802:JT589805 X589802:X589805 WWF524266:WWF524269 WMJ524266:WMJ524269 WCN524266:WCN524269 VSR524266:VSR524269 VIV524266:VIV524269 UYZ524266:UYZ524269 UPD524266:UPD524269 UFH524266:UFH524269 TVL524266:TVL524269 TLP524266:TLP524269 TBT524266:TBT524269 SRX524266:SRX524269 SIB524266:SIB524269 RYF524266:RYF524269 ROJ524266:ROJ524269 REN524266:REN524269 QUR524266:QUR524269 QKV524266:QKV524269 QAZ524266:QAZ524269 PRD524266:PRD524269 PHH524266:PHH524269 OXL524266:OXL524269 ONP524266:ONP524269 ODT524266:ODT524269 NTX524266:NTX524269 NKB524266:NKB524269 NAF524266:NAF524269 MQJ524266:MQJ524269 MGN524266:MGN524269 LWR524266:LWR524269 LMV524266:LMV524269 LCZ524266:LCZ524269 KTD524266:KTD524269 KJH524266:KJH524269 JZL524266:JZL524269 JPP524266:JPP524269 JFT524266:JFT524269 IVX524266:IVX524269 IMB524266:IMB524269 ICF524266:ICF524269 HSJ524266:HSJ524269 HIN524266:HIN524269 GYR524266:GYR524269 GOV524266:GOV524269 GEZ524266:GEZ524269 FVD524266:FVD524269 FLH524266:FLH524269 FBL524266:FBL524269 ERP524266:ERP524269 EHT524266:EHT524269 DXX524266:DXX524269 DOB524266:DOB524269 DEF524266:DEF524269 CUJ524266:CUJ524269 CKN524266:CKN524269 CAR524266:CAR524269 BQV524266:BQV524269 BGZ524266:BGZ524269 AXD524266:AXD524269 ANH524266:ANH524269 ADL524266:ADL524269 TP524266:TP524269 JT524266:JT524269 X524266:X524269 WWF458730:WWF458733 WMJ458730:WMJ458733 WCN458730:WCN458733 VSR458730:VSR458733 VIV458730:VIV458733 UYZ458730:UYZ458733 UPD458730:UPD458733 UFH458730:UFH458733 TVL458730:TVL458733 TLP458730:TLP458733 TBT458730:TBT458733 SRX458730:SRX458733 SIB458730:SIB458733 RYF458730:RYF458733 ROJ458730:ROJ458733 REN458730:REN458733 QUR458730:QUR458733 QKV458730:QKV458733 QAZ458730:QAZ458733 PRD458730:PRD458733 PHH458730:PHH458733 OXL458730:OXL458733 ONP458730:ONP458733 ODT458730:ODT458733 NTX458730:NTX458733 NKB458730:NKB458733 NAF458730:NAF458733 MQJ458730:MQJ458733 MGN458730:MGN458733 LWR458730:LWR458733 LMV458730:LMV458733 LCZ458730:LCZ458733 KTD458730:KTD458733 KJH458730:KJH458733 JZL458730:JZL458733 JPP458730:JPP458733 JFT458730:JFT458733 IVX458730:IVX458733 IMB458730:IMB458733 ICF458730:ICF458733 HSJ458730:HSJ458733 HIN458730:HIN458733 GYR458730:GYR458733 GOV458730:GOV458733 GEZ458730:GEZ458733 FVD458730:FVD458733 FLH458730:FLH458733 FBL458730:FBL458733 ERP458730:ERP458733 EHT458730:EHT458733 DXX458730:DXX458733 DOB458730:DOB458733 DEF458730:DEF458733 CUJ458730:CUJ458733 CKN458730:CKN458733 CAR458730:CAR458733 BQV458730:BQV458733 BGZ458730:BGZ458733 AXD458730:AXD458733 ANH458730:ANH458733 ADL458730:ADL458733 TP458730:TP458733 JT458730:JT458733 X458730:X458733 WWF393194:WWF393197 WMJ393194:WMJ393197 WCN393194:WCN393197 VSR393194:VSR393197 VIV393194:VIV393197 UYZ393194:UYZ393197 UPD393194:UPD393197 UFH393194:UFH393197 TVL393194:TVL393197 TLP393194:TLP393197 TBT393194:TBT393197 SRX393194:SRX393197 SIB393194:SIB393197 RYF393194:RYF393197 ROJ393194:ROJ393197 REN393194:REN393197 QUR393194:QUR393197 QKV393194:QKV393197 QAZ393194:QAZ393197 PRD393194:PRD393197 PHH393194:PHH393197 OXL393194:OXL393197 ONP393194:ONP393197 ODT393194:ODT393197 NTX393194:NTX393197 NKB393194:NKB393197 NAF393194:NAF393197 MQJ393194:MQJ393197 MGN393194:MGN393197 LWR393194:LWR393197 LMV393194:LMV393197 LCZ393194:LCZ393197 KTD393194:KTD393197 KJH393194:KJH393197 JZL393194:JZL393197 JPP393194:JPP393197 JFT393194:JFT393197 IVX393194:IVX393197 IMB393194:IMB393197 ICF393194:ICF393197 HSJ393194:HSJ393197 HIN393194:HIN393197 GYR393194:GYR393197 GOV393194:GOV393197 GEZ393194:GEZ393197 FVD393194:FVD393197 FLH393194:FLH393197 FBL393194:FBL393197 ERP393194:ERP393197 EHT393194:EHT393197 DXX393194:DXX393197 DOB393194:DOB393197 DEF393194:DEF393197 CUJ393194:CUJ393197 CKN393194:CKN393197 CAR393194:CAR393197 BQV393194:BQV393197 BGZ393194:BGZ393197 AXD393194:AXD393197 ANH393194:ANH393197 ADL393194:ADL393197 TP393194:TP393197 JT393194:JT393197 X393194:X393197 WWF327658:WWF327661 WMJ327658:WMJ327661 WCN327658:WCN327661 VSR327658:VSR327661 VIV327658:VIV327661 UYZ327658:UYZ327661 UPD327658:UPD327661 UFH327658:UFH327661 TVL327658:TVL327661 TLP327658:TLP327661 TBT327658:TBT327661 SRX327658:SRX327661 SIB327658:SIB327661 RYF327658:RYF327661 ROJ327658:ROJ327661 REN327658:REN327661 QUR327658:QUR327661 QKV327658:QKV327661 QAZ327658:QAZ327661 PRD327658:PRD327661 PHH327658:PHH327661 OXL327658:OXL327661 ONP327658:ONP327661 ODT327658:ODT327661 NTX327658:NTX327661 NKB327658:NKB327661 NAF327658:NAF327661 MQJ327658:MQJ327661 MGN327658:MGN327661 LWR327658:LWR327661 LMV327658:LMV327661 LCZ327658:LCZ327661 KTD327658:KTD327661 KJH327658:KJH327661 JZL327658:JZL327661 JPP327658:JPP327661 JFT327658:JFT327661 IVX327658:IVX327661 IMB327658:IMB327661 ICF327658:ICF327661 HSJ327658:HSJ327661 HIN327658:HIN327661 GYR327658:GYR327661 GOV327658:GOV327661 GEZ327658:GEZ327661 FVD327658:FVD327661 FLH327658:FLH327661 FBL327658:FBL327661 ERP327658:ERP327661 EHT327658:EHT327661 DXX327658:DXX327661 DOB327658:DOB327661 DEF327658:DEF327661 CUJ327658:CUJ327661 CKN327658:CKN327661 CAR327658:CAR327661 BQV327658:BQV327661 BGZ327658:BGZ327661 AXD327658:AXD327661 ANH327658:ANH327661 ADL327658:ADL327661 TP327658:TP327661 JT327658:JT327661 X327658:X327661 WWF262122:WWF262125 WMJ262122:WMJ262125 WCN262122:WCN262125 VSR262122:VSR262125 VIV262122:VIV262125 UYZ262122:UYZ262125 UPD262122:UPD262125 UFH262122:UFH262125 TVL262122:TVL262125 TLP262122:TLP262125 TBT262122:TBT262125 SRX262122:SRX262125 SIB262122:SIB262125 RYF262122:RYF262125 ROJ262122:ROJ262125 REN262122:REN262125 QUR262122:QUR262125 QKV262122:QKV262125 QAZ262122:QAZ262125 PRD262122:PRD262125 PHH262122:PHH262125 OXL262122:OXL262125 ONP262122:ONP262125 ODT262122:ODT262125 NTX262122:NTX262125 NKB262122:NKB262125 NAF262122:NAF262125 MQJ262122:MQJ262125 MGN262122:MGN262125 LWR262122:LWR262125 LMV262122:LMV262125 LCZ262122:LCZ262125 KTD262122:KTD262125 KJH262122:KJH262125 JZL262122:JZL262125 JPP262122:JPP262125 JFT262122:JFT262125 IVX262122:IVX262125 IMB262122:IMB262125 ICF262122:ICF262125 HSJ262122:HSJ262125 HIN262122:HIN262125 GYR262122:GYR262125 GOV262122:GOV262125 GEZ262122:GEZ262125 FVD262122:FVD262125 FLH262122:FLH262125 FBL262122:FBL262125 ERP262122:ERP262125 EHT262122:EHT262125 DXX262122:DXX262125 DOB262122:DOB262125 DEF262122:DEF262125 CUJ262122:CUJ262125 CKN262122:CKN262125 CAR262122:CAR262125 BQV262122:BQV262125 BGZ262122:BGZ262125 AXD262122:AXD262125 ANH262122:ANH262125 ADL262122:ADL262125 TP262122:TP262125 JT262122:JT262125 X262122:X262125 WWF196586:WWF196589 WMJ196586:WMJ196589 WCN196586:WCN196589 VSR196586:VSR196589 VIV196586:VIV196589 UYZ196586:UYZ196589 UPD196586:UPD196589 UFH196586:UFH196589 TVL196586:TVL196589 TLP196586:TLP196589 TBT196586:TBT196589 SRX196586:SRX196589 SIB196586:SIB196589 RYF196586:RYF196589 ROJ196586:ROJ196589 REN196586:REN196589 QUR196586:QUR196589 QKV196586:QKV196589 QAZ196586:QAZ196589 PRD196586:PRD196589 PHH196586:PHH196589 OXL196586:OXL196589 ONP196586:ONP196589 ODT196586:ODT196589 NTX196586:NTX196589 NKB196586:NKB196589 NAF196586:NAF196589 MQJ196586:MQJ196589 MGN196586:MGN196589 LWR196586:LWR196589 LMV196586:LMV196589 LCZ196586:LCZ196589 KTD196586:KTD196589 KJH196586:KJH196589 JZL196586:JZL196589 JPP196586:JPP196589 JFT196586:JFT196589 IVX196586:IVX196589 IMB196586:IMB196589 ICF196586:ICF196589 HSJ196586:HSJ196589 HIN196586:HIN196589 GYR196586:GYR196589 GOV196586:GOV196589 GEZ196586:GEZ196589 FVD196586:FVD196589 FLH196586:FLH196589 FBL196586:FBL196589 ERP196586:ERP196589 EHT196586:EHT196589 DXX196586:DXX196589 DOB196586:DOB196589 DEF196586:DEF196589 CUJ196586:CUJ196589 CKN196586:CKN196589 CAR196586:CAR196589 BQV196586:BQV196589 BGZ196586:BGZ196589 AXD196586:AXD196589 ANH196586:ANH196589 ADL196586:ADL196589 TP196586:TP196589 JT196586:JT196589 X196586:X196589 WWF131050:WWF131053 WMJ131050:WMJ131053 WCN131050:WCN131053 VSR131050:VSR131053 VIV131050:VIV131053 UYZ131050:UYZ131053 UPD131050:UPD131053 UFH131050:UFH131053 TVL131050:TVL131053 TLP131050:TLP131053 TBT131050:TBT131053 SRX131050:SRX131053 SIB131050:SIB131053 RYF131050:RYF131053 ROJ131050:ROJ131053 REN131050:REN131053 QUR131050:QUR131053 QKV131050:QKV131053 QAZ131050:QAZ131053 PRD131050:PRD131053 PHH131050:PHH131053 OXL131050:OXL131053 ONP131050:ONP131053 ODT131050:ODT131053 NTX131050:NTX131053 NKB131050:NKB131053 NAF131050:NAF131053 MQJ131050:MQJ131053 MGN131050:MGN131053 LWR131050:LWR131053 LMV131050:LMV131053 LCZ131050:LCZ131053 KTD131050:KTD131053 KJH131050:KJH131053 JZL131050:JZL131053 JPP131050:JPP131053 JFT131050:JFT131053 IVX131050:IVX131053 IMB131050:IMB131053 ICF131050:ICF131053 HSJ131050:HSJ131053 HIN131050:HIN131053 GYR131050:GYR131053 GOV131050:GOV131053 GEZ131050:GEZ131053 FVD131050:FVD131053 FLH131050:FLH131053 FBL131050:FBL131053 ERP131050:ERP131053 EHT131050:EHT131053 DXX131050:DXX131053 DOB131050:DOB131053 DEF131050:DEF131053 CUJ131050:CUJ131053 CKN131050:CKN131053 CAR131050:CAR131053 BQV131050:BQV131053 BGZ131050:BGZ131053 AXD131050:AXD131053 ANH131050:ANH131053 ADL131050:ADL131053 TP131050:TP131053 JT131050:JT131053 X131050:X131053 WWF65514:WWF65517 WMJ65514:WMJ65517 WCN65514:WCN65517 VSR65514:VSR65517 VIV65514:VIV65517 UYZ65514:UYZ65517 UPD65514:UPD65517 UFH65514:UFH65517 TVL65514:TVL65517 TLP65514:TLP65517 TBT65514:TBT65517 SRX65514:SRX65517 SIB65514:SIB65517 RYF65514:RYF65517 ROJ65514:ROJ65517 REN65514:REN65517 QUR65514:QUR65517 QKV65514:QKV65517 QAZ65514:QAZ65517 PRD65514:PRD65517 PHH65514:PHH65517 OXL65514:OXL65517 ONP65514:ONP65517 ODT65514:ODT65517 NTX65514:NTX65517 NKB65514:NKB65517 NAF65514:NAF65517 MQJ65514:MQJ65517 MGN65514:MGN65517 LWR65514:LWR65517 LMV65514:LMV65517 LCZ65514:LCZ65517 KTD65514:KTD65517 KJH65514:KJH65517 JZL65514:JZL65517 JPP65514:JPP65517 JFT65514:JFT65517 IVX65514:IVX65517 IMB65514:IMB65517 ICF65514:ICF65517 HSJ65514:HSJ65517 HIN65514:HIN65517 GYR65514:GYR65517 GOV65514:GOV65517 GEZ65514:GEZ65517 FVD65514:FVD65517 FLH65514:FLH65517 FBL65514:FBL65517 ERP65514:ERP65517 EHT65514:EHT65517 DXX65514:DXX65517 DOB65514:DOB65517 DEF65514:DEF65517 CUJ65514:CUJ65517 CKN65514:CKN65517 CAR65514:CAR65517 BQV65514:BQV65517 BGZ65514:BGZ65517 AXD65514:AXD65517 ANH65514:ANH65517 ADL65514:ADL65517 TP65514:TP65517 JT65514:JT65517 X65514:X65517 WWL983018:WWL983021 WMP983018:WMP983021 WCT983018:WCT983021 VSX983018:VSX983021 VJB983018:VJB983021 UZF983018:UZF983021 UPJ983018:UPJ983021 UFN983018:UFN983021 TVR983018:TVR983021 TLV983018:TLV983021 TBZ983018:TBZ983021 SSD983018:SSD983021 SIH983018:SIH983021 RYL983018:RYL983021 ROP983018:ROP983021 RET983018:RET983021 QUX983018:QUX983021 QLB983018:QLB983021 QBF983018:QBF983021 PRJ983018:PRJ983021 PHN983018:PHN983021 OXR983018:OXR983021 ONV983018:ONV983021 ODZ983018:ODZ983021 NUD983018:NUD983021 NKH983018:NKH983021 NAL983018:NAL983021 MQP983018:MQP983021 MGT983018:MGT983021 LWX983018:LWX983021 LNB983018:LNB983021 LDF983018:LDF983021 KTJ983018:KTJ983021 KJN983018:KJN983021 JZR983018:JZR983021 JPV983018:JPV983021 JFZ983018:JFZ983021 IWD983018:IWD983021 IMH983018:IMH983021 ICL983018:ICL983021 HSP983018:HSP983021 HIT983018:HIT983021 GYX983018:GYX983021 GPB983018:GPB983021 GFF983018:GFF983021 FVJ983018:FVJ983021 FLN983018:FLN983021 FBR983018:FBR983021 ERV983018:ERV983021 EHZ983018:EHZ983021 DYD983018:DYD983021 DOH983018:DOH983021 DEL983018:DEL983021 CUP983018:CUP983021 CKT983018:CKT983021 CAX983018:CAX983021 BRB983018:BRB983021 BHF983018:BHF983021 AXJ983018:AXJ983021 ANN983018:ANN983021 ADR983018:ADR983021 TV983018:TV983021 JZ983018:JZ983021 AD983018:AD983021 WWL917482:WWL917485 WMP917482:WMP917485 WCT917482:WCT917485 VSX917482:VSX917485 VJB917482:VJB917485 UZF917482:UZF917485 UPJ917482:UPJ917485 UFN917482:UFN917485 TVR917482:TVR917485 TLV917482:TLV917485 TBZ917482:TBZ917485 SSD917482:SSD917485 SIH917482:SIH917485 RYL917482:RYL917485 ROP917482:ROP917485 RET917482:RET917485 QUX917482:QUX917485 QLB917482:QLB917485 QBF917482:QBF917485 PRJ917482:PRJ917485 PHN917482:PHN917485 OXR917482:OXR917485 ONV917482:ONV917485 ODZ917482:ODZ917485 NUD917482:NUD917485 NKH917482:NKH917485 NAL917482:NAL917485 MQP917482:MQP917485 MGT917482:MGT917485 LWX917482:LWX917485 LNB917482:LNB917485 LDF917482:LDF917485 KTJ917482:KTJ917485 KJN917482:KJN917485 JZR917482:JZR917485 JPV917482:JPV917485 JFZ917482:JFZ917485 IWD917482:IWD917485 IMH917482:IMH917485 ICL917482:ICL917485 HSP917482:HSP917485 HIT917482:HIT917485 GYX917482:GYX917485 GPB917482:GPB917485 GFF917482:GFF917485 FVJ917482:FVJ917485 FLN917482:FLN917485 FBR917482:FBR917485 ERV917482:ERV917485 EHZ917482:EHZ917485 DYD917482:DYD917485 DOH917482:DOH917485 DEL917482:DEL917485 CUP917482:CUP917485 CKT917482:CKT917485 CAX917482:CAX917485 BRB917482:BRB917485 BHF917482:BHF917485 AXJ917482:AXJ917485 ANN917482:ANN917485 ADR917482:ADR917485 TV917482:TV917485 JZ917482:JZ917485 AD917482:AD917485 WWL851946:WWL851949 WMP851946:WMP851949 WCT851946:WCT851949 VSX851946:VSX851949 VJB851946:VJB851949 UZF851946:UZF851949 UPJ851946:UPJ851949 UFN851946:UFN851949 TVR851946:TVR851949 TLV851946:TLV851949 TBZ851946:TBZ851949 SSD851946:SSD851949 SIH851946:SIH851949 RYL851946:RYL851949 ROP851946:ROP851949 RET851946:RET851949 QUX851946:QUX851949 QLB851946:QLB851949 QBF851946:QBF851949 PRJ851946:PRJ851949 PHN851946:PHN851949 OXR851946:OXR851949 ONV851946:ONV851949 ODZ851946:ODZ851949 NUD851946:NUD851949 NKH851946:NKH851949 NAL851946:NAL851949 MQP851946:MQP851949 MGT851946:MGT851949 LWX851946:LWX851949 LNB851946:LNB851949 LDF851946:LDF851949 KTJ851946:KTJ851949 KJN851946:KJN851949 JZR851946:JZR851949 JPV851946:JPV851949 JFZ851946:JFZ851949 IWD851946:IWD851949 IMH851946:IMH851949 ICL851946:ICL851949 HSP851946:HSP851949 HIT851946:HIT851949 GYX851946:GYX851949 GPB851946:GPB851949 GFF851946:GFF851949 FVJ851946:FVJ851949 FLN851946:FLN851949 FBR851946:FBR851949 ERV851946:ERV851949 EHZ851946:EHZ851949 DYD851946:DYD851949 DOH851946:DOH851949 DEL851946:DEL851949 CUP851946:CUP851949 CKT851946:CKT851949 CAX851946:CAX851949 BRB851946:BRB851949 BHF851946:BHF851949 AXJ851946:AXJ851949 ANN851946:ANN851949 ADR851946:ADR851949 TV851946:TV851949 JZ851946:JZ851949 AD851946:AD851949 WWL786410:WWL786413 WMP786410:WMP786413 WCT786410:WCT786413 VSX786410:VSX786413 VJB786410:VJB786413 UZF786410:UZF786413 UPJ786410:UPJ786413 UFN786410:UFN786413 TVR786410:TVR786413 TLV786410:TLV786413 TBZ786410:TBZ786413 SSD786410:SSD786413 SIH786410:SIH786413 RYL786410:RYL786413 ROP786410:ROP786413 RET786410:RET786413 QUX786410:QUX786413 QLB786410:QLB786413 QBF786410:QBF786413 PRJ786410:PRJ786413 PHN786410:PHN786413 OXR786410:OXR786413 ONV786410:ONV786413 ODZ786410:ODZ786413 NUD786410:NUD786413 NKH786410:NKH786413 NAL786410:NAL786413 MQP786410:MQP786413 MGT786410:MGT786413 LWX786410:LWX786413 LNB786410:LNB786413 LDF786410:LDF786413 KTJ786410:KTJ786413 KJN786410:KJN786413 JZR786410:JZR786413 JPV786410:JPV786413 JFZ786410:JFZ786413 IWD786410:IWD786413 IMH786410:IMH786413 ICL786410:ICL786413 HSP786410:HSP786413 HIT786410:HIT786413 GYX786410:GYX786413 GPB786410:GPB786413 GFF786410:GFF786413 FVJ786410:FVJ786413 FLN786410:FLN786413 FBR786410:FBR786413 ERV786410:ERV786413 EHZ786410:EHZ786413 DYD786410:DYD786413 DOH786410:DOH786413 DEL786410:DEL786413 CUP786410:CUP786413 CKT786410:CKT786413 CAX786410:CAX786413 BRB786410:BRB786413 BHF786410:BHF786413 AXJ786410:AXJ786413 ANN786410:ANN786413 ADR786410:ADR786413 TV786410:TV786413 JZ786410:JZ786413 AD786410:AD786413 WWL720874:WWL720877 WMP720874:WMP720877 WCT720874:WCT720877 VSX720874:VSX720877 VJB720874:VJB720877 UZF720874:UZF720877 UPJ720874:UPJ720877 UFN720874:UFN720877 TVR720874:TVR720877 TLV720874:TLV720877 TBZ720874:TBZ720877 SSD720874:SSD720877 SIH720874:SIH720877 RYL720874:RYL720877 ROP720874:ROP720877 RET720874:RET720877 QUX720874:QUX720877 QLB720874:QLB720877 QBF720874:QBF720877 PRJ720874:PRJ720877 PHN720874:PHN720877 OXR720874:OXR720877 ONV720874:ONV720877 ODZ720874:ODZ720877 NUD720874:NUD720877 NKH720874:NKH720877 NAL720874:NAL720877 MQP720874:MQP720877 MGT720874:MGT720877 LWX720874:LWX720877 LNB720874:LNB720877 LDF720874:LDF720877 KTJ720874:KTJ720877 KJN720874:KJN720877 JZR720874:JZR720877 JPV720874:JPV720877 JFZ720874:JFZ720877 IWD720874:IWD720877 IMH720874:IMH720877 ICL720874:ICL720877 HSP720874:HSP720877 HIT720874:HIT720877 GYX720874:GYX720877 GPB720874:GPB720877 GFF720874:GFF720877 FVJ720874:FVJ720877 FLN720874:FLN720877 FBR720874:FBR720877 ERV720874:ERV720877 EHZ720874:EHZ720877 DYD720874:DYD720877 DOH720874:DOH720877 DEL720874:DEL720877 CUP720874:CUP720877 CKT720874:CKT720877 CAX720874:CAX720877 BRB720874:BRB720877 BHF720874:BHF720877 AXJ720874:AXJ720877 ANN720874:ANN720877 ADR720874:ADR720877 TV720874:TV720877 JZ720874:JZ720877 AD720874:AD720877 WWL655338:WWL655341 WMP655338:WMP655341 WCT655338:WCT655341 VSX655338:VSX655341 VJB655338:VJB655341 UZF655338:UZF655341 UPJ655338:UPJ655341 UFN655338:UFN655341 TVR655338:TVR655341 TLV655338:TLV655341 TBZ655338:TBZ655341 SSD655338:SSD655341 SIH655338:SIH655341 RYL655338:RYL655341 ROP655338:ROP655341 RET655338:RET655341 QUX655338:QUX655341 QLB655338:QLB655341 QBF655338:QBF655341 PRJ655338:PRJ655341 PHN655338:PHN655341 OXR655338:OXR655341 ONV655338:ONV655341 ODZ655338:ODZ655341 NUD655338:NUD655341 NKH655338:NKH655341 NAL655338:NAL655341 MQP655338:MQP655341 MGT655338:MGT655341 LWX655338:LWX655341 LNB655338:LNB655341 LDF655338:LDF655341 KTJ655338:KTJ655341 KJN655338:KJN655341 JZR655338:JZR655341 JPV655338:JPV655341 JFZ655338:JFZ655341 IWD655338:IWD655341 IMH655338:IMH655341 ICL655338:ICL655341 HSP655338:HSP655341 HIT655338:HIT655341 GYX655338:GYX655341 GPB655338:GPB655341 GFF655338:GFF655341 FVJ655338:FVJ655341 FLN655338:FLN655341 FBR655338:FBR655341 ERV655338:ERV655341 EHZ655338:EHZ655341 DYD655338:DYD655341 DOH655338:DOH655341 DEL655338:DEL655341 CUP655338:CUP655341 CKT655338:CKT655341 CAX655338:CAX655341 BRB655338:BRB655341 BHF655338:BHF655341 AXJ655338:AXJ655341 ANN655338:ANN655341 ADR655338:ADR655341 TV655338:TV655341 JZ655338:JZ655341 AD655338:AD655341 WWL589802:WWL589805 WMP589802:WMP589805 WCT589802:WCT589805 VSX589802:VSX589805 VJB589802:VJB589805 UZF589802:UZF589805 UPJ589802:UPJ589805 UFN589802:UFN589805 TVR589802:TVR589805 TLV589802:TLV589805 TBZ589802:TBZ589805 SSD589802:SSD589805 SIH589802:SIH589805 RYL589802:RYL589805 ROP589802:ROP589805 RET589802:RET589805 QUX589802:QUX589805 QLB589802:QLB589805 QBF589802:QBF589805 PRJ589802:PRJ589805 PHN589802:PHN589805 OXR589802:OXR589805 ONV589802:ONV589805 ODZ589802:ODZ589805 NUD589802:NUD589805 NKH589802:NKH589805 NAL589802:NAL589805 MQP589802:MQP589805 MGT589802:MGT589805 LWX589802:LWX589805 LNB589802:LNB589805 LDF589802:LDF589805 KTJ589802:KTJ589805 KJN589802:KJN589805 JZR589802:JZR589805 JPV589802:JPV589805 JFZ589802:JFZ589805 IWD589802:IWD589805 IMH589802:IMH589805 ICL589802:ICL589805 HSP589802:HSP589805 HIT589802:HIT589805 GYX589802:GYX589805 GPB589802:GPB589805 GFF589802:GFF589805 FVJ589802:FVJ589805 FLN589802:FLN589805 FBR589802:FBR589805 ERV589802:ERV589805 EHZ589802:EHZ589805 DYD589802:DYD589805 DOH589802:DOH589805 DEL589802:DEL589805 CUP589802:CUP589805 CKT589802:CKT589805 CAX589802:CAX589805 BRB589802:BRB589805 BHF589802:BHF589805 AXJ589802:AXJ589805 ANN589802:ANN589805 ADR589802:ADR589805 TV589802:TV589805 JZ589802:JZ589805 AD589802:AD589805 WWL524266:WWL524269 WMP524266:WMP524269 WCT524266:WCT524269 VSX524266:VSX524269 VJB524266:VJB524269 UZF524266:UZF524269 UPJ524266:UPJ524269 UFN524266:UFN524269 TVR524266:TVR524269 TLV524266:TLV524269 TBZ524266:TBZ524269 SSD524266:SSD524269 SIH524266:SIH524269 RYL524266:RYL524269 ROP524266:ROP524269 RET524266:RET524269 QUX524266:QUX524269 QLB524266:QLB524269 QBF524266:QBF524269 PRJ524266:PRJ524269 PHN524266:PHN524269 OXR524266:OXR524269 ONV524266:ONV524269 ODZ524266:ODZ524269 NUD524266:NUD524269 NKH524266:NKH524269 NAL524266:NAL524269 MQP524266:MQP524269 MGT524266:MGT524269 LWX524266:LWX524269 LNB524266:LNB524269 LDF524266:LDF524269 KTJ524266:KTJ524269 KJN524266:KJN524269 JZR524266:JZR524269 JPV524266:JPV524269 JFZ524266:JFZ524269 IWD524266:IWD524269 IMH524266:IMH524269 ICL524266:ICL524269 HSP524266:HSP524269 HIT524266:HIT524269 GYX524266:GYX524269 GPB524266:GPB524269 GFF524266:GFF524269 FVJ524266:FVJ524269 FLN524266:FLN524269 FBR524266:FBR524269 ERV524266:ERV524269 EHZ524266:EHZ524269 DYD524266:DYD524269 DOH524266:DOH524269 DEL524266:DEL524269 CUP524266:CUP524269 CKT524266:CKT524269 CAX524266:CAX524269 BRB524266:BRB524269 BHF524266:BHF524269 AXJ524266:AXJ524269 ANN524266:ANN524269 ADR524266:ADR524269 TV524266:TV524269 JZ524266:JZ524269 AD524266:AD524269 WWL458730:WWL458733 WMP458730:WMP458733 WCT458730:WCT458733 VSX458730:VSX458733 VJB458730:VJB458733 UZF458730:UZF458733 UPJ458730:UPJ458733 UFN458730:UFN458733 TVR458730:TVR458733 TLV458730:TLV458733 TBZ458730:TBZ458733 SSD458730:SSD458733 SIH458730:SIH458733 RYL458730:RYL458733 ROP458730:ROP458733 RET458730:RET458733 QUX458730:QUX458733 QLB458730:QLB458733 QBF458730:QBF458733 PRJ458730:PRJ458733 PHN458730:PHN458733 OXR458730:OXR458733 ONV458730:ONV458733 ODZ458730:ODZ458733 NUD458730:NUD458733 NKH458730:NKH458733 NAL458730:NAL458733 MQP458730:MQP458733 MGT458730:MGT458733 LWX458730:LWX458733 LNB458730:LNB458733 LDF458730:LDF458733 KTJ458730:KTJ458733 KJN458730:KJN458733 JZR458730:JZR458733 JPV458730:JPV458733 JFZ458730:JFZ458733 IWD458730:IWD458733 IMH458730:IMH458733 ICL458730:ICL458733 HSP458730:HSP458733 HIT458730:HIT458733 GYX458730:GYX458733 GPB458730:GPB458733 GFF458730:GFF458733 FVJ458730:FVJ458733 FLN458730:FLN458733 FBR458730:FBR458733 ERV458730:ERV458733 EHZ458730:EHZ458733 DYD458730:DYD458733 DOH458730:DOH458733 DEL458730:DEL458733 CUP458730:CUP458733 CKT458730:CKT458733 CAX458730:CAX458733 BRB458730:BRB458733 BHF458730:BHF458733 AXJ458730:AXJ458733 ANN458730:ANN458733 ADR458730:ADR458733 TV458730:TV458733 JZ458730:JZ458733 AD458730:AD458733 WWL393194:WWL393197 WMP393194:WMP393197 WCT393194:WCT393197 VSX393194:VSX393197 VJB393194:VJB393197 UZF393194:UZF393197 UPJ393194:UPJ393197 UFN393194:UFN393197 TVR393194:TVR393197 TLV393194:TLV393197 TBZ393194:TBZ393197 SSD393194:SSD393197 SIH393194:SIH393197 RYL393194:RYL393197 ROP393194:ROP393197 RET393194:RET393197 QUX393194:QUX393197 QLB393194:QLB393197 QBF393194:QBF393197 PRJ393194:PRJ393197 PHN393194:PHN393197 OXR393194:OXR393197 ONV393194:ONV393197 ODZ393194:ODZ393197 NUD393194:NUD393197 NKH393194:NKH393197 NAL393194:NAL393197 MQP393194:MQP393197 MGT393194:MGT393197 LWX393194:LWX393197 LNB393194:LNB393197 LDF393194:LDF393197 KTJ393194:KTJ393197 KJN393194:KJN393197 JZR393194:JZR393197 JPV393194:JPV393197 JFZ393194:JFZ393197 IWD393194:IWD393197 IMH393194:IMH393197 ICL393194:ICL393197 HSP393194:HSP393197 HIT393194:HIT393197 GYX393194:GYX393197 GPB393194:GPB393197 GFF393194:GFF393197 FVJ393194:FVJ393197 FLN393194:FLN393197 FBR393194:FBR393197 ERV393194:ERV393197 EHZ393194:EHZ393197 DYD393194:DYD393197 DOH393194:DOH393197 DEL393194:DEL393197 CUP393194:CUP393197 CKT393194:CKT393197 CAX393194:CAX393197 BRB393194:BRB393197 BHF393194:BHF393197 AXJ393194:AXJ393197 ANN393194:ANN393197 ADR393194:ADR393197 TV393194:TV393197 JZ393194:JZ393197 AD393194:AD393197 WWL327658:WWL327661 WMP327658:WMP327661 WCT327658:WCT327661 VSX327658:VSX327661 VJB327658:VJB327661 UZF327658:UZF327661 UPJ327658:UPJ327661 UFN327658:UFN327661 TVR327658:TVR327661 TLV327658:TLV327661 TBZ327658:TBZ327661 SSD327658:SSD327661 SIH327658:SIH327661 RYL327658:RYL327661 ROP327658:ROP327661 RET327658:RET327661 QUX327658:QUX327661 QLB327658:QLB327661 QBF327658:QBF327661 PRJ327658:PRJ327661 PHN327658:PHN327661 OXR327658:OXR327661 ONV327658:ONV327661 ODZ327658:ODZ327661 NUD327658:NUD327661 NKH327658:NKH327661 NAL327658:NAL327661 MQP327658:MQP327661 MGT327658:MGT327661 LWX327658:LWX327661 LNB327658:LNB327661 LDF327658:LDF327661 KTJ327658:KTJ327661 KJN327658:KJN327661 JZR327658:JZR327661 JPV327658:JPV327661 JFZ327658:JFZ327661 IWD327658:IWD327661 IMH327658:IMH327661 ICL327658:ICL327661 HSP327658:HSP327661 HIT327658:HIT327661 GYX327658:GYX327661 GPB327658:GPB327661 GFF327658:GFF327661 FVJ327658:FVJ327661 FLN327658:FLN327661 FBR327658:FBR327661 ERV327658:ERV327661 EHZ327658:EHZ327661 DYD327658:DYD327661 DOH327658:DOH327661 DEL327658:DEL327661 CUP327658:CUP327661 CKT327658:CKT327661 CAX327658:CAX327661 BRB327658:BRB327661 BHF327658:BHF327661 AXJ327658:AXJ327661 ANN327658:ANN327661 ADR327658:ADR327661 TV327658:TV327661 JZ327658:JZ327661 AD327658:AD327661 WWL262122:WWL262125 WMP262122:WMP262125 WCT262122:WCT262125 VSX262122:VSX262125 VJB262122:VJB262125 UZF262122:UZF262125 UPJ262122:UPJ262125 UFN262122:UFN262125 TVR262122:TVR262125 TLV262122:TLV262125 TBZ262122:TBZ262125 SSD262122:SSD262125 SIH262122:SIH262125 RYL262122:RYL262125 ROP262122:ROP262125 RET262122:RET262125 QUX262122:QUX262125 QLB262122:QLB262125 QBF262122:QBF262125 PRJ262122:PRJ262125 PHN262122:PHN262125 OXR262122:OXR262125 ONV262122:ONV262125 ODZ262122:ODZ262125 NUD262122:NUD262125 NKH262122:NKH262125 NAL262122:NAL262125 MQP262122:MQP262125 MGT262122:MGT262125 LWX262122:LWX262125 LNB262122:LNB262125 LDF262122:LDF262125 KTJ262122:KTJ262125 KJN262122:KJN262125 JZR262122:JZR262125 JPV262122:JPV262125 JFZ262122:JFZ262125 IWD262122:IWD262125 IMH262122:IMH262125 ICL262122:ICL262125 HSP262122:HSP262125 HIT262122:HIT262125 GYX262122:GYX262125 GPB262122:GPB262125 GFF262122:GFF262125 FVJ262122:FVJ262125 FLN262122:FLN262125 FBR262122:FBR262125 ERV262122:ERV262125 EHZ262122:EHZ262125 DYD262122:DYD262125 DOH262122:DOH262125 DEL262122:DEL262125 CUP262122:CUP262125 CKT262122:CKT262125 CAX262122:CAX262125 BRB262122:BRB262125 BHF262122:BHF262125 AXJ262122:AXJ262125 ANN262122:ANN262125 ADR262122:ADR262125 TV262122:TV262125 JZ262122:JZ262125 AD262122:AD262125 WWL196586:WWL196589 WMP196586:WMP196589 WCT196586:WCT196589 VSX196586:VSX196589 VJB196586:VJB196589 UZF196586:UZF196589 UPJ196586:UPJ196589 UFN196586:UFN196589 TVR196586:TVR196589 TLV196586:TLV196589 TBZ196586:TBZ196589 SSD196586:SSD196589 SIH196586:SIH196589 RYL196586:RYL196589 ROP196586:ROP196589 RET196586:RET196589 QUX196586:QUX196589 QLB196586:QLB196589 QBF196586:QBF196589 PRJ196586:PRJ196589 PHN196586:PHN196589 OXR196586:OXR196589 ONV196586:ONV196589 ODZ196586:ODZ196589 NUD196586:NUD196589 NKH196586:NKH196589 NAL196586:NAL196589 MQP196586:MQP196589 MGT196586:MGT196589 LWX196586:LWX196589 LNB196586:LNB196589 LDF196586:LDF196589 KTJ196586:KTJ196589 KJN196586:KJN196589 JZR196586:JZR196589 JPV196586:JPV196589 JFZ196586:JFZ196589 IWD196586:IWD196589 IMH196586:IMH196589 ICL196586:ICL196589 HSP196586:HSP196589 HIT196586:HIT196589 GYX196586:GYX196589 GPB196586:GPB196589 GFF196586:GFF196589 FVJ196586:FVJ196589 FLN196586:FLN196589 FBR196586:FBR196589 ERV196586:ERV196589 EHZ196586:EHZ196589 DYD196586:DYD196589 DOH196586:DOH196589 DEL196586:DEL196589 CUP196586:CUP196589 CKT196586:CKT196589 CAX196586:CAX196589 BRB196586:BRB196589 BHF196586:BHF196589 AXJ196586:AXJ196589 ANN196586:ANN196589 ADR196586:ADR196589 TV196586:TV196589 JZ196586:JZ196589 AD196586:AD196589 WWL131050:WWL131053 WMP131050:WMP131053 WCT131050:WCT131053 VSX131050:VSX131053 VJB131050:VJB131053 UZF131050:UZF131053 UPJ131050:UPJ131053 UFN131050:UFN131053 TVR131050:TVR131053 TLV131050:TLV131053 TBZ131050:TBZ131053 SSD131050:SSD131053 SIH131050:SIH131053 RYL131050:RYL131053 ROP131050:ROP131053 RET131050:RET131053 QUX131050:QUX131053 QLB131050:QLB131053 QBF131050:QBF131053 PRJ131050:PRJ131053 PHN131050:PHN131053 OXR131050:OXR131053 ONV131050:ONV131053 ODZ131050:ODZ131053 NUD131050:NUD131053 NKH131050:NKH131053 NAL131050:NAL131053 MQP131050:MQP131053 MGT131050:MGT131053 LWX131050:LWX131053 LNB131050:LNB131053 LDF131050:LDF131053 KTJ131050:KTJ131053 KJN131050:KJN131053 JZR131050:JZR131053 JPV131050:JPV131053 JFZ131050:JFZ131053 IWD131050:IWD131053 IMH131050:IMH131053 ICL131050:ICL131053 HSP131050:HSP131053 HIT131050:HIT131053 GYX131050:GYX131053 GPB131050:GPB131053 GFF131050:GFF131053 FVJ131050:FVJ131053 FLN131050:FLN131053 FBR131050:FBR131053 ERV131050:ERV131053 EHZ131050:EHZ131053 DYD131050:DYD131053 DOH131050:DOH131053 DEL131050:DEL131053 CUP131050:CUP131053 CKT131050:CKT131053 CAX131050:CAX131053 BRB131050:BRB131053 BHF131050:BHF131053 AXJ131050:AXJ131053 ANN131050:ANN131053 ADR131050:ADR131053 TV131050:TV131053 JZ131050:JZ131053 AD131050:AD131053 WWL65514:WWL65517 WMP65514:WMP65517 WCT65514:WCT65517 VSX65514:VSX65517 VJB65514:VJB65517 UZF65514:UZF65517 UPJ65514:UPJ65517 UFN65514:UFN65517 TVR65514:TVR65517 TLV65514:TLV65517 TBZ65514:TBZ65517 SSD65514:SSD65517 SIH65514:SIH65517 RYL65514:RYL65517 ROP65514:ROP65517 RET65514:RET65517 QUX65514:QUX65517 QLB65514:QLB65517 QBF65514:QBF65517 PRJ65514:PRJ65517 PHN65514:PHN65517 OXR65514:OXR65517 ONV65514:ONV65517 ODZ65514:ODZ65517 NUD65514:NUD65517 NKH65514:NKH65517 NAL65514:NAL65517 MQP65514:MQP65517 MGT65514:MGT65517 LWX65514:LWX65517 LNB65514:LNB65517 LDF65514:LDF65517 KTJ65514:KTJ65517 KJN65514:KJN65517 JZR65514:JZR65517 JPV65514:JPV65517 JFZ65514:JFZ65517 IWD65514:IWD65517 IMH65514:IMH65517 ICL65514:ICL65517 HSP65514:HSP65517 HIT65514:HIT65517 GYX65514:GYX65517 GPB65514:GPB65517 GFF65514:GFF65517 FVJ65514:FVJ65517 FLN65514:FLN65517 FBR65514:FBR65517 ERV65514:ERV65517 EHZ65514:EHZ65517 DYD65514:DYD65517 DOH65514:DOH65517 DEL65514:DEL65517 CUP65514:CUP65517 CKT65514:CKT65517 CAX65514:CAX65517 BRB65514:BRB65517 BHF65514:BHF65517 AXJ65514:AXJ65517 ANN65514:ANN65517 ADR65514:ADR65517 TV65514:TV65517 JZ65514:JZ65517 AD65514:AD65517 WWJ983018:WWJ983021 WMN983018:WMN983021 WCR983018:WCR983021 VSV983018:VSV983021 VIZ983018:VIZ983021 UZD983018:UZD983021 UPH983018:UPH983021 UFL983018:UFL983021 TVP983018:TVP983021 TLT983018:TLT983021 TBX983018:TBX983021 SSB983018:SSB983021 SIF983018:SIF983021 RYJ983018:RYJ983021 RON983018:RON983021 RER983018:RER983021 QUV983018:QUV983021 QKZ983018:QKZ983021 QBD983018:QBD983021 PRH983018:PRH983021 PHL983018:PHL983021 OXP983018:OXP983021 ONT983018:ONT983021 ODX983018:ODX983021 NUB983018:NUB983021 NKF983018:NKF983021 NAJ983018:NAJ983021 MQN983018:MQN983021 MGR983018:MGR983021 LWV983018:LWV983021 LMZ983018:LMZ983021 LDD983018:LDD983021 KTH983018:KTH983021 KJL983018:KJL983021 JZP983018:JZP983021 JPT983018:JPT983021 JFX983018:JFX983021 IWB983018:IWB983021 IMF983018:IMF983021 ICJ983018:ICJ983021 HSN983018:HSN983021 HIR983018:HIR983021 GYV983018:GYV983021 GOZ983018:GOZ983021 GFD983018:GFD983021 FVH983018:FVH983021 FLL983018:FLL983021 FBP983018:FBP983021 ERT983018:ERT983021 EHX983018:EHX983021 DYB983018:DYB983021 DOF983018:DOF983021 DEJ983018:DEJ983021 CUN983018:CUN983021 CKR983018:CKR983021 CAV983018:CAV983021 BQZ983018:BQZ983021 BHD983018:BHD983021 AXH983018:AXH983021 ANL983018:ANL983021 ADP983018:ADP983021 TT983018:TT983021 JX983018:JX983021 AB983018:AB983021 WWJ917482:WWJ917485 WMN917482:WMN917485 WCR917482:WCR917485 VSV917482:VSV917485 VIZ917482:VIZ917485 UZD917482:UZD917485 UPH917482:UPH917485 UFL917482:UFL917485 TVP917482:TVP917485 TLT917482:TLT917485 TBX917482:TBX917485 SSB917482:SSB917485 SIF917482:SIF917485 RYJ917482:RYJ917485 RON917482:RON917485 RER917482:RER917485 QUV917482:QUV917485 QKZ917482:QKZ917485 QBD917482:QBD917485 PRH917482:PRH917485 PHL917482:PHL917485 OXP917482:OXP917485 ONT917482:ONT917485 ODX917482:ODX917485 NUB917482:NUB917485 NKF917482:NKF917485 NAJ917482:NAJ917485 MQN917482:MQN917485 MGR917482:MGR917485 LWV917482:LWV917485 LMZ917482:LMZ917485 LDD917482:LDD917485 KTH917482:KTH917485 KJL917482:KJL917485 JZP917482:JZP917485 JPT917482:JPT917485 JFX917482:JFX917485 IWB917482:IWB917485 IMF917482:IMF917485 ICJ917482:ICJ917485 HSN917482:HSN917485 HIR917482:HIR917485 GYV917482:GYV917485 GOZ917482:GOZ917485 GFD917482:GFD917485 FVH917482:FVH917485 FLL917482:FLL917485 FBP917482:FBP917485 ERT917482:ERT917485 EHX917482:EHX917485 DYB917482:DYB917485 DOF917482:DOF917485 DEJ917482:DEJ917485 CUN917482:CUN917485 CKR917482:CKR917485 CAV917482:CAV917485 BQZ917482:BQZ917485 BHD917482:BHD917485 AXH917482:AXH917485 ANL917482:ANL917485 ADP917482:ADP917485 TT917482:TT917485 JX917482:JX917485 AB917482:AB917485 WWJ851946:WWJ851949 WMN851946:WMN851949 WCR851946:WCR851949 VSV851946:VSV851949 VIZ851946:VIZ851949 UZD851946:UZD851949 UPH851946:UPH851949 UFL851946:UFL851949 TVP851946:TVP851949 TLT851946:TLT851949 TBX851946:TBX851949 SSB851946:SSB851949 SIF851946:SIF851949 RYJ851946:RYJ851949 RON851946:RON851949 RER851946:RER851949 QUV851946:QUV851949 QKZ851946:QKZ851949 QBD851946:QBD851949 PRH851946:PRH851949 PHL851946:PHL851949 OXP851946:OXP851949 ONT851946:ONT851949 ODX851946:ODX851949 NUB851946:NUB851949 NKF851946:NKF851949 NAJ851946:NAJ851949 MQN851946:MQN851949 MGR851946:MGR851949 LWV851946:LWV851949 LMZ851946:LMZ851949 LDD851946:LDD851949 KTH851946:KTH851949 KJL851946:KJL851949 JZP851946:JZP851949 JPT851946:JPT851949 JFX851946:JFX851949 IWB851946:IWB851949 IMF851946:IMF851949 ICJ851946:ICJ851949 HSN851946:HSN851949 HIR851946:HIR851949 GYV851946:GYV851949 GOZ851946:GOZ851949 GFD851946:GFD851949 FVH851946:FVH851949 FLL851946:FLL851949 FBP851946:FBP851949 ERT851946:ERT851949 EHX851946:EHX851949 DYB851946:DYB851949 DOF851946:DOF851949 DEJ851946:DEJ851949 CUN851946:CUN851949 CKR851946:CKR851949 CAV851946:CAV851949 BQZ851946:BQZ851949 BHD851946:BHD851949 AXH851946:AXH851949 ANL851946:ANL851949 ADP851946:ADP851949 TT851946:TT851949 JX851946:JX851949 AB851946:AB851949 WWJ786410:WWJ786413 WMN786410:WMN786413 WCR786410:WCR786413 VSV786410:VSV786413 VIZ786410:VIZ786413 UZD786410:UZD786413 UPH786410:UPH786413 UFL786410:UFL786413 TVP786410:TVP786413 TLT786410:TLT786413 TBX786410:TBX786413 SSB786410:SSB786413 SIF786410:SIF786413 RYJ786410:RYJ786413 RON786410:RON786413 RER786410:RER786413 QUV786410:QUV786413 QKZ786410:QKZ786413 QBD786410:QBD786413 PRH786410:PRH786413 PHL786410:PHL786413 OXP786410:OXP786413 ONT786410:ONT786413 ODX786410:ODX786413 NUB786410:NUB786413 NKF786410:NKF786413 NAJ786410:NAJ786413 MQN786410:MQN786413 MGR786410:MGR786413 LWV786410:LWV786413 LMZ786410:LMZ786413 LDD786410:LDD786413 KTH786410:KTH786413 KJL786410:KJL786413 JZP786410:JZP786413 JPT786410:JPT786413 JFX786410:JFX786413 IWB786410:IWB786413 IMF786410:IMF786413 ICJ786410:ICJ786413 HSN786410:HSN786413 HIR786410:HIR786413 GYV786410:GYV786413 GOZ786410:GOZ786413 GFD786410:GFD786413 FVH786410:FVH786413 FLL786410:FLL786413 FBP786410:FBP786413 ERT786410:ERT786413 EHX786410:EHX786413 DYB786410:DYB786413 DOF786410:DOF786413 DEJ786410:DEJ786413 CUN786410:CUN786413 CKR786410:CKR786413 CAV786410:CAV786413 BQZ786410:BQZ786413 BHD786410:BHD786413 AXH786410:AXH786413 ANL786410:ANL786413 ADP786410:ADP786413 TT786410:TT786413 JX786410:JX786413 AB786410:AB786413 WWJ720874:WWJ720877 WMN720874:WMN720877 WCR720874:WCR720877 VSV720874:VSV720877 VIZ720874:VIZ720877 UZD720874:UZD720877 UPH720874:UPH720877 UFL720874:UFL720877 TVP720874:TVP720877 TLT720874:TLT720877 TBX720874:TBX720877 SSB720874:SSB720877 SIF720874:SIF720877 RYJ720874:RYJ720877 RON720874:RON720877 RER720874:RER720877 QUV720874:QUV720877 QKZ720874:QKZ720877 QBD720874:QBD720877 PRH720874:PRH720877 PHL720874:PHL720877 OXP720874:OXP720877 ONT720874:ONT720877 ODX720874:ODX720877 NUB720874:NUB720877 NKF720874:NKF720877 NAJ720874:NAJ720877 MQN720874:MQN720877 MGR720874:MGR720877 LWV720874:LWV720877 LMZ720874:LMZ720877 LDD720874:LDD720877 KTH720874:KTH720877 KJL720874:KJL720877 JZP720874:JZP720877 JPT720874:JPT720877 JFX720874:JFX720877 IWB720874:IWB720877 IMF720874:IMF720877 ICJ720874:ICJ720877 HSN720874:HSN720877 HIR720874:HIR720877 GYV720874:GYV720877 GOZ720874:GOZ720877 GFD720874:GFD720877 FVH720874:FVH720877 FLL720874:FLL720877 FBP720874:FBP720877 ERT720874:ERT720877 EHX720874:EHX720877 DYB720874:DYB720877 DOF720874:DOF720877 DEJ720874:DEJ720877 CUN720874:CUN720877 CKR720874:CKR720877 CAV720874:CAV720877 BQZ720874:BQZ720877 BHD720874:BHD720877 AXH720874:AXH720877 ANL720874:ANL720877 ADP720874:ADP720877 TT720874:TT720877 JX720874:JX720877 AB720874:AB720877 WWJ655338:WWJ655341 WMN655338:WMN655341 WCR655338:WCR655341 VSV655338:VSV655341 VIZ655338:VIZ655341 UZD655338:UZD655341 UPH655338:UPH655341 UFL655338:UFL655341 TVP655338:TVP655341 TLT655338:TLT655341 TBX655338:TBX655341 SSB655338:SSB655341 SIF655338:SIF655341 RYJ655338:RYJ655341 RON655338:RON655341 RER655338:RER655341 QUV655338:QUV655341 QKZ655338:QKZ655341 QBD655338:QBD655341 PRH655338:PRH655341 PHL655338:PHL655341 OXP655338:OXP655341 ONT655338:ONT655341 ODX655338:ODX655341 NUB655338:NUB655341 NKF655338:NKF655341 NAJ655338:NAJ655341 MQN655338:MQN655341 MGR655338:MGR655341 LWV655338:LWV655341 LMZ655338:LMZ655341 LDD655338:LDD655341 KTH655338:KTH655341 KJL655338:KJL655341 JZP655338:JZP655341 JPT655338:JPT655341 JFX655338:JFX655341 IWB655338:IWB655341 IMF655338:IMF655341 ICJ655338:ICJ655341 HSN655338:HSN655341 HIR655338:HIR655341 GYV655338:GYV655341 GOZ655338:GOZ655341 GFD655338:GFD655341 FVH655338:FVH655341 FLL655338:FLL655341 FBP655338:FBP655341 ERT655338:ERT655341 EHX655338:EHX655341 DYB655338:DYB655341 DOF655338:DOF655341 DEJ655338:DEJ655341 CUN655338:CUN655341 CKR655338:CKR655341 CAV655338:CAV655341 BQZ655338:BQZ655341 BHD655338:BHD655341 AXH655338:AXH655341 ANL655338:ANL655341 ADP655338:ADP655341 TT655338:TT655341 JX655338:JX655341 AB655338:AB655341 WWJ589802:WWJ589805 WMN589802:WMN589805 WCR589802:WCR589805 VSV589802:VSV589805 VIZ589802:VIZ589805 UZD589802:UZD589805 UPH589802:UPH589805 UFL589802:UFL589805 TVP589802:TVP589805 TLT589802:TLT589805 TBX589802:TBX589805 SSB589802:SSB589805 SIF589802:SIF589805 RYJ589802:RYJ589805 RON589802:RON589805 RER589802:RER589805 QUV589802:QUV589805 QKZ589802:QKZ589805 QBD589802:QBD589805 PRH589802:PRH589805 PHL589802:PHL589805 OXP589802:OXP589805 ONT589802:ONT589805 ODX589802:ODX589805 NUB589802:NUB589805 NKF589802:NKF589805 NAJ589802:NAJ589805 MQN589802:MQN589805 MGR589802:MGR589805 LWV589802:LWV589805 LMZ589802:LMZ589805 LDD589802:LDD589805 KTH589802:KTH589805 KJL589802:KJL589805 JZP589802:JZP589805 JPT589802:JPT589805 JFX589802:JFX589805 IWB589802:IWB589805 IMF589802:IMF589805 ICJ589802:ICJ589805 HSN589802:HSN589805 HIR589802:HIR589805 GYV589802:GYV589805 GOZ589802:GOZ589805 GFD589802:GFD589805 FVH589802:FVH589805 FLL589802:FLL589805 FBP589802:FBP589805 ERT589802:ERT589805 EHX589802:EHX589805 DYB589802:DYB589805 DOF589802:DOF589805 DEJ589802:DEJ589805 CUN589802:CUN589805 CKR589802:CKR589805 CAV589802:CAV589805 BQZ589802:BQZ589805 BHD589802:BHD589805 AXH589802:AXH589805 ANL589802:ANL589805 ADP589802:ADP589805 TT589802:TT589805 JX589802:JX589805 AB589802:AB589805 WWJ524266:WWJ524269 WMN524266:WMN524269 WCR524266:WCR524269 VSV524266:VSV524269 VIZ524266:VIZ524269 UZD524266:UZD524269 UPH524266:UPH524269 UFL524266:UFL524269 TVP524266:TVP524269 TLT524266:TLT524269 TBX524266:TBX524269 SSB524266:SSB524269 SIF524266:SIF524269 RYJ524266:RYJ524269 RON524266:RON524269 RER524266:RER524269 QUV524266:QUV524269 QKZ524266:QKZ524269 QBD524266:QBD524269 PRH524266:PRH524269 PHL524266:PHL524269 OXP524266:OXP524269 ONT524266:ONT524269 ODX524266:ODX524269 NUB524266:NUB524269 NKF524266:NKF524269 NAJ524266:NAJ524269 MQN524266:MQN524269 MGR524266:MGR524269 LWV524266:LWV524269 LMZ524266:LMZ524269 LDD524266:LDD524269 KTH524266:KTH524269 KJL524266:KJL524269 JZP524266:JZP524269 JPT524266:JPT524269 JFX524266:JFX524269 IWB524266:IWB524269 IMF524266:IMF524269 ICJ524266:ICJ524269 HSN524266:HSN524269 HIR524266:HIR524269 GYV524266:GYV524269 GOZ524266:GOZ524269 GFD524266:GFD524269 FVH524266:FVH524269 FLL524266:FLL524269 FBP524266:FBP524269 ERT524266:ERT524269 EHX524266:EHX524269 DYB524266:DYB524269 DOF524266:DOF524269 DEJ524266:DEJ524269 CUN524266:CUN524269 CKR524266:CKR524269 CAV524266:CAV524269 BQZ524266:BQZ524269 BHD524266:BHD524269 AXH524266:AXH524269 ANL524266:ANL524269 ADP524266:ADP524269 TT524266:TT524269 JX524266:JX524269 AB524266:AB524269 WWJ458730:WWJ458733 WMN458730:WMN458733 WCR458730:WCR458733 VSV458730:VSV458733 VIZ458730:VIZ458733 UZD458730:UZD458733 UPH458730:UPH458733 UFL458730:UFL458733 TVP458730:TVP458733 TLT458730:TLT458733 TBX458730:TBX458733 SSB458730:SSB458733 SIF458730:SIF458733 RYJ458730:RYJ458733 RON458730:RON458733 RER458730:RER458733 QUV458730:QUV458733 QKZ458730:QKZ458733 QBD458730:QBD458733 PRH458730:PRH458733 PHL458730:PHL458733 OXP458730:OXP458733 ONT458730:ONT458733 ODX458730:ODX458733 NUB458730:NUB458733 NKF458730:NKF458733 NAJ458730:NAJ458733 MQN458730:MQN458733 MGR458730:MGR458733 LWV458730:LWV458733 LMZ458730:LMZ458733 LDD458730:LDD458733 KTH458730:KTH458733 KJL458730:KJL458733 JZP458730:JZP458733 JPT458730:JPT458733 JFX458730:JFX458733 IWB458730:IWB458733 IMF458730:IMF458733 ICJ458730:ICJ458733 HSN458730:HSN458733 HIR458730:HIR458733 GYV458730:GYV458733 GOZ458730:GOZ458733 GFD458730:GFD458733 FVH458730:FVH458733 FLL458730:FLL458733 FBP458730:FBP458733 ERT458730:ERT458733 EHX458730:EHX458733 DYB458730:DYB458733 DOF458730:DOF458733 DEJ458730:DEJ458733 CUN458730:CUN458733 CKR458730:CKR458733 CAV458730:CAV458733 BQZ458730:BQZ458733 BHD458730:BHD458733 AXH458730:AXH458733 ANL458730:ANL458733 ADP458730:ADP458733 TT458730:TT458733 JX458730:JX458733 AB458730:AB458733 WWJ393194:WWJ393197 WMN393194:WMN393197 WCR393194:WCR393197 VSV393194:VSV393197 VIZ393194:VIZ393197 UZD393194:UZD393197 UPH393194:UPH393197 UFL393194:UFL393197 TVP393194:TVP393197 TLT393194:TLT393197 TBX393194:TBX393197 SSB393194:SSB393197 SIF393194:SIF393197 RYJ393194:RYJ393197 RON393194:RON393197 RER393194:RER393197 QUV393194:QUV393197 QKZ393194:QKZ393197 QBD393194:QBD393197 PRH393194:PRH393197 PHL393194:PHL393197 OXP393194:OXP393197 ONT393194:ONT393197 ODX393194:ODX393197 NUB393194:NUB393197 NKF393194:NKF393197 NAJ393194:NAJ393197 MQN393194:MQN393197 MGR393194:MGR393197 LWV393194:LWV393197 LMZ393194:LMZ393197 LDD393194:LDD393197 KTH393194:KTH393197 KJL393194:KJL393197 JZP393194:JZP393197 JPT393194:JPT393197 JFX393194:JFX393197 IWB393194:IWB393197 IMF393194:IMF393197 ICJ393194:ICJ393197 HSN393194:HSN393197 HIR393194:HIR393197 GYV393194:GYV393197 GOZ393194:GOZ393197 GFD393194:GFD393197 FVH393194:FVH393197 FLL393194:FLL393197 FBP393194:FBP393197 ERT393194:ERT393197 EHX393194:EHX393197 DYB393194:DYB393197 DOF393194:DOF393197 DEJ393194:DEJ393197 CUN393194:CUN393197 CKR393194:CKR393197 CAV393194:CAV393197 BQZ393194:BQZ393197 BHD393194:BHD393197 AXH393194:AXH393197 ANL393194:ANL393197 ADP393194:ADP393197 TT393194:TT393197 JX393194:JX393197 AB393194:AB393197 WWJ327658:WWJ327661 WMN327658:WMN327661 WCR327658:WCR327661 VSV327658:VSV327661 VIZ327658:VIZ327661 UZD327658:UZD327661 UPH327658:UPH327661 UFL327658:UFL327661 TVP327658:TVP327661 TLT327658:TLT327661 TBX327658:TBX327661 SSB327658:SSB327661 SIF327658:SIF327661 RYJ327658:RYJ327661 RON327658:RON327661 RER327658:RER327661 QUV327658:QUV327661 QKZ327658:QKZ327661 QBD327658:QBD327661 PRH327658:PRH327661 PHL327658:PHL327661 OXP327658:OXP327661 ONT327658:ONT327661 ODX327658:ODX327661 NUB327658:NUB327661 NKF327658:NKF327661 NAJ327658:NAJ327661 MQN327658:MQN327661 MGR327658:MGR327661 LWV327658:LWV327661 LMZ327658:LMZ327661 LDD327658:LDD327661 KTH327658:KTH327661 KJL327658:KJL327661 JZP327658:JZP327661 JPT327658:JPT327661 JFX327658:JFX327661 IWB327658:IWB327661 IMF327658:IMF327661 ICJ327658:ICJ327661 HSN327658:HSN327661 HIR327658:HIR327661 GYV327658:GYV327661 GOZ327658:GOZ327661 GFD327658:GFD327661 FVH327658:FVH327661 FLL327658:FLL327661 FBP327658:FBP327661 ERT327658:ERT327661 EHX327658:EHX327661 DYB327658:DYB327661 DOF327658:DOF327661 DEJ327658:DEJ327661 CUN327658:CUN327661 CKR327658:CKR327661 CAV327658:CAV327661 BQZ327658:BQZ327661 BHD327658:BHD327661 AXH327658:AXH327661 ANL327658:ANL327661 ADP327658:ADP327661 TT327658:TT327661 JX327658:JX327661 AB327658:AB327661 WWJ262122:WWJ262125 WMN262122:WMN262125 WCR262122:WCR262125 VSV262122:VSV262125 VIZ262122:VIZ262125 UZD262122:UZD262125 UPH262122:UPH262125 UFL262122:UFL262125 TVP262122:TVP262125 TLT262122:TLT262125 TBX262122:TBX262125 SSB262122:SSB262125 SIF262122:SIF262125 RYJ262122:RYJ262125 RON262122:RON262125 RER262122:RER262125 QUV262122:QUV262125 QKZ262122:QKZ262125 QBD262122:QBD262125 PRH262122:PRH262125 PHL262122:PHL262125 OXP262122:OXP262125 ONT262122:ONT262125 ODX262122:ODX262125 NUB262122:NUB262125 NKF262122:NKF262125 NAJ262122:NAJ262125 MQN262122:MQN262125 MGR262122:MGR262125 LWV262122:LWV262125 LMZ262122:LMZ262125 LDD262122:LDD262125 KTH262122:KTH262125 KJL262122:KJL262125 JZP262122:JZP262125 JPT262122:JPT262125 JFX262122:JFX262125 IWB262122:IWB262125 IMF262122:IMF262125 ICJ262122:ICJ262125 HSN262122:HSN262125 HIR262122:HIR262125 GYV262122:GYV262125 GOZ262122:GOZ262125 GFD262122:GFD262125 FVH262122:FVH262125 FLL262122:FLL262125 FBP262122:FBP262125 ERT262122:ERT262125 EHX262122:EHX262125 DYB262122:DYB262125 DOF262122:DOF262125 DEJ262122:DEJ262125 CUN262122:CUN262125 CKR262122:CKR262125 CAV262122:CAV262125 BQZ262122:BQZ262125 BHD262122:BHD262125 AXH262122:AXH262125 ANL262122:ANL262125 ADP262122:ADP262125 TT262122:TT262125 JX262122:JX262125 AB262122:AB262125 WWJ196586:WWJ196589 WMN196586:WMN196589 WCR196586:WCR196589 VSV196586:VSV196589 VIZ196586:VIZ196589 UZD196586:UZD196589 UPH196586:UPH196589 UFL196586:UFL196589 TVP196586:TVP196589 TLT196586:TLT196589 TBX196586:TBX196589 SSB196586:SSB196589 SIF196586:SIF196589 RYJ196586:RYJ196589 RON196586:RON196589 RER196586:RER196589 QUV196586:QUV196589 QKZ196586:QKZ196589 QBD196586:QBD196589 PRH196586:PRH196589 PHL196586:PHL196589 OXP196586:OXP196589 ONT196586:ONT196589 ODX196586:ODX196589 NUB196586:NUB196589 NKF196586:NKF196589 NAJ196586:NAJ196589 MQN196586:MQN196589 MGR196586:MGR196589 LWV196586:LWV196589 LMZ196586:LMZ196589 LDD196586:LDD196589 KTH196586:KTH196589 KJL196586:KJL196589 JZP196586:JZP196589 JPT196586:JPT196589 JFX196586:JFX196589 IWB196586:IWB196589 IMF196586:IMF196589 ICJ196586:ICJ196589 HSN196586:HSN196589 HIR196586:HIR196589 GYV196586:GYV196589 GOZ196586:GOZ196589 GFD196586:GFD196589 FVH196586:FVH196589 FLL196586:FLL196589 FBP196586:FBP196589 ERT196586:ERT196589 EHX196586:EHX196589 DYB196586:DYB196589 DOF196586:DOF196589 DEJ196586:DEJ196589 CUN196586:CUN196589 CKR196586:CKR196589 CAV196586:CAV196589 BQZ196586:BQZ196589 BHD196586:BHD196589 AXH196586:AXH196589 ANL196586:ANL196589 ADP196586:ADP196589 TT196586:TT196589 JX196586:JX196589 AB196586:AB196589 WWJ131050:WWJ131053 WMN131050:WMN131053 WCR131050:WCR131053 VSV131050:VSV131053 VIZ131050:VIZ131053 UZD131050:UZD131053 UPH131050:UPH131053 UFL131050:UFL131053 TVP131050:TVP131053 TLT131050:TLT131053 TBX131050:TBX131053 SSB131050:SSB131053 SIF131050:SIF131053 RYJ131050:RYJ131053 RON131050:RON131053 RER131050:RER131053 QUV131050:QUV131053 QKZ131050:QKZ131053 QBD131050:QBD131053 PRH131050:PRH131053 PHL131050:PHL131053 OXP131050:OXP131053 ONT131050:ONT131053 ODX131050:ODX131053 NUB131050:NUB131053 NKF131050:NKF131053 NAJ131050:NAJ131053 MQN131050:MQN131053 MGR131050:MGR131053 LWV131050:LWV131053 LMZ131050:LMZ131053 LDD131050:LDD131053 KTH131050:KTH131053 KJL131050:KJL131053 JZP131050:JZP131053 JPT131050:JPT131053 JFX131050:JFX131053 IWB131050:IWB131053 IMF131050:IMF131053 ICJ131050:ICJ131053 HSN131050:HSN131053 HIR131050:HIR131053 GYV131050:GYV131053 GOZ131050:GOZ131053 GFD131050:GFD131053 FVH131050:FVH131053 FLL131050:FLL131053 FBP131050:FBP131053 ERT131050:ERT131053 EHX131050:EHX131053 DYB131050:DYB131053 DOF131050:DOF131053 DEJ131050:DEJ131053 CUN131050:CUN131053 CKR131050:CKR131053 CAV131050:CAV131053 BQZ131050:BQZ131053 BHD131050:BHD131053 AXH131050:AXH131053 ANL131050:ANL131053 ADP131050:ADP131053 TT131050:TT131053 JX131050:JX131053 AB131050:AB131053 WWJ65514:WWJ65517 WMN65514:WMN65517 WCR65514:WCR65517 VSV65514:VSV65517 VIZ65514:VIZ65517 UZD65514:UZD65517 UPH65514:UPH65517 UFL65514:UFL65517 TVP65514:TVP65517 TLT65514:TLT65517 TBX65514:TBX65517 SSB65514:SSB65517 SIF65514:SIF65517 RYJ65514:RYJ65517 RON65514:RON65517 RER65514:RER65517 QUV65514:QUV65517 QKZ65514:QKZ65517 QBD65514:QBD65517 PRH65514:PRH65517 PHL65514:PHL65517 OXP65514:OXP65517 ONT65514:ONT65517 ODX65514:ODX65517 NUB65514:NUB65517 NKF65514:NKF65517 NAJ65514:NAJ65517 MQN65514:MQN65517 MGR65514:MGR65517 LWV65514:LWV65517 LMZ65514:LMZ65517 LDD65514:LDD65517 KTH65514:KTH65517 KJL65514:KJL65517 JZP65514:JZP65517 JPT65514:JPT65517 JFX65514:JFX65517 IWB65514:IWB65517 IMF65514:IMF65517 ICJ65514:ICJ65517 HSN65514:HSN65517 HIR65514:HIR65517 GYV65514:GYV65517 GOZ65514:GOZ65517 GFD65514:GFD65517 FVH65514:FVH65517 FLL65514:FLL65517 FBP65514:FBP65517 ERT65514:ERT65517 EHX65514:EHX65517 DYB65514:DYB65517 DOF65514:DOF65517 DEJ65514:DEJ65517 CUN65514:CUN65517 CKR65514:CKR65517 CAV65514:CAV65517 BQZ65514:BQZ65517 BHD65514:BHD65517 AXH65514:AXH65517 ANL65514:ANL65517 ADP65514:ADP65517 TT65514:TT65517 JX65514:JX65517 AB65514:AB65517 WWH983018:WWH983021 WML983018:WML983021 WCP983018:WCP983021 VST983018:VST983021 VIX983018:VIX983021 UZB983018:UZB983021 UPF983018:UPF983021 UFJ983018:UFJ983021 TVN983018:TVN983021 TLR983018:TLR983021 TBV983018:TBV983021 SRZ983018:SRZ983021 SID983018:SID983021 RYH983018:RYH983021 ROL983018:ROL983021 REP983018:REP983021 QUT983018:QUT983021 QKX983018:QKX983021 QBB983018:QBB983021 PRF983018:PRF983021 PHJ983018:PHJ983021 OXN983018:OXN983021 ONR983018:ONR983021 ODV983018:ODV983021 NTZ983018:NTZ983021 NKD983018:NKD983021 NAH983018:NAH983021 MQL983018:MQL983021 MGP983018:MGP983021 LWT983018:LWT983021 LMX983018:LMX983021 LDB983018:LDB983021 KTF983018:KTF983021 KJJ983018:KJJ983021 JZN983018:JZN983021 JPR983018:JPR983021 JFV983018:JFV983021 IVZ983018:IVZ983021 IMD983018:IMD983021 ICH983018:ICH983021 HSL983018:HSL983021 HIP983018:HIP983021 GYT983018:GYT983021 GOX983018:GOX983021 GFB983018:GFB983021 FVF983018:FVF983021 FLJ983018:FLJ983021 FBN983018:FBN983021 ERR983018:ERR983021 EHV983018:EHV983021 DXZ983018:DXZ983021 DOD983018:DOD983021 DEH983018:DEH983021 CUL983018:CUL983021 CKP983018:CKP983021 CAT983018:CAT983021 BQX983018:BQX983021 BHB983018:BHB983021 AXF983018:AXF983021 ANJ983018:ANJ983021 ADN983018:ADN983021 TR983018:TR983021 JV983018:JV983021 Z983018:Z983021 WWH917482:WWH917485 WML917482:WML917485 WCP917482:WCP917485 VST917482:VST917485 VIX917482:VIX917485 UZB917482:UZB917485 UPF917482:UPF917485 UFJ917482:UFJ917485 TVN917482:TVN917485 TLR917482:TLR917485 TBV917482:TBV917485 SRZ917482:SRZ917485 SID917482:SID917485 RYH917482:RYH917485 ROL917482:ROL917485 REP917482:REP917485 QUT917482:QUT917485 QKX917482:QKX917485 QBB917482:QBB917485 PRF917482:PRF917485 PHJ917482:PHJ917485 OXN917482:OXN917485 ONR917482:ONR917485 ODV917482:ODV917485 NTZ917482:NTZ917485 NKD917482:NKD917485 NAH917482:NAH917485 MQL917482:MQL917485 MGP917482:MGP917485 LWT917482:LWT917485 LMX917482:LMX917485 LDB917482:LDB917485 KTF917482:KTF917485 KJJ917482:KJJ917485 JZN917482:JZN917485 JPR917482:JPR917485 JFV917482:JFV917485 IVZ917482:IVZ917485 IMD917482:IMD917485 ICH917482:ICH917485 HSL917482:HSL917485 HIP917482:HIP917485 GYT917482:GYT917485 GOX917482:GOX917485 GFB917482:GFB917485 FVF917482:FVF917485 FLJ917482:FLJ917485 FBN917482:FBN917485 ERR917482:ERR917485 EHV917482:EHV917485 DXZ917482:DXZ917485 DOD917482:DOD917485 DEH917482:DEH917485 CUL917482:CUL917485 CKP917482:CKP917485 CAT917482:CAT917485 BQX917482:BQX917485 BHB917482:BHB917485 AXF917482:AXF917485 ANJ917482:ANJ917485 ADN917482:ADN917485 TR917482:TR917485 JV917482:JV917485 Z917482:Z917485 WWH851946:WWH851949 WML851946:WML851949 WCP851946:WCP851949 VST851946:VST851949 VIX851946:VIX851949 UZB851946:UZB851949 UPF851946:UPF851949 UFJ851946:UFJ851949 TVN851946:TVN851949 TLR851946:TLR851949 TBV851946:TBV851949 SRZ851946:SRZ851949 SID851946:SID851949 RYH851946:RYH851949 ROL851946:ROL851949 REP851946:REP851949 QUT851946:QUT851949 QKX851946:QKX851949 QBB851946:QBB851949 PRF851946:PRF851949 PHJ851946:PHJ851949 OXN851946:OXN851949 ONR851946:ONR851949 ODV851946:ODV851949 NTZ851946:NTZ851949 NKD851946:NKD851949 NAH851946:NAH851949 MQL851946:MQL851949 MGP851946:MGP851949 LWT851946:LWT851949 LMX851946:LMX851949 LDB851946:LDB851949 KTF851946:KTF851949 KJJ851946:KJJ851949 JZN851946:JZN851949 JPR851946:JPR851949 JFV851946:JFV851949 IVZ851946:IVZ851949 IMD851946:IMD851949 ICH851946:ICH851949 HSL851946:HSL851949 HIP851946:HIP851949 GYT851946:GYT851949 GOX851946:GOX851949 GFB851946:GFB851949 FVF851946:FVF851949 FLJ851946:FLJ851949 FBN851946:FBN851949 ERR851946:ERR851949 EHV851946:EHV851949 DXZ851946:DXZ851949 DOD851946:DOD851949 DEH851946:DEH851949 CUL851946:CUL851949 CKP851946:CKP851949 CAT851946:CAT851949 BQX851946:BQX851949 BHB851946:BHB851949 AXF851946:AXF851949 ANJ851946:ANJ851949 ADN851946:ADN851949 TR851946:TR851949 JV851946:JV851949 Z851946:Z851949 WWH786410:WWH786413 WML786410:WML786413 WCP786410:WCP786413 VST786410:VST786413 VIX786410:VIX786413 UZB786410:UZB786413 UPF786410:UPF786413 UFJ786410:UFJ786413 TVN786410:TVN786413 TLR786410:TLR786413 TBV786410:TBV786413 SRZ786410:SRZ786413 SID786410:SID786413 RYH786410:RYH786413 ROL786410:ROL786413 REP786410:REP786413 QUT786410:QUT786413 QKX786410:QKX786413 QBB786410:QBB786413 PRF786410:PRF786413 PHJ786410:PHJ786413 OXN786410:OXN786413 ONR786410:ONR786413 ODV786410:ODV786413 NTZ786410:NTZ786413 NKD786410:NKD786413 NAH786410:NAH786413 MQL786410:MQL786413 MGP786410:MGP786413 LWT786410:LWT786413 LMX786410:LMX786413 LDB786410:LDB786413 KTF786410:KTF786413 KJJ786410:KJJ786413 JZN786410:JZN786413 JPR786410:JPR786413 JFV786410:JFV786413 IVZ786410:IVZ786413 IMD786410:IMD786413 ICH786410:ICH786413 HSL786410:HSL786413 HIP786410:HIP786413 GYT786410:GYT786413 GOX786410:GOX786413 GFB786410:GFB786413 FVF786410:FVF786413 FLJ786410:FLJ786413 FBN786410:FBN786413 ERR786410:ERR786413 EHV786410:EHV786413 DXZ786410:DXZ786413 DOD786410:DOD786413 DEH786410:DEH786413 CUL786410:CUL786413 CKP786410:CKP786413 CAT786410:CAT786413 BQX786410:BQX786413 BHB786410:BHB786413 AXF786410:AXF786413 ANJ786410:ANJ786413 ADN786410:ADN786413 TR786410:TR786413 JV786410:JV786413 Z786410:Z786413 WWH720874:WWH720877 WML720874:WML720877 WCP720874:WCP720877 VST720874:VST720877 VIX720874:VIX720877 UZB720874:UZB720877 UPF720874:UPF720877 UFJ720874:UFJ720877 TVN720874:TVN720877 TLR720874:TLR720877 TBV720874:TBV720877 SRZ720874:SRZ720877 SID720874:SID720877 RYH720874:RYH720877 ROL720874:ROL720877 REP720874:REP720877 QUT720874:QUT720877 QKX720874:QKX720877 QBB720874:QBB720877 PRF720874:PRF720877 PHJ720874:PHJ720877 OXN720874:OXN720877 ONR720874:ONR720877 ODV720874:ODV720877 NTZ720874:NTZ720877 NKD720874:NKD720877 NAH720874:NAH720877 MQL720874:MQL720877 MGP720874:MGP720877 LWT720874:LWT720877 LMX720874:LMX720877 LDB720874:LDB720877 KTF720874:KTF720877 KJJ720874:KJJ720877 JZN720874:JZN720877 JPR720874:JPR720877 JFV720874:JFV720877 IVZ720874:IVZ720877 IMD720874:IMD720877 ICH720874:ICH720877 HSL720874:HSL720877 HIP720874:HIP720877 GYT720874:GYT720877 GOX720874:GOX720877 GFB720874:GFB720877 FVF720874:FVF720877 FLJ720874:FLJ720877 FBN720874:FBN720877 ERR720874:ERR720877 EHV720874:EHV720877 DXZ720874:DXZ720877 DOD720874:DOD720877 DEH720874:DEH720877 CUL720874:CUL720877 CKP720874:CKP720877 CAT720874:CAT720877 BQX720874:BQX720877 BHB720874:BHB720877 AXF720874:AXF720877 ANJ720874:ANJ720877 ADN720874:ADN720877 TR720874:TR720877 JV720874:JV720877 Z720874:Z720877 WWH655338:WWH655341 WML655338:WML655341 WCP655338:WCP655341 VST655338:VST655341 VIX655338:VIX655341 UZB655338:UZB655341 UPF655338:UPF655341 UFJ655338:UFJ655341 TVN655338:TVN655341 TLR655338:TLR655341 TBV655338:TBV655341 SRZ655338:SRZ655341 SID655338:SID655341 RYH655338:RYH655341 ROL655338:ROL655341 REP655338:REP655341 QUT655338:QUT655341 QKX655338:QKX655341 QBB655338:QBB655341 PRF655338:PRF655341 PHJ655338:PHJ655341 OXN655338:OXN655341 ONR655338:ONR655341 ODV655338:ODV655341 NTZ655338:NTZ655341 NKD655338:NKD655341 NAH655338:NAH655341 MQL655338:MQL655341 MGP655338:MGP655341 LWT655338:LWT655341 LMX655338:LMX655341 LDB655338:LDB655341 KTF655338:KTF655341 KJJ655338:KJJ655341 JZN655338:JZN655341 JPR655338:JPR655341 JFV655338:JFV655341 IVZ655338:IVZ655341 IMD655338:IMD655341 ICH655338:ICH655341 HSL655338:HSL655341 HIP655338:HIP655341 GYT655338:GYT655341 GOX655338:GOX655341 GFB655338:GFB655341 FVF655338:FVF655341 FLJ655338:FLJ655341 FBN655338:FBN655341 ERR655338:ERR655341 EHV655338:EHV655341 DXZ655338:DXZ655341 DOD655338:DOD655341 DEH655338:DEH655341 CUL655338:CUL655341 CKP655338:CKP655341 CAT655338:CAT655341 BQX655338:BQX655341 BHB655338:BHB655341 AXF655338:AXF655341 ANJ655338:ANJ655341 ADN655338:ADN655341 TR655338:TR655341 JV655338:JV655341 Z655338:Z655341 WWH589802:WWH589805 WML589802:WML589805 WCP589802:WCP589805 VST589802:VST589805 VIX589802:VIX589805 UZB589802:UZB589805 UPF589802:UPF589805 UFJ589802:UFJ589805 TVN589802:TVN589805 TLR589802:TLR589805 TBV589802:TBV589805 SRZ589802:SRZ589805 SID589802:SID589805 RYH589802:RYH589805 ROL589802:ROL589805 REP589802:REP589805 QUT589802:QUT589805 QKX589802:QKX589805 QBB589802:QBB589805 PRF589802:PRF589805 PHJ589802:PHJ589805 OXN589802:OXN589805 ONR589802:ONR589805 ODV589802:ODV589805 NTZ589802:NTZ589805 NKD589802:NKD589805 NAH589802:NAH589805 MQL589802:MQL589805 MGP589802:MGP589805 LWT589802:LWT589805 LMX589802:LMX589805 LDB589802:LDB589805 KTF589802:KTF589805 KJJ589802:KJJ589805 JZN589802:JZN589805 JPR589802:JPR589805 JFV589802:JFV589805 IVZ589802:IVZ589805 IMD589802:IMD589805 ICH589802:ICH589805 HSL589802:HSL589805 HIP589802:HIP589805 GYT589802:GYT589805 GOX589802:GOX589805 GFB589802:GFB589805 FVF589802:FVF589805 FLJ589802:FLJ589805 FBN589802:FBN589805 ERR589802:ERR589805 EHV589802:EHV589805 DXZ589802:DXZ589805 DOD589802:DOD589805 DEH589802:DEH589805 CUL589802:CUL589805 CKP589802:CKP589805 CAT589802:CAT589805 BQX589802:BQX589805 BHB589802:BHB589805 AXF589802:AXF589805 ANJ589802:ANJ589805 ADN589802:ADN589805 TR589802:TR589805 JV589802:JV589805 Z589802:Z589805 WWH524266:WWH524269 WML524266:WML524269 WCP524266:WCP524269 VST524266:VST524269 VIX524266:VIX524269 UZB524266:UZB524269 UPF524266:UPF524269 UFJ524266:UFJ524269 TVN524266:TVN524269 TLR524266:TLR524269 TBV524266:TBV524269 SRZ524266:SRZ524269 SID524266:SID524269 RYH524266:RYH524269 ROL524266:ROL524269 REP524266:REP524269 QUT524266:QUT524269 QKX524266:QKX524269 QBB524266:QBB524269 PRF524266:PRF524269 PHJ524266:PHJ524269 OXN524266:OXN524269 ONR524266:ONR524269 ODV524266:ODV524269 NTZ524266:NTZ524269 NKD524266:NKD524269 NAH524266:NAH524269 MQL524266:MQL524269 MGP524266:MGP524269 LWT524266:LWT524269 LMX524266:LMX524269 LDB524266:LDB524269 KTF524266:KTF524269 KJJ524266:KJJ524269 JZN524266:JZN524269 JPR524266:JPR524269 JFV524266:JFV524269 IVZ524266:IVZ524269 IMD524266:IMD524269 ICH524266:ICH524269 HSL524266:HSL524269 HIP524266:HIP524269 GYT524266:GYT524269 GOX524266:GOX524269 GFB524266:GFB524269 FVF524266:FVF524269 FLJ524266:FLJ524269 FBN524266:FBN524269 ERR524266:ERR524269 EHV524266:EHV524269 DXZ524266:DXZ524269 DOD524266:DOD524269 DEH524266:DEH524269 CUL524266:CUL524269 CKP524266:CKP524269 CAT524266:CAT524269 BQX524266:BQX524269 BHB524266:BHB524269 AXF524266:AXF524269 ANJ524266:ANJ524269 ADN524266:ADN524269 TR524266:TR524269 JV524266:JV524269 Z524266:Z524269 WWH458730:WWH458733 WML458730:WML458733 WCP458730:WCP458733 VST458730:VST458733 VIX458730:VIX458733 UZB458730:UZB458733 UPF458730:UPF458733 UFJ458730:UFJ458733 TVN458730:TVN458733 TLR458730:TLR458733 TBV458730:TBV458733 SRZ458730:SRZ458733 SID458730:SID458733 RYH458730:RYH458733 ROL458730:ROL458733 REP458730:REP458733 QUT458730:QUT458733 QKX458730:QKX458733 QBB458730:QBB458733 PRF458730:PRF458733 PHJ458730:PHJ458733 OXN458730:OXN458733 ONR458730:ONR458733 ODV458730:ODV458733 NTZ458730:NTZ458733 NKD458730:NKD458733 NAH458730:NAH458733 MQL458730:MQL458733 MGP458730:MGP458733 LWT458730:LWT458733 LMX458730:LMX458733 LDB458730:LDB458733 KTF458730:KTF458733 KJJ458730:KJJ458733 JZN458730:JZN458733 JPR458730:JPR458733 JFV458730:JFV458733 IVZ458730:IVZ458733 IMD458730:IMD458733 ICH458730:ICH458733 HSL458730:HSL458733 HIP458730:HIP458733 GYT458730:GYT458733 GOX458730:GOX458733 GFB458730:GFB458733 FVF458730:FVF458733 FLJ458730:FLJ458733 FBN458730:FBN458733 ERR458730:ERR458733 EHV458730:EHV458733 DXZ458730:DXZ458733 DOD458730:DOD458733 DEH458730:DEH458733 CUL458730:CUL458733 CKP458730:CKP458733 CAT458730:CAT458733 BQX458730:BQX458733 BHB458730:BHB458733 AXF458730:AXF458733 ANJ458730:ANJ458733 ADN458730:ADN458733 TR458730:TR458733 JV458730:JV458733 Z458730:Z458733 WWH393194:WWH393197 WML393194:WML393197 WCP393194:WCP393197 VST393194:VST393197 VIX393194:VIX393197 UZB393194:UZB393197 UPF393194:UPF393197 UFJ393194:UFJ393197 TVN393194:TVN393197 TLR393194:TLR393197 TBV393194:TBV393197 SRZ393194:SRZ393197 SID393194:SID393197 RYH393194:RYH393197 ROL393194:ROL393197 REP393194:REP393197 QUT393194:QUT393197 QKX393194:QKX393197 QBB393194:QBB393197 PRF393194:PRF393197 PHJ393194:PHJ393197 OXN393194:OXN393197 ONR393194:ONR393197 ODV393194:ODV393197 NTZ393194:NTZ393197 NKD393194:NKD393197 NAH393194:NAH393197 MQL393194:MQL393197 MGP393194:MGP393197 LWT393194:LWT393197 LMX393194:LMX393197 LDB393194:LDB393197 KTF393194:KTF393197 KJJ393194:KJJ393197 JZN393194:JZN393197 JPR393194:JPR393197 JFV393194:JFV393197 IVZ393194:IVZ393197 IMD393194:IMD393197 ICH393194:ICH393197 HSL393194:HSL393197 HIP393194:HIP393197 GYT393194:GYT393197 GOX393194:GOX393197 GFB393194:GFB393197 FVF393194:FVF393197 FLJ393194:FLJ393197 FBN393194:FBN393197 ERR393194:ERR393197 EHV393194:EHV393197 DXZ393194:DXZ393197 DOD393194:DOD393197 DEH393194:DEH393197 CUL393194:CUL393197 CKP393194:CKP393197 CAT393194:CAT393197 BQX393194:BQX393197 BHB393194:BHB393197 AXF393194:AXF393197 ANJ393194:ANJ393197 ADN393194:ADN393197 TR393194:TR393197 JV393194:JV393197 Z393194:Z393197 WWH327658:WWH327661 WML327658:WML327661 WCP327658:WCP327661 VST327658:VST327661 VIX327658:VIX327661 UZB327658:UZB327661 UPF327658:UPF327661 UFJ327658:UFJ327661 TVN327658:TVN327661 TLR327658:TLR327661 TBV327658:TBV327661 SRZ327658:SRZ327661 SID327658:SID327661 RYH327658:RYH327661 ROL327658:ROL327661 REP327658:REP327661 QUT327658:QUT327661 QKX327658:QKX327661 QBB327658:QBB327661 PRF327658:PRF327661 PHJ327658:PHJ327661 OXN327658:OXN327661 ONR327658:ONR327661 ODV327658:ODV327661 NTZ327658:NTZ327661 NKD327658:NKD327661 NAH327658:NAH327661 MQL327658:MQL327661 MGP327658:MGP327661 LWT327658:LWT327661 LMX327658:LMX327661 LDB327658:LDB327661 KTF327658:KTF327661 KJJ327658:KJJ327661 JZN327658:JZN327661 JPR327658:JPR327661 JFV327658:JFV327661 IVZ327658:IVZ327661 IMD327658:IMD327661 ICH327658:ICH327661 HSL327658:HSL327661 HIP327658:HIP327661 GYT327658:GYT327661 GOX327658:GOX327661 GFB327658:GFB327661 FVF327658:FVF327661 FLJ327658:FLJ327661 FBN327658:FBN327661 ERR327658:ERR327661 EHV327658:EHV327661 DXZ327658:DXZ327661 DOD327658:DOD327661 DEH327658:DEH327661 CUL327658:CUL327661 CKP327658:CKP327661 CAT327658:CAT327661 BQX327658:BQX327661 BHB327658:BHB327661 AXF327658:AXF327661 ANJ327658:ANJ327661 ADN327658:ADN327661 TR327658:TR327661 JV327658:JV327661 Z327658:Z327661 WWH262122:WWH262125 WML262122:WML262125 WCP262122:WCP262125 VST262122:VST262125 VIX262122:VIX262125 UZB262122:UZB262125 UPF262122:UPF262125 UFJ262122:UFJ262125 TVN262122:TVN262125 TLR262122:TLR262125 TBV262122:TBV262125 SRZ262122:SRZ262125 SID262122:SID262125 RYH262122:RYH262125 ROL262122:ROL262125 REP262122:REP262125 QUT262122:QUT262125 QKX262122:QKX262125 QBB262122:QBB262125 PRF262122:PRF262125 PHJ262122:PHJ262125 OXN262122:OXN262125 ONR262122:ONR262125 ODV262122:ODV262125 NTZ262122:NTZ262125 NKD262122:NKD262125 NAH262122:NAH262125 MQL262122:MQL262125 MGP262122:MGP262125 LWT262122:LWT262125 LMX262122:LMX262125 LDB262122:LDB262125 KTF262122:KTF262125 KJJ262122:KJJ262125 JZN262122:JZN262125 JPR262122:JPR262125 JFV262122:JFV262125 IVZ262122:IVZ262125 IMD262122:IMD262125 ICH262122:ICH262125 HSL262122:HSL262125 HIP262122:HIP262125 GYT262122:GYT262125 GOX262122:GOX262125 GFB262122:GFB262125 FVF262122:FVF262125 FLJ262122:FLJ262125 FBN262122:FBN262125 ERR262122:ERR262125 EHV262122:EHV262125 DXZ262122:DXZ262125 DOD262122:DOD262125 DEH262122:DEH262125 CUL262122:CUL262125 CKP262122:CKP262125 CAT262122:CAT262125 BQX262122:BQX262125 BHB262122:BHB262125 AXF262122:AXF262125 ANJ262122:ANJ262125 ADN262122:ADN262125 TR262122:TR262125 JV262122:JV262125 Z262122:Z262125 WWH196586:WWH196589 WML196586:WML196589 WCP196586:WCP196589 VST196586:VST196589 VIX196586:VIX196589 UZB196586:UZB196589 UPF196586:UPF196589 UFJ196586:UFJ196589 TVN196586:TVN196589 TLR196586:TLR196589 TBV196586:TBV196589 SRZ196586:SRZ196589 SID196586:SID196589 RYH196586:RYH196589 ROL196586:ROL196589 REP196586:REP196589 QUT196586:QUT196589 QKX196586:QKX196589 QBB196586:QBB196589 PRF196586:PRF196589 PHJ196586:PHJ196589 OXN196586:OXN196589 ONR196586:ONR196589 ODV196586:ODV196589 NTZ196586:NTZ196589 NKD196586:NKD196589 NAH196586:NAH196589 MQL196586:MQL196589 MGP196586:MGP196589 LWT196586:LWT196589 LMX196586:LMX196589 LDB196586:LDB196589 KTF196586:KTF196589 KJJ196586:KJJ196589 JZN196586:JZN196589 JPR196586:JPR196589 JFV196586:JFV196589 IVZ196586:IVZ196589 IMD196586:IMD196589 ICH196586:ICH196589 HSL196586:HSL196589 HIP196586:HIP196589 GYT196586:GYT196589 GOX196586:GOX196589 GFB196586:GFB196589 FVF196586:FVF196589 FLJ196586:FLJ196589 FBN196586:FBN196589 ERR196586:ERR196589 EHV196586:EHV196589 DXZ196586:DXZ196589 DOD196586:DOD196589 DEH196586:DEH196589 CUL196586:CUL196589 CKP196586:CKP196589 CAT196586:CAT196589 BQX196586:BQX196589 BHB196586:BHB196589 AXF196586:AXF196589 ANJ196586:ANJ196589 ADN196586:ADN196589 TR196586:TR196589 JV196586:JV196589 Z196586:Z196589 WWH131050:WWH131053 WML131050:WML131053 WCP131050:WCP131053 VST131050:VST131053 VIX131050:VIX131053 UZB131050:UZB131053 UPF131050:UPF131053 UFJ131050:UFJ131053 TVN131050:TVN131053 TLR131050:TLR131053 TBV131050:TBV131053 SRZ131050:SRZ131053 SID131050:SID131053 RYH131050:RYH131053 ROL131050:ROL131053 REP131050:REP131053 QUT131050:QUT131053 QKX131050:QKX131053 QBB131050:QBB131053 PRF131050:PRF131053 PHJ131050:PHJ131053 OXN131050:OXN131053 ONR131050:ONR131053 ODV131050:ODV131053 NTZ131050:NTZ131053 NKD131050:NKD131053 NAH131050:NAH131053 MQL131050:MQL131053 MGP131050:MGP131053 LWT131050:LWT131053 LMX131050:LMX131053 LDB131050:LDB131053 KTF131050:KTF131053 KJJ131050:KJJ131053 JZN131050:JZN131053 JPR131050:JPR131053 JFV131050:JFV131053 IVZ131050:IVZ131053 IMD131050:IMD131053 ICH131050:ICH131053 HSL131050:HSL131053 HIP131050:HIP131053 GYT131050:GYT131053 GOX131050:GOX131053 GFB131050:GFB131053 FVF131050:FVF131053 FLJ131050:FLJ131053 FBN131050:FBN131053 ERR131050:ERR131053 EHV131050:EHV131053 DXZ131050:DXZ131053 DOD131050:DOD131053 DEH131050:DEH131053 CUL131050:CUL131053 CKP131050:CKP131053 CAT131050:CAT131053 BQX131050:BQX131053 BHB131050:BHB131053 AXF131050:AXF131053 ANJ131050:ANJ131053 ADN131050:ADN131053 TR131050:TR131053 JV131050:JV131053 Z131050:Z131053 WWH65514:WWH65517 WML65514:WML65517 WCP65514:WCP65517 VST65514:VST65517 VIX65514:VIX65517 UZB65514:UZB65517 UPF65514:UPF65517 UFJ65514:UFJ65517 TVN65514:TVN65517 TLR65514:TLR65517 TBV65514:TBV65517 SRZ65514:SRZ65517 SID65514:SID65517 RYH65514:RYH65517 ROL65514:ROL65517 REP65514:REP65517 QUT65514:QUT65517 QKX65514:QKX65517 QBB65514:QBB65517 PRF65514:PRF65517 PHJ65514:PHJ65517 OXN65514:OXN65517 ONR65514:ONR65517 ODV65514:ODV65517 NTZ65514:NTZ65517 NKD65514:NKD65517 NAH65514:NAH65517 MQL65514:MQL65517 MGP65514:MGP65517 LWT65514:LWT65517 LMX65514:LMX65517 LDB65514:LDB65517 KTF65514:KTF65517 KJJ65514:KJJ65517 JZN65514:JZN65517 JPR65514:JPR65517 JFV65514:JFV65517 IVZ65514:IVZ65517 IMD65514:IMD65517 ICH65514:ICH65517 HSL65514:HSL65517 HIP65514:HIP65517 GYT65514:GYT65517 GOX65514:GOX65517 GFB65514:GFB65517 FVF65514:FVF65517 FLJ65514:FLJ65517 FBN65514:FBN65517 ERR65514:ERR65517 EHV65514:EHV65517 DXZ65514:DXZ65517 DOD65514:DOD65517 DEH65514:DEH65517 CUL65514:CUL65517 CKP65514:CKP65517 CAT65514:CAT65517 BQX65514:BQX65517 BHB65514:BHB65517 AXF65514:AXF65517 ANJ65514:ANJ65517 ADN65514:ADN65517 TR65514:TR65517 JV65514:JV65517">
       <formula1>"W,F,M,O,D,S"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2345,7 +2366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2408,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU24"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2435,10 +2456,9 @@
     <col min="20" max="20" width="10.140625" style="4" customWidth="1"/>
     <col min="21" max="21" width="10.5703125" style="4" customWidth="1"/>
     <col min="22" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="5.42578125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="18" customWidth="1"/>
     <col min="27" max="28" width="10.140625" customWidth="1"/>
     <col min="29" max="29" width="13" customWidth="1"/>
     <col min="30" max="30" width="13.42578125" customWidth="1"/>
@@ -3617,8 +3637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/documents/employees/EMPLOYEES.xlsx
+++ b/documents/employees/EMPLOYEES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Master" sheetId="9" r:id="rId1"/>
@@ -1569,7 +1569,31 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1578,12 +1602,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1593,25 +1611,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1925,7 +1925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2429,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU24"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4344,46 +4344,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="151"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="157"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="158"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="158"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="157"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="154"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="157"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="14" t="s">
@@ -4505,47 +4505,47 @@
       <c r="A18" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="150">
+      <c r="B18" s="147">
         <f>B17-D17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:4">
-      <c r="A21" s="155"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="154"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="158"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="149"/>
+      <c r="A22" s="155"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="157"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="158"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="149"/>
+      <c r="A23" s="155"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="157"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="154"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="147" t="s">
+      <c r="A25" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="149"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="157"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="14" t="s">
@@ -4667,47 +4667,47 @@
       <c r="A37" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="150">
+      <c r="B37" s="147">
         <f>B36-D36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="151"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="148"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="40" spans="1:4">
-      <c r="A40" s="155"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="157"/>
+      <c r="A40" s="152"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="154"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="158"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="149"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="157"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="158"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="149"/>
+      <c r="A42" s="155"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="157"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="152" t="s">
+      <c r="A43" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="154"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="159"/>
+      <c r="D43" s="160"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="148"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="149"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="157"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="14" t="s">
@@ -4829,47 +4829,47 @@
       <c r="A56" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="150">
+      <c r="B56" s="147">
         <f>B55-D55</f>
         <v>0</v>
       </c>
-      <c r="C56" s="150"/>
-      <c r="D56" s="151"/>
+      <c r="C56" s="147"/>
+      <c r="D56" s="148"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="59" spans="1:4">
-      <c r="A59" s="155"/>
-      <c r="B59" s="156"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="157"/>
+      <c r="A59" s="152"/>
+      <c r="B59" s="153"/>
+      <c r="C59" s="153"/>
+      <c r="D59" s="154"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="158"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="149"/>
+      <c r="A60" s="155"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="157"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="158"/>
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="149"/>
+      <c r="A61" s="155"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="157"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="152" t="s">
+      <c r="A62" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="153"/>
-      <c r="C62" s="153"/>
-      <c r="D62" s="154"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="159"/>
+      <c r="D62" s="160"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="147" t="s">
+      <c r="A63" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="148"/>
-      <c r="C63" s="148"/>
-      <c r="D63" s="149"/>
+      <c r="B63" s="156"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="157"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="14" t="s">
@@ -4991,47 +4991,47 @@
       <c r="A75" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="150">
+      <c r="B75" s="147">
         <f>B74-D74</f>
         <v>0</v>
       </c>
-      <c r="C75" s="150"/>
-      <c r="D75" s="151"/>
+      <c r="C75" s="147"/>
+      <c r="D75" s="148"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="78" spans="1:4">
-      <c r="A78" s="155"/>
-      <c r="B78" s="156"/>
-      <c r="C78" s="156"/>
-      <c r="D78" s="157"/>
+      <c r="A78" s="152"/>
+      <c r="B78" s="153"/>
+      <c r="C78" s="153"/>
+      <c r="D78" s="154"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="158"/>
-      <c r="B79" s="148"/>
-      <c r="C79" s="148"/>
-      <c r="D79" s="149"/>
+      <c r="A79" s="155"/>
+      <c r="B79" s="156"/>
+      <c r="C79" s="156"/>
+      <c r="D79" s="157"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="158"/>
-      <c r="B80" s="148"/>
-      <c r="C80" s="148"/>
-      <c r="D80" s="149"/>
+      <c r="A80" s="155"/>
+      <c r="B80" s="156"/>
+      <c r="C80" s="156"/>
+      <c r="D80" s="157"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="152" t="s">
+      <c r="A81" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="153"/>
-      <c r="C81" s="153"/>
-      <c r="D81" s="154"/>
+      <c r="B81" s="159"/>
+      <c r="C81" s="159"/>
+      <c r="D81" s="160"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="147" t="s">
+      <c r="A82" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B82" s="148"/>
-      <c r="C82" s="148"/>
-      <c r="D82" s="149"/>
+      <c r="B82" s="156"/>
+      <c r="C82" s="156"/>
+      <c r="D82" s="157"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="14" t="s">
@@ -5153,47 +5153,47 @@
       <c r="A94" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="150">
+      <c r="B94" s="147">
         <f>B93-D93</f>
         <v>0</v>
       </c>
-      <c r="C94" s="150"/>
-      <c r="D94" s="151"/>
+      <c r="C94" s="147"/>
+      <c r="D94" s="148"/>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="97" spans="1:4">
-      <c r="A97" s="155"/>
-      <c r="B97" s="156"/>
-      <c r="C97" s="156"/>
-      <c r="D97" s="157"/>
+      <c r="A97" s="152"/>
+      <c r="B97" s="153"/>
+      <c r="C97" s="153"/>
+      <c r="D97" s="154"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="158"/>
-      <c r="B98" s="148"/>
-      <c r="C98" s="148"/>
-      <c r="D98" s="149"/>
+      <c r="A98" s="155"/>
+      <c r="B98" s="156"/>
+      <c r="C98" s="156"/>
+      <c r="D98" s="157"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="158"/>
-      <c r="B99" s="148"/>
-      <c r="C99" s="148"/>
-      <c r="D99" s="149"/>
+      <c r="A99" s="155"/>
+      <c r="B99" s="156"/>
+      <c r="C99" s="156"/>
+      <c r="D99" s="157"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="152" t="s">
+      <c r="A100" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="153"/>
-      <c r="C100" s="153"/>
-      <c r="D100" s="154"/>
+      <c r="B100" s="159"/>
+      <c r="C100" s="159"/>
+      <c r="D100" s="160"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="147" t="s">
+      <c r="A101" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B101" s="148"/>
-      <c r="C101" s="148"/>
-      <c r="D101" s="149"/>
+      <c r="B101" s="156"/>
+      <c r="C101" s="156"/>
+      <c r="D101" s="157"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="14" t="s">
@@ -5315,47 +5315,47 @@
       <c r="A113" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="150">
+      <c r="B113" s="147">
         <f>B112-D112</f>
         <v>0</v>
       </c>
-      <c r="C113" s="150"/>
-      <c r="D113" s="151"/>
+      <c r="C113" s="147"/>
+      <c r="D113" s="148"/>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="116" spans="1:4">
-      <c r="A116" s="155"/>
-      <c r="B116" s="156"/>
-      <c r="C116" s="156"/>
-      <c r="D116" s="157"/>
+      <c r="A116" s="152"/>
+      <c r="B116" s="153"/>
+      <c r="C116" s="153"/>
+      <c r="D116" s="154"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="158"/>
-      <c r="B117" s="148"/>
-      <c r="C117" s="148"/>
-      <c r="D117" s="149"/>
+      <c r="A117" s="155"/>
+      <c r="B117" s="156"/>
+      <c r="C117" s="156"/>
+      <c r="D117" s="157"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="158"/>
-      <c r="B118" s="148"/>
-      <c r="C118" s="148"/>
-      <c r="D118" s="149"/>
+      <c r="A118" s="155"/>
+      <c r="B118" s="156"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="157"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="152" t="s">
+      <c r="A119" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B119" s="153"/>
-      <c r="C119" s="153"/>
-      <c r="D119" s="154"/>
+      <c r="B119" s="159"/>
+      <c r="C119" s="159"/>
+      <c r="D119" s="160"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="147" t="s">
+      <c r="A120" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B120" s="148"/>
-      <c r="C120" s="148"/>
-      <c r="D120" s="149"/>
+      <c r="B120" s="156"/>
+      <c r="C120" s="156"/>
+      <c r="D120" s="157"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="14" t="s">
@@ -5477,15 +5477,42 @@
       <c r="A132" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B132" s="150">
+      <c r="B132" s="147">
         <f>B131-D131</f>
         <v>0</v>
       </c>
-      <c r="C132" s="150"/>
-      <c r="D132" s="151"/>
+      <c r="C132" s="147"/>
+      <c r="D132" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
     <mergeCell ref="B132:D132"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A116:D116"/>
@@ -5502,33 +5529,6 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/employees/EMPLOYEES.xlsx
+++ b/documents/employees/EMPLOYEES.xlsx
@@ -1569,12 +1569,42 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1582,36 +1612,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2429,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4344,46 +4344,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="151"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="152"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="157"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="157"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="149"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="154"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="149"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="14" t="s">
@@ -4505,47 +4505,47 @@
       <c r="A18" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="147">
+      <c r="B18" s="150">
         <f>B17-D17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:4">
-      <c r="A21" s="152"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="154"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="155"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="157"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="149"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="155"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="157"/>
+      <c r="A23" s="158"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="149"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="158" t="s">
+      <c r="A24" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="159"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="160"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="154"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="161" t="s">
+      <c r="A25" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="157"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="149"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="14" t="s">
@@ -4667,47 +4667,47 @@
       <c r="A37" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="147">
+      <c r="B37" s="150">
         <f>B36-D36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="147"/>
-      <c r="D37" s="148"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="151"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="40" spans="1:4">
-      <c r="A40" s="152"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="154"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="157"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="155"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="157"/>
+      <c r="A41" s="158"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="149"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="155"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="157"/>
+      <c r="A42" s="158"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="149"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="158" t="s">
+      <c r="A43" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="159"/>
-      <c r="C43" s="159"/>
-      <c r="D43" s="160"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="154"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="157"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="149"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="14" t="s">
@@ -4829,47 +4829,47 @@
       <c r="A56" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="147">
+      <c r="B56" s="150">
         <f>B55-D55</f>
         <v>0</v>
       </c>
-      <c r="C56" s="147"/>
-      <c r="D56" s="148"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="151"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="59" spans="1:4">
-      <c r="A59" s="152"/>
-      <c r="B59" s="153"/>
-      <c r="C59" s="153"/>
-      <c r="D59" s="154"/>
+      <c r="A59" s="155"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="157"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="155"/>
-      <c r="B60" s="156"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="157"/>
+      <c r="A60" s="158"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="149"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="155"/>
-      <c r="B61" s="156"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="157"/>
+      <c r="A61" s="158"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="149"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="158" t="s">
+      <c r="A62" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="159"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="160"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="153"/>
+      <c r="D62" s="154"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="161" t="s">
+      <c r="A63" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="157"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="149"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="14" t="s">
@@ -4991,47 +4991,47 @@
       <c r="A75" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="147">
+      <c r="B75" s="150">
         <f>B74-D74</f>
         <v>0</v>
       </c>
-      <c r="C75" s="147"/>
-      <c r="D75" s="148"/>
+      <c r="C75" s="150"/>
+      <c r="D75" s="151"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="78" spans="1:4">
-      <c r="A78" s="152"/>
-      <c r="B78" s="153"/>
-      <c r="C78" s="153"/>
-      <c r="D78" s="154"/>
+      <c r="A78" s="155"/>
+      <c r="B78" s="156"/>
+      <c r="C78" s="156"/>
+      <c r="D78" s="157"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="155"/>
-      <c r="B79" s="156"/>
-      <c r="C79" s="156"/>
-      <c r="D79" s="157"/>
+      <c r="A79" s="158"/>
+      <c r="B79" s="148"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="149"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="155"/>
-      <c r="B80" s="156"/>
-      <c r="C80" s="156"/>
-      <c r="D80" s="157"/>
+      <c r="A80" s="158"/>
+      <c r="B80" s="148"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="149"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="158" t="s">
+      <c r="A81" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="159"/>
-      <c r="C81" s="159"/>
-      <c r="D81" s="160"/>
+      <c r="B81" s="153"/>
+      <c r="C81" s="153"/>
+      <c r="D81" s="154"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="161" t="s">
+      <c r="A82" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="157"/>
+      <c r="B82" s="148"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="149"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="14" t="s">
@@ -5153,47 +5153,47 @@
       <c r="A94" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="147">
+      <c r="B94" s="150">
         <f>B93-D93</f>
         <v>0</v>
       </c>
-      <c r="C94" s="147"/>
-      <c r="D94" s="148"/>
+      <c r="C94" s="150"/>
+      <c r="D94" s="151"/>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="97" spans="1:4">
-      <c r="A97" s="152"/>
-      <c r="B97" s="153"/>
-      <c r="C97" s="153"/>
-      <c r="D97" s="154"/>
+      <c r="A97" s="155"/>
+      <c r="B97" s="156"/>
+      <c r="C97" s="156"/>
+      <c r="D97" s="157"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="155"/>
-      <c r="B98" s="156"/>
-      <c r="C98" s="156"/>
-      <c r="D98" s="157"/>
+      <c r="A98" s="158"/>
+      <c r="B98" s="148"/>
+      <c r="C98" s="148"/>
+      <c r="D98" s="149"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="155"/>
-      <c r="B99" s="156"/>
-      <c r="C99" s="156"/>
-      <c r="D99" s="157"/>
+      <c r="A99" s="158"/>
+      <c r="B99" s="148"/>
+      <c r="C99" s="148"/>
+      <c r="D99" s="149"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="158" t="s">
+      <c r="A100" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="159"/>
-      <c r="C100" s="159"/>
-      <c r="D100" s="160"/>
+      <c r="B100" s="153"/>
+      <c r="C100" s="153"/>
+      <c r="D100" s="154"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="161" t="s">
+      <c r="A101" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B101" s="156"/>
-      <c r="C101" s="156"/>
-      <c r="D101" s="157"/>
+      <c r="B101" s="148"/>
+      <c r="C101" s="148"/>
+      <c r="D101" s="149"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="14" t="s">
@@ -5315,47 +5315,47 @@
       <c r="A113" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="147">
+      <c r="B113" s="150">
         <f>B112-D112</f>
         <v>0</v>
       </c>
-      <c r="C113" s="147"/>
-      <c r="D113" s="148"/>
+      <c r="C113" s="150"/>
+      <c r="D113" s="151"/>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="116" spans="1:4">
-      <c r="A116" s="152"/>
-      <c r="B116" s="153"/>
-      <c r="C116" s="153"/>
-      <c r="D116" s="154"/>
+      <c r="A116" s="155"/>
+      <c r="B116" s="156"/>
+      <c r="C116" s="156"/>
+      <c r="D116" s="157"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="155"/>
-      <c r="B117" s="156"/>
-      <c r="C117" s="156"/>
-      <c r="D117" s="157"/>
+      <c r="A117" s="158"/>
+      <c r="B117" s="148"/>
+      <c r="C117" s="148"/>
+      <c r="D117" s="149"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="155"/>
-      <c r="B118" s="156"/>
-      <c r="C118" s="156"/>
-      <c r="D118" s="157"/>
+      <c r="A118" s="158"/>
+      <c r="B118" s="148"/>
+      <c r="C118" s="148"/>
+      <c r="D118" s="149"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="158" t="s">
+      <c r="A119" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="B119" s="159"/>
-      <c r="C119" s="159"/>
-      <c r="D119" s="160"/>
+      <c r="B119" s="153"/>
+      <c r="C119" s="153"/>
+      <c r="D119" s="154"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="161" t="s">
+      <c r="A120" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B120" s="156"/>
-      <c r="C120" s="156"/>
-      <c r="D120" s="157"/>
+      <c r="B120" s="148"/>
+      <c r="C120" s="148"/>
+      <c r="D120" s="149"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="14" t="s">
@@ -5477,42 +5477,15 @@
       <c r="A132" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B132" s="147">
+      <c r="B132" s="150">
         <f>B131-D131</f>
         <v>0</v>
       </c>
-      <c r="C132" s="147"/>
-      <c r="D132" s="148"/>
+      <c r="C132" s="150"/>
+      <c r="D132" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
     <mergeCell ref="B132:D132"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A116:D116"/>
@@ -5529,6 +5502,33 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/employees/EMPLOYEES.xlsx
+++ b/documents/employees/EMPLOYEES.xlsx
@@ -1569,7 +1569,31 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1578,12 +1602,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1593,25 +1611,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2429,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4344,46 +4344,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="151"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="157"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="158"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="158"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="157"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="154"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="157"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="14" t="s">
@@ -4505,47 +4505,47 @@
       <c r="A18" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="150">
+      <c r="B18" s="147">
         <f>B17-D17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:4">
-      <c r="A21" s="155"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="154"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="158"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="149"/>
+      <c r="A22" s="155"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="157"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="158"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="149"/>
+      <c r="A23" s="155"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="157"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="154"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="147" t="s">
+      <c r="A25" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="149"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="157"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="14" t="s">
@@ -4667,47 +4667,47 @@
       <c r="A37" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="150">
+      <c r="B37" s="147">
         <f>B36-D36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="151"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="148"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="40" spans="1:4">
-      <c r="A40" s="155"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="157"/>
+      <c r="A40" s="152"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="154"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="158"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="149"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="157"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="158"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="149"/>
+      <c r="A42" s="155"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="157"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="152" t="s">
+      <c r="A43" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="154"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="159"/>
+      <c r="D43" s="160"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="148"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="149"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="157"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="14" t="s">
@@ -4829,47 +4829,47 @@
       <c r="A56" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="150">
+      <c r="B56" s="147">
         <f>B55-D55</f>
         <v>0</v>
       </c>
-      <c r="C56" s="150"/>
-      <c r="D56" s="151"/>
+      <c r="C56" s="147"/>
+      <c r="D56" s="148"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="59" spans="1:4">
-      <c r="A59" s="155"/>
-      <c r="B59" s="156"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="157"/>
+      <c r="A59" s="152"/>
+      <c r="B59" s="153"/>
+      <c r="C59" s="153"/>
+      <c r="D59" s="154"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="158"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="149"/>
+      <c r="A60" s="155"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="157"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="158"/>
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="149"/>
+      <c r="A61" s="155"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="157"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="152" t="s">
+      <c r="A62" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="153"/>
-      <c r="C62" s="153"/>
-      <c r="D62" s="154"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="159"/>
+      <c r="D62" s="160"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="147" t="s">
+      <c r="A63" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="148"/>
-      <c r="C63" s="148"/>
-      <c r="D63" s="149"/>
+      <c r="B63" s="156"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="157"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="14" t="s">
@@ -4991,47 +4991,47 @@
       <c r="A75" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="150">
+      <c r="B75" s="147">
         <f>B74-D74</f>
         <v>0</v>
       </c>
-      <c r="C75" s="150"/>
-      <c r="D75" s="151"/>
+      <c r="C75" s="147"/>
+      <c r="D75" s="148"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="78" spans="1:4">
-      <c r="A78" s="155"/>
-      <c r="B78" s="156"/>
-      <c r="C78" s="156"/>
-      <c r="D78" s="157"/>
+      <c r="A78" s="152"/>
+      <c r="B78" s="153"/>
+      <c r="C78" s="153"/>
+      <c r="D78" s="154"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="158"/>
-      <c r="B79" s="148"/>
-      <c r="C79" s="148"/>
-      <c r="D79" s="149"/>
+      <c r="A79" s="155"/>
+      <c r="B79" s="156"/>
+      <c r="C79" s="156"/>
+      <c r="D79" s="157"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="158"/>
-      <c r="B80" s="148"/>
-      <c r="C80" s="148"/>
-      <c r="D80" s="149"/>
+      <c r="A80" s="155"/>
+      <c r="B80" s="156"/>
+      <c r="C80" s="156"/>
+      <c r="D80" s="157"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="152" t="s">
+      <c r="A81" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="153"/>
-      <c r="C81" s="153"/>
-      <c r="D81" s="154"/>
+      <c r="B81" s="159"/>
+      <c r="C81" s="159"/>
+      <c r="D81" s="160"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="147" t="s">
+      <c r="A82" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B82" s="148"/>
-      <c r="C82" s="148"/>
-      <c r="D82" s="149"/>
+      <c r="B82" s="156"/>
+      <c r="C82" s="156"/>
+      <c r="D82" s="157"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="14" t="s">
@@ -5153,47 +5153,47 @@
       <c r="A94" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="150">
+      <c r="B94" s="147">
         <f>B93-D93</f>
         <v>0</v>
       </c>
-      <c r="C94" s="150"/>
-      <c r="D94" s="151"/>
+      <c r="C94" s="147"/>
+      <c r="D94" s="148"/>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="97" spans="1:4">
-      <c r="A97" s="155"/>
-      <c r="B97" s="156"/>
-      <c r="C97" s="156"/>
-      <c r="D97" s="157"/>
+      <c r="A97" s="152"/>
+      <c r="B97" s="153"/>
+      <c r="C97" s="153"/>
+      <c r="D97" s="154"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="158"/>
-      <c r="B98" s="148"/>
-      <c r="C98" s="148"/>
-      <c r="D98" s="149"/>
+      <c r="A98" s="155"/>
+      <c r="B98" s="156"/>
+      <c r="C98" s="156"/>
+      <c r="D98" s="157"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="158"/>
-      <c r="B99" s="148"/>
-      <c r="C99" s="148"/>
-      <c r="D99" s="149"/>
+      <c r="A99" s="155"/>
+      <c r="B99" s="156"/>
+      <c r="C99" s="156"/>
+      <c r="D99" s="157"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="152" t="s">
+      <c r="A100" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="153"/>
-      <c r="C100" s="153"/>
-      <c r="D100" s="154"/>
+      <c r="B100" s="159"/>
+      <c r="C100" s="159"/>
+      <c r="D100" s="160"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="147" t="s">
+      <c r="A101" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B101" s="148"/>
-      <c r="C101" s="148"/>
-      <c r="D101" s="149"/>
+      <c r="B101" s="156"/>
+      <c r="C101" s="156"/>
+      <c r="D101" s="157"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="14" t="s">
@@ -5315,47 +5315,47 @@
       <c r="A113" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="150">
+      <c r="B113" s="147">
         <f>B112-D112</f>
         <v>0</v>
       </c>
-      <c r="C113" s="150"/>
-      <c r="D113" s="151"/>
+      <c r="C113" s="147"/>
+      <c r="D113" s="148"/>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="116" spans="1:4">
-      <c r="A116" s="155"/>
-      <c r="B116" s="156"/>
-      <c r="C116" s="156"/>
-      <c r="D116" s="157"/>
+      <c r="A116" s="152"/>
+      <c r="B116" s="153"/>
+      <c r="C116" s="153"/>
+      <c r="D116" s="154"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="158"/>
-      <c r="B117" s="148"/>
-      <c r="C117" s="148"/>
-      <c r="D117" s="149"/>
+      <c r="A117" s="155"/>
+      <c r="B117" s="156"/>
+      <c r="C117" s="156"/>
+      <c r="D117" s="157"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="158"/>
-      <c r="B118" s="148"/>
-      <c r="C118" s="148"/>
-      <c r="D118" s="149"/>
+      <c r="A118" s="155"/>
+      <c r="B118" s="156"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="157"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="152" t="s">
+      <c r="A119" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="B119" s="153"/>
-      <c r="C119" s="153"/>
-      <c r="D119" s="154"/>
+      <c r="B119" s="159"/>
+      <c r="C119" s="159"/>
+      <c r="D119" s="160"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="147" t="s">
+      <c r="A120" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="B120" s="148"/>
-      <c r="C120" s="148"/>
-      <c r="D120" s="149"/>
+      <c r="B120" s="156"/>
+      <c r="C120" s="156"/>
+      <c r="D120" s="157"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="14" t="s">
@@ -5477,15 +5477,42 @@
       <c r="A132" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B132" s="150">
+      <c r="B132" s="147">
         <f>B131-D131</f>
         <v>0</v>
       </c>
-      <c r="C132" s="150"/>
-      <c r="D132" s="151"/>
+      <c r="C132" s="147"/>
+      <c r="D132" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
     <mergeCell ref="B132:D132"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A116:D116"/>
@@ -5502,33 +5529,6 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/employees/EMPLOYEES.xlsx
+++ b/documents/employees/EMPLOYEES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Personal\HRMS\hrms\documents\employees\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475F128F-720D-4497-B833-20DD8248864B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6300" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Master" sheetId="9" r:id="rId1"/>
@@ -18,17 +19,31 @@
     <sheet name="Salary Acknowledgement Sheet" sheetId="3" r:id="rId4"/>
     <sheet name="Payslip" sheetId="5" r:id="rId5"/>
     <sheet name="EPF" sheetId="10" r:id="rId6"/>
-    <sheet name="ESI" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId7"/>
+    <sheet name="ESI" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Employee Master'!$A$1:$AG$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="177">
   <si>
     <t>Sl.No</t>
   </si>
@@ -613,11 +628,29 @@
   <si>
     <t>UST</t>
   </si>
+  <si>
+    <t>we will get from employee master</t>
+  </si>
+  <si>
+    <t>same as above</t>
+  </si>
+  <si>
+    <t>we will get from salary master ( total of actual basic pay and actual da )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12% of gross ( if gross is above 15000 we will 12% of 15000 ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">.2% of gross ( if gross is above 21000 EPS is 0 ) </t>
+  </si>
+  <si>
+    <t>doubt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
@@ -1181,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1191,8 +1224,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1201,38 +1234,30 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1240,12 +1265,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1259,13 +1283,8 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1290,19 +1309,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,7 +1321,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1322,9 +1331,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1343,9 +1349,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1361,9 +1364,6 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,9 +1379,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,37 +1445,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1569,12 +1557,42 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1582,36 +1600,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1637,9 +1625,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1677,9 +1665,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1714,7 +1702,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1749,7 +1737,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1922,7 +1910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1935,10 +1923,10 @@
     <col min="2" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="137" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="118" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="138" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="119" customWidth="1"/>
     <col min="11" max="11" width="11" style="4" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
@@ -1956,297 +1944,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="36">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="136" t="s">
+      <c r="I1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="126" t="s">
+      <c r="U1" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Y1" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="Z1" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AA1" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AB1" s="48" t="s">
+      <c r="AB1" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="48" t="s">
+      <c r="AC1" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AD1" s="48" t="s">
+      <c r="AD1" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="AE1" s="48" t="s">
+      <c r="AE1" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="48" t="s">
+      <c r="AF1" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="48" t="s">
+      <c r="AG1" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="36">
-      <c r="A4" s="42">
+      <c r="A4" s="34">
         <v>1</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="39">
         <v>9846999378</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="37">
         <v>123</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="Q4" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="S4" s="127">
+      <c r="S4" s="108">
         <v>100904319456</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="T4" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="U4" s="126" t="s">
+      <c r="U4" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="V4" s="48">
+      <c r="V4" s="40">
         <v>1000100100</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="Z4" s="48" t="s">
+      <c r="Z4" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AA4" s="48" t="s">
+      <c r="AA4" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="AB4" s="48" t="s">
+      <c r="AB4" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="AD4" s="48" t="s">
+      <c r="AD4" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48" t="s">
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="48">
-      <c r="A5" s="42">
+      <c r="A5" s="34">
         <v>2</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="140" t="s">
+      <c r="I5" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="39">
         <v>9446118148</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="37">
         <v>345</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="S5" s="127">
+      <c r="S5" s="108">
         <v>100904319457</v>
       </c>
-      <c r="T5" s="45" t="s">
+      <c r="T5" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="U5" s="126" t="s">
+      <c r="U5" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="V5" s="48">
+      <c r="V5" s="40">
         <v>1000100101</v>
       </c>
-      <c r="W5" s="44" t="s">
+      <c r="W5" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="X5" s="48" t="s">
+      <c r="X5" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="Y5" s="44" t="s">
+      <c r="Y5" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="Z5" s="48" t="s">
+      <c r="Z5" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AA5" s="44" t="s">
+      <c r="AA5" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AB5" s="48" t="s">
+      <c r="AB5" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AC5" s="44" t="s">
+      <c r="AC5" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD5" s="48" t="s">
+      <c r="AD5" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48" t="s">
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2263,97 +2251,97 @@
       <c r="D6" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="139" t="s">
+      <c r="G6" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="140" t="s">
+      <c r="I6" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="39">
         <v>9446118148</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O6" s="37">
         <v>345</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="P6" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="R6" s="47" t="s">
+      <c r="R6" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="S6" s="127">
+      <c r="S6" s="108">
         <v>100904319457</v>
       </c>
-      <c r="T6" s="45" t="s">
+      <c r="T6" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="U6" s="126" t="s">
+      <c r="U6" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="V6" s="48">
+      <c r="V6" s="40">
         <v>1000100101</v>
       </c>
-      <c r="W6" s="44" t="s">
+      <c r="W6" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="X6" s="48" t="s">
+      <c r="X6" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="Y6" s="44" t="s">
+      <c r="Y6" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="Z6" s="48" t="s">
+      <c r="Z6" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AA6" s="44" t="s">
+      <c r="AA6" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AB6" s="48" t="s">
+      <c r="AB6" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AC6" s="44" t="s">
+      <c r="AC6" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AD6" s="48" t="s">
+      <c r="AD6" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48" t="s">
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG3"/>
+  <autoFilter ref="A1:AG3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65508:F65517 WVN983012:WVN983021 WLR983012:WLR983021 WBV983012:WBV983021 VRZ983012:VRZ983021 VID983012:VID983021 UYH983012:UYH983021 UOL983012:UOL983021 UEP983012:UEP983021 TUT983012:TUT983021 TKX983012:TKX983021 TBB983012:TBB983021 SRF983012:SRF983021 SHJ983012:SHJ983021 RXN983012:RXN983021 RNR983012:RNR983021 RDV983012:RDV983021 QTZ983012:QTZ983021 QKD983012:QKD983021 QAH983012:QAH983021 PQL983012:PQL983021 PGP983012:PGP983021 OWT983012:OWT983021 OMX983012:OMX983021 ODB983012:ODB983021 NTF983012:NTF983021 NJJ983012:NJJ983021 MZN983012:MZN983021 MPR983012:MPR983021 MFV983012:MFV983021 LVZ983012:LVZ983021 LMD983012:LMD983021 LCH983012:LCH983021 KSL983012:KSL983021 KIP983012:KIP983021 JYT983012:JYT983021 JOX983012:JOX983021 JFB983012:JFB983021 IVF983012:IVF983021 ILJ983012:ILJ983021 IBN983012:IBN983021 HRR983012:HRR983021 HHV983012:HHV983021 GXZ983012:GXZ983021 GOD983012:GOD983021 GEH983012:GEH983021 FUL983012:FUL983021 FKP983012:FKP983021 FAT983012:FAT983021 EQX983012:EQX983021 EHB983012:EHB983021 DXF983012:DXF983021 DNJ983012:DNJ983021 DDN983012:DDN983021 CTR983012:CTR983021 CJV983012:CJV983021 BZZ983012:BZZ983021 BQD983012:BQD983021 BGH983012:BGH983021 AWL983012:AWL983021 AMP983012:AMP983021 ACT983012:ACT983021 SX983012:SX983021 JB983012:JB983021 F983012:F983021 WVN917476:WVN917485 WLR917476:WLR917485 WBV917476:WBV917485 VRZ917476:VRZ917485 VID917476:VID917485 UYH917476:UYH917485 UOL917476:UOL917485 UEP917476:UEP917485 TUT917476:TUT917485 TKX917476:TKX917485 TBB917476:TBB917485 SRF917476:SRF917485 SHJ917476:SHJ917485 RXN917476:RXN917485 RNR917476:RNR917485 RDV917476:RDV917485 QTZ917476:QTZ917485 QKD917476:QKD917485 QAH917476:QAH917485 PQL917476:PQL917485 PGP917476:PGP917485 OWT917476:OWT917485 OMX917476:OMX917485 ODB917476:ODB917485 NTF917476:NTF917485 NJJ917476:NJJ917485 MZN917476:MZN917485 MPR917476:MPR917485 MFV917476:MFV917485 LVZ917476:LVZ917485 LMD917476:LMD917485 LCH917476:LCH917485 KSL917476:KSL917485 KIP917476:KIP917485 JYT917476:JYT917485 JOX917476:JOX917485 JFB917476:JFB917485 IVF917476:IVF917485 ILJ917476:ILJ917485 IBN917476:IBN917485 HRR917476:HRR917485 HHV917476:HHV917485 GXZ917476:GXZ917485 GOD917476:GOD917485 GEH917476:GEH917485 FUL917476:FUL917485 FKP917476:FKP917485 FAT917476:FAT917485 EQX917476:EQX917485 EHB917476:EHB917485 DXF917476:DXF917485 DNJ917476:DNJ917485 DDN917476:DDN917485 CTR917476:CTR917485 CJV917476:CJV917485 BZZ917476:BZZ917485 BQD917476:BQD917485 BGH917476:BGH917485 AWL917476:AWL917485 AMP917476:AMP917485 ACT917476:ACT917485 SX917476:SX917485 JB917476:JB917485 F917476:F917485 WVN851940:WVN851949 WLR851940:WLR851949 WBV851940:WBV851949 VRZ851940:VRZ851949 VID851940:VID851949 UYH851940:UYH851949 UOL851940:UOL851949 UEP851940:UEP851949 TUT851940:TUT851949 TKX851940:TKX851949 TBB851940:TBB851949 SRF851940:SRF851949 SHJ851940:SHJ851949 RXN851940:RXN851949 RNR851940:RNR851949 RDV851940:RDV851949 QTZ851940:QTZ851949 QKD851940:QKD851949 QAH851940:QAH851949 PQL851940:PQL851949 PGP851940:PGP851949 OWT851940:OWT851949 OMX851940:OMX851949 ODB851940:ODB851949 NTF851940:NTF851949 NJJ851940:NJJ851949 MZN851940:MZN851949 MPR851940:MPR851949 MFV851940:MFV851949 LVZ851940:LVZ851949 LMD851940:LMD851949 LCH851940:LCH851949 KSL851940:KSL851949 KIP851940:KIP851949 JYT851940:JYT851949 JOX851940:JOX851949 JFB851940:JFB851949 IVF851940:IVF851949 ILJ851940:ILJ851949 IBN851940:IBN851949 HRR851940:HRR851949 HHV851940:HHV851949 GXZ851940:GXZ851949 GOD851940:GOD851949 GEH851940:GEH851949 FUL851940:FUL851949 FKP851940:FKP851949 FAT851940:FAT851949 EQX851940:EQX851949 EHB851940:EHB851949 DXF851940:DXF851949 DNJ851940:DNJ851949 DDN851940:DDN851949 CTR851940:CTR851949 CJV851940:CJV851949 BZZ851940:BZZ851949 BQD851940:BQD851949 BGH851940:BGH851949 AWL851940:AWL851949 AMP851940:AMP851949 ACT851940:ACT851949 SX851940:SX851949 JB851940:JB851949 F851940:F851949 WVN786404:WVN786413 WLR786404:WLR786413 WBV786404:WBV786413 VRZ786404:VRZ786413 VID786404:VID786413 UYH786404:UYH786413 UOL786404:UOL786413 UEP786404:UEP786413 TUT786404:TUT786413 TKX786404:TKX786413 TBB786404:TBB786413 SRF786404:SRF786413 SHJ786404:SHJ786413 RXN786404:RXN786413 RNR786404:RNR786413 RDV786404:RDV786413 QTZ786404:QTZ786413 QKD786404:QKD786413 QAH786404:QAH786413 PQL786404:PQL786413 PGP786404:PGP786413 OWT786404:OWT786413 OMX786404:OMX786413 ODB786404:ODB786413 NTF786404:NTF786413 NJJ786404:NJJ786413 MZN786404:MZN786413 MPR786404:MPR786413 MFV786404:MFV786413 LVZ786404:LVZ786413 LMD786404:LMD786413 LCH786404:LCH786413 KSL786404:KSL786413 KIP786404:KIP786413 JYT786404:JYT786413 JOX786404:JOX786413 JFB786404:JFB786413 IVF786404:IVF786413 ILJ786404:ILJ786413 IBN786404:IBN786413 HRR786404:HRR786413 HHV786404:HHV786413 GXZ786404:GXZ786413 GOD786404:GOD786413 GEH786404:GEH786413 FUL786404:FUL786413 FKP786404:FKP786413 FAT786404:FAT786413 EQX786404:EQX786413 EHB786404:EHB786413 DXF786404:DXF786413 DNJ786404:DNJ786413 DDN786404:DDN786413 CTR786404:CTR786413 CJV786404:CJV786413 BZZ786404:BZZ786413 BQD786404:BQD786413 BGH786404:BGH786413 AWL786404:AWL786413 AMP786404:AMP786413 ACT786404:ACT786413 SX786404:SX786413 JB786404:JB786413 F786404:F786413 WVN720868:WVN720877 WLR720868:WLR720877 WBV720868:WBV720877 VRZ720868:VRZ720877 VID720868:VID720877 UYH720868:UYH720877 UOL720868:UOL720877 UEP720868:UEP720877 TUT720868:TUT720877 TKX720868:TKX720877 TBB720868:TBB720877 SRF720868:SRF720877 SHJ720868:SHJ720877 RXN720868:RXN720877 RNR720868:RNR720877 RDV720868:RDV720877 QTZ720868:QTZ720877 QKD720868:QKD720877 QAH720868:QAH720877 PQL720868:PQL720877 PGP720868:PGP720877 OWT720868:OWT720877 OMX720868:OMX720877 ODB720868:ODB720877 NTF720868:NTF720877 NJJ720868:NJJ720877 MZN720868:MZN720877 MPR720868:MPR720877 MFV720868:MFV720877 LVZ720868:LVZ720877 LMD720868:LMD720877 LCH720868:LCH720877 KSL720868:KSL720877 KIP720868:KIP720877 JYT720868:JYT720877 JOX720868:JOX720877 JFB720868:JFB720877 IVF720868:IVF720877 ILJ720868:ILJ720877 IBN720868:IBN720877 HRR720868:HRR720877 HHV720868:HHV720877 GXZ720868:GXZ720877 GOD720868:GOD720877 GEH720868:GEH720877 FUL720868:FUL720877 FKP720868:FKP720877 FAT720868:FAT720877 EQX720868:EQX720877 EHB720868:EHB720877 DXF720868:DXF720877 DNJ720868:DNJ720877 DDN720868:DDN720877 CTR720868:CTR720877 CJV720868:CJV720877 BZZ720868:BZZ720877 BQD720868:BQD720877 BGH720868:BGH720877 AWL720868:AWL720877 AMP720868:AMP720877 ACT720868:ACT720877 SX720868:SX720877 JB720868:JB720877 F720868:F720877 WVN655332:WVN655341 WLR655332:WLR655341 WBV655332:WBV655341 VRZ655332:VRZ655341 VID655332:VID655341 UYH655332:UYH655341 UOL655332:UOL655341 UEP655332:UEP655341 TUT655332:TUT655341 TKX655332:TKX655341 TBB655332:TBB655341 SRF655332:SRF655341 SHJ655332:SHJ655341 RXN655332:RXN655341 RNR655332:RNR655341 RDV655332:RDV655341 QTZ655332:QTZ655341 QKD655332:QKD655341 QAH655332:QAH655341 PQL655332:PQL655341 PGP655332:PGP655341 OWT655332:OWT655341 OMX655332:OMX655341 ODB655332:ODB655341 NTF655332:NTF655341 NJJ655332:NJJ655341 MZN655332:MZN655341 MPR655332:MPR655341 MFV655332:MFV655341 LVZ655332:LVZ655341 LMD655332:LMD655341 LCH655332:LCH655341 KSL655332:KSL655341 KIP655332:KIP655341 JYT655332:JYT655341 JOX655332:JOX655341 JFB655332:JFB655341 IVF655332:IVF655341 ILJ655332:ILJ655341 IBN655332:IBN655341 HRR655332:HRR655341 HHV655332:HHV655341 GXZ655332:GXZ655341 GOD655332:GOD655341 GEH655332:GEH655341 FUL655332:FUL655341 FKP655332:FKP655341 FAT655332:FAT655341 EQX655332:EQX655341 EHB655332:EHB655341 DXF655332:DXF655341 DNJ655332:DNJ655341 DDN655332:DDN655341 CTR655332:CTR655341 CJV655332:CJV655341 BZZ655332:BZZ655341 BQD655332:BQD655341 BGH655332:BGH655341 AWL655332:AWL655341 AMP655332:AMP655341 ACT655332:ACT655341 SX655332:SX655341 JB655332:JB655341 F655332:F655341 WVN589796:WVN589805 WLR589796:WLR589805 WBV589796:WBV589805 VRZ589796:VRZ589805 VID589796:VID589805 UYH589796:UYH589805 UOL589796:UOL589805 UEP589796:UEP589805 TUT589796:TUT589805 TKX589796:TKX589805 TBB589796:TBB589805 SRF589796:SRF589805 SHJ589796:SHJ589805 RXN589796:RXN589805 RNR589796:RNR589805 RDV589796:RDV589805 QTZ589796:QTZ589805 QKD589796:QKD589805 QAH589796:QAH589805 PQL589796:PQL589805 PGP589796:PGP589805 OWT589796:OWT589805 OMX589796:OMX589805 ODB589796:ODB589805 NTF589796:NTF589805 NJJ589796:NJJ589805 MZN589796:MZN589805 MPR589796:MPR589805 MFV589796:MFV589805 LVZ589796:LVZ589805 LMD589796:LMD589805 LCH589796:LCH589805 KSL589796:KSL589805 KIP589796:KIP589805 JYT589796:JYT589805 JOX589796:JOX589805 JFB589796:JFB589805 IVF589796:IVF589805 ILJ589796:ILJ589805 IBN589796:IBN589805 HRR589796:HRR589805 HHV589796:HHV589805 GXZ589796:GXZ589805 GOD589796:GOD589805 GEH589796:GEH589805 FUL589796:FUL589805 FKP589796:FKP589805 FAT589796:FAT589805 EQX589796:EQX589805 EHB589796:EHB589805 DXF589796:DXF589805 DNJ589796:DNJ589805 DDN589796:DDN589805 CTR589796:CTR589805 CJV589796:CJV589805 BZZ589796:BZZ589805 BQD589796:BQD589805 BGH589796:BGH589805 AWL589796:AWL589805 AMP589796:AMP589805 ACT589796:ACT589805 SX589796:SX589805 JB589796:JB589805 F589796:F589805 WVN524260:WVN524269 WLR524260:WLR524269 WBV524260:WBV524269 VRZ524260:VRZ524269 VID524260:VID524269 UYH524260:UYH524269 UOL524260:UOL524269 UEP524260:UEP524269 TUT524260:TUT524269 TKX524260:TKX524269 TBB524260:TBB524269 SRF524260:SRF524269 SHJ524260:SHJ524269 RXN524260:RXN524269 RNR524260:RNR524269 RDV524260:RDV524269 QTZ524260:QTZ524269 QKD524260:QKD524269 QAH524260:QAH524269 PQL524260:PQL524269 PGP524260:PGP524269 OWT524260:OWT524269 OMX524260:OMX524269 ODB524260:ODB524269 NTF524260:NTF524269 NJJ524260:NJJ524269 MZN524260:MZN524269 MPR524260:MPR524269 MFV524260:MFV524269 LVZ524260:LVZ524269 LMD524260:LMD524269 LCH524260:LCH524269 KSL524260:KSL524269 KIP524260:KIP524269 JYT524260:JYT524269 JOX524260:JOX524269 JFB524260:JFB524269 IVF524260:IVF524269 ILJ524260:ILJ524269 IBN524260:IBN524269 HRR524260:HRR524269 HHV524260:HHV524269 GXZ524260:GXZ524269 GOD524260:GOD524269 GEH524260:GEH524269 FUL524260:FUL524269 FKP524260:FKP524269 FAT524260:FAT524269 EQX524260:EQX524269 EHB524260:EHB524269 DXF524260:DXF524269 DNJ524260:DNJ524269 DDN524260:DDN524269 CTR524260:CTR524269 CJV524260:CJV524269 BZZ524260:BZZ524269 BQD524260:BQD524269 BGH524260:BGH524269 AWL524260:AWL524269 AMP524260:AMP524269 ACT524260:ACT524269 SX524260:SX524269 JB524260:JB524269 F524260:F524269 WVN458724:WVN458733 WLR458724:WLR458733 WBV458724:WBV458733 VRZ458724:VRZ458733 VID458724:VID458733 UYH458724:UYH458733 UOL458724:UOL458733 UEP458724:UEP458733 TUT458724:TUT458733 TKX458724:TKX458733 TBB458724:TBB458733 SRF458724:SRF458733 SHJ458724:SHJ458733 RXN458724:RXN458733 RNR458724:RNR458733 RDV458724:RDV458733 QTZ458724:QTZ458733 QKD458724:QKD458733 QAH458724:QAH458733 PQL458724:PQL458733 PGP458724:PGP458733 OWT458724:OWT458733 OMX458724:OMX458733 ODB458724:ODB458733 NTF458724:NTF458733 NJJ458724:NJJ458733 MZN458724:MZN458733 MPR458724:MPR458733 MFV458724:MFV458733 LVZ458724:LVZ458733 LMD458724:LMD458733 LCH458724:LCH458733 KSL458724:KSL458733 KIP458724:KIP458733 JYT458724:JYT458733 JOX458724:JOX458733 JFB458724:JFB458733 IVF458724:IVF458733 ILJ458724:ILJ458733 IBN458724:IBN458733 HRR458724:HRR458733 HHV458724:HHV458733 GXZ458724:GXZ458733 GOD458724:GOD458733 GEH458724:GEH458733 FUL458724:FUL458733 FKP458724:FKP458733 FAT458724:FAT458733 EQX458724:EQX458733 EHB458724:EHB458733 DXF458724:DXF458733 DNJ458724:DNJ458733 DDN458724:DDN458733 CTR458724:CTR458733 CJV458724:CJV458733 BZZ458724:BZZ458733 BQD458724:BQD458733 BGH458724:BGH458733 AWL458724:AWL458733 AMP458724:AMP458733 ACT458724:ACT458733 SX458724:SX458733 JB458724:JB458733 F458724:F458733 WVN393188:WVN393197 WLR393188:WLR393197 WBV393188:WBV393197 VRZ393188:VRZ393197 VID393188:VID393197 UYH393188:UYH393197 UOL393188:UOL393197 UEP393188:UEP393197 TUT393188:TUT393197 TKX393188:TKX393197 TBB393188:TBB393197 SRF393188:SRF393197 SHJ393188:SHJ393197 RXN393188:RXN393197 RNR393188:RNR393197 RDV393188:RDV393197 QTZ393188:QTZ393197 QKD393188:QKD393197 QAH393188:QAH393197 PQL393188:PQL393197 PGP393188:PGP393197 OWT393188:OWT393197 OMX393188:OMX393197 ODB393188:ODB393197 NTF393188:NTF393197 NJJ393188:NJJ393197 MZN393188:MZN393197 MPR393188:MPR393197 MFV393188:MFV393197 LVZ393188:LVZ393197 LMD393188:LMD393197 LCH393188:LCH393197 KSL393188:KSL393197 KIP393188:KIP393197 JYT393188:JYT393197 JOX393188:JOX393197 JFB393188:JFB393197 IVF393188:IVF393197 ILJ393188:ILJ393197 IBN393188:IBN393197 HRR393188:HRR393197 HHV393188:HHV393197 GXZ393188:GXZ393197 GOD393188:GOD393197 GEH393188:GEH393197 FUL393188:FUL393197 FKP393188:FKP393197 FAT393188:FAT393197 EQX393188:EQX393197 EHB393188:EHB393197 DXF393188:DXF393197 DNJ393188:DNJ393197 DDN393188:DDN393197 CTR393188:CTR393197 CJV393188:CJV393197 BZZ393188:BZZ393197 BQD393188:BQD393197 BGH393188:BGH393197 AWL393188:AWL393197 AMP393188:AMP393197 ACT393188:ACT393197 SX393188:SX393197 JB393188:JB393197 F393188:F393197 WVN327652:WVN327661 WLR327652:WLR327661 WBV327652:WBV327661 VRZ327652:VRZ327661 VID327652:VID327661 UYH327652:UYH327661 UOL327652:UOL327661 UEP327652:UEP327661 TUT327652:TUT327661 TKX327652:TKX327661 TBB327652:TBB327661 SRF327652:SRF327661 SHJ327652:SHJ327661 RXN327652:RXN327661 RNR327652:RNR327661 RDV327652:RDV327661 QTZ327652:QTZ327661 QKD327652:QKD327661 QAH327652:QAH327661 PQL327652:PQL327661 PGP327652:PGP327661 OWT327652:OWT327661 OMX327652:OMX327661 ODB327652:ODB327661 NTF327652:NTF327661 NJJ327652:NJJ327661 MZN327652:MZN327661 MPR327652:MPR327661 MFV327652:MFV327661 LVZ327652:LVZ327661 LMD327652:LMD327661 LCH327652:LCH327661 KSL327652:KSL327661 KIP327652:KIP327661 JYT327652:JYT327661 JOX327652:JOX327661 JFB327652:JFB327661 IVF327652:IVF327661 ILJ327652:ILJ327661 IBN327652:IBN327661 HRR327652:HRR327661 HHV327652:HHV327661 GXZ327652:GXZ327661 GOD327652:GOD327661 GEH327652:GEH327661 FUL327652:FUL327661 FKP327652:FKP327661 FAT327652:FAT327661 EQX327652:EQX327661 EHB327652:EHB327661 DXF327652:DXF327661 DNJ327652:DNJ327661 DDN327652:DDN327661 CTR327652:CTR327661 CJV327652:CJV327661 BZZ327652:BZZ327661 BQD327652:BQD327661 BGH327652:BGH327661 AWL327652:AWL327661 AMP327652:AMP327661 ACT327652:ACT327661 SX327652:SX327661 JB327652:JB327661 F327652:F327661 WVN262116:WVN262125 WLR262116:WLR262125 WBV262116:WBV262125 VRZ262116:VRZ262125 VID262116:VID262125 UYH262116:UYH262125 UOL262116:UOL262125 UEP262116:UEP262125 TUT262116:TUT262125 TKX262116:TKX262125 TBB262116:TBB262125 SRF262116:SRF262125 SHJ262116:SHJ262125 RXN262116:RXN262125 RNR262116:RNR262125 RDV262116:RDV262125 QTZ262116:QTZ262125 QKD262116:QKD262125 QAH262116:QAH262125 PQL262116:PQL262125 PGP262116:PGP262125 OWT262116:OWT262125 OMX262116:OMX262125 ODB262116:ODB262125 NTF262116:NTF262125 NJJ262116:NJJ262125 MZN262116:MZN262125 MPR262116:MPR262125 MFV262116:MFV262125 LVZ262116:LVZ262125 LMD262116:LMD262125 LCH262116:LCH262125 KSL262116:KSL262125 KIP262116:KIP262125 JYT262116:JYT262125 JOX262116:JOX262125 JFB262116:JFB262125 IVF262116:IVF262125 ILJ262116:ILJ262125 IBN262116:IBN262125 HRR262116:HRR262125 HHV262116:HHV262125 GXZ262116:GXZ262125 GOD262116:GOD262125 GEH262116:GEH262125 FUL262116:FUL262125 FKP262116:FKP262125 FAT262116:FAT262125 EQX262116:EQX262125 EHB262116:EHB262125 DXF262116:DXF262125 DNJ262116:DNJ262125 DDN262116:DDN262125 CTR262116:CTR262125 CJV262116:CJV262125 BZZ262116:BZZ262125 BQD262116:BQD262125 BGH262116:BGH262125 AWL262116:AWL262125 AMP262116:AMP262125 ACT262116:ACT262125 SX262116:SX262125 JB262116:JB262125 F262116:F262125 WVN196580:WVN196589 WLR196580:WLR196589 WBV196580:WBV196589 VRZ196580:VRZ196589 VID196580:VID196589 UYH196580:UYH196589 UOL196580:UOL196589 UEP196580:UEP196589 TUT196580:TUT196589 TKX196580:TKX196589 TBB196580:TBB196589 SRF196580:SRF196589 SHJ196580:SHJ196589 RXN196580:RXN196589 RNR196580:RNR196589 RDV196580:RDV196589 QTZ196580:QTZ196589 QKD196580:QKD196589 QAH196580:QAH196589 PQL196580:PQL196589 PGP196580:PGP196589 OWT196580:OWT196589 OMX196580:OMX196589 ODB196580:ODB196589 NTF196580:NTF196589 NJJ196580:NJJ196589 MZN196580:MZN196589 MPR196580:MPR196589 MFV196580:MFV196589 LVZ196580:LVZ196589 LMD196580:LMD196589 LCH196580:LCH196589 KSL196580:KSL196589 KIP196580:KIP196589 JYT196580:JYT196589 JOX196580:JOX196589 JFB196580:JFB196589 IVF196580:IVF196589 ILJ196580:ILJ196589 IBN196580:IBN196589 HRR196580:HRR196589 HHV196580:HHV196589 GXZ196580:GXZ196589 GOD196580:GOD196589 GEH196580:GEH196589 FUL196580:FUL196589 FKP196580:FKP196589 FAT196580:FAT196589 EQX196580:EQX196589 EHB196580:EHB196589 DXF196580:DXF196589 DNJ196580:DNJ196589 DDN196580:DDN196589 CTR196580:CTR196589 CJV196580:CJV196589 BZZ196580:BZZ196589 BQD196580:BQD196589 BGH196580:BGH196589 AWL196580:AWL196589 AMP196580:AMP196589 ACT196580:ACT196589 SX196580:SX196589 JB196580:JB196589 F196580:F196589 WVN131044:WVN131053 WLR131044:WLR131053 WBV131044:WBV131053 VRZ131044:VRZ131053 VID131044:VID131053 UYH131044:UYH131053 UOL131044:UOL131053 UEP131044:UEP131053 TUT131044:TUT131053 TKX131044:TKX131053 TBB131044:TBB131053 SRF131044:SRF131053 SHJ131044:SHJ131053 RXN131044:RXN131053 RNR131044:RNR131053 RDV131044:RDV131053 QTZ131044:QTZ131053 QKD131044:QKD131053 QAH131044:QAH131053 PQL131044:PQL131053 PGP131044:PGP131053 OWT131044:OWT131053 OMX131044:OMX131053 ODB131044:ODB131053 NTF131044:NTF131053 NJJ131044:NJJ131053 MZN131044:MZN131053 MPR131044:MPR131053 MFV131044:MFV131053 LVZ131044:LVZ131053 LMD131044:LMD131053 LCH131044:LCH131053 KSL131044:KSL131053 KIP131044:KIP131053 JYT131044:JYT131053 JOX131044:JOX131053 JFB131044:JFB131053 IVF131044:IVF131053 ILJ131044:ILJ131053 IBN131044:IBN131053 HRR131044:HRR131053 HHV131044:HHV131053 GXZ131044:GXZ131053 GOD131044:GOD131053 GEH131044:GEH131053 FUL131044:FUL131053 FKP131044:FKP131053 FAT131044:FAT131053 EQX131044:EQX131053 EHB131044:EHB131053 DXF131044:DXF131053 DNJ131044:DNJ131053 DDN131044:DDN131053 CTR131044:CTR131053 CJV131044:CJV131053 BZZ131044:BZZ131053 BQD131044:BQD131053 BGH131044:BGH131053 AWL131044:AWL131053 AMP131044:AMP131053 ACT131044:ACT131053 SX131044:SX131053 JB131044:JB131053 F131044:F131053 WVN65508:WVN65517 WLR65508:WLR65517 WBV65508:WBV65517 VRZ65508:VRZ65517 VID65508:VID65517 UYH65508:UYH65517 UOL65508:UOL65517 UEP65508:UEP65517 TUT65508:TUT65517 TKX65508:TKX65517 TBB65508:TBB65517 SRF65508:SRF65517 SHJ65508:SHJ65517 RXN65508:RXN65517 RNR65508:RNR65517 RDV65508:RDV65517 QTZ65508:QTZ65517 QKD65508:QKD65517 QAH65508:QAH65517 PQL65508:PQL65517 PGP65508:PGP65517 OWT65508:OWT65517 OMX65508:OMX65517 ODB65508:ODB65517 NTF65508:NTF65517 NJJ65508:NJJ65517 MZN65508:MZN65517 MPR65508:MPR65517 MFV65508:MFV65517 LVZ65508:LVZ65517 LMD65508:LMD65517 LCH65508:LCH65517 KSL65508:KSL65517 KIP65508:KIP65517 JYT65508:JYT65517 JOX65508:JOX65517 JFB65508:JFB65517 IVF65508:IVF65517 ILJ65508:ILJ65517 IBN65508:IBN65517 HRR65508:HRR65517 HHV65508:HHV65517 GXZ65508:GXZ65517 GOD65508:GOD65517 GEH65508:GEH65517 FUL65508:FUL65517 FKP65508:FKP65517 FAT65508:FAT65517 EQX65508:EQX65517 EHB65508:EHB65517 DXF65508:DXF65517 DNJ65508:DNJ65517 DDN65508:DDN65517 CTR65508:CTR65517 CJV65508:CJV65517 BZZ65508:BZZ65517 BQD65508:BQD65517 BGH65508:BGH65517 AWL65508:AWL65517 AMP65508:AMP65517 ACT65508:ACT65517 SX65508:SX65517 JB65508:JB65517 WVN2:WVN3 WLR2:WLR3 WBV2:WBV3 VRZ2:VRZ3 VID2:VID3 UYH2:UYH3 UOL2:UOL3 UEP2:UEP3 TUT2:TUT3 TKX2:TKX3 TBB2:TBB3 SRF2:SRF3 SHJ2:SHJ3 RXN2:RXN3 RNR2:RNR3 RDV2:RDV3 QTZ2:QTZ3 QKD2:QKD3 QAH2:QAH3 PQL2:PQL3 PGP2:PGP3 OWT2:OWT3 OMX2:OMX3 ODB2:ODB3 NTF2:NTF3 NJJ2:NJJ3 MZN2:MZN3 MPR2:MPR3 MFV2:MFV3 LVZ2:LVZ3 LMD2:LMD3 LCH2:LCH3 KSL2:KSL3 KIP2:KIP3 JYT2:JYT3 JOX2:JOX3 JFB2:JFB3 IVF2:IVF3 ILJ2:ILJ3 IBN2:IBN3 HRR2:HRR3 HHV2:HHV3 GXZ2:GXZ3 GOD2:GOD3 GEH2:GEH3 FUL2:FUL3 FKP2:FKP3 FAT2:FAT3 EQX2:EQX3 EHB2:EHB3 DXF2:DXF3 DNJ2:DNJ3 DDN2:DDN3 CTR2:CTR3 CJV2:CJV3 BZZ2:BZZ3 BQD2:BQD3 BGH2:BGH3 AWL2:AWL3 AMP2:AMP3 ACT2:ACT3 SX2:SX3 JB2:JB3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65508:F65517 WVN983012:WVN983021 WLR983012:WLR983021 WBV983012:WBV983021 VRZ983012:VRZ983021 VID983012:VID983021 UYH983012:UYH983021 UOL983012:UOL983021 UEP983012:UEP983021 TUT983012:TUT983021 TKX983012:TKX983021 TBB983012:TBB983021 SRF983012:SRF983021 SHJ983012:SHJ983021 RXN983012:RXN983021 RNR983012:RNR983021 RDV983012:RDV983021 QTZ983012:QTZ983021 QKD983012:QKD983021 QAH983012:QAH983021 PQL983012:PQL983021 PGP983012:PGP983021 OWT983012:OWT983021 OMX983012:OMX983021 ODB983012:ODB983021 NTF983012:NTF983021 NJJ983012:NJJ983021 MZN983012:MZN983021 MPR983012:MPR983021 MFV983012:MFV983021 LVZ983012:LVZ983021 LMD983012:LMD983021 LCH983012:LCH983021 KSL983012:KSL983021 KIP983012:KIP983021 JYT983012:JYT983021 JOX983012:JOX983021 JFB983012:JFB983021 IVF983012:IVF983021 ILJ983012:ILJ983021 IBN983012:IBN983021 HRR983012:HRR983021 HHV983012:HHV983021 GXZ983012:GXZ983021 GOD983012:GOD983021 GEH983012:GEH983021 FUL983012:FUL983021 FKP983012:FKP983021 FAT983012:FAT983021 EQX983012:EQX983021 EHB983012:EHB983021 DXF983012:DXF983021 DNJ983012:DNJ983021 DDN983012:DDN983021 CTR983012:CTR983021 CJV983012:CJV983021 BZZ983012:BZZ983021 BQD983012:BQD983021 BGH983012:BGH983021 AWL983012:AWL983021 AMP983012:AMP983021 ACT983012:ACT983021 SX983012:SX983021 JB983012:JB983021 F983012:F983021 WVN917476:WVN917485 WLR917476:WLR917485 WBV917476:WBV917485 VRZ917476:VRZ917485 VID917476:VID917485 UYH917476:UYH917485 UOL917476:UOL917485 UEP917476:UEP917485 TUT917476:TUT917485 TKX917476:TKX917485 TBB917476:TBB917485 SRF917476:SRF917485 SHJ917476:SHJ917485 RXN917476:RXN917485 RNR917476:RNR917485 RDV917476:RDV917485 QTZ917476:QTZ917485 QKD917476:QKD917485 QAH917476:QAH917485 PQL917476:PQL917485 PGP917476:PGP917485 OWT917476:OWT917485 OMX917476:OMX917485 ODB917476:ODB917485 NTF917476:NTF917485 NJJ917476:NJJ917485 MZN917476:MZN917485 MPR917476:MPR917485 MFV917476:MFV917485 LVZ917476:LVZ917485 LMD917476:LMD917485 LCH917476:LCH917485 KSL917476:KSL917485 KIP917476:KIP917485 JYT917476:JYT917485 JOX917476:JOX917485 JFB917476:JFB917485 IVF917476:IVF917485 ILJ917476:ILJ917485 IBN917476:IBN917485 HRR917476:HRR917485 HHV917476:HHV917485 GXZ917476:GXZ917485 GOD917476:GOD917485 GEH917476:GEH917485 FUL917476:FUL917485 FKP917476:FKP917485 FAT917476:FAT917485 EQX917476:EQX917485 EHB917476:EHB917485 DXF917476:DXF917485 DNJ917476:DNJ917485 DDN917476:DDN917485 CTR917476:CTR917485 CJV917476:CJV917485 BZZ917476:BZZ917485 BQD917476:BQD917485 BGH917476:BGH917485 AWL917476:AWL917485 AMP917476:AMP917485 ACT917476:ACT917485 SX917476:SX917485 JB917476:JB917485 F917476:F917485 WVN851940:WVN851949 WLR851940:WLR851949 WBV851940:WBV851949 VRZ851940:VRZ851949 VID851940:VID851949 UYH851940:UYH851949 UOL851940:UOL851949 UEP851940:UEP851949 TUT851940:TUT851949 TKX851940:TKX851949 TBB851940:TBB851949 SRF851940:SRF851949 SHJ851940:SHJ851949 RXN851940:RXN851949 RNR851940:RNR851949 RDV851940:RDV851949 QTZ851940:QTZ851949 QKD851940:QKD851949 QAH851940:QAH851949 PQL851940:PQL851949 PGP851940:PGP851949 OWT851940:OWT851949 OMX851940:OMX851949 ODB851940:ODB851949 NTF851940:NTF851949 NJJ851940:NJJ851949 MZN851940:MZN851949 MPR851940:MPR851949 MFV851940:MFV851949 LVZ851940:LVZ851949 LMD851940:LMD851949 LCH851940:LCH851949 KSL851940:KSL851949 KIP851940:KIP851949 JYT851940:JYT851949 JOX851940:JOX851949 JFB851940:JFB851949 IVF851940:IVF851949 ILJ851940:ILJ851949 IBN851940:IBN851949 HRR851940:HRR851949 HHV851940:HHV851949 GXZ851940:GXZ851949 GOD851940:GOD851949 GEH851940:GEH851949 FUL851940:FUL851949 FKP851940:FKP851949 FAT851940:FAT851949 EQX851940:EQX851949 EHB851940:EHB851949 DXF851940:DXF851949 DNJ851940:DNJ851949 DDN851940:DDN851949 CTR851940:CTR851949 CJV851940:CJV851949 BZZ851940:BZZ851949 BQD851940:BQD851949 BGH851940:BGH851949 AWL851940:AWL851949 AMP851940:AMP851949 ACT851940:ACT851949 SX851940:SX851949 JB851940:JB851949 F851940:F851949 WVN786404:WVN786413 WLR786404:WLR786413 WBV786404:WBV786413 VRZ786404:VRZ786413 VID786404:VID786413 UYH786404:UYH786413 UOL786404:UOL786413 UEP786404:UEP786413 TUT786404:TUT786413 TKX786404:TKX786413 TBB786404:TBB786413 SRF786404:SRF786413 SHJ786404:SHJ786413 RXN786404:RXN786413 RNR786404:RNR786413 RDV786404:RDV786413 QTZ786404:QTZ786413 QKD786404:QKD786413 QAH786404:QAH786413 PQL786404:PQL786413 PGP786404:PGP786413 OWT786404:OWT786413 OMX786404:OMX786413 ODB786404:ODB786413 NTF786404:NTF786413 NJJ786404:NJJ786413 MZN786404:MZN786413 MPR786404:MPR786413 MFV786404:MFV786413 LVZ786404:LVZ786413 LMD786404:LMD786413 LCH786404:LCH786413 KSL786404:KSL786413 KIP786404:KIP786413 JYT786404:JYT786413 JOX786404:JOX786413 JFB786404:JFB786413 IVF786404:IVF786413 ILJ786404:ILJ786413 IBN786404:IBN786413 HRR786404:HRR786413 HHV786404:HHV786413 GXZ786404:GXZ786413 GOD786404:GOD786413 GEH786404:GEH786413 FUL786404:FUL786413 FKP786404:FKP786413 FAT786404:FAT786413 EQX786404:EQX786413 EHB786404:EHB786413 DXF786404:DXF786413 DNJ786404:DNJ786413 DDN786404:DDN786413 CTR786404:CTR786413 CJV786404:CJV786413 BZZ786404:BZZ786413 BQD786404:BQD786413 BGH786404:BGH786413 AWL786404:AWL786413 AMP786404:AMP786413 ACT786404:ACT786413 SX786404:SX786413 JB786404:JB786413 F786404:F786413 WVN720868:WVN720877 WLR720868:WLR720877 WBV720868:WBV720877 VRZ720868:VRZ720877 VID720868:VID720877 UYH720868:UYH720877 UOL720868:UOL720877 UEP720868:UEP720877 TUT720868:TUT720877 TKX720868:TKX720877 TBB720868:TBB720877 SRF720868:SRF720877 SHJ720868:SHJ720877 RXN720868:RXN720877 RNR720868:RNR720877 RDV720868:RDV720877 QTZ720868:QTZ720877 QKD720868:QKD720877 QAH720868:QAH720877 PQL720868:PQL720877 PGP720868:PGP720877 OWT720868:OWT720877 OMX720868:OMX720877 ODB720868:ODB720877 NTF720868:NTF720877 NJJ720868:NJJ720877 MZN720868:MZN720877 MPR720868:MPR720877 MFV720868:MFV720877 LVZ720868:LVZ720877 LMD720868:LMD720877 LCH720868:LCH720877 KSL720868:KSL720877 KIP720868:KIP720877 JYT720868:JYT720877 JOX720868:JOX720877 JFB720868:JFB720877 IVF720868:IVF720877 ILJ720868:ILJ720877 IBN720868:IBN720877 HRR720868:HRR720877 HHV720868:HHV720877 GXZ720868:GXZ720877 GOD720868:GOD720877 GEH720868:GEH720877 FUL720868:FUL720877 FKP720868:FKP720877 FAT720868:FAT720877 EQX720868:EQX720877 EHB720868:EHB720877 DXF720868:DXF720877 DNJ720868:DNJ720877 DDN720868:DDN720877 CTR720868:CTR720877 CJV720868:CJV720877 BZZ720868:BZZ720877 BQD720868:BQD720877 BGH720868:BGH720877 AWL720868:AWL720877 AMP720868:AMP720877 ACT720868:ACT720877 SX720868:SX720877 JB720868:JB720877 F720868:F720877 WVN655332:WVN655341 WLR655332:WLR655341 WBV655332:WBV655341 VRZ655332:VRZ655341 VID655332:VID655341 UYH655332:UYH655341 UOL655332:UOL655341 UEP655332:UEP655341 TUT655332:TUT655341 TKX655332:TKX655341 TBB655332:TBB655341 SRF655332:SRF655341 SHJ655332:SHJ655341 RXN655332:RXN655341 RNR655332:RNR655341 RDV655332:RDV655341 QTZ655332:QTZ655341 QKD655332:QKD655341 QAH655332:QAH655341 PQL655332:PQL655341 PGP655332:PGP655341 OWT655332:OWT655341 OMX655332:OMX655341 ODB655332:ODB655341 NTF655332:NTF655341 NJJ655332:NJJ655341 MZN655332:MZN655341 MPR655332:MPR655341 MFV655332:MFV655341 LVZ655332:LVZ655341 LMD655332:LMD655341 LCH655332:LCH655341 KSL655332:KSL655341 KIP655332:KIP655341 JYT655332:JYT655341 JOX655332:JOX655341 JFB655332:JFB655341 IVF655332:IVF655341 ILJ655332:ILJ655341 IBN655332:IBN655341 HRR655332:HRR655341 HHV655332:HHV655341 GXZ655332:GXZ655341 GOD655332:GOD655341 GEH655332:GEH655341 FUL655332:FUL655341 FKP655332:FKP655341 FAT655332:FAT655341 EQX655332:EQX655341 EHB655332:EHB655341 DXF655332:DXF655341 DNJ655332:DNJ655341 DDN655332:DDN655341 CTR655332:CTR655341 CJV655332:CJV655341 BZZ655332:BZZ655341 BQD655332:BQD655341 BGH655332:BGH655341 AWL655332:AWL655341 AMP655332:AMP655341 ACT655332:ACT655341 SX655332:SX655341 JB655332:JB655341 F655332:F655341 WVN589796:WVN589805 WLR589796:WLR589805 WBV589796:WBV589805 VRZ589796:VRZ589805 VID589796:VID589805 UYH589796:UYH589805 UOL589796:UOL589805 UEP589796:UEP589805 TUT589796:TUT589805 TKX589796:TKX589805 TBB589796:TBB589805 SRF589796:SRF589805 SHJ589796:SHJ589805 RXN589796:RXN589805 RNR589796:RNR589805 RDV589796:RDV589805 QTZ589796:QTZ589805 QKD589796:QKD589805 QAH589796:QAH589805 PQL589796:PQL589805 PGP589796:PGP589805 OWT589796:OWT589805 OMX589796:OMX589805 ODB589796:ODB589805 NTF589796:NTF589805 NJJ589796:NJJ589805 MZN589796:MZN589805 MPR589796:MPR589805 MFV589796:MFV589805 LVZ589796:LVZ589805 LMD589796:LMD589805 LCH589796:LCH589805 KSL589796:KSL589805 KIP589796:KIP589805 JYT589796:JYT589805 JOX589796:JOX589805 JFB589796:JFB589805 IVF589796:IVF589805 ILJ589796:ILJ589805 IBN589796:IBN589805 HRR589796:HRR589805 HHV589796:HHV589805 GXZ589796:GXZ589805 GOD589796:GOD589805 GEH589796:GEH589805 FUL589796:FUL589805 FKP589796:FKP589805 FAT589796:FAT589805 EQX589796:EQX589805 EHB589796:EHB589805 DXF589796:DXF589805 DNJ589796:DNJ589805 DDN589796:DDN589805 CTR589796:CTR589805 CJV589796:CJV589805 BZZ589796:BZZ589805 BQD589796:BQD589805 BGH589796:BGH589805 AWL589796:AWL589805 AMP589796:AMP589805 ACT589796:ACT589805 SX589796:SX589805 JB589796:JB589805 F589796:F589805 WVN524260:WVN524269 WLR524260:WLR524269 WBV524260:WBV524269 VRZ524260:VRZ524269 VID524260:VID524269 UYH524260:UYH524269 UOL524260:UOL524269 UEP524260:UEP524269 TUT524260:TUT524269 TKX524260:TKX524269 TBB524260:TBB524269 SRF524260:SRF524269 SHJ524260:SHJ524269 RXN524260:RXN524269 RNR524260:RNR524269 RDV524260:RDV524269 QTZ524260:QTZ524269 QKD524260:QKD524269 QAH524260:QAH524269 PQL524260:PQL524269 PGP524260:PGP524269 OWT524260:OWT524269 OMX524260:OMX524269 ODB524260:ODB524269 NTF524260:NTF524269 NJJ524260:NJJ524269 MZN524260:MZN524269 MPR524260:MPR524269 MFV524260:MFV524269 LVZ524260:LVZ524269 LMD524260:LMD524269 LCH524260:LCH524269 KSL524260:KSL524269 KIP524260:KIP524269 JYT524260:JYT524269 JOX524260:JOX524269 JFB524260:JFB524269 IVF524260:IVF524269 ILJ524260:ILJ524269 IBN524260:IBN524269 HRR524260:HRR524269 HHV524260:HHV524269 GXZ524260:GXZ524269 GOD524260:GOD524269 GEH524260:GEH524269 FUL524260:FUL524269 FKP524260:FKP524269 FAT524260:FAT524269 EQX524260:EQX524269 EHB524260:EHB524269 DXF524260:DXF524269 DNJ524260:DNJ524269 DDN524260:DDN524269 CTR524260:CTR524269 CJV524260:CJV524269 BZZ524260:BZZ524269 BQD524260:BQD524269 BGH524260:BGH524269 AWL524260:AWL524269 AMP524260:AMP524269 ACT524260:ACT524269 SX524260:SX524269 JB524260:JB524269 F524260:F524269 WVN458724:WVN458733 WLR458724:WLR458733 WBV458724:WBV458733 VRZ458724:VRZ458733 VID458724:VID458733 UYH458724:UYH458733 UOL458724:UOL458733 UEP458724:UEP458733 TUT458724:TUT458733 TKX458724:TKX458733 TBB458724:TBB458733 SRF458724:SRF458733 SHJ458724:SHJ458733 RXN458724:RXN458733 RNR458724:RNR458733 RDV458724:RDV458733 QTZ458724:QTZ458733 QKD458724:QKD458733 QAH458724:QAH458733 PQL458724:PQL458733 PGP458724:PGP458733 OWT458724:OWT458733 OMX458724:OMX458733 ODB458724:ODB458733 NTF458724:NTF458733 NJJ458724:NJJ458733 MZN458724:MZN458733 MPR458724:MPR458733 MFV458724:MFV458733 LVZ458724:LVZ458733 LMD458724:LMD458733 LCH458724:LCH458733 KSL458724:KSL458733 KIP458724:KIP458733 JYT458724:JYT458733 JOX458724:JOX458733 JFB458724:JFB458733 IVF458724:IVF458733 ILJ458724:ILJ458733 IBN458724:IBN458733 HRR458724:HRR458733 HHV458724:HHV458733 GXZ458724:GXZ458733 GOD458724:GOD458733 GEH458724:GEH458733 FUL458724:FUL458733 FKP458724:FKP458733 FAT458724:FAT458733 EQX458724:EQX458733 EHB458724:EHB458733 DXF458724:DXF458733 DNJ458724:DNJ458733 DDN458724:DDN458733 CTR458724:CTR458733 CJV458724:CJV458733 BZZ458724:BZZ458733 BQD458724:BQD458733 BGH458724:BGH458733 AWL458724:AWL458733 AMP458724:AMP458733 ACT458724:ACT458733 SX458724:SX458733 JB458724:JB458733 F458724:F458733 WVN393188:WVN393197 WLR393188:WLR393197 WBV393188:WBV393197 VRZ393188:VRZ393197 VID393188:VID393197 UYH393188:UYH393197 UOL393188:UOL393197 UEP393188:UEP393197 TUT393188:TUT393197 TKX393188:TKX393197 TBB393188:TBB393197 SRF393188:SRF393197 SHJ393188:SHJ393197 RXN393188:RXN393197 RNR393188:RNR393197 RDV393188:RDV393197 QTZ393188:QTZ393197 QKD393188:QKD393197 QAH393188:QAH393197 PQL393188:PQL393197 PGP393188:PGP393197 OWT393188:OWT393197 OMX393188:OMX393197 ODB393188:ODB393197 NTF393188:NTF393197 NJJ393188:NJJ393197 MZN393188:MZN393197 MPR393188:MPR393197 MFV393188:MFV393197 LVZ393188:LVZ393197 LMD393188:LMD393197 LCH393188:LCH393197 KSL393188:KSL393197 KIP393188:KIP393197 JYT393188:JYT393197 JOX393188:JOX393197 JFB393188:JFB393197 IVF393188:IVF393197 ILJ393188:ILJ393197 IBN393188:IBN393197 HRR393188:HRR393197 HHV393188:HHV393197 GXZ393188:GXZ393197 GOD393188:GOD393197 GEH393188:GEH393197 FUL393188:FUL393197 FKP393188:FKP393197 FAT393188:FAT393197 EQX393188:EQX393197 EHB393188:EHB393197 DXF393188:DXF393197 DNJ393188:DNJ393197 DDN393188:DDN393197 CTR393188:CTR393197 CJV393188:CJV393197 BZZ393188:BZZ393197 BQD393188:BQD393197 BGH393188:BGH393197 AWL393188:AWL393197 AMP393188:AMP393197 ACT393188:ACT393197 SX393188:SX393197 JB393188:JB393197 F393188:F393197 WVN327652:WVN327661 WLR327652:WLR327661 WBV327652:WBV327661 VRZ327652:VRZ327661 VID327652:VID327661 UYH327652:UYH327661 UOL327652:UOL327661 UEP327652:UEP327661 TUT327652:TUT327661 TKX327652:TKX327661 TBB327652:TBB327661 SRF327652:SRF327661 SHJ327652:SHJ327661 RXN327652:RXN327661 RNR327652:RNR327661 RDV327652:RDV327661 QTZ327652:QTZ327661 QKD327652:QKD327661 QAH327652:QAH327661 PQL327652:PQL327661 PGP327652:PGP327661 OWT327652:OWT327661 OMX327652:OMX327661 ODB327652:ODB327661 NTF327652:NTF327661 NJJ327652:NJJ327661 MZN327652:MZN327661 MPR327652:MPR327661 MFV327652:MFV327661 LVZ327652:LVZ327661 LMD327652:LMD327661 LCH327652:LCH327661 KSL327652:KSL327661 KIP327652:KIP327661 JYT327652:JYT327661 JOX327652:JOX327661 JFB327652:JFB327661 IVF327652:IVF327661 ILJ327652:ILJ327661 IBN327652:IBN327661 HRR327652:HRR327661 HHV327652:HHV327661 GXZ327652:GXZ327661 GOD327652:GOD327661 GEH327652:GEH327661 FUL327652:FUL327661 FKP327652:FKP327661 FAT327652:FAT327661 EQX327652:EQX327661 EHB327652:EHB327661 DXF327652:DXF327661 DNJ327652:DNJ327661 DDN327652:DDN327661 CTR327652:CTR327661 CJV327652:CJV327661 BZZ327652:BZZ327661 BQD327652:BQD327661 BGH327652:BGH327661 AWL327652:AWL327661 AMP327652:AMP327661 ACT327652:ACT327661 SX327652:SX327661 JB327652:JB327661 F327652:F327661 WVN262116:WVN262125 WLR262116:WLR262125 WBV262116:WBV262125 VRZ262116:VRZ262125 VID262116:VID262125 UYH262116:UYH262125 UOL262116:UOL262125 UEP262116:UEP262125 TUT262116:TUT262125 TKX262116:TKX262125 TBB262116:TBB262125 SRF262116:SRF262125 SHJ262116:SHJ262125 RXN262116:RXN262125 RNR262116:RNR262125 RDV262116:RDV262125 QTZ262116:QTZ262125 QKD262116:QKD262125 QAH262116:QAH262125 PQL262116:PQL262125 PGP262116:PGP262125 OWT262116:OWT262125 OMX262116:OMX262125 ODB262116:ODB262125 NTF262116:NTF262125 NJJ262116:NJJ262125 MZN262116:MZN262125 MPR262116:MPR262125 MFV262116:MFV262125 LVZ262116:LVZ262125 LMD262116:LMD262125 LCH262116:LCH262125 KSL262116:KSL262125 KIP262116:KIP262125 JYT262116:JYT262125 JOX262116:JOX262125 JFB262116:JFB262125 IVF262116:IVF262125 ILJ262116:ILJ262125 IBN262116:IBN262125 HRR262116:HRR262125 HHV262116:HHV262125 GXZ262116:GXZ262125 GOD262116:GOD262125 GEH262116:GEH262125 FUL262116:FUL262125 FKP262116:FKP262125 FAT262116:FAT262125 EQX262116:EQX262125 EHB262116:EHB262125 DXF262116:DXF262125 DNJ262116:DNJ262125 DDN262116:DDN262125 CTR262116:CTR262125 CJV262116:CJV262125 BZZ262116:BZZ262125 BQD262116:BQD262125 BGH262116:BGH262125 AWL262116:AWL262125 AMP262116:AMP262125 ACT262116:ACT262125 SX262116:SX262125 JB262116:JB262125 F262116:F262125 WVN196580:WVN196589 WLR196580:WLR196589 WBV196580:WBV196589 VRZ196580:VRZ196589 VID196580:VID196589 UYH196580:UYH196589 UOL196580:UOL196589 UEP196580:UEP196589 TUT196580:TUT196589 TKX196580:TKX196589 TBB196580:TBB196589 SRF196580:SRF196589 SHJ196580:SHJ196589 RXN196580:RXN196589 RNR196580:RNR196589 RDV196580:RDV196589 QTZ196580:QTZ196589 QKD196580:QKD196589 QAH196580:QAH196589 PQL196580:PQL196589 PGP196580:PGP196589 OWT196580:OWT196589 OMX196580:OMX196589 ODB196580:ODB196589 NTF196580:NTF196589 NJJ196580:NJJ196589 MZN196580:MZN196589 MPR196580:MPR196589 MFV196580:MFV196589 LVZ196580:LVZ196589 LMD196580:LMD196589 LCH196580:LCH196589 KSL196580:KSL196589 KIP196580:KIP196589 JYT196580:JYT196589 JOX196580:JOX196589 JFB196580:JFB196589 IVF196580:IVF196589 ILJ196580:ILJ196589 IBN196580:IBN196589 HRR196580:HRR196589 HHV196580:HHV196589 GXZ196580:GXZ196589 GOD196580:GOD196589 GEH196580:GEH196589 FUL196580:FUL196589 FKP196580:FKP196589 FAT196580:FAT196589 EQX196580:EQX196589 EHB196580:EHB196589 DXF196580:DXF196589 DNJ196580:DNJ196589 DDN196580:DDN196589 CTR196580:CTR196589 CJV196580:CJV196589 BZZ196580:BZZ196589 BQD196580:BQD196589 BGH196580:BGH196589 AWL196580:AWL196589 AMP196580:AMP196589 ACT196580:ACT196589 SX196580:SX196589 JB196580:JB196589 F196580:F196589 WVN131044:WVN131053 WLR131044:WLR131053 WBV131044:WBV131053 VRZ131044:VRZ131053 VID131044:VID131053 UYH131044:UYH131053 UOL131044:UOL131053 UEP131044:UEP131053 TUT131044:TUT131053 TKX131044:TKX131053 TBB131044:TBB131053 SRF131044:SRF131053 SHJ131044:SHJ131053 RXN131044:RXN131053 RNR131044:RNR131053 RDV131044:RDV131053 QTZ131044:QTZ131053 QKD131044:QKD131053 QAH131044:QAH131053 PQL131044:PQL131053 PGP131044:PGP131053 OWT131044:OWT131053 OMX131044:OMX131053 ODB131044:ODB131053 NTF131044:NTF131053 NJJ131044:NJJ131053 MZN131044:MZN131053 MPR131044:MPR131053 MFV131044:MFV131053 LVZ131044:LVZ131053 LMD131044:LMD131053 LCH131044:LCH131053 KSL131044:KSL131053 KIP131044:KIP131053 JYT131044:JYT131053 JOX131044:JOX131053 JFB131044:JFB131053 IVF131044:IVF131053 ILJ131044:ILJ131053 IBN131044:IBN131053 HRR131044:HRR131053 HHV131044:HHV131053 GXZ131044:GXZ131053 GOD131044:GOD131053 GEH131044:GEH131053 FUL131044:FUL131053 FKP131044:FKP131053 FAT131044:FAT131053 EQX131044:EQX131053 EHB131044:EHB131053 DXF131044:DXF131053 DNJ131044:DNJ131053 DDN131044:DDN131053 CTR131044:CTR131053 CJV131044:CJV131053 BZZ131044:BZZ131053 BQD131044:BQD131053 BGH131044:BGH131053 AWL131044:AWL131053 AMP131044:AMP131053 ACT131044:ACT131053 SX131044:SX131053 JB131044:JB131053 F131044:F131053 WVN65508:WVN65517 WLR65508:WLR65517 WBV65508:WBV65517 VRZ65508:VRZ65517 VID65508:VID65517 UYH65508:UYH65517 UOL65508:UOL65517 UEP65508:UEP65517 TUT65508:TUT65517 TKX65508:TKX65517 TBB65508:TBB65517 SRF65508:SRF65517 SHJ65508:SHJ65517 RXN65508:RXN65517 RNR65508:RNR65517 RDV65508:RDV65517 QTZ65508:QTZ65517 QKD65508:QKD65517 QAH65508:QAH65517 PQL65508:PQL65517 PGP65508:PGP65517 OWT65508:OWT65517 OMX65508:OMX65517 ODB65508:ODB65517 NTF65508:NTF65517 NJJ65508:NJJ65517 MZN65508:MZN65517 MPR65508:MPR65517 MFV65508:MFV65517 LVZ65508:LVZ65517 LMD65508:LMD65517 LCH65508:LCH65517 KSL65508:KSL65517 KIP65508:KIP65517 JYT65508:JYT65517 JOX65508:JOX65517 JFB65508:JFB65517 IVF65508:IVF65517 ILJ65508:ILJ65517 IBN65508:IBN65517 HRR65508:HRR65517 HHV65508:HHV65517 GXZ65508:GXZ65517 GOD65508:GOD65517 GEH65508:GEH65517 FUL65508:FUL65517 FKP65508:FKP65517 FAT65508:FAT65517 EQX65508:EQX65517 EHB65508:EHB65517 DXF65508:DXF65517 DNJ65508:DNJ65517 DDN65508:DDN65517 CTR65508:CTR65517 CJV65508:CJV65517 BZZ65508:BZZ65517 BQD65508:BQD65517 BGH65508:BGH65517 AWL65508:AWL65517 AMP65508:AMP65517 ACT65508:ACT65517 SX65508:SX65517 JB65508:JB65517 WVN2:WVN3 WLR2:WLR3 WBV2:WBV3 VRZ2:VRZ3 VID2:VID3 UYH2:UYH3 UOL2:UOL3 UEP2:UEP3 TUT2:TUT3 TKX2:TKX3 TBB2:TBB3 SRF2:SRF3 SHJ2:SHJ3 RXN2:RXN3 RNR2:RNR3 RDV2:RDV3 QTZ2:QTZ3 QKD2:QKD3 QAH2:QAH3 PQL2:PQL3 PGP2:PGP3 OWT2:OWT3 OMX2:OMX3 ODB2:ODB3 NTF2:NTF3 NJJ2:NJJ3 MZN2:MZN3 MPR2:MPR3 MFV2:MFV3 LVZ2:LVZ3 LMD2:LMD3 LCH2:LCH3 KSL2:KSL3 KIP2:KIP3 JYT2:JYT3 JOX2:JOX3 JFB2:JFB3 IVF2:IVF3 ILJ2:ILJ3 IBN2:IBN3 HRR2:HRR3 HHV2:HHV3 GXZ2:GXZ3 GOD2:GOD3 GEH2:GEH3 FUL2:FUL3 FKP2:FKP3 FAT2:FAT3 EQX2:EQX3 EHB2:EHB3 DXF2:DXF3 DNJ2:DNJ3 DDN2:DDN3 CTR2:CTR3 CJV2:CJV3 BZZ2:BZZ3 BQD2:BQD3 BGH2:BGH3 AWL2:AWL3 AMP2:AMP3 ACT2:ACT3 SX2:SX3 JB2:JB3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"F,M,TG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z65514:Z65517 WWF983018:WWF983021 WMJ983018:WMJ983021 WCN983018:WCN983021 VSR983018:VSR983021 VIV983018:VIV983021 UYZ983018:UYZ983021 UPD983018:UPD983021 UFH983018:UFH983021 TVL983018:TVL983021 TLP983018:TLP983021 TBT983018:TBT983021 SRX983018:SRX983021 SIB983018:SIB983021 RYF983018:RYF983021 ROJ983018:ROJ983021 REN983018:REN983021 QUR983018:QUR983021 QKV983018:QKV983021 QAZ983018:QAZ983021 PRD983018:PRD983021 PHH983018:PHH983021 OXL983018:OXL983021 ONP983018:ONP983021 ODT983018:ODT983021 NTX983018:NTX983021 NKB983018:NKB983021 NAF983018:NAF983021 MQJ983018:MQJ983021 MGN983018:MGN983021 LWR983018:LWR983021 LMV983018:LMV983021 LCZ983018:LCZ983021 KTD983018:KTD983021 KJH983018:KJH983021 JZL983018:JZL983021 JPP983018:JPP983021 JFT983018:JFT983021 IVX983018:IVX983021 IMB983018:IMB983021 ICF983018:ICF983021 HSJ983018:HSJ983021 HIN983018:HIN983021 GYR983018:GYR983021 GOV983018:GOV983021 GEZ983018:GEZ983021 FVD983018:FVD983021 FLH983018:FLH983021 FBL983018:FBL983021 ERP983018:ERP983021 EHT983018:EHT983021 DXX983018:DXX983021 DOB983018:DOB983021 DEF983018:DEF983021 CUJ983018:CUJ983021 CKN983018:CKN983021 CAR983018:CAR983021 BQV983018:BQV983021 BGZ983018:BGZ983021 AXD983018:AXD983021 ANH983018:ANH983021 ADL983018:ADL983021 TP983018:TP983021 JT983018:JT983021 X983018:X983021 WWF917482:WWF917485 WMJ917482:WMJ917485 WCN917482:WCN917485 VSR917482:VSR917485 VIV917482:VIV917485 UYZ917482:UYZ917485 UPD917482:UPD917485 UFH917482:UFH917485 TVL917482:TVL917485 TLP917482:TLP917485 TBT917482:TBT917485 SRX917482:SRX917485 SIB917482:SIB917485 RYF917482:RYF917485 ROJ917482:ROJ917485 REN917482:REN917485 QUR917482:QUR917485 QKV917482:QKV917485 QAZ917482:QAZ917485 PRD917482:PRD917485 PHH917482:PHH917485 OXL917482:OXL917485 ONP917482:ONP917485 ODT917482:ODT917485 NTX917482:NTX917485 NKB917482:NKB917485 NAF917482:NAF917485 MQJ917482:MQJ917485 MGN917482:MGN917485 LWR917482:LWR917485 LMV917482:LMV917485 LCZ917482:LCZ917485 KTD917482:KTD917485 KJH917482:KJH917485 JZL917482:JZL917485 JPP917482:JPP917485 JFT917482:JFT917485 IVX917482:IVX917485 IMB917482:IMB917485 ICF917482:ICF917485 HSJ917482:HSJ917485 HIN917482:HIN917485 GYR917482:GYR917485 GOV917482:GOV917485 GEZ917482:GEZ917485 FVD917482:FVD917485 FLH917482:FLH917485 FBL917482:FBL917485 ERP917482:ERP917485 EHT917482:EHT917485 DXX917482:DXX917485 DOB917482:DOB917485 DEF917482:DEF917485 CUJ917482:CUJ917485 CKN917482:CKN917485 CAR917482:CAR917485 BQV917482:BQV917485 BGZ917482:BGZ917485 AXD917482:AXD917485 ANH917482:ANH917485 ADL917482:ADL917485 TP917482:TP917485 JT917482:JT917485 X917482:X917485 WWF851946:WWF851949 WMJ851946:WMJ851949 WCN851946:WCN851949 VSR851946:VSR851949 VIV851946:VIV851949 UYZ851946:UYZ851949 UPD851946:UPD851949 UFH851946:UFH851949 TVL851946:TVL851949 TLP851946:TLP851949 TBT851946:TBT851949 SRX851946:SRX851949 SIB851946:SIB851949 RYF851946:RYF851949 ROJ851946:ROJ851949 REN851946:REN851949 QUR851946:QUR851949 QKV851946:QKV851949 QAZ851946:QAZ851949 PRD851946:PRD851949 PHH851946:PHH851949 OXL851946:OXL851949 ONP851946:ONP851949 ODT851946:ODT851949 NTX851946:NTX851949 NKB851946:NKB851949 NAF851946:NAF851949 MQJ851946:MQJ851949 MGN851946:MGN851949 LWR851946:LWR851949 LMV851946:LMV851949 LCZ851946:LCZ851949 KTD851946:KTD851949 KJH851946:KJH851949 JZL851946:JZL851949 JPP851946:JPP851949 JFT851946:JFT851949 IVX851946:IVX851949 IMB851946:IMB851949 ICF851946:ICF851949 HSJ851946:HSJ851949 HIN851946:HIN851949 GYR851946:GYR851949 GOV851946:GOV851949 GEZ851946:GEZ851949 FVD851946:FVD851949 FLH851946:FLH851949 FBL851946:FBL851949 ERP851946:ERP851949 EHT851946:EHT851949 DXX851946:DXX851949 DOB851946:DOB851949 DEF851946:DEF851949 CUJ851946:CUJ851949 CKN851946:CKN851949 CAR851946:CAR851949 BQV851946:BQV851949 BGZ851946:BGZ851949 AXD851946:AXD851949 ANH851946:ANH851949 ADL851946:ADL851949 TP851946:TP851949 JT851946:JT851949 X851946:X851949 WWF786410:WWF786413 WMJ786410:WMJ786413 WCN786410:WCN786413 VSR786410:VSR786413 VIV786410:VIV786413 UYZ786410:UYZ786413 UPD786410:UPD786413 UFH786410:UFH786413 TVL786410:TVL786413 TLP786410:TLP786413 TBT786410:TBT786413 SRX786410:SRX786413 SIB786410:SIB786413 RYF786410:RYF786413 ROJ786410:ROJ786413 REN786410:REN786413 QUR786410:QUR786413 QKV786410:QKV786413 QAZ786410:QAZ786413 PRD786410:PRD786413 PHH786410:PHH786413 OXL786410:OXL786413 ONP786410:ONP786413 ODT786410:ODT786413 NTX786410:NTX786413 NKB786410:NKB786413 NAF786410:NAF786413 MQJ786410:MQJ786413 MGN786410:MGN786413 LWR786410:LWR786413 LMV786410:LMV786413 LCZ786410:LCZ786413 KTD786410:KTD786413 KJH786410:KJH786413 JZL786410:JZL786413 JPP786410:JPP786413 JFT786410:JFT786413 IVX786410:IVX786413 IMB786410:IMB786413 ICF786410:ICF786413 HSJ786410:HSJ786413 HIN786410:HIN786413 GYR786410:GYR786413 GOV786410:GOV786413 GEZ786410:GEZ786413 FVD786410:FVD786413 FLH786410:FLH786413 FBL786410:FBL786413 ERP786410:ERP786413 EHT786410:EHT786413 DXX786410:DXX786413 DOB786410:DOB786413 DEF786410:DEF786413 CUJ786410:CUJ786413 CKN786410:CKN786413 CAR786410:CAR786413 BQV786410:BQV786413 BGZ786410:BGZ786413 AXD786410:AXD786413 ANH786410:ANH786413 ADL786410:ADL786413 TP786410:TP786413 JT786410:JT786413 X786410:X786413 WWF720874:WWF720877 WMJ720874:WMJ720877 WCN720874:WCN720877 VSR720874:VSR720877 VIV720874:VIV720877 UYZ720874:UYZ720877 UPD720874:UPD720877 UFH720874:UFH720877 TVL720874:TVL720877 TLP720874:TLP720877 TBT720874:TBT720877 SRX720874:SRX720877 SIB720874:SIB720877 RYF720874:RYF720877 ROJ720874:ROJ720877 REN720874:REN720877 QUR720874:QUR720877 QKV720874:QKV720877 QAZ720874:QAZ720877 PRD720874:PRD720877 PHH720874:PHH720877 OXL720874:OXL720877 ONP720874:ONP720877 ODT720874:ODT720877 NTX720874:NTX720877 NKB720874:NKB720877 NAF720874:NAF720877 MQJ720874:MQJ720877 MGN720874:MGN720877 LWR720874:LWR720877 LMV720874:LMV720877 LCZ720874:LCZ720877 KTD720874:KTD720877 KJH720874:KJH720877 JZL720874:JZL720877 JPP720874:JPP720877 JFT720874:JFT720877 IVX720874:IVX720877 IMB720874:IMB720877 ICF720874:ICF720877 HSJ720874:HSJ720877 HIN720874:HIN720877 GYR720874:GYR720877 GOV720874:GOV720877 GEZ720874:GEZ720877 FVD720874:FVD720877 FLH720874:FLH720877 FBL720874:FBL720877 ERP720874:ERP720877 EHT720874:EHT720877 DXX720874:DXX720877 DOB720874:DOB720877 DEF720874:DEF720877 CUJ720874:CUJ720877 CKN720874:CKN720877 CAR720874:CAR720877 BQV720874:BQV720877 BGZ720874:BGZ720877 AXD720874:AXD720877 ANH720874:ANH720877 ADL720874:ADL720877 TP720874:TP720877 JT720874:JT720877 X720874:X720877 WWF655338:WWF655341 WMJ655338:WMJ655341 WCN655338:WCN655341 VSR655338:VSR655341 VIV655338:VIV655341 UYZ655338:UYZ655341 UPD655338:UPD655341 UFH655338:UFH655341 TVL655338:TVL655341 TLP655338:TLP655341 TBT655338:TBT655341 SRX655338:SRX655341 SIB655338:SIB655341 RYF655338:RYF655341 ROJ655338:ROJ655341 REN655338:REN655341 QUR655338:QUR655341 QKV655338:QKV655341 QAZ655338:QAZ655341 PRD655338:PRD655341 PHH655338:PHH655341 OXL655338:OXL655341 ONP655338:ONP655341 ODT655338:ODT655341 NTX655338:NTX655341 NKB655338:NKB655341 NAF655338:NAF655341 MQJ655338:MQJ655341 MGN655338:MGN655341 LWR655338:LWR655341 LMV655338:LMV655341 LCZ655338:LCZ655341 KTD655338:KTD655341 KJH655338:KJH655341 JZL655338:JZL655341 JPP655338:JPP655341 JFT655338:JFT655341 IVX655338:IVX655341 IMB655338:IMB655341 ICF655338:ICF655341 HSJ655338:HSJ655341 HIN655338:HIN655341 GYR655338:GYR655341 GOV655338:GOV655341 GEZ655338:GEZ655341 FVD655338:FVD655341 FLH655338:FLH655341 FBL655338:FBL655341 ERP655338:ERP655341 EHT655338:EHT655341 DXX655338:DXX655341 DOB655338:DOB655341 DEF655338:DEF655341 CUJ655338:CUJ655341 CKN655338:CKN655341 CAR655338:CAR655341 BQV655338:BQV655341 BGZ655338:BGZ655341 AXD655338:AXD655341 ANH655338:ANH655341 ADL655338:ADL655341 TP655338:TP655341 JT655338:JT655341 X655338:X655341 WWF589802:WWF589805 WMJ589802:WMJ589805 WCN589802:WCN589805 VSR589802:VSR589805 VIV589802:VIV589805 UYZ589802:UYZ589805 UPD589802:UPD589805 UFH589802:UFH589805 TVL589802:TVL589805 TLP589802:TLP589805 TBT589802:TBT589805 SRX589802:SRX589805 SIB589802:SIB589805 RYF589802:RYF589805 ROJ589802:ROJ589805 REN589802:REN589805 QUR589802:QUR589805 QKV589802:QKV589805 QAZ589802:QAZ589805 PRD589802:PRD589805 PHH589802:PHH589805 OXL589802:OXL589805 ONP589802:ONP589805 ODT589802:ODT589805 NTX589802:NTX589805 NKB589802:NKB589805 NAF589802:NAF589805 MQJ589802:MQJ589805 MGN589802:MGN589805 LWR589802:LWR589805 LMV589802:LMV589805 LCZ589802:LCZ589805 KTD589802:KTD589805 KJH589802:KJH589805 JZL589802:JZL589805 JPP589802:JPP589805 JFT589802:JFT589805 IVX589802:IVX589805 IMB589802:IMB589805 ICF589802:ICF589805 HSJ589802:HSJ589805 HIN589802:HIN589805 GYR589802:GYR589805 GOV589802:GOV589805 GEZ589802:GEZ589805 FVD589802:FVD589805 FLH589802:FLH589805 FBL589802:FBL589805 ERP589802:ERP589805 EHT589802:EHT589805 DXX589802:DXX589805 DOB589802:DOB589805 DEF589802:DEF589805 CUJ589802:CUJ589805 CKN589802:CKN589805 CAR589802:CAR589805 BQV589802:BQV589805 BGZ589802:BGZ589805 AXD589802:AXD589805 ANH589802:ANH589805 ADL589802:ADL589805 TP589802:TP589805 JT589802:JT589805 X589802:X589805 WWF524266:WWF524269 WMJ524266:WMJ524269 WCN524266:WCN524269 VSR524266:VSR524269 VIV524266:VIV524269 UYZ524266:UYZ524269 UPD524266:UPD524269 UFH524266:UFH524269 TVL524266:TVL524269 TLP524266:TLP524269 TBT524266:TBT524269 SRX524266:SRX524269 SIB524266:SIB524269 RYF524266:RYF524269 ROJ524266:ROJ524269 REN524266:REN524269 QUR524266:QUR524269 QKV524266:QKV524269 QAZ524266:QAZ524269 PRD524266:PRD524269 PHH524266:PHH524269 OXL524266:OXL524269 ONP524266:ONP524269 ODT524266:ODT524269 NTX524266:NTX524269 NKB524266:NKB524269 NAF524266:NAF524269 MQJ524266:MQJ524269 MGN524266:MGN524269 LWR524266:LWR524269 LMV524266:LMV524269 LCZ524266:LCZ524269 KTD524266:KTD524269 KJH524266:KJH524269 JZL524266:JZL524269 JPP524266:JPP524269 JFT524266:JFT524269 IVX524266:IVX524269 IMB524266:IMB524269 ICF524266:ICF524269 HSJ524266:HSJ524269 HIN524266:HIN524269 GYR524266:GYR524269 GOV524266:GOV524269 GEZ524266:GEZ524269 FVD524266:FVD524269 FLH524266:FLH524269 FBL524266:FBL524269 ERP524266:ERP524269 EHT524266:EHT524269 DXX524266:DXX524269 DOB524266:DOB524269 DEF524266:DEF524269 CUJ524266:CUJ524269 CKN524266:CKN524269 CAR524266:CAR524269 BQV524266:BQV524269 BGZ524266:BGZ524269 AXD524266:AXD524269 ANH524266:ANH524269 ADL524266:ADL524269 TP524266:TP524269 JT524266:JT524269 X524266:X524269 WWF458730:WWF458733 WMJ458730:WMJ458733 WCN458730:WCN458733 VSR458730:VSR458733 VIV458730:VIV458733 UYZ458730:UYZ458733 UPD458730:UPD458733 UFH458730:UFH458733 TVL458730:TVL458733 TLP458730:TLP458733 TBT458730:TBT458733 SRX458730:SRX458733 SIB458730:SIB458733 RYF458730:RYF458733 ROJ458730:ROJ458733 REN458730:REN458733 QUR458730:QUR458733 QKV458730:QKV458733 QAZ458730:QAZ458733 PRD458730:PRD458733 PHH458730:PHH458733 OXL458730:OXL458733 ONP458730:ONP458733 ODT458730:ODT458733 NTX458730:NTX458733 NKB458730:NKB458733 NAF458730:NAF458733 MQJ458730:MQJ458733 MGN458730:MGN458733 LWR458730:LWR458733 LMV458730:LMV458733 LCZ458730:LCZ458733 KTD458730:KTD458733 KJH458730:KJH458733 JZL458730:JZL458733 JPP458730:JPP458733 JFT458730:JFT458733 IVX458730:IVX458733 IMB458730:IMB458733 ICF458730:ICF458733 HSJ458730:HSJ458733 HIN458730:HIN458733 GYR458730:GYR458733 GOV458730:GOV458733 GEZ458730:GEZ458733 FVD458730:FVD458733 FLH458730:FLH458733 FBL458730:FBL458733 ERP458730:ERP458733 EHT458730:EHT458733 DXX458730:DXX458733 DOB458730:DOB458733 DEF458730:DEF458733 CUJ458730:CUJ458733 CKN458730:CKN458733 CAR458730:CAR458733 BQV458730:BQV458733 BGZ458730:BGZ458733 AXD458730:AXD458733 ANH458730:ANH458733 ADL458730:ADL458733 TP458730:TP458733 JT458730:JT458733 X458730:X458733 WWF393194:WWF393197 WMJ393194:WMJ393197 WCN393194:WCN393197 VSR393194:VSR393197 VIV393194:VIV393197 UYZ393194:UYZ393197 UPD393194:UPD393197 UFH393194:UFH393197 TVL393194:TVL393197 TLP393194:TLP393197 TBT393194:TBT393197 SRX393194:SRX393197 SIB393194:SIB393197 RYF393194:RYF393197 ROJ393194:ROJ393197 REN393194:REN393197 QUR393194:QUR393197 QKV393194:QKV393197 QAZ393194:QAZ393197 PRD393194:PRD393197 PHH393194:PHH393197 OXL393194:OXL393197 ONP393194:ONP393197 ODT393194:ODT393197 NTX393194:NTX393197 NKB393194:NKB393197 NAF393194:NAF393197 MQJ393194:MQJ393197 MGN393194:MGN393197 LWR393194:LWR393197 LMV393194:LMV393197 LCZ393194:LCZ393197 KTD393194:KTD393197 KJH393194:KJH393197 JZL393194:JZL393197 JPP393194:JPP393197 JFT393194:JFT393197 IVX393194:IVX393197 IMB393194:IMB393197 ICF393194:ICF393197 HSJ393194:HSJ393197 HIN393194:HIN393197 GYR393194:GYR393197 GOV393194:GOV393197 GEZ393194:GEZ393197 FVD393194:FVD393197 FLH393194:FLH393197 FBL393194:FBL393197 ERP393194:ERP393197 EHT393194:EHT393197 DXX393194:DXX393197 DOB393194:DOB393197 DEF393194:DEF393197 CUJ393194:CUJ393197 CKN393194:CKN393197 CAR393194:CAR393197 BQV393194:BQV393197 BGZ393194:BGZ393197 AXD393194:AXD393197 ANH393194:ANH393197 ADL393194:ADL393197 TP393194:TP393197 JT393194:JT393197 X393194:X393197 WWF327658:WWF327661 WMJ327658:WMJ327661 WCN327658:WCN327661 VSR327658:VSR327661 VIV327658:VIV327661 UYZ327658:UYZ327661 UPD327658:UPD327661 UFH327658:UFH327661 TVL327658:TVL327661 TLP327658:TLP327661 TBT327658:TBT327661 SRX327658:SRX327661 SIB327658:SIB327661 RYF327658:RYF327661 ROJ327658:ROJ327661 REN327658:REN327661 QUR327658:QUR327661 QKV327658:QKV327661 QAZ327658:QAZ327661 PRD327658:PRD327661 PHH327658:PHH327661 OXL327658:OXL327661 ONP327658:ONP327661 ODT327658:ODT327661 NTX327658:NTX327661 NKB327658:NKB327661 NAF327658:NAF327661 MQJ327658:MQJ327661 MGN327658:MGN327661 LWR327658:LWR327661 LMV327658:LMV327661 LCZ327658:LCZ327661 KTD327658:KTD327661 KJH327658:KJH327661 JZL327658:JZL327661 JPP327658:JPP327661 JFT327658:JFT327661 IVX327658:IVX327661 IMB327658:IMB327661 ICF327658:ICF327661 HSJ327658:HSJ327661 HIN327658:HIN327661 GYR327658:GYR327661 GOV327658:GOV327661 GEZ327658:GEZ327661 FVD327658:FVD327661 FLH327658:FLH327661 FBL327658:FBL327661 ERP327658:ERP327661 EHT327658:EHT327661 DXX327658:DXX327661 DOB327658:DOB327661 DEF327658:DEF327661 CUJ327658:CUJ327661 CKN327658:CKN327661 CAR327658:CAR327661 BQV327658:BQV327661 BGZ327658:BGZ327661 AXD327658:AXD327661 ANH327658:ANH327661 ADL327658:ADL327661 TP327658:TP327661 JT327658:JT327661 X327658:X327661 WWF262122:WWF262125 WMJ262122:WMJ262125 WCN262122:WCN262125 VSR262122:VSR262125 VIV262122:VIV262125 UYZ262122:UYZ262125 UPD262122:UPD262125 UFH262122:UFH262125 TVL262122:TVL262125 TLP262122:TLP262125 TBT262122:TBT262125 SRX262122:SRX262125 SIB262122:SIB262125 RYF262122:RYF262125 ROJ262122:ROJ262125 REN262122:REN262125 QUR262122:QUR262125 QKV262122:QKV262125 QAZ262122:QAZ262125 PRD262122:PRD262125 PHH262122:PHH262125 OXL262122:OXL262125 ONP262122:ONP262125 ODT262122:ODT262125 NTX262122:NTX262125 NKB262122:NKB262125 NAF262122:NAF262125 MQJ262122:MQJ262125 MGN262122:MGN262125 LWR262122:LWR262125 LMV262122:LMV262125 LCZ262122:LCZ262125 KTD262122:KTD262125 KJH262122:KJH262125 JZL262122:JZL262125 JPP262122:JPP262125 JFT262122:JFT262125 IVX262122:IVX262125 IMB262122:IMB262125 ICF262122:ICF262125 HSJ262122:HSJ262125 HIN262122:HIN262125 GYR262122:GYR262125 GOV262122:GOV262125 GEZ262122:GEZ262125 FVD262122:FVD262125 FLH262122:FLH262125 FBL262122:FBL262125 ERP262122:ERP262125 EHT262122:EHT262125 DXX262122:DXX262125 DOB262122:DOB262125 DEF262122:DEF262125 CUJ262122:CUJ262125 CKN262122:CKN262125 CAR262122:CAR262125 BQV262122:BQV262125 BGZ262122:BGZ262125 AXD262122:AXD262125 ANH262122:ANH262125 ADL262122:ADL262125 TP262122:TP262125 JT262122:JT262125 X262122:X262125 WWF196586:WWF196589 WMJ196586:WMJ196589 WCN196586:WCN196589 VSR196586:VSR196589 VIV196586:VIV196589 UYZ196586:UYZ196589 UPD196586:UPD196589 UFH196586:UFH196589 TVL196586:TVL196589 TLP196586:TLP196589 TBT196586:TBT196589 SRX196586:SRX196589 SIB196586:SIB196589 RYF196586:RYF196589 ROJ196586:ROJ196589 REN196586:REN196589 QUR196586:QUR196589 QKV196586:QKV196589 QAZ196586:QAZ196589 PRD196586:PRD196589 PHH196586:PHH196589 OXL196586:OXL196589 ONP196586:ONP196589 ODT196586:ODT196589 NTX196586:NTX196589 NKB196586:NKB196589 NAF196586:NAF196589 MQJ196586:MQJ196589 MGN196586:MGN196589 LWR196586:LWR196589 LMV196586:LMV196589 LCZ196586:LCZ196589 KTD196586:KTD196589 KJH196586:KJH196589 JZL196586:JZL196589 JPP196586:JPP196589 JFT196586:JFT196589 IVX196586:IVX196589 IMB196586:IMB196589 ICF196586:ICF196589 HSJ196586:HSJ196589 HIN196586:HIN196589 GYR196586:GYR196589 GOV196586:GOV196589 GEZ196586:GEZ196589 FVD196586:FVD196589 FLH196586:FLH196589 FBL196586:FBL196589 ERP196586:ERP196589 EHT196586:EHT196589 DXX196586:DXX196589 DOB196586:DOB196589 DEF196586:DEF196589 CUJ196586:CUJ196589 CKN196586:CKN196589 CAR196586:CAR196589 BQV196586:BQV196589 BGZ196586:BGZ196589 AXD196586:AXD196589 ANH196586:ANH196589 ADL196586:ADL196589 TP196586:TP196589 JT196586:JT196589 X196586:X196589 WWF131050:WWF131053 WMJ131050:WMJ131053 WCN131050:WCN131053 VSR131050:VSR131053 VIV131050:VIV131053 UYZ131050:UYZ131053 UPD131050:UPD131053 UFH131050:UFH131053 TVL131050:TVL131053 TLP131050:TLP131053 TBT131050:TBT131053 SRX131050:SRX131053 SIB131050:SIB131053 RYF131050:RYF131053 ROJ131050:ROJ131053 REN131050:REN131053 QUR131050:QUR131053 QKV131050:QKV131053 QAZ131050:QAZ131053 PRD131050:PRD131053 PHH131050:PHH131053 OXL131050:OXL131053 ONP131050:ONP131053 ODT131050:ODT131053 NTX131050:NTX131053 NKB131050:NKB131053 NAF131050:NAF131053 MQJ131050:MQJ131053 MGN131050:MGN131053 LWR131050:LWR131053 LMV131050:LMV131053 LCZ131050:LCZ131053 KTD131050:KTD131053 KJH131050:KJH131053 JZL131050:JZL131053 JPP131050:JPP131053 JFT131050:JFT131053 IVX131050:IVX131053 IMB131050:IMB131053 ICF131050:ICF131053 HSJ131050:HSJ131053 HIN131050:HIN131053 GYR131050:GYR131053 GOV131050:GOV131053 GEZ131050:GEZ131053 FVD131050:FVD131053 FLH131050:FLH131053 FBL131050:FBL131053 ERP131050:ERP131053 EHT131050:EHT131053 DXX131050:DXX131053 DOB131050:DOB131053 DEF131050:DEF131053 CUJ131050:CUJ131053 CKN131050:CKN131053 CAR131050:CAR131053 BQV131050:BQV131053 BGZ131050:BGZ131053 AXD131050:AXD131053 ANH131050:ANH131053 ADL131050:ADL131053 TP131050:TP131053 JT131050:JT131053 X131050:X131053 WWF65514:WWF65517 WMJ65514:WMJ65517 WCN65514:WCN65517 VSR65514:VSR65517 VIV65514:VIV65517 UYZ65514:UYZ65517 UPD65514:UPD65517 UFH65514:UFH65517 TVL65514:TVL65517 TLP65514:TLP65517 TBT65514:TBT65517 SRX65514:SRX65517 SIB65514:SIB65517 RYF65514:RYF65517 ROJ65514:ROJ65517 REN65514:REN65517 QUR65514:QUR65517 QKV65514:QKV65517 QAZ65514:QAZ65517 PRD65514:PRD65517 PHH65514:PHH65517 OXL65514:OXL65517 ONP65514:ONP65517 ODT65514:ODT65517 NTX65514:NTX65517 NKB65514:NKB65517 NAF65514:NAF65517 MQJ65514:MQJ65517 MGN65514:MGN65517 LWR65514:LWR65517 LMV65514:LMV65517 LCZ65514:LCZ65517 KTD65514:KTD65517 KJH65514:KJH65517 JZL65514:JZL65517 JPP65514:JPP65517 JFT65514:JFT65517 IVX65514:IVX65517 IMB65514:IMB65517 ICF65514:ICF65517 HSJ65514:HSJ65517 HIN65514:HIN65517 GYR65514:GYR65517 GOV65514:GOV65517 GEZ65514:GEZ65517 FVD65514:FVD65517 FLH65514:FLH65517 FBL65514:FBL65517 ERP65514:ERP65517 EHT65514:EHT65517 DXX65514:DXX65517 DOB65514:DOB65517 DEF65514:DEF65517 CUJ65514:CUJ65517 CKN65514:CKN65517 CAR65514:CAR65517 BQV65514:BQV65517 BGZ65514:BGZ65517 AXD65514:AXD65517 ANH65514:ANH65517 ADL65514:ADL65517 TP65514:TP65517 JT65514:JT65517 X65514:X65517 WWL983018:WWL983021 WMP983018:WMP983021 WCT983018:WCT983021 VSX983018:VSX983021 VJB983018:VJB983021 UZF983018:UZF983021 UPJ983018:UPJ983021 UFN983018:UFN983021 TVR983018:TVR983021 TLV983018:TLV983021 TBZ983018:TBZ983021 SSD983018:SSD983021 SIH983018:SIH983021 RYL983018:RYL983021 ROP983018:ROP983021 RET983018:RET983021 QUX983018:QUX983021 QLB983018:QLB983021 QBF983018:QBF983021 PRJ983018:PRJ983021 PHN983018:PHN983021 OXR983018:OXR983021 ONV983018:ONV983021 ODZ983018:ODZ983021 NUD983018:NUD983021 NKH983018:NKH983021 NAL983018:NAL983021 MQP983018:MQP983021 MGT983018:MGT983021 LWX983018:LWX983021 LNB983018:LNB983021 LDF983018:LDF983021 KTJ983018:KTJ983021 KJN983018:KJN983021 JZR983018:JZR983021 JPV983018:JPV983021 JFZ983018:JFZ983021 IWD983018:IWD983021 IMH983018:IMH983021 ICL983018:ICL983021 HSP983018:HSP983021 HIT983018:HIT983021 GYX983018:GYX983021 GPB983018:GPB983021 GFF983018:GFF983021 FVJ983018:FVJ983021 FLN983018:FLN983021 FBR983018:FBR983021 ERV983018:ERV983021 EHZ983018:EHZ983021 DYD983018:DYD983021 DOH983018:DOH983021 DEL983018:DEL983021 CUP983018:CUP983021 CKT983018:CKT983021 CAX983018:CAX983021 BRB983018:BRB983021 BHF983018:BHF983021 AXJ983018:AXJ983021 ANN983018:ANN983021 ADR983018:ADR983021 TV983018:TV983021 JZ983018:JZ983021 AD983018:AD983021 WWL917482:WWL917485 WMP917482:WMP917485 WCT917482:WCT917485 VSX917482:VSX917485 VJB917482:VJB917485 UZF917482:UZF917485 UPJ917482:UPJ917485 UFN917482:UFN917485 TVR917482:TVR917485 TLV917482:TLV917485 TBZ917482:TBZ917485 SSD917482:SSD917485 SIH917482:SIH917485 RYL917482:RYL917485 ROP917482:ROP917485 RET917482:RET917485 QUX917482:QUX917485 QLB917482:QLB917485 QBF917482:QBF917485 PRJ917482:PRJ917485 PHN917482:PHN917485 OXR917482:OXR917485 ONV917482:ONV917485 ODZ917482:ODZ917485 NUD917482:NUD917485 NKH917482:NKH917485 NAL917482:NAL917485 MQP917482:MQP917485 MGT917482:MGT917485 LWX917482:LWX917485 LNB917482:LNB917485 LDF917482:LDF917485 KTJ917482:KTJ917485 KJN917482:KJN917485 JZR917482:JZR917485 JPV917482:JPV917485 JFZ917482:JFZ917485 IWD917482:IWD917485 IMH917482:IMH917485 ICL917482:ICL917485 HSP917482:HSP917485 HIT917482:HIT917485 GYX917482:GYX917485 GPB917482:GPB917485 GFF917482:GFF917485 FVJ917482:FVJ917485 FLN917482:FLN917485 FBR917482:FBR917485 ERV917482:ERV917485 EHZ917482:EHZ917485 DYD917482:DYD917485 DOH917482:DOH917485 DEL917482:DEL917485 CUP917482:CUP917485 CKT917482:CKT917485 CAX917482:CAX917485 BRB917482:BRB917485 BHF917482:BHF917485 AXJ917482:AXJ917485 ANN917482:ANN917485 ADR917482:ADR917485 TV917482:TV917485 JZ917482:JZ917485 AD917482:AD917485 WWL851946:WWL851949 WMP851946:WMP851949 WCT851946:WCT851949 VSX851946:VSX851949 VJB851946:VJB851949 UZF851946:UZF851949 UPJ851946:UPJ851949 UFN851946:UFN851949 TVR851946:TVR851949 TLV851946:TLV851949 TBZ851946:TBZ851949 SSD851946:SSD851949 SIH851946:SIH851949 RYL851946:RYL851949 ROP851946:ROP851949 RET851946:RET851949 QUX851946:QUX851949 QLB851946:QLB851949 QBF851946:QBF851949 PRJ851946:PRJ851949 PHN851946:PHN851949 OXR851946:OXR851949 ONV851946:ONV851949 ODZ851946:ODZ851949 NUD851946:NUD851949 NKH851946:NKH851949 NAL851946:NAL851949 MQP851946:MQP851949 MGT851946:MGT851949 LWX851946:LWX851949 LNB851946:LNB851949 LDF851946:LDF851949 KTJ851946:KTJ851949 KJN851946:KJN851949 JZR851946:JZR851949 JPV851946:JPV851949 JFZ851946:JFZ851949 IWD851946:IWD851949 IMH851946:IMH851949 ICL851946:ICL851949 HSP851946:HSP851949 HIT851946:HIT851949 GYX851946:GYX851949 GPB851946:GPB851949 GFF851946:GFF851949 FVJ851946:FVJ851949 FLN851946:FLN851949 FBR851946:FBR851949 ERV851946:ERV851949 EHZ851946:EHZ851949 DYD851946:DYD851949 DOH851946:DOH851949 DEL851946:DEL851949 CUP851946:CUP851949 CKT851946:CKT851949 CAX851946:CAX851949 BRB851946:BRB851949 BHF851946:BHF851949 AXJ851946:AXJ851949 ANN851946:ANN851949 ADR851946:ADR851949 TV851946:TV851949 JZ851946:JZ851949 AD851946:AD851949 WWL786410:WWL786413 WMP786410:WMP786413 WCT786410:WCT786413 VSX786410:VSX786413 VJB786410:VJB786413 UZF786410:UZF786413 UPJ786410:UPJ786413 UFN786410:UFN786413 TVR786410:TVR786413 TLV786410:TLV786413 TBZ786410:TBZ786413 SSD786410:SSD786413 SIH786410:SIH786413 RYL786410:RYL786413 ROP786410:ROP786413 RET786410:RET786413 QUX786410:QUX786413 QLB786410:QLB786413 QBF786410:QBF786413 PRJ786410:PRJ786413 PHN786410:PHN786413 OXR786410:OXR786413 ONV786410:ONV786413 ODZ786410:ODZ786413 NUD786410:NUD786413 NKH786410:NKH786413 NAL786410:NAL786413 MQP786410:MQP786413 MGT786410:MGT786413 LWX786410:LWX786413 LNB786410:LNB786413 LDF786410:LDF786413 KTJ786410:KTJ786413 KJN786410:KJN786413 JZR786410:JZR786413 JPV786410:JPV786413 JFZ786410:JFZ786413 IWD786410:IWD786413 IMH786410:IMH786413 ICL786410:ICL786413 HSP786410:HSP786413 HIT786410:HIT786413 GYX786410:GYX786413 GPB786410:GPB786413 GFF786410:GFF786413 FVJ786410:FVJ786413 FLN786410:FLN786413 FBR786410:FBR786413 ERV786410:ERV786413 EHZ786410:EHZ786413 DYD786410:DYD786413 DOH786410:DOH786413 DEL786410:DEL786413 CUP786410:CUP786413 CKT786410:CKT786413 CAX786410:CAX786413 BRB786410:BRB786413 BHF786410:BHF786413 AXJ786410:AXJ786413 ANN786410:ANN786413 ADR786410:ADR786413 TV786410:TV786413 JZ786410:JZ786413 AD786410:AD786413 WWL720874:WWL720877 WMP720874:WMP720877 WCT720874:WCT720877 VSX720874:VSX720877 VJB720874:VJB720877 UZF720874:UZF720877 UPJ720874:UPJ720877 UFN720874:UFN720877 TVR720874:TVR720877 TLV720874:TLV720877 TBZ720874:TBZ720877 SSD720874:SSD720877 SIH720874:SIH720877 RYL720874:RYL720877 ROP720874:ROP720877 RET720874:RET720877 QUX720874:QUX720877 QLB720874:QLB720877 QBF720874:QBF720877 PRJ720874:PRJ720877 PHN720874:PHN720877 OXR720874:OXR720877 ONV720874:ONV720877 ODZ720874:ODZ720877 NUD720874:NUD720877 NKH720874:NKH720877 NAL720874:NAL720877 MQP720874:MQP720877 MGT720874:MGT720877 LWX720874:LWX720877 LNB720874:LNB720877 LDF720874:LDF720877 KTJ720874:KTJ720877 KJN720874:KJN720877 JZR720874:JZR720877 JPV720874:JPV720877 JFZ720874:JFZ720877 IWD720874:IWD720877 IMH720874:IMH720877 ICL720874:ICL720877 HSP720874:HSP720877 HIT720874:HIT720877 GYX720874:GYX720877 GPB720874:GPB720877 GFF720874:GFF720877 FVJ720874:FVJ720877 FLN720874:FLN720877 FBR720874:FBR720877 ERV720874:ERV720877 EHZ720874:EHZ720877 DYD720874:DYD720877 DOH720874:DOH720877 DEL720874:DEL720877 CUP720874:CUP720877 CKT720874:CKT720877 CAX720874:CAX720877 BRB720874:BRB720877 BHF720874:BHF720877 AXJ720874:AXJ720877 ANN720874:ANN720877 ADR720874:ADR720877 TV720874:TV720877 JZ720874:JZ720877 AD720874:AD720877 WWL655338:WWL655341 WMP655338:WMP655341 WCT655338:WCT655341 VSX655338:VSX655341 VJB655338:VJB655341 UZF655338:UZF655341 UPJ655338:UPJ655341 UFN655338:UFN655341 TVR655338:TVR655341 TLV655338:TLV655341 TBZ655338:TBZ655341 SSD655338:SSD655341 SIH655338:SIH655341 RYL655338:RYL655341 ROP655338:ROP655341 RET655338:RET655341 QUX655338:QUX655341 QLB655338:QLB655341 QBF655338:QBF655341 PRJ655338:PRJ655341 PHN655338:PHN655341 OXR655338:OXR655341 ONV655338:ONV655341 ODZ655338:ODZ655341 NUD655338:NUD655341 NKH655338:NKH655341 NAL655338:NAL655341 MQP655338:MQP655341 MGT655338:MGT655341 LWX655338:LWX655341 LNB655338:LNB655341 LDF655338:LDF655341 KTJ655338:KTJ655341 KJN655338:KJN655341 JZR655338:JZR655341 JPV655338:JPV655341 JFZ655338:JFZ655341 IWD655338:IWD655341 IMH655338:IMH655341 ICL655338:ICL655341 HSP655338:HSP655341 HIT655338:HIT655341 GYX655338:GYX655341 GPB655338:GPB655341 GFF655338:GFF655341 FVJ655338:FVJ655341 FLN655338:FLN655341 FBR655338:FBR655341 ERV655338:ERV655341 EHZ655338:EHZ655341 DYD655338:DYD655341 DOH655338:DOH655341 DEL655338:DEL655341 CUP655338:CUP655341 CKT655338:CKT655341 CAX655338:CAX655341 BRB655338:BRB655341 BHF655338:BHF655341 AXJ655338:AXJ655341 ANN655338:ANN655341 ADR655338:ADR655341 TV655338:TV655341 JZ655338:JZ655341 AD655338:AD655341 WWL589802:WWL589805 WMP589802:WMP589805 WCT589802:WCT589805 VSX589802:VSX589805 VJB589802:VJB589805 UZF589802:UZF589805 UPJ589802:UPJ589805 UFN589802:UFN589805 TVR589802:TVR589805 TLV589802:TLV589805 TBZ589802:TBZ589805 SSD589802:SSD589805 SIH589802:SIH589805 RYL589802:RYL589805 ROP589802:ROP589805 RET589802:RET589805 QUX589802:QUX589805 QLB589802:QLB589805 QBF589802:QBF589805 PRJ589802:PRJ589805 PHN589802:PHN589805 OXR589802:OXR589805 ONV589802:ONV589805 ODZ589802:ODZ589805 NUD589802:NUD589805 NKH589802:NKH589805 NAL589802:NAL589805 MQP589802:MQP589805 MGT589802:MGT589805 LWX589802:LWX589805 LNB589802:LNB589805 LDF589802:LDF589805 KTJ589802:KTJ589805 KJN589802:KJN589805 JZR589802:JZR589805 JPV589802:JPV589805 JFZ589802:JFZ589805 IWD589802:IWD589805 IMH589802:IMH589805 ICL589802:ICL589805 HSP589802:HSP589805 HIT589802:HIT589805 GYX589802:GYX589805 GPB589802:GPB589805 GFF589802:GFF589805 FVJ589802:FVJ589805 FLN589802:FLN589805 FBR589802:FBR589805 ERV589802:ERV589805 EHZ589802:EHZ589805 DYD589802:DYD589805 DOH589802:DOH589805 DEL589802:DEL589805 CUP589802:CUP589805 CKT589802:CKT589805 CAX589802:CAX589805 BRB589802:BRB589805 BHF589802:BHF589805 AXJ589802:AXJ589805 ANN589802:ANN589805 ADR589802:ADR589805 TV589802:TV589805 JZ589802:JZ589805 AD589802:AD589805 WWL524266:WWL524269 WMP524266:WMP524269 WCT524266:WCT524269 VSX524266:VSX524269 VJB524266:VJB524269 UZF524266:UZF524269 UPJ524266:UPJ524269 UFN524266:UFN524269 TVR524266:TVR524269 TLV524266:TLV524269 TBZ524266:TBZ524269 SSD524266:SSD524269 SIH524266:SIH524269 RYL524266:RYL524269 ROP524266:ROP524269 RET524266:RET524269 QUX524266:QUX524269 QLB524266:QLB524269 QBF524266:QBF524269 PRJ524266:PRJ524269 PHN524266:PHN524269 OXR524266:OXR524269 ONV524266:ONV524269 ODZ524266:ODZ524269 NUD524266:NUD524269 NKH524266:NKH524269 NAL524266:NAL524269 MQP524266:MQP524269 MGT524266:MGT524269 LWX524266:LWX524269 LNB524266:LNB524269 LDF524266:LDF524269 KTJ524266:KTJ524269 KJN524266:KJN524269 JZR524266:JZR524269 JPV524266:JPV524269 JFZ524266:JFZ524269 IWD524266:IWD524269 IMH524266:IMH524269 ICL524266:ICL524269 HSP524266:HSP524269 HIT524266:HIT524269 GYX524266:GYX524269 GPB524266:GPB524269 GFF524266:GFF524269 FVJ524266:FVJ524269 FLN524266:FLN524269 FBR524266:FBR524269 ERV524266:ERV524269 EHZ524266:EHZ524269 DYD524266:DYD524269 DOH524266:DOH524269 DEL524266:DEL524269 CUP524266:CUP524269 CKT524266:CKT524269 CAX524266:CAX524269 BRB524266:BRB524269 BHF524266:BHF524269 AXJ524266:AXJ524269 ANN524266:ANN524269 ADR524266:ADR524269 TV524266:TV524269 JZ524266:JZ524269 AD524266:AD524269 WWL458730:WWL458733 WMP458730:WMP458733 WCT458730:WCT458733 VSX458730:VSX458733 VJB458730:VJB458733 UZF458730:UZF458733 UPJ458730:UPJ458733 UFN458730:UFN458733 TVR458730:TVR458733 TLV458730:TLV458733 TBZ458730:TBZ458733 SSD458730:SSD458733 SIH458730:SIH458733 RYL458730:RYL458733 ROP458730:ROP458733 RET458730:RET458733 QUX458730:QUX458733 QLB458730:QLB458733 QBF458730:QBF458733 PRJ458730:PRJ458733 PHN458730:PHN458733 OXR458730:OXR458733 ONV458730:ONV458733 ODZ458730:ODZ458733 NUD458730:NUD458733 NKH458730:NKH458733 NAL458730:NAL458733 MQP458730:MQP458733 MGT458730:MGT458733 LWX458730:LWX458733 LNB458730:LNB458733 LDF458730:LDF458733 KTJ458730:KTJ458733 KJN458730:KJN458733 JZR458730:JZR458733 JPV458730:JPV458733 JFZ458730:JFZ458733 IWD458730:IWD458733 IMH458730:IMH458733 ICL458730:ICL458733 HSP458730:HSP458733 HIT458730:HIT458733 GYX458730:GYX458733 GPB458730:GPB458733 GFF458730:GFF458733 FVJ458730:FVJ458733 FLN458730:FLN458733 FBR458730:FBR458733 ERV458730:ERV458733 EHZ458730:EHZ458733 DYD458730:DYD458733 DOH458730:DOH458733 DEL458730:DEL458733 CUP458730:CUP458733 CKT458730:CKT458733 CAX458730:CAX458733 BRB458730:BRB458733 BHF458730:BHF458733 AXJ458730:AXJ458733 ANN458730:ANN458733 ADR458730:ADR458733 TV458730:TV458733 JZ458730:JZ458733 AD458730:AD458733 WWL393194:WWL393197 WMP393194:WMP393197 WCT393194:WCT393197 VSX393194:VSX393197 VJB393194:VJB393197 UZF393194:UZF393197 UPJ393194:UPJ393197 UFN393194:UFN393197 TVR393194:TVR393197 TLV393194:TLV393197 TBZ393194:TBZ393197 SSD393194:SSD393197 SIH393194:SIH393197 RYL393194:RYL393197 ROP393194:ROP393197 RET393194:RET393197 QUX393194:QUX393197 QLB393194:QLB393197 QBF393194:QBF393197 PRJ393194:PRJ393197 PHN393194:PHN393197 OXR393194:OXR393197 ONV393194:ONV393197 ODZ393194:ODZ393197 NUD393194:NUD393197 NKH393194:NKH393197 NAL393194:NAL393197 MQP393194:MQP393197 MGT393194:MGT393197 LWX393194:LWX393197 LNB393194:LNB393197 LDF393194:LDF393197 KTJ393194:KTJ393197 KJN393194:KJN393197 JZR393194:JZR393197 JPV393194:JPV393197 JFZ393194:JFZ393197 IWD393194:IWD393197 IMH393194:IMH393197 ICL393194:ICL393197 HSP393194:HSP393197 HIT393194:HIT393197 GYX393194:GYX393197 GPB393194:GPB393197 GFF393194:GFF393197 FVJ393194:FVJ393197 FLN393194:FLN393197 FBR393194:FBR393197 ERV393194:ERV393197 EHZ393194:EHZ393197 DYD393194:DYD393197 DOH393194:DOH393197 DEL393194:DEL393197 CUP393194:CUP393197 CKT393194:CKT393197 CAX393194:CAX393197 BRB393194:BRB393197 BHF393194:BHF393197 AXJ393194:AXJ393197 ANN393194:ANN393197 ADR393194:ADR393197 TV393194:TV393197 JZ393194:JZ393197 AD393194:AD393197 WWL327658:WWL327661 WMP327658:WMP327661 WCT327658:WCT327661 VSX327658:VSX327661 VJB327658:VJB327661 UZF327658:UZF327661 UPJ327658:UPJ327661 UFN327658:UFN327661 TVR327658:TVR327661 TLV327658:TLV327661 TBZ327658:TBZ327661 SSD327658:SSD327661 SIH327658:SIH327661 RYL327658:RYL327661 ROP327658:ROP327661 RET327658:RET327661 QUX327658:QUX327661 QLB327658:QLB327661 QBF327658:QBF327661 PRJ327658:PRJ327661 PHN327658:PHN327661 OXR327658:OXR327661 ONV327658:ONV327661 ODZ327658:ODZ327661 NUD327658:NUD327661 NKH327658:NKH327661 NAL327658:NAL327661 MQP327658:MQP327661 MGT327658:MGT327661 LWX327658:LWX327661 LNB327658:LNB327661 LDF327658:LDF327661 KTJ327658:KTJ327661 KJN327658:KJN327661 JZR327658:JZR327661 JPV327658:JPV327661 JFZ327658:JFZ327661 IWD327658:IWD327661 IMH327658:IMH327661 ICL327658:ICL327661 HSP327658:HSP327661 HIT327658:HIT327661 GYX327658:GYX327661 GPB327658:GPB327661 GFF327658:GFF327661 FVJ327658:FVJ327661 FLN327658:FLN327661 FBR327658:FBR327661 ERV327658:ERV327661 EHZ327658:EHZ327661 DYD327658:DYD327661 DOH327658:DOH327661 DEL327658:DEL327661 CUP327658:CUP327661 CKT327658:CKT327661 CAX327658:CAX327661 BRB327658:BRB327661 BHF327658:BHF327661 AXJ327658:AXJ327661 ANN327658:ANN327661 ADR327658:ADR327661 TV327658:TV327661 JZ327658:JZ327661 AD327658:AD327661 WWL262122:WWL262125 WMP262122:WMP262125 WCT262122:WCT262125 VSX262122:VSX262125 VJB262122:VJB262125 UZF262122:UZF262125 UPJ262122:UPJ262125 UFN262122:UFN262125 TVR262122:TVR262125 TLV262122:TLV262125 TBZ262122:TBZ262125 SSD262122:SSD262125 SIH262122:SIH262125 RYL262122:RYL262125 ROP262122:ROP262125 RET262122:RET262125 QUX262122:QUX262125 QLB262122:QLB262125 QBF262122:QBF262125 PRJ262122:PRJ262125 PHN262122:PHN262125 OXR262122:OXR262125 ONV262122:ONV262125 ODZ262122:ODZ262125 NUD262122:NUD262125 NKH262122:NKH262125 NAL262122:NAL262125 MQP262122:MQP262125 MGT262122:MGT262125 LWX262122:LWX262125 LNB262122:LNB262125 LDF262122:LDF262125 KTJ262122:KTJ262125 KJN262122:KJN262125 JZR262122:JZR262125 JPV262122:JPV262125 JFZ262122:JFZ262125 IWD262122:IWD262125 IMH262122:IMH262125 ICL262122:ICL262125 HSP262122:HSP262125 HIT262122:HIT262125 GYX262122:GYX262125 GPB262122:GPB262125 GFF262122:GFF262125 FVJ262122:FVJ262125 FLN262122:FLN262125 FBR262122:FBR262125 ERV262122:ERV262125 EHZ262122:EHZ262125 DYD262122:DYD262125 DOH262122:DOH262125 DEL262122:DEL262125 CUP262122:CUP262125 CKT262122:CKT262125 CAX262122:CAX262125 BRB262122:BRB262125 BHF262122:BHF262125 AXJ262122:AXJ262125 ANN262122:ANN262125 ADR262122:ADR262125 TV262122:TV262125 JZ262122:JZ262125 AD262122:AD262125 WWL196586:WWL196589 WMP196586:WMP196589 WCT196586:WCT196589 VSX196586:VSX196589 VJB196586:VJB196589 UZF196586:UZF196589 UPJ196586:UPJ196589 UFN196586:UFN196589 TVR196586:TVR196589 TLV196586:TLV196589 TBZ196586:TBZ196589 SSD196586:SSD196589 SIH196586:SIH196589 RYL196586:RYL196589 ROP196586:ROP196589 RET196586:RET196589 QUX196586:QUX196589 QLB196586:QLB196589 QBF196586:QBF196589 PRJ196586:PRJ196589 PHN196586:PHN196589 OXR196586:OXR196589 ONV196586:ONV196589 ODZ196586:ODZ196589 NUD196586:NUD196589 NKH196586:NKH196589 NAL196586:NAL196589 MQP196586:MQP196589 MGT196586:MGT196589 LWX196586:LWX196589 LNB196586:LNB196589 LDF196586:LDF196589 KTJ196586:KTJ196589 KJN196586:KJN196589 JZR196586:JZR196589 JPV196586:JPV196589 JFZ196586:JFZ196589 IWD196586:IWD196589 IMH196586:IMH196589 ICL196586:ICL196589 HSP196586:HSP196589 HIT196586:HIT196589 GYX196586:GYX196589 GPB196586:GPB196589 GFF196586:GFF196589 FVJ196586:FVJ196589 FLN196586:FLN196589 FBR196586:FBR196589 ERV196586:ERV196589 EHZ196586:EHZ196589 DYD196586:DYD196589 DOH196586:DOH196589 DEL196586:DEL196589 CUP196586:CUP196589 CKT196586:CKT196589 CAX196586:CAX196589 BRB196586:BRB196589 BHF196586:BHF196589 AXJ196586:AXJ196589 ANN196586:ANN196589 ADR196586:ADR196589 TV196586:TV196589 JZ196586:JZ196589 AD196586:AD196589 WWL131050:WWL131053 WMP131050:WMP131053 WCT131050:WCT131053 VSX131050:VSX131053 VJB131050:VJB131053 UZF131050:UZF131053 UPJ131050:UPJ131053 UFN131050:UFN131053 TVR131050:TVR131053 TLV131050:TLV131053 TBZ131050:TBZ131053 SSD131050:SSD131053 SIH131050:SIH131053 RYL131050:RYL131053 ROP131050:ROP131053 RET131050:RET131053 QUX131050:QUX131053 QLB131050:QLB131053 QBF131050:QBF131053 PRJ131050:PRJ131053 PHN131050:PHN131053 OXR131050:OXR131053 ONV131050:ONV131053 ODZ131050:ODZ131053 NUD131050:NUD131053 NKH131050:NKH131053 NAL131050:NAL131053 MQP131050:MQP131053 MGT131050:MGT131053 LWX131050:LWX131053 LNB131050:LNB131053 LDF131050:LDF131053 KTJ131050:KTJ131053 KJN131050:KJN131053 JZR131050:JZR131053 JPV131050:JPV131053 JFZ131050:JFZ131053 IWD131050:IWD131053 IMH131050:IMH131053 ICL131050:ICL131053 HSP131050:HSP131053 HIT131050:HIT131053 GYX131050:GYX131053 GPB131050:GPB131053 GFF131050:GFF131053 FVJ131050:FVJ131053 FLN131050:FLN131053 FBR131050:FBR131053 ERV131050:ERV131053 EHZ131050:EHZ131053 DYD131050:DYD131053 DOH131050:DOH131053 DEL131050:DEL131053 CUP131050:CUP131053 CKT131050:CKT131053 CAX131050:CAX131053 BRB131050:BRB131053 BHF131050:BHF131053 AXJ131050:AXJ131053 ANN131050:ANN131053 ADR131050:ADR131053 TV131050:TV131053 JZ131050:JZ131053 AD131050:AD131053 WWL65514:WWL65517 WMP65514:WMP65517 WCT65514:WCT65517 VSX65514:VSX65517 VJB65514:VJB65517 UZF65514:UZF65517 UPJ65514:UPJ65517 UFN65514:UFN65517 TVR65514:TVR65517 TLV65514:TLV65517 TBZ65514:TBZ65517 SSD65514:SSD65517 SIH65514:SIH65517 RYL65514:RYL65517 ROP65514:ROP65517 RET65514:RET65517 QUX65514:QUX65517 QLB65514:QLB65517 QBF65514:QBF65517 PRJ65514:PRJ65517 PHN65514:PHN65517 OXR65514:OXR65517 ONV65514:ONV65517 ODZ65514:ODZ65517 NUD65514:NUD65517 NKH65514:NKH65517 NAL65514:NAL65517 MQP65514:MQP65517 MGT65514:MGT65517 LWX65514:LWX65517 LNB65514:LNB65517 LDF65514:LDF65517 KTJ65514:KTJ65517 KJN65514:KJN65517 JZR65514:JZR65517 JPV65514:JPV65517 JFZ65514:JFZ65517 IWD65514:IWD65517 IMH65514:IMH65517 ICL65514:ICL65517 HSP65514:HSP65517 HIT65514:HIT65517 GYX65514:GYX65517 GPB65514:GPB65517 GFF65514:GFF65517 FVJ65514:FVJ65517 FLN65514:FLN65517 FBR65514:FBR65517 ERV65514:ERV65517 EHZ65514:EHZ65517 DYD65514:DYD65517 DOH65514:DOH65517 DEL65514:DEL65517 CUP65514:CUP65517 CKT65514:CKT65517 CAX65514:CAX65517 BRB65514:BRB65517 BHF65514:BHF65517 AXJ65514:AXJ65517 ANN65514:ANN65517 ADR65514:ADR65517 TV65514:TV65517 JZ65514:JZ65517 AD65514:AD65517 WWJ983018:WWJ983021 WMN983018:WMN983021 WCR983018:WCR983021 VSV983018:VSV983021 VIZ983018:VIZ983021 UZD983018:UZD983021 UPH983018:UPH983021 UFL983018:UFL983021 TVP983018:TVP983021 TLT983018:TLT983021 TBX983018:TBX983021 SSB983018:SSB983021 SIF983018:SIF983021 RYJ983018:RYJ983021 RON983018:RON983021 RER983018:RER983021 QUV983018:QUV983021 QKZ983018:QKZ983021 QBD983018:QBD983021 PRH983018:PRH983021 PHL983018:PHL983021 OXP983018:OXP983021 ONT983018:ONT983021 ODX983018:ODX983021 NUB983018:NUB983021 NKF983018:NKF983021 NAJ983018:NAJ983021 MQN983018:MQN983021 MGR983018:MGR983021 LWV983018:LWV983021 LMZ983018:LMZ983021 LDD983018:LDD983021 KTH983018:KTH983021 KJL983018:KJL983021 JZP983018:JZP983021 JPT983018:JPT983021 JFX983018:JFX983021 IWB983018:IWB983021 IMF983018:IMF983021 ICJ983018:ICJ983021 HSN983018:HSN983021 HIR983018:HIR983021 GYV983018:GYV983021 GOZ983018:GOZ983021 GFD983018:GFD983021 FVH983018:FVH983021 FLL983018:FLL983021 FBP983018:FBP983021 ERT983018:ERT983021 EHX983018:EHX983021 DYB983018:DYB983021 DOF983018:DOF983021 DEJ983018:DEJ983021 CUN983018:CUN983021 CKR983018:CKR983021 CAV983018:CAV983021 BQZ983018:BQZ983021 BHD983018:BHD983021 AXH983018:AXH983021 ANL983018:ANL983021 ADP983018:ADP983021 TT983018:TT983021 JX983018:JX983021 AB983018:AB983021 WWJ917482:WWJ917485 WMN917482:WMN917485 WCR917482:WCR917485 VSV917482:VSV917485 VIZ917482:VIZ917485 UZD917482:UZD917485 UPH917482:UPH917485 UFL917482:UFL917485 TVP917482:TVP917485 TLT917482:TLT917485 TBX917482:TBX917485 SSB917482:SSB917485 SIF917482:SIF917485 RYJ917482:RYJ917485 RON917482:RON917485 RER917482:RER917485 QUV917482:QUV917485 QKZ917482:QKZ917485 QBD917482:QBD917485 PRH917482:PRH917485 PHL917482:PHL917485 OXP917482:OXP917485 ONT917482:ONT917485 ODX917482:ODX917485 NUB917482:NUB917485 NKF917482:NKF917485 NAJ917482:NAJ917485 MQN917482:MQN917485 MGR917482:MGR917485 LWV917482:LWV917485 LMZ917482:LMZ917485 LDD917482:LDD917485 KTH917482:KTH917485 KJL917482:KJL917485 JZP917482:JZP917485 JPT917482:JPT917485 JFX917482:JFX917485 IWB917482:IWB917485 IMF917482:IMF917485 ICJ917482:ICJ917485 HSN917482:HSN917485 HIR917482:HIR917485 GYV917482:GYV917485 GOZ917482:GOZ917485 GFD917482:GFD917485 FVH917482:FVH917485 FLL917482:FLL917485 FBP917482:FBP917485 ERT917482:ERT917485 EHX917482:EHX917485 DYB917482:DYB917485 DOF917482:DOF917485 DEJ917482:DEJ917485 CUN917482:CUN917485 CKR917482:CKR917485 CAV917482:CAV917485 BQZ917482:BQZ917485 BHD917482:BHD917485 AXH917482:AXH917485 ANL917482:ANL917485 ADP917482:ADP917485 TT917482:TT917485 JX917482:JX917485 AB917482:AB917485 WWJ851946:WWJ851949 WMN851946:WMN851949 WCR851946:WCR851949 VSV851946:VSV851949 VIZ851946:VIZ851949 UZD851946:UZD851949 UPH851946:UPH851949 UFL851946:UFL851949 TVP851946:TVP851949 TLT851946:TLT851949 TBX851946:TBX851949 SSB851946:SSB851949 SIF851946:SIF851949 RYJ851946:RYJ851949 RON851946:RON851949 RER851946:RER851949 QUV851946:QUV851949 QKZ851946:QKZ851949 QBD851946:QBD851949 PRH851946:PRH851949 PHL851946:PHL851949 OXP851946:OXP851949 ONT851946:ONT851949 ODX851946:ODX851949 NUB851946:NUB851949 NKF851946:NKF851949 NAJ851946:NAJ851949 MQN851946:MQN851949 MGR851946:MGR851949 LWV851946:LWV851949 LMZ851946:LMZ851949 LDD851946:LDD851949 KTH851946:KTH851949 KJL851946:KJL851949 JZP851946:JZP851949 JPT851946:JPT851949 JFX851946:JFX851949 IWB851946:IWB851949 IMF851946:IMF851949 ICJ851946:ICJ851949 HSN851946:HSN851949 HIR851946:HIR851949 GYV851946:GYV851949 GOZ851946:GOZ851949 GFD851946:GFD851949 FVH851946:FVH851949 FLL851946:FLL851949 FBP851946:FBP851949 ERT851946:ERT851949 EHX851946:EHX851949 DYB851946:DYB851949 DOF851946:DOF851949 DEJ851946:DEJ851949 CUN851946:CUN851949 CKR851946:CKR851949 CAV851946:CAV851949 BQZ851946:BQZ851949 BHD851946:BHD851949 AXH851946:AXH851949 ANL851946:ANL851949 ADP851946:ADP851949 TT851946:TT851949 JX851946:JX851949 AB851946:AB851949 WWJ786410:WWJ786413 WMN786410:WMN786413 WCR786410:WCR786413 VSV786410:VSV786413 VIZ786410:VIZ786413 UZD786410:UZD786413 UPH786410:UPH786413 UFL786410:UFL786413 TVP786410:TVP786413 TLT786410:TLT786413 TBX786410:TBX786413 SSB786410:SSB786413 SIF786410:SIF786413 RYJ786410:RYJ786413 RON786410:RON786413 RER786410:RER786413 QUV786410:QUV786413 QKZ786410:QKZ786413 QBD786410:QBD786413 PRH786410:PRH786413 PHL786410:PHL786413 OXP786410:OXP786413 ONT786410:ONT786413 ODX786410:ODX786413 NUB786410:NUB786413 NKF786410:NKF786413 NAJ786410:NAJ786413 MQN786410:MQN786413 MGR786410:MGR786413 LWV786410:LWV786413 LMZ786410:LMZ786413 LDD786410:LDD786413 KTH786410:KTH786413 KJL786410:KJL786413 JZP786410:JZP786413 JPT786410:JPT786413 JFX786410:JFX786413 IWB786410:IWB786413 IMF786410:IMF786413 ICJ786410:ICJ786413 HSN786410:HSN786413 HIR786410:HIR786413 GYV786410:GYV786413 GOZ786410:GOZ786413 GFD786410:GFD786413 FVH786410:FVH786413 FLL786410:FLL786413 FBP786410:FBP786413 ERT786410:ERT786413 EHX786410:EHX786413 DYB786410:DYB786413 DOF786410:DOF786413 DEJ786410:DEJ786413 CUN786410:CUN786413 CKR786410:CKR786413 CAV786410:CAV786413 BQZ786410:BQZ786413 BHD786410:BHD786413 AXH786410:AXH786413 ANL786410:ANL786413 ADP786410:ADP786413 TT786410:TT786413 JX786410:JX786413 AB786410:AB786413 WWJ720874:WWJ720877 WMN720874:WMN720877 WCR720874:WCR720877 VSV720874:VSV720877 VIZ720874:VIZ720877 UZD720874:UZD720877 UPH720874:UPH720877 UFL720874:UFL720877 TVP720874:TVP720877 TLT720874:TLT720877 TBX720874:TBX720877 SSB720874:SSB720877 SIF720874:SIF720877 RYJ720874:RYJ720877 RON720874:RON720877 RER720874:RER720877 QUV720874:QUV720877 QKZ720874:QKZ720877 QBD720874:QBD720877 PRH720874:PRH720877 PHL720874:PHL720877 OXP720874:OXP720877 ONT720874:ONT720877 ODX720874:ODX720877 NUB720874:NUB720877 NKF720874:NKF720877 NAJ720874:NAJ720877 MQN720874:MQN720877 MGR720874:MGR720877 LWV720874:LWV720877 LMZ720874:LMZ720877 LDD720874:LDD720877 KTH720874:KTH720877 KJL720874:KJL720877 JZP720874:JZP720877 JPT720874:JPT720877 JFX720874:JFX720877 IWB720874:IWB720877 IMF720874:IMF720877 ICJ720874:ICJ720877 HSN720874:HSN720877 HIR720874:HIR720877 GYV720874:GYV720877 GOZ720874:GOZ720877 GFD720874:GFD720877 FVH720874:FVH720877 FLL720874:FLL720877 FBP720874:FBP720877 ERT720874:ERT720877 EHX720874:EHX720877 DYB720874:DYB720877 DOF720874:DOF720877 DEJ720874:DEJ720877 CUN720874:CUN720877 CKR720874:CKR720877 CAV720874:CAV720877 BQZ720874:BQZ720877 BHD720874:BHD720877 AXH720874:AXH720877 ANL720874:ANL720877 ADP720874:ADP720877 TT720874:TT720877 JX720874:JX720877 AB720874:AB720877 WWJ655338:WWJ655341 WMN655338:WMN655341 WCR655338:WCR655341 VSV655338:VSV655341 VIZ655338:VIZ655341 UZD655338:UZD655341 UPH655338:UPH655341 UFL655338:UFL655341 TVP655338:TVP655341 TLT655338:TLT655341 TBX655338:TBX655341 SSB655338:SSB655341 SIF655338:SIF655341 RYJ655338:RYJ655341 RON655338:RON655341 RER655338:RER655341 QUV655338:QUV655341 QKZ655338:QKZ655341 QBD655338:QBD655341 PRH655338:PRH655341 PHL655338:PHL655341 OXP655338:OXP655341 ONT655338:ONT655341 ODX655338:ODX655341 NUB655338:NUB655341 NKF655338:NKF655341 NAJ655338:NAJ655341 MQN655338:MQN655341 MGR655338:MGR655341 LWV655338:LWV655341 LMZ655338:LMZ655341 LDD655338:LDD655341 KTH655338:KTH655341 KJL655338:KJL655341 JZP655338:JZP655341 JPT655338:JPT655341 JFX655338:JFX655341 IWB655338:IWB655341 IMF655338:IMF655341 ICJ655338:ICJ655341 HSN655338:HSN655341 HIR655338:HIR655341 GYV655338:GYV655341 GOZ655338:GOZ655341 GFD655338:GFD655341 FVH655338:FVH655341 FLL655338:FLL655341 FBP655338:FBP655341 ERT655338:ERT655341 EHX655338:EHX655341 DYB655338:DYB655341 DOF655338:DOF655341 DEJ655338:DEJ655341 CUN655338:CUN655341 CKR655338:CKR655341 CAV655338:CAV655341 BQZ655338:BQZ655341 BHD655338:BHD655341 AXH655338:AXH655341 ANL655338:ANL655341 ADP655338:ADP655341 TT655338:TT655341 JX655338:JX655341 AB655338:AB655341 WWJ589802:WWJ589805 WMN589802:WMN589805 WCR589802:WCR589805 VSV589802:VSV589805 VIZ589802:VIZ589805 UZD589802:UZD589805 UPH589802:UPH589805 UFL589802:UFL589805 TVP589802:TVP589805 TLT589802:TLT589805 TBX589802:TBX589805 SSB589802:SSB589805 SIF589802:SIF589805 RYJ589802:RYJ589805 RON589802:RON589805 RER589802:RER589805 QUV589802:QUV589805 QKZ589802:QKZ589805 QBD589802:QBD589805 PRH589802:PRH589805 PHL589802:PHL589805 OXP589802:OXP589805 ONT589802:ONT589805 ODX589802:ODX589805 NUB589802:NUB589805 NKF589802:NKF589805 NAJ589802:NAJ589805 MQN589802:MQN589805 MGR589802:MGR589805 LWV589802:LWV589805 LMZ589802:LMZ589805 LDD589802:LDD589805 KTH589802:KTH589805 KJL589802:KJL589805 JZP589802:JZP589805 JPT589802:JPT589805 JFX589802:JFX589805 IWB589802:IWB589805 IMF589802:IMF589805 ICJ589802:ICJ589805 HSN589802:HSN589805 HIR589802:HIR589805 GYV589802:GYV589805 GOZ589802:GOZ589805 GFD589802:GFD589805 FVH589802:FVH589805 FLL589802:FLL589805 FBP589802:FBP589805 ERT589802:ERT589805 EHX589802:EHX589805 DYB589802:DYB589805 DOF589802:DOF589805 DEJ589802:DEJ589805 CUN589802:CUN589805 CKR589802:CKR589805 CAV589802:CAV589805 BQZ589802:BQZ589805 BHD589802:BHD589805 AXH589802:AXH589805 ANL589802:ANL589805 ADP589802:ADP589805 TT589802:TT589805 JX589802:JX589805 AB589802:AB589805 WWJ524266:WWJ524269 WMN524266:WMN524269 WCR524266:WCR524269 VSV524266:VSV524269 VIZ524266:VIZ524269 UZD524266:UZD524269 UPH524266:UPH524269 UFL524266:UFL524269 TVP524266:TVP524269 TLT524266:TLT524269 TBX524266:TBX524269 SSB524266:SSB524269 SIF524266:SIF524269 RYJ524266:RYJ524269 RON524266:RON524269 RER524266:RER524269 QUV524266:QUV524269 QKZ524266:QKZ524269 QBD524266:QBD524269 PRH524266:PRH524269 PHL524266:PHL524269 OXP524266:OXP524269 ONT524266:ONT524269 ODX524266:ODX524269 NUB524266:NUB524269 NKF524266:NKF524269 NAJ524266:NAJ524269 MQN524266:MQN524269 MGR524266:MGR524269 LWV524266:LWV524269 LMZ524266:LMZ524269 LDD524266:LDD524269 KTH524266:KTH524269 KJL524266:KJL524269 JZP524266:JZP524269 JPT524266:JPT524269 JFX524266:JFX524269 IWB524266:IWB524269 IMF524266:IMF524269 ICJ524266:ICJ524269 HSN524266:HSN524269 HIR524266:HIR524269 GYV524266:GYV524269 GOZ524266:GOZ524269 GFD524266:GFD524269 FVH524266:FVH524269 FLL524266:FLL524269 FBP524266:FBP524269 ERT524266:ERT524269 EHX524266:EHX524269 DYB524266:DYB524269 DOF524266:DOF524269 DEJ524266:DEJ524269 CUN524266:CUN524269 CKR524266:CKR524269 CAV524266:CAV524269 BQZ524266:BQZ524269 BHD524266:BHD524269 AXH524266:AXH524269 ANL524266:ANL524269 ADP524266:ADP524269 TT524266:TT524269 JX524266:JX524269 AB524266:AB524269 WWJ458730:WWJ458733 WMN458730:WMN458733 WCR458730:WCR458733 VSV458730:VSV458733 VIZ458730:VIZ458733 UZD458730:UZD458733 UPH458730:UPH458733 UFL458730:UFL458733 TVP458730:TVP458733 TLT458730:TLT458733 TBX458730:TBX458733 SSB458730:SSB458733 SIF458730:SIF458733 RYJ458730:RYJ458733 RON458730:RON458733 RER458730:RER458733 QUV458730:QUV458733 QKZ458730:QKZ458733 QBD458730:QBD458733 PRH458730:PRH458733 PHL458730:PHL458733 OXP458730:OXP458733 ONT458730:ONT458733 ODX458730:ODX458733 NUB458730:NUB458733 NKF458730:NKF458733 NAJ458730:NAJ458733 MQN458730:MQN458733 MGR458730:MGR458733 LWV458730:LWV458733 LMZ458730:LMZ458733 LDD458730:LDD458733 KTH458730:KTH458733 KJL458730:KJL458733 JZP458730:JZP458733 JPT458730:JPT458733 JFX458730:JFX458733 IWB458730:IWB458733 IMF458730:IMF458733 ICJ458730:ICJ458733 HSN458730:HSN458733 HIR458730:HIR458733 GYV458730:GYV458733 GOZ458730:GOZ458733 GFD458730:GFD458733 FVH458730:FVH458733 FLL458730:FLL458733 FBP458730:FBP458733 ERT458730:ERT458733 EHX458730:EHX458733 DYB458730:DYB458733 DOF458730:DOF458733 DEJ458730:DEJ458733 CUN458730:CUN458733 CKR458730:CKR458733 CAV458730:CAV458733 BQZ458730:BQZ458733 BHD458730:BHD458733 AXH458730:AXH458733 ANL458730:ANL458733 ADP458730:ADP458733 TT458730:TT458733 JX458730:JX458733 AB458730:AB458733 WWJ393194:WWJ393197 WMN393194:WMN393197 WCR393194:WCR393197 VSV393194:VSV393197 VIZ393194:VIZ393197 UZD393194:UZD393197 UPH393194:UPH393197 UFL393194:UFL393197 TVP393194:TVP393197 TLT393194:TLT393197 TBX393194:TBX393197 SSB393194:SSB393197 SIF393194:SIF393197 RYJ393194:RYJ393197 RON393194:RON393197 RER393194:RER393197 QUV393194:QUV393197 QKZ393194:QKZ393197 QBD393194:QBD393197 PRH393194:PRH393197 PHL393194:PHL393197 OXP393194:OXP393197 ONT393194:ONT393197 ODX393194:ODX393197 NUB393194:NUB393197 NKF393194:NKF393197 NAJ393194:NAJ393197 MQN393194:MQN393197 MGR393194:MGR393197 LWV393194:LWV393197 LMZ393194:LMZ393197 LDD393194:LDD393197 KTH393194:KTH393197 KJL393194:KJL393197 JZP393194:JZP393197 JPT393194:JPT393197 JFX393194:JFX393197 IWB393194:IWB393197 IMF393194:IMF393197 ICJ393194:ICJ393197 HSN393194:HSN393197 HIR393194:HIR393197 GYV393194:GYV393197 GOZ393194:GOZ393197 GFD393194:GFD393197 FVH393194:FVH393197 FLL393194:FLL393197 FBP393194:FBP393197 ERT393194:ERT393197 EHX393194:EHX393197 DYB393194:DYB393197 DOF393194:DOF393197 DEJ393194:DEJ393197 CUN393194:CUN393197 CKR393194:CKR393197 CAV393194:CAV393197 BQZ393194:BQZ393197 BHD393194:BHD393197 AXH393194:AXH393197 ANL393194:ANL393197 ADP393194:ADP393197 TT393194:TT393197 JX393194:JX393197 AB393194:AB393197 WWJ327658:WWJ327661 WMN327658:WMN327661 WCR327658:WCR327661 VSV327658:VSV327661 VIZ327658:VIZ327661 UZD327658:UZD327661 UPH327658:UPH327661 UFL327658:UFL327661 TVP327658:TVP327661 TLT327658:TLT327661 TBX327658:TBX327661 SSB327658:SSB327661 SIF327658:SIF327661 RYJ327658:RYJ327661 RON327658:RON327661 RER327658:RER327661 QUV327658:QUV327661 QKZ327658:QKZ327661 QBD327658:QBD327661 PRH327658:PRH327661 PHL327658:PHL327661 OXP327658:OXP327661 ONT327658:ONT327661 ODX327658:ODX327661 NUB327658:NUB327661 NKF327658:NKF327661 NAJ327658:NAJ327661 MQN327658:MQN327661 MGR327658:MGR327661 LWV327658:LWV327661 LMZ327658:LMZ327661 LDD327658:LDD327661 KTH327658:KTH327661 KJL327658:KJL327661 JZP327658:JZP327661 JPT327658:JPT327661 JFX327658:JFX327661 IWB327658:IWB327661 IMF327658:IMF327661 ICJ327658:ICJ327661 HSN327658:HSN327661 HIR327658:HIR327661 GYV327658:GYV327661 GOZ327658:GOZ327661 GFD327658:GFD327661 FVH327658:FVH327661 FLL327658:FLL327661 FBP327658:FBP327661 ERT327658:ERT327661 EHX327658:EHX327661 DYB327658:DYB327661 DOF327658:DOF327661 DEJ327658:DEJ327661 CUN327658:CUN327661 CKR327658:CKR327661 CAV327658:CAV327661 BQZ327658:BQZ327661 BHD327658:BHD327661 AXH327658:AXH327661 ANL327658:ANL327661 ADP327658:ADP327661 TT327658:TT327661 JX327658:JX327661 AB327658:AB327661 WWJ262122:WWJ262125 WMN262122:WMN262125 WCR262122:WCR262125 VSV262122:VSV262125 VIZ262122:VIZ262125 UZD262122:UZD262125 UPH262122:UPH262125 UFL262122:UFL262125 TVP262122:TVP262125 TLT262122:TLT262125 TBX262122:TBX262125 SSB262122:SSB262125 SIF262122:SIF262125 RYJ262122:RYJ262125 RON262122:RON262125 RER262122:RER262125 QUV262122:QUV262125 QKZ262122:QKZ262125 QBD262122:QBD262125 PRH262122:PRH262125 PHL262122:PHL262125 OXP262122:OXP262125 ONT262122:ONT262125 ODX262122:ODX262125 NUB262122:NUB262125 NKF262122:NKF262125 NAJ262122:NAJ262125 MQN262122:MQN262125 MGR262122:MGR262125 LWV262122:LWV262125 LMZ262122:LMZ262125 LDD262122:LDD262125 KTH262122:KTH262125 KJL262122:KJL262125 JZP262122:JZP262125 JPT262122:JPT262125 JFX262122:JFX262125 IWB262122:IWB262125 IMF262122:IMF262125 ICJ262122:ICJ262125 HSN262122:HSN262125 HIR262122:HIR262125 GYV262122:GYV262125 GOZ262122:GOZ262125 GFD262122:GFD262125 FVH262122:FVH262125 FLL262122:FLL262125 FBP262122:FBP262125 ERT262122:ERT262125 EHX262122:EHX262125 DYB262122:DYB262125 DOF262122:DOF262125 DEJ262122:DEJ262125 CUN262122:CUN262125 CKR262122:CKR262125 CAV262122:CAV262125 BQZ262122:BQZ262125 BHD262122:BHD262125 AXH262122:AXH262125 ANL262122:ANL262125 ADP262122:ADP262125 TT262122:TT262125 JX262122:JX262125 AB262122:AB262125 WWJ196586:WWJ196589 WMN196586:WMN196589 WCR196586:WCR196589 VSV196586:VSV196589 VIZ196586:VIZ196589 UZD196586:UZD196589 UPH196586:UPH196589 UFL196586:UFL196589 TVP196586:TVP196589 TLT196586:TLT196589 TBX196586:TBX196589 SSB196586:SSB196589 SIF196586:SIF196589 RYJ196586:RYJ196589 RON196586:RON196589 RER196586:RER196589 QUV196586:QUV196589 QKZ196586:QKZ196589 QBD196586:QBD196589 PRH196586:PRH196589 PHL196586:PHL196589 OXP196586:OXP196589 ONT196586:ONT196589 ODX196586:ODX196589 NUB196586:NUB196589 NKF196586:NKF196589 NAJ196586:NAJ196589 MQN196586:MQN196589 MGR196586:MGR196589 LWV196586:LWV196589 LMZ196586:LMZ196589 LDD196586:LDD196589 KTH196586:KTH196589 KJL196586:KJL196589 JZP196586:JZP196589 JPT196586:JPT196589 JFX196586:JFX196589 IWB196586:IWB196589 IMF196586:IMF196589 ICJ196586:ICJ196589 HSN196586:HSN196589 HIR196586:HIR196589 GYV196586:GYV196589 GOZ196586:GOZ196589 GFD196586:GFD196589 FVH196586:FVH196589 FLL196586:FLL196589 FBP196586:FBP196589 ERT196586:ERT196589 EHX196586:EHX196589 DYB196586:DYB196589 DOF196586:DOF196589 DEJ196586:DEJ196589 CUN196586:CUN196589 CKR196586:CKR196589 CAV196586:CAV196589 BQZ196586:BQZ196589 BHD196586:BHD196589 AXH196586:AXH196589 ANL196586:ANL196589 ADP196586:ADP196589 TT196586:TT196589 JX196586:JX196589 AB196586:AB196589 WWJ131050:WWJ131053 WMN131050:WMN131053 WCR131050:WCR131053 VSV131050:VSV131053 VIZ131050:VIZ131053 UZD131050:UZD131053 UPH131050:UPH131053 UFL131050:UFL131053 TVP131050:TVP131053 TLT131050:TLT131053 TBX131050:TBX131053 SSB131050:SSB131053 SIF131050:SIF131053 RYJ131050:RYJ131053 RON131050:RON131053 RER131050:RER131053 QUV131050:QUV131053 QKZ131050:QKZ131053 QBD131050:QBD131053 PRH131050:PRH131053 PHL131050:PHL131053 OXP131050:OXP131053 ONT131050:ONT131053 ODX131050:ODX131053 NUB131050:NUB131053 NKF131050:NKF131053 NAJ131050:NAJ131053 MQN131050:MQN131053 MGR131050:MGR131053 LWV131050:LWV131053 LMZ131050:LMZ131053 LDD131050:LDD131053 KTH131050:KTH131053 KJL131050:KJL131053 JZP131050:JZP131053 JPT131050:JPT131053 JFX131050:JFX131053 IWB131050:IWB131053 IMF131050:IMF131053 ICJ131050:ICJ131053 HSN131050:HSN131053 HIR131050:HIR131053 GYV131050:GYV131053 GOZ131050:GOZ131053 GFD131050:GFD131053 FVH131050:FVH131053 FLL131050:FLL131053 FBP131050:FBP131053 ERT131050:ERT131053 EHX131050:EHX131053 DYB131050:DYB131053 DOF131050:DOF131053 DEJ131050:DEJ131053 CUN131050:CUN131053 CKR131050:CKR131053 CAV131050:CAV131053 BQZ131050:BQZ131053 BHD131050:BHD131053 AXH131050:AXH131053 ANL131050:ANL131053 ADP131050:ADP131053 TT131050:TT131053 JX131050:JX131053 AB131050:AB131053 WWJ65514:WWJ65517 WMN65514:WMN65517 WCR65514:WCR65517 VSV65514:VSV65517 VIZ65514:VIZ65517 UZD65514:UZD65517 UPH65514:UPH65517 UFL65514:UFL65517 TVP65514:TVP65517 TLT65514:TLT65517 TBX65514:TBX65517 SSB65514:SSB65517 SIF65514:SIF65517 RYJ65514:RYJ65517 RON65514:RON65517 RER65514:RER65517 QUV65514:QUV65517 QKZ65514:QKZ65517 QBD65514:QBD65517 PRH65514:PRH65517 PHL65514:PHL65517 OXP65514:OXP65517 ONT65514:ONT65517 ODX65514:ODX65517 NUB65514:NUB65517 NKF65514:NKF65517 NAJ65514:NAJ65517 MQN65514:MQN65517 MGR65514:MGR65517 LWV65514:LWV65517 LMZ65514:LMZ65517 LDD65514:LDD65517 KTH65514:KTH65517 KJL65514:KJL65517 JZP65514:JZP65517 JPT65514:JPT65517 JFX65514:JFX65517 IWB65514:IWB65517 IMF65514:IMF65517 ICJ65514:ICJ65517 HSN65514:HSN65517 HIR65514:HIR65517 GYV65514:GYV65517 GOZ65514:GOZ65517 GFD65514:GFD65517 FVH65514:FVH65517 FLL65514:FLL65517 FBP65514:FBP65517 ERT65514:ERT65517 EHX65514:EHX65517 DYB65514:DYB65517 DOF65514:DOF65517 DEJ65514:DEJ65517 CUN65514:CUN65517 CKR65514:CKR65517 CAV65514:CAV65517 BQZ65514:BQZ65517 BHD65514:BHD65517 AXH65514:AXH65517 ANL65514:ANL65517 ADP65514:ADP65517 TT65514:TT65517 JX65514:JX65517 AB65514:AB65517 WWH983018:WWH983021 WML983018:WML983021 WCP983018:WCP983021 VST983018:VST983021 VIX983018:VIX983021 UZB983018:UZB983021 UPF983018:UPF983021 UFJ983018:UFJ983021 TVN983018:TVN983021 TLR983018:TLR983021 TBV983018:TBV983021 SRZ983018:SRZ983021 SID983018:SID983021 RYH983018:RYH983021 ROL983018:ROL983021 REP983018:REP983021 QUT983018:QUT983021 QKX983018:QKX983021 QBB983018:QBB983021 PRF983018:PRF983021 PHJ983018:PHJ983021 OXN983018:OXN983021 ONR983018:ONR983021 ODV983018:ODV983021 NTZ983018:NTZ983021 NKD983018:NKD983021 NAH983018:NAH983021 MQL983018:MQL983021 MGP983018:MGP983021 LWT983018:LWT983021 LMX983018:LMX983021 LDB983018:LDB983021 KTF983018:KTF983021 KJJ983018:KJJ983021 JZN983018:JZN983021 JPR983018:JPR983021 JFV983018:JFV983021 IVZ983018:IVZ983021 IMD983018:IMD983021 ICH983018:ICH983021 HSL983018:HSL983021 HIP983018:HIP983021 GYT983018:GYT983021 GOX983018:GOX983021 GFB983018:GFB983021 FVF983018:FVF983021 FLJ983018:FLJ983021 FBN983018:FBN983021 ERR983018:ERR983021 EHV983018:EHV983021 DXZ983018:DXZ983021 DOD983018:DOD983021 DEH983018:DEH983021 CUL983018:CUL983021 CKP983018:CKP983021 CAT983018:CAT983021 BQX983018:BQX983021 BHB983018:BHB983021 AXF983018:AXF983021 ANJ983018:ANJ983021 ADN983018:ADN983021 TR983018:TR983021 JV983018:JV983021 Z983018:Z983021 WWH917482:WWH917485 WML917482:WML917485 WCP917482:WCP917485 VST917482:VST917485 VIX917482:VIX917485 UZB917482:UZB917485 UPF917482:UPF917485 UFJ917482:UFJ917485 TVN917482:TVN917485 TLR917482:TLR917485 TBV917482:TBV917485 SRZ917482:SRZ917485 SID917482:SID917485 RYH917482:RYH917485 ROL917482:ROL917485 REP917482:REP917485 QUT917482:QUT917485 QKX917482:QKX917485 QBB917482:QBB917485 PRF917482:PRF917485 PHJ917482:PHJ917485 OXN917482:OXN917485 ONR917482:ONR917485 ODV917482:ODV917485 NTZ917482:NTZ917485 NKD917482:NKD917485 NAH917482:NAH917485 MQL917482:MQL917485 MGP917482:MGP917485 LWT917482:LWT917485 LMX917482:LMX917485 LDB917482:LDB917485 KTF917482:KTF917485 KJJ917482:KJJ917485 JZN917482:JZN917485 JPR917482:JPR917485 JFV917482:JFV917485 IVZ917482:IVZ917485 IMD917482:IMD917485 ICH917482:ICH917485 HSL917482:HSL917485 HIP917482:HIP917485 GYT917482:GYT917485 GOX917482:GOX917485 GFB917482:GFB917485 FVF917482:FVF917485 FLJ917482:FLJ917485 FBN917482:FBN917485 ERR917482:ERR917485 EHV917482:EHV917485 DXZ917482:DXZ917485 DOD917482:DOD917485 DEH917482:DEH917485 CUL917482:CUL917485 CKP917482:CKP917485 CAT917482:CAT917485 BQX917482:BQX917485 BHB917482:BHB917485 AXF917482:AXF917485 ANJ917482:ANJ917485 ADN917482:ADN917485 TR917482:TR917485 JV917482:JV917485 Z917482:Z917485 WWH851946:WWH851949 WML851946:WML851949 WCP851946:WCP851949 VST851946:VST851949 VIX851946:VIX851949 UZB851946:UZB851949 UPF851946:UPF851949 UFJ851946:UFJ851949 TVN851946:TVN851949 TLR851946:TLR851949 TBV851946:TBV851949 SRZ851946:SRZ851949 SID851946:SID851949 RYH851946:RYH851949 ROL851946:ROL851949 REP851946:REP851949 QUT851946:QUT851949 QKX851946:QKX851949 QBB851946:QBB851949 PRF851946:PRF851949 PHJ851946:PHJ851949 OXN851946:OXN851949 ONR851946:ONR851949 ODV851946:ODV851949 NTZ851946:NTZ851949 NKD851946:NKD851949 NAH851946:NAH851949 MQL851946:MQL851949 MGP851946:MGP851949 LWT851946:LWT851949 LMX851946:LMX851949 LDB851946:LDB851949 KTF851946:KTF851949 KJJ851946:KJJ851949 JZN851946:JZN851949 JPR851946:JPR851949 JFV851946:JFV851949 IVZ851946:IVZ851949 IMD851946:IMD851949 ICH851946:ICH851949 HSL851946:HSL851949 HIP851946:HIP851949 GYT851946:GYT851949 GOX851946:GOX851949 GFB851946:GFB851949 FVF851946:FVF851949 FLJ851946:FLJ851949 FBN851946:FBN851949 ERR851946:ERR851949 EHV851946:EHV851949 DXZ851946:DXZ851949 DOD851946:DOD851949 DEH851946:DEH851949 CUL851946:CUL851949 CKP851946:CKP851949 CAT851946:CAT851949 BQX851946:BQX851949 BHB851946:BHB851949 AXF851946:AXF851949 ANJ851946:ANJ851949 ADN851946:ADN851949 TR851946:TR851949 JV851946:JV851949 Z851946:Z851949 WWH786410:WWH786413 WML786410:WML786413 WCP786410:WCP786413 VST786410:VST786413 VIX786410:VIX786413 UZB786410:UZB786413 UPF786410:UPF786413 UFJ786410:UFJ786413 TVN786410:TVN786413 TLR786410:TLR786413 TBV786410:TBV786413 SRZ786410:SRZ786413 SID786410:SID786413 RYH786410:RYH786413 ROL786410:ROL786413 REP786410:REP786413 QUT786410:QUT786413 QKX786410:QKX786413 QBB786410:QBB786413 PRF786410:PRF786413 PHJ786410:PHJ786413 OXN786410:OXN786413 ONR786410:ONR786413 ODV786410:ODV786413 NTZ786410:NTZ786413 NKD786410:NKD786413 NAH786410:NAH786413 MQL786410:MQL786413 MGP786410:MGP786413 LWT786410:LWT786413 LMX786410:LMX786413 LDB786410:LDB786413 KTF786410:KTF786413 KJJ786410:KJJ786413 JZN786410:JZN786413 JPR786410:JPR786413 JFV786410:JFV786413 IVZ786410:IVZ786413 IMD786410:IMD786413 ICH786410:ICH786413 HSL786410:HSL786413 HIP786410:HIP786413 GYT786410:GYT786413 GOX786410:GOX786413 GFB786410:GFB786413 FVF786410:FVF786413 FLJ786410:FLJ786413 FBN786410:FBN786413 ERR786410:ERR786413 EHV786410:EHV786413 DXZ786410:DXZ786413 DOD786410:DOD786413 DEH786410:DEH786413 CUL786410:CUL786413 CKP786410:CKP786413 CAT786410:CAT786413 BQX786410:BQX786413 BHB786410:BHB786413 AXF786410:AXF786413 ANJ786410:ANJ786413 ADN786410:ADN786413 TR786410:TR786413 JV786410:JV786413 Z786410:Z786413 WWH720874:WWH720877 WML720874:WML720877 WCP720874:WCP720877 VST720874:VST720877 VIX720874:VIX720877 UZB720874:UZB720877 UPF720874:UPF720877 UFJ720874:UFJ720877 TVN720874:TVN720877 TLR720874:TLR720877 TBV720874:TBV720877 SRZ720874:SRZ720877 SID720874:SID720877 RYH720874:RYH720877 ROL720874:ROL720877 REP720874:REP720877 QUT720874:QUT720877 QKX720874:QKX720877 QBB720874:QBB720877 PRF720874:PRF720877 PHJ720874:PHJ720877 OXN720874:OXN720877 ONR720874:ONR720877 ODV720874:ODV720877 NTZ720874:NTZ720877 NKD720874:NKD720877 NAH720874:NAH720877 MQL720874:MQL720877 MGP720874:MGP720877 LWT720874:LWT720877 LMX720874:LMX720877 LDB720874:LDB720877 KTF720874:KTF720877 KJJ720874:KJJ720877 JZN720874:JZN720877 JPR720874:JPR720877 JFV720874:JFV720877 IVZ720874:IVZ720877 IMD720874:IMD720877 ICH720874:ICH720877 HSL720874:HSL720877 HIP720874:HIP720877 GYT720874:GYT720877 GOX720874:GOX720877 GFB720874:GFB720877 FVF720874:FVF720877 FLJ720874:FLJ720877 FBN720874:FBN720877 ERR720874:ERR720877 EHV720874:EHV720877 DXZ720874:DXZ720877 DOD720874:DOD720877 DEH720874:DEH720877 CUL720874:CUL720877 CKP720874:CKP720877 CAT720874:CAT720877 BQX720874:BQX720877 BHB720874:BHB720877 AXF720874:AXF720877 ANJ720874:ANJ720877 ADN720874:ADN720877 TR720874:TR720877 JV720874:JV720877 Z720874:Z720877 WWH655338:WWH655341 WML655338:WML655341 WCP655338:WCP655341 VST655338:VST655341 VIX655338:VIX655341 UZB655338:UZB655341 UPF655338:UPF655341 UFJ655338:UFJ655341 TVN655338:TVN655341 TLR655338:TLR655341 TBV655338:TBV655341 SRZ655338:SRZ655341 SID655338:SID655341 RYH655338:RYH655341 ROL655338:ROL655341 REP655338:REP655341 QUT655338:QUT655341 QKX655338:QKX655341 QBB655338:QBB655341 PRF655338:PRF655341 PHJ655338:PHJ655341 OXN655338:OXN655341 ONR655338:ONR655341 ODV655338:ODV655341 NTZ655338:NTZ655341 NKD655338:NKD655341 NAH655338:NAH655341 MQL655338:MQL655341 MGP655338:MGP655341 LWT655338:LWT655341 LMX655338:LMX655341 LDB655338:LDB655341 KTF655338:KTF655341 KJJ655338:KJJ655341 JZN655338:JZN655341 JPR655338:JPR655341 JFV655338:JFV655341 IVZ655338:IVZ655341 IMD655338:IMD655341 ICH655338:ICH655341 HSL655338:HSL655341 HIP655338:HIP655341 GYT655338:GYT655341 GOX655338:GOX655341 GFB655338:GFB655341 FVF655338:FVF655341 FLJ655338:FLJ655341 FBN655338:FBN655341 ERR655338:ERR655341 EHV655338:EHV655341 DXZ655338:DXZ655341 DOD655338:DOD655341 DEH655338:DEH655341 CUL655338:CUL655341 CKP655338:CKP655341 CAT655338:CAT655341 BQX655338:BQX655341 BHB655338:BHB655341 AXF655338:AXF655341 ANJ655338:ANJ655341 ADN655338:ADN655341 TR655338:TR655341 JV655338:JV655341 Z655338:Z655341 WWH589802:WWH589805 WML589802:WML589805 WCP589802:WCP589805 VST589802:VST589805 VIX589802:VIX589805 UZB589802:UZB589805 UPF589802:UPF589805 UFJ589802:UFJ589805 TVN589802:TVN589805 TLR589802:TLR589805 TBV589802:TBV589805 SRZ589802:SRZ589805 SID589802:SID589805 RYH589802:RYH589805 ROL589802:ROL589805 REP589802:REP589805 QUT589802:QUT589805 QKX589802:QKX589805 QBB589802:QBB589805 PRF589802:PRF589805 PHJ589802:PHJ589805 OXN589802:OXN589805 ONR589802:ONR589805 ODV589802:ODV589805 NTZ589802:NTZ589805 NKD589802:NKD589805 NAH589802:NAH589805 MQL589802:MQL589805 MGP589802:MGP589805 LWT589802:LWT589805 LMX589802:LMX589805 LDB589802:LDB589805 KTF589802:KTF589805 KJJ589802:KJJ589805 JZN589802:JZN589805 JPR589802:JPR589805 JFV589802:JFV589805 IVZ589802:IVZ589805 IMD589802:IMD589805 ICH589802:ICH589805 HSL589802:HSL589805 HIP589802:HIP589805 GYT589802:GYT589805 GOX589802:GOX589805 GFB589802:GFB589805 FVF589802:FVF589805 FLJ589802:FLJ589805 FBN589802:FBN589805 ERR589802:ERR589805 EHV589802:EHV589805 DXZ589802:DXZ589805 DOD589802:DOD589805 DEH589802:DEH589805 CUL589802:CUL589805 CKP589802:CKP589805 CAT589802:CAT589805 BQX589802:BQX589805 BHB589802:BHB589805 AXF589802:AXF589805 ANJ589802:ANJ589805 ADN589802:ADN589805 TR589802:TR589805 JV589802:JV589805 Z589802:Z589805 WWH524266:WWH524269 WML524266:WML524269 WCP524266:WCP524269 VST524266:VST524269 VIX524266:VIX524269 UZB524266:UZB524269 UPF524266:UPF524269 UFJ524266:UFJ524269 TVN524266:TVN524269 TLR524266:TLR524269 TBV524266:TBV524269 SRZ524266:SRZ524269 SID524266:SID524269 RYH524266:RYH524269 ROL524266:ROL524269 REP524266:REP524269 QUT524266:QUT524269 QKX524266:QKX524269 QBB524266:QBB524269 PRF524266:PRF524269 PHJ524266:PHJ524269 OXN524266:OXN524269 ONR524266:ONR524269 ODV524266:ODV524269 NTZ524266:NTZ524269 NKD524266:NKD524269 NAH524266:NAH524269 MQL524266:MQL524269 MGP524266:MGP524269 LWT524266:LWT524269 LMX524266:LMX524269 LDB524266:LDB524269 KTF524266:KTF524269 KJJ524266:KJJ524269 JZN524266:JZN524269 JPR524266:JPR524269 JFV524266:JFV524269 IVZ524266:IVZ524269 IMD524266:IMD524269 ICH524266:ICH524269 HSL524266:HSL524269 HIP524266:HIP524269 GYT524266:GYT524269 GOX524266:GOX524269 GFB524266:GFB524269 FVF524266:FVF524269 FLJ524266:FLJ524269 FBN524266:FBN524269 ERR524266:ERR524269 EHV524266:EHV524269 DXZ524266:DXZ524269 DOD524266:DOD524269 DEH524266:DEH524269 CUL524266:CUL524269 CKP524266:CKP524269 CAT524266:CAT524269 BQX524266:BQX524269 BHB524266:BHB524269 AXF524266:AXF524269 ANJ524266:ANJ524269 ADN524266:ADN524269 TR524266:TR524269 JV524266:JV524269 Z524266:Z524269 WWH458730:WWH458733 WML458730:WML458733 WCP458730:WCP458733 VST458730:VST458733 VIX458730:VIX458733 UZB458730:UZB458733 UPF458730:UPF458733 UFJ458730:UFJ458733 TVN458730:TVN458733 TLR458730:TLR458733 TBV458730:TBV458733 SRZ458730:SRZ458733 SID458730:SID458733 RYH458730:RYH458733 ROL458730:ROL458733 REP458730:REP458733 QUT458730:QUT458733 QKX458730:QKX458733 QBB458730:QBB458733 PRF458730:PRF458733 PHJ458730:PHJ458733 OXN458730:OXN458733 ONR458730:ONR458733 ODV458730:ODV458733 NTZ458730:NTZ458733 NKD458730:NKD458733 NAH458730:NAH458733 MQL458730:MQL458733 MGP458730:MGP458733 LWT458730:LWT458733 LMX458730:LMX458733 LDB458730:LDB458733 KTF458730:KTF458733 KJJ458730:KJJ458733 JZN458730:JZN458733 JPR458730:JPR458733 JFV458730:JFV458733 IVZ458730:IVZ458733 IMD458730:IMD458733 ICH458730:ICH458733 HSL458730:HSL458733 HIP458730:HIP458733 GYT458730:GYT458733 GOX458730:GOX458733 GFB458730:GFB458733 FVF458730:FVF458733 FLJ458730:FLJ458733 FBN458730:FBN458733 ERR458730:ERR458733 EHV458730:EHV458733 DXZ458730:DXZ458733 DOD458730:DOD458733 DEH458730:DEH458733 CUL458730:CUL458733 CKP458730:CKP458733 CAT458730:CAT458733 BQX458730:BQX458733 BHB458730:BHB458733 AXF458730:AXF458733 ANJ458730:ANJ458733 ADN458730:ADN458733 TR458730:TR458733 JV458730:JV458733 Z458730:Z458733 WWH393194:WWH393197 WML393194:WML393197 WCP393194:WCP393197 VST393194:VST393197 VIX393194:VIX393197 UZB393194:UZB393197 UPF393194:UPF393197 UFJ393194:UFJ393197 TVN393194:TVN393197 TLR393194:TLR393197 TBV393194:TBV393197 SRZ393194:SRZ393197 SID393194:SID393197 RYH393194:RYH393197 ROL393194:ROL393197 REP393194:REP393197 QUT393194:QUT393197 QKX393194:QKX393197 QBB393194:QBB393197 PRF393194:PRF393197 PHJ393194:PHJ393197 OXN393194:OXN393197 ONR393194:ONR393197 ODV393194:ODV393197 NTZ393194:NTZ393197 NKD393194:NKD393197 NAH393194:NAH393197 MQL393194:MQL393197 MGP393194:MGP393197 LWT393194:LWT393197 LMX393194:LMX393197 LDB393194:LDB393197 KTF393194:KTF393197 KJJ393194:KJJ393197 JZN393194:JZN393197 JPR393194:JPR393197 JFV393194:JFV393197 IVZ393194:IVZ393197 IMD393194:IMD393197 ICH393194:ICH393197 HSL393194:HSL393197 HIP393194:HIP393197 GYT393194:GYT393197 GOX393194:GOX393197 GFB393194:GFB393197 FVF393194:FVF393197 FLJ393194:FLJ393197 FBN393194:FBN393197 ERR393194:ERR393197 EHV393194:EHV393197 DXZ393194:DXZ393197 DOD393194:DOD393197 DEH393194:DEH393197 CUL393194:CUL393197 CKP393194:CKP393197 CAT393194:CAT393197 BQX393194:BQX393197 BHB393194:BHB393197 AXF393194:AXF393197 ANJ393194:ANJ393197 ADN393194:ADN393197 TR393194:TR393197 JV393194:JV393197 Z393194:Z393197 WWH327658:WWH327661 WML327658:WML327661 WCP327658:WCP327661 VST327658:VST327661 VIX327658:VIX327661 UZB327658:UZB327661 UPF327658:UPF327661 UFJ327658:UFJ327661 TVN327658:TVN327661 TLR327658:TLR327661 TBV327658:TBV327661 SRZ327658:SRZ327661 SID327658:SID327661 RYH327658:RYH327661 ROL327658:ROL327661 REP327658:REP327661 QUT327658:QUT327661 QKX327658:QKX327661 QBB327658:QBB327661 PRF327658:PRF327661 PHJ327658:PHJ327661 OXN327658:OXN327661 ONR327658:ONR327661 ODV327658:ODV327661 NTZ327658:NTZ327661 NKD327658:NKD327661 NAH327658:NAH327661 MQL327658:MQL327661 MGP327658:MGP327661 LWT327658:LWT327661 LMX327658:LMX327661 LDB327658:LDB327661 KTF327658:KTF327661 KJJ327658:KJJ327661 JZN327658:JZN327661 JPR327658:JPR327661 JFV327658:JFV327661 IVZ327658:IVZ327661 IMD327658:IMD327661 ICH327658:ICH327661 HSL327658:HSL327661 HIP327658:HIP327661 GYT327658:GYT327661 GOX327658:GOX327661 GFB327658:GFB327661 FVF327658:FVF327661 FLJ327658:FLJ327661 FBN327658:FBN327661 ERR327658:ERR327661 EHV327658:EHV327661 DXZ327658:DXZ327661 DOD327658:DOD327661 DEH327658:DEH327661 CUL327658:CUL327661 CKP327658:CKP327661 CAT327658:CAT327661 BQX327658:BQX327661 BHB327658:BHB327661 AXF327658:AXF327661 ANJ327658:ANJ327661 ADN327658:ADN327661 TR327658:TR327661 JV327658:JV327661 Z327658:Z327661 WWH262122:WWH262125 WML262122:WML262125 WCP262122:WCP262125 VST262122:VST262125 VIX262122:VIX262125 UZB262122:UZB262125 UPF262122:UPF262125 UFJ262122:UFJ262125 TVN262122:TVN262125 TLR262122:TLR262125 TBV262122:TBV262125 SRZ262122:SRZ262125 SID262122:SID262125 RYH262122:RYH262125 ROL262122:ROL262125 REP262122:REP262125 QUT262122:QUT262125 QKX262122:QKX262125 QBB262122:QBB262125 PRF262122:PRF262125 PHJ262122:PHJ262125 OXN262122:OXN262125 ONR262122:ONR262125 ODV262122:ODV262125 NTZ262122:NTZ262125 NKD262122:NKD262125 NAH262122:NAH262125 MQL262122:MQL262125 MGP262122:MGP262125 LWT262122:LWT262125 LMX262122:LMX262125 LDB262122:LDB262125 KTF262122:KTF262125 KJJ262122:KJJ262125 JZN262122:JZN262125 JPR262122:JPR262125 JFV262122:JFV262125 IVZ262122:IVZ262125 IMD262122:IMD262125 ICH262122:ICH262125 HSL262122:HSL262125 HIP262122:HIP262125 GYT262122:GYT262125 GOX262122:GOX262125 GFB262122:GFB262125 FVF262122:FVF262125 FLJ262122:FLJ262125 FBN262122:FBN262125 ERR262122:ERR262125 EHV262122:EHV262125 DXZ262122:DXZ262125 DOD262122:DOD262125 DEH262122:DEH262125 CUL262122:CUL262125 CKP262122:CKP262125 CAT262122:CAT262125 BQX262122:BQX262125 BHB262122:BHB262125 AXF262122:AXF262125 ANJ262122:ANJ262125 ADN262122:ADN262125 TR262122:TR262125 JV262122:JV262125 Z262122:Z262125 WWH196586:WWH196589 WML196586:WML196589 WCP196586:WCP196589 VST196586:VST196589 VIX196586:VIX196589 UZB196586:UZB196589 UPF196586:UPF196589 UFJ196586:UFJ196589 TVN196586:TVN196589 TLR196586:TLR196589 TBV196586:TBV196589 SRZ196586:SRZ196589 SID196586:SID196589 RYH196586:RYH196589 ROL196586:ROL196589 REP196586:REP196589 QUT196586:QUT196589 QKX196586:QKX196589 QBB196586:QBB196589 PRF196586:PRF196589 PHJ196586:PHJ196589 OXN196586:OXN196589 ONR196586:ONR196589 ODV196586:ODV196589 NTZ196586:NTZ196589 NKD196586:NKD196589 NAH196586:NAH196589 MQL196586:MQL196589 MGP196586:MGP196589 LWT196586:LWT196589 LMX196586:LMX196589 LDB196586:LDB196589 KTF196586:KTF196589 KJJ196586:KJJ196589 JZN196586:JZN196589 JPR196586:JPR196589 JFV196586:JFV196589 IVZ196586:IVZ196589 IMD196586:IMD196589 ICH196586:ICH196589 HSL196586:HSL196589 HIP196586:HIP196589 GYT196586:GYT196589 GOX196586:GOX196589 GFB196586:GFB196589 FVF196586:FVF196589 FLJ196586:FLJ196589 FBN196586:FBN196589 ERR196586:ERR196589 EHV196586:EHV196589 DXZ196586:DXZ196589 DOD196586:DOD196589 DEH196586:DEH196589 CUL196586:CUL196589 CKP196586:CKP196589 CAT196586:CAT196589 BQX196586:BQX196589 BHB196586:BHB196589 AXF196586:AXF196589 ANJ196586:ANJ196589 ADN196586:ADN196589 TR196586:TR196589 JV196586:JV196589 Z196586:Z196589 WWH131050:WWH131053 WML131050:WML131053 WCP131050:WCP131053 VST131050:VST131053 VIX131050:VIX131053 UZB131050:UZB131053 UPF131050:UPF131053 UFJ131050:UFJ131053 TVN131050:TVN131053 TLR131050:TLR131053 TBV131050:TBV131053 SRZ131050:SRZ131053 SID131050:SID131053 RYH131050:RYH131053 ROL131050:ROL131053 REP131050:REP131053 QUT131050:QUT131053 QKX131050:QKX131053 QBB131050:QBB131053 PRF131050:PRF131053 PHJ131050:PHJ131053 OXN131050:OXN131053 ONR131050:ONR131053 ODV131050:ODV131053 NTZ131050:NTZ131053 NKD131050:NKD131053 NAH131050:NAH131053 MQL131050:MQL131053 MGP131050:MGP131053 LWT131050:LWT131053 LMX131050:LMX131053 LDB131050:LDB131053 KTF131050:KTF131053 KJJ131050:KJJ131053 JZN131050:JZN131053 JPR131050:JPR131053 JFV131050:JFV131053 IVZ131050:IVZ131053 IMD131050:IMD131053 ICH131050:ICH131053 HSL131050:HSL131053 HIP131050:HIP131053 GYT131050:GYT131053 GOX131050:GOX131053 GFB131050:GFB131053 FVF131050:FVF131053 FLJ131050:FLJ131053 FBN131050:FBN131053 ERR131050:ERR131053 EHV131050:EHV131053 DXZ131050:DXZ131053 DOD131050:DOD131053 DEH131050:DEH131053 CUL131050:CUL131053 CKP131050:CKP131053 CAT131050:CAT131053 BQX131050:BQX131053 BHB131050:BHB131053 AXF131050:AXF131053 ANJ131050:ANJ131053 ADN131050:ADN131053 TR131050:TR131053 JV131050:JV131053 Z131050:Z131053 WWH65514:WWH65517 WML65514:WML65517 WCP65514:WCP65517 VST65514:VST65517 VIX65514:VIX65517 UZB65514:UZB65517 UPF65514:UPF65517 UFJ65514:UFJ65517 TVN65514:TVN65517 TLR65514:TLR65517 TBV65514:TBV65517 SRZ65514:SRZ65517 SID65514:SID65517 RYH65514:RYH65517 ROL65514:ROL65517 REP65514:REP65517 QUT65514:QUT65517 QKX65514:QKX65517 QBB65514:QBB65517 PRF65514:PRF65517 PHJ65514:PHJ65517 OXN65514:OXN65517 ONR65514:ONR65517 ODV65514:ODV65517 NTZ65514:NTZ65517 NKD65514:NKD65517 NAH65514:NAH65517 MQL65514:MQL65517 MGP65514:MGP65517 LWT65514:LWT65517 LMX65514:LMX65517 LDB65514:LDB65517 KTF65514:KTF65517 KJJ65514:KJJ65517 JZN65514:JZN65517 JPR65514:JPR65517 JFV65514:JFV65517 IVZ65514:IVZ65517 IMD65514:IMD65517 ICH65514:ICH65517 HSL65514:HSL65517 HIP65514:HIP65517 GYT65514:GYT65517 GOX65514:GOX65517 GFB65514:GFB65517 FVF65514:FVF65517 FLJ65514:FLJ65517 FBN65514:FBN65517 ERR65514:ERR65517 EHV65514:EHV65517 DXZ65514:DXZ65517 DOD65514:DOD65517 DEH65514:DEH65517 CUL65514:CUL65517 CKP65514:CKP65517 CAT65514:CAT65517 BQX65514:BQX65517 BHB65514:BHB65517 AXF65514:AXF65517 ANJ65514:ANJ65517 ADN65514:ADN65517 TR65514:TR65517 JV65514:JV65517">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z65514:Z65517 WWF983018:WWF983021 WMJ983018:WMJ983021 WCN983018:WCN983021 VSR983018:VSR983021 VIV983018:VIV983021 UYZ983018:UYZ983021 UPD983018:UPD983021 UFH983018:UFH983021 TVL983018:TVL983021 TLP983018:TLP983021 TBT983018:TBT983021 SRX983018:SRX983021 SIB983018:SIB983021 RYF983018:RYF983021 ROJ983018:ROJ983021 REN983018:REN983021 QUR983018:QUR983021 QKV983018:QKV983021 QAZ983018:QAZ983021 PRD983018:PRD983021 PHH983018:PHH983021 OXL983018:OXL983021 ONP983018:ONP983021 ODT983018:ODT983021 NTX983018:NTX983021 NKB983018:NKB983021 NAF983018:NAF983021 MQJ983018:MQJ983021 MGN983018:MGN983021 LWR983018:LWR983021 LMV983018:LMV983021 LCZ983018:LCZ983021 KTD983018:KTD983021 KJH983018:KJH983021 JZL983018:JZL983021 JPP983018:JPP983021 JFT983018:JFT983021 IVX983018:IVX983021 IMB983018:IMB983021 ICF983018:ICF983021 HSJ983018:HSJ983021 HIN983018:HIN983021 GYR983018:GYR983021 GOV983018:GOV983021 GEZ983018:GEZ983021 FVD983018:FVD983021 FLH983018:FLH983021 FBL983018:FBL983021 ERP983018:ERP983021 EHT983018:EHT983021 DXX983018:DXX983021 DOB983018:DOB983021 DEF983018:DEF983021 CUJ983018:CUJ983021 CKN983018:CKN983021 CAR983018:CAR983021 BQV983018:BQV983021 BGZ983018:BGZ983021 AXD983018:AXD983021 ANH983018:ANH983021 ADL983018:ADL983021 TP983018:TP983021 JT983018:JT983021 X983018:X983021 WWF917482:WWF917485 WMJ917482:WMJ917485 WCN917482:WCN917485 VSR917482:VSR917485 VIV917482:VIV917485 UYZ917482:UYZ917485 UPD917482:UPD917485 UFH917482:UFH917485 TVL917482:TVL917485 TLP917482:TLP917485 TBT917482:TBT917485 SRX917482:SRX917485 SIB917482:SIB917485 RYF917482:RYF917485 ROJ917482:ROJ917485 REN917482:REN917485 QUR917482:QUR917485 QKV917482:QKV917485 QAZ917482:QAZ917485 PRD917482:PRD917485 PHH917482:PHH917485 OXL917482:OXL917485 ONP917482:ONP917485 ODT917482:ODT917485 NTX917482:NTX917485 NKB917482:NKB917485 NAF917482:NAF917485 MQJ917482:MQJ917485 MGN917482:MGN917485 LWR917482:LWR917485 LMV917482:LMV917485 LCZ917482:LCZ917485 KTD917482:KTD917485 KJH917482:KJH917485 JZL917482:JZL917485 JPP917482:JPP917485 JFT917482:JFT917485 IVX917482:IVX917485 IMB917482:IMB917485 ICF917482:ICF917485 HSJ917482:HSJ917485 HIN917482:HIN917485 GYR917482:GYR917485 GOV917482:GOV917485 GEZ917482:GEZ917485 FVD917482:FVD917485 FLH917482:FLH917485 FBL917482:FBL917485 ERP917482:ERP917485 EHT917482:EHT917485 DXX917482:DXX917485 DOB917482:DOB917485 DEF917482:DEF917485 CUJ917482:CUJ917485 CKN917482:CKN917485 CAR917482:CAR917485 BQV917482:BQV917485 BGZ917482:BGZ917485 AXD917482:AXD917485 ANH917482:ANH917485 ADL917482:ADL917485 TP917482:TP917485 JT917482:JT917485 X917482:X917485 WWF851946:WWF851949 WMJ851946:WMJ851949 WCN851946:WCN851949 VSR851946:VSR851949 VIV851946:VIV851949 UYZ851946:UYZ851949 UPD851946:UPD851949 UFH851946:UFH851949 TVL851946:TVL851949 TLP851946:TLP851949 TBT851946:TBT851949 SRX851946:SRX851949 SIB851946:SIB851949 RYF851946:RYF851949 ROJ851946:ROJ851949 REN851946:REN851949 QUR851946:QUR851949 QKV851946:QKV851949 QAZ851946:QAZ851949 PRD851946:PRD851949 PHH851946:PHH851949 OXL851946:OXL851949 ONP851946:ONP851949 ODT851946:ODT851949 NTX851946:NTX851949 NKB851946:NKB851949 NAF851946:NAF851949 MQJ851946:MQJ851949 MGN851946:MGN851949 LWR851946:LWR851949 LMV851946:LMV851949 LCZ851946:LCZ851949 KTD851946:KTD851949 KJH851946:KJH851949 JZL851946:JZL851949 JPP851946:JPP851949 JFT851946:JFT851949 IVX851946:IVX851949 IMB851946:IMB851949 ICF851946:ICF851949 HSJ851946:HSJ851949 HIN851946:HIN851949 GYR851946:GYR851949 GOV851946:GOV851949 GEZ851946:GEZ851949 FVD851946:FVD851949 FLH851946:FLH851949 FBL851946:FBL851949 ERP851946:ERP851949 EHT851946:EHT851949 DXX851946:DXX851949 DOB851946:DOB851949 DEF851946:DEF851949 CUJ851946:CUJ851949 CKN851946:CKN851949 CAR851946:CAR851949 BQV851946:BQV851949 BGZ851946:BGZ851949 AXD851946:AXD851949 ANH851946:ANH851949 ADL851946:ADL851949 TP851946:TP851949 JT851946:JT851949 X851946:X851949 WWF786410:WWF786413 WMJ786410:WMJ786413 WCN786410:WCN786413 VSR786410:VSR786413 VIV786410:VIV786413 UYZ786410:UYZ786413 UPD786410:UPD786413 UFH786410:UFH786413 TVL786410:TVL786413 TLP786410:TLP786413 TBT786410:TBT786413 SRX786410:SRX786413 SIB786410:SIB786413 RYF786410:RYF786413 ROJ786410:ROJ786413 REN786410:REN786413 QUR786410:QUR786413 QKV786410:QKV786413 QAZ786410:QAZ786413 PRD786410:PRD786413 PHH786410:PHH786413 OXL786410:OXL786413 ONP786410:ONP786413 ODT786410:ODT786413 NTX786410:NTX786413 NKB786410:NKB786413 NAF786410:NAF786413 MQJ786410:MQJ786413 MGN786410:MGN786413 LWR786410:LWR786413 LMV786410:LMV786413 LCZ786410:LCZ786413 KTD786410:KTD786413 KJH786410:KJH786413 JZL786410:JZL786413 JPP786410:JPP786413 JFT786410:JFT786413 IVX786410:IVX786413 IMB786410:IMB786413 ICF786410:ICF786413 HSJ786410:HSJ786413 HIN786410:HIN786413 GYR786410:GYR786413 GOV786410:GOV786413 GEZ786410:GEZ786413 FVD786410:FVD786413 FLH786410:FLH786413 FBL786410:FBL786413 ERP786410:ERP786413 EHT786410:EHT786413 DXX786410:DXX786413 DOB786410:DOB786413 DEF786410:DEF786413 CUJ786410:CUJ786413 CKN786410:CKN786413 CAR786410:CAR786413 BQV786410:BQV786413 BGZ786410:BGZ786413 AXD786410:AXD786413 ANH786410:ANH786413 ADL786410:ADL786413 TP786410:TP786413 JT786410:JT786413 X786410:X786413 WWF720874:WWF720877 WMJ720874:WMJ720877 WCN720874:WCN720877 VSR720874:VSR720877 VIV720874:VIV720877 UYZ720874:UYZ720877 UPD720874:UPD720877 UFH720874:UFH720877 TVL720874:TVL720877 TLP720874:TLP720877 TBT720874:TBT720877 SRX720874:SRX720877 SIB720874:SIB720877 RYF720874:RYF720877 ROJ720874:ROJ720877 REN720874:REN720877 QUR720874:QUR720877 QKV720874:QKV720877 QAZ720874:QAZ720877 PRD720874:PRD720877 PHH720874:PHH720877 OXL720874:OXL720877 ONP720874:ONP720877 ODT720874:ODT720877 NTX720874:NTX720877 NKB720874:NKB720877 NAF720874:NAF720877 MQJ720874:MQJ720877 MGN720874:MGN720877 LWR720874:LWR720877 LMV720874:LMV720877 LCZ720874:LCZ720877 KTD720874:KTD720877 KJH720874:KJH720877 JZL720874:JZL720877 JPP720874:JPP720877 JFT720874:JFT720877 IVX720874:IVX720877 IMB720874:IMB720877 ICF720874:ICF720877 HSJ720874:HSJ720877 HIN720874:HIN720877 GYR720874:GYR720877 GOV720874:GOV720877 GEZ720874:GEZ720877 FVD720874:FVD720877 FLH720874:FLH720877 FBL720874:FBL720877 ERP720874:ERP720877 EHT720874:EHT720877 DXX720874:DXX720877 DOB720874:DOB720877 DEF720874:DEF720877 CUJ720874:CUJ720877 CKN720874:CKN720877 CAR720874:CAR720877 BQV720874:BQV720877 BGZ720874:BGZ720877 AXD720874:AXD720877 ANH720874:ANH720877 ADL720874:ADL720877 TP720874:TP720877 JT720874:JT720877 X720874:X720877 WWF655338:WWF655341 WMJ655338:WMJ655341 WCN655338:WCN655341 VSR655338:VSR655341 VIV655338:VIV655341 UYZ655338:UYZ655341 UPD655338:UPD655341 UFH655338:UFH655341 TVL655338:TVL655341 TLP655338:TLP655341 TBT655338:TBT655341 SRX655338:SRX655341 SIB655338:SIB655341 RYF655338:RYF655341 ROJ655338:ROJ655341 REN655338:REN655341 QUR655338:QUR655341 QKV655338:QKV655341 QAZ655338:QAZ655341 PRD655338:PRD655341 PHH655338:PHH655341 OXL655338:OXL655341 ONP655338:ONP655341 ODT655338:ODT655341 NTX655338:NTX655341 NKB655338:NKB655341 NAF655338:NAF655341 MQJ655338:MQJ655341 MGN655338:MGN655341 LWR655338:LWR655341 LMV655338:LMV655341 LCZ655338:LCZ655341 KTD655338:KTD655341 KJH655338:KJH655341 JZL655338:JZL655341 JPP655338:JPP655341 JFT655338:JFT655341 IVX655338:IVX655341 IMB655338:IMB655341 ICF655338:ICF655341 HSJ655338:HSJ655341 HIN655338:HIN655341 GYR655338:GYR655341 GOV655338:GOV655341 GEZ655338:GEZ655341 FVD655338:FVD655341 FLH655338:FLH655341 FBL655338:FBL655341 ERP655338:ERP655341 EHT655338:EHT655341 DXX655338:DXX655341 DOB655338:DOB655341 DEF655338:DEF655341 CUJ655338:CUJ655341 CKN655338:CKN655341 CAR655338:CAR655341 BQV655338:BQV655341 BGZ655338:BGZ655341 AXD655338:AXD655341 ANH655338:ANH655341 ADL655338:ADL655341 TP655338:TP655341 JT655338:JT655341 X655338:X655341 WWF589802:WWF589805 WMJ589802:WMJ589805 WCN589802:WCN589805 VSR589802:VSR589805 VIV589802:VIV589805 UYZ589802:UYZ589805 UPD589802:UPD589805 UFH589802:UFH589805 TVL589802:TVL589805 TLP589802:TLP589805 TBT589802:TBT589805 SRX589802:SRX589805 SIB589802:SIB589805 RYF589802:RYF589805 ROJ589802:ROJ589805 REN589802:REN589805 QUR589802:QUR589805 QKV589802:QKV589805 QAZ589802:QAZ589805 PRD589802:PRD589805 PHH589802:PHH589805 OXL589802:OXL589805 ONP589802:ONP589805 ODT589802:ODT589805 NTX589802:NTX589805 NKB589802:NKB589805 NAF589802:NAF589805 MQJ589802:MQJ589805 MGN589802:MGN589805 LWR589802:LWR589805 LMV589802:LMV589805 LCZ589802:LCZ589805 KTD589802:KTD589805 KJH589802:KJH589805 JZL589802:JZL589805 JPP589802:JPP589805 JFT589802:JFT589805 IVX589802:IVX589805 IMB589802:IMB589805 ICF589802:ICF589805 HSJ589802:HSJ589805 HIN589802:HIN589805 GYR589802:GYR589805 GOV589802:GOV589805 GEZ589802:GEZ589805 FVD589802:FVD589805 FLH589802:FLH589805 FBL589802:FBL589805 ERP589802:ERP589805 EHT589802:EHT589805 DXX589802:DXX589805 DOB589802:DOB589805 DEF589802:DEF589805 CUJ589802:CUJ589805 CKN589802:CKN589805 CAR589802:CAR589805 BQV589802:BQV589805 BGZ589802:BGZ589805 AXD589802:AXD589805 ANH589802:ANH589805 ADL589802:ADL589805 TP589802:TP589805 JT589802:JT589805 X589802:X589805 WWF524266:WWF524269 WMJ524266:WMJ524269 WCN524266:WCN524269 VSR524266:VSR524269 VIV524266:VIV524269 UYZ524266:UYZ524269 UPD524266:UPD524269 UFH524266:UFH524269 TVL524266:TVL524269 TLP524266:TLP524269 TBT524266:TBT524269 SRX524266:SRX524269 SIB524266:SIB524269 RYF524266:RYF524269 ROJ524266:ROJ524269 REN524266:REN524269 QUR524266:QUR524269 QKV524266:QKV524269 QAZ524266:QAZ524269 PRD524266:PRD524269 PHH524266:PHH524269 OXL524266:OXL524269 ONP524266:ONP524269 ODT524266:ODT524269 NTX524266:NTX524269 NKB524266:NKB524269 NAF524266:NAF524269 MQJ524266:MQJ524269 MGN524266:MGN524269 LWR524266:LWR524269 LMV524266:LMV524269 LCZ524266:LCZ524269 KTD524266:KTD524269 KJH524266:KJH524269 JZL524266:JZL524269 JPP524266:JPP524269 JFT524266:JFT524269 IVX524266:IVX524269 IMB524266:IMB524269 ICF524266:ICF524269 HSJ524266:HSJ524269 HIN524266:HIN524269 GYR524266:GYR524269 GOV524266:GOV524269 GEZ524266:GEZ524269 FVD524266:FVD524269 FLH524266:FLH524269 FBL524266:FBL524269 ERP524266:ERP524269 EHT524266:EHT524269 DXX524266:DXX524269 DOB524266:DOB524269 DEF524266:DEF524269 CUJ524266:CUJ524269 CKN524266:CKN524269 CAR524266:CAR524269 BQV524266:BQV524269 BGZ524266:BGZ524269 AXD524266:AXD524269 ANH524266:ANH524269 ADL524266:ADL524269 TP524266:TP524269 JT524266:JT524269 X524266:X524269 WWF458730:WWF458733 WMJ458730:WMJ458733 WCN458730:WCN458733 VSR458730:VSR458733 VIV458730:VIV458733 UYZ458730:UYZ458733 UPD458730:UPD458733 UFH458730:UFH458733 TVL458730:TVL458733 TLP458730:TLP458733 TBT458730:TBT458733 SRX458730:SRX458733 SIB458730:SIB458733 RYF458730:RYF458733 ROJ458730:ROJ458733 REN458730:REN458733 QUR458730:QUR458733 QKV458730:QKV458733 QAZ458730:QAZ458733 PRD458730:PRD458733 PHH458730:PHH458733 OXL458730:OXL458733 ONP458730:ONP458733 ODT458730:ODT458733 NTX458730:NTX458733 NKB458730:NKB458733 NAF458730:NAF458733 MQJ458730:MQJ458733 MGN458730:MGN458733 LWR458730:LWR458733 LMV458730:LMV458733 LCZ458730:LCZ458733 KTD458730:KTD458733 KJH458730:KJH458733 JZL458730:JZL458733 JPP458730:JPP458733 JFT458730:JFT458733 IVX458730:IVX458733 IMB458730:IMB458733 ICF458730:ICF458733 HSJ458730:HSJ458733 HIN458730:HIN458733 GYR458730:GYR458733 GOV458730:GOV458733 GEZ458730:GEZ458733 FVD458730:FVD458733 FLH458730:FLH458733 FBL458730:FBL458733 ERP458730:ERP458733 EHT458730:EHT458733 DXX458730:DXX458733 DOB458730:DOB458733 DEF458730:DEF458733 CUJ458730:CUJ458733 CKN458730:CKN458733 CAR458730:CAR458733 BQV458730:BQV458733 BGZ458730:BGZ458733 AXD458730:AXD458733 ANH458730:ANH458733 ADL458730:ADL458733 TP458730:TP458733 JT458730:JT458733 X458730:X458733 WWF393194:WWF393197 WMJ393194:WMJ393197 WCN393194:WCN393197 VSR393194:VSR393197 VIV393194:VIV393197 UYZ393194:UYZ393197 UPD393194:UPD393197 UFH393194:UFH393197 TVL393194:TVL393197 TLP393194:TLP393197 TBT393194:TBT393197 SRX393194:SRX393197 SIB393194:SIB393197 RYF393194:RYF393197 ROJ393194:ROJ393197 REN393194:REN393197 QUR393194:QUR393197 QKV393194:QKV393197 QAZ393194:QAZ393197 PRD393194:PRD393197 PHH393194:PHH393197 OXL393194:OXL393197 ONP393194:ONP393197 ODT393194:ODT393197 NTX393194:NTX393197 NKB393194:NKB393197 NAF393194:NAF393197 MQJ393194:MQJ393197 MGN393194:MGN393197 LWR393194:LWR393197 LMV393194:LMV393197 LCZ393194:LCZ393197 KTD393194:KTD393197 KJH393194:KJH393197 JZL393194:JZL393197 JPP393194:JPP393197 JFT393194:JFT393197 IVX393194:IVX393197 IMB393194:IMB393197 ICF393194:ICF393197 HSJ393194:HSJ393197 HIN393194:HIN393197 GYR393194:GYR393197 GOV393194:GOV393197 GEZ393194:GEZ393197 FVD393194:FVD393197 FLH393194:FLH393197 FBL393194:FBL393197 ERP393194:ERP393197 EHT393194:EHT393197 DXX393194:DXX393197 DOB393194:DOB393197 DEF393194:DEF393197 CUJ393194:CUJ393197 CKN393194:CKN393197 CAR393194:CAR393197 BQV393194:BQV393197 BGZ393194:BGZ393197 AXD393194:AXD393197 ANH393194:ANH393197 ADL393194:ADL393197 TP393194:TP393197 JT393194:JT393197 X393194:X393197 WWF327658:WWF327661 WMJ327658:WMJ327661 WCN327658:WCN327661 VSR327658:VSR327661 VIV327658:VIV327661 UYZ327658:UYZ327661 UPD327658:UPD327661 UFH327658:UFH327661 TVL327658:TVL327661 TLP327658:TLP327661 TBT327658:TBT327661 SRX327658:SRX327661 SIB327658:SIB327661 RYF327658:RYF327661 ROJ327658:ROJ327661 REN327658:REN327661 QUR327658:QUR327661 QKV327658:QKV327661 QAZ327658:QAZ327661 PRD327658:PRD327661 PHH327658:PHH327661 OXL327658:OXL327661 ONP327658:ONP327661 ODT327658:ODT327661 NTX327658:NTX327661 NKB327658:NKB327661 NAF327658:NAF327661 MQJ327658:MQJ327661 MGN327658:MGN327661 LWR327658:LWR327661 LMV327658:LMV327661 LCZ327658:LCZ327661 KTD327658:KTD327661 KJH327658:KJH327661 JZL327658:JZL327661 JPP327658:JPP327661 JFT327658:JFT327661 IVX327658:IVX327661 IMB327658:IMB327661 ICF327658:ICF327661 HSJ327658:HSJ327661 HIN327658:HIN327661 GYR327658:GYR327661 GOV327658:GOV327661 GEZ327658:GEZ327661 FVD327658:FVD327661 FLH327658:FLH327661 FBL327658:FBL327661 ERP327658:ERP327661 EHT327658:EHT327661 DXX327658:DXX327661 DOB327658:DOB327661 DEF327658:DEF327661 CUJ327658:CUJ327661 CKN327658:CKN327661 CAR327658:CAR327661 BQV327658:BQV327661 BGZ327658:BGZ327661 AXD327658:AXD327661 ANH327658:ANH327661 ADL327658:ADL327661 TP327658:TP327661 JT327658:JT327661 X327658:X327661 WWF262122:WWF262125 WMJ262122:WMJ262125 WCN262122:WCN262125 VSR262122:VSR262125 VIV262122:VIV262125 UYZ262122:UYZ262125 UPD262122:UPD262125 UFH262122:UFH262125 TVL262122:TVL262125 TLP262122:TLP262125 TBT262122:TBT262125 SRX262122:SRX262125 SIB262122:SIB262125 RYF262122:RYF262125 ROJ262122:ROJ262125 REN262122:REN262125 QUR262122:QUR262125 QKV262122:QKV262125 QAZ262122:QAZ262125 PRD262122:PRD262125 PHH262122:PHH262125 OXL262122:OXL262125 ONP262122:ONP262125 ODT262122:ODT262125 NTX262122:NTX262125 NKB262122:NKB262125 NAF262122:NAF262125 MQJ262122:MQJ262125 MGN262122:MGN262125 LWR262122:LWR262125 LMV262122:LMV262125 LCZ262122:LCZ262125 KTD262122:KTD262125 KJH262122:KJH262125 JZL262122:JZL262125 JPP262122:JPP262125 JFT262122:JFT262125 IVX262122:IVX262125 IMB262122:IMB262125 ICF262122:ICF262125 HSJ262122:HSJ262125 HIN262122:HIN262125 GYR262122:GYR262125 GOV262122:GOV262125 GEZ262122:GEZ262125 FVD262122:FVD262125 FLH262122:FLH262125 FBL262122:FBL262125 ERP262122:ERP262125 EHT262122:EHT262125 DXX262122:DXX262125 DOB262122:DOB262125 DEF262122:DEF262125 CUJ262122:CUJ262125 CKN262122:CKN262125 CAR262122:CAR262125 BQV262122:BQV262125 BGZ262122:BGZ262125 AXD262122:AXD262125 ANH262122:ANH262125 ADL262122:ADL262125 TP262122:TP262125 JT262122:JT262125 X262122:X262125 WWF196586:WWF196589 WMJ196586:WMJ196589 WCN196586:WCN196589 VSR196586:VSR196589 VIV196586:VIV196589 UYZ196586:UYZ196589 UPD196586:UPD196589 UFH196586:UFH196589 TVL196586:TVL196589 TLP196586:TLP196589 TBT196586:TBT196589 SRX196586:SRX196589 SIB196586:SIB196589 RYF196586:RYF196589 ROJ196586:ROJ196589 REN196586:REN196589 QUR196586:QUR196589 QKV196586:QKV196589 QAZ196586:QAZ196589 PRD196586:PRD196589 PHH196586:PHH196589 OXL196586:OXL196589 ONP196586:ONP196589 ODT196586:ODT196589 NTX196586:NTX196589 NKB196586:NKB196589 NAF196586:NAF196589 MQJ196586:MQJ196589 MGN196586:MGN196589 LWR196586:LWR196589 LMV196586:LMV196589 LCZ196586:LCZ196589 KTD196586:KTD196589 KJH196586:KJH196589 JZL196586:JZL196589 JPP196586:JPP196589 JFT196586:JFT196589 IVX196586:IVX196589 IMB196586:IMB196589 ICF196586:ICF196589 HSJ196586:HSJ196589 HIN196586:HIN196589 GYR196586:GYR196589 GOV196586:GOV196589 GEZ196586:GEZ196589 FVD196586:FVD196589 FLH196586:FLH196589 FBL196586:FBL196589 ERP196586:ERP196589 EHT196586:EHT196589 DXX196586:DXX196589 DOB196586:DOB196589 DEF196586:DEF196589 CUJ196586:CUJ196589 CKN196586:CKN196589 CAR196586:CAR196589 BQV196586:BQV196589 BGZ196586:BGZ196589 AXD196586:AXD196589 ANH196586:ANH196589 ADL196586:ADL196589 TP196586:TP196589 JT196586:JT196589 X196586:X196589 WWF131050:WWF131053 WMJ131050:WMJ131053 WCN131050:WCN131053 VSR131050:VSR131053 VIV131050:VIV131053 UYZ131050:UYZ131053 UPD131050:UPD131053 UFH131050:UFH131053 TVL131050:TVL131053 TLP131050:TLP131053 TBT131050:TBT131053 SRX131050:SRX131053 SIB131050:SIB131053 RYF131050:RYF131053 ROJ131050:ROJ131053 REN131050:REN131053 QUR131050:QUR131053 QKV131050:QKV131053 QAZ131050:QAZ131053 PRD131050:PRD131053 PHH131050:PHH131053 OXL131050:OXL131053 ONP131050:ONP131053 ODT131050:ODT131053 NTX131050:NTX131053 NKB131050:NKB131053 NAF131050:NAF131053 MQJ131050:MQJ131053 MGN131050:MGN131053 LWR131050:LWR131053 LMV131050:LMV131053 LCZ131050:LCZ131053 KTD131050:KTD131053 KJH131050:KJH131053 JZL131050:JZL131053 JPP131050:JPP131053 JFT131050:JFT131053 IVX131050:IVX131053 IMB131050:IMB131053 ICF131050:ICF131053 HSJ131050:HSJ131053 HIN131050:HIN131053 GYR131050:GYR131053 GOV131050:GOV131053 GEZ131050:GEZ131053 FVD131050:FVD131053 FLH131050:FLH131053 FBL131050:FBL131053 ERP131050:ERP131053 EHT131050:EHT131053 DXX131050:DXX131053 DOB131050:DOB131053 DEF131050:DEF131053 CUJ131050:CUJ131053 CKN131050:CKN131053 CAR131050:CAR131053 BQV131050:BQV131053 BGZ131050:BGZ131053 AXD131050:AXD131053 ANH131050:ANH131053 ADL131050:ADL131053 TP131050:TP131053 JT131050:JT131053 X131050:X131053 WWF65514:WWF65517 WMJ65514:WMJ65517 WCN65514:WCN65517 VSR65514:VSR65517 VIV65514:VIV65517 UYZ65514:UYZ65517 UPD65514:UPD65517 UFH65514:UFH65517 TVL65514:TVL65517 TLP65514:TLP65517 TBT65514:TBT65517 SRX65514:SRX65517 SIB65514:SIB65517 RYF65514:RYF65517 ROJ65514:ROJ65517 REN65514:REN65517 QUR65514:QUR65517 QKV65514:QKV65517 QAZ65514:QAZ65517 PRD65514:PRD65517 PHH65514:PHH65517 OXL65514:OXL65517 ONP65514:ONP65517 ODT65514:ODT65517 NTX65514:NTX65517 NKB65514:NKB65517 NAF65514:NAF65517 MQJ65514:MQJ65517 MGN65514:MGN65517 LWR65514:LWR65517 LMV65514:LMV65517 LCZ65514:LCZ65517 KTD65514:KTD65517 KJH65514:KJH65517 JZL65514:JZL65517 JPP65514:JPP65517 JFT65514:JFT65517 IVX65514:IVX65517 IMB65514:IMB65517 ICF65514:ICF65517 HSJ65514:HSJ65517 HIN65514:HIN65517 GYR65514:GYR65517 GOV65514:GOV65517 GEZ65514:GEZ65517 FVD65514:FVD65517 FLH65514:FLH65517 FBL65514:FBL65517 ERP65514:ERP65517 EHT65514:EHT65517 DXX65514:DXX65517 DOB65514:DOB65517 DEF65514:DEF65517 CUJ65514:CUJ65517 CKN65514:CKN65517 CAR65514:CAR65517 BQV65514:BQV65517 BGZ65514:BGZ65517 AXD65514:AXD65517 ANH65514:ANH65517 ADL65514:ADL65517 TP65514:TP65517 JT65514:JT65517 X65514:X65517 WWL983018:WWL983021 WMP983018:WMP983021 WCT983018:WCT983021 VSX983018:VSX983021 VJB983018:VJB983021 UZF983018:UZF983021 UPJ983018:UPJ983021 UFN983018:UFN983021 TVR983018:TVR983021 TLV983018:TLV983021 TBZ983018:TBZ983021 SSD983018:SSD983021 SIH983018:SIH983021 RYL983018:RYL983021 ROP983018:ROP983021 RET983018:RET983021 QUX983018:QUX983021 QLB983018:QLB983021 QBF983018:QBF983021 PRJ983018:PRJ983021 PHN983018:PHN983021 OXR983018:OXR983021 ONV983018:ONV983021 ODZ983018:ODZ983021 NUD983018:NUD983021 NKH983018:NKH983021 NAL983018:NAL983021 MQP983018:MQP983021 MGT983018:MGT983021 LWX983018:LWX983021 LNB983018:LNB983021 LDF983018:LDF983021 KTJ983018:KTJ983021 KJN983018:KJN983021 JZR983018:JZR983021 JPV983018:JPV983021 JFZ983018:JFZ983021 IWD983018:IWD983021 IMH983018:IMH983021 ICL983018:ICL983021 HSP983018:HSP983021 HIT983018:HIT983021 GYX983018:GYX983021 GPB983018:GPB983021 GFF983018:GFF983021 FVJ983018:FVJ983021 FLN983018:FLN983021 FBR983018:FBR983021 ERV983018:ERV983021 EHZ983018:EHZ983021 DYD983018:DYD983021 DOH983018:DOH983021 DEL983018:DEL983021 CUP983018:CUP983021 CKT983018:CKT983021 CAX983018:CAX983021 BRB983018:BRB983021 BHF983018:BHF983021 AXJ983018:AXJ983021 ANN983018:ANN983021 ADR983018:ADR983021 TV983018:TV983021 JZ983018:JZ983021 AD983018:AD983021 WWL917482:WWL917485 WMP917482:WMP917485 WCT917482:WCT917485 VSX917482:VSX917485 VJB917482:VJB917485 UZF917482:UZF917485 UPJ917482:UPJ917485 UFN917482:UFN917485 TVR917482:TVR917485 TLV917482:TLV917485 TBZ917482:TBZ917485 SSD917482:SSD917485 SIH917482:SIH917485 RYL917482:RYL917485 ROP917482:ROP917485 RET917482:RET917485 QUX917482:QUX917485 QLB917482:QLB917485 QBF917482:QBF917485 PRJ917482:PRJ917485 PHN917482:PHN917485 OXR917482:OXR917485 ONV917482:ONV917485 ODZ917482:ODZ917485 NUD917482:NUD917485 NKH917482:NKH917485 NAL917482:NAL917485 MQP917482:MQP917485 MGT917482:MGT917485 LWX917482:LWX917485 LNB917482:LNB917485 LDF917482:LDF917485 KTJ917482:KTJ917485 KJN917482:KJN917485 JZR917482:JZR917485 JPV917482:JPV917485 JFZ917482:JFZ917485 IWD917482:IWD917485 IMH917482:IMH917485 ICL917482:ICL917485 HSP917482:HSP917485 HIT917482:HIT917485 GYX917482:GYX917485 GPB917482:GPB917485 GFF917482:GFF917485 FVJ917482:FVJ917485 FLN917482:FLN917485 FBR917482:FBR917485 ERV917482:ERV917485 EHZ917482:EHZ917485 DYD917482:DYD917485 DOH917482:DOH917485 DEL917482:DEL917485 CUP917482:CUP917485 CKT917482:CKT917485 CAX917482:CAX917485 BRB917482:BRB917485 BHF917482:BHF917485 AXJ917482:AXJ917485 ANN917482:ANN917485 ADR917482:ADR917485 TV917482:TV917485 JZ917482:JZ917485 AD917482:AD917485 WWL851946:WWL851949 WMP851946:WMP851949 WCT851946:WCT851949 VSX851946:VSX851949 VJB851946:VJB851949 UZF851946:UZF851949 UPJ851946:UPJ851949 UFN851946:UFN851949 TVR851946:TVR851949 TLV851946:TLV851949 TBZ851946:TBZ851949 SSD851946:SSD851949 SIH851946:SIH851949 RYL851946:RYL851949 ROP851946:ROP851949 RET851946:RET851949 QUX851946:QUX851949 QLB851946:QLB851949 QBF851946:QBF851949 PRJ851946:PRJ851949 PHN851946:PHN851949 OXR851946:OXR851949 ONV851946:ONV851949 ODZ851946:ODZ851949 NUD851946:NUD851949 NKH851946:NKH851949 NAL851946:NAL851949 MQP851946:MQP851949 MGT851946:MGT851949 LWX851946:LWX851949 LNB851946:LNB851949 LDF851946:LDF851949 KTJ851946:KTJ851949 KJN851946:KJN851949 JZR851946:JZR851949 JPV851946:JPV851949 JFZ851946:JFZ851949 IWD851946:IWD851949 IMH851946:IMH851949 ICL851946:ICL851949 HSP851946:HSP851949 HIT851946:HIT851949 GYX851946:GYX851949 GPB851946:GPB851949 GFF851946:GFF851949 FVJ851946:FVJ851949 FLN851946:FLN851949 FBR851946:FBR851949 ERV851946:ERV851949 EHZ851946:EHZ851949 DYD851946:DYD851949 DOH851946:DOH851949 DEL851946:DEL851949 CUP851946:CUP851949 CKT851946:CKT851949 CAX851946:CAX851949 BRB851946:BRB851949 BHF851946:BHF851949 AXJ851946:AXJ851949 ANN851946:ANN851949 ADR851946:ADR851949 TV851946:TV851949 JZ851946:JZ851949 AD851946:AD851949 WWL786410:WWL786413 WMP786410:WMP786413 WCT786410:WCT786413 VSX786410:VSX786413 VJB786410:VJB786413 UZF786410:UZF786413 UPJ786410:UPJ786413 UFN786410:UFN786413 TVR786410:TVR786413 TLV786410:TLV786413 TBZ786410:TBZ786413 SSD786410:SSD786413 SIH786410:SIH786413 RYL786410:RYL786413 ROP786410:ROP786413 RET786410:RET786413 QUX786410:QUX786413 QLB786410:QLB786413 QBF786410:QBF786413 PRJ786410:PRJ786413 PHN786410:PHN786413 OXR786410:OXR786413 ONV786410:ONV786413 ODZ786410:ODZ786413 NUD786410:NUD786413 NKH786410:NKH786413 NAL786410:NAL786413 MQP786410:MQP786413 MGT786410:MGT786413 LWX786410:LWX786413 LNB786410:LNB786413 LDF786410:LDF786413 KTJ786410:KTJ786413 KJN786410:KJN786413 JZR786410:JZR786413 JPV786410:JPV786413 JFZ786410:JFZ786413 IWD786410:IWD786413 IMH786410:IMH786413 ICL786410:ICL786413 HSP786410:HSP786413 HIT786410:HIT786413 GYX786410:GYX786413 GPB786410:GPB786413 GFF786410:GFF786413 FVJ786410:FVJ786413 FLN786410:FLN786413 FBR786410:FBR786413 ERV786410:ERV786413 EHZ786410:EHZ786413 DYD786410:DYD786413 DOH786410:DOH786413 DEL786410:DEL786413 CUP786410:CUP786413 CKT786410:CKT786413 CAX786410:CAX786413 BRB786410:BRB786413 BHF786410:BHF786413 AXJ786410:AXJ786413 ANN786410:ANN786413 ADR786410:ADR786413 TV786410:TV786413 JZ786410:JZ786413 AD786410:AD786413 WWL720874:WWL720877 WMP720874:WMP720877 WCT720874:WCT720877 VSX720874:VSX720877 VJB720874:VJB720877 UZF720874:UZF720877 UPJ720874:UPJ720877 UFN720874:UFN720877 TVR720874:TVR720877 TLV720874:TLV720877 TBZ720874:TBZ720877 SSD720874:SSD720877 SIH720874:SIH720877 RYL720874:RYL720877 ROP720874:ROP720877 RET720874:RET720877 QUX720874:QUX720877 QLB720874:QLB720877 QBF720874:QBF720877 PRJ720874:PRJ720877 PHN720874:PHN720877 OXR720874:OXR720877 ONV720874:ONV720877 ODZ720874:ODZ720877 NUD720874:NUD720877 NKH720874:NKH720877 NAL720874:NAL720877 MQP720874:MQP720877 MGT720874:MGT720877 LWX720874:LWX720877 LNB720874:LNB720877 LDF720874:LDF720877 KTJ720874:KTJ720877 KJN720874:KJN720877 JZR720874:JZR720877 JPV720874:JPV720877 JFZ720874:JFZ720877 IWD720874:IWD720877 IMH720874:IMH720877 ICL720874:ICL720877 HSP720874:HSP720877 HIT720874:HIT720877 GYX720874:GYX720877 GPB720874:GPB720877 GFF720874:GFF720877 FVJ720874:FVJ720877 FLN720874:FLN720877 FBR720874:FBR720877 ERV720874:ERV720877 EHZ720874:EHZ720877 DYD720874:DYD720877 DOH720874:DOH720877 DEL720874:DEL720877 CUP720874:CUP720877 CKT720874:CKT720877 CAX720874:CAX720877 BRB720874:BRB720877 BHF720874:BHF720877 AXJ720874:AXJ720877 ANN720874:ANN720877 ADR720874:ADR720877 TV720874:TV720877 JZ720874:JZ720877 AD720874:AD720877 WWL655338:WWL655341 WMP655338:WMP655341 WCT655338:WCT655341 VSX655338:VSX655341 VJB655338:VJB655341 UZF655338:UZF655341 UPJ655338:UPJ655341 UFN655338:UFN655341 TVR655338:TVR655341 TLV655338:TLV655341 TBZ655338:TBZ655341 SSD655338:SSD655341 SIH655338:SIH655341 RYL655338:RYL655341 ROP655338:ROP655341 RET655338:RET655341 QUX655338:QUX655341 QLB655338:QLB655341 QBF655338:QBF655341 PRJ655338:PRJ655341 PHN655338:PHN655341 OXR655338:OXR655341 ONV655338:ONV655341 ODZ655338:ODZ655341 NUD655338:NUD655341 NKH655338:NKH655341 NAL655338:NAL655341 MQP655338:MQP655341 MGT655338:MGT655341 LWX655338:LWX655341 LNB655338:LNB655341 LDF655338:LDF655341 KTJ655338:KTJ655341 KJN655338:KJN655341 JZR655338:JZR655341 JPV655338:JPV655341 JFZ655338:JFZ655341 IWD655338:IWD655341 IMH655338:IMH655341 ICL655338:ICL655341 HSP655338:HSP655341 HIT655338:HIT655341 GYX655338:GYX655341 GPB655338:GPB655341 GFF655338:GFF655341 FVJ655338:FVJ655341 FLN655338:FLN655341 FBR655338:FBR655341 ERV655338:ERV655341 EHZ655338:EHZ655341 DYD655338:DYD655341 DOH655338:DOH655341 DEL655338:DEL655341 CUP655338:CUP655341 CKT655338:CKT655341 CAX655338:CAX655341 BRB655338:BRB655341 BHF655338:BHF655341 AXJ655338:AXJ655341 ANN655338:ANN655341 ADR655338:ADR655341 TV655338:TV655341 JZ655338:JZ655341 AD655338:AD655341 WWL589802:WWL589805 WMP589802:WMP589805 WCT589802:WCT589805 VSX589802:VSX589805 VJB589802:VJB589805 UZF589802:UZF589805 UPJ589802:UPJ589805 UFN589802:UFN589805 TVR589802:TVR589805 TLV589802:TLV589805 TBZ589802:TBZ589805 SSD589802:SSD589805 SIH589802:SIH589805 RYL589802:RYL589805 ROP589802:ROP589805 RET589802:RET589805 QUX589802:QUX589805 QLB589802:QLB589805 QBF589802:QBF589805 PRJ589802:PRJ589805 PHN589802:PHN589805 OXR589802:OXR589805 ONV589802:ONV589805 ODZ589802:ODZ589805 NUD589802:NUD589805 NKH589802:NKH589805 NAL589802:NAL589805 MQP589802:MQP589805 MGT589802:MGT589805 LWX589802:LWX589805 LNB589802:LNB589805 LDF589802:LDF589805 KTJ589802:KTJ589805 KJN589802:KJN589805 JZR589802:JZR589805 JPV589802:JPV589805 JFZ589802:JFZ589805 IWD589802:IWD589805 IMH589802:IMH589805 ICL589802:ICL589805 HSP589802:HSP589805 HIT589802:HIT589805 GYX589802:GYX589805 GPB589802:GPB589805 GFF589802:GFF589805 FVJ589802:FVJ589805 FLN589802:FLN589805 FBR589802:FBR589805 ERV589802:ERV589805 EHZ589802:EHZ589805 DYD589802:DYD589805 DOH589802:DOH589805 DEL589802:DEL589805 CUP589802:CUP589805 CKT589802:CKT589805 CAX589802:CAX589805 BRB589802:BRB589805 BHF589802:BHF589805 AXJ589802:AXJ589805 ANN589802:ANN589805 ADR589802:ADR589805 TV589802:TV589805 JZ589802:JZ589805 AD589802:AD589805 WWL524266:WWL524269 WMP524266:WMP524269 WCT524266:WCT524269 VSX524266:VSX524269 VJB524266:VJB524269 UZF524266:UZF524269 UPJ524266:UPJ524269 UFN524266:UFN524269 TVR524266:TVR524269 TLV524266:TLV524269 TBZ524266:TBZ524269 SSD524266:SSD524269 SIH524266:SIH524269 RYL524266:RYL524269 ROP524266:ROP524269 RET524266:RET524269 QUX524266:QUX524269 QLB524266:QLB524269 QBF524266:QBF524269 PRJ524266:PRJ524269 PHN524266:PHN524269 OXR524266:OXR524269 ONV524266:ONV524269 ODZ524266:ODZ524269 NUD524266:NUD524269 NKH524266:NKH524269 NAL524266:NAL524269 MQP524266:MQP524269 MGT524266:MGT524269 LWX524266:LWX524269 LNB524266:LNB524269 LDF524266:LDF524269 KTJ524266:KTJ524269 KJN524266:KJN524269 JZR524266:JZR524269 JPV524266:JPV524269 JFZ524266:JFZ524269 IWD524266:IWD524269 IMH524266:IMH524269 ICL524266:ICL524269 HSP524266:HSP524269 HIT524266:HIT524269 GYX524266:GYX524269 GPB524266:GPB524269 GFF524266:GFF524269 FVJ524266:FVJ524269 FLN524266:FLN524269 FBR524266:FBR524269 ERV524266:ERV524269 EHZ524266:EHZ524269 DYD524266:DYD524269 DOH524266:DOH524269 DEL524266:DEL524269 CUP524266:CUP524269 CKT524266:CKT524269 CAX524266:CAX524269 BRB524266:BRB524269 BHF524266:BHF524269 AXJ524266:AXJ524269 ANN524266:ANN524269 ADR524266:ADR524269 TV524266:TV524269 JZ524266:JZ524269 AD524266:AD524269 WWL458730:WWL458733 WMP458730:WMP458733 WCT458730:WCT458733 VSX458730:VSX458733 VJB458730:VJB458733 UZF458730:UZF458733 UPJ458730:UPJ458733 UFN458730:UFN458733 TVR458730:TVR458733 TLV458730:TLV458733 TBZ458730:TBZ458733 SSD458730:SSD458733 SIH458730:SIH458733 RYL458730:RYL458733 ROP458730:ROP458733 RET458730:RET458733 QUX458730:QUX458733 QLB458730:QLB458733 QBF458730:QBF458733 PRJ458730:PRJ458733 PHN458730:PHN458733 OXR458730:OXR458733 ONV458730:ONV458733 ODZ458730:ODZ458733 NUD458730:NUD458733 NKH458730:NKH458733 NAL458730:NAL458733 MQP458730:MQP458733 MGT458730:MGT458733 LWX458730:LWX458733 LNB458730:LNB458733 LDF458730:LDF458733 KTJ458730:KTJ458733 KJN458730:KJN458733 JZR458730:JZR458733 JPV458730:JPV458733 JFZ458730:JFZ458733 IWD458730:IWD458733 IMH458730:IMH458733 ICL458730:ICL458733 HSP458730:HSP458733 HIT458730:HIT458733 GYX458730:GYX458733 GPB458730:GPB458733 GFF458730:GFF458733 FVJ458730:FVJ458733 FLN458730:FLN458733 FBR458730:FBR458733 ERV458730:ERV458733 EHZ458730:EHZ458733 DYD458730:DYD458733 DOH458730:DOH458733 DEL458730:DEL458733 CUP458730:CUP458733 CKT458730:CKT458733 CAX458730:CAX458733 BRB458730:BRB458733 BHF458730:BHF458733 AXJ458730:AXJ458733 ANN458730:ANN458733 ADR458730:ADR458733 TV458730:TV458733 JZ458730:JZ458733 AD458730:AD458733 WWL393194:WWL393197 WMP393194:WMP393197 WCT393194:WCT393197 VSX393194:VSX393197 VJB393194:VJB393197 UZF393194:UZF393197 UPJ393194:UPJ393197 UFN393194:UFN393197 TVR393194:TVR393197 TLV393194:TLV393197 TBZ393194:TBZ393197 SSD393194:SSD393197 SIH393194:SIH393197 RYL393194:RYL393197 ROP393194:ROP393197 RET393194:RET393197 QUX393194:QUX393197 QLB393194:QLB393197 QBF393194:QBF393197 PRJ393194:PRJ393197 PHN393194:PHN393197 OXR393194:OXR393197 ONV393194:ONV393197 ODZ393194:ODZ393197 NUD393194:NUD393197 NKH393194:NKH393197 NAL393194:NAL393197 MQP393194:MQP393197 MGT393194:MGT393197 LWX393194:LWX393197 LNB393194:LNB393197 LDF393194:LDF393197 KTJ393194:KTJ393197 KJN393194:KJN393197 JZR393194:JZR393197 JPV393194:JPV393197 JFZ393194:JFZ393197 IWD393194:IWD393197 IMH393194:IMH393197 ICL393194:ICL393197 HSP393194:HSP393197 HIT393194:HIT393197 GYX393194:GYX393197 GPB393194:GPB393197 GFF393194:GFF393197 FVJ393194:FVJ393197 FLN393194:FLN393197 FBR393194:FBR393197 ERV393194:ERV393197 EHZ393194:EHZ393197 DYD393194:DYD393197 DOH393194:DOH393197 DEL393194:DEL393197 CUP393194:CUP393197 CKT393194:CKT393197 CAX393194:CAX393197 BRB393194:BRB393197 BHF393194:BHF393197 AXJ393194:AXJ393197 ANN393194:ANN393197 ADR393194:ADR393197 TV393194:TV393197 JZ393194:JZ393197 AD393194:AD393197 WWL327658:WWL327661 WMP327658:WMP327661 WCT327658:WCT327661 VSX327658:VSX327661 VJB327658:VJB327661 UZF327658:UZF327661 UPJ327658:UPJ327661 UFN327658:UFN327661 TVR327658:TVR327661 TLV327658:TLV327661 TBZ327658:TBZ327661 SSD327658:SSD327661 SIH327658:SIH327661 RYL327658:RYL327661 ROP327658:ROP327661 RET327658:RET327661 QUX327658:QUX327661 QLB327658:QLB327661 QBF327658:QBF327661 PRJ327658:PRJ327661 PHN327658:PHN327661 OXR327658:OXR327661 ONV327658:ONV327661 ODZ327658:ODZ327661 NUD327658:NUD327661 NKH327658:NKH327661 NAL327658:NAL327661 MQP327658:MQP327661 MGT327658:MGT327661 LWX327658:LWX327661 LNB327658:LNB327661 LDF327658:LDF327661 KTJ327658:KTJ327661 KJN327658:KJN327661 JZR327658:JZR327661 JPV327658:JPV327661 JFZ327658:JFZ327661 IWD327658:IWD327661 IMH327658:IMH327661 ICL327658:ICL327661 HSP327658:HSP327661 HIT327658:HIT327661 GYX327658:GYX327661 GPB327658:GPB327661 GFF327658:GFF327661 FVJ327658:FVJ327661 FLN327658:FLN327661 FBR327658:FBR327661 ERV327658:ERV327661 EHZ327658:EHZ327661 DYD327658:DYD327661 DOH327658:DOH327661 DEL327658:DEL327661 CUP327658:CUP327661 CKT327658:CKT327661 CAX327658:CAX327661 BRB327658:BRB327661 BHF327658:BHF327661 AXJ327658:AXJ327661 ANN327658:ANN327661 ADR327658:ADR327661 TV327658:TV327661 JZ327658:JZ327661 AD327658:AD327661 WWL262122:WWL262125 WMP262122:WMP262125 WCT262122:WCT262125 VSX262122:VSX262125 VJB262122:VJB262125 UZF262122:UZF262125 UPJ262122:UPJ262125 UFN262122:UFN262125 TVR262122:TVR262125 TLV262122:TLV262125 TBZ262122:TBZ262125 SSD262122:SSD262125 SIH262122:SIH262125 RYL262122:RYL262125 ROP262122:ROP262125 RET262122:RET262125 QUX262122:QUX262125 QLB262122:QLB262125 QBF262122:QBF262125 PRJ262122:PRJ262125 PHN262122:PHN262125 OXR262122:OXR262125 ONV262122:ONV262125 ODZ262122:ODZ262125 NUD262122:NUD262125 NKH262122:NKH262125 NAL262122:NAL262125 MQP262122:MQP262125 MGT262122:MGT262125 LWX262122:LWX262125 LNB262122:LNB262125 LDF262122:LDF262125 KTJ262122:KTJ262125 KJN262122:KJN262125 JZR262122:JZR262125 JPV262122:JPV262125 JFZ262122:JFZ262125 IWD262122:IWD262125 IMH262122:IMH262125 ICL262122:ICL262125 HSP262122:HSP262125 HIT262122:HIT262125 GYX262122:GYX262125 GPB262122:GPB262125 GFF262122:GFF262125 FVJ262122:FVJ262125 FLN262122:FLN262125 FBR262122:FBR262125 ERV262122:ERV262125 EHZ262122:EHZ262125 DYD262122:DYD262125 DOH262122:DOH262125 DEL262122:DEL262125 CUP262122:CUP262125 CKT262122:CKT262125 CAX262122:CAX262125 BRB262122:BRB262125 BHF262122:BHF262125 AXJ262122:AXJ262125 ANN262122:ANN262125 ADR262122:ADR262125 TV262122:TV262125 JZ262122:JZ262125 AD262122:AD262125 WWL196586:WWL196589 WMP196586:WMP196589 WCT196586:WCT196589 VSX196586:VSX196589 VJB196586:VJB196589 UZF196586:UZF196589 UPJ196586:UPJ196589 UFN196586:UFN196589 TVR196586:TVR196589 TLV196586:TLV196589 TBZ196586:TBZ196589 SSD196586:SSD196589 SIH196586:SIH196589 RYL196586:RYL196589 ROP196586:ROP196589 RET196586:RET196589 QUX196586:QUX196589 QLB196586:QLB196589 QBF196586:QBF196589 PRJ196586:PRJ196589 PHN196586:PHN196589 OXR196586:OXR196589 ONV196586:ONV196589 ODZ196586:ODZ196589 NUD196586:NUD196589 NKH196586:NKH196589 NAL196586:NAL196589 MQP196586:MQP196589 MGT196586:MGT196589 LWX196586:LWX196589 LNB196586:LNB196589 LDF196586:LDF196589 KTJ196586:KTJ196589 KJN196586:KJN196589 JZR196586:JZR196589 JPV196586:JPV196589 JFZ196586:JFZ196589 IWD196586:IWD196589 IMH196586:IMH196589 ICL196586:ICL196589 HSP196586:HSP196589 HIT196586:HIT196589 GYX196586:GYX196589 GPB196586:GPB196589 GFF196586:GFF196589 FVJ196586:FVJ196589 FLN196586:FLN196589 FBR196586:FBR196589 ERV196586:ERV196589 EHZ196586:EHZ196589 DYD196586:DYD196589 DOH196586:DOH196589 DEL196586:DEL196589 CUP196586:CUP196589 CKT196586:CKT196589 CAX196586:CAX196589 BRB196586:BRB196589 BHF196586:BHF196589 AXJ196586:AXJ196589 ANN196586:ANN196589 ADR196586:ADR196589 TV196586:TV196589 JZ196586:JZ196589 AD196586:AD196589 WWL131050:WWL131053 WMP131050:WMP131053 WCT131050:WCT131053 VSX131050:VSX131053 VJB131050:VJB131053 UZF131050:UZF131053 UPJ131050:UPJ131053 UFN131050:UFN131053 TVR131050:TVR131053 TLV131050:TLV131053 TBZ131050:TBZ131053 SSD131050:SSD131053 SIH131050:SIH131053 RYL131050:RYL131053 ROP131050:ROP131053 RET131050:RET131053 QUX131050:QUX131053 QLB131050:QLB131053 QBF131050:QBF131053 PRJ131050:PRJ131053 PHN131050:PHN131053 OXR131050:OXR131053 ONV131050:ONV131053 ODZ131050:ODZ131053 NUD131050:NUD131053 NKH131050:NKH131053 NAL131050:NAL131053 MQP131050:MQP131053 MGT131050:MGT131053 LWX131050:LWX131053 LNB131050:LNB131053 LDF131050:LDF131053 KTJ131050:KTJ131053 KJN131050:KJN131053 JZR131050:JZR131053 JPV131050:JPV131053 JFZ131050:JFZ131053 IWD131050:IWD131053 IMH131050:IMH131053 ICL131050:ICL131053 HSP131050:HSP131053 HIT131050:HIT131053 GYX131050:GYX131053 GPB131050:GPB131053 GFF131050:GFF131053 FVJ131050:FVJ131053 FLN131050:FLN131053 FBR131050:FBR131053 ERV131050:ERV131053 EHZ131050:EHZ131053 DYD131050:DYD131053 DOH131050:DOH131053 DEL131050:DEL131053 CUP131050:CUP131053 CKT131050:CKT131053 CAX131050:CAX131053 BRB131050:BRB131053 BHF131050:BHF131053 AXJ131050:AXJ131053 ANN131050:ANN131053 ADR131050:ADR131053 TV131050:TV131053 JZ131050:JZ131053 AD131050:AD131053 WWL65514:WWL65517 WMP65514:WMP65517 WCT65514:WCT65517 VSX65514:VSX65517 VJB65514:VJB65517 UZF65514:UZF65517 UPJ65514:UPJ65517 UFN65514:UFN65517 TVR65514:TVR65517 TLV65514:TLV65517 TBZ65514:TBZ65517 SSD65514:SSD65517 SIH65514:SIH65517 RYL65514:RYL65517 ROP65514:ROP65517 RET65514:RET65517 QUX65514:QUX65517 QLB65514:QLB65517 QBF65514:QBF65517 PRJ65514:PRJ65517 PHN65514:PHN65517 OXR65514:OXR65517 ONV65514:ONV65517 ODZ65514:ODZ65517 NUD65514:NUD65517 NKH65514:NKH65517 NAL65514:NAL65517 MQP65514:MQP65517 MGT65514:MGT65517 LWX65514:LWX65517 LNB65514:LNB65517 LDF65514:LDF65517 KTJ65514:KTJ65517 KJN65514:KJN65517 JZR65514:JZR65517 JPV65514:JPV65517 JFZ65514:JFZ65517 IWD65514:IWD65517 IMH65514:IMH65517 ICL65514:ICL65517 HSP65514:HSP65517 HIT65514:HIT65517 GYX65514:GYX65517 GPB65514:GPB65517 GFF65514:GFF65517 FVJ65514:FVJ65517 FLN65514:FLN65517 FBR65514:FBR65517 ERV65514:ERV65517 EHZ65514:EHZ65517 DYD65514:DYD65517 DOH65514:DOH65517 DEL65514:DEL65517 CUP65514:CUP65517 CKT65514:CKT65517 CAX65514:CAX65517 BRB65514:BRB65517 BHF65514:BHF65517 AXJ65514:AXJ65517 ANN65514:ANN65517 ADR65514:ADR65517 TV65514:TV65517 JZ65514:JZ65517 AD65514:AD65517 WWJ983018:WWJ983021 WMN983018:WMN983021 WCR983018:WCR983021 VSV983018:VSV983021 VIZ983018:VIZ983021 UZD983018:UZD983021 UPH983018:UPH983021 UFL983018:UFL983021 TVP983018:TVP983021 TLT983018:TLT983021 TBX983018:TBX983021 SSB983018:SSB983021 SIF983018:SIF983021 RYJ983018:RYJ983021 RON983018:RON983021 RER983018:RER983021 QUV983018:QUV983021 QKZ983018:QKZ983021 QBD983018:QBD983021 PRH983018:PRH983021 PHL983018:PHL983021 OXP983018:OXP983021 ONT983018:ONT983021 ODX983018:ODX983021 NUB983018:NUB983021 NKF983018:NKF983021 NAJ983018:NAJ983021 MQN983018:MQN983021 MGR983018:MGR983021 LWV983018:LWV983021 LMZ983018:LMZ983021 LDD983018:LDD983021 KTH983018:KTH983021 KJL983018:KJL983021 JZP983018:JZP983021 JPT983018:JPT983021 JFX983018:JFX983021 IWB983018:IWB983021 IMF983018:IMF983021 ICJ983018:ICJ983021 HSN983018:HSN983021 HIR983018:HIR983021 GYV983018:GYV983021 GOZ983018:GOZ983021 GFD983018:GFD983021 FVH983018:FVH983021 FLL983018:FLL983021 FBP983018:FBP983021 ERT983018:ERT983021 EHX983018:EHX983021 DYB983018:DYB983021 DOF983018:DOF983021 DEJ983018:DEJ983021 CUN983018:CUN983021 CKR983018:CKR983021 CAV983018:CAV983021 BQZ983018:BQZ983021 BHD983018:BHD983021 AXH983018:AXH983021 ANL983018:ANL983021 ADP983018:ADP983021 TT983018:TT983021 JX983018:JX983021 AB983018:AB983021 WWJ917482:WWJ917485 WMN917482:WMN917485 WCR917482:WCR917485 VSV917482:VSV917485 VIZ917482:VIZ917485 UZD917482:UZD917485 UPH917482:UPH917485 UFL917482:UFL917485 TVP917482:TVP917485 TLT917482:TLT917485 TBX917482:TBX917485 SSB917482:SSB917485 SIF917482:SIF917485 RYJ917482:RYJ917485 RON917482:RON917485 RER917482:RER917485 QUV917482:QUV917485 QKZ917482:QKZ917485 QBD917482:QBD917485 PRH917482:PRH917485 PHL917482:PHL917485 OXP917482:OXP917485 ONT917482:ONT917485 ODX917482:ODX917485 NUB917482:NUB917485 NKF917482:NKF917485 NAJ917482:NAJ917485 MQN917482:MQN917485 MGR917482:MGR917485 LWV917482:LWV917485 LMZ917482:LMZ917485 LDD917482:LDD917485 KTH917482:KTH917485 KJL917482:KJL917485 JZP917482:JZP917485 JPT917482:JPT917485 JFX917482:JFX917485 IWB917482:IWB917485 IMF917482:IMF917485 ICJ917482:ICJ917485 HSN917482:HSN917485 HIR917482:HIR917485 GYV917482:GYV917485 GOZ917482:GOZ917485 GFD917482:GFD917485 FVH917482:FVH917485 FLL917482:FLL917485 FBP917482:FBP917485 ERT917482:ERT917485 EHX917482:EHX917485 DYB917482:DYB917485 DOF917482:DOF917485 DEJ917482:DEJ917485 CUN917482:CUN917485 CKR917482:CKR917485 CAV917482:CAV917485 BQZ917482:BQZ917485 BHD917482:BHD917485 AXH917482:AXH917485 ANL917482:ANL917485 ADP917482:ADP917485 TT917482:TT917485 JX917482:JX917485 AB917482:AB917485 WWJ851946:WWJ851949 WMN851946:WMN851949 WCR851946:WCR851949 VSV851946:VSV851949 VIZ851946:VIZ851949 UZD851946:UZD851949 UPH851946:UPH851949 UFL851946:UFL851949 TVP851946:TVP851949 TLT851946:TLT851949 TBX851946:TBX851949 SSB851946:SSB851949 SIF851946:SIF851949 RYJ851946:RYJ851949 RON851946:RON851949 RER851946:RER851949 QUV851946:QUV851949 QKZ851946:QKZ851949 QBD851946:QBD851949 PRH851946:PRH851949 PHL851946:PHL851949 OXP851946:OXP851949 ONT851946:ONT851949 ODX851946:ODX851949 NUB851946:NUB851949 NKF851946:NKF851949 NAJ851946:NAJ851949 MQN851946:MQN851949 MGR851946:MGR851949 LWV851946:LWV851949 LMZ851946:LMZ851949 LDD851946:LDD851949 KTH851946:KTH851949 KJL851946:KJL851949 JZP851946:JZP851949 JPT851946:JPT851949 JFX851946:JFX851949 IWB851946:IWB851949 IMF851946:IMF851949 ICJ851946:ICJ851949 HSN851946:HSN851949 HIR851946:HIR851949 GYV851946:GYV851949 GOZ851946:GOZ851949 GFD851946:GFD851949 FVH851946:FVH851949 FLL851946:FLL851949 FBP851946:FBP851949 ERT851946:ERT851949 EHX851946:EHX851949 DYB851946:DYB851949 DOF851946:DOF851949 DEJ851946:DEJ851949 CUN851946:CUN851949 CKR851946:CKR851949 CAV851946:CAV851949 BQZ851946:BQZ851949 BHD851946:BHD851949 AXH851946:AXH851949 ANL851946:ANL851949 ADP851946:ADP851949 TT851946:TT851949 JX851946:JX851949 AB851946:AB851949 WWJ786410:WWJ786413 WMN786410:WMN786413 WCR786410:WCR786413 VSV786410:VSV786413 VIZ786410:VIZ786413 UZD786410:UZD786413 UPH786410:UPH786413 UFL786410:UFL786413 TVP786410:TVP786413 TLT786410:TLT786413 TBX786410:TBX786413 SSB786410:SSB786413 SIF786410:SIF786413 RYJ786410:RYJ786413 RON786410:RON786413 RER786410:RER786413 QUV786410:QUV786413 QKZ786410:QKZ786413 QBD786410:QBD786413 PRH786410:PRH786413 PHL786410:PHL786413 OXP786410:OXP786413 ONT786410:ONT786413 ODX786410:ODX786413 NUB786410:NUB786413 NKF786410:NKF786413 NAJ786410:NAJ786413 MQN786410:MQN786413 MGR786410:MGR786413 LWV786410:LWV786413 LMZ786410:LMZ786413 LDD786410:LDD786413 KTH786410:KTH786413 KJL786410:KJL786413 JZP786410:JZP786413 JPT786410:JPT786413 JFX786410:JFX786413 IWB786410:IWB786413 IMF786410:IMF786413 ICJ786410:ICJ786413 HSN786410:HSN786413 HIR786410:HIR786413 GYV786410:GYV786413 GOZ786410:GOZ786413 GFD786410:GFD786413 FVH786410:FVH786413 FLL786410:FLL786413 FBP786410:FBP786413 ERT786410:ERT786413 EHX786410:EHX786413 DYB786410:DYB786413 DOF786410:DOF786413 DEJ786410:DEJ786413 CUN786410:CUN786413 CKR786410:CKR786413 CAV786410:CAV786413 BQZ786410:BQZ786413 BHD786410:BHD786413 AXH786410:AXH786413 ANL786410:ANL786413 ADP786410:ADP786413 TT786410:TT786413 JX786410:JX786413 AB786410:AB786413 WWJ720874:WWJ720877 WMN720874:WMN720877 WCR720874:WCR720877 VSV720874:VSV720877 VIZ720874:VIZ720877 UZD720874:UZD720877 UPH720874:UPH720877 UFL720874:UFL720877 TVP720874:TVP720877 TLT720874:TLT720877 TBX720874:TBX720877 SSB720874:SSB720877 SIF720874:SIF720877 RYJ720874:RYJ720877 RON720874:RON720877 RER720874:RER720877 QUV720874:QUV720877 QKZ720874:QKZ720877 QBD720874:QBD720877 PRH720874:PRH720877 PHL720874:PHL720877 OXP720874:OXP720877 ONT720874:ONT720877 ODX720874:ODX720877 NUB720874:NUB720877 NKF720874:NKF720877 NAJ720874:NAJ720877 MQN720874:MQN720877 MGR720874:MGR720877 LWV720874:LWV720877 LMZ720874:LMZ720877 LDD720874:LDD720877 KTH720874:KTH720877 KJL720874:KJL720877 JZP720874:JZP720877 JPT720874:JPT720877 JFX720874:JFX720877 IWB720874:IWB720877 IMF720874:IMF720877 ICJ720874:ICJ720877 HSN720874:HSN720877 HIR720874:HIR720877 GYV720874:GYV720877 GOZ720874:GOZ720877 GFD720874:GFD720877 FVH720874:FVH720877 FLL720874:FLL720877 FBP720874:FBP720877 ERT720874:ERT720877 EHX720874:EHX720877 DYB720874:DYB720877 DOF720874:DOF720877 DEJ720874:DEJ720877 CUN720874:CUN720877 CKR720874:CKR720877 CAV720874:CAV720877 BQZ720874:BQZ720877 BHD720874:BHD720877 AXH720874:AXH720877 ANL720874:ANL720877 ADP720874:ADP720877 TT720874:TT720877 JX720874:JX720877 AB720874:AB720877 WWJ655338:WWJ655341 WMN655338:WMN655341 WCR655338:WCR655341 VSV655338:VSV655341 VIZ655338:VIZ655341 UZD655338:UZD655341 UPH655338:UPH655341 UFL655338:UFL655341 TVP655338:TVP655341 TLT655338:TLT655341 TBX655338:TBX655341 SSB655338:SSB655341 SIF655338:SIF655341 RYJ655338:RYJ655341 RON655338:RON655341 RER655338:RER655341 QUV655338:QUV655341 QKZ655338:QKZ655341 QBD655338:QBD655341 PRH655338:PRH655341 PHL655338:PHL655341 OXP655338:OXP655341 ONT655338:ONT655341 ODX655338:ODX655341 NUB655338:NUB655341 NKF655338:NKF655341 NAJ655338:NAJ655341 MQN655338:MQN655341 MGR655338:MGR655341 LWV655338:LWV655341 LMZ655338:LMZ655341 LDD655338:LDD655341 KTH655338:KTH655341 KJL655338:KJL655341 JZP655338:JZP655341 JPT655338:JPT655341 JFX655338:JFX655341 IWB655338:IWB655341 IMF655338:IMF655341 ICJ655338:ICJ655341 HSN655338:HSN655341 HIR655338:HIR655341 GYV655338:GYV655341 GOZ655338:GOZ655341 GFD655338:GFD655341 FVH655338:FVH655341 FLL655338:FLL655341 FBP655338:FBP655341 ERT655338:ERT655341 EHX655338:EHX655341 DYB655338:DYB655341 DOF655338:DOF655341 DEJ655338:DEJ655341 CUN655338:CUN655341 CKR655338:CKR655341 CAV655338:CAV655341 BQZ655338:BQZ655341 BHD655338:BHD655341 AXH655338:AXH655341 ANL655338:ANL655341 ADP655338:ADP655341 TT655338:TT655341 JX655338:JX655341 AB655338:AB655341 WWJ589802:WWJ589805 WMN589802:WMN589805 WCR589802:WCR589805 VSV589802:VSV589805 VIZ589802:VIZ589805 UZD589802:UZD589805 UPH589802:UPH589805 UFL589802:UFL589805 TVP589802:TVP589805 TLT589802:TLT589805 TBX589802:TBX589805 SSB589802:SSB589805 SIF589802:SIF589805 RYJ589802:RYJ589805 RON589802:RON589805 RER589802:RER589805 QUV589802:QUV589805 QKZ589802:QKZ589805 QBD589802:QBD589805 PRH589802:PRH589805 PHL589802:PHL589805 OXP589802:OXP589805 ONT589802:ONT589805 ODX589802:ODX589805 NUB589802:NUB589805 NKF589802:NKF589805 NAJ589802:NAJ589805 MQN589802:MQN589805 MGR589802:MGR589805 LWV589802:LWV589805 LMZ589802:LMZ589805 LDD589802:LDD589805 KTH589802:KTH589805 KJL589802:KJL589805 JZP589802:JZP589805 JPT589802:JPT589805 JFX589802:JFX589805 IWB589802:IWB589805 IMF589802:IMF589805 ICJ589802:ICJ589805 HSN589802:HSN589805 HIR589802:HIR589805 GYV589802:GYV589805 GOZ589802:GOZ589805 GFD589802:GFD589805 FVH589802:FVH589805 FLL589802:FLL589805 FBP589802:FBP589805 ERT589802:ERT589805 EHX589802:EHX589805 DYB589802:DYB589805 DOF589802:DOF589805 DEJ589802:DEJ589805 CUN589802:CUN589805 CKR589802:CKR589805 CAV589802:CAV589805 BQZ589802:BQZ589805 BHD589802:BHD589805 AXH589802:AXH589805 ANL589802:ANL589805 ADP589802:ADP589805 TT589802:TT589805 JX589802:JX589805 AB589802:AB589805 WWJ524266:WWJ524269 WMN524266:WMN524269 WCR524266:WCR524269 VSV524266:VSV524269 VIZ524266:VIZ524269 UZD524266:UZD524269 UPH524266:UPH524269 UFL524266:UFL524269 TVP524266:TVP524269 TLT524266:TLT524269 TBX524266:TBX524269 SSB524266:SSB524269 SIF524266:SIF524269 RYJ524266:RYJ524269 RON524266:RON524269 RER524266:RER524269 QUV524266:QUV524269 QKZ524266:QKZ524269 QBD524266:QBD524269 PRH524266:PRH524269 PHL524266:PHL524269 OXP524266:OXP524269 ONT524266:ONT524269 ODX524266:ODX524269 NUB524266:NUB524269 NKF524266:NKF524269 NAJ524266:NAJ524269 MQN524266:MQN524269 MGR524266:MGR524269 LWV524266:LWV524269 LMZ524266:LMZ524269 LDD524266:LDD524269 KTH524266:KTH524269 KJL524266:KJL524269 JZP524266:JZP524269 JPT524266:JPT524269 JFX524266:JFX524269 IWB524266:IWB524269 IMF524266:IMF524269 ICJ524266:ICJ524269 HSN524266:HSN524269 HIR524266:HIR524269 GYV524266:GYV524269 GOZ524266:GOZ524269 GFD524266:GFD524269 FVH524266:FVH524269 FLL524266:FLL524269 FBP524266:FBP524269 ERT524266:ERT524269 EHX524266:EHX524269 DYB524266:DYB524269 DOF524266:DOF524269 DEJ524266:DEJ524269 CUN524266:CUN524269 CKR524266:CKR524269 CAV524266:CAV524269 BQZ524266:BQZ524269 BHD524266:BHD524269 AXH524266:AXH524269 ANL524266:ANL524269 ADP524266:ADP524269 TT524266:TT524269 JX524266:JX524269 AB524266:AB524269 WWJ458730:WWJ458733 WMN458730:WMN458733 WCR458730:WCR458733 VSV458730:VSV458733 VIZ458730:VIZ458733 UZD458730:UZD458733 UPH458730:UPH458733 UFL458730:UFL458733 TVP458730:TVP458733 TLT458730:TLT458733 TBX458730:TBX458733 SSB458730:SSB458733 SIF458730:SIF458733 RYJ458730:RYJ458733 RON458730:RON458733 RER458730:RER458733 QUV458730:QUV458733 QKZ458730:QKZ458733 QBD458730:QBD458733 PRH458730:PRH458733 PHL458730:PHL458733 OXP458730:OXP458733 ONT458730:ONT458733 ODX458730:ODX458733 NUB458730:NUB458733 NKF458730:NKF458733 NAJ458730:NAJ458733 MQN458730:MQN458733 MGR458730:MGR458733 LWV458730:LWV458733 LMZ458730:LMZ458733 LDD458730:LDD458733 KTH458730:KTH458733 KJL458730:KJL458733 JZP458730:JZP458733 JPT458730:JPT458733 JFX458730:JFX458733 IWB458730:IWB458733 IMF458730:IMF458733 ICJ458730:ICJ458733 HSN458730:HSN458733 HIR458730:HIR458733 GYV458730:GYV458733 GOZ458730:GOZ458733 GFD458730:GFD458733 FVH458730:FVH458733 FLL458730:FLL458733 FBP458730:FBP458733 ERT458730:ERT458733 EHX458730:EHX458733 DYB458730:DYB458733 DOF458730:DOF458733 DEJ458730:DEJ458733 CUN458730:CUN458733 CKR458730:CKR458733 CAV458730:CAV458733 BQZ458730:BQZ458733 BHD458730:BHD458733 AXH458730:AXH458733 ANL458730:ANL458733 ADP458730:ADP458733 TT458730:TT458733 JX458730:JX458733 AB458730:AB458733 WWJ393194:WWJ393197 WMN393194:WMN393197 WCR393194:WCR393197 VSV393194:VSV393197 VIZ393194:VIZ393197 UZD393194:UZD393197 UPH393194:UPH393197 UFL393194:UFL393197 TVP393194:TVP393197 TLT393194:TLT393197 TBX393194:TBX393197 SSB393194:SSB393197 SIF393194:SIF393197 RYJ393194:RYJ393197 RON393194:RON393197 RER393194:RER393197 QUV393194:QUV393197 QKZ393194:QKZ393197 QBD393194:QBD393197 PRH393194:PRH393197 PHL393194:PHL393197 OXP393194:OXP393197 ONT393194:ONT393197 ODX393194:ODX393197 NUB393194:NUB393197 NKF393194:NKF393197 NAJ393194:NAJ393197 MQN393194:MQN393197 MGR393194:MGR393197 LWV393194:LWV393197 LMZ393194:LMZ393197 LDD393194:LDD393197 KTH393194:KTH393197 KJL393194:KJL393197 JZP393194:JZP393197 JPT393194:JPT393197 JFX393194:JFX393197 IWB393194:IWB393197 IMF393194:IMF393197 ICJ393194:ICJ393197 HSN393194:HSN393197 HIR393194:HIR393197 GYV393194:GYV393197 GOZ393194:GOZ393197 GFD393194:GFD393197 FVH393194:FVH393197 FLL393194:FLL393197 FBP393194:FBP393197 ERT393194:ERT393197 EHX393194:EHX393197 DYB393194:DYB393197 DOF393194:DOF393197 DEJ393194:DEJ393197 CUN393194:CUN393197 CKR393194:CKR393197 CAV393194:CAV393197 BQZ393194:BQZ393197 BHD393194:BHD393197 AXH393194:AXH393197 ANL393194:ANL393197 ADP393194:ADP393197 TT393194:TT393197 JX393194:JX393197 AB393194:AB393197 WWJ327658:WWJ327661 WMN327658:WMN327661 WCR327658:WCR327661 VSV327658:VSV327661 VIZ327658:VIZ327661 UZD327658:UZD327661 UPH327658:UPH327661 UFL327658:UFL327661 TVP327658:TVP327661 TLT327658:TLT327661 TBX327658:TBX327661 SSB327658:SSB327661 SIF327658:SIF327661 RYJ327658:RYJ327661 RON327658:RON327661 RER327658:RER327661 QUV327658:QUV327661 QKZ327658:QKZ327661 QBD327658:QBD327661 PRH327658:PRH327661 PHL327658:PHL327661 OXP327658:OXP327661 ONT327658:ONT327661 ODX327658:ODX327661 NUB327658:NUB327661 NKF327658:NKF327661 NAJ327658:NAJ327661 MQN327658:MQN327661 MGR327658:MGR327661 LWV327658:LWV327661 LMZ327658:LMZ327661 LDD327658:LDD327661 KTH327658:KTH327661 KJL327658:KJL327661 JZP327658:JZP327661 JPT327658:JPT327661 JFX327658:JFX327661 IWB327658:IWB327661 IMF327658:IMF327661 ICJ327658:ICJ327661 HSN327658:HSN327661 HIR327658:HIR327661 GYV327658:GYV327661 GOZ327658:GOZ327661 GFD327658:GFD327661 FVH327658:FVH327661 FLL327658:FLL327661 FBP327658:FBP327661 ERT327658:ERT327661 EHX327658:EHX327661 DYB327658:DYB327661 DOF327658:DOF327661 DEJ327658:DEJ327661 CUN327658:CUN327661 CKR327658:CKR327661 CAV327658:CAV327661 BQZ327658:BQZ327661 BHD327658:BHD327661 AXH327658:AXH327661 ANL327658:ANL327661 ADP327658:ADP327661 TT327658:TT327661 JX327658:JX327661 AB327658:AB327661 WWJ262122:WWJ262125 WMN262122:WMN262125 WCR262122:WCR262125 VSV262122:VSV262125 VIZ262122:VIZ262125 UZD262122:UZD262125 UPH262122:UPH262125 UFL262122:UFL262125 TVP262122:TVP262125 TLT262122:TLT262125 TBX262122:TBX262125 SSB262122:SSB262125 SIF262122:SIF262125 RYJ262122:RYJ262125 RON262122:RON262125 RER262122:RER262125 QUV262122:QUV262125 QKZ262122:QKZ262125 QBD262122:QBD262125 PRH262122:PRH262125 PHL262122:PHL262125 OXP262122:OXP262125 ONT262122:ONT262125 ODX262122:ODX262125 NUB262122:NUB262125 NKF262122:NKF262125 NAJ262122:NAJ262125 MQN262122:MQN262125 MGR262122:MGR262125 LWV262122:LWV262125 LMZ262122:LMZ262125 LDD262122:LDD262125 KTH262122:KTH262125 KJL262122:KJL262125 JZP262122:JZP262125 JPT262122:JPT262125 JFX262122:JFX262125 IWB262122:IWB262125 IMF262122:IMF262125 ICJ262122:ICJ262125 HSN262122:HSN262125 HIR262122:HIR262125 GYV262122:GYV262125 GOZ262122:GOZ262125 GFD262122:GFD262125 FVH262122:FVH262125 FLL262122:FLL262125 FBP262122:FBP262125 ERT262122:ERT262125 EHX262122:EHX262125 DYB262122:DYB262125 DOF262122:DOF262125 DEJ262122:DEJ262125 CUN262122:CUN262125 CKR262122:CKR262125 CAV262122:CAV262125 BQZ262122:BQZ262125 BHD262122:BHD262125 AXH262122:AXH262125 ANL262122:ANL262125 ADP262122:ADP262125 TT262122:TT262125 JX262122:JX262125 AB262122:AB262125 WWJ196586:WWJ196589 WMN196586:WMN196589 WCR196586:WCR196589 VSV196586:VSV196589 VIZ196586:VIZ196589 UZD196586:UZD196589 UPH196586:UPH196589 UFL196586:UFL196589 TVP196586:TVP196589 TLT196586:TLT196589 TBX196586:TBX196589 SSB196586:SSB196589 SIF196586:SIF196589 RYJ196586:RYJ196589 RON196586:RON196589 RER196586:RER196589 QUV196586:QUV196589 QKZ196586:QKZ196589 QBD196586:QBD196589 PRH196586:PRH196589 PHL196586:PHL196589 OXP196586:OXP196589 ONT196586:ONT196589 ODX196586:ODX196589 NUB196586:NUB196589 NKF196586:NKF196589 NAJ196586:NAJ196589 MQN196586:MQN196589 MGR196586:MGR196589 LWV196586:LWV196589 LMZ196586:LMZ196589 LDD196586:LDD196589 KTH196586:KTH196589 KJL196586:KJL196589 JZP196586:JZP196589 JPT196586:JPT196589 JFX196586:JFX196589 IWB196586:IWB196589 IMF196586:IMF196589 ICJ196586:ICJ196589 HSN196586:HSN196589 HIR196586:HIR196589 GYV196586:GYV196589 GOZ196586:GOZ196589 GFD196586:GFD196589 FVH196586:FVH196589 FLL196586:FLL196589 FBP196586:FBP196589 ERT196586:ERT196589 EHX196586:EHX196589 DYB196586:DYB196589 DOF196586:DOF196589 DEJ196586:DEJ196589 CUN196586:CUN196589 CKR196586:CKR196589 CAV196586:CAV196589 BQZ196586:BQZ196589 BHD196586:BHD196589 AXH196586:AXH196589 ANL196586:ANL196589 ADP196586:ADP196589 TT196586:TT196589 JX196586:JX196589 AB196586:AB196589 WWJ131050:WWJ131053 WMN131050:WMN131053 WCR131050:WCR131053 VSV131050:VSV131053 VIZ131050:VIZ131053 UZD131050:UZD131053 UPH131050:UPH131053 UFL131050:UFL131053 TVP131050:TVP131053 TLT131050:TLT131053 TBX131050:TBX131053 SSB131050:SSB131053 SIF131050:SIF131053 RYJ131050:RYJ131053 RON131050:RON131053 RER131050:RER131053 QUV131050:QUV131053 QKZ131050:QKZ131053 QBD131050:QBD131053 PRH131050:PRH131053 PHL131050:PHL131053 OXP131050:OXP131053 ONT131050:ONT131053 ODX131050:ODX131053 NUB131050:NUB131053 NKF131050:NKF131053 NAJ131050:NAJ131053 MQN131050:MQN131053 MGR131050:MGR131053 LWV131050:LWV131053 LMZ131050:LMZ131053 LDD131050:LDD131053 KTH131050:KTH131053 KJL131050:KJL131053 JZP131050:JZP131053 JPT131050:JPT131053 JFX131050:JFX131053 IWB131050:IWB131053 IMF131050:IMF131053 ICJ131050:ICJ131053 HSN131050:HSN131053 HIR131050:HIR131053 GYV131050:GYV131053 GOZ131050:GOZ131053 GFD131050:GFD131053 FVH131050:FVH131053 FLL131050:FLL131053 FBP131050:FBP131053 ERT131050:ERT131053 EHX131050:EHX131053 DYB131050:DYB131053 DOF131050:DOF131053 DEJ131050:DEJ131053 CUN131050:CUN131053 CKR131050:CKR131053 CAV131050:CAV131053 BQZ131050:BQZ131053 BHD131050:BHD131053 AXH131050:AXH131053 ANL131050:ANL131053 ADP131050:ADP131053 TT131050:TT131053 JX131050:JX131053 AB131050:AB131053 WWJ65514:WWJ65517 WMN65514:WMN65517 WCR65514:WCR65517 VSV65514:VSV65517 VIZ65514:VIZ65517 UZD65514:UZD65517 UPH65514:UPH65517 UFL65514:UFL65517 TVP65514:TVP65517 TLT65514:TLT65517 TBX65514:TBX65517 SSB65514:SSB65517 SIF65514:SIF65517 RYJ65514:RYJ65517 RON65514:RON65517 RER65514:RER65517 QUV65514:QUV65517 QKZ65514:QKZ65517 QBD65514:QBD65517 PRH65514:PRH65517 PHL65514:PHL65517 OXP65514:OXP65517 ONT65514:ONT65517 ODX65514:ODX65517 NUB65514:NUB65517 NKF65514:NKF65517 NAJ65514:NAJ65517 MQN65514:MQN65517 MGR65514:MGR65517 LWV65514:LWV65517 LMZ65514:LMZ65517 LDD65514:LDD65517 KTH65514:KTH65517 KJL65514:KJL65517 JZP65514:JZP65517 JPT65514:JPT65517 JFX65514:JFX65517 IWB65514:IWB65517 IMF65514:IMF65517 ICJ65514:ICJ65517 HSN65514:HSN65517 HIR65514:HIR65517 GYV65514:GYV65517 GOZ65514:GOZ65517 GFD65514:GFD65517 FVH65514:FVH65517 FLL65514:FLL65517 FBP65514:FBP65517 ERT65514:ERT65517 EHX65514:EHX65517 DYB65514:DYB65517 DOF65514:DOF65517 DEJ65514:DEJ65517 CUN65514:CUN65517 CKR65514:CKR65517 CAV65514:CAV65517 BQZ65514:BQZ65517 BHD65514:BHD65517 AXH65514:AXH65517 ANL65514:ANL65517 ADP65514:ADP65517 TT65514:TT65517 JX65514:JX65517 AB65514:AB65517 WWH983018:WWH983021 WML983018:WML983021 WCP983018:WCP983021 VST983018:VST983021 VIX983018:VIX983021 UZB983018:UZB983021 UPF983018:UPF983021 UFJ983018:UFJ983021 TVN983018:TVN983021 TLR983018:TLR983021 TBV983018:TBV983021 SRZ983018:SRZ983021 SID983018:SID983021 RYH983018:RYH983021 ROL983018:ROL983021 REP983018:REP983021 QUT983018:QUT983021 QKX983018:QKX983021 QBB983018:QBB983021 PRF983018:PRF983021 PHJ983018:PHJ983021 OXN983018:OXN983021 ONR983018:ONR983021 ODV983018:ODV983021 NTZ983018:NTZ983021 NKD983018:NKD983021 NAH983018:NAH983021 MQL983018:MQL983021 MGP983018:MGP983021 LWT983018:LWT983021 LMX983018:LMX983021 LDB983018:LDB983021 KTF983018:KTF983021 KJJ983018:KJJ983021 JZN983018:JZN983021 JPR983018:JPR983021 JFV983018:JFV983021 IVZ983018:IVZ983021 IMD983018:IMD983021 ICH983018:ICH983021 HSL983018:HSL983021 HIP983018:HIP983021 GYT983018:GYT983021 GOX983018:GOX983021 GFB983018:GFB983021 FVF983018:FVF983021 FLJ983018:FLJ983021 FBN983018:FBN983021 ERR983018:ERR983021 EHV983018:EHV983021 DXZ983018:DXZ983021 DOD983018:DOD983021 DEH983018:DEH983021 CUL983018:CUL983021 CKP983018:CKP983021 CAT983018:CAT983021 BQX983018:BQX983021 BHB983018:BHB983021 AXF983018:AXF983021 ANJ983018:ANJ983021 ADN983018:ADN983021 TR983018:TR983021 JV983018:JV983021 Z983018:Z983021 WWH917482:WWH917485 WML917482:WML917485 WCP917482:WCP917485 VST917482:VST917485 VIX917482:VIX917485 UZB917482:UZB917485 UPF917482:UPF917485 UFJ917482:UFJ917485 TVN917482:TVN917485 TLR917482:TLR917485 TBV917482:TBV917485 SRZ917482:SRZ917485 SID917482:SID917485 RYH917482:RYH917485 ROL917482:ROL917485 REP917482:REP917485 QUT917482:QUT917485 QKX917482:QKX917485 QBB917482:QBB917485 PRF917482:PRF917485 PHJ917482:PHJ917485 OXN917482:OXN917485 ONR917482:ONR917485 ODV917482:ODV917485 NTZ917482:NTZ917485 NKD917482:NKD917485 NAH917482:NAH917485 MQL917482:MQL917485 MGP917482:MGP917485 LWT917482:LWT917485 LMX917482:LMX917485 LDB917482:LDB917485 KTF917482:KTF917485 KJJ917482:KJJ917485 JZN917482:JZN917485 JPR917482:JPR917485 JFV917482:JFV917485 IVZ917482:IVZ917485 IMD917482:IMD917485 ICH917482:ICH917485 HSL917482:HSL917485 HIP917482:HIP917485 GYT917482:GYT917485 GOX917482:GOX917485 GFB917482:GFB917485 FVF917482:FVF917485 FLJ917482:FLJ917485 FBN917482:FBN917485 ERR917482:ERR917485 EHV917482:EHV917485 DXZ917482:DXZ917485 DOD917482:DOD917485 DEH917482:DEH917485 CUL917482:CUL917485 CKP917482:CKP917485 CAT917482:CAT917485 BQX917482:BQX917485 BHB917482:BHB917485 AXF917482:AXF917485 ANJ917482:ANJ917485 ADN917482:ADN917485 TR917482:TR917485 JV917482:JV917485 Z917482:Z917485 WWH851946:WWH851949 WML851946:WML851949 WCP851946:WCP851949 VST851946:VST851949 VIX851946:VIX851949 UZB851946:UZB851949 UPF851946:UPF851949 UFJ851946:UFJ851949 TVN851946:TVN851949 TLR851946:TLR851949 TBV851946:TBV851949 SRZ851946:SRZ851949 SID851946:SID851949 RYH851946:RYH851949 ROL851946:ROL851949 REP851946:REP851949 QUT851946:QUT851949 QKX851946:QKX851949 QBB851946:QBB851949 PRF851946:PRF851949 PHJ851946:PHJ851949 OXN851946:OXN851949 ONR851946:ONR851949 ODV851946:ODV851949 NTZ851946:NTZ851949 NKD851946:NKD851949 NAH851946:NAH851949 MQL851946:MQL851949 MGP851946:MGP851949 LWT851946:LWT851949 LMX851946:LMX851949 LDB851946:LDB851949 KTF851946:KTF851949 KJJ851946:KJJ851949 JZN851946:JZN851949 JPR851946:JPR851949 JFV851946:JFV851949 IVZ851946:IVZ851949 IMD851946:IMD851949 ICH851946:ICH851949 HSL851946:HSL851949 HIP851946:HIP851949 GYT851946:GYT851949 GOX851946:GOX851949 GFB851946:GFB851949 FVF851946:FVF851949 FLJ851946:FLJ851949 FBN851946:FBN851949 ERR851946:ERR851949 EHV851946:EHV851949 DXZ851946:DXZ851949 DOD851946:DOD851949 DEH851946:DEH851949 CUL851946:CUL851949 CKP851946:CKP851949 CAT851946:CAT851949 BQX851946:BQX851949 BHB851946:BHB851949 AXF851946:AXF851949 ANJ851946:ANJ851949 ADN851946:ADN851949 TR851946:TR851949 JV851946:JV851949 Z851946:Z851949 WWH786410:WWH786413 WML786410:WML786413 WCP786410:WCP786413 VST786410:VST786413 VIX786410:VIX786413 UZB786410:UZB786413 UPF786410:UPF786413 UFJ786410:UFJ786413 TVN786410:TVN786413 TLR786410:TLR786413 TBV786410:TBV786413 SRZ786410:SRZ786413 SID786410:SID786413 RYH786410:RYH786413 ROL786410:ROL786413 REP786410:REP786413 QUT786410:QUT786413 QKX786410:QKX786413 QBB786410:QBB786413 PRF786410:PRF786413 PHJ786410:PHJ786413 OXN786410:OXN786413 ONR786410:ONR786413 ODV786410:ODV786413 NTZ786410:NTZ786413 NKD786410:NKD786413 NAH786410:NAH786413 MQL786410:MQL786413 MGP786410:MGP786413 LWT786410:LWT786413 LMX786410:LMX786413 LDB786410:LDB786413 KTF786410:KTF786413 KJJ786410:KJJ786413 JZN786410:JZN786413 JPR786410:JPR786413 JFV786410:JFV786413 IVZ786410:IVZ786413 IMD786410:IMD786413 ICH786410:ICH786413 HSL786410:HSL786413 HIP786410:HIP786413 GYT786410:GYT786413 GOX786410:GOX786413 GFB786410:GFB786413 FVF786410:FVF786413 FLJ786410:FLJ786413 FBN786410:FBN786413 ERR786410:ERR786413 EHV786410:EHV786413 DXZ786410:DXZ786413 DOD786410:DOD786413 DEH786410:DEH786413 CUL786410:CUL786413 CKP786410:CKP786413 CAT786410:CAT786413 BQX786410:BQX786413 BHB786410:BHB786413 AXF786410:AXF786413 ANJ786410:ANJ786413 ADN786410:ADN786413 TR786410:TR786413 JV786410:JV786413 Z786410:Z786413 WWH720874:WWH720877 WML720874:WML720877 WCP720874:WCP720877 VST720874:VST720877 VIX720874:VIX720877 UZB720874:UZB720877 UPF720874:UPF720877 UFJ720874:UFJ720877 TVN720874:TVN720877 TLR720874:TLR720877 TBV720874:TBV720877 SRZ720874:SRZ720877 SID720874:SID720877 RYH720874:RYH720877 ROL720874:ROL720877 REP720874:REP720877 QUT720874:QUT720877 QKX720874:QKX720877 QBB720874:QBB720877 PRF720874:PRF720877 PHJ720874:PHJ720877 OXN720874:OXN720877 ONR720874:ONR720877 ODV720874:ODV720877 NTZ720874:NTZ720877 NKD720874:NKD720877 NAH720874:NAH720877 MQL720874:MQL720877 MGP720874:MGP720877 LWT720874:LWT720877 LMX720874:LMX720877 LDB720874:LDB720877 KTF720874:KTF720877 KJJ720874:KJJ720877 JZN720874:JZN720877 JPR720874:JPR720877 JFV720874:JFV720877 IVZ720874:IVZ720877 IMD720874:IMD720877 ICH720874:ICH720877 HSL720874:HSL720877 HIP720874:HIP720877 GYT720874:GYT720877 GOX720874:GOX720877 GFB720874:GFB720877 FVF720874:FVF720877 FLJ720874:FLJ720877 FBN720874:FBN720877 ERR720874:ERR720877 EHV720874:EHV720877 DXZ720874:DXZ720877 DOD720874:DOD720877 DEH720874:DEH720877 CUL720874:CUL720877 CKP720874:CKP720877 CAT720874:CAT720877 BQX720874:BQX720877 BHB720874:BHB720877 AXF720874:AXF720877 ANJ720874:ANJ720877 ADN720874:ADN720877 TR720874:TR720877 JV720874:JV720877 Z720874:Z720877 WWH655338:WWH655341 WML655338:WML655341 WCP655338:WCP655341 VST655338:VST655341 VIX655338:VIX655341 UZB655338:UZB655341 UPF655338:UPF655341 UFJ655338:UFJ655341 TVN655338:TVN655341 TLR655338:TLR655341 TBV655338:TBV655341 SRZ655338:SRZ655341 SID655338:SID655341 RYH655338:RYH655341 ROL655338:ROL655341 REP655338:REP655341 QUT655338:QUT655341 QKX655338:QKX655341 QBB655338:QBB655341 PRF655338:PRF655341 PHJ655338:PHJ655341 OXN655338:OXN655341 ONR655338:ONR655341 ODV655338:ODV655341 NTZ655338:NTZ655341 NKD655338:NKD655341 NAH655338:NAH655341 MQL655338:MQL655341 MGP655338:MGP655341 LWT655338:LWT655341 LMX655338:LMX655341 LDB655338:LDB655341 KTF655338:KTF655341 KJJ655338:KJJ655341 JZN655338:JZN655341 JPR655338:JPR655341 JFV655338:JFV655341 IVZ655338:IVZ655341 IMD655338:IMD655341 ICH655338:ICH655341 HSL655338:HSL655341 HIP655338:HIP655341 GYT655338:GYT655341 GOX655338:GOX655341 GFB655338:GFB655341 FVF655338:FVF655341 FLJ655338:FLJ655341 FBN655338:FBN655341 ERR655338:ERR655341 EHV655338:EHV655341 DXZ655338:DXZ655341 DOD655338:DOD655341 DEH655338:DEH655341 CUL655338:CUL655341 CKP655338:CKP655341 CAT655338:CAT655341 BQX655338:BQX655341 BHB655338:BHB655341 AXF655338:AXF655341 ANJ655338:ANJ655341 ADN655338:ADN655341 TR655338:TR655341 JV655338:JV655341 Z655338:Z655341 WWH589802:WWH589805 WML589802:WML589805 WCP589802:WCP589805 VST589802:VST589805 VIX589802:VIX589805 UZB589802:UZB589805 UPF589802:UPF589805 UFJ589802:UFJ589805 TVN589802:TVN589805 TLR589802:TLR589805 TBV589802:TBV589805 SRZ589802:SRZ589805 SID589802:SID589805 RYH589802:RYH589805 ROL589802:ROL589805 REP589802:REP589805 QUT589802:QUT589805 QKX589802:QKX589805 QBB589802:QBB589805 PRF589802:PRF589805 PHJ589802:PHJ589805 OXN589802:OXN589805 ONR589802:ONR589805 ODV589802:ODV589805 NTZ589802:NTZ589805 NKD589802:NKD589805 NAH589802:NAH589805 MQL589802:MQL589805 MGP589802:MGP589805 LWT589802:LWT589805 LMX589802:LMX589805 LDB589802:LDB589805 KTF589802:KTF589805 KJJ589802:KJJ589805 JZN589802:JZN589805 JPR589802:JPR589805 JFV589802:JFV589805 IVZ589802:IVZ589805 IMD589802:IMD589805 ICH589802:ICH589805 HSL589802:HSL589805 HIP589802:HIP589805 GYT589802:GYT589805 GOX589802:GOX589805 GFB589802:GFB589805 FVF589802:FVF589805 FLJ589802:FLJ589805 FBN589802:FBN589805 ERR589802:ERR589805 EHV589802:EHV589805 DXZ589802:DXZ589805 DOD589802:DOD589805 DEH589802:DEH589805 CUL589802:CUL589805 CKP589802:CKP589805 CAT589802:CAT589805 BQX589802:BQX589805 BHB589802:BHB589805 AXF589802:AXF589805 ANJ589802:ANJ589805 ADN589802:ADN589805 TR589802:TR589805 JV589802:JV589805 Z589802:Z589805 WWH524266:WWH524269 WML524266:WML524269 WCP524266:WCP524269 VST524266:VST524269 VIX524266:VIX524269 UZB524266:UZB524269 UPF524266:UPF524269 UFJ524266:UFJ524269 TVN524266:TVN524269 TLR524266:TLR524269 TBV524266:TBV524269 SRZ524266:SRZ524269 SID524266:SID524269 RYH524266:RYH524269 ROL524266:ROL524269 REP524266:REP524269 QUT524266:QUT524269 QKX524266:QKX524269 QBB524266:QBB524269 PRF524266:PRF524269 PHJ524266:PHJ524269 OXN524266:OXN524269 ONR524266:ONR524269 ODV524266:ODV524269 NTZ524266:NTZ524269 NKD524266:NKD524269 NAH524266:NAH524269 MQL524266:MQL524269 MGP524266:MGP524269 LWT524266:LWT524269 LMX524266:LMX524269 LDB524266:LDB524269 KTF524266:KTF524269 KJJ524266:KJJ524269 JZN524266:JZN524269 JPR524266:JPR524269 JFV524266:JFV524269 IVZ524266:IVZ524269 IMD524266:IMD524269 ICH524266:ICH524269 HSL524266:HSL524269 HIP524266:HIP524269 GYT524266:GYT524269 GOX524266:GOX524269 GFB524266:GFB524269 FVF524266:FVF524269 FLJ524266:FLJ524269 FBN524266:FBN524269 ERR524266:ERR524269 EHV524266:EHV524269 DXZ524266:DXZ524269 DOD524266:DOD524269 DEH524266:DEH524269 CUL524266:CUL524269 CKP524266:CKP524269 CAT524266:CAT524269 BQX524266:BQX524269 BHB524266:BHB524269 AXF524266:AXF524269 ANJ524266:ANJ524269 ADN524266:ADN524269 TR524266:TR524269 JV524266:JV524269 Z524266:Z524269 WWH458730:WWH458733 WML458730:WML458733 WCP458730:WCP458733 VST458730:VST458733 VIX458730:VIX458733 UZB458730:UZB458733 UPF458730:UPF458733 UFJ458730:UFJ458733 TVN458730:TVN458733 TLR458730:TLR458733 TBV458730:TBV458733 SRZ458730:SRZ458733 SID458730:SID458733 RYH458730:RYH458733 ROL458730:ROL458733 REP458730:REP458733 QUT458730:QUT458733 QKX458730:QKX458733 QBB458730:QBB458733 PRF458730:PRF458733 PHJ458730:PHJ458733 OXN458730:OXN458733 ONR458730:ONR458733 ODV458730:ODV458733 NTZ458730:NTZ458733 NKD458730:NKD458733 NAH458730:NAH458733 MQL458730:MQL458733 MGP458730:MGP458733 LWT458730:LWT458733 LMX458730:LMX458733 LDB458730:LDB458733 KTF458730:KTF458733 KJJ458730:KJJ458733 JZN458730:JZN458733 JPR458730:JPR458733 JFV458730:JFV458733 IVZ458730:IVZ458733 IMD458730:IMD458733 ICH458730:ICH458733 HSL458730:HSL458733 HIP458730:HIP458733 GYT458730:GYT458733 GOX458730:GOX458733 GFB458730:GFB458733 FVF458730:FVF458733 FLJ458730:FLJ458733 FBN458730:FBN458733 ERR458730:ERR458733 EHV458730:EHV458733 DXZ458730:DXZ458733 DOD458730:DOD458733 DEH458730:DEH458733 CUL458730:CUL458733 CKP458730:CKP458733 CAT458730:CAT458733 BQX458730:BQX458733 BHB458730:BHB458733 AXF458730:AXF458733 ANJ458730:ANJ458733 ADN458730:ADN458733 TR458730:TR458733 JV458730:JV458733 Z458730:Z458733 WWH393194:WWH393197 WML393194:WML393197 WCP393194:WCP393197 VST393194:VST393197 VIX393194:VIX393197 UZB393194:UZB393197 UPF393194:UPF393197 UFJ393194:UFJ393197 TVN393194:TVN393197 TLR393194:TLR393197 TBV393194:TBV393197 SRZ393194:SRZ393197 SID393194:SID393197 RYH393194:RYH393197 ROL393194:ROL393197 REP393194:REP393197 QUT393194:QUT393197 QKX393194:QKX393197 QBB393194:QBB393197 PRF393194:PRF393197 PHJ393194:PHJ393197 OXN393194:OXN393197 ONR393194:ONR393197 ODV393194:ODV393197 NTZ393194:NTZ393197 NKD393194:NKD393197 NAH393194:NAH393197 MQL393194:MQL393197 MGP393194:MGP393197 LWT393194:LWT393197 LMX393194:LMX393197 LDB393194:LDB393197 KTF393194:KTF393197 KJJ393194:KJJ393197 JZN393194:JZN393197 JPR393194:JPR393197 JFV393194:JFV393197 IVZ393194:IVZ393197 IMD393194:IMD393197 ICH393194:ICH393197 HSL393194:HSL393197 HIP393194:HIP393197 GYT393194:GYT393197 GOX393194:GOX393197 GFB393194:GFB393197 FVF393194:FVF393197 FLJ393194:FLJ393197 FBN393194:FBN393197 ERR393194:ERR393197 EHV393194:EHV393197 DXZ393194:DXZ393197 DOD393194:DOD393197 DEH393194:DEH393197 CUL393194:CUL393197 CKP393194:CKP393197 CAT393194:CAT393197 BQX393194:BQX393197 BHB393194:BHB393197 AXF393194:AXF393197 ANJ393194:ANJ393197 ADN393194:ADN393197 TR393194:TR393197 JV393194:JV393197 Z393194:Z393197 WWH327658:WWH327661 WML327658:WML327661 WCP327658:WCP327661 VST327658:VST327661 VIX327658:VIX327661 UZB327658:UZB327661 UPF327658:UPF327661 UFJ327658:UFJ327661 TVN327658:TVN327661 TLR327658:TLR327661 TBV327658:TBV327661 SRZ327658:SRZ327661 SID327658:SID327661 RYH327658:RYH327661 ROL327658:ROL327661 REP327658:REP327661 QUT327658:QUT327661 QKX327658:QKX327661 QBB327658:QBB327661 PRF327658:PRF327661 PHJ327658:PHJ327661 OXN327658:OXN327661 ONR327658:ONR327661 ODV327658:ODV327661 NTZ327658:NTZ327661 NKD327658:NKD327661 NAH327658:NAH327661 MQL327658:MQL327661 MGP327658:MGP327661 LWT327658:LWT327661 LMX327658:LMX327661 LDB327658:LDB327661 KTF327658:KTF327661 KJJ327658:KJJ327661 JZN327658:JZN327661 JPR327658:JPR327661 JFV327658:JFV327661 IVZ327658:IVZ327661 IMD327658:IMD327661 ICH327658:ICH327661 HSL327658:HSL327661 HIP327658:HIP327661 GYT327658:GYT327661 GOX327658:GOX327661 GFB327658:GFB327661 FVF327658:FVF327661 FLJ327658:FLJ327661 FBN327658:FBN327661 ERR327658:ERR327661 EHV327658:EHV327661 DXZ327658:DXZ327661 DOD327658:DOD327661 DEH327658:DEH327661 CUL327658:CUL327661 CKP327658:CKP327661 CAT327658:CAT327661 BQX327658:BQX327661 BHB327658:BHB327661 AXF327658:AXF327661 ANJ327658:ANJ327661 ADN327658:ADN327661 TR327658:TR327661 JV327658:JV327661 Z327658:Z327661 WWH262122:WWH262125 WML262122:WML262125 WCP262122:WCP262125 VST262122:VST262125 VIX262122:VIX262125 UZB262122:UZB262125 UPF262122:UPF262125 UFJ262122:UFJ262125 TVN262122:TVN262125 TLR262122:TLR262125 TBV262122:TBV262125 SRZ262122:SRZ262125 SID262122:SID262125 RYH262122:RYH262125 ROL262122:ROL262125 REP262122:REP262125 QUT262122:QUT262125 QKX262122:QKX262125 QBB262122:QBB262125 PRF262122:PRF262125 PHJ262122:PHJ262125 OXN262122:OXN262125 ONR262122:ONR262125 ODV262122:ODV262125 NTZ262122:NTZ262125 NKD262122:NKD262125 NAH262122:NAH262125 MQL262122:MQL262125 MGP262122:MGP262125 LWT262122:LWT262125 LMX262122:LMX262125 LDB262122:LDB262125 KTF262122:KTF262125 KJJ262122:KJJ262125 JZN262122:JZN262125 JPR262122:JPR262125 JFV262122:JFV262125 IVZ262122:IVZ262125 IMD262122:IMD262125 ICH262122:ICH262125 HSL262122:HSL262125 HIP262122:HIP262125 GYT262122:GYT262125 GOX262122:GOX262125 GFB262122:GFB262125 FVF262122:FVF262125 FLJ262122:FLJ262125 FBN262122:FBN262125 ERR262122:ERR262125 EHV262122:EHV262125 DXZ262122:DXZ262125 DOD262122:DOD262125 DEH262122:DEH262125 CUL262122:CUL262125 CKP262122:CKP262125 CAT262122:CAT262125 BQX262122:BQX262125 BHB262122:BHB262125 AXF262122:AXF262125 ANJ262122:ANJ262125 ADN262122:ADN262125 TR262122:TR262125 JV262122:JV262125 Z262122:Z262125 WWH196586:WWH196589 WML196586:WML196589 WCP196586:WCP196589 VST196586:VST196589 VIX196586:VIX196589 UZB196586:UZB196589 UPF196586:UPF196589 UFJ196586:UFJ196589 TVN196586:TVN196589 TLR196586:TLR196589 TBV196586:TBV196589 SRZ196586:SRZ196589 SID196586:SID196589 RYH196586:RYH196589 ROL196586:ROL196589 REP196586:REP196589 QUT196586:QUT196589 QKX196586:QKX196589 QBB196586:QBB196589 PRF196586:PRF196589 PHJ196586:PHJ196589 OXN196586:OXN196589 ONR196586:ONR196589 ODV196586:ODV196589 NTZ196586:NTZ196589 NKD196586:NKD196589 NAH196586:NAH196589 MQL196586:MQL196589 MGP196586:MGP196589 LWT196586:LWT196589 LMX196586:LMX196589 LDB196586:LDB196589 KTF196586:KTF196589 KJJ196586:KJJ196589 JZN196586:JZN196589 JPR196586:JPR196589 JFV196586:JFV196589 IVZ196586:IVZ196589 IMD196586:IMD196589 ICH196586:ICH196589 HSL196586:HSL196589 HIP196586:HIP196589 GYT196586:GYT196589 GOX196586:GOX196589 GFB196586:GFB196589 FVF196586:FVF196589 FLJ196586:FLJ196589 FBN196586:FBN196589 ERR196586:ERR196589 EHV196586:EHV196589 DXZ196586:DXZ196589 DOD196586:DOD196589 DEH196586:DEH196589 CUL196586:CUL196589 CKP196586:CKP196589 CAT196586:CAT196589 BQX196586:BQX196589 BHB196586:BHB196589 AXF196586:AXF196589 ANJ196586:ANJ196589 ADN196586:ADN196589 TR196586:TR196589 JV196586:JV196589 Z196586:Z196589 WWH131050:WWH131053 WML131050:WML131053 WCP131050:WCP131053 VST131050:VST131053 VIX131050:VIX131053 UZB131050:UZB131053 UPF131050:UPF131053 UFJ131050:UFJ131053 TVN131050:TVN131053 TLR131050:TLR131053 TBV131050:TBV131053 SRZ131050:SRZ131053 SID131050:SID131053 RYH131050:RYH131053 ROL131050:ROL131053 REP131050:REP131053 QUT131050:QUT131053 QKX131050:QKX131053 QBB131050:QBB131053 PRF131050:PRF131053 PHJ131050:PHJ131053 OXN131050:OXN131053 ONR131050:ONR131053 ODV131050:ODV131053 NTZ131050:NTZ131053 NKD131050:NKD131053 NAH131050:NAH131053 MQL131050:MQL131053 MGP131050:MGP131053 LWT131050:LWT131053 LMX131050:LMX131053 LDB131050:LDB131053 KTF131050:KTF131053 KJJ131050:KJJ131053 JZN131050:JZN131053 JPR131050:JPR131053 JFV131050:JFV131053 IVZ131050:IVZ131053 IMD131050:IMD131053 ICH131050:ICH131053 HSL131050:HSL131053 HIP131050:HIP131053 GYT131050:GYT131053 GOX131050:GOX131053 GFB131050:GFB131053 FVF131050:FVF131053 FLJ131050:FLJ131053 FBN131050:FBN131053 ERR131050:ERR131053 EHV131050:EHV131053 DXZ131050:DXZ131053 DOD131050:DOD131053 DEH131050:DEH131053 CUL131050:CUL131053 CKP131050:CKP131053 CAT131050:CAT131053 BQX131050:BQX131053 BHB131050:BHB131053 AXF131050:AXF131053 ANJ131050:ANJ131053 ADN131050:ADN131053 TR131050:TR131053 JV131050:JV131053 Z131050:Z131053 WWH65514:WWH65517 WML65514:WML65517 WCP65514:WCP65517 VST65514:VST65517 VIX65514:VIX65517 UZB65514:UZB65517 UPF65514:UPF65517 UFJ65514:UFJ65517 TVN65514:TVN65517 TLR65514:TLR65517 TBV65514:TBV65517 SRZ65514:SRZ65517 SID65514:SID65517 RYH65514:RYH65517 ROL65514:ROL65517 REP65514:REP65517 QUT65514:QUT65517 QKX65514:QKX65517 QBB65514:QBB65517 PRF65514:PRF65517 PHJ65514:PHJ65517 OXN65514:OXN65517 ONR65514:ONR65517 ODV65514:ODV65517 NTZ65514:NTZ65517 NKD65514:NKD65517 NAH65514:NAH65517 MQL65514:MQL65517 MGP65514:MGP65517 LWT65514:LWT65517 LMX65514:LMX65517 LDB65514:LDB65517 KTF65514:KTF65517 KJJ65514:KJJ65517 JZN65514:JZN65517 JPR65514:JPR65517 JFV65514:JFV65517 IVZ65514:IVZ65517 IMD65514:IMD65517 ICH65514:ICH65517 HSL65514:HSL65517 HIP65514:HIP65517 GYT65514:GYT65517 GOX65514:GOX65517 GFB65514:GFB65517 FVF65514:FVF65517 FLJ65514:FLJ65517 FBN65514:FBN65517 ERR65514:ERR65517 EHV65514:EHV65517 DXZ65514:DXZ65517 DOD65514:DOD65517 DEH65514:DEH65517 CUL65514:CUL65517 CKP65514:CKP65517 CAT65514:CAT65517 BQX65514:BQX65517 BHB65514:BHB65517 AXF65514:AXF65517 ANJ65514:ANJ65517 ADN65514:ADN65517 TR65514:TR65517 JV65514:JV65517" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"W,F,M,O,D,S"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2363,7 +2351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2426,10 +2414,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -2470,1072 +2458,1063 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="27">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141"/>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="141"/>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141"/>
-      <c r="AO1" s="141"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="122"/>
+      <c r="AJ1" s="122"/>
+      <c r="AK1" s="122"/>
+      <c r="AL1" s="122"/>
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="60">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89" t="s">
+      <c r="A2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="90" t="s">
+      <c r="K2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="90" t="s">
+      <c r="L2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="90" t="s">
+      <c r="N2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="90" t="s">
+      <c r="O2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="90" t="s">
+      <c r="P2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="90" t="s">
+      <c r="Q2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="90" t="s">
+      <c r="R2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="92" t="s">
+      <c r="S2" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="89" t="s">
+      <c r="T2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="90" t="s">
+      <c r="U2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="92" t="s">
+      <c r="V2" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="90" t="s">
+      <c r="W2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="90" t="s">
+      <c r="X2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="93" t="s">
+      <c r="Y2" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="90" t="s">
+      <c r="Z2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="89" t="s">
+      <c r="AA2" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="89" t="s">
+      <c r="AB2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="90" t="s">
+      <c r="AC2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="90" t="s">
+      <c r="AD2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="94" t="s">
+      <c r="AE2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="94" t="s">
+      <c r="AF2" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="94" t="s">
+      <c r="AG2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="95" t="s">
+      <c r="AH2" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="90" t="s">
+      <c r="AI2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" s="90" t="s">
+      <c r="AJ2" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="90" t="s">
+      <c r="AK2" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="AL2" s="90" t="s">
+      <c r="AL2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="AM2" s="90" t="s">
+      <c r="AM2" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="AN2" s="91" t="s">
+      <c r="AN2" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" s="91" t="s">
+      <c r="AO2" s="75" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="15.75">
-      <c r="A3" s="56">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63">
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50">
         <v>30</v>
       </c>
-      <c r="J3" s="63">
-        <v>0</v>
-      </c>
-      <c r="K3" s="61">
+      <c r="J3" s="50">
+        <v>0</v>
+      </c>
+      <c r="K3" s="49">
         <v>4</v>
       </c>
-      <c r="L3" s="55">
-        <v>0</v>
-      </c>
-      <c r="M3" s="55">
+      <c r="L3" s="43">
+        <v>0</v>
+      </c>
+      <c r="M3" s="43">
         <v>9120</v>
       </c>
-      <c r="N3" s="55">
+      <c r="N3" s="43">
         <v>2158</v>
       </c>
-      <c r="O3" s="55">
+      <c r="O3" s="43">
         <f t="shared" ref="O3" si="0">ROUND(M3/30*I3,0)</f>
         <v>9120</v>
       </c>
-      <c r="P3" s="55">
+      <c r="P3" s="43">
         <f t="shared" ref="P3" si="1">ROUND(N3/30*I3,0)</f>
         <v>2158</v>
       </c>
-      <c r="Q3" s="55">
+      <c r="Q3" s="43">
         <f t="shared" ref="Q3" si="2">ROUND(O3+P3,0)</f>
         <v>11278</v>
       </c>
-      <c r="R3" s="55">
+      <c r="R3" s="43">
         <v>1450</v>
       </c>
-      <c r="S3" s="55">
+      <c r="S3" s="43">
         <v>200</v>
       </c>
-      <c r="T3" s="55">
+      <c r="T3" s="43">
         <v>1948</v>
       </c>
-      <c r="U3" s="55">
+      <c r="U3" s="43">
         <f t="shared" ref="U3" si="3">ROUND(R3/30*I3,0)</f>
         <v>1450</v>
       </c>
-      <c r="V3" s="55">
+      <c r="V3" s="43">
         <f t="shared" ref="V3" si="4">ROUND(S3/30*I3,0)</f>
         <v>200</v>
       </c>
-      <c r="W3" s="55">
-        <v>0</v>
-      </c>
-      <c r="X3" s="55">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="55">
+      <c r="W3" s="43">
+        <v>0</v>
+      </c>
+      <c r="X3" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="43">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="50">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="43">
         <f t="shared" ref="AA3" si="5">ROUND(T3/30*I3,0)</f>
         <v>1948</v>
       </c>
-      <c r="AB3" s="55">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="55">
+      <c r="AB3" s="43">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="43">
         <f>Q3+U3+V3+W3+X3+Y3+Z3+AA3</f>
         <v>14876</v>
       </c>
-      <c r="AD3" s="55">
+      <c r="AD3" s="43">
         <f t="shared" ref="AD3" si="6">ROUND(Q3*10%,0)</f>
         <v>1128</v>
       </c>
-      <c r="AE3" s="55">
+      <c r="AE3" s="43">
         <f t="shared" ref="AE3" si="7">ROUND(Q3*0.75%,0)</f>
         <v>85</v>
       </c>
-      <c r="AF3" s="55">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="55">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="55">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="55">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="55">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="55">
+      <c r="AF3" s="43">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="43">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="43">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="43">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="43">
         <f t="shared" ref="AL3" si="8">AD3+AE3+AK3+AJ3+AI3+AH3+AG3+AF3</f>
         <v>1213</v>
       </c>
-      <c r="AM3" s="55">
+      <c r="AM3" s="43">
         <f t="shared" ref="AM3" si="9">AC3-AD3-AE3-AF3-AG3-AH3-AI3-AJ3-AK3</f>
         <v>13663</v>
       </c>
-      <c r="AN3" s="96" t="s">
+      <c r="AN3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="AO3" s="96"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="39"/>
+      <c r="AO3" s="80"/>
+      <c r="AQ3" s="2"/>
+      <c r="AS3" s="2"/>
     </row>
     <row r="4" spans="1:47" ht="15.75">
-      <c r="A4" s="56">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
       <c r="AP4" s="9"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="39"/>
+      <c r="AQ4" s="2"/>
+      <c r="AS4" s="2"/>
     </row>
     <row r="5" spans="1:47">
-      <c r="A5" s="56">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="96"/>
-      <c r="AO5" s="96"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="80"/>
       <c r="AP5" s="9"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="40"/>
-      <c r="AS5" s="39"/>
+      <c r="AQ5" s="2"/>
+      <c r="AS5" s="2"/>
     </row>
     <row r="6" spans="1:47">
-      <c r="A6" s="56">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="96"/>
-      <c r="AO6" s="96"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="80"/>
+      <c r="AO6" s="80"/>
       <c r="AP6" s="9"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="39"/>
+      <c r="AQ6" s="2"/>
+      <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:47" ht="15.75">
-      <c r="A7" s="66">
+      <c r="A7" s="53">
         <v>5</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="97"/>
-      <c r="AO7" s="96"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="58"/>
+      <c r="AK7" s="59"/>
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="81"/>
+      <c r="AO7" s="80"/>
       <c r="AP7" s="9"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="40"/>
-      <c r="AS7" s="39"/>
+      <c r="AQ7" s="2"/>
+      <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:47" ht="15.75">
-      <c r="A8" s="66">
+      <c r="A8" s="53">
         <v>6</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="97"/>
-      <c r="AO8" s="96"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="43"/>
+      <c r="AN8" s="81"/>
+      <c r="AO8" s="80"/>
       <c r="AP8" s="9"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="40"/>
-      <c r="AS8" s="39"/>
-    </row>
-    <row r="9" spans="1:47" s="40" customFormat="1">
-      <c r="A9" s="66">
+      <c r="AQ8" s="2"/>
+      <c r="AS8" s="2"/>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9" s="53">
         <v>7</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="72"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="97"/>
-      <c r="AO9" s="96"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="58"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="81"/>
+      <c r="AO9" s="80"/>
       <c r="AP9" s="9"/>
-      <c r="AQ9" s="39"/>
-      <c r="AS9" s="39"/>
-      <c r="AU9" s="39"/>
+      <c r="AQ9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AU9" s="2"/>
     </row>
     <row r="10" spans="1:47" ht="16.5" customHeight="1">
-      <c r="A10" s="66">
+      <c r="A10" s="53">
         <v>8</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="97"/>
-      <c r="AO10" s="96"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="58"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="81"/>
+      <c r="AO10" s="80"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="39"/>
-      <c r="AR10" s="40"/>
-      <c r="AS10" s="39"/>
+      <c r="AQ10" s="2"/>
+      <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
     </row>
-    <row r="11" spans="1:47" s="41" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="66">
+    <row r="11" spans="1:47" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="53">
         <v>9</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="55"/>
-      <c r="AN11" s="97"/>
-      <c r="AO11" s="96"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="81"/>
+      <c r="AO11" s="80"/>
       <c r="AP11" s="10"/>
-      <c r="AQ11" s="39"/>
-      <c r="AS11" s="39"/>
-      <c r="AU11" s="39"/>
-    </row>
-    <row r="12" spans="1:47" s="41" customFormat="1" ht="15.75">
-      <c r="A12" s="66">
+      <c r="AQ11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AU11" s="2"/>
+    </row>
+    <row r="12" spans="1:47" s="3" customFormat="1" ht="15.75">
+      <c r="A12" s="53">
         <v>10</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="72"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="97"/>
-      <c r="AO12" s="96"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="43"/>
+      <c r="AN12" s="81"/>
+      <c r="AO12" s="80"/>
       <c r="AP12" s="10"/>
-      <c r="AQ12" s="39"/>
-      <c r="AS12" s="39"/>
-      <c r="AU12" s="39"/>
+      <c r="AQ12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AU12" s="2"/>
     </row>
     <row r="13" spans="1:47" s="3" customFormat="1" ht="15.75">
-      <c r="A13" s="66">
+      <c r="A13" s="53">
         <v>11</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="73"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="73"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="98"/>
-      <c r="AN13" s="97"/>
-      <c r="AO13" s="99"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="81"/>
+      <c r="AO13" s="83"/>
       <c r="AP13" s="10"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="39"/>
+      <c r="AQ13" s="2"/>
+      <c r="AS13" s="2"/>
       <c r="AU13" s="2"/>
     </row>
-    <row r="14" spans="1:47" s="41" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="66">
+    <row r="14" spans="1:47" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="53">
         <v>12</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="73"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="83"/>
-      <c r="AI14" s="83"/>
-      <c r="AJ14" s="83"/>
-      <c r="AK14" s="83"/>
-      <c r="AL14" s="83"/>
-      <c r="AM14" s="100"/>
-      <c r="AN14" s="101"/>
-      <c r="AO14" s="102"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="67"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="67"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="67"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="85"/>
+      <c r="AO14" s="86"/>
       <c r="AP14" s="10"/>
-      <c r="AQ14" s="39"/>
-      <c r="AS14" s="39"/>
-      <c r="AU14" s="39"/>
-    </row>
-    <row r="15" spans="1:47" s="41" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="66">
+      <c r="AQ14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AU14" s="2"/>
+    </row>
+    <row r="15" spans="1:47" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="53">
         <v>13</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="73"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="73"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="83"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="83"/>
-      <c r="AI15" s="83"/>
-      <c r="AJ15" s="83"/>
-      <c r="AK15" s="83"/>
-      <c r="AL15" s="83"/>
-      <c r="AM15" s="100"/>
-      <c r="AN15" s="101"/>
-      <c r="AO15" s="102"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="67"/>
+      <c r="AL15" s="67"/>
+      <c r="AM15" s="84"/>
+      <c r="AN15" s="85"/>
+      <c r="AO15" s="86"/>
       <c r="AP15" s="10"/>
-      <c r="AQ15" s="39"/>
-      <c r="AS15" s="39"/>
-      <c r="AU15" s="39"/>
+      <c r="AQ15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AU15" s="2"/>
     </row>
     <row r="16" spans="1:47" s="3" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A16" s="66">
+      <c r="A16" s="53">
         <v>14</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="83"/>
-      <c r="AI16" s="83"/>
-      <c r="AJ16" s="83"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="83"/>
-      <c r="AM16" s="100"/>
-      <c r="AN16" s="101"/>
-      <c r="AO16" s="102"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="67"/>
+      <c r="AJ16" s="67"/>
+      <c r="AK16" s="67"/>
+      <c r="AL16" s="67"/>
+      <c r="AM16" s="84"/>
+      <c r="AN16" s="85"/>
+      <c r="AO16" s="86"/>
       <c r="AP16" s="10"/>
-      <c r="AQ16" s="39" t="s">
+      <c r="AQ16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="39"/>
+      <c r="AS16" s="2"/>
       <c r="AU16" s="2"/>
     </row>
-    <row r="17" spans="1:41" s="11" customFormat="1" ht="18.75" thickBot="1">
-      <c r="A17" s="142" t="s">
+    <row r="17" spans="1:41" s="3" customFormat="1" ht="18.75" thickBot="1">
+      <c r="A17" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="84">
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="68">
         <f t="shared" ref="M17:AM17" si="10">SUM(M3:M16)</f>
         <v>9120</v>
       </c>
-      <c r="N17" s="85">
+      <c r="N17" s="69">
         <f t="shared" si="10"/>
         <v>2158</v>
       </c>
-      <c r="O17" s="86">
+      <c r="O17" s="70">
         <f t="shared" si="10"/>
         <v>9120</v>
       </c>
-      <c r="P17" s="86">
+      <c r="P17" s="70">
         <f t="shared" si="10"/>
         <v>2158</v>
       </c>
-      <c r="Q17" s="86">
+      <c r="Q17" s="70">
         <f t="shared" si="10"/>
         <v>11278</v>
       </c>
-      <c r="R17" s="86">
+      <c r="R17" s="70">
         <f t="shared" si="10"/>
         <v>1450</v>
       </c>
-      <c r="S17" s="86">
+      <c r="S17" s="70">
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="T17" s="86">
+      <c r="T17" s="70">
         <f t="shared" si="10"/>
         <v>1948</v>
       </c>
-      <c r="U17" s="86">
+      <c r="U17" s="70">
         <f t="shared" si="10"/>
         <v>1450</v>
       </c>
-      <c r="V17" s="86">
+      <c r="V17" s="70">
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="W17" s="86">
+      <c r="W17" s="70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X17" s="86">
+      <c r="X17" s="70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="86">
+      <c r="Y17" s="70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="86">
+      <c r="Z17" s="70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="86">
+      <c r="AA17" s="70">
         <f t="shared" si="10"/>
         <v>1948</v>
       </c>
-      <c r="AB17" s="86">
+      <c r="AB17" s="70">
         <f>SUM(AB3:AB16)</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="86">
+      <c r="AC17" s="70">
         <f t="shared" si="10"/>
         <v>14876</v>
       </c>
-      <c r="AD17" s="86">
+      <c r="AD17" s="70">
         <f t="shared" si="10"/>
         <v>1128</v>
       </c>
-      <c r="AE17" s="86">
+      <c r="AE17" s="70">
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="AF17" s="86">
+      <c r="AF17" s="70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="86">
+      <c r="AG17" s="70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH17" s="86">
+      <c r="AH17" s="70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="86">
+      <c r="AI17" s="70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AJ17" s="86">
+      <c r="AJ17" s="70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="86">
+      <c r="AK17" s="70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="86">
+      <c r="AL17" s="70">
         <f t="shared" si="10"/>
         <v>1213</v>
       </c>
-      <c r="AM17" s="86">
+      <c r="AM17" s="70">
         <f t="shared" si="10"/>
         <v>13663</v>
       </c>
-      <c r="AN17" s="86"/>
-      <c r="AO17" s="87"/>
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="71"/>
     </row>
     <row r="19" spans="1:41">
       <c r="I19"/>
@@ -3624,7 +3603,7 @@
     <mergeCell ref="A17:L17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN65540:AN65552 AN131076:AN131088 AN196612:AN196624 AN262148:AN262160 AN327684:AN327696 AN393220:AN393232 AN458756:AN458768 AN524292:AN524304 AN589828:AN589840 AN655364:AN655376 AN720900:AN720912 AN786436:AN786448 AN851972:AN851984 AN917508:AN917520 AN983044:AN983056 WWU983044:WWU983056 WMY983044:WMY983056 WDC983044:WDC983056 VTG983044:VTG983056 VJK983044:VJK983056 UZO983044:UZO983056 UPS983044:UPS983056 UFW983044:UFW983056 TWA983044:TWA983056 TME983044:TME983056 TCI983044:TCI983056 SSM983044:SSM983056 SIQ983044:SIQ983056 RYU983044:RYU983056 ROY983044:ROY983056 RFC983044:RFC983056 QVG983044:QVG983056 QLK983044:QLK983056 QBO983044:QBO983056 PRS983044:PRS983056 PHW983044:PHW983056 OYA983044:OYA983056 OOE983044:OOE983056 OEI983044:OEI983056 NUM983044:NUM983056 NKQ983044:NKQ983056 NAU983044:NAU983056 MQY983044:MQY983056 MHC983044:MHC983056 LXG983044:LXG983056 LNK983044:LNK983056 LDO983044:LDO983056 KTS983044:KTS983056 KJW983044:KJW983056 KAA983044:KAA983056 JQE983044:JQE983056 JGI983044:JGI983056 IWM983044:IWM983056 IMQ983044:IMQ983056 ICU983044:ICU983056 HSY983044:HSY983056 HJC983044:HJC983056 GZG983044:GZG983056 GPK983044:GPK983056 GFO983044:GFO983056 FVS983044:FVS983056 FLW983044:FLW983056 FCA983044:FCA983056 ESE983044:ESE983056 EII983044:EII983056 DYM983044:DYM983056 DOQ983044:DOQ983056 DEU983044:DEU983056 CUY983044:CUY983056 CLC983044:CLC983056 CBG983044:CBG983056 BRK983044:BRK983056 BHO983044:BHO983056 AXS983044:AXS983056 ANW983044:ANW983056 AEA983044:AEA983056 UE983044:UE983056 KI983044:KI983056 WWU917508:WWU917520 WMY917508:WMY917520 WDC917508:WDC917520 VTG917508:VTG917520 VJK917508:VJK917520 UZO917508:UZO917520 UPS917508:UPS917520 UFW917508:UFW917520 TWA917508:TWA917520 TME917508:TME917520 TCI917508:TCI917520 SSM917508:SSM917520 SIQ917508:SIQ917520 RYU917508:RYU917520 ROY917508:ROY917520 RFC917508:RFC917520 QVG917508:QVG917520 QLK917508:QLK917520 QBO917508:QBO917520 PRS917508:PRS917520 PHW917508:PHW917520 OYA917508:OYA917520 OOE917508:OOE917520 OEI917508:OEI917520 NUM917508:NUM917520 NKQ917508:NKQ917520 NAU917508:NAU917520 MQY917508:MQY917520 MHC917508:MHC917520 LXG917508:LXG917520 LNK917508:LNK917520 LDO917508:LDO917520 KTS917508:KTS917520 KJW917508:KJW917520 KAA917508:KAA917520 JQE917508:JQE917520 JGI917508:JGI917520 IWM917508:IWM917520 IMQ917508:IMQ917520 ICU917508:ICU917520 HSY917508:HSY917520 HJC917508:HJC917520 GZG917508:GZG917520 GPK917508:GPK917520 GFO917508:GFO917520 FVS917508:FVS917520 FLW917508:FLW917520 FCA917508:FCA917520 ESE917508:ESE917520 EII917508:EII917520 DYM917508:DYM917520 DOQ917508:DOQ917520 DEU917508:DEU917520 CUY917508:CUY917520 CLC917508:CLC917520 CBG917508:CBG917520 BRK917508:BRK917520 BHO917508:BHO917520 AXS917508:AXS917520 ANW917508:ANW917520 AEA917508:AEA917520 UE917508:UE917520 KI917508:KI917520 WWU851972:WWU851984 WMY851972:WMY851984 WDC851972:WDC851984 VTG851972:VTG851984 VJK851972:VJK851984 UZO851972:UZO851984 UPS851972:UPS851984 UFW851972:UFW851984 TWA851972:TWA851984 TME851972:TME851984 TCI851972:TCI851984 SSM851972:SSM851984 SIQ851972:SIQ851984 RYU851972:RYU851984 ROY851972:ROY851984 RFC851972:RFC851984 QVG851972:QVG851984 QLK851972:QLK851984 QBO851972:QBO851984 PRS851972:PRS851984 PHW851972:PHW851984 OYA851972:OYA851984 OOE851972:OOE851984 OEI851972:OEI851984 NUM851972:NUM851984 NKQ851972:NKQ851984 NAU851972:NAU851984 MQY851972:MQY851984 MHC851972:MHC851984 LXG851972:LXG851984 LNK851972:LNK851984 LDO851972:LDO851984 KTS851972:KTS851984 KJW851972:KJW851984 KAA851972:KAA851984 JQE851972:JQE851984 JGI851972:JGI851984 IWM851972:IWM851984 IMQ851972:IMQ851984 ICU851972:ICU851984 HSY851972:HSY851984 HJC851972:HJC851984 GZG851972:GZG851984 GPK851972:GPK851984 GFO851972:GFO851984 FVS851972:FVS851984 FLW851972:FLW851984 FCA851972:FCA851984 ESE851972:ESE851984 EII851972:EII851984 DYM851972:DYM851984 DOQ851972:DOQ851984 DEU851972:DEU851984 CUY851972:CUY851984 CLC851972:CLC851984 CBG851972:CBG851984 BRK851972:BRK851984 BHO851972:BHO851984 AXS851972:AXS851984 ANW851972:ANW851984 AEA851972:AEA851984 UE851972:UE851984 KI851972:KI851984 WWU786436:WWU786448 WMY786436:WMY786448 WDC786436:WDC786448 VTG786436:VTG786448 VJK786436:VJK786448 UZO786436:UZO786448 UPS786436:UPS786448 UFW786436:UFW786448 TWA786436:TWA786448 TME786436:TME786448 TCI786436:TCI786448 SSM786436:SSM786448 SIQ786436:SIQ786448 RYU786436:RYU786448 ROY786436:ROY786448 RFC786436:RFC786448 QVG786436:QVG786448 QLK786436:QLK786448 QBO786436:QBO786448 PRS786436:PRS786448 PHW786436:PHW786448 OYA786436:OYA786448 OOE786436:OOE786448 OEI786436:OEI786448 NUM786436:NUM786448 NKQ786436:NKQ786448 NAU786436:NAU786448 MQY786436:MQY786448 MHC786436:MHC786448 LXG786436:LXG786448 LNK786436:LNK786448 LDO786436:LDO786448 KTS786436:KTS786448 KJW786436:KJW786448 KAA786436:KAA786448 JQE786436:JQE786448 JGI786436:JGI786448 IWM786436:IWM786448 IMQ786436:IMQ786448 ICU786436:ICU786448 HSY786436:HSY786448 HJC786436:HJC786448 GZG786436:GZG786448 GPK786436:GPK786448 GFO786436:GFO786448 FVS786436:FVS786448 FLW786436:FLW786448 FCA786436:FCA786448 ESE786436:ESE786448 EII786436:EII786448 DYM786436:DYM786448 DOQ786436:DOQ786448 DEU786436:DEU786448 CUY786436:CUY786448 CLC786436:CLC786448 CBG786436:CBG786448 BRK786436:BRK786448 BHO786436:BHO786448 AXS786436:AXS786448 ANW786436:ANW786448 AEA786436:AEA786448 UE786436:UE786448 KI786436:KI786448 WWU720900:WWU720912 WMY720900:WMY720912 WDC720900:WDC720912 VTG720900:VTG720912 VJK720900:VJK720912 UZO720900:UZO720912 UPS720900:UPS720912 UFW720900:UFW720912 TWA720900:TWA720912 TME720900:TME720912 TCI720900:TCI720912 SSM720900:SSM720912 SIQ720900:SIQ720912 RYU720900:RYU720912 ROY720900:ROY720912 RFC720900:RFC720912 QVG720900:QVG720912 QLK720900:QLK720912 QBO720900:QBO720912 PRS720900:PRS720912 PHW720900:PHW720912 OYA720900:OYA720912 OOE720900:OOE720912 OEI720900:OEI720912 NUM720900:NUM720912 NKQ720900:NKQ720912 NAU720900:NAU720912 MQY720900:MQY720912 MHC720900:MHC720912 LXG720900:LXG720912 LNK720900:LNK720912 LDO720900:LDO720912 KTS720900:KTS720912 KJW720900:KJW720912 KAA720900:KAA720912 JQE720900:JQE720912 JGI720900:JGI720912 IWM720900:IWM720912 IMQ720900:IMQ720912 ICU720900:ICU720912 HSY720900:HSY720912 HJC720900:HJC720912 GZG720900:GZG720912 GPK720900:GPK720912 GFO720900:GFO720912 FVS720900:FVS720912 FLW720900:FLW720912 FCA720900:FCA720912 ESE720900:ESE720912 EII720900:EII720912 DYM720900:DYM720912 DOQ720900:DOQ720912 DEU720900:DEU720912 CUY720900:CUY720912 CLC720900:CLC720912 CBG720900:CBG720912 BRK720900:BRK720912 BHO720900:BHO720912 AXS720900:AXS720912 ANW720900:ANW720912 AEA720900:AEA720912 UE720900:UE720912 KI720900:KI720912 WWU655364:WWU655376 WMY655364:WMY655376 WDC655364:WDC655376 VTG655364:VTG655376 VJK655364:VJK655376 UZO655364:UZO655376 UPS655364:UPS655376 UFW655364:UFW655376 TWA655364:TWA655376 TME655364:TME655376 TCI655364:TCI655376 SSM655364:SSM655376 SIQ655364:SIQ655376 RYU655364:RYU655376 ROY655364:ROY655376 RFC655364:RFC655376 QVG655364:QVG655376 QLK655364:QLK655376 QBO655364:QBO655376 PRS655364:PRS655376 PHW655364:PHW655376 OYA655364:OYA655376 OOE655364:OOE655376 OEI655364:OEI655376 NUM655364:NUM655376 NKQ655364:NKQ655376 NAU655364:NAU655376 MQY655364:MQY655376 MHC655364:MHC655376 LXG655364:LXG655376 LNK655364:LNK655376 LDO655364:LDO655376 KTS655364:KTS655376 KJW655364:KJW655376 KAA655364:KAA655376 JQE655364:JQE655376 JGI655364:JGI655376 IWM655364:IWM655376 IMQ655364:IMQ655376 ICU655364:ICU655376 HSY655364:HSY655376 HJC655364:HJC655376 GZG655364:GZG655376 GPK655364:GPK655376 GFO655364:GFO655376 FVS655364:FVS655376 FLW655364:FLW655376 FCA655364:FCA655376 ESE655364:ESE655376 EII655364:EII655376 DYM655364:DYM655376 DOQ655364:DOQ655376 DEU655364:DEU655376 CUY655364:CUY655376 CLC655364:CLC655376 CBG655364:CBG655376 BRK655364:BRK655376 BHO655364:BHO655376 AXS655364:AXS655376 ANW655364:ANW655376 AEA655364:AEA655376 UE655364:UE655376 KI655364:KI655376 WWU589828:WWU589840 WMY589828:WMY589840 WDC589828:WDC589840 VTG589828:VTG589840 VJK589828:VJK589840 UZO589828:UZO589840 UPS589828:UPS589840 UFW589828:UFW589840 TWA589828:TWA589840 TME589828:TME589840 TCI589828:TCI589840 SSM589828:SSM589840 SIQ589828:SIQ589840 RYU589828:RYU589840 ROY589828:ROY589840 RFC589828:RFC589840 QVG589828:QVG589840 QLK589828:QLK589840 QBO589828:QBO589840 PRS589828:PRS589840 PHW589828:PHW589840 OYA589828:OYA589840 OOE589828:OOE589840 OEI589828:OEI589840 NUM589828:NUM589840 NKQ589828:NKQ589840 NAU589828:NAU589840 MQY589828:MQY589840 MHC589828:MHC589840 LXG589828:LXG589840 LNK589828:LNK589840 LDO589828:LDO589840 KTS589828:KTS589840 KJW589828:KJW589840 KAA589828:KAA589840 JQE589828:JQE589840 JGI589828:JGI589840 IWM589828:IWM589840 IMQ589828:IMQ589840 ICU589828:ICU589840 HSY589828:HSY589840 HJC589828:HJC589840 GZG589828:GZG589840 GPK589828:GPK589840 GFO589828:GFO589840 FVS589828:FVS589840 FLW589828:FLW589840 FCA589828:FCA589840 ESE589828:ESE589840 EII589828:EII589840 DYM589828:DYM589840 DOQ589828:DOQ589840 DEU589828:DEU589840 CUY589828:CUY589840 CLC589828:CLC589840 CBG589828:CBG589840 BRK589828:BRK589840 BHO589828:BHO589840 AXS589828:AXS589840 ANW589828:ANW589840 AEA589828:AEA589840 UE589828:UE589840 KI589828:KI589840 WWU524292:WWU524304 WMY524292:WMY524304 WDC524292:WDC524304 VTG524292:VTG524304 VJK524292:VJK524304 UZO524292:UZO524304 UPS524292:UPS524304 UFW524292:UFW524304 TWA524292:TWA524304 TME524292:TME524304 TCI524292:TCI524304 SSM524292:SSM524304 SIQ524292:SIQ524304 RYU524292:RYU524304 ROY524292:ROY524304 RFC524292:RFC524304 QVG524292:QVG524304 QLK524292:QLK524304 QBO524292:QBO524304 PRS524292:PRS524304 PHW524292:PHW524304 OYA524292:OYA524304 OOE524292:OOE524304 OEI524292:OEI524304 NUM524292:NUM524304 NKQ524292:NKQ524304 NAU524292:NAU524304 MQY524292:MQY524304 MHC524292:MHC524304 LXG524292:LXG524304 LNK524292:LNK524304 LDO524292:LDO524304 KTS524292:KTS524304 KJW524292:KJW524304 KAA524292:KAA524304 JQE524292:JQE524304 JGI524292:JGI524304 IWM524292:IWM524304 IMQ524292:IMQ524304 ICU524292:ICU524304 HSY524292:HSY524304 HJC524292:HJC524304 GZG524292:GZG524304 GPK524292:GPK524304 GFO524292:GFO524304 FVS524292:FVS524304 FLW524292:FLW524304 FCA524292:FCA524304 ESE524292:ESE524304 EII524292:EII524304 DYM524292:DYM524304 DOQ524292:DOQ524304 DEU524292:DEU524304 CUY524292:CUY524304 CLC524292:CLC524304 CBG524292:CBG524304 BRK524292:BRK524304 BHO524292:BHO524304 AXS524292:AXS524304 ANW524292:ANW524304 AEA524292:AEA524304 UE524292:UE524304 KI524292:KI524304 WWU458756:WWU458768 WMY458756:WMY458768 WDC458756:WDC458768 VTG458756:VTG458768 VJK458756:VJK458768 UZO458756:UZO458768 UPS458756:UPS458768 UFW458756:UFW458768 TWA458756:TWA458768 TME458756:TME458768 TCI458756:TCI458768 SSM458756:SSM458768 SIQ458756:SIQ458768 RYU458756:RYU458768 ROY458756:ROY458768 RFC458756:RFC458768 QVG458756:QVG458768 QLK458756:QLK458768 QBO458756:QBO458768 PRS458756:PRS458768 PHW458756:PHW458768 OYA458756:OYA458768 OOE458756:OOE458768 OEI458756:OEI458768 NUM458756:NUM458768 NKQ458756:NKQ458768 NAU458756:NAU458768 MQY458756:MQY458768 MHC458756:MHC458768 LXG458756:LXG458768 LNK458756:LNK458768 LDO458756:LDO458768 KTS458756:KTS458768 KJW458756:KJW458768 KAA458756:KAA458768 JQE458756:JQE458768 JGI458756:JGI458768 IWM458756:IWM458768 IMQ458756:IMQ458768 ICU458756:ICU458768 HSY458756:HSY458768 HJC458756:HJC458768 GZG458756:GZG458768 GPK458756:GPK458768 GFO458756:GFO458768 FVS458756:FVS458768 FLW458756:FLW458768 FCA458756:FCA458768 ESE458756:ESE458768 EII458756:EII458768 DYM458756:DYM458768 DOQ458756:DOQ458768 DEU458756:DEU458768 CUY458756:CUY458768 CLC458756:CLC458768 CBG458756:CBG458768 BRK458756:BRK458768 BHO458756:BHO458768 AXS458756:AXS458768 ANW458756:ANW458768 AEA458756:AEA458768 UE458756:UE458768 KI458756:KI458768 WWU393220:WWU393232 WMY393220:WMY393232 WDC393220:WDC393232 VTG393220:VTG393232 VJK393220:VJK393232 UZO393220:UZO393232 UPS393220:UPS393232 UFW393220:UFW393232 TWA393220:TWA393232 TME393220:TME393232 TCI393220:TCI393232 SSM393220:SSM393232 SIQ393220:SIQ393232 RYU393220:RYU393232 ROY393220:ROY393232 RFC393220:RFC393232 QVG393220:QVG393232 QLK393220:QLK393232 QBO393220:QBO393232 PRS393220:PRS393232 PHW393220:PHW393232 OYA393220:OYA393232 OOE393220:OOE393232 OEI393220:OEI393232 NUM393220:NUM393232 NKQ393220:NKQ393232 NAU393220:NAU393232 MQY393220:MQY393232 MHC393220:MHC393232 LXG393220:LXG393232 LNK393220:LNK393232 LDO393220:LDO393232 KTS393220:KTS393232 KJW393220:KJW393232 KAA393220:KAA393232 JQE393220:JQE393232 JGI393220:JGI393232 IWM393220:IWM393232 IMQ393220:IMQ393232 ICU393220:ICU393232 HSY393220:HSY393232 HJC393220:HJC393232 GZG393220:GZG393232 GPK393220:GPK393232 GFO393220:GFO393232 FVS393220:FVS393232 FLW393220:FLW393232 FCA393220:FCA393232 ESE393220:ESE393232 EII393220:EII393232 DYM393220:DYM393232 DOQ393220:DOQ393232 DEU393220:DEU393232 CUY393220:CUY393232 CLC393220:CLC393232 CBG393220:CBG393232 BRK393220:BRK393232 BHO393220:BHO393232 AXS393220:AXS393232 ANW393220:ANW393232 AEA393220:AEA393232 UE393220:UE393232 KI393220:KI393232 WWU327684:WWU327696 WMY327684:WMY327696 WDC327684:WDC327696 VTG327684:VTG327696 VJK327684:VJK327696 UZO327684:UZO327696 UPS327684:UPS327696 UFW327684:UFW327696 TWA327684:TWA327696 TME327684:TME327696 TCI327684:TCI327696 SSM327684:SSM327696 SIQ327684:SIQ327696 RYU327684:RYU327696 ROY327684:ROY327696 RFC327684:RFC327696 QVG327684:QVG327696 QLK327684:QLK327696 QBO327684:QBO327696 PRS327684:PRS327696 PHW327684:PHW327696 OYA327684:OYA327696 OOE327684:OOE327696 OEI327684:OEI327696 NUM327684:NUM327696 NKQ327684:NKQ327696 NAU327684:NAU327696 MQY327684:MQY327696 MHC327684:MHC327696 LXG327684:LXG327696 LNK327684:LNK327696 LDO327684:LDO327696 KTS327684:KTS327696 KJW327684:KJW327696 KAA327684:KAA327696 JQE327684:JQE327696 JGI327684:JGI327696 IWM327684:IWM327696 IMQ327684:IMQ327696 ICU327684:ICU327696 HSY327684:HSY327696 HJC327684:HJC327696 GZG327684:GZG327696 GPK327684:GPK327696 GFO327684:GFO327696 FVS327684:FVS327696 FLW327684:FLW327696 FCA327684:FCA327696 ESE327684:ESE327696 EII327684:EII327696 DYM327684:DYM327696 DOQ327684:DOQ327696 DEU327684:DEU327696 CUY327684:CUY327696 CLC327684:CLC327696 CBG327684:CBG327696 BRK327684:BRK327696 BHO327684:BHO327696 AXS327684:AXS327696 ANW327684:ANW327696 AEA327684:AEA327696 UE327684:UE327696 KI327684:KI327696 WWU262148:WWU262160 WMY262148:WMY262160 WDC262148:WDC262160 VTG262148:VTG262160 VJK262148:VJK262160 UZO262148:UZO262160 UPS262148:UPS262160 UFW262148:UFW262160 TWA262148:TWA262160 TME262148:TME262160 TCI262148:TCI262160 SSM262148:SSM262160 SIQ262148:SIQ262160 RYU262148:RYU262160 ROY262148:ROY262160 RFC262148:RFC262160 QVG262148:QVG262160 QLK262148:QLK262160 QBO262148:QBO262160 PRS262148:PRS262160 PHW262148:PHW262160 OYA262148:OYA262160 OOE262148:OOE262160 OEI262148:OEI262160 NUM262148:NUM262160 NKQ262148:NKQ262160 NAU262148:NAU262160 MQY262148:MQY262160 MHC262148:MHC262160 LXG262148:LXG262160 LNK262148:LNK262160 LDO262148:LDO262160 KTS262148:KTS262160 KJW262148:KJW262160 KAA262148:KAA262160 JQE262148:JQE262160 JGI262148:JGI262160 IWM262148:IWM262160 IMQ262148:IMQ262160 ICU262148:ICU262160 HSY262148:HSY262160 HJC262148:HJC262160 GZG262148:GZG262160 GPK262148:GPK262160 GFO262148:GFO262160 FVS262148:FVS262160 FLW262148:FLW262160 FCA262148:FCA262160 ESE262148:ESE262160 EII262148:EII262160 DYM262148:DYM262160 DOQ262148:DOQ262160 DEU262148:DEU262160 CUY262148:CUY262160 CLC262148:CLC262160 CBG262148:CBG262160 BRK262148:BRK262160 BHO262148:BHO262160 AXS262148:AXS262160 ANW262148:ANW262160 AEA262148:AEA262160 UE262148:UE262160 KI262148:KI262160 WWU196612:WWU196624 WMY196612:WMY196624 WDC196612:WDC196624 VTG196612:VTG196624 VJK196612:VJK196624 UZO196612:UZO196624 UPS196612:UPS196624 UFW196612:UFW196624 TWA196612:TWA196624 TME196612:TME196624 TCI196612:TCI196624 SSM196612:SSM196624 SIQ196612:SIQ196624 RYU196612:RYU196624 ROY196612:ROY196624 RFC196612:RFC196624 QVG196612:QVG196624 QLK196612:QLK196624 QBO196612:QBO196624 PRS196612:PRS196624 PHW196612:PHW196624 OYA196612:OYA196624 OOE196612:OOE196624 OEI196612:OEI196624 NUM196612:NUM196624 NKQ196612:NKQ196624 NAU196612:NAU196624 MQY196612:MQY196624 MHC196612:MHC196624 LXG196612:LXG196624 LNK196612:LNK196624 LDO196612:LDO196624 KTS196612:KTS196624 KJW196612:KJW196624 KAA196612:KAA196624 JQE196612:JQE196624 JGI196612:JGI196624 IWM196612:IWM196624 IMQ196612:IMQ196624 ICU196612:ICU196624 HSY196612:HSY196624 HJC196612:HJC196624 GZG196612:GZG196624 GPK196612:GPK196624 GFO196612:GFO196624 FVS196612:FVS196624 FLW196612:FLW196624 FCA196612:FCA196624 ESE196612:ESE196624 EII196612:EII196624 DYM196612:DYM196624 DOQ196612:DOQ196624 DEU196612:DEU196624 CUY196612:CUY196624 CLC196612:CLC196624 CBG196612:CBG196624 BRK196612:BRK196624 BHO196612:BHO196624 AXS196612:AXS196624 ANW196612:ANW196624 AEA196612:AEA196624 UE196612:UE196624 KI196612:KI196624 WWU131076:WWU131088 WMY131076:WMY131088 WDC131076:WDC131088 VTG131076:VTG131088 VJK131076:VJK131088 UZO131076:UZO131088 UPS131076:UPS131088 UFW131076:UFW131088 TWA131076:TWA131088 TME131076:TME131088 TCI131076:TCI131088 SSM131076:SSM131088 SIQ131076:SIQ131088 RYU131076:RYU131088 ROY131076:ROY131088 RFC131076:RFC131088 QVG131076:QVG131088 QLK131076:QLK131088 QBO131076:QBO131088 PRS131076:PRS131088 PHW131076:PHW131088 OYA131076:OYA131088 OOE131076:OOE131088 OEI131076:OEI131088 NUM131076:NUM131088 NKQ131076:NKQ131088 NAU131076:NAU131088 MQY131076:MQY131088 MHC131076:MHC131088 LXG131076:LXG131088 LNK131076:LNK131088 LDO131076:LDO131088 KTS131076:KTS131088 KJW131076:KJW131088 KAA131076:KAA131088 JQE131076:JQE131088 JGI131076:JGI131088 IWM131076:IWM131088 IMQ131076:IMQ131088 ICU131076:ICU131088 HSY131076:HSY131088 HJC131076:HJC131088 GZG131076:GZG131088 GPK131076:GPK131088 GFO131076:GFO131088 FVS131076:FVS131088 FLW131076:FLW131088 FCA131076:FCA131088 ESE131076:ESE131088 EII131076:EII131088 DYM131076:DYM131088 DOQ131076:DOQ131088 DEU131076:DEU131088 CUY131076:CUY131088 CLC131076:CLC131088 CBG131076:CBG131088 BRK131076:BRK131088 BHO131076:BHO131088 AXS131076:AXS131088 ANW131076:ANW131088 AEA131076:AEA131088 UE131076:UE131088 KI131076:KI131088 WWU65540:WWU65552 WMY65540:WMY65552 WDC65540:WDC65552 VTG65540:VTG65552 VJK65540:VJK65552 UZO65540:UZO65552 UPS65540:UPS65552 UFW65540:UFW65552 TWA65540:TWA65552 TME65540:TME65552 TCI65540:TCI65552 SSM65540:SSM65552 SIQ65540:SIQ65552 RYU65540:RYU65552 ROY65540:ROY65552 RFC65540:RFC65552 QVG65540:QVG65552 QLK65540:QLK65552 QBO65540:QBO65552 PRS65540:PRS65552 PHW65540:PHW65552 OYA65540:OYA65552 OOE65540:OOE65552 OEI65540:OEI65552 NUM65540:NUM65552 NKQ65540:NKQ65552 NAU65540:NAU65552 MQY65540:MQY65552 MHC65540:MHC65552 LXG65540:LXG65552 LNK65540:LNK65552 LDO65540:LDO65552 KTS65540:KTS65552 KJW65540:KJW65552 KAA65540:KAA65552 JQE65540:JQE65552 JGI65540:JGI65552 IWM65540:IWM65552 IMQ65540:IMQ65552 ICU65540:ICU65552 HSY65540:HSY65552 HJC65540:HJC65552 GZG65540:GZG65552 GPK65540:GPK65552 GFO65540:GFO65552 FVS65540:FVS65552 FLW65540:FLW65552 FCA65540:FCA65552 ESE65540:ESE65552 EII65540:EII65552 DYM65540:DYM65552 DOQ65540:DOQ65552 DEU65540:DEU65552 CUY65540:CUY65552 CLC65540:CLC65552 CBG65540:CBG65552 BRK65540:BRK65552 BHO65540:BHO65552 AXS65540:AXS65552 ANW65540:ANW65552 AEA65540:AEA65552 UE65540:UE65552 KI65540:KI65552 AN3:AN16 AEA3:AEA16 ANW3:ANW16 AXS3:AXS16 BHO3:BHO16 BRK3:BRK16 CBG3:CBG16 CLC3:CLC16 CUY3:CUY16 DEU3:DEU16 DOQ3:DOQ16 DYM3:DYM16 EII3:EII16 ESE3:ESE16 FCA3:FCA16 FLW3:FLW16 FVS3:FVS16 GFO3:GFO16 GPK3:GPK16 GZG3:GZG16 HJC3:HJC16 HSY3:HSY16 ICU3:ICU16 IMQ3:IMQ16 IWM3:IWM16 JGI3:JGI16 JQE3:JQE16 KAA3:KAA16 KJW3:KJW16 KTS3:KTS16 LDO3:LDO16 LNK3:LNK16 LXG3:LXG16 MHC3:MHC16 MQY3:MQY16 NAU3:NAU16 NKQ3:NKQ16 NUM3:NUM16 OEI3:OEI16 OOE3:OOE16 OYA3:OYA16 PHW3:PHW16 PRS3:PRS16 QBO3:QBO16 QLK3:QLK16 QVG3:QVG16 RFC3:RFC16 ROY3:ROY16 RYU3:RYU16 SIQ3:SIQ16 SSM3:SSM16 TCI3:TCI16 TME3:TME16 TWA3:TWA16 UFW3:UFW16 UPS3:UPS16 UZO3:UZO16 VJK3:VJK16 VTG3:VTG16 WDC3:WDC16 WMY3:WMY16 WWU3:WWU16 UE3:UE16 KI3:KI16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN65540:AN65552 AN131076:AN131088 AN196612:AN196624 AN262148:AN262160 AN327684:AN327696 AN393220:AN393232 AN458756:AN458768 AN524292:AN524304 AN589828:AN589840 AN655364:AN655376 AN720900:AN720912 AN786436:AN786448 AN851972:AN851984 AN917508:AN917520 AN983044:AN983056 WWU983044:WWU983056 WMY983044:WMY983056 WDC983044:WDC983056 VTG983044:VTG983056 VJK983044:VJK983056 UZO983044:UZO983056 UPS983044:UPS983056 UFW983044:UFW983056 TWA983044:TWA983056 TME983044:TME983056 TCI983044:TCI983056 SSM983044:SSM983056 SIQ983044:SIQ983056 RYU983044:RYU983056 ROY983044:ROY983056 RFC983044:RFC983056 QVG983044:QVG983056 QLK983044:QLK983056 QBO983044:QBO983056 PRS983044:PRS983056 PHW983044:PHW983056 OYA983044:OYA983056 OOE983044:OOE983056 OEI983044:OEI983056 NUM983044:NUM983056 NKQ983044:NKQ983056 NAU983044:NAU983056 MQY983044:MQY983056 MHC983044:MHC983056 LXG983044:LXG983056 LNK983044:LNK983056 LDO983044:LDO983056 KTS983044:KTS983056 KJW983044:KJW983056 KAA983044:KAA983056 JQE983044:JQE983056 JGI983044:JGI983056 IWM983044:IWM983056 IMQ983044:IMQ983056 ICU983044:ICU983056 HSY983044:HSY983056 HJC983044:HJC983056 GZG983044:GZG983056 GPK983044:GPK983056 GFO983044:GFO983056 FVS983044:FVS983056 FLW983044:FLW983056 FCA983044:FCA983056 ESE983044:ESE983056 EII983044:EII983056 DYM983044:DYM983056 DOQ983044:DOQ983056 DEU983044:DEU983056 CUY983044:CUY983056 CLC983044:CLC983056 CBG983044:CBG983056 BRK983044:BRK983056 BHO983044:BHO983056 AXS983044:AXS983056 ANW983044:ANW983056 AEA983044:AEA983056 UE983044:UE983056 KI983044:KI983056 WWU917508:WWU917520 WMY917508:WMY917520 WDC917508:WDC917520 VTG917508:VTG917520 VJK917508:VJK917520 UZO917508:UZO917520 UPS917508:UPS917520 UFW917508:UFW917520 TWA917508:TWA917520 TME917508:TME917520 TCI917508:TCI917520 SSM917508:SSM917520 SIQ917508:SIQ917520 RYU917508:RYU917520 ROY917508:ROY917520 RFC917508:RFC917520 QVG917508:QVG917520 QLK917508:QLK917520 QBO917508:QBO917520 PRS917508:PRS917520 PHW917508:PHW917520 OYA917508:OYA917520 OOE917508:OOE917520 OEI917508:OEI917520 NUM917508:NUM917520 NKQ917508:NKQ917520 NAU917508:NAU917520 MQY917508:MQY917520 MHC917508:MHC917520 LXG917508:LXG917520 LNK917508:LNK917520 LDO917508:LDO917520 KTS917508:KTS917520 KJW917508:KJW917520 KAA917508:KAA917520 JQE917508:JQE917520 JGI917508:JGI917520 IWM917508:IWM917520 IMQ917508:IMQ917520 ICU917508:ICU917520 HSY917508:HSY917520 HJC917508:HJC917520 GZG917508:GZG917520 GPK917508:GPK917520 GFO917508:GFO917520 FVS917508:FVS917520 FLW917508:FLW917520 FCA917508:FCA917520 ESE917508:ESE917520 EII917508:EII917520 DYM917508:DYM917520 DOQ917508:DOQ917520 DEU917508:DEU917520 CUY917508:CUY917520 CLC917508:CLC917520 CBG917508:CBG917520 BRK917508:BRK917520 BHO917508:BHO917520 AXS917508:AXS917520 ANW917508:ANW917520 AEA917508:AEA917520 UE917508:UE917520 KI917508:KI917520 WWU851972:WWU851984 WMY851972:WMY851984 WDC851972:WDC851984 VTG851972:VTG851984 VJK851972:VJK851984 UZO851972:UZO851984 UPS851972:UPS851984 UFW851972:UFW851984 TWA851972:TWA851984 TME851972:TME851984 TCI851972:TCI851984 SSM851972:SSM851984 SIQ851972:SIQ851984 RYU851972:RYU851984 ROY851972:ROY851984 RFC851972:RFC851984 QVG851972:QVG851984 QLK851972:QLK851984 QBO851972:QBO851984 PRS851972:PRS851984 PHW851972:PHW851984 OYA851972:OYA851984 OOE851972:OOE851984 OEI851972:OEI851984 NUM851972:NUM851984 NKQ851972:NKQ851984 NAU851972:NAU851984 MQY851972:MQY851984 MHC851972:MHC851984 LXG851972:LXG851984 LNK851972:LNK851984 LDO851972:LDO851984 KTS851972:KTS851984 KJW851972:KJW851984 KAA851972:KAA851984 JQE851972:JQE851984 JGI851972:JGI851984 IWM851972:IWM851984 IMQ851972:IMQ851984 ICU851972:ICU851984 HSY851972:HSY851984 HJC851972:HJC851984 GZG851972:GZG851984 GPK851972:GPK851984 GFO851972:GFO851984 FVS851972:FVS851984 FLW851972:FLW851984 FCA851972:FCA851984 ESE851972:ESE851984 EII851972:EII851984 DYM851972:DYM851984 DOQ851972:DOQ851984 DEU851972:DEU851984 CUY851972:CUY851984 CLC851972:CLC851984 CBG851972:CBG851984 BRK851972:BRK851984 BHO851972:BHO851984 AXS851972:AXS851984 ANW851972:ANW851984 AEA851972:AEA851984 UE851972:UE851984 KI851972:KI851984 WWU786436:WWU786448 WMY786436:WMY786448 WDC786436:WDC786448 VTG786436:VTG786448 VJK786436:VJK786448 UZO786436:UZO786448 UPS786436:UPS786448 UFW786436:UFW786448 TWA786436:TWA786448 TME786436:TME786448 TCI786436:TCI786448 SSM786436:SSM786448 SIQ786436:SIQ786448 RYU786436:RYU786448 ROY786436:ROY786448 RFC786436:RFC786448 QVG786436:QVG786448 QLK786436:QLK786448 QBO786436:QBO786448 PRS786436:PRS786448 PHW786436:PHW786448 OYA786436:OYA786448 OOE786436:OOE786448 OEI786436:OEI786448 NUM786436:NUM786448 NKQ786436:NKQ786448 NAU786436:NAU786448 MQY786436:MQY786448 MHC786436:MHC786448 LXG786436:LXG786448 LNK786436:LNK786448 LDO786436:LDO786448 KTS786436:KTS786448 KJW786436:KJW786448 KAA786436:KAA786448 JQE786436:JQE786448 JGI786436:JGI786448 IWM786436:IWM786448 IMQ786436:IMQ786448 ICU786436:ICU786448 HSY786436:HSY786448 HJC786436:HJC786448 GZG786436:GZG786448 GPK786436:GPK786448 GFO786436:GFO786448 FVS786436:FVS786448 FLW786436:FLW786448 FCA786436:FCA786448 ESE786436:ESE786448 EII786436:EII786448 DYM786436:DYM786448 DOQ786436:DOQ786448 DEU786436:DEU786448 CUY786436:CUY786448 CLC786436:CLC786448 CBG786436:CBG786448 BRK786436:BRK786448 BHO786436:BHO786448 AXS786436:AXS786448 ANW786436:ANW786448 AEA786436:AEA786448 UE786436:UE786448 KI786436:KI786448 WWU720900:WWU720912 WMY720900:WMY720912 WDC720900:WDC720912 VTG720900:VTG720912 VJK720900:VJK720912 UZO720900:UZO720912 UPS720900:UPS720912 UFW720900:UFW720912 TWA720900:TWA720912 TME720900:TME720912 TCI720900:TCI720912 SSM720900:SSM720912 SIQ720900:SIQ720912 RYU720900:RYU720912 ROY720900:ROY720912 RFC720900:RFC720912 QVG720900:QVG720912 QLK720900:QLK720912 QBO720900:QBO720912 PRS720900:PRS720912 PHW720900:PHW720912 OYA720900:OYA720912 OOE720900:OOE720912 OEI720900:OEI720912 NUM720900:NUM720912 NKQ720900:NKQ720912 NAU720900:NAU720912 MQY720900:MQY720912 MHC720900:MHC720912 LXG720900:LXG720912 LNK720900:LNK720912 LDO720900:LDO720912 KTS720900:KTS720912 KJW720900:KJW720912 KAA720900:KAA720912 JQE720900:JQE720912 JGI720900:JGI720912 IWM720900:IWM720912 IMQ720900:IMQ720912 ICU720900:ICU720912 HSY720900:HSY720912 HJC720900:HJC720912 GZG720900:GZG720912 GPK720900:GPK720912 GFO720900:GFO720912 FVS720900:FVS720912 FLW720900:FLW720912 FCA720900:FCA720912 ESE720900:ESE720912 EII720900:EII720912 DYM720900:DYM720912 DOQ720900:DOQ720912 DEU720900:DEU720912 CUY720900:CUY720912 CLC720900:CLC720912 CBG720900:CBG720912 BRK720900:BRK720912 BHO720900:BHO720912 AXS720900:AXS720912 ANW720900:ANW720912 AEA720900:AEA720912 UE720900:UE720912 KI720900:KI720912 WWU655364:WWU655376 WMY655364:WMY655376 WDC655364:WDC655376 VTG655364:VTG655376 VJK655364:VJK655376 UZO655364:UZO655376 UPS655364:UPS655376 UFW655364:UFW655376 TWA655364:TWA655376 TME655364:TME655376 TCI655364:TCI655376 SSM655364:SSM655376 SIQ655364:SIQ655376 RYU655364:RYU655376 ROY655364:ROY655376 RFC655364:RFC655376 QVG655364:QVG655376 QLK655364:QLK655376 QBO655364:QBO655376 PRS655364:PRS655376 PHW655364:PHW655376 OYA655364:OYA655376 OOE655364:OOE655376 OEI655364:OEI655376 NUM655364:NUM655376 NKQ655364:NKQ655376 NAU655364:NAU655376 MQY655364:MQY655376 MHC655364:MHC655376 LXG655364:LXG655376 LNK655364:LNK655376 LDO655364:LDO655376 KTS655364:KTS655376 KJW655364:KJW655376 KAA655364:KAA655376 JQE655364:JQE655376 JGI655364:JGI655376 IWM655364:IWM655376 IMQ655364:IMQ655376 ICU655364:ICU655376 HSY655364:HSY655376 HJC655364:HJC655376 GZG655364:GZG655376 GPK655364:GPK655376 GFO655364:GFO655376 FVS655364:FVS655376 FLW655364:FLW655376 FCA655364:FCA655376 ESE655364:ESE655376 EII655364:EII655376 DYM655364:DYM655376 DOQ655364:DOQ655376 DEU655364:DEU655376 CUY655364:CUY655376 CLC655364:CLC655376 CBG655364:CBG655376 BRK655364:BRK655376 BHO655364:BHO655376 AXS655364:AXS655376 ANW655364:ANW655376 AEA655364:AEA655376 UE655364:UE655376 KI655364:KI655376 WWU589828:WWU589840 WMY589828:WMY589840 WDC589828:WDC589840 VTG589828:VTG589840 VJK589828:VJK589840 UZO589828:UZO589840 UPS589828:UPS589840 UFW589828:UFW589840 TWA589828:TWA589840 TME589828:TME589840 TCI589828:TCI589840 SSM589828:SSM589840 SIQ589828:SIQ589840 RYU589828:RYU589840 ROY589828:ROY589840 RFC589828:RFC589840 QVG589828:QVG589840 QLK589828:QLK589840 QBO589828:QBO589840 PRS589828:PRS589840 PHW589828:PHW589840 OYA589828:OYA589840 OOE589828:OOE589840 OEI589828:OEI589840 NUM589828:NUM589840 NKQ589828:NKQ589840 NAU589828:NAU589840 MQY589828:MQY589840 MHC589828:MHC589840 LXG589828:LXG589840 LNK589828:LNK589840 LDO589828:LDO589840 KTS589828:KTS589840 KJW589828:KJW589840 KAA589828:KAA589840 JQE589828:JQE589840 JGI589828:JGI589840 IWM589828:IWM589840 IMQ589828:IMQ589840 ICU589828:ICU589840 HSY589828:HSY589840 HJC589828:HJC589840 GZG589828:GZG589840 GPK589828:GPK589840 GFO589828:GFO589840 FVS589828:FVS589840 FLW589828:FLW589840 FCA589828:FCA589840 ESE589828:ESE589840 EII589828:EII589840 DYM589828:DYM589840 DOQ589828:DOQ589840 DEU589828:DEU589840 CUY589828:CUY589840 CLC589828:CLC589840 CBG589828:CBG589840 BRK589828:BRK589840 BHO589828:BHO589840 AXS589828:AXS589840 ANW589828:ANW589840 AEA589828:AEA589840 UE589828:UE589840 KI589828:KI589840 WWU524292:WWU524304 WMY524292:WMY524304 WDC524292:WDC524304 VTG524292:VTG524304 VJK524292:VJK524304 UZO524292:UZO524304 UPS524292:UPS524304 UFW524292:UFW524304 TWA524292:TWA524304 TME524292:TME524304 TCI524292:TCI524304 SSM524292:SSM524304 SIQ524292:SIQ524304 RYU524292:RYU524304 ROY524292:ROY524304 RFC524292:RFC524304 QVG524292:QVG524304 QLK524292:QLK524304 QBO524292:QBO524304 PRS524292:PRS524304 PHW524292:PHW524304 OYA524292:OYA524304 OOE524292:OOE524304 OEI524292:OEI524304 NUM524292:NUM524304 NKQ524292:NKQ524304 NAU524292:NAU524304 MQY524292:MQY524304 MHC524292:MHC524304 LXG524292:LXG524304 LNK524292:LNK524304 LDO524292:LDO524304 KTS524292:KTS524304 KJW524292:KJW524304 KAA524292:KAA524304 JQE524292:JQE524304 JGI524292:JGI524304 IWM524292:IWM524304 IMQ524292:IMQ524304 ICU524292:ICU524304 HSY524292:HSY524304 HJC524292:HJC524304 GZG524292:GZG524304 GPK524292:GPK524304 GFO524292:GFO524304 FVS524292:FVS524304 FLW524292:FLW524304 FCA524292:FCA524304 ESE524292:ESE524304 EII524292:EII524304 DYM524292:DYM524304 DOQ524292:DOQ524304 DEU524292:DEU524304 CUY524292:CUY524304 CLC524292:CLC524304 CBG524292:CBG524304 BRK524292:BRK524304 BHO524292:BHO524304 AXS524292:AXS524304 ANW524292:ANW524304 AEA524292:AEA524304 UE524292:UE524304 KI524292:KI524304 WWU458756:WWU458768 WMY458756:WMY458768 WDC458756:WDC458768 VTG458756:VTG458768 VJK458756:VJK458768 UZO458756:UZO458768 UPS458756:UPS458768 UFW458756:UFW458768 TWA458756:TWA458768 TME458756:TME458768 TCI458756:TCI458768 SSM458756:SSM458768 SIQ458756:SIQ458768 RYU458756:RYU458768 ROY458756:ROY458768 RFC458756:RFC458768 QVG458756:QVG458768 QLK458756:QLK458768 QBO458756:QBO458768 PRS458756:PRS458768 PHW458756:PHW458768 OYA458756:OYA458768 OOE458756:OOE458768 OEI458756:OEI458768 NUM458756:NUM458768 NKQ458756:NKQ458768 NAU458756:NAU458768 MQY458756:MQY458768 MHC458756:MHC458768 LXG458756:LXG458768 LNK458756:LNK458768 LDO458756:LDO458768 KTS458756:KTS458768 KJW458756:KJW458768 KAA458756:KAA458768 JQE458756:JQE458768 JGI458756:JGI458768 IWM458756:IWM458768 IMQ458756:IMQ458768 ICU458756:ICU458768 HSY458756:HSY458768 HJC458756:HJC458768 GZG458756:GZG458768 GPK458756:GPK458768 GFO458756:GFO458768 FVS458756:FVS458768 FLW458756:FLW458768 FCA458756:FCA458768 ESE458756:ESE458768 EII458756:EII458768 DYM458756:DYM458768 DOQ458756:DOQ458768 DEU458756:DEU458768 CUY458756:CUY458768 CLC458756:CLC458768 CBG458756:CBG458768 BRK458756:BRK458768 BHO458756:BHO458768 AXS458756:AXS458768 ANW458756:ANW458768 AEA458756:AEA458768 UE458756:UE458768 KI458756:KI458768 WWU393220:WWU393232 WMY393220:WMY393232 WDC393220:WDC393232 VTG393220:VTG393232 VJK393220:VJK393232 UZO393220:UZO393232 UPS393220:UPS393232 UFW393220:UFW393232 TWA393220:TWA393232 TME393220:TME393232 TCI393220:TCI393232 SSM393220:SSM393232 SIQ393220:SIQ393232 RYU393220:RYU393232 ROY393220:ROY393232 RFC393220:RFC393232 QVG393220:QVG393232 QLK393220:QLK393232 QBO393220:QBO393232 PRS393220:PRS393232 PHW393220:PHW393232 OYA393220:OYA393232 OOE393220:OOE393232 OEI393220:OEI393232 NUM393220:NUM393232 NKQ393220:NKQ393232 NAU393220:NAU393232 MQY393220:MQY393232 MHC393220:MHC393232 LXG393220:LXG393232 LNK393220:LNK393232 LDO393220:LDO393232 KTS393220:KTS393232 KJW393220:KJW393232 KAA393220:KAA393232 JQE393220:JQE393232 JGI393220:JGI393232 IWM393220:IWM393232 IMQ393220:IMQ393232 ICU393220:ICU393232 HSY393220:HSY393232 HJC393220:HJC393232 GZG393220:GZG393232 GPK393220:GPK393232 GFO393220:GFO393232 FVS393220:FVS393232 FLW393220:FLW393232 FCA393220:FCA393232 ESE393220:ESE393232 EII393220:EII393232 DYM393220:DYM393232 DOQ393220:DOQ393232 DEU393220:DEU393232 CUY393220:CUY393232 CLC393220:CLC393232 CBG393220:CBG393232 BRK393220:BRK393232 BHO393220:BHO393232 AXS393220:AXS393232 ANW393220:ANW393232 AEA393220:AEA393232 UE393220:UE393232 KI393220:KI393232 WWU327684:WWU327696 WMY327684:WMY327696 WDC327684:WDC327696 VTG327684:VTG327696 VJK327684:VJK327696 UZO327684:UZO327696 UPS327684:UPS327696 UFW327684:UFW327696 TWA327684:TWA327696 TME327684:TME327696 TCI327684:TCI327696 SSM327684:SSM327696 SIQ327684:SIQ327696 RYU327684:RYU327696 ROY327684:ROY327696 RFC327684:RFC327696 QVG327684:QVG327696 QLK327684:QLK327696 QBO327684:QBO327696 PRS327684:PRS327696 PHW327684:PHW327696 OYA327684:OYA327696 OOE327684:OOE327696 OEI327684:OEI327696 NUM327684:NUM327696 NKQ327684:NKQ327696 NAU327684:NAU327696 MQY327684:MQY327696 MHC327684:MHC327696 LXG327684:LXG327696 LNK327684:LNK327696 LDO327684:LDO327696 KTS327684:KTS327696 KJW327684:KJW327696 KAA327684:KAA327696 JQE327684:JQE327696 JGI327684:JGI327696 IWM327684:IWM327696 IMQ327684:IMQ327696 ICU327684:ICU327696 HSY327684:HSY327696 HJC327684:HJC327696 GZG327684:GZG327696 GPK327684:GPK327696 GFO327684:GFO327696 FVS327684:FVS327696 FLW327684:FLW327696 FCA327684:FCA327696 ESE327684:ESE327696 EII327684:EII327696 DYM327684:DYM327696 DOQ327684:DOQ327696 DEU327684:DEU327696 CUY327684:CUY327696 CLC327684:CLC327696 CBG327684:CBG327696 BRK327684:BRK327696 BHO327684:BHO327696 AXS327684:AXS327696 ANW327684:ANW327696 AEA327684:AEA327696 UE327684:UE327696 KI327684:KI327696 WWU262148:WWU262160 WMY262148:WMY262160 WDC262148:WDC262160 VTG262148:VTG262160 VJK262148:VJK262160 UZO262148:UZO262160 UPS262148:UPS262160 UFW262148:UFW262160 TWA262148:TWA262160 TME262148:TME262160 TCI262148:TCI262160 SSM262148:SSM262160 SIQ262148:SIQ262160 RYU262148:RYU262160 ROY262148:ROY262160 RFC262148:RFC262160 QVG262148:QVG262160 QLK262148:QLK262160 QBO262148:QBO262160 PRS262148:PRS262160 PHW262148:PHW262160 OYA262148:OYA262160 OOE262148:OOE262160 OEI262148:OEI262160 NUM262148:NUM262160 NKQ262148:NKQ262160 NAU262148:NAU262160 MQY262148:MQY262160 MHC262148:MHC262160 LXG262148:LXG262160 LNK262148:LNK262160 LDO262148:LDO262160 KTS262148:KTS262160 KJW262148:KJW262160 KAA262148:KAA262160 JQE262148:JQE262160 JGI262148:JGI262160 IWM262148:IWM262160 IMQ262148:IMQ262160 ICU262148:ICU262160 HSY262148:HSY262160 HJC262148:HJC262160 GZG262148:GZG262160 GPK262148:GPK262160 GFO262148:GFO262160 FVS262148:FVS262160 FLW262148:FLW262160 FCA262148:FCA262160 ESE262148:ESE262160 EII262148:EII262160 DYM262148:DYM262160 DOQ262148:DOQ262160 DEU262148:DEU262160 CUY262148:CUY262160 CLC262148:CLC262160 CBG262148:CBG262160 BRK262148:BRK262160 BHO262148:BHO262160 AXS262148:AXS262160 ANW262148:ANW262160 AEA262148:AEA262160 UE262148:UE262160 KI262148:KI262160 WWU196612:WWU196624 WMY196612:WMY196624 WDC196612:WDC196624 VTG196612:VTG196624 VJK196612:VJK196624 UZO196612:UZO196624 UPS196612:UPS196624 UFW196612:UFW196624 TWA196612:TWA196624 TME196612:TME196624 TCI196612:TCI196624 SSM196612:SSM196624 SIQ196612:SIQ196624 RYU196612:RYU196624 ROY196612:ROY196624 RFC196612:RFC196624 QVG196612:QVG196624 QLK196612:QLK196624 QBO196612:QBO196624 PRS196612:PRS196624 PHW196612:PHW196624 OYA196612:OYA196624 OOE196612:OOE196624 OEI196612:OEI196624 NUM196612:NUM196624 NKQ196612:NKQ196624 NAU196612:NAU196624 MQY196612:MQY196624 MHC196612:MHC196624 LXG196612:LXG196624 LNK196612:LNK196624 LDO196612:LDO196624 KTS196612:KTS196624 KJW196612:KJW196624 KAA196612:KAA196624 JQE196612:JQE196624 JGI196612:JGI196624 IWM196612:IWM196624 IMQ196612:IMQ196624 ICU196612:ICU196624 HSY196612:HSY196624 HJC196612:HJC196624 GZG196612:GZG196624 GPK196612:GPK196624 GFO196612:GFO196624 FVS196612:FVS196624 FLW196612:FLW196624 FCA196612:FCA196624 ESE196612:ESE196624 EII196612:EII196624 DYM196612:DYM196624 DOQ196612:DOQ196624 DEU196612:DEU196624 CUY196612:CUY196624 CLC196612:CLC196624 CBG196612:CBG196624 BRK196612:BRK196624 BHO196612:BHO196624 AXS196612:AXS196624 ANW196612:ANW196624 AEA196612:AEA196624 UE196612:UE196624 KI196612:KI196624 WWU131076:WWU131088 WMY131076:WMY131088 WDC131076:WDC131088 VTG131076:VTG131088 VJK131076:VJK131088 UZO131076:UZO131088 UPS131076:UPS131088 UFW131076:UFW131088 TWA131076:TWA131088 TME131076:TME131088 TCI131076:TCI131088 SSM131076:SSM131088 SIQ131076:SIQ131088 RYU131076:RYU131088 ROY131076:ROY131088 RFC131076:RFC131088 QVG131076:QVG131088 QLK131076:QLK131088 QBO131076:QBO131088 PRS131076:PRS131088 PHW131076:PHW131088 OYA131076:OYA131088 OOE131076:OOE131088 OEI131076:OEI131088 NUM131076:NUM131088 NKQ131076:NKQ131088 NAU131076:NAU131088 MQY131076:MQY131088 MHC131076:MHC131088 LXG131076:LXG131088 LNK131076:LNK131088 LDO131076:LDO131088 KTS131076:KTS131088 KJW131076:KJW131088 KAA131076:KAA131088 JQE131076:JQE131088 JGI131076:JGI131088 IWM131076:IWM131088 IMQ131076:IMQ131088 ICU131076:ICU131088 HSY131076:HSY131088 HJC131076:HJC131088 GZG131076:GZG131088 GPK131076:GPK131088 GFO131076:GFO131088 FVS131076:FVS131088 FLW131076:FLW131088 FCA131076:FCA131088 ESE131076:ESE131088 EII131076:EII131088 DYM131076:DYM131088 DOQ131076:DOQ131088 DEU131076:DEU131088 CUY131076:CUY131088 CLC131076:CLC131088 CBG131076:CBG131088 BRK131076:BRK131088 BHO131076:BHO131088 AXS131076:AXS131088 ANW131076:ANW131088 AEA131076:AEA131088 UE131076:UE131088 KI131076:KI131088 WWU65540:WWU65552 WMY65540:WMY65552 WDC65540:WDC65552 VTG65540:VTG65552 VJK65540:VJK65552 UZO65540:UZO65552 UPS65540:UPS65552 UFW65540:UFW65552 TWA65540:TWA65552 TME65540:TME65552 TCI65540:TCI65552 SSM65540:SSM65552 SIQ65540:SIQ65552 RYU65540:RYU65552 ROY65540:ROY65552 RFC65540:RFC65552 QVG65540:QVG65552 QLK65540:QLK65552 QBO65540:QBO65552 PRS65540:PRS65552 PHW65540:PHW65552 OYA65540:OYA65552 OOE65540:OOE65552 OEI65540:OEI65552 NUM65540:NUM65552 NKQ65540:NKQ65552 NAU65540:NAU65552 MQY65540:MQY65552 MHC65540:MHC65552 LXG65540:LXG65552 LNK65540:LNK65552 LDO65540:LDO65552 KTS65540:KTS65552 KJW65540:KJW65552 KAA65540:KAA65552 JQE65540:JQE65552 JGI65540:JGI65552 IWM65540:IWM65552 IMQ65540:IMQ65552 ICU65540:ICU65552 HSY65540:HSY65552 HJC65540:HJC65552 GZG65540:GZG65552 GPK65540:GPK65552 GFO65540:GFO65552 FVS65540:FVS65552 FLW65540:FLW65552 FCA65540:FCA65552 ESE65540:ESE65552 EII65540:EII65552 DYM65540:DYM65552 DOQ65540:DOQ65552 DEU65540:DEU65552 CUY65540:CUY65552 CLC65540:CLC65552 CBG65540:CBG65552 BRK65540:BRK65552 BHO65540:BHO65552 AXS65540:AXS65552 ANW65540:ANW65552 AEA65540:AEA65552 UE65540:UE65552 KI65540:KI65552 AN3:AN16 AEA3:AEA16 ANW3:ANW16 AXS3:AXS16 BHO3:BHO16 BRK3:BRK16 CBG3:CBG16 CLC3:CLC16 CUY3:CUY16 DEU3:DEU16 DOQ3:DOQ16 DYM3:DYM16 EII3:EII16 ESE3:ESE16 FCA3:FCA16 FLW3:FLW16 FVS3:FVS16 GFO3:GFO16 GPK3:GPK16 GZG3:GZG16 HJC3:HJC16 HSY3:HSY16 ICU3:ICU16 IMQ3:IMQ16 IWM3:IWM16 JGI3:JGI16 JQE3:JQE16 KAA3:KAA16 KJW3:KJW16 KTS3:KTS16 LDO3:LDO16 LNK3:LNK16 LXG3:LXG16 MHC3:MHC16 MQY3:MQY16 NAU3:NAU16 NKQ3:NKQ16 NUM3:NUM16 OEI3:OEI16 OOE3:OOE16 OYA3:OYA16 PHW3:PHW16 PRS3:PRS16 QBO3:QBO16 QLK3:QLK16 QVG3:QVG16 RFC3:RFC16 ROY3:ROY16 RYU3:RYU16 SIQ3:SIQ16 SSM3:SSM16 TCI3:TCI16 TME3:TME16 TWA3:TWA16 UFW3:UFW16 UPS3:UPS16 UZO3:UZO16 VJK3:VJK16 VTG3:VTG16 WDC3:WDC16 WMY3:WMY16 WWU3:WWU16 UE3:UE16 KI3:KI16" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Bank, Cash"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3634,7 +3613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3668,639 +3647,639 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25.5">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="146"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="127"/>
     </row>
     <row r="2" spans="1:25" ht="30">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="106" t="s">
+      <c r="K2" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="105" t="s">
+      <c r="M2" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="105" t="s">
+      <c r="O2" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="105" t="s">
+      <c r="P2" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="105" t="s">
+      <c r="Q2" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="106" t="s">
+      <c r="R2" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="106" t="s">
+      <c r="S2" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="105" t="s">
+      <c r="T2" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="105" t="s">
+      <c r="U2" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="107" t="s">
+      <c r="V2" s="90" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="104">
+      <c r="A3" s="88">
         <v>1</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105">
+      <c r="E3" s="89"/>
+      <c r="F3" s="89">
         <v>30</v>
       </c>
-      <c r="G3" s="108">
+      <c r="G3" s="91">
         <v>9120</v>
       </c>
-      <c r="H3" s="108">
+      <c r="H3" s="91">
         <v>2158</v>
       </c>
-      <c r="I3" s="109">
+      <c r="I3" s="91">
         <v>1450</v>
       </c>
-      <c r="J3" s="109">
+      <c r="J3" s="91">
         <v>200</v>
       </c>
-      <c r="K3" s="109">
+      <c r="K3" s="91">
         <v>1948</v>
       </c>
-      <c r="L3" s="55">
-        <v>0</v>
-      </c>
-      <c r="M3" s="108">
+      <c r="L3" s="43">
+        <v>0</v>
+      </c>
+      <c r="M3" s="91">
         <v>14876</v>
       </c>
-      <c r="N3" s="108">
+      <c r="N3" s="91">
         <v>1128</v>
       </c>
-      <c r="O3" s="108">
+      <c r="O3" s="91">
         <v>85</v>
       </c>
-      <c r="P3" s="108">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="108">
-        <v>0</v>
-      </c>
-      <c r="R3" s="108">
-        <v>0</v>
-      </c>
-      <c r="S3" s="108">
-        <v>0</v>
-      </c>
-      <c r="T3" s="108">
+      <c r="P3" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="91">
+        <v>0</v>
+      </c>
+      <c r="R3" s="91">
+        <v>0</v>
+      </c>
+      <c r="S3" s="91">
+        <v>0</v>
+      </c>
+      <c r="T3" s="91">
         <v>1213</v>
       </c>
-      <c r="U3" s="108">
+      <c r="U3" s="91">
         <v>13663</v>
       </c>
-      <c r="V3" s="110"/>
+      <c r="V3" s="92"/>
       <c r="W3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="104">
+      <c r="A4" s="88">
         <v>2</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="110"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
       <c r="W4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="104">
+      <c r="A5" s="88">
         <v>3</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="110"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="104">
+      <c r="A6" s="88">
         <v>4</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="110"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="92"/>
       <c r="W6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="104">
+      <c r="A7" s="88">
         <v>5</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="110"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="92"/>
       <c r="W7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="104">
+      <c r="A8" s="88">
         <v>6</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="110"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="92"/>
       <c r="W8" s="8"/>
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="104">
+      <c r="A9" s="88">
         <v>7</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="110"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="92"/>
       <c r="W9" s="8"/>
       <c r="Y9" s="8"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="104">
+      <c r="A10" s="88">
         <v>8</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="110"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="92"/>
       <c r="W10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="104">
+      <c r="A11" s="88">
         <v>9</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="112"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="92"/>
       <c r="W11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="104">
+      <c r="A12" s="88">
         <v>10</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="110"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="92"/>
       <c r="W12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="104">
+      <c r="A13" s="88">
         <v>11</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="110"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="8"/>
       <c r="Y13" s="8"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="104">
+      <c r="A14" s="88">
         <v>12</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="110"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="104">
+      <c r="A15" s="88">
         <v>13</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="114"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="8"/>
       <c r="Y15" s="8"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="104">
+      <c r="A16" s="88">
         <v>14</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="114"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="95"/>
       <c r="W16" s="8"/>
       <c r="Y16" s="8"/>
     </row>
     <row r="17" spans="1:25" s="6" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A17" s="118"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121">
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102">
         <f t="shared" ref="G17:U17" si="0">SUM(G3:G16)</f>
         <v>9120</v>
       </c>
-      <c r="H17" s="121">
+      <c r="H17" s="102">
         <f t="shared" si="0"/>
         <v>2158</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="102">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="J17" s="121">
+      <c r="J17" s="102">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="K17" s="121">
+      <c r="K17" s="102">
         <f t="shared" si="0"/>
         <v>1948</v>
       </c>
-      <c r="L17" s="121">
+      <c r="L17" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="121">
+      <c r="M17" s="102">
         <f t="shared" si="0"/>
         <v>14876</v>
       </c>
-      <c r="N17" s="121">
+      <c r="N17" s="102">
         <f t="shared" si="0"/>
         <v>1128</v>
       </c>
-      <c r="O17" s="121">
+      <c r="O17" s="102">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="P17" s="121">
+      <c r="P17" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="122">
+      <c r="Q17" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R17" s="122">
+      <c r="R17" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S17" s="122">
+      <c r="S17" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T17" s="121">
+      <c r="T17" s="102">
         <f t="shared" si="0"/>
         <v>1213</v>
       </c>
-      <c r="U17" s="121">
+      <c r="U17" s="102">
         <f t="shared" si="0"/>
         <v>13663</v>
       </c>
-      <c r="V17" s="123"/>
+      <c r="V17" s="104"/>
       <c r="Y17" s="8"/>
     </row>
     <row r="19" spans="1:25">
       <c r="I19" s="8"/>
-      <c r="J19" s="51"/>
+      <c r="J19" s="42"/>
       <c r="P19" s="8"/>
       <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:25">
       <c r="I20" s="8"/>
-      <c r="J20" s="51"/>
+      <c r="J20" s="42"/>
       <c r="P20" s="8"/>
       <c r="U20" s="8"/>
     </row>
     <row r="21" spans="1:25">
       <c r="I21" s="8"/>
-      <c r="J21" s="51"/>
-      <c r="O21" s="51"/>
+      <c r="J21" s="42"/>
+      <c r="O21" s="42"/>
       <c r="P21" s="8"/>
       <c r="U21" s="8"/>
     </row>
     <row r="22" spans="1:25">
       <c r="I22" s="8"/>
-      <c r="J22" s="51"/>
+      <c r="J22" s="42"/>
       <c r="P22" s="8"/>
       <c r="U22" s="8"/>
     </row>
     <row r="23" spans="1:25">
       <c r="I23" s="8"/>
-      <c r="J23" s="51"/>
+      <c r="J23" s="42"/>
       <c r="P23" s="8"/>
       <c r="U23" s="8"/>
     </row>
     <row r="24" spans="1:25">
       <c r="I24" s="8"/>
-      <c r="J24" s="51"/>
+      <c r="J24" s="42"/>
       <c r="P24" s="8"/>
       <c r="U24" s="8"/>
     </row>
     <row r="25" spans="1:25">
       <c r="I25" s="8"/>
-      <c r="J25" s="51"/>
+      <c r="J25" s="42"/>
       <c r="P25" s="8"/>
       <c r="U25" s="8"/>
     </row>
@@ -4315,7 +4294,7 @@
     <mergeCell ref="A1:V1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JB65545:JB65552 E65545:E65552 E131081:E131088 E196617:E196624 E262153:E262160 E327689:E327696 E393225:E393232 E458761:E458768 E524297:E524304 E589833:E589840 E655369:E655376 E720905:E720912 E786441:E786448 E851977:E851984 E917513:E917520 E983049:E983056 WVN983049:WVN983056 WLR983049:WLR983056 WBV983049:WBV983056 VRZ983049:VRZ983056 VID983049:VID983056 UYH983049:UYH983056 UOL983049:UOL983056 UEP983049:UEP983056 TUT983049:TUT983056 TKX983049:TKX983056 TBB983049:TBB983056 SRF983049:SRF983056 SHJ983049:SHJ983056 RXN983049:RXN983056 RNR983049:RNR983056 RDV983049:RDV983056 QTZ983049:QTZ983056 QKD983049:QKD983056 QAH983049:QAH983056 PQL983049:PQL983056 PGP983049:PGP983056 OWT983049:OWT983056 OMX983049:OMX983056 ODB983049:ODB983056 NTF983049:NTF983056 NJJ983049:NJJ983056 MZN983049:MZN983056 MPR983049:MPR983056 MFV983049:MFV983056 LVZ983049:LVZ983056 LMD983049:LMD983056 LCH983049:LCH983056 KSL983049:KSL983056 KIP983049:KIP983056 JYT983049:JYT983056 JOX983049:JOX983056 JFB983049:JFB983056 IVF983049:IVF983056 ILJ983049:ILJ983056 IBN983049:IBN983056 HRR983049:HRR983056 HHV983049:HHV983056 GXZ983049:GXZ983056 GOD983049:GOD983056 GEH983049:GEH983056 FUL983049:FUL983056 FKP983049:FKP983056 FAT983049:FAT983056 EQX983049:EQX983056 EHB983049:EHB983056 DXF983049:DXF983056 DNJ983049:DNJ983056 DDN983049:DDN983056 CTR983049:CTR983056 CJV983049:CJV983056 BZZ983049:BZZ983056 BQD983049:BQD983056 BGH983049:BGH983056 AWL983049:AWL983056 AMP983049:AMP983056 ACT983049:ACT983056 SX983049:SX983056 JB983049:JB983056 WVN917513:WVN917520 WLR917513:WLR917520 WBV917513:WBV917520 VRZ917513:VRZ917520 VID917513:VID917520 UYH917513:UYH917520 UOL917513:UOL917520 UEP917513:UEP917520 TUT917513:TUT917520 TKX917513:TKX917520 TBB917513:TBB917520 SRF917513:SRF917520 SHJ917513:SHJ917520 RXN917513:RXN917520 RNR917513:RNR917520 RDV917513:RDV917520 QTZ917513:QTZ917520 QKD917513:QKD917520 QAH917513:QAH917520 PQL917513:PQL917520 PGP917513:PGP917520 OWT917513:OWT917520 OMX917513:OMX917520 ODB917513:ODB917520 NTF917513:NTF917520 NJJ917513:NJJ917520 MZN917513:MZN917520 MPR917513:MPR917520 MFV917513:MFV917520 LVZ917513:LVZ917520 LMD917513:LMD917520 LCH917513:LCH917520 KSL917513:KSL917520 KIP917513:KIP917520 JYT917513:JYT917520 JOX917513:JOX917520 JFB917513:JFB917520 IVF917513:IVF917520 ILJ917513:ILJ917520 IBN917513:IBN917520 HRR917513:HRR917520 HHV917513:HHV917520 GXZ917513:GXZ917520 GOD917513:GOD917520 GEH917513:GEH917520 FUL917513:FUL917520 FKP917513:FKP917520 FAT917513:FAT917520 EQX917513:EQX917520 EHB917513:EHB917520 DXF917513:DXF917520 DNJ917513:DNJ917520 DDN917513:DDN917520 CTR917513:CTR917520 CJV917513:CJV917520 BZZ917513:BZZ917520 BQD917513:BQD917520 BGH917513:BGH917520 AWL917513:AWL917520 AMP917513:AMP917520 ACT917513:ACT917520 SX917513:SX917520 JB917513:JB917520 WVN851977:WVN851984 WLR851977:WLR851984 WBV851977:WBV851984 VRZ851977:VRZ851984 VID851977:VID851984 UYH851977:UYH851984 UOL851977:UOL851984 UEP851977:UEP851984 TUT851977:TUT851984 TKX851977:TKX851984 TBB851977:TBB851984 SRF851977:SRF851984 SHJ851977:SHJ851984 RXN851977:RXN851984 RNR851977:RNR851984 RDV851977:RDV851984 QTZ851977:QTZ851984 QKD851977:QKD851984 QAH851977:QAH851984 PQL851977:PQL851984 PGP851977:PGP851984 OWT851977:OWT851984 OMX851977:OMX851984 ODB851977:ODB851984 NTF851977:NTF851984 NJJ851977:NJJ851984 MZN851977:MZN851984 MPR851977:MPR851984 MFV851977:MFV851984 LVZ851977:LVZ851984 LMD851977:LMD851984 LCH851977:LCH851984 KSL851977:KSL851984 KIP851977:KIP851984 JYT851977:JYT851984 JOX851977:JOX851984 JFB851977:JFB851984 IVF851977:IVF851984 ILJ851977:ILJ851984 IBN851977:IBN851984 HRR851977:HRR851984 HHV851977:HHV851984 GXZ851977:GXZ851984 GOD851977:GOD851984 GEH851977:GEH851984 FUL851977:FUL851984 FKP851977:FKP851984 FAT851977:FAT851984 EQX851977:EQX851984 EHB851977:EHB851984 DXF851977:DXF851984 DNJ851977:DNJ851984 DDN851977:DDN851984 CTR851977:CTR851984 CJV851977:CJV851984 BZZ851977:BZZ851984 BQD851977:BQD851984 BGH851977:BGH851984 AWL851977:AWL851984 AMP851977:AMP851984 ACT851977:ACT851984 SX851977:SX851984 JB851977:JB851984 WVN786441:WVN786448 WLR786441:WLR786448 WBV786441:WBV786448 VRZ786441:VRZ786448 VID786441:VID786448 UYH786441:UYH786448 UOL786441:UOL786448 UEP786441:UEP786448 TUT786441:TUT786448 TKX786441:TKX786448 TBB786441:TBB786448 SRF786441:SRF786448 SHJ786441:SHJ786448 RXN786441:RXN786448 RNR786441:RNR786448 RDV786441:RDV786448 QTZ786441:QTZ786448 QKD786441:QKD786448 QAH786441:QAH786448 PQL786441:PQL786448 PGP786441:PGP786448 OWT786441:OWT786448 OMX786441:OMX786448 ODB786441:ODB786448 NTF786441:NTF786448 NJJ786441:NJJ786448 MZN786441:MZN786448 MPR786441:MPR786448 MFV786441:MFV786448 LVZ786441:LVZ786448 LMD786441:LMD786448 LCH786441:LCH786448 KSL786441:KSL786448 KIP786441:KIP786448 JYT786441:JYT786448 JOX786441:JOX786448 JFB786441:JFB786448 IVF786441:IVF786448 ILJ786441:ILJ786448 IBN786441:IBN786448 HRR786441:HRR786448 HHV786441:HHV786448 GXZ786441:GXZ786448 GOD786441:GOD786448 GEH786441:GEH786448 FUL786441:FUL786448 FKP786441:FKP786448 FAT786441:FAT786448 EQX786441:EQX786448 EHB786441:EHB786448 DXF786441:DXF786448 DNJ786441:DNJ786448 DDN786441:DDN786448 CTR786441:CTR786448 CJV786441:CJV786448 BZZ786441:BZZ786448 BQD786441:BQD786448 BGH786441:BGH786448 AWL786441:AWL786448 AMP786441:AMP786448 ACT786441:ACT786448 SX786441:SX786448 JB786441:JB786448 WVN720905:WVN720912 WLR720905:WLR720912 WBV720905:WBV720912 VRZ720905:VRZ720912 VID720905:VID720912 UYH720905:UYH720912 UOL720905:UOL720912 UEP720905:UEP720912 TUT720905:TUT720912 TKX720905:TKX720912 TBB720905:TBB720912 SRF720905:SRF720912 SHJ720905:SHJ720912 RXN720905:RXN720912 RNR720905:RNR720912 RDV720905:RDV720912 QTZ720905:QTZ720912 QKD720905:QKD720912 QAH720905:QAH720912 PQL720905:PQL720912 PGP720905:PGP720912 OWT720905:OWT720912 OMX720905:OMX720912 ODB720905:ODB720912 NTF720905:NTF720912 NJJ720905:NJJ720912 MZN720905:MZN720912 MPR720905:MPR720912 MFV720905:MFV720912 LVZ720905:LVZ720912 LMD720905:LMD720912 LCH720905:LCH720912 KSL720905:KSL720912 KIP720905:KIP720912 JYT720905:JYT720912 JOX720905:JOX720912 JFB720905:JFB720912 IVF720905:IVF720912 ILJ720905:ILJ720912 IBN720905:IBN720912 HRR720905:HRR720912 HHV720905:HHV720912 GXZ720905:GXZ720912 GOD720905:GOD720912 GEH720905:GEH720912 FUL720905:FUL720912 FKP720905:FKP720912 FAT720905:FAT720912 EQX720905:EQX720912 EHB720905:EHB720912 DXF720905:DXF720912 DNJ720905:DNJ720912 DDN720905:DDN720912 CTR720905:CTR720912 CJV720905:CJV720912 BZZ720905:BZZ720912 BQD720905:BQD720912 BGH720905:BGH720912 AWL720905:AWL720912 AMP720905:AMP720912 ACT720905:ACT720912 SX720905:SX720912 JB720905:JB720912 WVN655369:WVN655376 WLR655369:WLR655376 WBV655369:WBV655376 VRZ655369:VRZ655376 VID655369:VID655376 UYH655369:UYH655376 UOL655369:UOL655376 UEP655369:UEP655376 TUT655369:TUT655376 TKX655369:TKX655376 TBB655369:TBB655376 SRF655369:SRF655376 SHJ655369:SHJ655376 RXN655369:RXN655376 RNR655369:RNR655376 RDV655369:RDV655376 QTZ655369:QTZ655376 QKD655369:QKD655376 QAH655369:QAH655376 PQL655369:PQL655376 PGP655369:PGP655376 OWT655369:OWT655376 OMX655369:OMX655376 ODB655369:ODB655376 NTF655369:NTF655376 NJJ655369:NJJ655376 MZN655369:MZN655376 MPR655369:MPR655376 MFV655369:MFV655376 LVZ655369:LVZ655376 LMD655369:LMD655376 LCH655369:LCH655376 KSL655369:KSL655376 KIP655369:KIP655376 JYT655369:JYT655376 JOX655369:JOX655376 JFB655369:JFB655376 IVF655369:IVF655376 ILJ655369:ILJ655376 IBN655369:IBN655376 HRR655369:HRR655376 HHV655369:HHV655376 GXZ655369:GXZ655376 GOD655369:GOD655376 GEH655369:GEH655376 FUL655369:FUL655376 FKP655369:FKP655376 FAT655369:FAT655376 EQX655369:EQX655376 EHB655369:EHB655376 DXF655369:DXF655376 DNJ655369:DNJ655376 DDN655369:DDN655376 CTR655369:CTR655376 CJV655369:CJV655376 BZZ655369:BZZ655376 BQD655369:BQD655376 BGH655369:BGH655376 AWL655369:AWL655376 AMP655369:AMP655376 ACT655369:ACT655376 SX655369:SX655376 JB655369:JB655376 WVN589833:WVN589840 WLR589833:WLR589840 WBV589833:WBV589840 VRZ589833:VRZ589840 VID589833:VID589840 UYH589833:UYH589840 UOL589833:UOL589840 UEP589833:UEP589840 TUT589833:TUT589840 TKX589833:TKX589840 TBB589833:TBB589840 SRF589833:SRF589840 SHJ589833:SHJ589840 RXN589833:RXN589840 RNR589833:RNR589840 RDV589833:RDV589840 QTZ589833:QTZ589840 QKD589833:QKD589840 QAH589833:QAH589840 PQL589833:PQL589840 PGP589833:PGP589840 OWT589833:OWT589840 OMX589833:OMX589840 ODB589833:ODB589840 NTF589833:NTF589840 NJJ589833:NJJ589840 MZN589833:MZN589840 MPR589833:MPR589840 MFV589833:MFV589840 LVZ589833:LVZ589840 LMD589833:LMD589840 LCH589833:LCH589840 KSL589833:KSL589840 KIP589833:KIP589840 JYT589833:JYT589840 JOX589833:JOX589840 JFB589833:JFB589840 IVF589833:IVF589840 ILJ589833:ILJ589840 IBN589833:IBN589840 HRR589833:HRR589840 HHV589833:HHV589840 GXZ589833:GXZ589840 GOD589833:GOD589840 GEH589833:GEH589840 FUL589833:FUL589840 FKP589833:FKP589840 FAT589833:FAT589840 EQX589833:EQX589840 EHB589833:EHB589840 DXF589833:DXF589840 DNJ589833:DNJ589840 DDN589833:DDN589840 CTR589833:CTR589840 CJV589833:CJV589840 BZZ589833:BZZ589840 BQD589833:BQD589840 BGH589833:BGH589840 AWL589833:AWL589840 AMP589833:AMP589840 ACT589833:ACT589840 SX589833:SX589840 JB589833:JB589840 WVN524297:WVN524304 WLR524297:WLR524304 WBV524297:WBV524304 VRZ524297:VRZ524304 VID524297:VID524304 UYH524297:UYH524304 UOL524297:UOL524304 UEP524297:UEP524304 TUT524297:TUT524304 TKX524297:TKX524304 TBB524297:TBB524304 SRF524297:SRF524304 SHJ524297:SHJ524304 RXN524297:RXN524304 RNR524297:RNR524304 RDV524297:RDV524304 QTZ524297:QTZ524304 QKD524297:QKD524304 QAH524297:QAH524304 PQL524297:PQL524304 PGP524297:PGP524304 OWT524297:OWT524304 OMX524297:OMX524304 ODB524297:ODB524304 NTF524297:NTF524304 NJJ524297:NJJ524304 MZN524297:MZN524304 MPR524297:MPR524304 MFV524297:MFV524304 LVZ524297:LVZ524304 LMD524297:LMD524304 LCH524297:LCH524304 KSL524297:KSL524304 KIP524297:KIP524304 JYT524297:JYT524304 JOX524297:JOX524304 JFB524297:JFB524304 IVF524297:IVF524304 ILJ524297:ILJ524304 IBN524297:IBN524304 HRR524297:HRR524304 HHV524297:HHV524304 GXZ524297:GXZ524304 GOD524297:GOD524304 GEH524297:GEH524304 FUL524297:FUL524304 FKP524297:FKP524304 FAT524297:FAT524304 EQX524297:EQX524304 EHB524297:EHB524304 DXF524297:DXF524304 DNJ524297:DNJ524304 DDN524297:DDN524304 CTR524297:CTR524304 CJV524297:CJV524304 BZZ524297:BZZ524304 BQD524297:BQD524304 BGH524297:BGH524304 AWL524297:AWL524304 AMP524297:AMP524304 ACT524297:ACT524304 SX524297:SX524304 JB524297:JB524304 WVN458761:WVN458768 WLR458761:WLR458768 WBV458761:WBV458768 VRZ458761:VRZ458768 VID458761:VID458768 UYH458761:UYH458768 UOL458761:UOL458768 UEP458761:UEP458768 TUT458761:TUT458768 TKX458761:TKX458768 TBB458761:TBB458768 SRF458761:SRF458768 SHJ458761:SHJ458768 RXN458761:RXN458768 RNR458761:RNR458768 RDV458761:RDV458768 QTZ458761:QTZ458768 QKD458761:QKD458768 QAH458761:QAH458768 PQL458761:PQL458768 PGP458761:PGP458768 OWT458761:OWT458768 OMX458761:OMX458768 ODB458761:ODB458768 NTF458761:NTF458768 NJJ458761:NJJ458768 MZN458761:MZN458768 MPR458761:MPR458768 MFV458761:MFV458768 LVZ458761:LVZ458768 LMD458761:LMD458768 LCH458761:LCH458768 KSL458761:KSL458768 KIP458761:KIP458768 JYT458761:JYT458768 JOX458761:JOX458768 JFB458761:JFB458768 IVF458761:IVF458768 ILJ458761:ILJ458768 IBN458761:IBN458768 HRR458761:HRR458768 HHV458761:HHV458768 GXZ458761:GXZ458768 GOD458761:GOD458768 GEH458761:GEH458768 FUL458761:FUL458768 FKP458761:FKP458768 FAT458761:FAT458768 EQX458761:EQX458768 EHB458761:EHB458768 DXF458761:DXF458768 DNJ458761:DNJ458768 DDN458761:DDN458768 CTR458761:CTR458768 CJV458761:CJV458768 BZZ458761:BZZ458768 BQD458761:BQD458768 BGH458761:BGH458768 AWL458761:AWL458768 AMP458761:AMP458768 ACT458761:ACT458768 SX458761:SX458768 JB458761:JB458768 WVN393225:WVN393232 WLR393225:WLR393232 WBV393225:WBV393232 VRZ393225:VRZ393232 VID393225:VID393232 UYH393225:UYH393232 UOL393225:UOL393232 UEP393225:UEP393232 TUT393225:TUT393232 TKX393225:TKX393232 TBB393225:TBB393232 SRF393225:SRF393232 SHJ393225:SHJ393232 RXN393225:RXN393232 RNR393225:RNR393232 RDV393225:RDV393232 QTZ393225:QTZ393232 QKD393225:QKD393232 QAH393225:QAH393232 PQL393225:PQL393232 PGP393225:PGP393232 OWT393225:OWT393232 OMX393225:OMX393232 ODB393225:ODB393232 NTF393225:NTF393232 NJJ393225:NJJ393232 MZN393225:MZN393232 MPR393225:MPR393232 MFV393225:MFV393232 LVZ393225:LVZ393232 LMD393225:LMD393232 LCH393225:LCH393232 KSL393225:KSL393232 KIP393225:KIP393232 JYT393225:JYT393232 JOX393225:JOX393232 JFB393225:JFB393232 IVF393225:IVF393232 ILJ393225:ILJ393232 IBN393225:IBN393232 HRR393225:HRR393232 HHV393225:HHV393232 GXZ393225:GXZ393232 GOD393225:GOD393232 GEH393225:GEH393232 FUL393225:FUL393232 FKP393225:FKP393232 FAT393225:FAT393232 EQX393225:EQX393232 EHB393225:EHB393232 DXF393225:DXF393232 DNJ393225:DNJ393232 DDN393225:DDN393232 CTR393225:CTR393232 CJV393225:CJV393232 BZZ393225:BZZ393232 BQD393225:BQD393232 BGH393225:BGH393232 AWL393225:AWL393232 AMP393225:AMP393232 ACT393225:ACT393232 SX393225:SX393232 JB393225:JB393232 WVN327689:WVN327696 WLR327689:WLR327696 WBV327689:WBV327696 VRZ327689:VRZ327696 VID327689:VID327696 UYH327689:UYH327696 UOL327689:UOL327696 UEP327689:UEP327696 TUT327689:TUT327696 TKX327689:TKX327696 TBB327689:TBB327696 SRF327689:SRF327696 SHJ327689:SHJ327696 RXN327689:RXN327696 RNR327689:RNR327696 RDV327689:RDV327696 QTZ327689:QTZ327696 QKD327689:QKD327696 QAH327689:QAH327696 PQL327689:PQL327696 PGP327689:PGP327696 OWT327689:OWT327696 OMX327689:OMX327696 ODB327689:ODB327696 NTF327689:NTF327696 NJJ327689:NJJ327696 MZN327689:MZN327696 MPR327689:MPR327696 MFV327689:MFV327696 LVZ327689:LVZ327696 LMD327689:LMD327696 LCH327689:LCH327696 KSL327689:KSL327696 KIP327689:KIP327696 JYT327689:JYT327696 JOX327689:JOX327696 JFB327689:JFB327696 IVF327689:IVF327696 ILJ327689:ILJ327696 IBN327689:IBN327696 HRR327689:HRR327696 HHV327689:HHV327696 GXZ327689:GXZ327696 GOD327689:GOD327696 GEH327689:GEH327696 FUL327689:FUL327696 FKP327689:FKP327696 FAT327689:FAT327696 EQX327689:EQX327696 EHB327689:EHB327696 DXF327689:DXF327696 DNJ327689:DNJ327696 DDN327689:DDN327696 CTR327689:CTR327696 CJV327689:CJV327696 BZZ327689:BZZ327696 BQD327689:BQD327696 BGH327689:BGH327696 AWL327689:AWL327696 AMP327689:AMP327696 ACT327689:ACT327696 SX327689:SX327696 JB327689:JB327696 WVN262153:WVN262160 WLR262153:WLR262160 WBV262153:WBV262160 VRZ262153:VRZ262160 VID262153:VID262160 UYH262153:UYH262160 UOL262153:UOL262160 UEP262153:UEP262160 TUT262153:TUT262160 TKX262153:TKX262160 TBB262153:TBB262160 SRF262153:SRF262160 SHJ262153:SHJ262160 RXN262153:RXN262160 RNR262153:RNR262160 RDV262153:RDV262160 QTZ262153:QTZ262160 QKD262153:QKD262160 QAH262153:QAH262160 PQL262153:PQL262160 PGP262153:PGP262160 OWT262153:OWT262160 OMX262153:OMX262160 ODB262153:ODB262160 NTF262153:NTF262160 NJJ262153:NJJ262160 MZN262153:MZN262160 MPR262153:MPR262160 MFV262153:MFV262160 LVZ262153:LVZ262160 LMD262153:LMD262160 LCH262153:LCH262160 KSL262153:KSL262160 KIP262153:KIP262160 JYT262153:JYT262160 JOX262153:JOX262160 JFB262153:JFB262160 IVF262153:IVF262160 ILJ262153:ILJ262160 IBN262153:IBN262160 HRR262153:HRR262160 HHV262153:HHV262160 GXZ262153:GXZ262160 GOD262153:GOD262160 GEH262153:GEH262160 FUL262153:FUL262160 FKP262153:FKP262160 FAT262153:FAT262160 EQX262153:EQX262160 EHB262153:EHB262160 DXF262153:DXF262160 DNJ262153:DNJ262160 DDN262153:DDN262160 CTR262153:CTR262160 CJV262153:CJV262160 BZZ262153:BZZ262160 BQD262153:BQD262160 BGH262153:BGH262160 AWL262153:AWL262160 AMP262153:AMP262160 ACT262153:ACT262160 SX262153:SX262160 JB262153:JB262160 WVN196617:WVN196624 WLR196617:WLR196624 WBV196617:WBV196624 VRZ196617:VRZ196624 VID196617:VID196624 UYH196617:UYH196624 UOL196617:UOL196624 UEP196617:UEP196624 TUT196617:TUT196624 TKX196617:TKX196624 TBB196617:TBB196624 SRF196617:SRF196624 SHJ196617:SHJ196624 RXN196617:RXN196624 RNR196617:RNR196624 RDV196617:RDV196624 QTZ196617:QTZ196624 QKD196617:QKD196624 QAH196617:QAH196624 PQL196617:PQL196624 PGP196617:PGP196624 OWT196617:OWT196624 OMX196617:OMX196624 ODB196617:ODB196624 NTF196617:NTF196624 NJJ196617:NJJ196624 MZN196617:MZN196624 MPR196617:MPR196624 MFV196617:MFV196624 LVZ196617:LVZ196624 LMD196617:LMD196624 LCH196617:LCH196624 KSL196617:KSL196624 KIP196617:KIP196624 JYT196617:JYT196624 JOX196617:JOX196624 JFB196617:JFB196624 IVF196617:IVF196624 ILJ196617:ILJ196624 IBN196617:IBN196624 HRR196617:HRR196624 HHV196617:HHV196624 GXZ196617:GXZ196624 GOD196617:GOD196624 GEH196617:GEH196624 FUL196617:FUL196624 FKP196617:FKP196624 FAT196617:FAT196624 EQX196617:EQX196624 EHB196617:EHB196624 DXF196617:DXF196624 DNJ196617:DNJ196624 DDN196617:DDN196624 CTR196617:CTR196624 CJV196617:CJV196624 BZZ196617:BZZ196624 BQD196617:BQD196624 BGH196617:BGH196624 AWL196617:AWL196624 AMP196617:AMP196624 ACT196617:ACT196624 SX196617:SX196624 JB196617:JB196624 WVN131081:WVN131088 WLR131081:WLR131088 WBV131081:WBV131088 VRZ131081:VRZ131088 VID131081:VID131088 UYH131081:UYH131088 UOL131081:UOL131088 UEP131081:UEP131088 TUT131081:TUT131088 TKX131081:TKX131088 TBB131081:TBB131088 SRF131081:SRF131088 SHJ131081:SHJ131088 RXN131081:RXN131088 RNR131081:RNR131088 RDV131081:RDV131088 QTZ131081:QTZ131088 QKD131081:QKD131088 QAH131081:QAH131088 PQL131081:PQL131088 PGP131081:PGP131088 OWT131081:OWT131088 OMX131081:OMX131088 ODB131081:ODB131088 NTF131081:NTF131088 NJJ131081:NJJ131088 MZN131081:MZN131088 MPR131081:MPR131088 MFV131081:MFV131088 LVZ131081:LVZ131088 LMD131081:LMD131088 LCH131081:LCH131088 KSL131081:KSL131088 KIP131081:KIP131088 JYT131081:JYT131088 JOX131081:JOX131088 JFB131081:JFB131088 IVF131081:IVF131088 ILJ131081:ILJ131088 IBN131081:IBN131088 HRR131081:HRR131088 HHV131081:HHV131088 GXZ131081:GXZ131088 GOD131081:GOD131088 GEH131081:GEH131088 FUL131081:FUL131088 FKP131081:FKP131088 FAT131081:FAT131088 EQX131081:EQX131088 EHB131081:EHB131088 DXF131081:DXF131088 DNJ131081:DNJ131088 DDN131081:DDN131088 CTR131081:CTR131088 CJV131081:CJV131088 BZZ131081:BZZ131088 BQD131081:BQD131088 BGH131081:BGH131088 AWL131081:AWL131088 AMP131081:AMP131088 ACT131081:ACT131088 SX131081:SX131088 JB131081:JB131088 WVN65545:WVN65552 WLR65545:WLR65552 WBV65545:WBV65552 VRZ65545:VRZ65552 VID65545:VID65552 UYH65545:UYH65552 UOL65545:UOL65552 UEP65545:UEP65552 TUT65545:TUT65552 TKX65545:TKX65552 TBB65545:TBB65552 SRF65545:SRF65552 SHJ65545:SHJ65552 RXN65545:RXN65552 RNR65545:RNR65552 RDV65545:RDV65552 QTZ65545:QTZ65552 QKD65545:QKD65552 QAH65545:QAH65552 PQL65545:PQL65552 PGP65545:PGP65552 OWT65545:OWT65552 OMX65545:OMX65552 ODB65545:ODB65552 NTF65545:NTF65552 NJJ65545:NJJ65552 MZN65545:MZN65552 MPR65545:MPR65552 MFV65545:MFV65552 LVZ65545:LVZ65552 LMD65545:LMD65552 LCH65545:LCH65552 KSL65545:KSL65552 KIP65545:KIP65552 JYT65545:JYT65552 JOX65545:JOX65552 JFB65545:JFB65552 IVF65545:IVF65552 ILJ65545:ILJ65552 IBN65545:IBN65552 HRR65545:HRR65552 HHV65545:HHV65552 GXZ65545:GXZ65552 GOD65545:GOD65552 GEH65545:GEH65552 FUL65545:FUL65552 FKP65545:FKP65552 FAT65545:FAT65552 EQX65545:EQX65552 EHB65545:EHB65552 DXF65545:DXF65552 DNJ65545:DNJ65552 DDN65545:DDN65552 CTR65545:CTR65552 CJV65545:CJV65552 BZZ65545:BZZ65552 BQD65545:BQD65552 BGH65545:BGH65552 AWL65545:AWL65552 AMP65545:AMP65552 ACT65545:ACT65552 SX65545:SX65552 WVN9:WVN16 WLR9:WLR16 WBV9:WBV16 VRZ9:VRZ16 VID9:VID16 UYH9:UYH16 UOL9:UOL16 UEP9:UEP16 TUT9:TUT16 TKX9:TKX16 TBB9:TBB16 SRF9:SRF16 SHJ9:SHJ16 RXN9:RXN16 RNR9:RNR16 RDV9:RDV16 QTZ9:QTZ16 QKD9:QKD16 QAH9:QAH16 PQL9:PQL16 PGP9:PGP16 OWT9:OWT16 OMX9:OMX16 ODB9:ODB16 NTF9:NTF16 NJJ9:NJJ16 MZN9:MZN16 MPR9:MPR16 MFV9:MFV16 LVZ9:LVZ16 LMD9:LMD16 LCH9:LCH16 KSL9:KSL16 KIP9:KIP16 JYT9:JYT16 JOX9:JOX16 JFB9:JFB16 IVF9:IVF16 ILJ9:ILJ16 IBN9:IBN16 HRR9:HRR16 HHV9:HHV16 GXZ9:GXZ16 GOD9:GOD16 GEH9:GEH16 FUL9:FUL16 FKP9:FKP16 FAT9:FAT16 EQX9:EQX16 EHB9:EHB16 DXF9:DXF16 DNJ9:DNJ16 DDN9:DDN16 CTR9:CTR16 CJV9:CJV16 BZZ9:BZZ16 BQD9:BQD16 BGH9:BGH16 AWL9:AWL16 AMP9:AMP16 ACT9:ACT16 SX9:SX16 JB9:JB16 E9:E16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JB65545:JB65552 E65545:E65552 E131081:E131088 E196617:E196624 E262153:E262160 E327689:E327696 E393225:E393232 E458761:E458768 E524297:E524304 E589833:E589840 E655369:E655376 E720905:E720912 E786441:E786448 E851977:E851984 E917513:E917520 E983049:E983056 WVN983049:WVN983056 WLR983049:WLR983056 WBV983049:WBV983056 VRZ983049:VRZ983056 VID983049:VID983056 UYH983049:UYH983056 UOL983049:UOL983056 UEP983049:UEP983056 TUT983049:TUT983056 TKX983049:TKX983056 TBB983049:TBB983056 SRF983049:SRF983056 SHJ983049:SHJ983056 RXN983049:RXN983056 RNR983049:RNR983056 RDV983049:RDV983056 QTZ983049:QTZ983056 QKD983049:QKD983056 QAH983049:QAH983056 PQL983049:PQL983056 PGP983049:PGP983056 OWT983049:OWT983056 OMX983049:OMX983056 ODB983049:ODB983056 NTF983049:NTF983056 NJJ983049:NJJ983056 MZN983049:MZN983056 MPR983049:MPR983056 MFV983049:MFV983056 LVZ983049:LVZ983056 LMD983049:LMD983056 LCH983049:LCH983056 KSL983049:KSL983056 KIP983049:KIP983056 JYT983049:JYT983056 JOX983049:JOX983056 JFB983049:JFB983056 IVF983049:IVF983056 ILJ983049:ILJ983056 IBN983049:IBN983056 HRR983049:HRR983056 HHV983049:HHV983056 GXZ983049:GXZ983056 GOD983049:GOD983056 GEH983049:GEH983056 FUL983049:FUL983056 FKP983049:FKP983056 FAT983049:FAT983056 EQX983049:EQX983056 EHB983049:EHB983056 DXF983049:DXF983056 DNJ983049:DNJ983056 DDN983049:DDN983056 CTR983049:CTR983056 CJV983049:CJV983056 BZZ983049:BZZ983056 BQD983049:BQD983056 BGH983049:BGH983056 AWL983049:AWL983056 AMP983049:AMP983056 ACT983049:ACT983056 SX983049:SX983056 JB983049:JB983056 WVN917513:WVN917520 WLR917513:WLR917520 WBV917513:WBV917520 VRZ917513:VRZ917520 VID917513:VID917520 UYH917513:UYH917520 UOL917513:UOL917520 UEP917513:UEP917520 TUT917513:TUT917520 TKX917513:TKX917520 TBB917513:TBB917520 SRF917513:SRF917520 SHJ917513:SHJ917520 RXN917513:RXN917520 RNR917513:RNR917520 RDV917513:RDV917520 QTZ917513:QTZ917520 QKD917513:QKD917520 QAH917513:QAH917520 PQL917513:PQL917520 PGP917513:PGP917520 OWT917513:OWT917520 OMX917513:OMX917520 ODB917513:ODB917520 NTF917513:NTF917520 NJJ917513:NJJ917520 MZN917513:MZN917520 MPR917513:MPR917520 MFV917513:MFV917520 LVZ917513:LVZ917520 LMD917513:LMD917520 LCH917513:LCH917520 KSL917513:KSL917520 KIP917513:KIP917520 JYT917513:JYT917520 JOX917513:JOX917520 JFB917513:JFB917520 IVF917513:IVF917520 ILJ917513:ILJ917520 IBN917513:IBN917520 HRR917513:HRR917520 HHV917513:HHV917520 GXZ917513:GXZ917520 GOD917513:GOD917520 GEH917513:GEH917520 FUL917513:FUL917520 FKP917513:FKP917520 FAT917513:FAT917520 EQX917513:EQX917520 EHB917513:EHB917520 DXF917513:DXF917520 DNJ917513:DNJ917520 DDN917513:DDN917520 CTR917513:CTR917520 CJV917513:CJV917520 BZZ917513:BZZ917520 BQD917513:BQD917520 BGH917513:BGH917520 AWL917513:AWL917520 AMP917513:AMP917520 ACT917513:ACT917520 SX917513:SX917520 JB917513:JB917520 WVN851977:WVN851984 WLR851977:WLR851984 WBV851977:WBV851984 VRZ851977:VRZ851984 VID851977:VID851984 UYH851977:UYH851984 UOL851977:UOL851984 UEP851977:UEP851984 TUT851977:TUT851984 TKX851977:TKX851984 TBB851977:TBB851984 SRF851977:SRF851984 SHJ851977:SHJ851984 RXN851977:RXN851984 RNR851977:RNR851984 RDV851977:RDV851984 QTZ851977:QTZ851984 QKD851977:QKD851984 QAH851977:QAH851984 PQL851977:PQL851984 PGP851977:PGP851984 OWT851977:OWT851984 OMX851977:OMX851984 ODB851977:ODB851984 NTF851977:NTF851984 NJJ851977:NJJ851984 MZN851977:MZN851984 MPR851977:MPR851984 MFV851977:MFV851984 LVZ851977:LVZ851984 LMD851977:LMD851984 LCH851977:LCH851984 KSL851977:KSL851984 KIP851977:KIP851984 JYT851977:JYT851984 JOX851977:JOX851984 JFB851977:JFB851984 IVF851977:IVF851984 ILJ851977:ILJ851984 IBN851977:IBN851984 HRR851977:HRR851984 HHV851977:HHV851984 GXZ851977:GXZ851984 GOD851977:GOD851984 GEH851977:GEH851984 FUL851977:FUL851984 FKP851977:FKP851984 FAT851977:FAT851984 EQX851977:EQX851984 EHB851977:EHB851984 DXF851977:DXF851984 DNJ851977:DNJ851984 DDN851977:DDN851984 CTR851977:CTR851984 CJV851977:CJV851984 BZZ851977:BZZ851984 BQD851977:BQD851984 BGH851977:BGH851984 AWL851977:AWL851984 AMP851977:AMP851984 ACT851977:ACT851984 SX851977:SX851984 JB851977:JB851984 WVN786441:WVN786448 WLR786441:WLR786448 WBV786441:WBV786448 VRZ786441:VRZ786448 VID786441:VID786448 UYH786441:UYH786448 UOL786441:UOL786448 UEP786441:UEP786448 TUT786441:TUT786448 TKX786441:TKX786448 TBB786441:TBB786448 SRF786441:SRF786448 SHJ786441:SHJ786448 RXN786441:RXN786448 RNR786441:RNR786448 RDV786441:RDV786448 QTZ786441:QTZ786448 QKD786441:QKD786448 QAH786441:QAH786448 PQL786441:PQL786448 PGP786441:PGP786448 OWT786441:OWT786448 OMX786441:OMX786448 ODB786441:ODB786448 NTF786441:NTF786448 NJJ786441:NJJ786448 MZN786441:MZN786448 MPR786441:MPR786448 MFV786441:MFV786448 LVZ786441:LVZ786448 LMD786441:LMD786448 LCH786441:LCH786448 KSL786441:KSL786448 KIP786441:KIP786448 JYT786441:JYT786448 JOX786441:JOX786448 JFB786441:JFB786448 IVF786441:IVF786448 ILJ786441:ILJ786448 IBN786441:IBN786448 HRR786441:HRR786448 HHV786441:HHV786448 GXZ786441:GXZ786448 GOD786441:GOD786448 GEH786441:GEH786448 FUL786441:FUL786448 FKP786441:FKP786448 FAT786441:FAT786448 EQX786441:EQX786448 EHB786441:EHB786448 DXF786441:DXF786448 DNJ786441:DNJ786448 DDN786441:DDN786448 CTR786441:CTR786448 CJV786441:CJV786448 BZZ786441:BZZ786448 BQD786441:BQD786448 BGH786441:BGH786448 AWL786441:AWL786448 AMP786441:AMP786448 ACT786441:ACT786448 SX786441:SX786448 JB786441:JB786448 WVN720905:WVN720912 WLR720905:WLR720912 WBV720905:WBV720912 VRZ720905:VRZ720912 VID720905:VID720912 UYH720905:UYH720912 UOL720905:UOL720912 UEP720905:UEP720912 TUT720905:TUT720912 TKX720905:TKX720912 TBB720905:TBB720912 SRF720905:SRF720912 SHJ720905:SHJ720912 RXN720905:RXN720912 RNR720905:RNR720912 RDV720905:RDV720912 QTZ720905:QTZ720912 QKD720905:QKD720912 QAH720905:QAH720912 PQL720905:PQL720912 PGP720905:PGP720912 OWT720905:OWT720912 OMX720905:OMX720912 ODB720905:ODB720912 NTF720905:NTF720912 NJJ720905:NJJ720912 MZN720905:MZN720912 MPR720905:MPR720912 MFV720905:MFV720912 LVZ720905:LVZ720912 LMD720905:LMD720912 LCH720905:LCH720912 KSL720905:KSL720912 KIP720905:KIP720912 JYT720905:JYT720912 JOX720905:JOX720912 JFB720905:JFB720912 IVF720905:IVF720912 ILJ720905:ILJ720912 IBN720905:IBN720912 HRR720905:HRR720912 HHV720905:HHV720912 GXZ720905:GXZ720912 GOD720905:GOD720912 GEH720905:GEH720912 FUL720905:FUL720912 FKP720905:FKP720912 FAT720905:FAT720912 EQX720905:EQX720912 EHB720905:EHB720912 DXF720905:DXF720912 DNJ720905:DNJ720912 DDN720905:DDN720912 CTR720905:CTR720912 CJV720905:CJV720912 BZZ720905:BZZ720912 BQD720905:BQD720912 BGH720905:BGH720912 AWL720905:AWL720912 AMP720905:AMP720912 ACT720905:ACT720912 SX720905:SX720912 JB720905:JB720912 WVN655369:WVN655376 WLR655369:WLR655376 WBV655369:WBV655376 VRZ655369:VRZ655376 VID655369:VID655376 UYH655369:UYH655376 UOL655369:UOL655376 UEP655369:UEP655376 TUT655369:TUT655376 TKX655369:TKX655376 TBB655369:TBB655376 SRF655369:SRF655376 SHJ655369:SHJ655376 RXN655369:RXN655376 RNR655369:RNR655376 RDV655369:RDV655376 QTZ655369:QTZ655376 QKD655369:QKD655376 QAH655369:QAH655376 PQL655369:PQL655376 PGP655369:PGP655376 OWT655369:OWT655376 OMX655369:OMX655376 ODB655369:ODB655376 NTF655369:NTF655376 NJJ655369:NJJ655376 MZN655369:MZN655376 MPR655369:MPR655376 MFV655369:MFV655376 LVZ655369:LVZ655376 LMD655369:LMD655376 LCH655369:LCH655376 KSL655369:KSL655376 KIP655369:KIP655376 JYT655369:JYT655376 JOX655369:JOX655376 JFB655369:JFB655376 IVF655369:IVF655376 ILJ655369:ILJ655376 IBN655369:IBN655376 HRR655369:HRR655376 HHV655369:HHV655376 GXZ655369:GXZ655376 GOD655369:GOD655376 GEH655369:GEH655376 FUL655369:FUL655376 FKP655369:FKP655376 FAT655369:FAT655376 EQX655369:EQX655376 EHB655369:EHB655376 DXF655369:DXF655376 DNJ655369:DNJ655376 DDN655369:DDN655376 CTR655369:CTR655376 CJV655369:CJV655376 BZZ655369:BZZ655376 BQD655369:BQD655376 BGH655369:BGH655376 AWL655369:AWL655376 AMP655369:AMP655376 ACT655369:ACT655376 SX655369:SX655376 JB655369:JB655376 WVN589833:WVN589840 WLR589833:WLR589840 WBV589833:WBV589840 VRZ589833:VRZ589840 VID589833:VID589840 UYH589833:UYH589840 UOL589833:UOL589840 UEP589833:UEP589840 TUT589833:TUT589840 TKX589833:TKX589840 TBB589833:TBB589840 SRF589833:SRF589840 SHJ589833:SHJ589840 RXN589833:RXN589840 RNR589833:RNR589840 RDV589833:RDV589840 QTZ589833:QTZ589840 QKD589833:QKD589840 QAH589833:QAH589840 PQL589833:PQL589840 PGP589833:PGP589840 OWT589833:OWT589840 OMX589833:OMX589840 ODB589833:ODB589840 NTF589833:NTF589840 NJJ589833:NJJ589840 MZN589833:MZN589840 MPR589833:MPR589840 MFV589833:MFV589840 LVZ589833:LVZ589840 LMD589833:LMD589840 LCH589833:LCH589840 KSL589833:KSL589840 KIP589833:KIP589840 JYT589833:JYT589840 JOX589833:JOX589840 JFB589833:JFB589840 IVF589833:IVF589840 ILJ589833:ILJ589840 IBN589833:IBN589840 HRR589833:HRR589840 HHV589833:HHV589840 GXZ589833:GXZ589840 GOD589833:GOD589840 GEH589833:GEH589840 FUL589833:FUL589840 FKP589833:FKP589840 FAT589833:FAT589840 EQX589833:EQX589840 EHB589833:EHB589840 DXF589833:DXF589840 DNJ589833:DNJ589840 DDN589833:DDN589840 CTR589833:CTR589840 CJV589833:CJV589840 BZZ589833:BZZ589840 BQD589833:BQD589840 BGH589833:BGH589840 AWL589833:AWL589840 AMP589833:AMP589840 ACT589833:ACT589840 SX589833:SX589840 JB589833:JB589840 WVN524297:WVN524304 WLR524297:WLR524304 WBV524297:WBV524304 VRZ524297:VRZ524304 VID524297:VID524304 UYH524297:UYH524304 UOL524297:UOL524304 UEP524297:UEP524304 TUT524297:TUT524304 TKX524297:TKX524304 TBB524297:TBB524304 SRF524297:SRF524304 SHJ524297:SHJ524304 RXN524297:RXN524304 RNR524297:RNR524304 RDV524297:RDV524304 QTZ524297:QTZ524304 QKD524297:QKD524304 QAH524297:QAH524304 PQL524297:PQL524304 PGP524297:PGP524304 OWT524297:OWT524304 OMX524297:OMX524304 ODB524297:ODB524304 NTF524297:NTF524304 NJJ524297:NJJ524304 MZN524297:MZN524304 MPR524297:MPR524304 MFV524297:MFV524304 LVZ524297:LVZ524304 LMD524297:LMD524304 LCH524297:LCH524304 KSL524297:KSL524304 KIP524297:KIP524304 JYT524297:JYT524304 JOX524297:JOX524304 JFB524297:JFB524304 IVF524297:IVF524304 ILJ524297:ILJ524304 IBN524297:IBN524304 HRR524297:HRR524304 HHV524297:HHV524304 GXZ524297:GXZ524304 GOD524297:GOD524304 GEH524297:GEH524304 FUL524297:FUL524304 FKP524297:FKP524304 FAT524297:FAT524304 EQX524297:EQX524304 EHB524297:EHB524304 DXF524297:DXF524304 DNJ524297:DNJ524304 DDN524297:DDN524304 CTR524297:CTR524304 CJV524297:CJV524304 BZZ524297:BZZ524304 BQD524297:BQD524304 BGH524297:BGH524304 AWL524297:AWL524304 AMP524297:AMP524304 ACT524297:ACT524304 SX524297:SX524304 JB524297:JB524304 WVN458761:WVN458768 WLR458761:WLR458768 WBV458761:WBV458768 VRZ458761:VRZ458768 VID458761:VID458768 UYH458761:UYH458768 UOL458761:UOL458768 UEP458761:UEP458768 TUT458761:TUT458768 TKX458761:TKX458768 TBB458761:TBB458768 SRF458761:SRF458768 SHJ458761:SHJ458768 RXN458761:RXN458768 RNR458761:RNR458768 RDV458761:RDV458768 QTZ458761:QTZ458768 QKD458761:QKD458768 QAH458761:QAH458768 PQL458761:PQL458768 PGP458761:PGP458768 OWT458761:OWT458768 OMX458761:OMX458768 ODB458761:ODB458768 NTF458761:NTF458768 NJJ458761:NJJ458768 MZN458761:MZN458768 MPR458761:MPR458768 MFV458761:MFV458768 LVZ458761:LVZ458768 LMD458761:LMD458768 LCH458761:LCH458768 KSL458761:KSL458768 KIP458761:KIP458768 JYT458761:JYT458768 JOX458761:JOX458768 JFB458761:JFB458768 IVF458761:IVF458768 ILJ458761:ILJ458768 IBN458761:IBN458768 HRR458761:HRR458768 HHV458761:HHV458768 GXZ458761:GXZ458768 GOD458761:GOD458768 GEH458761:GEH458768 FUL458761:FUL458768 FKP458761:FKP458768 FAT458761:FAT458768 EQX458761:EQX458768 EHB458761:EHB458768 DXF458761:DXF458768 DNJ458761:DNJ458768 DDN458761:DDN458768 CTR458761:CTR458768 CJV458761:CJV458768 BZZ458761:BZZ458768 BQD458761:BQD458768 BGH458761:BGH458768 AWL458761:AWL458768 AMP458761:AMP458768 ACT458761:ACT458768 SX458761:SX458768 JB458761:JB458768 WVN393225:WVN393232 WLR393225:WLR393232 WBV393225:WBV393232 VRZ393225:VRZ393232 VID393225:VID393232 UYH393225:UYH393232 UOL393225:UOL393232 UEP393225:UEP393232 TUT393225:TUT393232 TKX393225:TKX393232 TBB393225:TBB393232 SRF393225:SRF393232 SHJ393225:SHJ393232 RXN393225:RXN393232 RNR393225:RNR393232 RDV393225:RDV393232 QTZ393225:QTZ393232 QKD393225:QKD393232 QAH393225:QAH393232 PQL393225:PQL393232 PGP393225:PGP393232 OWT393225:OWT393232 OMX393225:OMX393232 ODB393225:ODB393232 NTF393225:NTF393232 NJJ393225:NJJ393232 MZN393225:MZN393232 MPR393225:MPR393232 MFV393225:MFV393232 LVZ393225:LVZ393232 LMD393225:LMD393232 LCH393225:LCH393232 KSL393225:KSL393232 KIP393225:KIP393232 JYT393225:JYT393232 JOX393225:JOX393232 JFB393225:JFB393232 IVF393225:IVF393232 ILJ393225:ILJ393232 IBN393225:IBN393232 HRR393225:HRR393232 HHV393225:HHV393232 GXZ393225:GXZ393232 GOD393225:GOD393232 GEH393225:GEH393232 FUL393225:FUL393232 FKP393225:FKP393232 FAT393225:FAT393232 EQX393225:EQX393232 EHB393225:EHB393232 DXF393225:DXF393232 DNJ393225:DNJ393232 DDN393225:DDN393232 CTR393225:CTR393232 CJV393225:CJV393232 BZZ393225:BZZ393232 BQD393225:BQD393232 BGH393225:BGH393232 AWL393225:AWL393232 AMP393225:AMP393232 ACT393225:ACT393232 SX393225:SX393232 JB393225:JB393232 WVN327689:WVN327696 WLR327689:WLR327696 WBV327689:WBV327696 VRZ327689:VRZ327696 VID327689:VID327696 UYH327689:UYH327696 UOL327689:UOL327696 UEP327689:UEP327696 TUT327689:TUT327696 TKX327689:TKX327696 TBB327689:TBB327696 SRF327689:SRF327696 SHJ327689:SHJ327696 RXN327689:RXN327696 RNR327689:RNR327696 RDV327689:RDV327696 QTZ327689:QTZ327696 QKD327689:QKD327696 QAH327689:QAH327696 PQL327689:PQL327696 PGP327689:PGP327696 OWT327689:OWT327696 OMX327689:OMX327696 ODB327689:ODB327696 NTF327689:NTF327696 NJJ327689:NJJ327696 MZN327689:MZN327696 MPR327689:MPR327696 MFV327689:MFV327696 LVZ327689:LVZ327696 LMD327689:LMD327696 LCH327689:LCH327696 KSL327689:KSL327696 KIP327689:KIP327696 JYT327689:JYT327696 JOX327689:JOX327696 JFB327689:JFB327696 IVF327689:IVF327696 ILJ327689:ILJ327696 IBN327689:IBN327696 HRR327689:HRR327696 HHV327689:HHV327696 GXZ327689:GXZ327696 GOD327689:GOD327696 GEH327689:GEH327696 FUL327689:FUL327696 FKP327689:FKP327696 FAT327689:FAT327696 EQX327689:EQX327696 EHB327689:EHB327696 DXF327689:DXF327696 DNJ327689:DNJ327696 DDN327689:DDN327696 CTR327689:CTR327696 CJV327689:CJV327696 BZZ327689:BZZ327696 BQD327689:BQD327696 BGH327689:BGH327696 AWL327689:AWL327696 AMP327689:AMP327696 ACT327689:ACT327696 SX327689:SX327696 JB327689:JB327696 WVN262153:WVN262160 WLR262153:WLR262160 WBV262153:WBV262160 VRZ262153:VRZ262160 VID262153:VID262160 UYH262153:UYH262160 UOL262153:UOL262160 UEP262153:UEP262160 TUT262153:TUT262160 TKX262153:TKX262160 TBB262153:TBB262160 SRF262153:SRF262160 SHJ262153:SHJ262160 RXN262153:RXN262160 RNR262153:RNR262160 RDV262153:RDV262160 QTZ262153:QTZ262160 QKD262153:QKD262160 QAH262153:QAH262160 PQL262153:PQL262160 PGP262153:PGP262160 OWT262153:OWT262160 OMX262153:OMX262160 ODB262153:ODB262160 NTF262153:NTF262160 NJJ262153:NJJ262160 MZN262153:MZN262160 MPR262153:MPR262160 MFV262153:MFV262160 LVZ262153:LVZ262160 LMD262153:LMD262160 LCH262153:LCH262160 KSL262153:KSL262160 KIP262153:KIP262160 JYT262153:JYT262160 JOX262153:JOX262160 JFB262153:JFB262160 IVF262153:IVF262160 ILJ262153:ILJ262160 IBN262153:IBN262160 HRR262153:HRR262160 HHV262153:HHV262160 GXZ262153:GXZ262160 GOD262153:GOD262160 GEH262153:GEH262160 FUL262153:FUL262160 FKP262153:FKP262160 FAT262153:FAT262160 EQX262153:EQX262160 EHB262153:EHB262160 DXF262153:DXF262160 DNJ262153:DNJ262160 DDN262153:DDN262160 CTR262153:CTR262160 CJV262153:CJV262160 BZZ262153:BZZ262160 BQD262153:BQD262160 BGH262153:BGH262160 AWL262153:AWL262160 AMP262153:AMP262160 ACT262153:ACT262160 SX262153:SX262160 JB262153:JB262160 WVN196617:WVN196624 WLR196617:WLR196624 WBV196617:WBV196624 VRZ196617:VRZ196624 VID196617:VID196624 UYH196617:UYH196624 UOL196617:UOL196624 UEP196617:UEP196624 TUT196617:TUT196624 TKX196617:TKX196624 TBB196617:TBB196624 SRF196617:SRF196624 SHJ196617:SHJ196624 RXN196617:RXN196624 RNR196617:RNR196624 RDV196617:RDV196624 QTZ196617:QTZ196624 QKD196617:QKD196624 QAH196617:QAH196624 PQL196617:PQL196624 PGP196617:PGP196624 OWT196617:OWT196624 OMX196617:OMX196624 ODB196617:ODB196624 NTF196617:NTF196624 NJJ196617:NJJ196624 MZN196617:MZN196624 MPR196617:MPR196624 MFV196617:MFV196624 LVZ196617:LVZ196624 LMD196617:LMD196624 LCH196617:LCH196624 KSL196617:KSL196624 KIP196617:KIP196624 JYT196617:JYT196624 JOX196617:JOX196624 JFB196617:JFB196624 IVF196617:IVF196624 ILJ196617:ILJ196624 IBN196617:IBN196624 HRR196617:HRR196624 HHV196617:HHV196624 GXZ196617:GXZ196624 GOD196617:GOD196624 GEH196617:GEH196624 FUL196617:FUL196624 FKP196617:FKP196624 FAT196617:FAT196624 EQX196617:EQX196624 EHB196617:EHB196624 DXF196617:DXF196624 DNJ196617:DNJ196624 DDN196617:DDN196624 CTR196617:CTR196624 CJV196617:CJV196624 BZZ196617:BZZ196624 BQD196617:BQD196624 BGH196617:BGH196624 AWL196617:AWL196624 AMP196617:AMP196624 ACT196617:ACT196624 SX196617:SX196624 JB196617:JB196624 WVN131081:WVN131088 WLR131081:WLR131088 WBV131081:WBV131088 VRZ131081:VRZ131088 VID131081:VID131088 UYH131081:UYH131088 UOL131081:UOL131088 UEP131081:UEP131088 TUT131081:TUT131088 TKX131081:TKX131088 TBB131081:TBB131088 SRF131081:SRF131088 SHJ131081:SHJ131088 RXN131081:RXN131088 RNR131081:RNR131088 RDV131081:RDV131088 QTZ131081:QTZ131088 QKD131081:QKD131088 QAH131081:QAH131088 PQL131081:PQL131088 PGP131081:PGP131088 OWT131081:OWT131088 OMX131081:OMX131088 ODB131081:ODB131088 NTF131081:NTF131088 NJJ131081:NJJ131088 MZN131081:MZN131088 MPR131081:MPR131088 MFV131081:MFV131088 LVZ131081:LVZ131088 LMD131081:LMD131088 LCH131081:LCH131088 KSL131081:KSL131088 KIP131081:KIP131088 JYT131081:JYT131088 JOX131081:JOX131088 JFB131081:JFB131088 IVF131081:IVF131088 ILJ131081:ILJ131088 IBN131081:IBN131088 HRR131081:HRR131088 HHV131081:HHV131088 GXZ131081:GXZ131088 GOD131081:GOD131088 GEH131081:GEH131088 FUL131081:FUL131088 FKP131081:FKP131088 FAT131081:FAT131088 EQX131081:EQX131088 EHB131081:EHB131088 DXF131081:DXF131088 DNJ131081:DNJ131088 DDN131081:DDN131088 CTR131081:CTR131088 CJV131081:CJV131088 BZZ131081:BZZ131088 BQD131081:BQD131088 BGH131081:BGH131088 AWL131081:AWL131088 AMP131081:AMP131088 ACT131081:ACT131088 SX131081:SX131088 JB131081:JB131088 WVN65545:WVN65552 WLR65545:WLR65552 WBV65545:WBV65552 VRZ65545:VRZ65552 VID65545:VID65552 UYH65545:UYH65552 UOL65545:UOL65552 UEP65545:UEP65552 TUT65545:TUT65552 TKX65545:TKX65552 TBB65545:TBB65552 SRF65545:SRF65552 SHJ65545:SHJ65552 RXN65545:RXN65552 RNR65545:RNR65552 RDV65545:RDV65552 QTZ65545:QTZ65552 QKD65545:QKD65552 QAH65545:QAH65552 PQL65545:PQL65552 PGP65545:PGP65552 OWT65545:OWT65552 OMX65545:OMX65552 ODB65545:ODB65552 NTF65545:NTF65552 NJJ65545:NJJ65552 MZN65545:MZN65552 MPR65545:MPR65552 MFV65545:MFV65552 LVZ65545:LVZ65552 LMD65545:LMD65552 LCH65545:LCH65552 KSL65545:KSL65552 KIP65545:KIP65552 JYT65545:JYT65552 JOX65545:JOX65552 JFB65545:JFB65552 IVF65545:IVF65552 ILJ65545:ILJ65552 IBN65545:IBN65552 HRR65545:HRR65552 HHV65545:HHV65552 GXZ65545:GXZ65552 GOD65545:GOD65552 GEH65545:GEH65552 FUL65545:FUL65552 FKP65545:FKP65552 FAT65545:FAT65552 EQX65545:EQX65552 EHB65545:EHB65552 DXF65545:DXF65552 DNJ65545:DNJ65552 DDN65545:DDN65552 CTR65545:CTR65552 CJV65545:CJV65552 BZZ65545:BZZ65552 BQD65545:BQD65552 BGH65545:BGH65552 AWL65545:AWL65552 AMP65545:AMP65552 ACT65545:ACT65552 SX65545:SX65552 WVN9:WVN16 WLR9:WLR16 WBV9:WBV16 VRZ9:VRZ16 VID9:VID16 UYH9:UYH16 UOL9:UOL16 UEP9:UEP16 TUT9:TUT16 TKX9:TKX16 TBB9:TBB16 SRF9:SRF16 SHJ9:SHJ16 RXN9:RXN16 RNR9:RNR16 RDV9:RDV16 QTZ9:QTZ16 QKD9:QKD16 QAH9:QAH16 PQL9:PQL16 PGP9:PGP16 OWT9:OWT16 OMX9:OMX16 ODB9:ODB16 NTF9:NTF16 NJJ9:NJJ16 MZN9:MZN16 MPR9:MPR16 MFV9:MFV16 LVZ9:LVZ16 LMD9:LMD16 LCH9:LCH16 KSL9:KSL16 KIP9:KIP16 JYT9:JYT16 JOX9:JOX16 JFB9:JFB16 IVF9:IVF16 ILJ9:ILJ16 IBN9:IBN16 HRR9:HRR16 HHV9:HHV16 GXZ9:GXZ16 GOD9:GOD16 GEH9:GEH16 FUL9:FUL16 FKP9:FKP16 FAT9:FAT16 EQX9:EQX16 EHB9:EHB16 DXF9:DXF16 DNJ9:DNJ16 DDN9:DDN16 CTR9:CTR16 CJV9:CJV16 BZZ9:BZZ16 BQD9:BQD16 BGH9:BGH16 AWL9:AWL16 AMP9:AMP16 ACT9:ACT16 SX9:SX16 JB9:JB16 E9:E16" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"BANK,CASH"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4324,7 +4303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
@@ -4333,1186 +4312,1157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="18" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="13"/>
-    <col min="7" max="7" width="13.42578125" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="24.140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="151"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="152"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="157"/>
+      <c r="A4" s="139"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="135"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="130"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="29">
         <f>B11+B12+B13+B14+B15+B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="31">
         <f>D11+D12+D13+D14+D15+D16</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="147">
+      <c r="B18" s="131">
         <f>B17-D17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="132"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:4">
-      <c r="A21" s="152"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="154"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="138"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="155"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="157"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="130"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="155"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="157"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="158" t="s">
+      <c r="A24" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="159"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="160"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="135"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="161" t="s">
+      <c r="A25" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="157"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="28" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="28" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="29">
         <f>B30+B31+B32+B33+B34+B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="31">
         <f>D30+D31+D32+D33+D34+D35</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="147">
+      <c r="B37" s="131">
         <f>B36-D36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="147"/>
-      <c r="D37" s="148"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="132"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="40" spans="1:4">
-      <c r="A40" s="152"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="154"/>
+      <c r="A40" s="136"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="138"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="155"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="157"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="130"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="155"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="157"/>
+      <c r="A42" s="139"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="130"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="158" t="s">
+      <c r="A43" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="159"/>
-      <c r="C43" s="159"/>
-      <c r="D43" s="160"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="135"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="157"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="130"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="21"/>
+      <c r="C49" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="28" t="s">
+      <c r="B52" s="23"/>
+      <c r="C52" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="28" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="19"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A54" s="29"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="34">
+      <c r="B55" s="29">
         <f>B49+B50+B51+B52+B53+B54</f>
         <v>0</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="31">
         <f>D49+D50+D51+D52+D53+D54</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="147">
+      <c r="B56" s="131">
         <f>B55-D55</f>
         <v>0</v>
       </c>
-      <c r="C56" s="147"/>
-      <c r="D56" s="148"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="132"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="59" spans="1:4">
-      <c r="A59" s="152"/>
-      <c r="B59" s="153"/>
-      <c r="C59" s="153"/>
-      <c r="D59" s="154"/>
+      <c r="A59" s="136"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="138"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="155"/>
-      <c r="B60" s="156"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="157"/>
+      <c r="A60" s="139"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="130"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="155"/>
-      <c r="B61" s="156"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="157"/>
+      <c r="A61" s="139"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="130"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="158" t="s">
+      <c r="A62" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="159"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="160"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="135"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="161" t="s">
+      <c r="A63" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="157"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="130"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="15"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="16"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="15"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="17"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="15"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="19"/>
+      <c r="D66" s="17"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="54" t="s">
+      <c r="D67" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26" t="s">
+      <c r="B68" s="21"/>
+      <c r="C68" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="19"/>
+      <c r="D68" s="17"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26" t="s">
+      <c r="B69" s="21"/>
+      <c r="C69" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="19"/>
+      <c r="D69" s="17"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26" t="s">
+      <c r="B70" s="21"/>
+      <c r="C70" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="19"/>
+      <c r="D70" s="17"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="28" t="s">
+      <c r="B71" s="23"/>
+      <c r="C71" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="19"/>
+      <c r="D71" s="17"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="52"/>
-      <c r="C72" s="28" t="s">
+      <c r="B72" s="23"/>
+      <c r="C72" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D72" s="19"/>
+      <c r="D72" s="17"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="32"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="27"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="34">
+      <c r="B74" s="29">
         <f>B68+B69+B70+B71+B72+B73</f>
         <v>0</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="36">
+      <c r="D74" s="31">
         <f>D68+D69+D70+D71+D72+D73</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="147">
+      <c r="B75" s="131">
         <f>B74-D74</f>
         <v>0</v>
       </c>
-      <c r="C75" s="147"/>
-      <c r="D75" s="148"/>
+      <c r="C75" s="131"/>
+      <c r="D75" s="132"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="78" spans="1:4">
-      <c r="A78" s="152"/>
-      <c r="B78" s="153"/>
-      <c r="C78" s="153"/>
-      <c r="D78" s="154"/>
+      <c r="A78" s="136"/>
+      <c r="B78" s="137"/>
+      <c r="C78" s="137"/>
+      <c r="D78" s="138"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="155"/>
-      <c r="B79" s="156"/>
-      <c r="C79" s="156"/>
-      <c r="D79" s="157"/>
+      <c r="A79" s="139"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="130"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="155"/>
-      <c r="B80" s="156"/>
-      <c r="C80" s="156"/>
-      <c r="D80" s="157"/>
+      <c r="A80" s="139"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="129"/>
+      <c r="D80" s="130"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="158" t="s">
+      <c r="A81" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="159"/>
-      <c r="C81" s="159"/>
-      <c r="D81" s="160"/>
+      <c r="B81" s="134"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="135"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="161" t="s">
+      <c r="A82" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="157"/>
+      <c r="B82" s="129"/>
+      <c r="C82" s="129"/>
+      <c r="D82" s="130"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B83" s="15"/>
+      <c r="B83" s="13"/>
       <c r="C83" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="16"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B84" s="15"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D84" s="17"/>
+      <c r="D84" s="15"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="15"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D85" s="19"/>
+      <c r="D85" s="17"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B86" s="53" t="s">
+      <c r="B86" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D86" s="54" t="s">
+      <c r="D86" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="26" t="s">
+      <c r="B87" s="21"/>
+      <c r="C87" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D87" s="19"/>
+      <c r="D87" s="17"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="26" t="s">
+      <c r="B88" s="21"/>
+      <c r="C88" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D88" s="19"/>
+      <c r="D88" s="17"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="26" t="s">
+      <c r="B89" s="21"/>
+      <c r="C89" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="17"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B90" s="52"/>
-      <c r="C90" s="28" t="s">
+      <c r="B90" s="23"/>
+      <c r="C90" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D90" s="19"/>
+      <c r="D90" s="17"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B91" s="52"/>
-      <c r="C91" s="28" t="s">
+      <c r="B91" s="23"/>
+      <c r="C91" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D91" s="19"/>
+      <c r="D91" s="17"/>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A92" s="29"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="32"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="27"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B93" s="34">
+      <c r="B93" s="29">
         <f>B87+B88+B89+B90+B91+B92</f>
         <v>0</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D93" s="36">
+      <c r="D93" s="31">
         <f>D87+D88+D89+D90+D91+D92</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A94" s="37" t="s">
+      <c r="A94" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="147">
+      <c r="B94" s="131">
         <f>B93-D93</f>
         <v>0</v>
       </c>
-      <c r="C94" s="147"/>
-      <c r="D94" s="148"/>
+      <c r="C94" s="131"/>
+      <c r="D94" s="132"/>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="97" spans="1:4">
-      <c r="A97" s="152"/>
-      <c r="B97" s="153"/>
-      <c r="C97" s="153"/>
-      <c r="D97" s="154"/>
+      <c r="A97" s="136"/>
+      <c r="B97" s="137"/>
+      <c r="C97" s="137"/>
+      <c r="D97" s="138"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="155"/>
-      <c r="B98" s="156"/>
-      <c r="C98" s="156"/>
-      <c r="D98" s="157"/>
+      <c r="A98" s="139"/>
+      <c r="B98" s="129"/>
+      <c r="C98" s="129"/>
+      <c r="D98" s="130"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="155"/>
-      <c r="B99" s="156"/>
-      <c r="C99" s="156"/>
-      <c r="D99" s="157"/>
+      <c r="A99" s="139"/>
+      <c r="B99" s="129"/>
+      <c r="C99" s="129"/>
+      <c r="D99" s="130"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="158" t="s">
+      <c r="A100" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="159"/>
-      <c r="C100" s="159"/>
-      <c r="D100" s="160"/>
+      <c r="B100" s="134"/>
+      <c r="C100" s="134"/>
+      <c r="D100" s="135"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="161" t="s">
+      <c r="A101" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="B101" s="156"/>
-      <c r="C101" s="156"/>
-      <c r="D101" s="157"/>
+      <c r="B101" s="129"/>
+      <c r="C101" s="129"/>
+      <c r="D101" s="130"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B102" s="15"/>
+      <c r="B102" s="13"/>
       <c r="C102" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D102" s="16"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B103" s="15"/>
+      <c r="B103" s="13"/>
       <c r="C103" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D103" s="17"/>
+      <c r="D103" s="15"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="18" t="s">
+      <c r="A104" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B104" s="15"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D104" s="19"/>
+      <c r="D104" s="17"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D105" s="54" t="s">
+      <c r="D105" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="24" t="s">
+      <c r="A106" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B106" s="25"/>
-      <c r="C106" s="26" t="s">
+      <c r="B106" s="21"/>
+      <c r="C106" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D106" s="19"/>
+      <c r="D106" s="17"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="24" t="s">
+      <c r="A107" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B107" s="25"/>
-      <c r="C107" s="26" t="s">
+      <c r="B107" s="21"/>
+      <c r="C107" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D107" s="19"/>
+      <c r="D107" s="17"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B108" s="25"/>
-      <c r="C108" s="26" t="s">
+      <c r="B108" s="21"/>
+      <c r="C108" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D108" s="19"/>
+      <c r="D108" s="17"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="24" t="s">
+      <c r="A109" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B109" s="52"/>
-      <c r="C109" s="28" t="s">
+      <c r="B109" s="23"/>
+      <c r="C109" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D109" s="19"/>
+      <c r="D109" s="17"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="24" t="s">
+      <c r="A110" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B110" s="52"/>
-      <c r="C110" s="28" t="s">
+      <c r="B110" s="23"/>
+      <c r="C110" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="19"/>
+      <c r="D110" s="17"/>
     </row>
     <row r="111" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A111" s="29"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="32"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="27"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="33" t="s">
+      <c r="A112" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B112" s="34">
+      <c r="B112" s="29">
         <f>B106+B107+B108+B109+B110+B111</f>
         <v>0</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D112" s="36">
+      <c r="D112" s="31">
         <f>D106+D107+D108+D109+D110+D111</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="147">
+      <c r="B113" s="131">
         <f>B112-D112</f>
         <v>0</v>
       </c>
-      <c r="C113" s="147"/>
-      <c r="D113" s="148"/>
+      <c r="C113" s="131"/>
+      <c r="D113" s="132"/>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="116" spans="1:4">
-      <c r="A116" s="152"/>
-      <c r="B116" s="153"/>
-      <c r="C116" s="153"/>
-      <c r="D116" s="154"/>
+      <c r="A116" s="136"/>
+      <c r="B116" s="137"/>
+      <c r="C116" s="137"/>
+      <c r="D116" s="138"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="155"/>
-      <c r="B117" s="156"/>
-      <c r="C117" s="156"/>
-      <c r="D117" s="157"/>
+      <c r="A117" s="139"/>
+      <c r="B117" s="129"/>
+      <c r="C117" s="129"/>
+      <c r="D117" s="130"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="155"/>
-      <c r="B118" s="156"/>
-      <c r="C118" s="156"/>
-      <c r="D118" s="157"/>
+      <c r="A118" s="139"/>
+      <c r="B118" s="129"/>
+      <c r="C118" s="129"/>
+      <c r="D118" s="130"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="158" t="s">
+      <c r="A119" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="B119" s="159"/>
-      <c r="C119" s="159"/>
-      <c r="D119" s="160"/>
+      <c r="B119" s="134"/>
+      <c r="C119" s="134"/>
+      <c r="D119" s="135"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="161" t="s">
+      <c r="A120" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="B120" s="156"/>
-      <c r="C120" s="156"/>
-      <c r="D120" s="157"/>
+      <c r="B120" s="129"/>
+      <c r="C120" s="129"/>
+      <c r="D120" s="130"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B121" s="15"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D121" s="16"/>
+      <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B122" s="15"/>
+      <c r="B122" s="13"/>
       <c r="C122" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D122" s="17"/>
+      <c r="D122" s="15"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="18" t="s">
+      <c r="A123" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B123" s="15"/>
+      <c r="B123" s="13"/>
       <c r="C123" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="19"/>
+      <c r="D123" s="17"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="20" t="s">
+      <c r="A124" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B124" s="53" t="s">
+      <c r="B124" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C124" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D124" s="54" t="s">
+      <c r="D124" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="24" t="s">
+      <c r="A125" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B125" s="25"/>
-      <c r="C125" s="26" t="s">
+      <c r="B125" s="21"/>
+      <c r="C125" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D125" s="19"/>
+      <c r="D125" s="17"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="24" t="s">
+      <c r="A126" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B126" s="25"/>
-      <c r="C126" s="26" t="s">
+      <c r="B126" s="21"/>
+      <c r="C126" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D126" s="19"/>
+      <c r="D126" s="17"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="24" t="s">
+      <c r="A127" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="26" t="s">
+      <c r="B127" s="21"/>
+      <c r="C127" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D127" s="19"/>
+      <c r="D127" s="17"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="24" t="s">
+      <c r="A128" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B128" s="52"/>
-      <c r="C128" s="28" t="s">
+      <c r="B128" s="23"/>
+      <c r="C128" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D128" s="19"/>
+      <c r="D128" s="17"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="24" t="s">
+      <c r="A129" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B129" s="52"/>
-      <c r="C129" s="28" t="s">
+      <c r="B129" s="23"/>
+      <c r="C129" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D129" s="19"/>
+      <c r="D129" s="17"/>
     </row>
     <row r="130" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A130" s="29"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="32"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="27"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="33" t="s">
+      <c r="A131" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B131" s="34">
+      <c r="B131" s="29">
         <f>B125+B126+B127+B128+B129+B130</f>
         <v>0</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D131" s="36">
+      <c r="D131" s="31">
         <f>D125+D126+D127+D128+D129+D130</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A132" s="37" t="s">
+      <c r="A132" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B132" s="147">
+      <c r="B132" s="131">
         <f>B131-D131</f>
         <v>0</v>
       </c>
-      <c r="C132" s="147"/>
-      <c r="D132" s="148"/>
+      <c r="C132" s="131"/>
+      <c r="D132" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
     <mergeCell ref="B132:D132"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A116:D116"/>
@@ -5529,17 +5479,44 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5552,43 +5529,43 @@
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="128" t="s">
+      <c r="J1" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="128" t="s">
+      <c r="K1" s="109" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6439,46 +6416,153 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38421F9E-CBE9-455B-8A79-9D76A0429E0E}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="109" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="130" customWidth="1"/>
-    <col min="2" max="2" width="24" style="130" customWidth="1"/>
-    <col min="3" max="3" width="20" style="131" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="131" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="131" customWidth="1"/>
-    <col min="6" max="6" width="19" style="130" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="129"/>
+    <col min="1" max="1" width="24.28515625" style="111" customWidth="1"/>
+    <col min="2" max="2" width="24" style="111" customWidth="1"/>
+    <col min="3" max="3" width="20" style="112" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="112" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="112" customWidth="1"/>
+    <col min="6" max="6" width="19" style="111" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="110"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="133" customFormat="1" ht="66" customHeight="1">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:7" s="114" customFormat="1" ht="66" customHeight="1">
+      <c r="A1" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="113" t="s">
         <v>119</v>
       </c>
       <c r="G1" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" location="Reason!A1" display="Reason!A1"/>
+    <hyperlink ref="E1" location="Reason!A1" display="Reason!A1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
